--- a/Game simulations/Week 16/Broncos at Raiders.xlsx
+++ b/Game simulations/Week 16/Broncos at Raiders.xlsx
@@ -57,16 +57,16 @@
     <t>RaidersAvg. FPTS</t>
   </si>
   <si>
-    <t>JSU(-0.027242645354448477, 4.435596478622874, -0.6647468290542915, 50.20247656419441)</t>
-  </si>
-  <si>
-    <t>-6 14 -1 6 7 -2 -3 20 0 1 13 -2 -5 -13 14 3 -6 6 -13 3 8 -6 27 -2 4 3 -5 -13 3 -13 5 5 6 4 3 2 -13 19 11 -10 -6 -15 12 5 -3 10 -1 1 -23 7 10 -15 -6 16 11 -5 14 -7 17 9 -3 11 9 11 3 2 -1 -24 -14 5 -6 1 6 7 -9 -26 -24 -5 -20 6 -5 6 -7 -6 12 -8 -11 -3 1 3 10 13 7 -3 -14 -1 -13 10 17 -4 -14 3 11 -18 11 -10 14 -6 6 3 6 7 -18 8 1 7 -7 -7 -17 1 5 3 -5 -29 -18 -3 30 1 -7 -10 -13 -6 14 11 2 -2 -33 -15 -9 -6 -5 13 3 27 3 5 15 -3 10 1 2 10 3 -3 11 17 -22 4 20 8 5 3 -22 -13 0 -18 2 -4 -7 -11 -10 -3 -32 0 7 17 4 3 -11 -11 15 -5 -7 -10 0 -3 3 -6 14 10 5 -18 -10 18 7 7 29 -27 -8 -27 -7 -6 -7 3 -1 5 7 -3 6 -3 2 3 -7 2 2 13 -20 -10 -20 13 -12 3 3 2 -4 28 -7 -6 -14 5 -2 4 -3 -26 7 -9 -9 4 -8 -20 18 -8 -14 8 -2 8 -12 -7 -4 -8 5 -14 -17 -5 8 -27 29 -14 -22 -10 14 3 -13 -6 -10 14 -2 6 6 3 -3 -3 -14 17 6 17 9 7 20 4 -9 4 -20 10 -3 -20 1 -5 -11 -3 -11 -18 -5 25 1 3 15 -28 28 0 4 -7 23 -6 8 22 -3 -3 -8 -3 23 -14 -14 -17 -10 -4 -7 -15 -7 -3 4 14 -3 4 16 -1 5 8 -7 14 13 -4 -8 -6 8 -3 7 6 -3 21 4 3 10 -6 -11 -6 14 17 -17 -7 -3 -12 3 10 6 7 -5 -3 -24 -15 -13 6 6 -7 -6 -6 23 4 8 -6 6 -4 -28 -3 3 10 15 -7 17 7 3 -3 -13 -11 -1 16 -7 2 2 -3 -4 1 -9 -13 25 2 -3 18 16 -7 -4 3 -5 -6 27 1 6 -7 -7 -5 6 8 10 -22 -15 12 -10 7 6 -10 -6 15 4 6 17 -7 -5 9 -7 14 -6 -3 23 10 -7 -14 -7 -4 -3 -6 3 3 -14 -4 15 -1 12 -18 -18 5 -21 11 0 -25 -27 8 11 -4 -2 3 -13 -3 -6 4 10 14 15 -28 -3 -30 -5 -3 10 -3 20 -4 7 3 8 -4 15 2 -20 -6 -3 8 -1 -4 -10 7 15 14 6 -3 8 -8 -16 3 -3 -7 6 13 17 -6 -7 -2 3 -4 -3 -7 -15 -13 21 6 3 -7 -1 19 -15 -16 -8 -3 28 -22 -11 3 7 -8 9 2 1 -19 2 -17 -15 3 18 -6 -29 -20 -3 7 4 16 19 -3 -14 15 2 -4 -3 -4 -13 -3 9 -26 15 -5 6 17 -6 4 -3 -11 -17 5 3 7 21 -2 -9 4 -6 8 -5 17 14 -18 4 -14 8 -19 -5 -13 -3 17 16 -3 3 3 -13 -10 1 6 -3 -11 8 -10 -3 9 20 21 7 2 12 -5 4 -16 -7 6 -28 1 1 14 0 -8 0 5 -11 17 -24 26 8 3 6 -18 -32 13 18 -8 -2 15 -18 -6 -7 25 -12 6 5 15 -9 -17 8 11 11 3 -24 -15 -3 14 -15 -18 -12 10 1 14 -4 -16 17 -3 6 -3 -5 24 3 -2 -5 -17 19 -9 3 -20 18 5 -13 6 17 3 4 -9 -6 7 -10 -21 31 -27 25 4 16 -1 21 3 5 14 -8 6 -37 13 27 5 -3 3 -9 11 4 -11 5 -4 28 5 3 -2 -7 11 6 -5 -11 -3 8 6 -17 3 6 14 -14 -9 3 18 -11 -17 5 10 12 4 -5 -3 -8 11 3 -7 -4 4 3 3 -23 28 -1 -3 -6 -24 8 1 -5 -3 -3 4 -20 -3 1 3 17 4 27 10 -4 -18 -3 -3 11 -10 -1 4 3 -3 -15 15 -21 23 -18 -3 -1 -13 11 -3 5 14 16 -10 4 4 12 -3 4 -4 11 -23 7 -11 -10 -1 1 -19 -6 6 -9 -6 -3 -10 6 -10 -18 3 -6 17 -3 6 17 4 6 -13 4 15 7 -10 12 -13 7 -7 7 -6 13 7 -25 -4 3 -26 -22 -6 -17 -8 -3 17 -14 -6 -5 -17 -13 -3 16 -11 -3 8 9 -7 -14 -18 -5 -27 -6 -3 4 -11 -28 2 -10 -3 -1 7 3 -5 6 -20 16 -24 -2 18 -13 13 3 -16 3 18 -10 -6 14 -11 10 7 13 -10 -11 -27 3 14 -4 -2 12 1 10 -14 -3 -28 -2 6 -3 3 3 4 6 7 -27 -9 13 -20 10 39 8 12 8 1 11 -6 9 -1 -28 -14 -5 9 -4 17 -25 7 6 -6 10 17 -14 5 11 -3 -4 -27 7 9 3 7 -3 11 -5 -13 12 2 -15 -7 -14 14 24 -19 -8 14 5 3 8 8 7 21 20 -7 9 -21 9 -5 -3 -18 -6 -5 4 -13 -7 20 1 -9 3 3 7 19 5 -5 -7 -4 21 -14 -3 -1 1 -3 -10 -11 20 -1 8 -10 -17 -2 -3 -3 30 -6 -15 -2 -9 11 -2 7 4 6 7 -1 -2 6 -4 -14 -3 -19 10 -1 19 8 6 -21 2 11 -7 7 -3 17 13 -3 -5 -6 -6 -10 8 9 -23 10 -15 -6 -24 -16 4 3 -12 -4 4 -7 11 15 -7 3 -3 -7 -5 -4 -10 -34 13 10 2 -7 -8 -8 -4 3 3 6 -6 -15 14 -3 1 -10 -3 -15 20 -14 -7 -13 -10 -17 -14 -3 -3 12 -2 -5 -11 -1 -6 -3 14 -7 -5 -15 -9 -3 -4 -18 -4 -4 -4 -5 -4 3 -5 11 8 -10 15 -5 3 11 1 -27 -7 0 -19 -6 7 -6 -4 3 -8 -15 -1 1 -6 -6 -6 14 10 2 6 -3 4 -4 3 3 4 4 14 4 11 14 2 6 -6 -2 -3 -8 7 -4 8 -17 -19 -13 10 -20 -4 -1 -5 14 -3 -12 -3 -7 -5 -6 10 6 6 -3 7 -10 35 15 7 -5 10 -8 -3 -10 -3 -5 6 20 -24 -3 7 -7 -8 -5 -6 18 4 -11 3 -3 23 7 -10 7 -9 -3 -5 -3 -10 11 21 -8 13 5 -3 -16 -9 2 -3 -2 -2 3 10 -11 -2 18 -25 -4 6 -4 3 7 -14 2 -10 -5 14 -12 -7 -11 -8 15 9 -7 -7 -3 0 4 -3 4 -1 -18 3 12 5 3 10 -7 3 -4 -8 -18 -12 7 20 6 -6 -3 26 4 4 3 -5 -14 15 -10 24 15 -7 -13 10 -8 -10 -5 -8 4 -10 3 -4 1 -3 3 2 3 6 -20 10 -1 8 -6 -34 7 3 18 3 -6 -17 -6 7 5 -14 -3 5 3 -7 -16 -3 -20 23 8 22 9 14 6 -1 -6 -4 2 -7 21 6 34 21 21 -3 -14 8 -11 -6 -12 -28 -24 -7 -3 -6 -4 -41 3 3 3 16 2 -1 15 0 -3 -7 9 14 1 5 -12 -10 3 -7 -11 1 13 -3 10 12 16 -8 -14 -8 -31 -3 -5 -3 -5 17 18 3 7 -16 5 8 6 1 -4 -14 -28 -6 -20 -10 -10 -14 -17 1 16 11 3 7 -10 -15 -8 4 -7 -10 -14 14 -6 -17 -6 -12 -11 -23 -28 -7 3 -10 29 21 3 -21 -8 3 -3 -3 5 6 -8 5 16 -3 -3 8 -3 -8 3 -4 3 -28 10 -19 -3 -5 -7 -7 1 -7 -13 3 3 -3 26 16 1 9 -10 21 -11 1 16 -3 3 5 1 -24 3 -2 6 -5 13 1 3 -7 9 1 15 -2 3 -17 21 18 -3 -25 18 -3 6 -2 -14 -9 -10 -10 -28 -16 -18 -25 -13 4 20 18 2 -3 -19 -4 2 -27 -3 1 -2 -13 11 15 3 5 7 -13 25 20 11 24 1 -18 17 -17 -11 14 -1 3 -5 -5 -27 5 8 -9 10 -3 27 9 1 0 -8 -14 -3 -14 6 -17 12 5 -6 -2 -16 -3 -9 4 -7 22 4 -9 -26 -6 2 -6 6 3 -21 -11 0 7 -26 11 -7 5 1 24 -13 6 21 -8 6 -7 -5 17 -3 -13 1 13 -2 11 20 21 20 14 28 1 7 10 12 -13 -5 27 -17 7 39 -4 3 -3 14 -6 24 3 -21 3 -3 -1 -8 -10 2 -6 25 -2 5 3 -6 -11 3 -7 -19 8 -24 -21 1 3 -6 4 -2 7 5 -6 -1 15 -22 6 -6 24 -3 3 1 -18 15 -17 -3 -6 4 10 11 -19 26 7 5 -6 -16 28 4 -10 16 8 8 5 -25 8 3 -8 7 5 -21 4 7 -2 -3 1 13 -17 16 6 11 -1 10 23 -10 10 3 14 -10 6 23 -20 -19 -4 -10 14 7 11 19 -17 13 4 -15 -18 -10 -15 -7 -10 11 3 24 -5 -2 5 -8 3 -2 3 -8 -11 3 -22 6 12 -6 3 -14 -19 -10 -22 19 6 -8 -3 1 14 -8 3 7 21 1 11 -9 -1 18 6 -11 5 -14 7 10 9 7 3 -5 8 -5 -11 -20 -2 7 23 -5 3 -6 11 -7 1 -5 -2 -6 -16 -6 7 7 28 -24 2 -19 -4 -12 -7 -8 -1 10 -21 -20 -3 -19 4 -4 3 -11 11 -21 13 -1 -4 3 -21 2 -17 -6 -1 -14 3 3 17 -17 -14 3 3 4 -3 -20 13 3 -6 7 -7 -5 -6 -3 3 -16 28 -11 -7 -12 -3 -7 12 7 3 -7 11 -19 17 -8 17 7 6 5 -13 11 -10 -5 6 10 6 -8 -6 -7 -3 -16 -7 -3 -9 -18 4 -14 3 -21 -10 3 -18 -5 -3 -16 -23 5 17 -3 -6 -3 -9 3 24 8 29 -7 9 2 -1 5 -5 6 -8 -2 6 10 24 41 10 -12 13 8 1 8 -6 10 -7 3 25 9 2 -28 6 -3 -34 6 -17 6 -4 -7 12 3 8 -2 -9 6 5 -3 6 -3 3 -3 3 -10 -2 11 8 -8 -7 -2 -6 -5 6 -14 -3 -10 -28 17 -3 16 12 -10 -13 -24 3 3 0 -21 19 15 3 -3 10 -11 7 7 -12 -13 -20 -16 -10 4 13 2 -20 4 21 -10 24 -2 -19 13 -3 17 -21 -3 -12 -8 13 -13 7 -7 -4 7 -4 5 3 8 -23 -14 2 -4 -22 14 12 -14 6 -4 4 10 -1 6 -12 -5 9 -2 10 24 4 5 -18 -20 -1 -2 -2 22 3 5 -4 -6 8 27 -17 -24 14 -3 2 7 -2 -6 -4 14 -3 10 14 21 -5 -7 -3 6 17 2 16 6 3 3 17 3 -26 4 -10 8 4 -7 -6 7 -3 -10 -9 31 -3 7 6 -3 -1 3 7 -12 3 1 -10 -1 17 5 3 2 -7 -8 -18 -12 5 -4 -6 -6 -3 -3 -17 -9 -6 -10 5 -8 -11 -3 -3 -4 -13 14 -11 -17 -2 -28 19 -7 -8 18 16 9 -22 -11 -12 -7 -6 4 -5 -1 0 -6 9 7 3 8 3 17 3 19 14 18 -3 -5 -8 -11 -4 7 -3 20 19 30 22 -13 -9 6 -3 -15 -15 14 -11 -6 0 2 15 14 -11 21 -10 -25 -3 -4 3 -11 -3 30 7 3 -10 -5 4 4 -4 -3 -2 -10 -8 -4 -3 -4 7 10 7 -19 -5 -6 -6 5 -20 4 -4 -8 5 -10 -3 4 31 -13 -12 10 -4 7 -3 -13 1 -13 19 14 -14 3 -26 7 -3 -16 18 6 8 6 6 -11 4 21 -8 18 -13 14 6 18 -9 -3 12 17 -1 -2 16 -16 14 -5 8 -7 -3 -10 -6 -9 11 -10 7 -7 -7 26 -10 3 9 -17 15 -34 8 3 5 -3 1 -6 3 1 2 9 7 -2 -8 7 -20 17 -5 4 14 -13 4 10 3 1 -32 6 -14 -26 20 -3 -14 -6 -10 -3 -3 6 -2 -3 -3 3 6 -5 -3 -2 -3 8 2 -7 7 -7 -3 -2 -1 -10 4 5 -20 -7 -7 -3 -2 14 -7 -28 -10 4 24 3 -36 -6 -11 14 0 7 15 -5 14 -2 2 -2 -13 -27 18 1 35 23 -6 -14 -21 -10 -3 7 -21 3 3 -14 -7 -17 11 16 -3 -3 18 -9 -24 -17 4 0 -3 7 -2 -6 3 -3 4 3 12 16 2 10 -31 1 -8 3 -25 5 10 1 12 -3 -7 -2 -3 -6 -2 -5 11 -2 7 15 -2 -17 6 -25 -3 29 -9 18 -34 -3 -14 20 3 -1 -6 10 -3 14 11 7 -5 6 -13 18 3 -10 18 4 7 27 12 25 -3 -3 10 -2 3 -9 -8 7 3 9 -7 -14 -20 -7 3 -14 -1 -8 -2 14 14 -2 -6 -6 21 7 4 18 -14 2 -14 11 -21 -1 7 3 -18 -32 14 -10 -7 1 1 -2 -10 17 -10 -8 -5 6 18 -9 -22 -5 -7 10 7 -10 -8 10 3 -4 18 11 24 -7 3 -18 -2 -6 3 3 17 20 -3 -1 -7 17 3 3 10 -14 -8 -3 -5 -12 3 -3 15 3 3 3 -1 6 -14 21 -6 -7 -6 -3 6 -10 5 5 -20 9 -6 14 -7 7 -5 -6 -7 21 7 -3 -2 -14 2 -6 3 -3 5 10 -3 3 -4 -23 3 3 1 -4 3 3 3 -14 -3 -3 6 7 0 -9 -10 15 -10 -18 3 -13 -9 8 5 -17 -5 11 -13 3 4 -32 11 3 -10 -2 4 -17 16 -7 6 7 3 -20 -13 -2 -17 -10 -5 15 -21 -7 -7 -20 -3 -1 3 -6 -24 -6 10 -14 -17 17 -17 15 -6 -6 11 -7 -6 4 -17 13 0 -7 -3 -24 -18 -7 6 1 -11 1 18 3 3 -8 27 -23 -10 14 3 -1 -17 -2 16 -3 7 -3 -15 -41 16 10 -3 13 -6 -21 3 -3 3 -4 10 17 -24 9 5 5 -6 11 3 -3 -3 4 20 4 -7 -12 9 -4 3 3 10 3 20 -4 -1 0 -3 2 -5 -9 30 -12 2 5 -7 17 3 -3 -17 -6 11 3 -15 3 7 8 -11 10 -20 9 11 -6 1 3 16 -11 -10 9 -5 7 -3 2 -6 -13 5 5 3 2 7 -12 24 4 -3 7 12 -6 -3 -4 -1 14 20 -11 7 3 -17 -3 -3 -5 17 5 7 -5 -4 -3 11 -1 18 12 8 -3 -2 -8 -8 4 18 -3 -3 -24 6 7 8 -5 -3 5 -3 4 -2 -27 -9 -7 -7 3 -14 6 -7 -11 -6 -26 31 13 -5 10 24 -3 16 -18 -13 4 -8 -16 3 21 -10 -8 -3 -6 1 -8 -7 7 -13 3 -21 -5 13 -4 -2 -6 -3 7 7 7 -7 -3 15 3 -5 3 -28 -5 -3 -7 -11 -4 -9 -15 5 22 -5 -3 -3 17 -8 7 -7 -16 5 3 -6 3 -2 5 -11 -5 -4 -3 -18 -5 -16 23 18 -18 3 14 7 -5 8 20 -6 -3 5 -10 -10 -9 11 -5 -3 13 7 1 -8 -4 3 7 3 17 -18 -4 -13 -3 -14 -10 -1 -4 -7 6 3 3 1 13 -22 -19 21 -19 -3 0 3 -6 3 6 -4 1 3 -3 -8 -5 18 7 24 -11 7 -18 -14 4 17 -4 0 -9 -7 -14 -21 -13 1 -7 -13 3 -9 28 -8 8 7 -6 3 -5 3 7 -5 12 -6 3 -17 10 5 24 10 13 -5 1 28 -14 -3 6 -17 -16 13 -3 -5 -15 13 -15 9 -8 -17 -3 -3 -6 -7 -5 2 1 6 -11 -7 -6 3 -5 10 -20 3 -14 8 8 -7 -16 -3 -3 27 4 6 -4 -25 27 -3 -6 10 -6 -11 -6 12 3 -16 -11 -11 -8 -16 -27 -9 -35 3 31 4 15 -13 3 -6 7 1 10 7 23 -7 -23 -25 22 3 -2 4 -14 29 -12 -8 -10 -8 -7 -3 -13 -6 14 -24 -6 -6 18 12 -5 1 4 9 -6 14 -3 14 -18 -14 8 -15 3 3 8 1 2 -14 14 7 -20 -22 6 3 22 12 8 -19 2 13 -12 -34 11 -6 -32 20 -4 -3 -23 -2 14 19 -22 -4 -20 19 3 20 13 -1 4 4 -9 4 -2 -10 1 3 9 1 32 3 -11 8 11 5 -14 -3 3 -6 -3 14 -4 -10 -9 -10 7 10 6 -17 -9 -9 -24 -3 -7 -1 5 -6 6 15 18 20 3 6 -3 -22 21 17 -6 5 -13 11 -3 2 3 -3 -32 -12 -26 -7 3 -20 -14 14 -10 -13 4 3 10 25 -3 7 15 14 5 -7 11 2 -3 -8 -10 -1 -3 3 6 7 -5 -3 -14 6 -2 -7 8 -10 -2 -12 -14 -14 -1 -26 -5 17 4 -2 10 -6 -5 -20 7 -5 5 7 -3 -6 7 4 -18 -10 -3 -27 -3 -12 -17 1 -7 6 -10 4 -15 18 16 -11 12 -3 -6 -15 7 12 -6 -7 -11 3 -8 -1 0 4 -6 -8 24 4 10 -7 -6 -7 22 -14 14 3 -17 3 -2 1 -18 -5 -3 -11 -10 -17 13 3 10 6 9 -6 -35 12 -14 -3 -30 -27 -5 -8 -7 6 13 -24 -2 17 -12 -7 -11 -10 6 4 -13 24 7 10 28 11 10 14 -8 -3 -18 8 -2 6 12 12 -6 -2 13 7 7 -13 3 -3 -16 6 7 0 -10 16 12 -4 -4 -4 17 3 6 9 -1 25 -11 -41 -3 -10 -18 -3 -7 -3 -6 3 7 -10 3 -8 3 -3 -5 -3 6 -25 -3 10 11 11 14 11 3 -11 -14 15 22 11 -15 6 -3 15 -14 3 -1 -4 -9 -7 -12 -3 3 8 -3 4 -4 -4 9 -9 26 2 -21 -1 -3 -20 4 17 -6 9 -13 3 -3 1 -6 -3 -15 25 -6 4 6 0 6 9 12 0 -3 2 14 10 18 -21 -3 10 14 -15 11 14 -6 20 -4 -13 6 4 -3 -7 -20 3 -9 -24 11 -14 17 4 7 4 -7 2 0 -5 -3 15 -12 -21 0 11 10 -15 7 6 5 -6 -14 -3 -17 -13 -20 1 9 -8 -7 17 -7 3 -7 22 12 -10 6 15 -11 -28 -3 -2 -23 2 11 -10 11 -6 -1 -28 -8 -12 1 -4 1 4 -9 -22 4 9 6 7 2 -4 11 5 -19 6 11 4 -10 -22 -28 -21 4 7 -21 7 -7 5 7 -1 8 13 25 8 6 -3 3 -6 -7 -11 3 8 1 -19 3 7 -6 -10 -10 6 13 -2 5 -13 -11 15 -6 17 4 -2 -17 -27 -6 1 -11 -3 -21 -3 11 -27 -7 14 7 -24 -20 4 0 -10 -7 -6 -4 -15 18 -6 -20 4 -8 -5 -5 -17 19 15 -3 3 14 -7 -7 -8 10 -7 5 -22 -10 30 7 17 3 5 14 10 21 8 -17 -12 3 18 7 7 8 21 14 14 14 -29 -3 1 19 -22 13 6 -1 16 -3 -6 -14 -9 -2 -10 -9 -20 -10 15 -1 14 4 -2 -1 -8 -9 -2 -9 5 -22 -14 -3 8 14 -20 4 -3 12 -7 1 -1 -22 14 3 -18 10 4 -21 3 15 7 15 11 -7 -21 -5 24 -21 -8 3 17 9 10 -11 6 5 24 3 -5 -3 5 -4 -21 -7 -6 7 -15 -3 18 8 3 8 15 -3 -3 -7 4 12 -9 -15 -6 -15 -3 11 14 8 -3 -6 15 -5 -3 -7 -3 3 -7 11 -7 -3 7 -7 2 -3 3 -13 13 6 -24 -10 -18 -2 -3 21 -17 11 -19 -29 -2 -4 -23 11 14 -4 10 31 10 7 -2 3 21 -24 10 7 -35 3 -6 12 -3 -9 15 3 -18 -17 16 24 17 24 1 6 -28 -14 0 14 -15 -5 3 14 23 12 -3 4 -14 -1 -1 -8 9 -7 3 3 -5 1 -2 0 3 8 3 -2 -23 -12 15 3 3 -4 -25 -7 -17 -20 -31 -17 -16 6 20 3 -5 7 -3 -6 -6 -1 3 -8 28 -27 7 3 3 -3 -3 -3 4 3 6 3 -2 2 8 4 0 -3 -7 23 -6 0 13 -10 -3 18 21 5 -3 39 6 18 -3 3 1 -5 2 18 7 -11 3 7 3 7 -3 -1 -18 4 14 -10 4 -8 7 13 -14 1 9 6 14 4 -21 -13 -6 11 -3 -3 7 6 -6 4 -8 -10 14 22 12 -5 -12 17 17 3 4 -11 -6 2 -3 4 3 6 10 14 -3 -18 -7 17 -9 6 -6 10 -10 -12 -10 5 -5 -7 -2 10 23 -11 1 14 11 -7 28 13 22 6 10 4 14 33 -6 -4 7 23 8 -4 -8 -6 -2 9 -7 -9 -14 -7 -9 -4 -6 -15 10 7 3 1 6 21 -17 -14 -17 -14 -17 -6 -14 -4 18 12 -1 -3 10 -17 12 12 -7 -10 -6 -7 -4 -3 -5 13 9 11 6 -6 3 19 -11 -12 -6 6 -7 7 6 14 -6 7 -15 -21 -19 7 -7 8 2 -20 3 -7 -7 -10 1 -6 -3 18 -13 -10 38 2 -4 -3 3 13 22 13 -3 6 24 -3 17 7 21 9 -3 -9 7 -5 5 -15 26 -13 -17 -13 7 9 12 -13 -3 25 10 -4 -9 5 10 4 3 3 2 12 6 -13 7 -7 8 0 6 -10 6 -3 -5 -10 18 -1 14 -9 15 -8 18 16 -4 -7 -3 1 17 10 5 9 7 3 -9 -6 -3 10 1 15 3 -3 22 8 5 -10 2 -13 -1 -5 15 18 17 -7 6 -15 -17 -7 -8 -17 9 2 -6 -1 3 -7 -3 6 7 17 -13 18 -17 3 3 -15 15 4 -14 3 -17 7 -3 3 -3 2 -3 -6 4 -9 -13 13 -3 3 -1 -10 12 17 12 3 -4 -3 0 12 -12 -6 13 15 16 -4 3 6 9 21 15 3 14 6 -7 -12 -1 -3 1 7 -6 13 14 -2 -8 5 -10 0 17 -7 -3 6 7 -6 -9 -7 -11 -3 -10 1 21 -5 -13 -5 -23 10 14 2 -17 6 8 14 -6 -21 -12 -7 -5 -21 2 11 10 10 3 6 -17 -9 9 8 3 -9 -3 -10 -7 -10 7 10 15 4 11 -10 4 -3 4 5 13 -3 -6 -3 9 4 5 -2 -3 -11 -4 -30 -25 -10 6 7 6 4 3 -3 -8 3 10 -6 -25 1 -3 20 -5 8 24 -8 7 14 -8 9 -27 3 -4 -5 10 2 -17 6 -7 4 6 3 -8 -7 -4 3 3 10 -17 6 3 2 -2 -22 8 -2 -2 -7 5 6 5 -4 7 3 -14 -6 -4 -9 -11 5 -8 12 -7 31 8 -2 21 -16 10 -6 -8 -3 23 -2 -1 -3 12 7 0 -3 -7 -26 -3 -2 -24 -7 -11 3 -4 -13 -20 -21 -14 -7 -4 -14 -10 14 -11 -14 -22 2 3 -7 -6 -3 2 3 -14 14 9 -10 7 3 -6 -7 -3 -12 18 -3 8 9 2 -30 -3 6 4 -15 -1 -1 -2 15 7 5 -4 12 -6 4 2 11 -6 -7 -9 -4 4 3 -1 17 -2 -3 21 -7 21 -3 0 7 -6 2 4 -19 11 -4 20 1 -18 10 -6 13 4 10 10 -5 8 20 -30 1 -3 4 -23 2 6 8 3 -2 16 -5 8 -3 -18 -3 -17 -11 -3 15 -20 -2 -2 1 4 4 3 -3 -9 8 17 15 0 1 9 3 -2 -6 -9 5 8 -22 10 -7 -4 3 -3 13 -9 -11 6 -3 3 -7 3 -5 -3 6 -8 3 7 -14 4 3 -8 -6 -3 1 -3 10 31 32 1 19 -20 6 6 6 -9 -3 13 4 -11 -9 -24 19 -22 17 23 31 -31 -18 18 5 10 17 -3 1 9 14 -3 -10 6 4 1 8 6 -5 -3 -17 -10 14 -21 9 17 -6 -6 8 25 5 3 12 2 -23 -6 9 -11 -2 3 -3 -10 4 13 3 8 3 -3 10 5 2 6 1 -1 1 14 -24 -25 20 17 -16 -20 14 10 1 -7 -14 7 -3 -9 0 3 -13 -7 -13 -4 5 14 4 8 3 -3 -6 -13 25 4 -4 -17 30 18 3 5 -3 -7 -3 13 7 -10 13 -3 22 -15 -21 8 -14 -5 -10 5 -2 24 -10 7 -9 5 12 -24 -28 -14 -3 -13 -10 -7 -6 11 16 -4 6 6 11 6 -22 -3 7 -8 3 -4 15 -7 2 11 -3 4 5 -6 6 -6 14 9 4 -6 -17 -17 7 -21 -6 -4 3 2 -5 -3 -7 -3 -28 4 -17 11 5 0 -3 -16 6 1 -10 -3 -14 13 -3 5 -16 -19 14 -3 3 1 -4 -20 2 -11 2 -4 26 17 16 17 -23 -3 7 -7 3 -5 -2 -6 -3 29 -8 5 -7 15 -21 -21 -11 13 5 -6 9 -14 15 -5 16 32 6 -2 -14 3 1 8 5 -3 28 -10 -18 -2 7 10 11 -17 6 -14 5 -11 -8 4 13 26 8 -14 3 8 7 -1 0 -1 -3 -21 -25 1 -25 18 -9 4 -16 28 13 -20 15 10 -3 -4 -18 7 -3 -7 3 11 9 15 -13 -3 -14 -26 7 0 5 -14 -12 -2 -3 13 -12 21 -4 8 -6 2 17 17 3 3 3 14 10 -17 -6 27 -6 6 -20 10 -3 17 -7 -5 -17 -2 4 -21 6 11 0 -10 -3 -1 -3 -6 1 -3 6 -9 6 6 -4 -4 -1 4 2 -10 0 9 4 3 10 -4 3 -4 -10 -23 -10 3 -4 5 -13 -1 -21 -12 -3 7 -5 -12 11 21 -6 15 11 7 4 5 7 -6 12 3 -22 -7 0 -3 2 2 -20 7 6 -2 1 -17 -3 -8 -27 -10 5 -13 -6 -14 -12 -3 -13 -3 -8 4 -6 -9 -18 14 -3 -1 1 3 -10 -16 7 -3 -3 -22 9 -1 -10 -10 3 3 -2 24 6 8 19 4 2 -9 -2 -4 -4 -3 -13 6 -10 27 1 -6 -3 11 -10 4 17 -3 1 7 -3 -14 -2 6 -17 3 -14 -2 -4 7 -2 0 4 -17 3 -10 7 -3 8 4 -1 -5 -2 -3 4 -21 1 -14 7 -7 12 2 24 -4 -10 13 -3 13 24 7 2 -12 24 12 27 -6 3 3 4 14 -7 6 -4 11 10 6 -7 -8 -11 8 7 -10 7 -3 -14 12 -6 13 2 5 6 -6 3 31 11 2 -19 17 33 -7 -6 30 1 -6 -14 3 -3 -3 -31 -9 3 3 -17 1 17 1 -6 10 -3 -2 7 10 18 -10 6 10 17 8 14 -3 -6 -5 3 -3 11 9 30 -3 -5 2 3 4 3 -32 3 -11 -2 -6 14 14 -8 -14 -10 3 -14 30 13 2 11 -7 14 -1 7 3 -6 -10 7 21 -5 -13 -3 14 -15 -13 4 18 7 -1 5 12 3 -25 4 -3 7 28 -2 5 17 3 12 -20 -9 -7 7 -7 4 -10 8 14 4 -19 -5 -3 -7 8 13 -4 -19 -3 -6 11 5 -16 6 3 4 -3 -4 -3 -9 -6 3 -5 -10 -3 -6 6 3 3 3 15 -3 9 -1 -3 -3 -3 -13 21 -3 7 -6 -6 6 -11 10 -6 28 2 4 3 15 10 4 -5 8 -17 -6 4 13 4 -22 18 -3 -10 18 7 -8 16 0 8 -13 -6 3 -14 2 20 -11 10 3 3 3 -10 8 -17 -14 -10 -4 -5 0 -17 -6 -4 -1 3 10 3 4 -2 14 -12 -19 3 6 -3 2 -7 -1 3 -6 -1 -16 -3 11 0 13 8 -4 3 6 -2 -3 -9 10 -10 3 -17 6 14 -3 3 2 10 -7 2 7 -3 -11 -1 11 -10 6 3 7 -3 17 -3 3 17 -11 -3 4 -21 -7 -7 -21 -11 -17 -7 -11 -6 -14 6 -11 -13 -5 7 -11 -18 10 -14 -2 3 1 14 -9 7 5 11 -7 -19 -16 7 4 33 -6 14 3 -16 -6 9 4 -13 7 -4 -3 2 -25 13 9 24 3 4 -11 -7 13 -16 -2 -7 -34 -4 3 -7 -8 3 -19 -9 -12 -6 7 -17 -7 -10 13 16 -16 -13 31 -6 -9 -11 -19 -9 -16 1 31 24 -3 -10 14 -4 -11 7 -1 -4 -31 16 -5 10 4 -10 -7 13 -3 -4 3 3 -16 -3 13 24 6 -6 -6 6 -4 23 6 -6 4 -7 -28 -2 7 -8 -24 -7 3 13 -3 -3 18 5 -14 6 -5 6 18 1 3 -10 -14 11 -16 13 21 2 9 6 -7 8 -4 -3 4 17 -2 -14 -5 10 -6 -19 1 6 -10 5 -13 6 8 -13 3 0 -3 11 5 -3 3 17 -3 7 -3 3 -3 -4 7 -15 -4 -6 3 12 -3 -4 -13 -13 28 -10 -23 -3 -10 -6 5 6 -2 -8 11 10 -19 14 4 7 -16 17 20 -13 -3 -31 -24 -23 -4 -7 -6 -33 6 -1 -14 -25 -3 11 -3 6 -17 -7 -16 17 4 -3 28 7 3 -3 -5 -14 10 -7 -9 -13 6 9 -7 7 4 -3 -23 7 2 -14 -2 -12 4 -2 -29 -4 -7 7 19 -8 -5 -4 -25 -3 16 14 3 -12 -1 -2 -6 -9 21 -2 10 -11 6 4 6 3 3 -18 -14 11 22 -3 10 -3 13 -11 3 4 -18 3 13 19 15 -1 -17 14 -7 -24 15 3 18 -18 18 13 16 -24 -4 -12 -25 11 -3 -4 6 -3 5 1 -6 -15 0 -8 14 13 17 2 -15 4 5 3 -11 7 17 -7 3 8 -4 -21 -14 -5 -3 -11 -10 8 14 14 13 -17 -13 -14 -3 -20 6 -30 7 12 2 -17 -17 25 3 8 6 -7 -2 5 -7 -24 -3 4 3 8 -17 -3 16 -3 -12 2 1 3 -3 24 3 5 4 12 -14 -12 4 -5 18 10 -7 15 8 -3 -4 11 2 6 25 -7 -7 9 11 -3 3 -22 -11 -10 -10 -3 7 11 -14 3 34 -3 31 -17 -4 17 -3 1 -17 -5 -14 24 3 -3 -3 -10 -19 11 -15 -14 -7 -22 -3 19 -3 -3 -5 17 21 6 16 13 -5 -9 0 11 9 -8 1 -6 -5 -10 -17 14 -3 11 -11 -3 14 -3 -3 2 -20 -9 4 7 16 9 2 -4 21 10 -24 11 -7 12 2 3 -9 -18 -15 -11 -19 -7 3 -6 5 3 5 -3 3 7 11 -8 -9 -6 -7 -4 -3 6 -5 -3 -7 1 6 -9 -3 11 -7 4 -3 9 18 23 7 7 -15 -5 27 -17 -14 -35 4 3 13 -8 -23 3 -3 -23 -11 -3 -8 16 -9 14 -7 -10 -6 8 10 -11 4 1 -5 -17 3 3 8 -3 4 -6 19 17 -18 3 -25 -14 -11 17 1 -21 3 3 18 -9 6 6 -5 -3 4 15 -11 6 9 -6 6 -5 33 1 -14 -5 -8 1 -6 -10 7 26 3 -12 -29 -16 0 -10 -3 9 23 -8 4 6 -14 10 -7 -1 -14 -7 22 -7 2 -6 -6 -3 -10 -4 -42 3 -7 -3 4 3 10 18 -6 -8 10 10 -25 1 -3 -10 -15 -14 -1 14 5 -6 -4 -8 22 -12 -3 -39 -3 11 15 -2 18 22 -3 1 -15 -17 17 -6 -4 -4 -12 2 13 -1 8 1 -18 3 -25 6 -17 -24 19 -5 19 3 -7 -11 2 -8 -3 -3 -14 -9 -14 1 -5 13 -3 10 -6 -6 3 -15 -3 -7 14 -17 10 2 11 23 21 5 -24 7 10 10 -3 10 11 7 -11 -14 21 6 0 8 6 3 2 8 9 21 14 19 10 -4 22 0 22 -3 -16 -3 -3 7 -3 -6 14 9 10 -6 7 -31 -6 9 -6 16 30 25 3 -1 14 -18 13 -17 -5 -6 -17 -6 6 -15 1 -20 14 10 4 3 2 12 0 -3 14 -19 -3 -3 -24 -11 -3 11 -8 7 -5 2 -10 -21 1 17 3 21 5 -6 -14 -15 -3 6 -18 -5 15 -4 11 10 -8 16 -9 -5 -10 3 -6 -3 17 13 23 1 -13 6 -7 11 -6 -11 23 5 8 -3 4 -2 -10 12 -11 10 -23 3 -1 2 -2 6 11 -6 -3 5 3 -11 5 -17 -16 -3 -4 -9 9 3 -2 -9 24 0 -21 7 13 -3 -9 4 18 4 7 6 4 5 9 14 -11 -11 5 32 -9 -25 3 4 -3 6 4 17 3 9 1 -11 10 5 -15 -5 3 -30 3 -6 -14 5 -15 3 3 4 -11 -6 -3 9 -3 -2 3 10 -22 8 -17 9 10 12 3 17 -3 -1 -14 9 10 7 2 -7 3 3 14 9 11 16 -7 -2 -11 1 6 6 -7 -14 21 -8 4 4 7 4 2 -14 3 7 -7 17 5 -5 3 -12 3 20 -3 -6 -1 10 13 -7 -26 5 17 -6 -15 -13 25 -7 -17 4 -3 -10 -5 -13 7 2 16 -14 -6 -3 12 14 2 3 28 -1 4 4 -3 -14 -6 10 10 13 17 -3 -20 -21 -15 6 -23 5 3 -24 -11 -3 16 -18 13 28 -10 18 3 3 5 8 26 -3 -3 4 25 -3 21 13 -6 -8 -3 -6 -3 12 -3 3 27 -3 5 2 -5 28 5 -9 16 -17 -9 45 -3 13 -4 13 17 15 1 3 -6 17 -2 -6 17 -3 -14 -6 30 17 8 11 -11 3 7 11 -6 -6 1 -6 -4 16 -24 -20 4 -14 -14 -10 3 6 -17 7 -2 25 18 -8 -3 -17 3 21 1 -18 9 -10 -7 6 14 16 1 -3 -6 -18 5 -9 7 -3 8 3 -1 10 7 -7 17 7 -3 -4 -5 4 -24 -3 21 -7 2 5 -17 -21 -3 -4 14 -1 11 31 3 3 -21 -15 6 -6 17 1 2 1 -22 11 -3 22 0 26 10 -3 19 -1 -4 -6 16 27 -8 1 9 -3 23 -16 3 3 -8 3 -2 -3 -6 14 -8 -3 -6 -6 -3 -11 -7 2 -4 -13 -3 3 0 -4 6 -14 5 8 2 -6 3 -8 4 -3 -3 -4 7 9 5 -14 -7 -13 -3 -4 4 -9 3 17 -14 -3 0 -6 3 10 -11 7 -10 -12 -20 4 7 6 -2 -3 -4 6 6 -17 -3 -6 -7 -7 -10 3 7 -9 25 15 -14 -14 25 3 -7 3 -4 -15 -11 28 14 -17 27 -7 10 3 -4 -10 -31 6 -3 14 -2 -2 -22 2 -27 3 -17 27 3 -5 -22 3 -7 -2 14 3 4 -3 -28 10 -12 8 -7 -4 -6 -33 3 -10 -3 13 3 14 -4 17 4 -14 1 -7 -6 -3 -3 -13 -2 6 18 11 0 -14 4 -1 4 3 -11 -6 10 -10 -15 4 -2 -7 -2 -9 -8 10 5 6 8 -4 29 -11 11 7 -3 -3 -7 -6 -4 -2 7 31 -3 14 15 -3 17 -3 13 -10 -24 -6 0 -6 -13 16 -3 -26 10 -15 14 -7 -1 -4 7 7 14 4 -18 3 -3 -3 3 -5 -16 -10 2 -6 4 -1 6 -5 6 -14 7 -19 3 -17 10 4 6 -10 4 -6 -9 -3 -25 -4 -12 -3 -23 1 -1 -9 9 -6 0 -4 -31 9 9 -7 6 12 24 -23 -7 -3 -3 6 -7 -3 3 7 -19 -7 11 14 -16 4 3 -2 -7 -10 3 9 -2 -4 3 4 9 8 19 -11 3 -11 7 -8 2 3 10 7 -2 -4 7 -7 -13 11 -2 7 6 7 19 -6 -6 15 12 24 -5 -6 23 1 11 -11 -3 21 3 4 -3 -12 12 7 21 -8 17 -7 -18 -8 -24 -25 -5 7 6 4 -3 6 -3 3 17 15 14 3 -10 -8 15 11 -11 14 -12 -25 -12 -21 3 -3 12 8 34 -8 10 -5 -20 -4 -3 21 -10 3 19 -6 21 -5 6 16 -27 3 16 3 16 6 2 1 -10 -3 7 -3 -3 3 1 7 -22 13 -3 4 10 -13 -11 21 6 14 6 4 -3 6 7 8 11 7 -24 11 10 -7 4 -13 3 -8 14 8 -3 4 9 7 3 7 -27 -4 15 -22 -3 -9 -11 14 17 3 4 2 7 -14 -21 -3 18 -8 -3 -15 3 14 5 -4 21 16 4 -5 4 -5 10 24 14 5 8 -20 22 15 -2 9 -1 -3 -2 14 9 -3 1 -4 2 -14 3 -21 3 -7 -12 7 -7 -6 -3 3 -6 -5 28 -10 -3 12 -7 1 16 18 7 7 -7 -5 -7 7 -24 4 -3 -8 3 -30 6 -6 2 5 -2 8 -6 -10 7 -3 1 -3 -7 -3 -15 14 -3 17 3 3 -4 13 -7 1 -18 3 1 31 -31 -20 -13 4 6 2 4 6 -6 27 -7 14 37 -3 -1 -13 -11 3 4 -6 -3 5 -14 6 -4 -3 15 17 21 6 11 -17 -14 -16 -6 -13 -9 7 -25 3 -20 2 3 28 9 -6 -10 -7 -6 12 29 -3 10 3 27 14 -13 -13 -17 -3 2 6 8 -3 -3 6 -11 -7 3 4 5 3 4 -3 -4 4 7 -6 -7 4 5 -3 -28 -9 -3 -3 6 4 11 3 -42 1 -10 -18 15 4 -3 -4 14 1 6 -8 -4 17 -3 -5 -7 14 4 10 -19 6 11 3 22 -7 17 5 7 5 -14 -30 -11 1 17 7 1 -7 16 -13 -15 -14 -6 -10 10 -14 6 -3 2 -7 -18 -8 -6 -14 -16 5 10 9 14 5 8 -10 -19 14 10 -13 -14 11 6 -4 -1 3 6 7 -7 1 3 -7 7 -2 -3 -3 4 4 3 10 -4 10 7 14 -4 -7 4 -6 -12 3 -3 -5 -11 -17 21 -8 -10 -11 -25 -7 -10 -3 18 -12 -3 10 -21 2 -3 25 3 6 -4 -6 -3 22 3 -5 10 -8 6 7 -4 18 6 -13 17 -3 17 4 10 -6 15 -24 -6 7 -17 -22 -3 -11 4 4 -19 -3 11 -3 10 -20 -6 -18 -3 -4 4 -12 18 3 -3 27 14 15 2 6 1 7 -9 -7 -10 14 -1 6 -11 8 3 -4 -6 -3 17 12 -9 3 7 -34 -2 1 -3 3 -3 -19 3 -2 8 -3 -26 4 10 -14 -10 -7 12 5 -6 13 31 13 3 31 -19 3 -7 -3 14 15 4 -7 -3 1 17 6 -13 -7 -19 5 3 10 11 -7 -10 10 4 -10 3 14 3 11 0 3 -7 -2 -28 13 8 3 -3 -4 -3 26 5 -9 -19 18 24 -7 -6 -8 3 7 -2 -3 -7 -2 -30 -3 -3 17 11 24 -11 -14 6 -4 -6 -22 14 -12 22 3 -4 10 -3 -6 -10 -17 7 7 3 7 -10 -24 -11 7 -8 -1 -3 1 3 -12 3 25 -7 -17 10 16 3 -6 -2 -5 -8 -18 -17 7 -3 -12 -7 -6 -9 -7 -16 7 -1 -13 -8 -5 -2 6 -2 -10 -7 -15 -14 8 -10 -7 24 -6 13 -23 3 -22 9 -3 4 -17 16 11 4 4 24 -14 -17 3 -6 7 7 -3 -14 18 -2 2 3 3 -15 6 3 6 -4 7 9 -37 5 -6 11 9 7 -12 -29 -1 -3 -7 -11 3 -23 -3 -9 -10 -1 4 22 -6 1 -1 17 -7 -3 15 -18 7 7 5 3 7 -17 3 10 10 7 7 14 -15 25 17 13 -9 -17 7 5 -20 3 -26 -7 11 -5 -3 -16 0 9 18 -7 -11 -7 -13 -7 -6 4 9 -26 -18 2 3 -9 10 6 -13 -18 -6 25 -9 6 -6 -14 -8 -10 -7 -8 1 -17 -7 3 -7 6 -9 7 16 -7 -8 7 -3 6 6 -10 10 -4 -3 -13 10 10 -5 -8 -2 -3 -21 -6 3 -18 3 -13 6 0 -6 36 8 7 25 7 3 -41 -14 -17 -17 4 18 -5 4 1 -14 -6 3 7 -3 -6 -6 1 8 -23 11 -27 -6 6 -6 7 -3 -2 13 -5 9 -10 -13 -30 7 20 -3 21 -3 4 -14 7 2 -6 3 -9 2 3 5 -27 -4 17 -7 -12 -7 31 -8 -14 -7 -14 -27 20 -8 6 -9 8 17 10 -3 7 -6 15 -9 11 3 -2 -7 -4 13 -4 -4 -7 5 -14 2 -6 -3 5 -7 28 -3 38 -7 3 -7 -12 -10 8 4 9 -10 -16 -11 -6 -12 3 7 3 -3 3 -1 11 -21 7 3 7 2 -6 -3 11 -14 -3 -6 24 8 6 -10 -1 -19 6 -10 -6 -3 3 -2 -18 1 -1 -4 6 28 7 -5 -3 11 3 -10 -4 33 3 8 11 17 20 4 -3 -8 -1 3 -3 6 -2 14 3 11 14 6 7 -7 -14 3 -8 3 20 7 3 3 4 -21 -7 -10 5 1 17 0 -6 -14 -1 -6 -4 1 -22 -11 -7 2 -7 16 -18 -17 -20 -3 3 -2 -6 -16 23 4 -10 -5 6 3 24 -11 -1 5 1 15 28 -6 -12 11 -7 5 -2 15 21 -25 -7 15 -11 -5 18 -14 -16 -8 19 -2 -28 -3 -16 3 3 7 5 6 3 11 2 -7 -7 -2 8 -2 -4 -6 -2 -6 4 -16 11 -7 -9 -1 -9 18 -24 -3 -5 26 -9 -3 -5 -11 7 27 19 3 3 7 6 7 -9 -35 4 -23 -7 -3 -12 -8 1 -14 -3 -3 3 -17 7 -21 -4 19 32 -12 20 -18 3 -5 18 1 -14 -8 -1 10 3 -8 -24 13 8 -27 3 3 -4 18 -6 -3 8 3 5 -10 13 8 -5 -10 -14 8 13 9 -10 -7 -2 17 -6 3 -4 -5 10 -12 7 -10 -6 -6 7 3 -7 7 7 20 -7 -9 16 -8 4 -9 -14 -10 7 6 7 7 -3 10 -14 20 6 5 -8 -5 23 -14 17 -14 -3 -16 6 -8 -11 -9 -13 4 -2 -7 -11 9 3 -26 -2 11 -4 -3 -1 3 -11 9 17 -8 -3 -7 -10 1 -8 10 4 3 -12 -1 -20 7 -14 14 10 19 -15 -3 -13 -3 -24 20 -14 -5 1 -14 11 -5 -14 -6 4 18 -4 -9 9 10 5 19 -6 -9 12 18 -20 14 -2 -6 -17 3 10 10 -4 -11 -23 6 22 -3 3 -21 -2 0 7 -14 7 10 5 -2 20 -2 -8 -6 -14 18 13 5 6 5 -28 4 10 3 3 17 3 -8 5 -3 3 0 11 14 -6 10 -24 -10 7 14 3 -14 -11 -1 6 -4 11 15 -7 -3 17 -34 -10 7 16 1 17 -17 3 -6 24 -9 -20 7 3 -3 -14 -6 5 -16 -13 -9 16 -18 11 -11 16 -3 7 -5 -1 -9 -4 10 -16 -6 -16 3 10 3 -24 4 -28 8 3 6 15 7 3 7 13 11 -13 -3 -6 -7 -15 -3 -7 5 -8 5 -6 0 -3 21 -18 -3 -1 -11 -3 2 -28 4 -18 7 4 -17 4 4 -7 -6 2 -15 1 0 4 4 11 -22 7 19 20 16 -9 -21 3 3 6 3 6 -9 -8 20 -3 8 -3 13 6 -10 2 1 10 6 -8 -5 6 6 -10 6 17 19 12 8 -23 -9 3 -8 13 1 -27 6 10 6 -13 -2 -7 8 17 -14 9 -5 20 4 5 4 3 15 -3 -4 12 -2 14 4 22 -8 -5 -3 -1 3 6 -31 -14 13 -8 -9 -17 -19 -11 -4 -3 15 -1 -13 -3 -7 13 -6 -10 -13 -17 -8 11 4 10 -6 -2 20 -28 -4 -3 -23 3 -3 35 -14 7 -6 20 -10 13 -12 -11 -6 7 7 3 -4 7 -3 -22 -24 7 -3 7 0 14 18 -4 -9 -6 5 -7 26 -17 -6 -6 -4 2 5 -14 -3 -3 -7 11 3 7 7 -10 15 10 -10 13 -3 6 -4 15 20 2 21 -2 -23 -14 -1 -16 4 -9 3 14 -3 -3 3 -3 6 -6 10 4 3 -3 -28 3 8 -10 6 4 -4 -3 4 4 11 7 20 8 7 -9 -6 2 18 7 -11 -3 -1 -10 -12 -1 13 -1 10 -13 -16 3 18 6 -11 4 3 3 2 3 7 7 -17 6 14 -2 -29 -4 9 -3 -17 -6 4 -16 -10 -3 3 -13 11 -8 7 -15 -9 9 -6 -14 4 -4 6 16 17 3 -11 -4 -14 11 4 -13 -14 8 -6 -3 -12 3 -3 -5 28 4 -2 -3 17 8 24 14 1 -16 -6 18 -19 -27 25 -6 -23 -3 25 -17 5 -7 3 -3 -3 17 -2 -5 3 -4 2 -10 -3 2 -3 4 -16 -17 -3 3 13 5 -13 3 24 -18 -4 8 3 5 -3 1 -28 7 -3 5 15 -4 -20 5 -1 -5 21 11 -7 -11 3 3 -10 4 -8 13 3 -7 18 2 -16 -11 -4 3 -10 13 10 18 -7 -3 -8 7 -10 -5 -13 12 11 -10 -14 -1 -15 -3 4 -3 -10 3 1 7 1 17 -16 4 -7 7 29 3 -32 6 3 -11 8 -16 -9 -6 -3 -1 -27 29 -3 7 -5 20 -6 -2 -21 -3 -3 12 2 18 3 -21 15 5 7 -3 8 3 7 -10 20 16 14 1 12 -13 -13 2 6 18 -20 -3 10 -14 -11 -5 7 -2 -7 7 -15 -31 -7 10 6 -2 14 3 -12 -11 10 21 -3 6 -9 -7 3 -7 21 -7 11 4 9 5 -26 4 13 4 -5 7 9 6 -8 3 33 11 16 15 -3 6 3 10 28 3 2 -3 5 10 -12 4 -14 11 25 -5 10 -17 -17 -7 10 -4 -17 -10 3 11 -13 -23 -8 17 8 3 -6 10 -13 8 45 12 7 24 12 10 -1 14 1 -27 3 -5 -10 -15 6 -3 -16 -5 -18 -7 1 -6 9 -8 -14 3 -2 -5 3 10 -10 -3 -2 13 -9 24 -9 3 -5 -10 20 11 3 15 7 14 -4 18 8 -2 -8 1 16 -16 -17 -7 -3 -11 17 -7 7 10 -27 4 -6 -7 5 -21 -3 -10 7 10 10 -5 -7 14 -4 6 6 13 -9 -7 -3 10 -36 -8 -5 6 1 8 -6 -4 20 -3 -4 8 -19 -9 3 8 4 4 -3 4 -17 -7 10 -3 -2 -17 -10 1 -4 3 -11 14 10 -5 5 11 10 4 -8 -6 -9 -4 14 14 10 -3 15 2 4 -3 3 -7 6 -17 -6 -15 13 15 7 3 4 -3 6 16 13 -7 4 12 -7 -1 -3 3 -24 11 -18 -3 -4 -3 -3 10 -2 -27 -3 -12 -9 -10 1 -26 -3 -17 10 3 7 4 -7 3 -4 11 4 -25 -14 6 10 -7 -18 7 10 -10 6 3 -9 7 -3 3 12 -3 -7 1 3 -3 -7 1 -12 3 6 25 3 4 -7 -3 12 -9 -20 -10 -17 -18 -2 -6 -2 5 3 3 10 -17 -12 4 -8 12 1 -5 -15 18 -6 3 11 23 2 19 -24 7 -13 -16 -14 -21 -7 4 -4 34 -8 -6 -1 -20 -24 -17 -1 8 7 8 7 7 -3 7 -3 -14 -34 18 -8 6 6 -4 3 10 -10 -17 3 -1 18 6 -20 -6 6 -14 25 -3 1 -10 -12 -9 -4 1 7 -3 -28 -7 3 -6 -10 1 -15 0 -10 -17 9 -32 -3 -2 1 6 -10 -6 2 -3 -3 14 10 -7 -16 16 2 18 -1 -1 -11 -2 -12 -12 15 4 7 -5 -15 -7 4 -4 -4 8 -23 23 -3 0 -2 -5 -6 7 -3 -19 -1 -3 21 2 -3 -7 16 -9 3 5 -3 -8 21 -6 -7 -3 3 15 -5 -7 -3 8 -9 2 -10 -2 -8 34 -7 -2 1 -2 -3 2 -3 15 -6 -6 16 10 -3 1 -24 -12 10 2 -6 11 8 -4 12 -17 7 -11 -24 -4 6 -13 14 4 17 -3 -12 7 -18 6 1 -8 -8 10 -3 -1 10 10 3 1 6 1 20 11 3 15 -4 -11 -3 -6 -3 6 27 -10 13 -14 24 8 20 -1 15 -16 5 -6 11 14 -5 -20 -3 8 13 6 6 -24 -14 -3 13 -3 -3 3 -13 3 13 -21 3 -21 -4 -14 19 -6 5 15 -14 17 11 -13 -6 -4 -22 -7 11 7 14 2 -6 2 17 -1 -14 -4 -3 4 -7 -24 4 -33 -3 -14 -13 -15 -14 9 -17 -6 -4 -14 -3 7 -3 5 14 -5 17 2 -3 4 -24 -24 -4 -3 -6 -1 -5 6 -3 9 -10 5 -1 -3 9 -3 3 -17 -8 6 12 -20 8 1 -3 -3 -20 7 -12 5 3 -3 5 -17 -3 -18 -24 10 18 -3 12 24 3 3 -5 22 11 3 -1 -1 -16 1 14 16 21 9 -3 -3 17 3 3 -6 10 3 -3 8 31 3 4 -11 -16 3 -4 -4 17 -16 4 5 7 -23 -2 -4 6 -6 -7 -3 -4 -14 7 -21 11 -4 7 -3 14 -6 -10 20 7 10 21 -16 -4 3 3 -24 -15 0 -3 -10 -7 -10 3 14 -6 7 -3 -12 6 -11 -8 3 -7 9 15 -13 -19 -10 -17 -10 4 -6 -3 -8 -18 2 5 17 -6 -10 -18 -5 4 -3 -2 -3 -11 -20 -7 -9 16 -16 -5 -4 15 21 -20 5 4 -3 -7 -20 12 -14 4 -7 1 -3 21 4 18 14 -4 11 11 -5 -5 6 7 -17 -10 -14 6 -18 -2 19 -5 14 -3 27 0 -14 -17 -3 25 -4 -13 -7 -8 10 -10 2 15 2 -13 3 3 7 -17 -5 15 -4 -16 9 9 15 -3 -26 -27 13 12 -3 -8 -3 -5 14 4 18 -8 7 -17 5 6 -3 -11 14 13 2 3 7 -20 -7 -19 -19 18 3 3 6 -8 -8 3 -6 14 -14 -5 7 3 14 -11 -9 -7 -10 -13 3 4 -3 11 4 -4 22 2 -7 5 18 14 11 -4 -11 1 2 -14 13 -6 -3 2 -24 -3 -6 6 1 -3 21 21 -7 8 10 22 -6 -3 3 1 -6 14 -11 -23 -3 -3 6 9 -1 3 3 7 -18 -8 -13 28 -6 15 10 13 -6 -7 -3 -17 -21 20 -10 -11 -14 -11 18 6 6 -3 29 3 18 8 -15 -14 4 -3 -20 8 -6 18 1 -7 2 -5 -13 4 -3 3 -7 -14 11 -14 -3 11 -20 7 -14 -8 3 10 -17 13 3 -3 5 -9 -5 1 -13 14 6 -1 -3 -17 -11 -7 -5 8 -10 -21 17 -8 1 -14 9 -5 -19 6 -20 -8 14 -3 13 8 11 -4 3 6 -26 -3 13 7 -13 -10 -6 -8 3 -8 3 1 10 8 3 -9 -13 -3 2 -12 7 -22 -23 -3 5 7 0 8 10 -6 -3 -28 -3 0 17 -2 -2 5 10 -23 -7 8 3 -11 -26 6 -3 -24 -14 7 23 2 9 -6 9 -3 -27 7 7 18 -13 -5 -9 -17 -4 -10 30 -12 -17 2 12 20 -9 -11 7 22 -1 28 11 -17 8 19 23 0 1 -17 14 7 -21 7 14 3 -9 -13 -5 -15 -18 11 -1 1 17 3 4 1 14 -2 6 21 17 -9 -18 -19 10 -6 12 -10 3 6 1 8 -6 -3 -9 13 19 -17 -3 5 16 7 25 -20 -11 -10 2 -8 3 -8 1 -16 9 18 -6 -32 1 -3 13 -7 3 4 -20 -17 15 3 -5 -14 6 -3 7 -3 8 -23 3 2 10 12 14 -7 -16 -3 -24 27 4 -9 -18 -22 9 -5 17 -3 -13 10 -6 -10 -14 3 27 3 2 -3 14 -4 -3 14 -10 -6 -11 19 4 10 -3 9 -3 13 22 17 3 -2 -8 4 5 19 -15 -1 17 -14 3 -3 -22 10 -3 -14 6 25 19 7 -3 4 -11 -13 -14 -3 3 -15 -35 21 9 7 13 -10 17 -11 10 1 10 -6 22 10 -18 -8 4 -3 -5 -4 7 -2 2 3 9 -6 -19 3 8 11 -6 7 13 -20 7 18 0 8 10 -19 -7 15 -3 3 -7 -4 8 3 1 -2 7 23 -5 1 4 -37 -21 -11 11 -3 -12 -5 16 2 7 1 4 11 -3 -3 19 -3 -8 -5 8 13 2 4 4 -18 1 -3 -7 -16 3 24 1 3 -4 10 -23 7 -10 -12 -6 4 -10 -3 -10 -3 -7 -10 3 -2 21 14 7 7 -9 -14 13 -2 14 8 2 8 21</t>
-  </si>
-  <si>
-    <t>JSB(1.0572662291581223, 3.037629864426099, -16.276672518182643, 131.63582171746458)</t>
-  </si>
-  <si>
-    <t>54 32 55 34 41 42 45 62 44 45 27 40 35 27 34 31 32 40 33 45 54 34 57 44 30 29 27 33 45 47 43 29 34 22 45 44 53 37 51 44 42 47 26 43 51 24 27 41 61 33 30 41 46 16 31 47 20 27 45 33 37 37 51 29 31 28 29 44 48 29 42 51 50 47 37 56 60 29 52 34 23 48 33 32 32 22 29 37 33 43 28 33 21 29 42 41 19 30 29 36 46 29 29 36 29 30 26 34 46 43 34 29 54 62 19 27 41 41 37 19 37 37 51 69 38 37 58 59 35 44 45 40 20 37 58 48 47 33 47 32 43 41 49 47 45 33 37 57 38 41 30 22 45 51 29 37 40 44 48 42 33 29 44 41 48 36 26 36 41 51 30 51 56 34 55 23 22 37 23 45 35 23 41 30 38 51 31 40 40 52 43 30 38 66 25 35 41 41 34 33 55 34 27 51 47 43 33 31 54 45 44 43 35 44 44 27 40 32 40 27 40 45 43 46 24 54 25 34 40 27 42 22 25 40 55 29 35 72 40 32 50 46 48 46 50 34 32 33 30 38 29 40 43 37 40 27 47 28 34 22 28 29 55 40 44 46 30 26 46 27 43 37 32 37 38 51 41 45 20 30 29 38 40 50 45 34 25 25 37 35 57 46 65 43 55 37 33 62 34 44 30 33 29 40 66 42 57 29 38 35 29 34 42 35 36 38 27 45 33 51 30 40 29 36 44 29 53 34 45 34 27 30 44 28 26 49 19 40 59 35 38 37 38 46 29 48 26 37 31 27 43 30 45 36 34 63 37 49 36 35 19 42 52 47 38 26 29 30 32 26 26 44 42 57 23 30 39 33 57 49 43 45 27 23 33 36 41 22 30 43 24 33 53 33 37 46 57 30 42 27 30 45 33 20 27 41 54 43 19 39 26 26 16 48 69 46 36 25 34 36 46 33 44 28 37 27 29 43 55 34 62 37 39 52 55 54 49 14 67 34 37 21 40 22 35 43 32 38 58 43 41 43 48 59 27 40 23 30 54 51 25 45 26 44 44 62 33 40 73 36 39 41 44 37 34 36 25 25 48 28 33 44 34 34 29 40 39 44 38 47 27 34 12 29 50 40 74 39 29 41 20 47 23 26 27 24 31 44 49 41 41 27 41 64 21 47 47 37 31 42 40 43 62 48 29 43 27 20 25 30 35 25 22 23 41 43 36 54 51 34 43 35 38 46 51 29 20 33 34 38 37 44 47 37 35 32 21 51 48 43 40 30 49 41 57 43 29 63 53 30 33 22 38 20 29 53 54 50 58 34 46 33 39 39 45 29 54 37 23 43 19 52 27 48 29 15 32 30 51 35 26 27 39 34 12 57 28 44 27 32 42 33 33 60 34 34 48 45 37 29 52 46 54 37 34 30 52 33 50 40 36 43 46 26 41 55 40 28 43 43 37 23 46 17 25 35 30 25 37 40 55 50 46 22 55 40 30 46 23 43 30 51 33 44 37 42 47 43 33 39 45 26 30 35 41 42 29 31 16 39 30 47 38 55 31 47 41 44 28 33 47 37 39 26 26 34 59 47 39 51 23 45 43 37 38 29 31 22 34 25 51 36 41 29 40 29 23 37 44 40 31 59 36 42 40 37 59 44 37 29 39 60 50 30 39 37 36 23 51 19 44 28 37 45 29 34 45 39 46 36 48 43 39 43 37 44 54 35 45 23 51 44 41 44 36 50 29 45 23 44 31 36 43 35 41 47 39 57 34 37 47 19 45 43 37 34 60 24 22 30 34 65 30 36 51 53 35 43 24 41 47 19 38 32 73 38 51 38 42 24 36 43 48 53 49 48 31 50 34 47 30 55 41 24 44 61 33 33 33 40 41 33 49 22 23 56 52 20 29 34 29 49 26 34 29 37 27 23 52 31 43 34 29 19 34 44 47 47 68 51 38 23 60 42 34 59 27 33 37 29 58 26 30 30 30 36 49 27 29 44 43 48 38 40 34 51 36 41 47 38 37 27 29 40 50 40 26 27 44 54 43 48 46 42 29 37 23 52 46 41 41 29 55 34 44 45 34 44 54 39 37 26 51 33 48 68 51 37 30 65 51 27 48 40 44 37 34 47 37 35 30 27 41 43 43 41 43 45 57 33 30 32 53 49 28 42 44 51 24 20 39 43 46 22 21 27 50 27 29 55 27 53 43 32 34 25 36 41 41 26 33 37 45 51 49 45 23 43 33 22 27 40 37 41 19 23 30 43 40 27 32 44 31 42 51 37 44 48 35 44 45 37 54 27 36 26 39 19 30 32 38 54 31 41 44 27 39 34 34 33 36 43 39 27 37 31 33 23 39 32 36 38 32 35 45 30 39 42 38 44 24 45 18 44 30 27 31 39 55 35 17 55 65 50 52 48 33 58 44 39 32 38 30 37 39 48 34 39 42 23 31 30 31 35 40 54 39 31 24 37 34 45 43 38 28 47 37 13 20 31 34 41 37 41 23 45 30 42 38 50 16 47 24 37 39 43 20 34 33 43 65 43 39 49 33 46 35 32 27 40 34 29 40 27 25 33 64 20 48 20 28 54 48 45 24 36 29 59 36 36 20 28 17 26 36 42 34 44 43 48 27 36 32 57 39 47 36 40 16 41 55 36 37 44 37 41 33 6 30 46 28 29 21 44 47 61 41 37 38 38 37 44 37 47 28 56 42 51 21 47 40 49 40 40 58 29 37 29 53 33 30 39 39 31 47 45 44 23 33 44 47 33 35 22 51 28 23 56 38 51 50 25 32 54 37 44 32 30 49 27 48 36 38 43 54 50 41 37 52 33 53 47 41 31 44 44 31 36 31 44 43 58 35 45 24 49 51 28 26 36 40 35 46 48 48 45 38 24 36 29 37 48 27 44 44 55 19 41 38 46 38 35 40 44 36 29 28 47 51 29 16 31 48 26 24 27 54 40 40 41 37 58 37 28 41 50 33 43 28 37 25 37 21 44 37 54 43 30 28 43 46 26 39 34 52 28 27 41 34 54 33 33 37 42 46 47 54 44 46 52 41 37 40 28 55 37 51 29 16 36 27 43 56 15 13 43 34 27 35 36 38 29 27 57 39 47 49 32 36 44 34 28 44 45 59 33 51 37 51 32 17 25 36 43 54 26 39 30 42 46 32 40 42 52 34 37 27 44 45 51 55 44 39 48 34 47 44 40 32 46 57 56 40 39 45 40 45 37 38 41 49 31 39 52 51 51 37 29 42 32 31 32 45 29 48 23 48 31 36 23 48 44 47 37 53 41 19 33 27 33 31 45 37 62 44 33 35 50 49 29 45 36 31 43 43 19 44 29 54 48 37 27 47 43 57 37 27 47 22 35 59 33 58 31 51 58 23 48 42 54 31 28 30 40 30 34 43 39 42 56 38 50 49 33 44 30 41 37 39 42 33 37 39 37 43 41 19 43 48 31 58 33 56 39 23 29 42 27 31 29 37 45 21 38 51 50 43 33 9 25 34 52 34 29 34 56 51 36 37 26 36 30 49 53 30 21 54 50 35 42 48 36 26 56 23 41 37 28 41 42 29 13 43 55 30 27 40 33 46 40 47 43 37 31 39 33 41 40 37 26 39 36 34 34 33 41 66 30 41 37 27 43 33 51 28 31 43 62 20 30 51 33 37 35 33 46 36 34 40 51 28 43 23 34 37 23 33 41 26 60 35 33 51 48 38 42 19 29 34 27 37 34 40 48 52 59 57 25 38 27 59 31 34 38 50 31 19 26 41 35 40 36 34 38 36 60 42 54 49 51 40 45 38 27 37 39 30 33 64 37 27 19 45 48 66 23 29 36 53 44 24 37 40 44 48 37 60 57 52 34 26 27 31 57 51 41 40 47 30 52 15 49 28 51 43 24 43 36 51 26 23 36 37 34 27 51 54 40 30 26 37 48 25 36 22 37 26 40 51 41 48 34 29 49 63 19 51 51 25 24 40 31 23 34 39 30 37 25 39 25 30 39 29 40 44 33 51 33 43 58 29 47 33 47 36 40 32 40 41 55 48 52 36 35 38 32 55 34 47 24 33 34 37 37 38 38 59 23 45 33 39 47 36 35 53 34 29 46 27 34 39 37 45 37 56 51 17 24 45 62 53 25 34 33 35 19 34 45 37 40 34 29 25 44 37 27 44 47 53 27 43 55 51 34 37 33 20 41 39 51 44 43 6 58 28 34 48 41 49 16 41 35 47 30 30 34 45 41 32 29 48 37 43 36 53 37 37 17 46 43 37 25 30 40 43 41 21 36 33 61 39 34 38 40 40 36 44 41 30 50 41 40 45 32 56 46 33 31 31 39 40 48 26 41 64 40 45 48 36 41 36 51 54 50 29 62 35 51 48 23 29 37 45 44 30 51 40 26 27 30 34 61 32 34 41 50 46 37 31 30 36 30 33 36 15 45 34 27 37 39 51 37 52 51 41 47 44 37 34 42 30 44 43 54 40 44 41 16 30 30 29 33 23 43 41 29 50 48 47 31 49 33 36 13 44 57 35 26 53 40 38 44 44 42 58 56 26 34 50 22 27 32 26 53 43 52 30 44 30 45 50 54 29 40 36 46 45 51 44 50 40 33 37 36 40 39 50 19 30 36 22 40 35 36 26 33 31 35 45 42 37 46 40 50 31 59 45 37 70 34 36 26 30 41 66 21 23 38 37 45 37 33 42 37 41 23 41 44 35 41 46 19 45 37 45 28 51 32 30 40 51 16 46 26 29 17 45 39 26 36 43 20 39 31 23 50 39 48 29 45 44 40 57 33 30 42 44 43 54 45 24 25 34 30 49 19 40 56 23 39 43 40 65 29 31 51 28 52 43 51 40 45 44 47 59 40 51 56 48 41 43 20 37 47 15 54 31 50 40 36 31 34 29 33 30 45 53 30 39 47 49 60 35 43 30 53 42 24 16 53 30 22 32 36 59 44 27 38 47 35 43 32 48 37 48 30 50 36 19 38 45 34 37 25 46 30 50 35 35 41 39 47 51 40 26 31 32 49 73 50 30 40 28 48 48 31 30 49 40 44 33 20 40 30 47 23 32 45 27 50 44 30 40 37 48 27 23 44 42 29 31 30 27 47 35 44 44 59 43 23 27 40 36 45 37 45 33 34 47 39 40 33 41 36 48 41 40 43 43 38 26 27 36 36 45 33 56 48 34 54 54 49 34 48 30 23 45 54 30 51 23 51 20 43 31 60 29 52 30 41 27 33 37 30 43 36 38 39 32 27 33 29 50 34 19 40 64 44 36 51 42 20 23 26 48 33 49 35 34 28 40 28 39 39 58 39 65 37 40 40 47 38 45 25 47 39 53 42 35 51 29 30 31 43 50 39 50 23 50 26 57 35 36 34 49 43 30 45 42 36 58 30 37 35 40 51 51 31 30 39 40 37 25 40 31 20 48 45 51 44 41 41 28 43 34 43 37 53 39 36 68 37 26 48 51 53 54 30 37 28 37 31 33 48 39 38 29 36 30 34 41 39 44 37 29 29 30 36 51 31 26 61 57 37 55 34 20 41 33 42 45 26 16 40 28 30 26 36 41 55 44 38 34 36 48 29 33 49 19 51 38 32 28 66 27 45 41 42 66 29 30 34 37 40 44 23 54 25 53 28 33 24 38 44 43 36 50 45 52 33 31 44 16 40 43 23 31 34 53 39 47 37 45 51 30 48 46 41 43 44 29 23 43 65 39 29 33 54 48 41 34 41 26 29 40 30 49 33 48 65 54 48 35 27 33 26 47 41 33 37 36 46 14 40 29 37 33 34 37 51 50 43 45 45 27 30 23 31 31 34 37 29 54 49 20 65 52 47 32 32 31 47 23 32 43 55 29 29 33 59 16 38 57 43 58 30 36 23 44 47 50 27 37 40 37 22 29 38 29 41 33 33 57 70 45 47 35 40 52 54 50 40 37 51 59 47 48 34 35 33 40 36 37 33 34 27 51 30 24 35 34 51 17 59 44 45 35 26 49 29 50 26 37 29 23 22 44 29 39 57 29 47 22 30 43 33 42 41 29 35 23 30 50 23 60 51 41 33 26 37 45 59 51 38 40 50 41 26 37 36 21 29 56 31 42 36 49 48 39 32 31 29 36 26 36 57 39 31 37 45 45 40 29 47 47 17 27 40 31 10 40 37 31 48 27 31 30 37 24 21 33 49 37 30 36 55 57 37 59 30 33 42 30 30 31 33 40 38 23 16 33 40 40 29 33 51 45 35 37 29 51 49 33 61 30 51 23 39 38 36 34 49 40 46 32 34 38 63 37 24 48 27 36 47 43 39 29 30 28 47 37 21 27 37 26 48 33 37 66 58 51 55 43 52 30 45 54 30 41 50 48 32 51 39 52 34 37 40 47 40 41 47 33 37 41 33 39 30 44 26 37 33 33 27 41 51 55 37 29 29 48 35 51 19 45 30 45 41 41 48 43 37 37 23 34 41 35 44 33 31 34 31 28 43 17 33 44 43 36 33 30 45 30 54 43 48 27 43 34 26 34 43 23 58 38 43 51 59 51 33 47 47 30 58 29 27 51 23 30 44 19 45 32 38 19 44 41 20 45 51 41 45 40 47 39 39 37 62 59 18 37 54 38 47 37 37 40 45 32 27 30 37 49 44 48 58 45 30 26 65 41 48 33 27 39 39 27 23 37 46 32 40 39 20 37 39 17 49 39 32 34 43 45 36 39 44 38 47 29 41 48 56 37 54 29 16 33 65 47 45 27 47 35 40 35 43 37 46 41 51 28 27 40 31 27 40 49 23 44 48 45 34 36 40 33 30 23 37 33 30 46 44 37 27 35 42 38 40 45 26 26 43 30 23 59 40 46 61 45 49 49 45 44 33 41 43 40 27 39 44 33 39 41 35 51 36 37 50 28 48 47 44 38 30 34 19 43 39 32 26 52 48 32 30 36 43 61 28 23 26 34 43 26 56 40 20 27 43 39 40 47 44 28 40 33 40 50 40 35 48 34 50 47 46 33 12 54 43 42 44 34 16 31 53 36 32 39 40 48 42 51 35 34 39 41 36 38 45 44 50 32 51 45 31 25 44 37 29 20 49 37 54 51 37 34 37 46 36 36 29 44 41 22 54 43 33 47 38 37 27 33 29 56 48 47 30 50 29 36 45 50 39 45 40 29 47 37 23 22 37 37 52 36 40 53 35 34 48 48 44 47 44 31 44 37 29 27 39 40 43 47 27 22 23 46 48 33 43 45 40 41 19 37 40 28 44 33 40 30 36 26 48 26 53 44 51 45 38 44 36 62 37 34 47 57 47 41 51 26 41 24 50 16 23 33 51 42 59 37 27 40 38 38 43 36 16 23 30 45 44 49 55 30 56 21 31 57 40 33 46 30 18 22 52 50 22 47 46 41 48 42 40 37 59 51 46 45 38 43 23 29 44 45 13 37 38 34 39 56 47 30 40 43 30 47 43 38 27 34 19 42 30 41 26 35 51 38 26 36 47 38 39 22 40 37 40 40 40 43 30 54 36 30 36 50 26 38 33 41 41 41 45 37 34 40 41 40 36 52 30 44 58 36 23 21 34 39 19 51 29 47 43 46 44 59 63 37 40 23 41 30 37 48 35 45 47 29 34 51 31 38 45 37 28 31 43 51 48 15 46 37 45 26 37 33 26 29 41 38 39 41 30 45 37 26 29 48 50 22 47 39 56 50 33 33 43 50 44 45 48 23 33 29 21 39 26 43 45 59 54 30 48 42 46 53 40 46 45 30 54 30 48 47 51 38 28 35 23 40 34 52 16 33 20 52 31 33 26 45 29 52 37 40 31 50 33 38 33 40 18 43 23 35 40 35 38 23 24 41 13 38 45 40 28 29 51 41 50 47 37 46 41 51 33 23 27 48 46 44 56 47 51 42 37 32 47 34 37 22 31 28 53 34 50 40 55 44 47 30 35 34 52 41 40 33 46 38 51 47 33 68 45 52 28 36 40 47 38 33 41 27 33 43 41 43 40 33 49 46 48 23 37 36 19 37 41 26 41 49 29 41 42 38 22 40 33 30 47 27 59 33 34 29 30 30 43 39 30 33 45 37 27 37 37 27 47 42 33 36 40 22 34 32 33 34 44 41 44 48 54 28 24 33 47 43 51 55 65 43 20 55 33 46 38 35 57 36 30 30 25 53 29 37 40 36 47 36 37 44 39 30 33 33 40 55 40 26 40 35 51 41 25 60 19 20 41 30 29 48 26 33 32 30 37 32 24 41 41 34 36 22 25 40 41 36 37 37 48 26 45 40 34 20 38 37 50 27 33 61 40 26 49 38 38 32 47 23 33 33 33 49 35 33 35 56 49 26 17 31 29 30 49 34 21 64 23 29 17 43 52 39 35 26 27 45 45 36 26 43 48 27 17 37 19 36 42 23 29 54 59 29 37 28 46 15 34 47 33 31 27 31 31 27 31 27 35 41 41 32 45 23 47 41 40 44 16 30 26 49 33 31 35 35 41 46 44 37 49 26 28 38 59 36 27 32 29 39 38 38 27 41 37 42 48 31 37 29 51 36 37 44 44 59 24 33 48 42 20 62 40 31 43 51 34 23 30 59 36 48 47 41 40 37 35 31 43 35 33 44 26 35 40 29 34 23 40 27 35 37 44 59 35 29 40 59 23 44 34 26 37 43 39 51 38 50 41 23 32 34 41 41 41 43 51 37 43 30 29 34 51 30 44 40 16 32 29 27 39 46 26 55 30 43 30 39 45 45 59 34 50 43 57 33 25 22 38 47 43 51 47 37 27 57 49 42 38 42 30 50 20 33 45 36 41 37 48 34 36 47 13 26 59 29 43 39 20 46 44 44 58 34 48 28 37 32 23 29 31 44 43 34 42 23 52 59 40 38 34 43 52 41 23 49 34 34 58 52 38 38 37 43 47 46 42 47 45 47 34 37 33 34 41 48 40 22 36 46 65 32 44 25 45 54 28 32 40 36 43 41 45 26 27 23 30 46 49 38 27 43 33 32 55 51 46 31 34 35 26 34 36 50 38 29 49 42 51 32 32 55 50 48 33 36 23 33 47 45 45 20 40 37 57 17 12 38 42 33 47 40 34 42 43 41 35 45 33 33 52 32 40 45 27 41 52 45 46 31 30 41 30 38 38 44 43 31 13 54 27 21 34 38 37 45 33 33 21 29 35 39 23 29 47 50 47 41 33 47 41 46 19 53 31 42 30 37 39 56 38 43 15 36 44 48 41 51 33 40 40 52 16 32 57 49 38 32 41 42 39 27 40 52 44 50 33 43 49 43 16 19 31 33 51 51 50 23 36 63 41 51 43 48 34 25 30 44 33 25 51 41 30 29 13 54 43 59 27 50 23 39 50 26 31 45 41 29 32 55 43 33 44 23 53 23 47 61 30 34 29 37 53 45 71 37 36 37 40 30 21 41 53 31 31 33 36 30 43 38 37 44 51 62 46 32 40 33 33 46 38 43 60 15 39 45 17 34 34 27 38 13 53 33 55 26 27 34 22 40 39 50 34 31 27 53 42 41 48 29 41 37 23 30 33 27 25 41 51 23 36 20 54 45 48 48 54 60 47 40 55 37 33 44 29 50 16 55 40 39 31 23 26 37 23 29 38 41 10 55 38 41 30 17 38 24 37 30 37 41 37 18 31 33 38 43 42 23 31 44 54 51 36 40 27 42 44 37 37 34 37 30 20 73 39 43 20 25 32 58 26 19 26 40 51 47 43 30 37 22 36 37 30 41 38 34 45 34 33 38 37 43 30 43 46 45 34 38 34 36 50 36 33 37 42 35 30 41 43 48 40 30 39 51 43 34 50 33 45 26 34 41 28 24 26 38 43 23 44 25 23 50 47 26 57 33 54 51 16 30 41 37 63 30 55 32 47 32 27 36 40 22 26 59 48 48 50 43 35 46 31 40 35 40 48 51 44 43 31 18 47 57 38 30 23 46 53 26 36 31 34 30 47 47 45 22 55 41 33 22 44 40 44 30 43 46 41 29 30 34 31 33 29 38 43 41 35 41 37 40 27 28 46 38 25 31 44 54 19 38 36 34 19 38 38 38 45 40 38 30 19 37 36 43 30 40 26 23 40 38 37 32 45 58 45 31 15 31 41 26 30 22 39 42 52 37 37 31 56 45 31 26 25 23 51 50 54 29 33 34 40 38 41 38 45 37 19 37 65 54 43 45 47 43 47 29 36 46 37 41 34 36 59 28 42 37 41 37 24 51 52 25 71 34 34 38 32 23 51 33 36 37 39 56 51 66 37 23 45 51 38 58 37 44 17 17 45 37 62 51 30 42 16 41 34 34 33 45 43 44 42 33 37 29 50 20 38 37 33 51 50 30 51 54 53 23 44 23 29 24 30 55 35 40 45 43 30 25 42 32 33 39 27 40 42 37 48 51 50 26 26 16 33 27 40 49 37 57 38 23 33 25 19 16 63 48 28 32 37 45 18 27 37 50 38 37 52 38 37 57 43 41 31 39 27 44 47 43 48 33 49 26 34 39 44 41 58 36 30 33 29 35 54 36 34 38 51 47 36 33 54 23 42 38 56 40 39 48 54 41 19 44 43 44 41 41 22 23 37 52 33 46 54 48 34 37 46 40 43 17 39 41 28 44 51 32 33 23 25 43 40 44 17 37 43 40 23 36 50 27 30 51 14 47 35 39 58 43 46 35 45 49 44 36 36 29 36 30 44 43 42 29 29 45 41 51 45 45 44 40 43 47 54 43 33 53 45 55 35 27 47 48 45 34 29 51 34 44 32 38 42 37 33 32 45 43 40 24 38 44 41 52 43 29 24 34 37 29 38 16 27 46 40 34 23 48 41 17 32 33 37 41 55 43 59 44 37 22 22 40 33 56 41 36 37 36 50 27 37 41 43 31 45 33 33 57 48 62 37 40 39 40 28 30 57 31 46 47 22 46 32 36 31 51 39 35 17 26 56 37 40 27 50 52 20 38 43 45 27 57 45 46 24 55 12 31 26 44 43 29 31 34 33 31 50 39 26 26 22 22 33 30 32 22 34 29 36 37 30 30 23 30 36 39 22 59 44 29 33 33 55 36 45 33 33 30 37 47 42 41 45 19 44 37 27 36 42 49 68 55 46 51 54 30 48 39 54 36 41 45 63 26 47 24 33 33 54 34 44 37 41 49 66 50 48 63 42 20 51 41 33 43 52 44 27 37 29 46 29 43 28 38 37 45 52 44 40 34 47 22 46 37 46 44 44 31 27 40 50 41 13 40 39 43 42 30 51 37 33 33 49 54 46 46 51 51 48 44 52 47 16 40 36 31 35 44 27 29 54 30 33 33 44 37 36 39 41 34 33 41 30 60 44 52 44 33 43 25 44 39 28 36 42 34 47 34 37 29 34 34 41 48 28 51 30 40 49 26 59 48 39 50 33 35 20 44 38 61 52 33 34 40 29 37 23 44 57 23 33 33 42 44 45 54 42 51 51 65 51 37 23 51 37 61 45 33 54 44 29 56 33 30 30 38 34 22 45 40 40 37 32 51 29 37 51 29 30 35 43 54 23 52 29 70 37 25 30 34 32 26 34 48 30 31 48 58 41 58 27 27 48 19 47 29 38 36 25 41 39 33 23 40 35 55 30 30 33 33 37 30 17 43 30 51 33 34 42 37 45 45 30 40 39 35 19 27 44 44 26 34 16 33 33 43 19 40 33 30 33 43 54 37 33 36 54 29 30 37 24 15 49 34 43 23 64 37 48 46 23 39 37 41 29 37 25 23 51 43 47 27 65 33 40 20 54 23 30 62 40 40 40 35 47 36 28 43 26 23 34 44 41 44 52 30 31 36 36 41 50 30 28 34 41 34 37 34 44 56 57 42 37 29 37 42 34 29 40 30 44 43 28 49 42 42 27 29 50 35 28 26 26 32 49 43 48 45 44 55 47 51 40 47 38 59 37 42 25 46 30 45 26 22 31 23 30 36 45 49 54 40 15 29 50 42 55 22 33 37 65 55 37 30 36 31 53 31 17 51 23 43 37 49 30 55 49 33 41 31 37 23 37 40 66 40 35 47 39 19 45 36 46 42 40 29 47 40 37 33 43 29 21 25 52 19 48 51 48 20 37 60 34 37 38 39 55 48 23 40 45 41 41 24 37 36 37 27 39 36 46 33 54 36 43 47 48 37 37 35 44 34 33 59 55 30 33 50 30 47 37 26 59 37 37 23 44 55 43 44 35 24 48 42 29 13 25 36 57 52 31 36 22 44 39 33 45 38 37 37 36 15 19 44 40 26 40 32 44 47 26 48 42 41 46 54 41 40 30 33 23 47 29 31 30 19 46 38 45 70 38 41 29 58 42 31 46 39 49 30 37 48 33 42 44 37 50 49 52 42 39 30 32 33 39 26 56 39 41 50 26 61 51 26 29 37 37 51 49 37 51 41 37 45 23 30 33 47 58 40 57 50 31 30 45 27 34 58 37 29 52 34 43 48 52 34 45 28 47 34 28 25 28 57 48 39 43 43 38 29 50 35 28 57 40 33 34 65 37 43 45 36 23 35 38 53 36 31 34 61 51 45 47 34 30 47 51 41 26 23 33 33 30 37 51 39 60 48 44 36 22 36 45 30 33 35 33 46 21 38 65 45 50 20 43 52 47 36 56 49 35 30 36 23 38 28 42 37 51 48 50 45 34 49 34 37 33 37 45 30 30 35 39 33 47 39 49 20 41 30 35 31 36 30 44 33 36 44 30 42 49 29 45 44 38 29 47 25 40 53 42 46 34 49 37 54 57 28 23 23 37 19 39 41 45 26 38 27 28 39 31 51 30 46 48 34 13 39 33 46 37 32 34 50 49 28 34 59 43 41 43 40 42 33 36 33 27 30 29 36 59 38 51 23 58 23 40 56 47 51 29 44 31 39 50 26 40 42 28 53 50 44 35 57 34 53 30 31 36 26 43 39 21 41 51 45 37 60 43 16 30 29 27 29 56 59 40 43 31 39 32 39 35 41 37 47 42 58 37 37 29 42 49 43 55 48 25 40 23 47 51 35 31 53 27 26 50 27 33 31 46 51 37 40 41 48 61 38 23 48 37 31 37 59 42 39 45 32 38 35 24 33 44 37 48 44 45 52 36 37 35 18 44 23 35 50 43 31 49 19 59 46 35 37 35 29 37 39 37 40 33 40 33 28 37 50 49 45 41 13 40 41 43 45 35 42 63 35 36 51 61 27 61 45 55 37 40 53 28 31 55 34 37 23 37 53 31 37 26 22 53 48 47 60 56 26 46 35 44 41 37 45 37 43 40 49 50 48 51 45 44 29 45 20 23 45 25 41 29 23 44 37 30 48 53 31 50 47 59 26 49 20 38 33 47 47 48 51 52 19 32 30 13 42 51 50 51 22 40 36 43 45 59 42 50 32 28 30 27 27 26 27 48 39 54 46 34 23 60 48 54 37 27 37 48 31 44 44 34 26 30 44 45 41 53 52 33 48 61 54 23 56 16 36 46 58 43 59 51 43 27 30 24 48 43 35 51 43 35 56 54 42 46 52 39 27 40 39 36 55 37 28 45 36 43 35 45 29 27 37 30 34 15 23 48 65 34 39 43 25 45 30 48 34 29 39 43 13 34 45 30 46 23 47 39 31 44 19 48 44 51 52 31 61 37 42 55 48 26 48 40 57 40 40 43 41 34 37 24 38 48 42 40 45 46 37 43 33 31 48 34 25 38 54 49 31 50 59 48 44 54 57 43 41 34 36 47 23 33 34 45 34 48 27 35 50 46 30 34 43 54 56 34 45 54 31 67 31 58 23 59 43 40 49 33 44 36 47 39 49 49 33 47 26 34 27 39 48 24 43 65 44 31 42 40 38 23 39 28 31 46 37 37 39 23 33 55 32 41 37 20 35 45 33 26 43 38 36 38 44 37 38 37 57 25 44 38 40 37 54 51 39 45 17 39 45 30 59 30 29 23 45 50 45 44 26 27 41 39 45 41 24 44 22 41 20 38 29 33 26 23 47 29 38 23 37 45 28 15 48 16 45 43 39 43 43 22 39 41 33 45 50 23 32 48 29 55 31 29 24 35 52 37 47 31 44 35 22 58 26 31 43 30 54 37 53 23 37 46 47 44 33 44 41 35 31 46 43 37 30 55 22 43 27 32 40 41 42 49 32 52 30 27 16 44 28 41 39 25 37 55 47 45 42 45 26 43 40 33 36 27 19 42 29 37 20 47 27 31 33 51 58 37 44 29 33 47 42 22 26 26 29 26 34 22 37 40 29 36 36 49 32 28 36 30 53 31 23 38 27 45 40 43 35 43 44 35 23 22 34 69 40 52 52 37 57 43 40 32 45 37 30 37 73 27 47 42 20 37 56 37 42 35 43 39 37 23 46 47 46 43 37 44 45 45 45 45 53 44 27 45 55 25 37 62 43 42 46 57 15 48 42 44 51 48 45 31 43 57 23 40 48 33 32 24 50 60 32 44 40 40 52 43 24 43 27 30 39 44 26 29 37 51 33 47 34 45 64 41 26 42 44 33 31 48 52 37 53 41 47 40 17 33 30 49 41 45 13 45 44 47 24 44 45 61 27 42 43 33 35 37 30 40 39 57 37 43 31 53 27 42 40 43 41 40 45 36 37 43 44 18 40 36 43 35 25 36 48 36 47 34 37 23 51 43 32 39 37 54 15 42 45 28 54 26 31 40 54 45 43 41 36 30 55 43 35 68 38 48 26 43 34 38 26 23 38 44 31 37 44 33 41 43 34 41 39 37 52 30 39 43 31 48 29 48 48 31 44 51 35 36 56 40 36 33 40 22 43 38 46 26 59 37 34 19 33 44 39 27 35 31 41 48 28 49 37 27 37 30 37 35 42 62 73 47 55 22 51 44 42 37 56 45 40 28 28 40 16 33 31 37 49 37 47 38 47 27 36 20 23 64 29 56 52 32 54 51 30 32 51 29 30 45 41 53 32 36 57 38 26 25 35 54 29 51 53 16 44 30 37 40 20 40 33 22 37 51 68 36 38 69 44 22 33 30 29 26 50 25 26 40 50 35 33 45 27 43 23 21 48 30 44 33 37 15 32 69 31 39 43 33 24 52 34 40 42 33 30 43 40 42 49 40 33 47 52 35 27 40 30 38 29 59 31 45 43 52 36 36 18 16 35 62 47 48 42 61 55 43 43 44 42 52 24 64 40 41 43 55 38 32 23 39 33 47 29 37 42 24 50 43 23 37 55 26 42 44 45 19 29 45 34 33 51 51 41 41 41 29 32 30 38 37 32 41 30 45 33 48 50 45 50 51 54 35 31 43 43 27 22 36 21 36 25 40 32 27 33 27 47 58 41 40 13 47 46 20 27 50 30 39 40 23 25 37 37 29 41 59 24 37 40 50 33 33 48 51 41 30 40 44 31 45 27 26 42 37 32 39 45 29 55 34 45 30 34 45 31 51 34 64 51 42 41 37 65 44 32 54 34 38 33 20 30 29 27 30 37 33 46 41 39 20 44 53 17 32 43 52 46 36 25 22 51 35 43 43 29 33 19 26 47 23 36 30 33 49 49 42 40 28 44 37 48 41 32 37 35 52 43 38 55 22 41 51 48 42 24 51 36 39 33 57 33 61 30 33 38 23 47 23 26 43 43 24 38 33 34 55 43 54 38 57 45 29 20 29 30 41 30 24 65 38 43 44 44 42 43 44 40 46 33 46 37 41 23 30 34 27 35 47 30 22 26 23 49 31 27 30 41 47 26 31 51 32 47 48 36 45 36 41 19 54 36 41 47 45 29 47 19 50 38 53 46 59 30 40 34 32 25 36 34 48 38 33 41 47 37 41 29 53 26 51 29 31 57 30 27 27 19 52 37 33 45 57 26 27 30 42 40 36 46 60 53 49 42 37 31 27 27 65 31 30 46 23 43 48 26 44 39 33 37 35 40 45 45 26 42 32 33 31 49 45 31 34 28 23 46 25 42 30 25 40 38 73 31 30 45 33 32 33 27 45 51 32 36 54 35 23 26 53 39 51 28 41 37 38 51 44 30 21 26 51 30 39 51 46 51 43 29 26 50 23 59 42 47 22 30 33 52 45 52 48 33 32 36 36 37 49 37 41 48 38 58 41 46 37 37 40 39 45 35 27 29 42 58 45 41 37 33 31 47 16 33 27 32 40 36 22 42 40 21 36 45 40 36 34 46 42 33 24 29 34 49 44 52 19 40 50 39 28 31 32 30 29 23 48 39 55 27 37 51 33 44 53 37 58 30 43 52 22 22 35 48 24 41 44 26 44 15 31 53 45 49 55 34 38 43 59 25 44 57 36 40 31 42 47 36 29 31 37 34 56 32 41 48 51 33 30 38 32 19 44 24 44 25 45 23 43 30 42 26 41 30 26 33 37 54 45 31 44 30 39 23 43 43 28 40 54 38 43 42 42 32 38 43 9 41 48 27 58 20 33 31 23 39 52 48 43 26 49 32 29 24 38 37 37 36 43 29 35 56 28 13 37 45 51 39 31 48 40 43 26 30 22 48 42 41 50 41 36 41 53 33 45 37 33 43 65 43 42 29 16 41 45 25 59 20 25 27 43 33 31 24 57 49 52 58 38 16 31 28 29 43 48 59 27 46 68 47 34 29 43 38 31 42 37 37 49 38 36 47 36 40 37 27 44 37 33 40 56 29 51 43 43 30 35 40 48 38 48 44 20 44 54 57 30 58 37 42 38 29 25 33 43 55 30 58 29 35 34 43 43 39 45 26 51 51 47 39 36 36 45 40 40 43 34 30 37 33 37 34 53 38 31 39 56 41 29 49 44 47 30 48 44 44 41 41 34 54 38 25 38 26 27 43 31 38 23 43 36 23 42 31 36 22 44 48 17 37 46 41 55 55 48 38 36 44 51 35 55 26 37 32 22 55 37 51 43 40 23 25 25 46 47 31 37 25 29 23 45 37 43 34 35 22 50 42 39 33 45 41 45 43 56 41 35 37 23 41 23 45 52 30 25 27 40 37 43 23 27 21 45 27 37 40 43 32 19 29 35 17 58 48 29 36 39 43 55 55 33 56 44 29 40 38 40 23 43 36 38 61 54 54 51 43 52 48 26 40 24 49 40 53 37 33 23 27 32 25 39 32 35 40 33 23 32 28 36 22 52 45 27 44 36 33 34 44 29 43 54 45 44 17 27 48 38 60 62 58 47 51 49 35 41 26 37 37 36 30 37 36 13 42 60 57 41 23 38 38 41 34 45 43 49 32 48 32 27 43 50 47 51 39 44 27 44 27 26 49 47 49 44 40 19 50 34 37 37 30 65 43 27 52 29 41 22 41 43 24 56 27 40 33 34 46 40 27 40 29 22 29 39 34 47 37 57 43 22 35 10 13 36 38 41 37 28 30 34 51 35 25 34 51 44 27 49 19 56 24 62 52 29 24 38 25 50 50 29 41 23 57 51 49 61 47 41 39 49 44 26 9 29 26 37 26 44 46 36 52 39 33 40 36 34 37 65 30 36 41 39 36 34 34 41 45 43 57 37 38 36 65 37 40 45 45 34 16 17 26 29 57 35 40 30 48 43 51 34 34 27 33 66 37 40 57 54 33 45 37 16 49 19 52 29 33 23 34 46 40 33 34 38 41 54 43 27 30 33 30 54 23 40 31 37 46 34 44 23 30 58 31 48 45 52 37 33 29 19 33 46 40 46 31 41 47 16 39 41 55 33 41 39 31 44 20 38 40 29 44 34 37 30 39 23 41 39 40 39 29 30 35 35 34 46 22 18 48 28 42 22 52 37 35 61 39 23 58 38 59 39 46 47 45 65 51 27 47 51 57 23 27 34 13 39 41 44 37 19 53 40 26 33 42 37 31 43 57 35 41 10 51 32 32 34 36 31 43 44 41 48 34 25 30 43 34 64 31 68 47 35 51 50 52 44 31 40 31 51 44 35 34 33 52 40 48 41 29 16 33 40 51 26 45 50 43 30 44 39 52 48 26 33 29 47 21 41 26 35 23 22 20 30 37 26 30 39 32 33 33 37 22 28 48 40 19 40 37 43 46 59 68 49 50 40 34 37 37 55 22 50 27 61 31 31 56 30 23 52 47 33 23 45 39 45 36 37 33 30 39 40 44 36 29 32 33 38 27 34 62 30 43 41 37 39 43 30 34 28 19 47 34 23 33 42 26 30 36 36 43 57 38 31 37 40 33 50 30 52 26 36 40 31 51 38 30 24 51 23 34 40 29 43 45 58 26 47 42 55 30 57 50 34 40 40 32 46 44 47 43 34 65 48 30 30 43 23 37 45 34 39 37 51 46 43 26 48 50 38 22 27 26 35 54 47 33 46 36 51 47 55 59 59 40 44 55 44 35 37 37 55 34 50 59 26 41 23 43 34 48 47 30 39 37 46 38 43 43 52 51 27 39 25 51 16 16 42 32 42 37 64 23 44 36 54 46 51 54 53 27 51 27 57 37 25 51 34 41 39 37 55 31 26 29 30 52 31 39 30 35 55 29 57 30 34 38 38 47 30 37 44 44 33 40 32 29 35 40 22 44 23 36 43 31 40 16 29 49 29 51 36 45 46 29 40 40 45 40 43 49 48 24 30 47 38 60 26 37 56 48 24 42 23 43 30 32 43 47 43 40 41 41 27 40 16 36 27 42 41 52 29 28 29 43 26 52 39 36 35 45 37 38 48 22 48 36 36 30 43 23 25 23 26 37 46 33 52 47 23 33 51 30 51 31 33 13 31 41 33 40 44 27 35 26 45 42 36 40 44 48 34 22 37 29 43 23 41 40 41 32 40 30 27 18 23 48 47 33 31 38 35 17 28 52 49 31 41 56 32 54 30 51 50 33 49 64 43 54 32 44 56 23 40 31 23 41 31 29 49 39 44 53 30 54 53 23 42 36 69 40 40 47 16 57 34 41 30 30 23 43 34 51 31 43 51 20 20 44 52 51 29 34 45 40 30 46 22 50 35 38 34 43 47 20 20 41 45 36 30 38 55 39 45 33 16 40 27 47 43 16 13 30 59 38 58 45 30 37 31 36 45 27 35 51 38 34 46 29 30 29 55 45 34 36 32 44 39 43 49 45 26 49 47 51 29 20 40 36 32 54 22 45 37 57 44 34 37 30 27 48 46 32 29 44 51 23 39 34 30 42 45 43 26 24 40 33 50 38 48 47 47 51 34 43 45 31 29 37 49 39 37 37 43 36 43 49 16 36 36 23 26 37 58 60 45 45 37 53 39 41 37 38 30 24 40 51 29 31 35 46 55 31 29 47 52 48 37 39 57 47 37 41 51 37 31 40 58 46 27 45 39 30 36 32 37 36 51 44 47 36 36 41 43 44 55 44 43 27 46 45 52 40 27 41 43 44 65 16 43 33 39 33 37 44 22 55 35 41 59 50 44 35 43 20 36 33 34 31 29 41 47 59 41 29 40 54 36 35 45 29 30 36 34 43 47 41 43 61 15 46 31 27 36 62 30 62 33 56 43 33 36 46 36 48 45 60 34 45 31 47 50 27 33 41 37 41 32 38 36 48 59 60 57 36 41 37 30 31 49 31 33 41 33 51 44 37 33 42 44 19 36 33 55 33 34 32 29 45 37 30 27 43 36 23 38 40 49 22 59 33 44 46 30 54 27 43 19 50 51 31 33 22 38 53 24 43 37 33 49 34 23 26 35 20 30 19 26 45 40 33 52 26 22 39 46 27 41 43 39 52 53 26 43 52 23 44 31 39 34 31 54 56 43 40 35 29 52 16 37 22 47 23 36 51 23 33 36 56 43 23 61 25 40 36 58 34 44 34 41 38 42 59 33 45 43 37 19 33 38 41 30 40 27 37 33 31 30 41 28 30 43 47 26 36 34 32 33 51 27 45 24 58 40 49 26 25 48 34 44 48 31 24 34 31 15 45 32 30 58 33 36 53 33 44 53 34 43 38 27 30 35 65 28 30 25 25 43 24 16 26 48 33 24 28 34 50 31 35 46 24 27 43 41 34 35 46 43 39 27 41 23 32 45 40 64 13 41 30 22 41 29 29 45 44 31 58 23 30 51 51 30 44 49 47 26 15 44 33 40 29 31 22 43 33 22 41 45 44 37 36 51 40 48 16 21 44 47 36 30 20 45 29 41 31 29 36 37 33 29 37 29 31 39 32 37 18 37 23 44 41 43 40 47 34 44 45 46 30 68 54 43 9 23 24 31 40 38 58 48 43 43 45 30 42 51 31 43 32 49 46 33 47 30 54 41 35 24 44 50 34 40 31 40 30 23 49 40 19 40 27 47 39 13 31 62 64 30 34 34 32 38 31 36 24 37 39 33 36 40 40 12 60 40 59 59 39 50 32 53 36 29 33 15 40 31 45 48 24 39 31 46 30 37 43 50 29 30 47 40 44 34 30 59 41 28 44 49 38 36 44 30 33 33 43 30 26 36 35 24 25 47 47 39 30 30 38 48 37 37 51 54 44 53 40 35 43 51 25 45 55 40 37 33 46 39 31 43 45 46 27 40 55 43 15 27 53 19 31 32 37 50 38 50 20 48 49 30 45 30 23 50 57 41 40 40 30 38 43 33 38 26 22 42 48 65 32 44 30 23 39 37 30 28 26 19 42 16 45 43 44 41 30 40 33 46 56 44 59 31 46 52 59 37 54 27 40 37 45 31 30 37 37 40 45 34 55 38 33 34 58 40 40 33 31 16 47 32 37 40 27 26 43 22 25 40 40 36 42 51 33 45 37 37 51 29 25 55 29 41 38 34 43 48 29 35 34 31 37 33 40 36 40 41 49 63 56 34 18 32 51 41 40 30 37 28 55 58 28 47 45 34 33 41 14 65 51 40 32 54 23 41 51 43 34 57 37 22 31 50 36 50 46 51 48 41 43 26 43 41 52 39 33 51 23 41 51 31 50 26 26 62 34 41 51 35 60 35 40 29 35 45 35 51 51 48 36 50 30 23 30 24 37 31 47 22 29 43 49 19 38 33 42 38 47 47 43 43 51 45 45 38 42 31 45 38 45 29 50 29 48 29 38 44 37 52 50 47 27 51 28 38 52 54 41 45 28 52 41 41 37 30 49 31 42 28 44 34 35 38 55 50 28 37 35 56 29 40 35 16 49 30 37 48 42 33 49 46 20 51 46 45 41 49 29 41 19 30 29 30 16 26 37 40 58 54 37 23 42 50 50 37 44 43 26 49 31 64 47 37 28 32 33 30 21 55 48 23 38 43 37 46 36 34 30 41 27 31 49 44 38 42 22 37 23 33 55 40 41 23 52 34 34 34 60 37 23 48 35 33 26 46 45 45 37 30 33 49 40 50 24 46 55 44 43 43 31 55 51 47 43 58 50 53 53 41 37 40 55 57 54 51 52 37 43 32 38 38 60 35 43 35 26 31 35 26 33 14 35 47 26 37 33 19 30 23 35 48 38 40 23 50 20 34 31 49 37 48 37 31 27 30 33 37 50 43 37 38 30 54 28 19 39 44 48 37 28 35 45 32 40 33 32 31 30 30 35 48 32 25 37 33 33 41 50 50 48 34 45 45 33 48 34 29 35 33 63 46 33 33 37 37 41 38 32 45 46 46 27 42 33 34 41 37 37 55 40 36 37 40 37 30 48 46 37 43 15 48 54 31 38 28 37 48 48 42 50 57 47 44 19 47 38 29 23 35 34 37 34 23 45 34 33 40 40 57 44 23 39 29 43 45 41 47 41 27 58 22 19 37 37 37 27 33 48 30 49 51 36 41 34 51 47 65 56 62 26 52 35 27 34 49 50 51 46 40 71 19 41 41 34 26 40 43 46 37 27 38 26 37 51 47 45 28 44 47 48 59 43 49 41 62 40 22 34 45 42 45 56 75 42 30 43 22 43 27 48 39 45 40 46 37 30 26 41 53 36 51 26 29 51 33 53 41 38 27 41 51 67 38 30 54 44 45 50 44 26 37 71 33 48 27 40 23 29 20 49 47 54 33 59 40 27 33 33 26 31 39 55 29 45 38 31 41 27 43 37 24 25 40 44 54 33 31 43 40 57 30 34 18 28 35 42 33 54 40 49 39 39 49 31 37 51 22 35 43 34 37 60 16 32 31 40 29 30 35 24 46 38 53 35 33 41 37 36 48 51 47 49 29 34 20 31 49 51 38 45 35 38 38 50 34 33 44 51 38 47 24 51 52 28 27 37 37 37 47 36 26 28 38 35 41 21 56 59 40 24 15 32 28 68 17 35 32 50 37 25 37 53 54 45 23 32 40 30 33 37 55 41 45 34 43 27 34 30 31 54 34 37 57 33 43 36 31 25 34 59 31 33 49 41 39 53 41 30 43 45 30 27 36 48 34 52 32 40 24 37 39 22 33 38 44 59 51 26 43 43 44 37 26 33 43 34 35 44 40 34 24 51 27 41 31 23 13 24 40 31 39 50 47 45 43 21 28 43 27 59 29 23 42 37 50 22 33 33 44 23 55 51 47 29 40 37 40 41 40 30 36 36 53 37 41 30 49 52 47 35 44 30 23 27 44 36 58 30 60 51 30 37 33 36 45 36 33 34 33 35 53 28 33 36 32 20 36 38 55</t>
+    <t>NIG(12.287235888595976, -0.16686175437911177, 0.21709910125552973, 41.43084707601545)</t>
+  </si>
+  <si>
+    <t>21 3 12 11 -7 -7 -4 -10 -9 -10 -14 -4 -8 -20 -8 11 7 -16 6 21 5 1 9 -13 3 7 1 -17 8 -14 -7 20 -6 -18 -2 4 -11 -4 -11 23 5 17 -10 -7 9 3 -18 -3 -6 -3 2 10 3 10 17 1 2 8 -13 -7 -6 4 -2 -6 -10 10 -6 -3 10 8 -6 -20 9 17 -7 -17 3 18 8 3 7 -7 14 -1 -29 6 8 -3 -16 -10 9 -16 8 -13 -14 18 3 35 2 -7 10 -6 -1 -10 3 7 -4 4 -1 -2 10 -14 21 10 10 -14 -3 -14 -31 7 2 -1 -19 -3 -13 14 -7 -10 4 3 -6 4 -8 3 -11 -13 3 15 31 -5 -10 -3 7 -6 3 2 -7 -7 -3 -3 -29 -9 3 -7 9 3 -13 -5 -2 12 8 -6 -6 14 6 1 -17 -18 -3 -15 1 -11 -11 17 1 6 0 -6 -2 13 -14 -13 -17 18 -3 -3 10 4 -25 2 3 -7 8 9 3 14 8 -9 -13 5 -27 -2 -11 -23 15 4 -14 -16 -3 -15 -13 -4 -18 2 1 13 8 -2 -2 -23 -12 -14 1 -3 -2 -3 13 -7 -18 -10 -2 12 7 3 10 -5 8 -41 3 3 -13 -7 -11 3 3 -7 11 4 -10 2 14 14 -4 3 13 -5 -7 -11 -3 -10 -19 11 17 -4 3 4 -3 -17 12 -5 -22 -4 3 20 -14 -18 -3 -4 3 -10 5 5 3 -9 -17 -11 6 -2 -4 6 -9 -3 7 -2 19 15 -3 -8 -21 1 -3 5 1 -9 28 13 -7 7 6 -10 17 -17 11 -9 6 -12 -1 10 2 -30 -16 -7 -28 17 -7 3 -8 7 -14 9 13 -8 11 -35 1 -19 -6 -3 3 -12 -3 14 -2 10 29 -9 -10 -8 10 -9 -3 -18 12 -7 -14 3 -3 -5 4 -19 -5 -12 21 14 -9 -14 16 -13 15 10 37 -10 8 -2 5 -10 -12 -24 -18 18 9 -14 -21 -1 -26 -22 5 15 9 -7 -11 -4 -7 -13 6 -17 24 3 32 -7 -1 3 10 -4 6 -18 -8 8 -2 -3 7 -6 3 10 -6 24 18 2 -6 -7 10 11 -6 11 20 -22 1 -3 -17 -3 -3 -5 5 -3 5 3 -5 -10 1 23 7 -7 6 8 -20 7 10 -24 -8 13 -2 -3 3 22 -11 10 3 -14 11 17 -14 -7 -6 -17 4 -14 -17 -24 -2 3 4 7 -3 -16 8 -17 -8 -3 3 -6 -14 26 -3 4 6 3 -7 12 -7 -13 -7 30 3 -18 18 -4 -14 13 30 4 5 8 -3 17 -4 7 4 0 -4 -15 -1 -18 1 -3 19 -15 4 -7 -6 14 -6 17 13 -21 -10 -8 11 11 7 10 19 12 -6 7 -6 -6 -2 -10 -10 30 -3 6 -28 24 -4 5 1 3 -2 -4 -17 3 -5 5 -17 3 -6 -14 -8 -4 -3 -11 -11 14 16 12 15 -6 1 8 10 -8 3 6 -6 3 21 -6 4 13 19 -3 7 -11 -8 -4 -5 2 -9 3 1 -15 14 7 -10 -2 3 -1 -3 -27 -1 3 -5 -12 -7 12 -15 -17 -3 -2 -8 -14 27 -4 -17 -5 11 -6 20 31 -11 20 -17 9 -4 0 8 -14 1 -1 17 -14 -3 9 -3 -8 4 10 -18 -2 -3 3 -8 -12 3 8 -11 -7 -14 -11 -3 11 -3 3 -28 -5 -4 5 -17 -6 9 3 -15 -14 -11 -10 35 -11 18 -12 -16 -19 -12 -7 -14 1 -17 4 -13 14 10 23 -8 4 -3 -21 -5 -3 3 7 3 -2 13 1 3 -3 -3 13 7 6 -14 17 5 5 -15 -4 12 -10 24 -3 -14 -7 10 14 -7 29 10 6 -3 3 15 -6 21 7 4 -3 11 11 -6 4 21 -25 -6 -4 -7 -14 14 -30 10 -22 7 -20 -1 -17 -13 3 -2 -13 5 -22 -8 -17 -7 26 4 -5 -6 6 4 -3 -7 7 7 -13 -7 8 11 17 10 10 20 -6 -7 -6 -3 -13 -22 4 -20 7 -13 -9 7 -21 3 -17 2 -5 -3 5 -6 6 12 -11 7 -6 7 -10 -4 -3 -12 -2 -3 27 14 34 3 -9 -3 -15 -27 11 -13 -8 10 5 -13 11 8 6 -1 -7 -3 -13 -2 -30 -2 -28 -3 3 8 -3 -1 -4 4 8 -1 -17 28 -19 3 -11 16 7 -6 10 2 14 -2 -2 11 2 -8 -14 10 -8 -3 -24 -7 -3 -7 7 -11 6 -10 19 23 -2 13 11 5 5 7 -4 11 -13 -4 -3 7 10 5 -10 3 14 -21 -2 -13 -16 -8 27 3 14 -8 -12 -3 18 -11 -6 3 2 -12 -13 8 -5 -3 6 -3 10 3 -8 -18 -10 14 -6 20 3 -14 -24 7 -3 21 -17 21 -7 -4 -18 -2 -9 -10 34 -14 14 -7 -6 -3 -7 5 -2 4 2 7 6 -4 3 6 4 11 -11 13 6 3 -6 -11 6 7 35 4 9 1 -3 -10 35 -23 -3 3 5 -7 -24 8 11 -24 -12 -26 -17 6 -20 2 -10 -6 -10 -3 6 13 14 -3 3 -2 28 -3 -2 3 7 3 7 -13 27 -4 -9 -6 11 -3 -7 24 -4 -13 -15 -22 20 13 22 13 -3 21 3 -3 2 -21 18 -7 6 -28 10 12 11 -2 -6 -3 3 11 9 -32 15 5 -6 3 -28 -15 -3 -3 10 -2 -19 -3 2 10 14 6 -10 -3 -2 5 6 11 4 10 -7 -6 28 6 -3 -4 6 13 2 -7 19 -7 23 -5 12 -6 -7 -7 6 -21 -9 10 9 -19 14 3 -7 -6 12 10 8 -4 -12 6 -17 -17 4 3 3 13 2 28 -24 -13 2 -7 -2 20 -14 3 8 17 18 -6 -31 25 10 -17 1 25 16 -10 4 17 18 11 7 6 3 -5 34 3 -3 7 -2 2 34 -11 -6 -11 3 -5 -16 20 -14 14 3 10 -10 -9 2 -23 3 -3 9 -7 6 7 -26 3 3 17 -30 -6 18 3 4 10 14 6 -21 -4 -26 18 3 -10 -8 6 21 13 -26 -18 14 -1 -12 3 -15 28 -3 -21 3 -7 -3 2 20 -8 10 3 3 16 -3 -7 -4 4 -11 22 5 -13 -7 -1 -17 12 -7 -12 6 13 -3 -17 11 -15 -3 -3 14 16 -1 1 4 -14 11 -7 -3 0 3 -6 48 7 -7 14 10 4 -5 -3 13 23 11 11 -17 -8 28 -24 -4 -5 7 3 -14 17 11 3 3 3 -13 7 2 -9 10 -6 -14 -10 -1 -2 -6 3 -1 8 2 3 -7 -7 8 6 -5 11 -3 -20 -16 -14 3 -13 6 -16 7 -3 -3 -3 -19 -3 -9 -8 4 -6 17 3 -4 3 11 6 15 3 10 21 -2 11 6 7 14 -5 1 -7 28 -11 1 -22 -11 -17 11 10 -3 27 -6 17 10 -10 6 -3 20 -7 2 14 3 -9 -11 -7 7 6 -7 -26 -11 1 26 3 -17 4 3 10 -21 -5 -14 -1 25 -5 6 25 -4 -10 21 -3 -14 11 10 4 -21 18 -4 -6 -4 -18 8 6 -13 6 17 -7 -3 -7 -3 1 6 18 -3 -2 5 25 0 1 -2 -15 -6 6 -5 -6 -20 -3 21 -11 21 -28 -6 5 12 -6 13 6 -9 -12 -6 -18 21 -11 -4 6 -9 14 -25 3 2 7 -7 9 -14 -2 6 -8 -17 26 -5 3 7 -1 4 -8 -13 21 28 9 3 -6 -7 -10 5 -3 -10 10 -8 4 -6 -15 -12 -11 8 -14 -3 15 14 -15 -14 -2 1 -7 -17 11 1 13 13 -24 -7 -3 -7 14 2 -11 -13 6 7 14 42 -42 2 -12 -1 4 7 5 -7 -8 -3 -6 3 -19 -10 18 -8 -2 -7 -11 -4 13 -6 -3 17 -21 1 -5 20 -3 3 22 6 -4 17 17 -24 3 4 -4 -11 -11 -3 3 3 -20 -3 3 19 -5 -6 3 31 7 -3 -13 -13 3 -8 -21 13 -24 14 4 -3 20 10 15 4 -3 -12 2 6 -1 4 -20 33 -17 25 7 10 -3 1 -17 2 8 -4 6 7 7 3 20 18 -5 -14 -2 11 27 3 26 -5 13 -6 6 -10 -3 10 -14 -21 -2 3 -5 3 4 20 -8 0 -11 -10 1 14 -37 -2 -20 19 9 11 -14 -13 17 -31 31 15 -3 -7 32 25 4 3 14 4 23 -14 10 -7 12 8 3 -3 -21 2 19 -6 14 -15 -2 -10 20 14 -5 3 14 7 -15 -3 -24 16 6 3 3 -3 3 8 -11 4 -6 3 15 -15 -6 1 3 -3 -3 -10 25 8 -6 -7 -29 -16 10 -4 3 -3 -14 3 -6 -18 -24 -12 -12 -17 10 7 -2 9 6 17 16 8 -3 -6 -2 18 4 -8 -14 -3 4 -3 3 -13 7 17 5 -2 -11 -20 3 -9 -14 18 3 8 24 10 17 -19 3 7 0 -8 -48 14 2 -3 7 -7 -5 14 -11 -10 17 8 -5 4 3 14 -7 -5 -5 2 14 -11 -2 4 -1 4 2 7 -7 -21 3 7 -23 0 20 17 -10 14 -25 5 -1 28 -3 -18 4 11 7 3 13 -14 7 4 -12 17 10 -3 18 -1 -2 3 -3 5 -14 -4 6 18 16 -18 14 3 10 -3 -3 9 15 -16 -13 -2 -3 10 -9 -10 6 -3 20 8 3 -6 7 -1 15 1 -6 -2 6 22 9 10 6 -3 -3 6 3 0 -3 -9 17 6 -14 -3 6 -18 5 20 -12 -17 6 -3 -14 11 -3 -16 -8 -23 -3 -3 -3 12 -11 -15 -7 22 4 -8 -33 10 17 3 13 4 4 2 -2 -13 3 11 -6 -4 -9 -5 3 -2 -17 4 6 -4 4 -6 11 6 -3 3 9 -13 -7 20 -13 0 8 -11 -11 -3 -10 -9 -10 -5 2 -25 11 -18 -4 4 -11 10 6 -6 2 6 -24 -24 -10 -3 -21 -7 5 -4 -6 1 -3 8 -14 -3 -1 17 -3 -10 17 12 7 11 30 -5 -5 0 7 -13 -16 -3 2 6 3 -13 -5 -9 24 11 -5 3 4 5 -14 22 24 -3 6 -5 -7 -4 -3 9 7 -6 -18 8 -14 7 3 -1 -7 -3 3 -21 8 10 4 -3 -7 15 -19 -10 -4 -3 9 -15 5 -3 -20 -2 3 -12 -3 -17 -10 -7 -3 4 -7 6 -4 -4 4 4 -1 -8 -17 13 19 -5 7 -28 5 -2 -2 3 -11 2 -5 -11 2 1 -3 9 15 -4 13 1 -3 -21 6 -20 -1 -3 19 -8 -10 -13 -17 -2 3 -21 -6 -17 5 14 -13 -15 17 -7 -13 3 -3 12 17 -3 -11 18 -8 -10 20 11 -10 11 3 3 5 6 3 -6 -9 5 6 3 -6 -18 2 3 -2 -25 -4 16 -4 -10 14 28 19 3 -11 3 12 -11 -2 -8 1 -3 8 1 3 20 -8 0 2 3 -5 -18 10 4 27 11 -8 -4 -7 -4 3 7 -2 10 -7 -5 -5 -3 -24 -8 -23 -3 -10 -2 -19 -15 5 -11 2 5 14 -18 13 10 9 -14 -3 4 -14 -6 7 6 -16 -8 -9 -4 -20 4 -7 13 6 -13 7 4 -2 24 -6 13 5 3 3 -8 15 -13 12 6 25 4 -12 -2 1 11 -6 4 -12 -7 3 -6 -3 -8 4 15 7 4 7 4 -4 13 35 -10 21 9 -38 -7 -15 12 21 3 -24 -6 -16 -14 18 -14 -2 -20 15 -3 -22 27 -17 -13 14 6 6 17 -10 -14 -4 1 -1 -6 -6 6 -7 14 4 9 -4 15 -7 3 -3 -8 -4 5 10 4 2 0 -7 -10 -20 15 -3 1 5 -3 10 11 -14 -1 6 11 -6 -7 -10 11 4 13 -23 4 14 2 5 -4 3 -6 6 -3 31 6 -15 -6 -10 -6 3 15 -14 5 5 -4 -17 -9 3 6 17 -13 14 -17 -27 11 -6 7 8 14 20 -13 26 -8 1 9 -6 -4 2 -4 -4 5 2 -8 -16 -10 -7 6 -16 -12 10 3 10 -3 -10 6 10 4 -3 -19 -1 24 2 -14 -16 3 20 -11 18 -3 4 -3 20 -6 6 -7 5 6 -10 -3 19 -11 -3 7 -3 -28 -14 11 -5 -6 3 -13 -13 4 -16 -8 32 -6 3 -3 38 -4 -8 3 -10 5 -9 1 14 -3 -2 -14 -14 17 17 14 -15 -1 -9 3 10 -14 -23 24 17 -36 -30 -2 -19 4 -3 -25 -16 18 -12 4 -2 2 15 7 -13 -10 1 -2 -8 -12 3 -3 20 -7 17 14 -6 9 3 -9 1 8 -15 7 8 24 -3 3 -14 -28 4 -3 -10 -7 -7 -20 -11 0 -15 -21 -3 -1 -4 18 8 12 4 -7 -3 3 3 4 9 11 -14 -5 -1 12 -16 6 22 10 -13 -7 -12 -1 -4 -6 5 -3 -12 -3 8 -4 2 -14 2 21 5 -7 14 -7 6 -3 -6 -15 -3 -10 9 -16 -5 -13 -3 -10 -2 7 -11 -26 1 -10 4 3 26 14 12 -4 -9 -7 7 -8 -4 19 -6 1 -11 -17 8 -18 -6 5 -3 -15 -14 6 26 -6 -19 -3 27 7 -18 -3 3 -1 -7 29 3 3 11 22 -6 -19 25 -13 19 -5 6 3 2 12 -4 -8 -22 -10 -10 13 -10 5 -20 -13 2 -2 -4 -7 -3 -12 9 14 -3 2 4 5 -6 -2 5 5 -18 7 35 17 -6 -2 9 1 1 -7 14 6 1 -6 10 -9 -13 6 5 15 -11 7 1 7 -3 3 2 -6 6 -2 7 -8 -3 -2 3 8 15 -5 13 6 -7 -21 -4 -2 3 4 -5 7 4 7 -14 13 13 20 -3 -23 -3 2 6 -4 3 -11 -28 -6 2 -13 -8 31 -3 5 -12 -5 -3 -7 -6 14 11 -14 -11 -2 3 1 15 8 -15 3 7 -14 9 -4 -7 -18 -10 7 -10 3 14 4 -12 1 -3 -7 9 3 -11 6 -17 16 3 21 5 5 -3 -17 -14 4 3 -1 -29 4 5 3 -10 24 6 5 -2 16 17 2 -15 1 -13 -22 12 -5 21 9 19 17 14 5 18 -19 -10 -3 15 -7 -17 8 8 7 -7 4 -14 -25 3 20 -21 29 24 -6 -3 -7 -11 -3 8 -18 7 -21 6 -3 3 -16 -5 13 -19 13 -6 -3 4 -20 9 11 -4 -4 -5 -3 -15 1 7 -1 -11 12 6 -1 5 5 13 6 -10 -13 -3 -10 0 2 16 21 -3 3 -12 -8 12 -4 0 11 -8 -17 4 5 -26 -12 3 -14 -26 -7 -1 -28 -9 5 -11 7 3 4 -10 -3 5 18 -14 7 -7 -33 -12 0 -4 -1 4 -14 3 3 -2 -16 6 -35 15 -2 -17 11 -9 15 10 -6 8 10 3 18 7 -28 12 10 -13 3 -7 5 6 4 -5 27 -14 -4 4 -9 2 21 10 -1 -7 -4 14 9 -14 -7 14 26 -22 15 1 -7 3 14 -19 -4 10 8 25 6 6 -4 2 10 -7 -3 3 17 3 -3 -1 15 1 -1 3 19 5 15 -6 -4 3 10 15 2 -6 -5 -5 -8 -6 -4 -6 -18 -8 17 5 -3 -2 2 3 10 -2 -8 -3 21 10 -3 1 -5 3 -6 4 -32 -23 -32 1 14 16 -1 28 -3 3 -6 15 -10 3 11 -10 8 -5 -6 -5 12 -14 -9 -10 -27 0 -10 3 9 5 -23 4 4 -18 4 -27 4 -8 -3 3 15 -5 -6 -13 3 3 24 7 -3 -9 -14 -7 -21 4 2 9 8 6 24 -3 8 -11 -12 -4 -6 11 18 -6 -24 14 -1 6 7 -22 -3 7 6 12 -13 -6 3 -5 4 -24 -2 7 1 14 3 -9 -5 21 24 -3 10 17 -2 -14 -3 -7 -13 3 8 -35 -3 25 -17 -3 -12 3 -10 -6 9 20 -17 1 -10 13 3 -1 -11 13 7 -5 -7 -17 -3 20 13 3 3 12 21 1 5 20 3 11 -5 -3 1 -6 4 28 -20 3 -4 -14 -8 -21 -7 9 15 3 19 1 4 3 -3 8 8 -14 6 -12 -5 0 -8 17 -18 9 -17 -6 4 7 11 7 3 14 -2 14 -15 14 11 30 3 -6 -12 1 -17 -6 -3 -23 -13 11 3 -8 11 -3 18 10 16 -11 6 25 -7 1 -3 -5 -6 13 -21 -6 18 -8 12 -18 -22 -21 -10 -6 -1 -3 5 18 13 5 -8 7 9 20 -13 14 6 6 11 11 13 7 -7 -11 17 -14 5 12 3 12 -3 3 -3 3 -26 14 -2 -7 -19 7 -17 7 -4 7 6 2 -20 3 -6 18 11 -7 -2 -3 3 6 14 6 3 -3 -5 21 -13 6 -15 3 -8 -6 3 11 4 3 9 -8 6 -21 -17 4 8 3 8 4 -3 -8 -13 6 -2 1 7 -21 -6 -13 -13 -19 5 8 3 -3 -11 3 -13 3 -3 -7 19 11 17 21 12 -1 8 3 -21 -3 -17 -11 -3 21 7 -13 -1 24 4 -10 -3 -10 -5 12 14 -22 18 8 1 -6 2 -2 5 -3 -2 10 8 3 7 -21 -1 -3 7 8 6 -7 -7 -13 -20 6 -24 -31 -4 31 8 -7 -3 0 3 17 3 6 31 -7 9 13 -13 23 -8 -4 10 -3 -7 37 -8 7 3 -13 -1 6 -3 7 2 -3 29 -7 -9 -1 4 -4 -6 -10 5 -2 23 7 13 -19 -28 10 6 -29 11 -30 -19 -30 24 -10 20 -3 8 10 -24 9 21 -10 -8 -3 -3 8 -13 -14 -3 24 6 3 21 6 -21 3 3 -3 -11 -14 -10 15 -14 10 18 18 3 -12 -10 -5 3 4 4 -12 -15 12 3 -7 -6 10 -6 -19 3 -4 -3 -6 0 3 -5 -10 3 15 -9 -27 7 3 3 -8 14 -7 -8 -13 -20 -12 31 6 7 -8 3 6 -11 -4 -2 14 6 -3 12 22 -26 10 13 18 -3 1 3 8 14 -6 13 7 2 8 21 -9 -6 -6 7 -17 4 7 -12 7 -3 2 -8 2 7 -3 3 7 49 -13 3 7 10 3 11 28 -3 -14 6 -5 -27 -11 -5 -29 -16 9 -3 21 -3 6 14 -17 20 21 -7 6 19 -9 -4 -4 9 10 -11 12 11 -6 -19 -8 2 5 7 15 17 6 -8 2 -4 -14 -4 19 -2 3 4 12 -12 5 -38 -21 12 3 4 -21 -19 -4 4 -22 17 8 -15 6 -6 -26 -3 -6 -12 17 -3 7 14 27 7 -8 -3 25 -11 -7 6 -17 -11 -3 31 7 -9 14 8 -17 -3 -6 -14 6 -6 -3 0 -6 2 -4 -10 4 11 -17 18 -6 -18 2 7 3 13 24 -5 -18 -3 25 -15 -7 -7 3 -11 -5 9 -10 4 10 -20 15 33 -21 16 -10 3 -4 17 -8 -20 3 7 -7 9 -7 -9 3 3 9 7 7 3 4 19 -6 1 -6 -4 15 6 -8 -3 -14 -18 -6 3 -1 -5 11 -3 14 -15 11 10 0 -14 -2 -12 -7 -13 3 17 -3 0 6 6 5 -14 -3 11 -8 -4 2 -15 3 -6 -21 7 12 12 -23 10 11 -9 7 -21 2 -17 -27 4 3 -7 11 -21 8 -13 -18 -14 -1 -1 -9 -1 7 -13 4 10 -23 33 17 -6 9 -8 -3 -15 8 23 9 -7 3 -5 6 -7 9 -3 7 -10 -4 -6 -17 -6 -13 -20 -13 -10 -6 -10 7 -3 14 1 -14 -3 -8 -6 14 9 -5 -9 -14 7 8 6 -3 8 -14 4 -3 11 -3 20 -7 -7 -7 4 -10 7 -14 5 -20 6 21 -18 6 3 9 -1 0 -3 1 8 -3 -3 1 13 1 -3 6 -14 -3 -2 4 -7 6 -18 -9 3 -7 12 -11 -11 -10 -23 13 -11 14 16 -3 9 17 10 18 -9 -3 -2 -11 -18 -3 -4 13 -9 -1 9 -21 -5 10 1 -18 -20 -13 17 14 -6 -7 -3 -36 1 -12 0 -9 6 -11 2 -2 10 -3 -3 -4 -28 -8 7 -2 -3 11 11 -9 -3 24 -23 -3 -3 11 9 -5 -11 -5 14 -4 -2 1 3 10 -5 -7 3 13 -15 -17 25 -32 27 -8 1 16 6 -3 -10 -20 -14 3 -6 -14 3 3 -14 5 -15 -4 2 21 2 -4 -3 11 -10 3 -2 -4 -25 -4 -3 13 4 5 1 3 9 -9 -10 3 -8 -17 6 -4 3 10 -3 -2 14 -21 6 -12 11 4 1 -12 -3 1 -6 -17 4 18 7 -3 5 3 -10 23 9 -8 24 5 7 1 8 11 -7 -17 1 -37 5 -7 6 -9 10 5 -7 5 -3 1 -16 3 -4 -10 2 14 -5 -20 -6 7 -14 9 -16 -24 -3 -18 -17 -2 3 11 14 -7 4 -3 -18 20 2 2 8 -13 -3 -7 3 10 -7 11 14 4 -1 -5 1 8 7 5 -8 7 -3 -1 -14 -3 19 -4 -18 10 -3 3 2 -4 -1 -19 -28 -1 -14 16 -26 -3 -10 16 -8 -4 -16 -2 -5 -1 2 3 6 -1 6 -18 -13 -11 -20 -8 19 -14 9 -4 -28 6 -8 8 18 4 -6 19 14 -17 13 13 -8 -10 -3 -5 8 -31 14 14 -7 -8 -5 0 8 -5 -4 3 -10 3 -11 3 -13 -3 9 3 -1 0 1 3 -18 -3 -27 20 -5 7 4 -7 15 6 18 9 2 -17 10 17 12 -1 11 -3 17 -27 31 8 8 -3 9 -21 9 1 -3 5 -1 -3 -16 -6 -4 11 6 6 -2 -13 14 2 -5 11 -14 14 -25 -3 -3 -4 24 4 2 -5 2 3 -7 7 3 -4 4 -17 13 -18 2 20 -3 -6 1 -10 -3 -5 -13 6 5 2 -20 -14 8 11 5 19 -13 -9 4 -14 -14 -1 15 5 -4 1 7 4 3 -12 6 -21 7 -3 8 10 -17 13 -22 -24 9 8 -17 -3 -21 -7 3 6 -3 13 12 -8 -5 -3 -14 16 13 21 -12 -1 3 -3 -7 8 -3 -16 -3 -17 -15 3 -11 14 -2 19 7 -18 17 -8 15 24 -20 3 3 4 -31 5 -8 -4 7 -20 -2 19 -17 4 -6 9 3 4 -15 10 15 -4 28 8 -3 6 -17 17 -6 24 2 -34 -17 4 21 14 5 3 14 14 -13 -17 8 6 7 -3 -3 -7 -3 18 -22 41 31 4 16 3 10 -2 4 4 -14 -13 -14 2 -28 -6 3 0 -3 -4 27 -7 5 6 2 3 -4 -24 -10 17 3 13 18 18 7 -4 -7 -8 -4 21 4 -11 -5 -8 -14 -12 6 -1 -3 -7 -8 -21 14 -13 3 3 -8 -13 10 -5 25 -22 2 -10 7 -1 6 -17 -1 2 3 1 21 -4 13 -14 -24 -6 -12 3 3 13 4 5 11 3 -2 7 -5 -21 3 14 -8 17 24 -8 -3 17 2 10 -3 -31 6 -33 -6 -4 -23 -3 0 -1 -14 -2 16 1 7 12 13 3 1 1 -9 6 -14 -7 -1 21 14 -11 18 14 10 -6 6 -3 -14 3 6 -8 7 -3 -3 18 -13 14 1 -10 -10 -4 -2 -3 -17 -4 14 -1 13 -3 10 -9 -7 -5 11 -4 6 -22 1 -17 7 13 3 -17 17 -14 -10 -3 -6 -6 13 6 -17 4 7 -6 3 7 7 -34 10 13 20 14 7 -4 -8 3 8 10 8 4 15 7 8 -17 -6 7 -37 3 24 3 3 7 14 5 -9 10 2 3 -34 -12 -6 -13 12 -14 -3 4 12 11 -6 -26 29 3 -8 -8 14 4 4 -17 7 -21 -3 3 20 -18 9 -2 3 10 -4 -9 4 16 3 6 -7 -6 10 6 -6 -10 11 -9 5 13 -9 -6 14 25 -11 -15 -13 -18 6 -23 -17 3 6 -7 15 17 -1 -6 12 -2 -18 7 -5 20 -26 -7 3 13 -17 -4 -8 3 11 -21 -16 7 -6 -17 6 -17 8 -9 11 6 -9 7 7 -4 15 -6 -6 -6 12 15 -3 -21 1 1 5 17 3 18 -3 24 20 -12 5 -14 -3 -4 -16 6 -8 2 4 6 -9 -10 -15 6 -3 -7 -4 -5 3 4 3 -17 14 17 -5 14 1 5 -6 -7 -16 3 -6 -3 7 7 14 -10 -3 -15 -11 -23 2 6 3 -3 4 22 -1 13 12 -14 9 -14 4 -10 -3 -4 17 11 -37 3 11 3 -8 18 -3 -14 14 -12 1 2 27 -6 3 3 -1 10 5 14 -24 25 -6 -22 -8 0 7 -3 20 -3 -3 9 -20 7 1 10 -18 -28 11 -2 -18 -6 -7 3 -1 -6 4 19 -10 -14 0 -14 3 5 3 -13 23 -19 11 -3 -5 31 -6 -15 -10 -7 -3 -1 -8 4 14 11 -4 21 7 28 -21 -5 -11 7 7 6 1 7 3 17 -13 3 10 7 -3 -17 -25 -13 24 -1 -5 -23 5 5 14 3 -3 -18 -7 -6 6 10 7 1 7 4 3 22 6 5 6 -11 23 11 17 1 -4 13 3 -7 -3 20 -1 18 16 -3 -5 -12 -6 3 24 10 10 -4 1 2 -3 26 -6 4 -20 -3 -20 7 24 12 -23 -5 -3 -6 5 -16 7 -7 -3 4 -21 -24 -25 -3 20 4 -8 -3 -3 -16 -34 16 -25 -2 12 -5 10 -23 -25 -21 30 -13 -8 4 3 3 -1 -6 -17 -1 -14 -6 -7 -21 3 -7 18 -3 -10 -3 9 7 10 7 -17 15 -13 15 -7 -16 -5 5 -2 -14 -3 2 17 -13 2 -21 4 4 11 -8 4 2 3 1 6 21 -1 -3 1 12 -4 10 -17 -2 -7 -6 14 -16 -8 -6 -17 4 5 -10 10 17 2 22 -4 3 -6 -6 2 -9 6 -3 10 3 -13 4 -11 -17 -5 -15 -12 -13 -21 10 -10 4 -6 0 -8 13 -14 8 -3 4 -2 -13 21 11 -6 8 4 4 21 7 -3 -7 2 -6 -13 -4 13 7 -9 24 3 -3 8 -21 -1 25 -6 -3 -19 -6 6 5 -15 4 6 17 -28 7 2 2 -16 -5 -3 -1 3 -5 -7 5 -3 -10 -2 17 -3 2 -3 4 -10 11 -9 14 1 -29 -17 -3 35 -3 -9 13 6 11 14 21 -12 4 -3 1 2 3 -6 -26 -3 3 8 -15 21 -6 6 -1 21 5 -4 -1 12 -7 9 -18 -3 -16 29 -11 -21 -13 -3 -1 3 2 14 -10 7 11 6 -7 -4 -6 -9 4 -21 -6 -13 -3 3 -13 3 -17 6 -14 16 34 -3 7 5 3 -6 21 10 5 13 -17 -9 7 -7 8 3 13 -6 8 -2 7 3 -15 -17 -18 -2 -14 -1 15 1 -4 3 -10 3 7 -28 13 -10 9 6 9 10 12 37 14 7 -11 14 -10 -3 -3 -11 -6 3 7 30 3 -3 20 3 -3 28 -9 -11 10 6 10 -11 2 4 7 -3 -10 18 4 -24 -6 19 8 -13 -3 3 -7 -3 -13 4 -13 -4 20 3 3 -14 -19 -7 20 -16 6 -14 -4 -7 4 11 6 4 5 -3 5 3 8 8 8 2 5 -5 -22 7 -3 17 4 -17 -7 11 10 -1 -16 -6 -2 -8 -5 -14 -7 -3 -24 4 -18 -5 3 -20 15 -20 8 -5 -7 20 -15 10 -4 0 6 -7 13 30 -3 7 -1 -17 -20 7 -11 3 18 20 3 8 6 -3 1 3 6 20 5 21 -15 7 -14 -3 5 17 22 7 -3 -20 17 -9 7 7 9 -7 -9 -12 -4 2 -5 -2 19 -31 -10 9 -11 -6 5 -2 -8 -3 -25 14 -18 3 -6 -17 -3 -3 -7 13 -7 18 21 -22 5 22 -3 -7 -20 -7 4 -2 -13 13 7 -15 -10 4 -11 -9 13 7 3 -4 20 2 -24 14 -11 6 6 -3 -24 -23 1 -24 -7 14 -17 -21 -2 7 -5 7 -5 -19 -17 2 4 -12 2 -4 -13 -4 4 -7 8 -38 -10 4 11 2 -10 28 7 13 12 5 18 -10 4 3 -14 11 9 11 15 5 -5 1 11 17 5 2 10 -4 4 5 7 15 -7 -15 -6 14 -6 -4 3 3 -21 0 -2 7 -20 8 -3 -6 -8 6 -17 -2 5 -7 -21 10 -2 -10 3 -23 2 21 -11 -14 5 -6 10 -2 -38 14 -3 -13 3 -2 -15 -7 14 -6 -20 3 1 4 3 4 11 -7 -8 18 9 17 3 7 13 22 -3 -17 -7 -2 -25 5 15 -11 -26 -22 -10 3 -7 3 1 3 -7 -20 10 4 -14 -6 -10 -4 -11 -4 -9 11 -3 7 -4 -11 -3 -8 15 11 -3 3 10 14 6 -3 -17 7 11 3 6 13 -21 1 -12 6 -5 -9 17 15 -1 -17 7 -7 17 8 7 -2 -10 15 -28 -15 7 12 4 -5 -5 -28 15 -6 6 6 -5 6 4 4 1 12 5 5 23 3 13 -3 26 -12 5 15 -18 27 -5 4 1 -6 13 -1 -16 -6 -3 -6 9 2 17 4 -11 -6 10 -3 -3 -7 0 -6 8 6 -4 11 16 -1 6 3 2 4 4 5 3 -14 4 -6 -14 14 -11 -17 -5 1 7 -5 -17 1 6 -8 -3 7 -21 4 12 -8 -10 6 -3 3 -13 -13 18 -21 28 7 20 4 -7 -13 9 -7 4 13 20 -13 3 -5 -3 -27 3 7 13 -3 1 13 -8 14 14 -20 3 -10 24 6 -20 -1 25 2 -6 -7 11 19 7 -8 0 -13 -3 5 20 -3 3 2 -12 -3 14 -8 6 3 -10 -8 -6 -4 -6 15 -3 2 3 -9 -22 -4 -3 7 -5 -6 -3 -1 -17 14 7 14 -20 8 6 23 -3 17 2 2 -3 1 7 14 19 -3 7 -15 15 2 4 3 -4 -4 -7 11 10 3 -10 14 -8 11 4 -6 3 22 10 -17 6 8 5 14 3 -3 11 11 -28 10 -12 3 3 -8 11 7 13 -6 3 -6 3 0 7 -1 3 14 3 -26 -2 17 7 6 14 -3 1 -13 -2 8 -4 -25 -2 9 6 -3 9 -10 3 6 10 -16 1 -1 -20 3 -3 11 -6 -10 -4 -14 6 3 21 -9 -3 -20 -1 7 -4 35 -4 -4 4 21 -8 -7 -4 -6 -8 -13 -1 10 -15 -4 11 -15 -7 0 -13 8 5 -21 3 4 3 1 -9 6 24 -6 -4 24 3 11 -3 -2 10 -5 8 10 -5 13 22 -18 -3 -12 -3 -11 14 5 8 12 14 -15 9 -6 -2 7 -11 -5 -1 -3 3 2 -9 -6 25 5 -22 8 10 17 -7 4 -4 -10 3 -4 -11 -8 4 7 -14 7 -7 18 -6 4 2 -14 -3 7 -14 7 22 -7 8 -11 -7 0 3 -3 18 -9 -13 15 -7 2 -12 -4 -12 20 -8 4 3 16 10 14 -3 6 -10 4 17 -4 -3 -14 -1 -26 -3 -24 7 -3 7 -3 -3 3 1 -7 -3 9 -5 17 1 7 10 -16 -10 -10 -3 -9 4 -23 1 5 8 7 0 -4 16 0 -8 -3 -9 -6 4 17 -3 -3 -7 -17 -16 10 5 21 1 -9 -18 13 -2 -8 8 -7 0 -12 31 5 6 18 -1 5 -10 3 -3 -2 -3 -10 -3 2 9 6 3 -16 4 -2 20 -15 3 -11 -3 3 -10 -2 -15 -1 -10 -6 27 -17 -6 19 -21 14 2 -5 -5 -21 -13 5 12 6 5 18 -6 6 -3 6 -3 8 -5 6 -6 -16 10 17 2 9 -6 12 4 34 7 -3 -10 2 27 15 5 -3 -17 7 -3 -9 -3 3 3 3 17 15 -5 1 -20 -13 25 7 -6 -5 18 -14 -6 -13 -3 -3 5 8 17 -13 4 -17 -3 -4 19 -5 8 -8 10 21 -1 -13 -7 -7 28 -7 -7 18 -14 8 -17 -1 -6 -5 26 14 -22 -9 -18 3 13 -21 21 16 6 6 8 5 -4 3 -3 -3 -5 -3 -27 11 -14 1 -6 6 -9 -17 7 5 -4 -11 17 3 -7 -3 -5 -11 -10 -3 -10 -5 -26 -6 -3 15 7 -29 11 1 16 -16 -4 3 -3 -14 -10 15 11 -11 -6 -7 4 -6 24 -3 -3 17 -19 -6 -4 -10 -15 2 3 -3 -17 -3 -20 3 -6 -10 12 4 -6 -3 -7 7 15 7 8 -7 -4 -15 -19 2 -13 2 -7 -4 -21 6 14 -10 9 19 17 -10 6 -7 -3 10 -13 -7 4 -3 4 -4 0 7 -6 -6 -3 -18 -3 3 -16 10 -14 -3 27 -19 -9 4 -3 3 -2 3 10 10 6 8 -6 -19 3 -10 -6 9 16 15 -10 -16 16 8 -3 -5 0 1 -3 6 9 -3 -22 -5 -20 8 -38 9 29 13 5 5 -17 -10 4 -10 10 -9 -3 8 -25 -2 -2 3 3 7 4 28 -5 -7 10 27 -3 -3 13 4 7 -3 6 -2 -7 3 -10 -43 6 13 5 14 -3 3 -13 -2 10 11 -22 14 -7 -16 -9 5 11 -15 13 -7 -20 3 3 7 -34 3 -24 6 3 21 6 1 7 14 -6 6 3 6 10 6 -2 12 15 4 -28 -10 -3 -1 -2 1 -10 -11 24 -1 -2 -3 -3 14 27 11 10 3 -4 -5 -11 1 -7 -20 4 3 -2 3 -42 24 15 -21 14 -11 -16 -6 7 6 4 8 7 7 2 3 10 14 -3 3 -24 4 -6 -8 -4 3 -35 17 14 -7 8 -2 21 -7 8 -22 -8 -7 -10 3 -10 -1 3 13 5 -3 -24 -3 -2 -12 -6 3 -4 7 -12 -17 9 1 7 21 -12 -9 3 -6 -3 3 11 10 -3 -6 -14 -5 -27 -6 -10 -13 -19 -3 -10 4 30 8 -14 -7 27 18 -5 -13 7 -3 3 18 1 39 14 17 5 -6 9 -14 5 1 -6 6 4 -3 -13 -4 9 -13 -16 7 3 -1 1 -14 -4 -4 10 -9 -23 -10 10 11 8 2 -7 -2 -23 5 -3 -8 -5 7 -4 -3 11 11 -4 -14 3 -26 3 5 2 -18 -22 11 -5 6 -5 -24 11 2 7 4 -13 9 -3 6 3 -21 -7 2 -7 5 5 6 -10 -9 13 -7 -14 10 -11 1 26 -3 -10 -6 3 7 -3 21 -12 9 5 -7 -39 -3 4 15 3 9 4 21 -6 -3 16 -32 -18 6 14 6 -3 3 4 3 -3 -17 6 12 -20 13 -6 -18 10 -7 3 21 8 -6 7 22 2 -6 8 -23 -16 17 19 14 0 -9 -16 -2 14 25 -7 -6 -14 4 -24 -36 3 -20 -18 11 3 10 14 -5 -14 -6 18 -14 -14 3 -12 24 -4 2 -14 7 15 -3 -11 9 -8 -3 -7 -3 6 3 -4 5 6 13 -10 -17 -18 -10 3 -27 7 26 20 7 -3 13 4 -3 3 -3 -6 3 6 -10 -2 1 4 10 3 8 -3 3 -4 -6 -3 -7 -10 3 18 -9 -6 -14 3 17 3 -2 -12 3 -27 10 -3 2 10 7 -3 4 5 -11 24 -1 24 -3 3 -5 10 3 -12 -9 -6 11 3 -7 18 17 6 1 -10 17 -3 -6 14 -18 -3 7 -10 -5 -6 -17 -33 -7 -22 18 4 31 3 7 5 -20 10 5 14 -13 3 -10 3 -12 -17 -2 -6 5 0 7 8 -5 -7 -3 6 24 -5 -3 3 -3 -10 -3 14 18 -5 11 4 4 -7 -8 -3 11 -22 15 -4 17 7 -3 -20 -4 3 -10 9 18 -27 7 6 -10 6 21 -31 -3 -3 -3 6 5 19 -7 -10 -8 1 -15 -6 -25 -25 7 -3 4 -4 -7 38 -3 -33 6 11 -16 18 -4 6 -6 -3 -3 4 19 3 26 10 -3 3 8 -3 10 4 28 14 10 -6 9 -4 -9 -3 -1 1 4 0 -17 18 4 21 11 -5 10 17 -1 2 -10 3 4 9 7 6 -6 -10 -9 -5 4 6 0 11 -1 17 4 8 18 -14 -3 -8 -14 -12 9 -12 -16 -7 -10 2 -3 17 -7 17 10 -3 10 -20 5 -14 3 7 4 -22 3 -8 21 -9 -11 -21 -7 9 -12 3 -4 -3 -4 11 -2 0 6 -10 4 12 -3 13 -4 -3 6 8 11 20 7 -7 6 4 -10 -3 3 -5 -21 15 7 5 8 -4 -8 17 -6 -1 -3 0 -11 -3 5 -13 -17 -6 7 -9 13 3 1 1 -3 11 -6 -13 13 -10 -2 8 6 6 3 -3 -16 3 -14 -7 1 -6 -14 -8 -7 10 15 -7 2 -7 -6 -6 10 -12 -20 -3 -10 -14 -5 7 -3 -13 -11 2 -10 -5 -18 20 -1 -17 -17 3 8 -2 18 -3 -9 3 7 7 17 -24 -18 -4 -3 10 -7 -11 -4 -22 -25 21 17 -7 -12 3 7 -2 -14 3 17 14 10 4 17 -8 12 3 32 -6 -6 -13 -7 -3 6 9 18 -7 18 -6 3 7 -6 7 -24 14 3 -7 17 -3 21 4 -4 10 -21 -4 -11 -12 -21 11 12 6 10 26 5 6 14 3 -10 7 -3 -7 9 25 -3 -6 4 -6 1 10 18 3 -16 -3 3 -5 8 -4 27 10 15 -5 -12 -6 -2 6 14 6 -15 -3 -16 3 -13 6 -6 6 -10 -15 24 -14 -10 4 -10 -8 18 7 6 10 -19 -21 -3 -3 -2 5 0 10 5 -5 10 18 13 11 7 -3 -3 3 -10 -5 -3 6 -1 -6 -8 2 -3 -10 -6 10 2 14 -19 11 -4 -7 -6 -4 4 -17 -19 -8 -12 -1 -7 4 -3 -1 4 -15 6 -18 4 10 17 -8 -4 -4 -11 -17 4 6 -3 -20 5 4 -3 -7 -4 -8 -1 -19 -13 3 -18 -6 8 -2 -20 -10 3 -3 11 -3 -3 3 -4 -19 4 -8 -2 3 -5 -9 7 10 17 11 -13 -12 -3 -17 -9 13 7 21 -10 -7 -8 7 -11 -19 -3 -7 3 3 -3 -13 -11 -16 -3 -5 18 -16 -3 -1 10 -13 -10 -8 12 3 9 -1 14 -3 -3 -3 -3 7 -10 -21 14 -13 -18 -13 -7 -3 10 -3 13 14 -15 13 7 -20 4 -27 -6 -6 5 -10 21 7 7 7 -4 14 -1 28 -7 8 13 13 -11 -10 -5 4 6 -10 7 -9 14 -3 3 7 21 3 4 -6 6 1 6 11 -11 -11 -14 16 4 10 -7 -3 -7 14 2 7 -20 14 -7 1 -2 5 24 7 -7 10 3 -4 8 -7 17 -7 28 -10 -7 -8 -3 -2 13 -8 -17 -13 -6 14 -13 -14 10 8 -13 -17 3 -2 -12 -7 -34 -8 8 -4 17 -6 3 15 5 -6 6 -21 -12 -3 -17 -11 3 6 8 -10 -7 -11 14 7 6 7 15 2 4 -1 -22 11 3 -5 2 -9 -29 7 2 6 -4 -5 8 24 -8 -4 -5 17 -16 7 -7 3 -18 3 -8 22 -6 3 -21 7 -24 -5 7 -9 1 -3 -8 -12 8 -1 17 3 3 3 10 -10 -6 4 6 6 3 15 1 -5 6 31 13 -4 -8 3 21 -9 -13 2 -10 14 -14 -21 3 -12 6 5 8 -21 10 6 -21 13 -3 9 -3 -3 4 8 -3 7 -16 -17 7 -1 -6 -3 3 12 4 -3 4 6 -9 -13 -10 -4 23 1 -10 -11 21 -4 -6 15 28 -1 24 -22 -4 -3 -30 7 -27 -24 2 9 8 24 -2 7 4 14 -12 7 -6 3 4 11 -11 -27 7 -4 4 2 -3 5 -15 -1 3 -25 14 -1 4 7 3 -5 8 -25 -3 -15 3 -5 -6 -1 -3 -11 1 11 -7 -18 -13 15 3 4 3 6 -3 -3 -19 3 4 17 -3 -3 -3 -2 -8 21 -18 -4 3 -7 3 -7 -6 -6 19 20 9 7 -13 14 3 -1 -5 -3 8 -14 -19 7 7 10 14 0 -5 -3 23 -14 15 -1 10 -12 -10 -10 11 3 -3 -10 -11 -5 5 17 -18 -3 9 3 -11 19 14 -5 25 21 -9 -6 -19 5 6 1 -20 10 -16 7 -6 7 -15 -7 8 12 -24 10 -4 6 -12 22 -16 -5 -10 5 -6 30 7 17 4 -3 -21 -7 21 5 15 -16 -17 -9 5 -24 -6 4 5 20 -21 17 3 7 -12 11 -4 3 19 -5 18 4 0 2 13 22 -11 -7 -3 7 10 -2 3 14 -7 17 -5 25 -8 -3 10 12 -2 28 -13 -7 -31 -12 3 -8 5 -5 -24 3 -8 16 -1 -3 6 -11 3 5 -4 -4 3 1 7 2 -17 18 -24 4 3 14 3 3 -9 -3 -4 -14 -13 -21 -13 5 8 -6 23 -11 13 -5 -13 -6 23 -5 -19 4 -19 -4 -6 6 3 13 6 4 -7 -8 -16 -18 -11 5 7 -2 6 -3 -6 -35 3 -12 -3 9 17 11 16 6 -17 -21 -9 11 21 -6 -10 -12 10 -3 -12 5 -14 1 9 -8 22 -2 -7 -7 -9 2 -6 -3 12 -5 10 3 9 -12 -7 27 10 -2 12 -4 6 6 10 -4 1 -13 -2 -13 6 -1 -25 12 -3 20 -14 -3 4 -6 -3 11 -2 18 14 -10 12 3 7 3 3 22 2 3 6 -3 10 -11 0 24 5 -7 -17 -14 -3 -6 -40 7 6 4 -14 -3 -6 4 7 -25 -14 -17 11 14 18 -3 8 3 -8 -28 1 -6 -12 -21 0 -10 -25 -2 1 3 -5 5 -21 10 -23 0 -7 3 -3 11 4 -14 3 -3 -7 10 -21 -1 -10 4 -6 -7 -8 -2 7 23 -14 10 7 17 14 5 -21 -8 -13 23 -12 -14 19 -2 -17 4 -6 18 -14 -4 17 1 -4 -17 3 3 15 -2 3 -12 -16 -3 -10 -5 -13 13 -3 -14 15 7 -1 -9 -4 5 34 -9 -2 -3 -11 1 19 -7 1 -3 11 -3 19 -23 -3 -14 14 -1 -16 15 15 -3 3 -10 24 -4 -2 -18 -5 -3 12 4 -5 11 5 -19 18 24 3 3 -1 -6 -13 -3 -1 3 -4 4 -17 7 3 3 -13 1 2 3 -11 4 10 -17 -3 8 -29 -17 18 17 -10 7 12 12 -5 -8 7 -12 -20 -16 -21 -14 20 6 3 -12 3 -10 -10 4 -3 -16 -3 -3 4 -45 4 15 25 -7 7 -3 30 -6 20 6 4 7 8 4 3 -3 12 8 -27 -10 -10 -17 14 4 13 23 -10 -9 8 11 -7 5 -7 24 6 -1 -29 -13 -6 -12 3 -11 7 -10 5 3 -3 5 9 3 3 9 -2 -10 -11 13 -8 2 -3 -29 -10 6 -17 -3 -24 -14 -10 -3 11 28 -28 24 10 -4 -17 -11 11 -6 -9 18 7 7 11 -30 -9 7 -5 -18 -5 20 7 -7 6 23 4 -7 20 -16 -16 4 8 -12 12 5 -4 -4 -11 -13 3 11 13 -27 8 -6 -10 -7 3 14 -18 2 17 -18 3 3 -13 5 -7 -8 7 -7 -7 -3 -9 7 5 14 -10 6 1 -3 14 1 -25 2 3 5 -5 3 1 16 8 8 14 -27 -16 7 3 5 -4 14 11 -16 24 6 -2 -11 9 7 -29 21 -9 3 4 -3 4 -3 -8 10 3 -20 7 4 17 -4 6 -3 15 -5 -6 -3 10 6 21 -3 10 -11 -47 6 -7 -17 -18 -12 12 27 3 5 -26 11 -6 -2 -3 5 13 -12 -3 15 27 -3 -3 -3 -10 16 21 -3 -2 7 -7 -7 20 3 17 11 -17 -4 11 -12 -6 -3 -7 10 29 -7 18 6 -10 -8 3 21 20 -3 17 10 13 11 -22 -17 4 7 -13 14 6 8 16 -4 3 -5 8 -7 -7 11 -3 -16 -2 2 -8 -6 -6 -20 5 -10 -2 4 -4 -4 -3 -13 -3 7 -24 -3 -23 -18 -5 -7 18 18 -21 6 16 -2 -3 -10 10 3 7 8 7 -3 -6 14 7 11 7 6 -17 3 -17 -13 31 -13 -5 17 -18 38 3 -3 14 -4 -19 -24 -9 10 -21 10 -3 -16 7 -4 -17 14 -26 1 -14 2 7 11 -4 -17 -14 20 7 10 6 -3 15 -18 3 -5 -4 3 -6 10 -3 14 -20 4 -21 3 8 5 14 -6 8 21 5 -17 -3 10 -18 -10 3 27 -4 3 4 -8 -10 -3 -28 3 -2 -7 -6 4 9 3 -3 -20 5 -6 5 -3 -26 -2 -5 4 6 5 -5 -5 24 5 1 -16 -20 -2 -1 -3 -13 -3 -3 -3 -17 10 14 -18 -3 -22 6 -4 4 4 -14 7 -24 4 3 5 1 4 7 -5 4 7 -5 4 11 -4 6 6 6 -3 3 -9 0 -9 -2 -11 3 14 13 -17 -6 -3 -16 3 -3 16 -3 3 -11 -3 6 4 -24 5 17 -3 17 -6 20 -2 -4 -13 10 -9 3 21 14 -3 6 -17 14 20 6 14 15 5 5 2 -3 -8 -1 8 4 -1 -24 1 7 -13 3 5 -3 -7 -11 4 -6 -6 -13 -6 -1 -17 8 -3 -2 -13 -17 -4 -15 -3 5 -16 -8 -15 -4 16 -3 6 3 10 -14 -4 -26 -13 15 3 3 -8 -38 6 -2 24 15 7 -15 5 3 -17 10 -30 -7 20 -3 9 -6 7 16 -3 -3 -15 -11 -13 -16 -7 -6 -3 14 3 3 9 -3 13 -12 6 12 14 -6 -2 -11 17 21 -2 19 6 -14 -12 -3 -1 -19 10 20 13 12 -6 -2 3 8 -4 7 -23 -3 3 -3 0 6 20 2 -4 10 -17 5 -35 28 -3 -14 10 -15 -17 -4 -17 -21 24 -3 4 14 7 -5 -19 -20 -7 -11 11 6 19 -10 11 11 -7 25 -6 -18 1 -6 -3 -3 -7 12 -10 4 19 9 -10 -7 -11 10 3 -3 -16 12 7 7 -27 17 -14 2 13 -3 0 3 -3 -20 9 11 2 13 -6 10 3 -3 16 -37 -4 5 4 -3 -2 -3 -1 6 -3 -21 19 7 13 -10 -31 -10 1 -17 -5 -11 -8 9 5 6 -15 7 14 -8 -3 -17 -10 1 -10 -4 3 -13 -24 10 5 -25 -3 2 21 3 4 -10 19 -10 3 -3 4 -4 -4 -3 -16 3 4 14 -9 19 3 -1 6 3 -13 7 4 -3 19 -13 21 3 -2 5 15 7 -17 -9 -8 7 2 -7 -9 -18 -3 -5 -16 -10 10 -20 2 -11 -5 -20 23 3 -14 -24 -14 27 -27 8 -12 6 -3 -18 -7 -3 5 6 -11 -21 9 -27 -8 -9 4 17 -7 12 6 -3 13 3 -17 11 -7 -20 -1 26 -8 -5 -13 -3 -3 1 6 16 -13 10 -8 -21 -3 -4 -3 24 13 3 -19 18 1 -3 -1 3 -3 -12 -4 -8 6 20 -1 -1 -12 5 -7 20 4 1 -10 -13 8 6 4 -7 7 -22 -3 4 21 15 4 12 -3 3 -7 -3 -1 1 12 -16 -4 -25 14 -6 -16 -3 5 -24 -9 -4 6 13 -7 3 -4 0 30 10 -16 -4 16 -21 -11 24 11 -10 18 -10 19 3 3 -10 11 12 4 2 11 8 5 -8 5 11 1 -10 -18 -1 -26 -8 -3 14 5 -21 -3 38 3 -18 -7 -14 -1 -17 11 8 -13 10 5 2 -1 14 3 3 4 13 17 3 7 27 -3 -10 17 6 -13 6 3 -7 7 3 -1 3 -3 -4 9 -6 13 9 2 -3 10 13 -9 4 2 -6 -4 -20 -11 8 -8 11 -6 -3 -14 11 -3 -11 3 -3 -1 3 -14 -3 7 -3 -7 -4 -15 -2 -7 11 24 -3 7 7 -14 7 -14 -7 -7 -3 -6 -8 14 -3 19 14 -13 9 -17 -15 -19 -3 -9 10 17 -10 14 -9 -9 8 -6 -4 -2 -6 -5 7 -24 -7 -2 7 -1 7 31 9 -23 -11 -6 -13 -10 14 -13 -17 13 -16 -18 11 18 -24 7 5 11 -3 3 4 -4 14 -10 20 -7 -6 -3 3 2 11 6 -4 -4 -1 -3 7 11 -3 -6 -7 15 -6 4 11 -11 -6 5 1 -15 -13 -6 3 3 10 14 -10 -7 -24 1 4 15 19 -11 -8 -7 3 6 -14 11 15 -13 -3 7 -11 -4 0 -18 14 -17 4 5 -21 -2 -13 5 -27 14 7 14 -41 -4 -10 13 -11 -6 11 -3 19 -18 15 -7 14 10 20 -5 -3 2 8 -3 22 6 1 6 7 -3 6 2 -10 14 -7 5 13 10 3 6 12 0 10 -13 5 1 6 8 -10 -3 21 -3 8 -3 -4 8 -1 -12 14 -2 -2 -13 -2 -3 -3 9 5 -16 -15 -6 -3 1 -16 8 4 -34 -18 5 -3 -7 -25 10 34 -3 7 10 7 3 -14 -3 -9 -7 -8 14 -3 16 16 26 -12 6 21 8 13 -17 4 11 -11 -2 -28 2 -3 -7 -1 -7 -3 -4 -5 13 -10 -10 -18 15 19 -17 14 -14 6 -3 -4 -3 1 -2 -17 4 7 7 13 7 7 3 -15 -7 -3 -14 -20 6 -10 -7 -24 3 12 4 15 -23 -11 14 24 -18 2 -17 20 -13 -17 -6 18 17 -7 -14 -14 -10 11 -10 17 7 -4 -17 -17 -13 7 4 -13 -6 10 -26 -3 6 -1 21 2 -7 -17 -13 3 5 -13 4 9 -7 24 7 -21 -3 -3 -8 2 13 15 9 -7 0 -15 -14 1 28 6 -17 -12 -10 5 4 -21 -5 -3 -3 3 -14 -9 3 -9 -14 11 4 -11 -10 5 27 -34 -1 -3 18 21 7 -11 25 -6 3 12 -6 -18 -15 -4 -3 -13 -13 6 -3 -4 -3 5 7 -10 7 -6 10 -10 -17 -3 -16 7 4 -3 -10 -12 4 3 11 10 -24 16 -17 -3 -3 1 -2 -4 -26 3 4 -3 6 -14 -4 -11 17 -8 12 -3 -7 -9 3 -15 -19 -13 -3 18 6 -4 6 -3 -6 15 -6 6 7 3 3 6 -7 6 14 -16 -6 -1 -4 -12 -18 -6 -8 14 -7 12 -14 -3 13 1 25 -18 17 -7 17 -1 10 3 13 22 -1 -10 21 24 5 7 -16 -21 -4 -6 -13 3 -6 -20 26 -12 31 -8 -9 10 -10 -17 13 4 23 6 1 -13 -5 -21 -11 24 -14 -5 7 8 -5 -18 3 -9 -5 1 3 10 -3 -2 -4 -3 4 -15 -10 7 -21 3 -36 -3 -8 3 -6 5 -14 -2 -1 2 7 7 12 11 -6 16 10 -2 3 -16 -1 7 -12 -1 -7 -6 -8 -6 6 17 5 19 -6 -4 -28 11 -3 -4 -17 10 6 14 -1 -1 17 2 13 -15 3 -3 -16 0 -7 -3 -9 2 -7 -7 -3 14 -16 14 -28 1 20 -8 21 10 -3 10 17 12 1 -4 -6 6 -14 7 -14 -9 7 4 2 -5 -8 7 10 -1 3 3 -7 5 -1 10 1 -22 -8 12 9 -13 10 1 -6 15 7 13 -8 -11 -14 -3 -19 9 10 -10 6 -2 -4 -5 -7 17 2 20 -3 2 4 -7 -3 21 3 -4 -3 10 20 -4 -17 -3 -8 -18 -4 -5 3 4 -5 31 -7 -2 3 17 11 4 7 -13 8 -7 -5 3 -6 11 -15 15 13 2 -4 8 0 23 -13 10 9 8 4 7 -3 -15 -10 8 -2 -19 3 25 0 7 -6 -9 -38 3 7 -7 -10 -10 21 16 3 -5 3 29 -3 7 -3 -9 5 8 4 -3 -3 -3 12 3 17 6 4 15 19 -17 -3 -7 3 -16 18 -3 -3 14 15 -11 2 -7 -12 -7 -25 14 -6 -5 10 34 22 -6 -13 5 3 7 -14 19 -10 4 -39 3 12 -3 -13 -3 -11 -7 3 9 -6 3 5 -9 20 16 14 3 10 -7 11 -21 -16 -4 4 10 11 9 9 -15 -13 -20 11 1 4 -17 -6 3 -17 -7 -9 15 -13 -30 -11 -26 -6 17 3 7 22 16 3 8 -4 -16 -9 -21 -13 7 5 7 -29 -3 -3 -4 3 -4 -7 11 -3 -6 2 -9 -7 7 6 -4 -10 1 -22 9 10 -22 -15 15 12 -3 3 7 -7 -7 -48 10 10 6 -14 6 -6 41 17 -23 -11 -18 14 4 7 18 -36 -13</t>
+  </si>
+  <si>
+    <t>JSB(1.52086497632265, 3.870292725857887, -28.852443415658385, 166.08276142423767)</t>
+  </si>
+  <si>
+    <t>41 43 48 43 47 39 34 36 33 16 34 30 32 20 40 37 47 38 34 39 33 13 39 41 23 27 27 37 40 34 49 42 54 30 36 30 51 30 23 53 29 31 58 25 23 41 44 65 26 37 46 30 45 50 29 27 40 62 39 39 46 30 36 34 44 44 40 29 44 46 28 46 39 51 47 49 57 30 40 45 41 27 40 19 43 40 38 37 44 44 45 50 54 45 34 44 23 61 40 27 58 32 33 36 51 41 44 36 47 44 38 48 33 24 30 14 37 26 45 27 22 35 39 37 57 40 27 38 22 45 12 30 34 23 23 33 29 33 51 35 30 37 13 48 45 28 39 35 29 37 49 15 37 39 33 51 41 43 36 42 20 38 40 34 42 33 37 44 43 33 33 37 31 29 33 48 20 24 28 47 56 69 37 30 57 43 30 36 37 28 35 55 36 23 23 34 46 29 33 43 47 44 33 35 31 38 34 38 31 59 47 44 36 44 45 39 26 42 38 51 38 48 47 43 36 49 27 47 44 38 36 32 53 45 10 47 54 55 37 31 41 35 37 51 51 55 29 30 38 38 40 32 24 31 39 39 41 43 37 44 43 45 31 36 43 36 43 29 40 35 42 38 37 56 26 50 59 42 23 30 25 51 37 51 35 37 40 60 36 34 25 29 33 44 39 47 45 44 53 47 23 33 31 37 34 41 41 35 34 28 43 35 31 49 32 50 19 44 60 46 44 27 34 23 41 37 40 47 48 53 55 34 35 69 29 45 34 37 29 32 31 14 60 58 41 39 36 36 30 27 41 42 36 33 34 43 21 33 16 51 33 64 49 48 43 56 30 39 55 44 43 28 36 28 23 30 28 38 54 50 47 40 35 33 26 48 29 41 23 49 37 36 33 25 48 23 38 31 50 41 19 43 44 22 26 44 32 48 44 37 33 26 57 30 54 30 44 32 34 41 52 57 48 59 38 54 33 43 23 37 37 41 33 37 57 23 39 30 47 67 39 33 32 54 56 33 24 50 32 41 22 37 37 48 29 38 15 34 23 31 42 41 40 43 50 42 27 38 30 45 24 25 45 36 54 45 40 47 45 32 34 32 23 38 24 17 55 40 27 27 41 50 43 46 38 50 40 41 48 44 17 40 37 23 52 63 44 40 42 41 41 50 27 35 49 33 16 39 34 48 34 23 39 41 22 54 37 25 33 30 25 36 26 35 32 34 50 52 24 58 37 46 42 30 38 33 37 51 28 46 29 37 45 37 43 51 54 34 38 30 37 27 29 34 16 36 41 40 33 34 30 46 43 20 18 23 55 46 36 33 33 37 35 23 26 50 33 46 45 29 35 27 48 33 42 44 43 27 37 41 29 35 43 38 33 32 33 35 37 46 36 32 53 30 45 33 45 48 26 37 43 48 43 37 30 26 54 40 33 39 29 48 35 45 37 26 44 52 38 54 37 41 20 58 15 26 43 35 26 27 29 37 49 37 40 35 22 33 31 54 23 51 27 48 43 36 47 37 44 26 42 47 54 27 48 33 37 36 19 40 30 53 34 16 45 47 37 29 23 41 37 44 33 33 45 37 37 33 27 40 48 37 43 49 55 30 22 30 38 37 20 27 36 42 55 35 44 48 59 43 41 40 39 25 38 37 31 31 40 36 33 37 32 30 33 62 40 44 58 36 39 52 39 23 41 43 58 33 37 36 30 37 33 44 44 45 62 34 28 25 39 33 55 47 13 36 51 29 36 22 48 52 27 34 43 27 48 50 34 39 41 45 53 55 43 23 48 33 37 29 52 54 42 31 25 38 33 46 44 35 26 36 43 47 26 34 43 23 43 35 55 51 33 38 44 43 31 57 48 26 39 35 37 47 38 44 22 46 43 29 48 37 49 44 30 34 27 37 40 37 45 31 64 41 34 38 26 34 40 44 37 44 42 26 44 34 37 38 47 45 49 25 43 40 32 49 45 58 45 49 47 39 33 46 51 33 38 43 49 42 51 30 31 54 47 50 25 60 54 39 51 48 38 30 51 24 45 48 29 50 58 69 52 29 49 46 41 24 53 40 54 44 34 26 54 31 34 44 27 17 33 49 33 41 36 50 38 37 34 34 20 42 41 20 43 35 47 22 30 44 47 56 22 37 40 38 31 41 39 40 65 32 51 54 39 49 44 29 41 29 44 41 39 35 51 39 35 36 40 37 52 26 56 37 40 34 44 42 32 36 17 50 33 20 45 43 58 48 37 46 37 41 43 41 33 27 42 29 46 37 65 47 44 24 41 55 40 26 47 40 41 37 41 57 51 32 41 24 35 26 40 44 26 37 36 34 65 45 37 39 64 29 43 48 23 46 45 29 45 44 44 55 37 26 22 48 48 22 29 56 47 42 41 38 38 27 36 40 42 31 30 40 27 40 13 39 41 53 53 32 48 19 27 18 35 37 36 37 37 40 31 35 32 44 38 38 36 32 34 37 37 30 45 45 47 22 34 44 31 40 19 28 54 56 43 34 51 36 42 51 37 50 37 27 43 44 36 36 57 42 51 33 54 25 43 40 45 45 55 36 40 34 31 40 23 23 51 60 50 48 26 29 22 44 51 44 37 31 37 51 41 48 41 40 51 51 37 30 22 44 23 30 24 34 62 35 30 54 30 29 44 34 26 41 27 48 56 40 47 42 45 29 50 29 47 45 49 23 22 56 40 44 37 31 24 23 49 38 34 41 48 37 45 55 27 31 54 33 12 64 45 45 35 35 45 43 37 48 30 45 25 48 40 37 55 23 34 31 40 48 41 47 26 36 44 37 45 27 43 33 31 37 46 54 44 30 43 41 43 42 23 43 23 45 37 41 27 30 35 42 26 48 16 33 50 34 23 41 46 36 37 55 27 26 38 33 37 51 46 26 34 43 41 34 32 33 29 45 43 37 23 65 28 10 48 45 51 24 37 57 54 61 43 30 41 44 35 60 33 34 25 39 41 34 43 33 28 23 43 41 44 37 47 48 29 24 28 64 45 40 41 36 34 43 31 29 41 41 40 27 46 31 39 26 31 37 30 45 38 55 43 34 47 37 29 34 37 24 44 27 37 34 43 22 30 47 36 38 46 30 50 60 26 57 40 43 47 37 41 37 41 40 44 37 44 37 43 42 37 16 47 48 40 25 40 34 23 39 23 49 34 26 37 40 32 55 34 51 48 20 30 41 35 44 26 29 20 39 49 22 27 25 39 60 38 46 44 23 50 39 39 37 33 50 40 39 39 34 53 51 42 49 38 47 31 30 24 46 36 40 55 46 37 34 40 59 47 42 57 42 30 39 19 17 23 39 33 33 46 47 31 41 46 40 23 41 38 49 34 62 48 42 50 27 44 27 37 55 34 45 34 37 47 24 38 34 28 41 37 28 43 18 35 51 47 47 23 48 65 45 40 38 52 43 23 38 39 36 36 31 31 43 29 23 26 29 37 37 39 64 37 59 35 37 47 39 41 38 53 27 30 54 30 59 54 38 49 30 35 48 30 34 47 44 40 59 51 59 27 24 51 13 23 46 22 52 54 19 27 29 32 38 23 20 40 31 27 29 40 47 41 36 36 30 23 30 26 49 36 37 33 29 30 26 40 42 25 24 47 48 37 22 40 43 45 51 40 33 37 37 45 45 29 41 32 37 44 37 40 30 51 20 58 13 32 32 37 43 35 26 39 48 40 55 22 52 50 20 39 31 46 27 45 37 44 44 40 43 37 51 31 38 31 44 32 45 41 37 48 39 51 31 57 30 43 26 52 33 53 50 30 30 51 59 26 31 40 46 56 44 40 37 38 33 36 37 32 37 28 38 57 32 48 44 22 68 42 37 30 43 23 31 27 37 49 28 51 48 43 29 40 36 49 54 44 34 37 45 37 19 18 28 62 48 30 43 41 33 37 48 25 30 51 32 43 24 51 34 27 19 33 30 34 23 46 24 31 50 32 13 55 27 45 49 37 32 40 29 56 48 43 43 27 34 37 30 38 37 41 29 41 20 19 36 26 43 30 65 34 61 36 57 45 23 42 22 28 30 44 30 62 51 30 41 51 29 15 30 39 46 25 30 37 22 34 37 48 26 51 48 27 33 33 57 18 30 42 52 35 44 26 51 37 42 57 56 35 43 31 54 40 37 38 44 37 50 44 49 34 31 48 51 35 38 26 37 57 37 37 36 29 41 33 48 24 32 39 36 23 23 19 44 42 38 36 41 15 23 40 44 45 29 37 30 31 38 48 38 30 28 45 34 31 31 23 41 35 26 55 24 40 59 51 37 30 47 36 39 26 43 39 36 44 22 41 38 48 36 28 38 44 52 30 31 41 55 33 38 20 33 63 54 48 37 35 23 37 28 59 44 27 31 36 31 51 26 35 41 36 29 46 44 35 33 37 43 52 37 51 51 10 29 42 32 36 43 26 39 41 30 49 29 33 26 32 40 48 49 37 41 41 51 59 35 34 38 36 29 27 31 49 44 28 31 49 27 43 45 34 40 43 26 31 37 30 27 37 30 47 54 36 30 38 30 41 42 43 33 43 33 25 54 37 46 22 35 45 44 19 51 50 33 51 37 45 30 27 33 45 41 26 40 39 43 37 38 58 41 57 36 37 49 12 37 23 34 53 41 31 21 39 29 37 62 37 51 23 44 38 50 40 55 38 23 43 45 29 26 43 34 43 35 34 23 46 52 40 59 30 43 36 38 30 36 34 34 49 43 35 45 40 23 46 54 27 31 50 39 43 40 40 54 40 31 25 30 52 38 33 29 46 46 47 38 49 25 58 52 25 39 37 73 44 26 29 57 44 28 41 39 51 37 44 33 42 32 25 52 45 48 31 22 34 26 33 40 22 48 23 46 46 36 55 47 34 27 39 30 32 38 20 47 23 29 37 40 31 39 44 26 57 30 52 44 27 31 34 36 32 41 45 34 31 40 50 55 41 36 27 38 30 33 41 36 49 41 38 35 55 38 55 37 24 40 30 54 40 48 30 38 41 23 34 41 49 47 48 34 38 29 50 46 42 49 27 26 50 32 33 48 36 39 36 53 33 45 23 32 38 51 30 36 44 52 39 38 34 33 51 33 29 47 52 23 54 35 28 37 34 39 50 43 38 41 23 38 48 36 37 30 37 52 54 23 51 32 27 40 44 46 51 21 26 47 43 24 17 39 37 32 29 53 26 43 41 43 32 39 40 20 34 19 46 30 19 37 40 16 36 44 44 31 40 40 30 46 13 34 52 58 30 37 42 37 24 40 44 36 43 25 45 36 44 40 40 51 34 51 36 49 48 23 46 26 40 19 31 34 16 49 39 23 45 33 23 56 42 23 57 20 51 45 19 44 36 36 44 38 37 29 38 22 54 9 38 51 41 27 40 37 30 56 20 31 17 46 55 27 35 43 30 48 45 38 45 58 60 36 47 42 43 43 60 44 30 36 52 44 55 41 47 30 39 30 56 44 29 37 34 47 39 40 30 31 31 37 39 20 27 41 34 36 31 45 20 34 22 37 66 41 41 32 37 48 43 55 49 33 36 34 40 40 36 47 23 43 51 28 49 23 40 37 41 36 38 46 48 38 39 39 70 49 50 40 39 43 46 65 40 44 38 34 30 27 43 41 40 33 26 39 44 41 43 30 37 30 53 47 29 30 50 41 51 54 25 44 46 45 50 26 30 36 43 49 47 46 24 39 34 25 35 37 46 30 26 47 45 29 26 48 32 34 33 51 33 19 24 37 23 41 41 55 31 43 37 36 44 39 37 45 41 43 38 29 36 26 38 32 40 38 50 47 60 31 40 33 44 42 36 33 51 50 33 34 37 46 44 33 34 40 51 47 30 27 47 43 26 36 45 41 47 41 28 26 25 26 58 45 33 26 53 29 31 13 41 41 43 29 40 54 46 30 47 58 49 30 37 48 29 29 47 46 27 33 62 22 37 38 23 13 36 39 40 41 41 40 57 29 37 36 26 30 23 37 42 42 44 41 44 45 23 51 32 43 45 33 26 40 37 48 37 50 23 39 33 46 47 49 35 34 19 16 33 50 30 27 30 37 40 36 38 19 23 33 33 23 31 34 35 36 51 39 47 57 43 37 40 38 29 43 29 44 57 45 38 44 32 25 30 50 31 30 39 13 27 54 56 53 33 25 41 45 28 33 38 19 30 23 39 55 39 46 46 13 33 30 48 37 45 48 47 61 36 34 37 55 57 17 34 44 25 35 32 51 43 34 51 25 37 47 52 23 30 34 45 49 36 36 39 29 27 39 33 41 31 70 34 29 31 23 33 48 16 41 37 38 32 50 50 49 45 23 42 36 44 32 66 23 26 51 22 37 58 40 29 28 42 55 39 40 53 37 57 35 51 44 36 51 29 58 48 19 63 61 40 40 44 39 50 34 29 37 68 50 40 49 15 46 29 23 27 33 36 56 54 16 29 36 13 34 26 52 27 23 33 29 46 44 27 41 54 30 16 37 44 47 30 27 49 28 48 45 56 41 28 42 40 33 33 33 23 48 55 52 30 34 53 48 56 24 44 50 53 41 43 29 31 35 35 27 33 33 43 45 39 55 34 30 45 50 51 16 48 33 37 40 38 30 28 42 38 49 43 51 32 32 29 44 30 26 43 21 44 31 41 25 23 42 22 52 23 32 39 34 44 27 54 37 23 48 27 40 65 37 36 38 43 34 49 58 26 45 44 39 46 28 43 35 29 45 50 28 50 44 33 30 34 29 37 59 39 40 27 23 45 38 27 31 43 72 33 41 50 28 51 38 26 50 37 26 45 26 30 56 29 36 54 30 26 31 32 33 40 31 19 26 58 33 32 37 29 46 52 50 33 33 26 35 25 43 47 44 37 30 37 30 38 29 39 47 51 32 35 43 31 35 51 42 37 38 34 37 48 45 39 50 47 37 27 43 47 25 29 31 37 29 34 33 49 23 30 35 49 37 36 37 31 33 43 43 46 34 48 34 51 30 34 50 41 47 29 43 43 43 25 36 17 33 42 32 20 40 30 65 42 26 45 30 37 31 26 36 33 51 41 43 48 36 48 27 32 29 46 45 26 62 39 29 48 49 51 27 23 39 36 57 29 44 16 46 27 38 43 41 25 45 25 40 27 41 32 18 48 26 30 40 61 36 56 47 53 29 58 39 37 54 19 51 34 61 48 34 28 51 45 33 41 33 37 31 34 53 42 37 18 37 27 37 43 54 44 50 53 35 27 31 33 52 33 40 28 40 45 20 38 43 21 46 51 31 46 38 34 43 37 35 39 41 32 33 37 40 26 31 37 38 39 41 40 40 39 37 58 26 51 20 44 51 40 25 32 30 41 33 49 26 13 55 51 33 46 29 37 37 45 41 31 37 33 37 51 35 47 44 33 38 37 21 49 51 35 31 41 49 33 33 36 36 22 27 22 51 40 40 34 50 34 39 46 42 50 57 39 30 24 48 37 31 37 59 43 27 26 26 41 25 41 38 46 50 51 38 37 26 49 37 40 37 45 41 34 45 35 47 41 33 23 34 38 30 43 21 43 54 33 29 49 39 40 57 49 46 39 47 33 29 45 30 36 42 36 37 40 47 21 61 41 48 44 42 51 37 30 37 50 60 44 20 31 46 44 52 51 39 30 36 29 37 40 41 48 45 52 64 35 27 18 41 43 41 29 47 60 50 47 40 38 52 24 39 62 42 43 45 30 48 54 51 26 37 35 52 30 54 33 51 30 43 36 24 23 47 52 43 59 43 41 35 49 45 26 34 27 26 43 38 58 31 40 33 34 31 34 37 30 36 48 26 51 42 34 40 36 27 50 37 27 43 40 56 40 35 43 30 48 49 23 26 48 33 37 44 19 40 41 37 30 34 30 33 43 37 47 83 27 49 49 16 31 33 42 45 48 56 25 33 43 47 29 44 37 51 55 29 42 42 45 40 47 35 54 43 37 38 44 47 24 31 38 37 48 25 38 46 43 39 39 59 40 40 36 42 20 52 43 50 29 30 40 18 49 64 33 32 15 32 27 53 44 36 54 23 34 29 28 38 42 51 24 44 31 43 33 34 27 61 46 51 43 45 39 40 43 31 45 49 47 15 40 32 51 37 40 34 34 48 15 62 40 50 22 30 30 37 53 36 28 30 40 33 65 33 38 47 52 51 45 47 27 39 23 43 29 33 40 30 42 40 41 57 33 16 58 45 36 29 32 42 43 33 33 29 27 53 37 39 21 33 19 31 30 33 32 41 26 44 47 48 38 23 48 42 42 29 55 29 23 43 20 49 43 36 34 40 44 48 33 27 29 37 17 54 46 48 19 48 31 37 44 30 36 53 45 42 55 27 18 40 47 30 17 59 41 47 66 43 33 36 43 49 31 27 34 33 62 34 19 33 35 41 35 39 36 52 37 51 43 52 41 34 49 41 38 49 51 13 51 39 32 47 27 29 33 24 52 26 37 6 27 40 45 44 26 36 47 37 56 39 34 35 34 46 40 33 23 29 42 35 34 42 51 52 26 38 29 37 59 40 41 63 41 36 16 13 26 37 40 46 33 44 40 31 37 39 26 43 33 24 41 43 33 57 45 35 24 48 45 16 36 35 26 48 43 43 27 42 57 45 30 29 33 37 34 36 31 45 37 52 30 37 51 30 51 34 43 38 41 37 27 37 39 61 44 47 30 26 39 51 28 40 47 37 58 13 36 44 51 22 37 28 36 30 51 37 36 42 46 35 40 31 43 43 45 29 44 57 39 37 31 29 47 17 19 38 38 54 25 51 60 47 27 23 25 37 43 31 50 33 54 25 32 40 37 44 32 40 37 62 34 43 57 48 47 31 52 56 55 40 48 31 41 38 43 30 52 51 30 37 27 28 33 27 37 47 23 22 49 40 31 40 36 43 44 31 30 20 39 40 26 29 64 33 44 37 29 56 43 40 44 27 47 29 37 38 29 45 40 44 43 39 33 46 47 33 37 19 37 33 55 48 33 28 29 35 41 43 41 16 37 24 22 22 28 33 48 42 19 42 35 34 44 31 36 49 30 37 29 26 41 46 43 30 34 50 44 46 41 45 39 59 44 33 57 50 50 39 49 27 20 53 29 26 35 51 41 40 43 35 44 30 44 51 45 30 44 33 55 34 35 26 30 32 59 36 30 30 10 52 36 37 47 44 29 26 39 34 36 27 43 48 26 43 26 43 44 34 24 36 54 36 36 46 37 48 31 41 19 42 52 51 33 30 43 42 34 55 52 47 20 48 23 38 45 30 45 43 29 49 43 33 29 41 40 33 37 58 29 39 26 33 35 44 53 47 38 58 41 28 29 28 29 36 69 31 31 57 55 37 40 48 51 31 33 41 33 31 43 41 39 30 26 44 23 40 48 44 33 40 60 49 49 40 20 69 31 43 44 44 38 46 29 50 59 21 55 43 30 24 33 41 38 28 32 45 40 33 36 15 23 39 20 37 44 40 62 54 41 57 51 27 35 22 40 34 27 33 25 24 33 27 42 37 58 60 41 41 43 30 38 51 33 46 50 49 40 31 37 55 33 41 54 37 41 54 36 51 45 40 16 33 55 38 41 37 23 55 46 51 36 55 29 35 43 37 34 30 33 19 28 53 60 51 44 50 51 29 24 45 33 54 44 13 48 36 57 37 22 40 37 51 22 43 36 47 58 34 60 35 26 43 45 54 44 36 48 37 30 35 34 37 37 42 32 47 37 42 40 27 51 39 47 23 52 48 53 43 58 30 37 44 28 30 28 34 27 40 32 34 56 23 26 31 28 63 41 41 52 22 35 24 42 52 37 55 33 62 38 37 38 47 34 44 35 36 31 29 32 48 18 34 41 71 41 34 47 44 33 43 29 40 33 38 43 49 40 40 36 45 45 40 37 39 52 45 55 47 30 33 26 50 48 12 31 45 41 52 47 43 45 46 35 37 55 45 40 26 31 50 52 43 31 22 24 37 45 18 49 26 38 35 51 54 47 46 36 22 41 41 50 47 37 41 33 41 26 40 41 33 53 42 37 44 48 52 32 20 65 54 53 34 54 41 59 37 30 27 34 19 42 44 22 46 37 45 22 32 45 47 45 44 35 39 45 51 16 34 54 33 37 27 57 23 37 37 48 36 37 20 24 43 70 23 50 49 20 57 49 27 48 36 33 26 48 27 44 40 37 40 24 40 22 53 41 40 43 48 33 37 51 38 49 35 41 40 51 37 44 48 65 40 18 34 33 30 40 37 48 26 43 40 46 47 23 46 46 40 28 28 17 33 33 43 43 26 30 39 46 17 36 52 29 52 38 37 34 49 40 30 50 42 30 35 31 29 55 35 38 34 63 23 29 41 38 48 37 45 31 40 65 55 37 25 42 26 32 44 41 29 46 42 27 51 25 43 30 26 51 45 33 36 35 56 31 34 51 32 29 31 48 39 41 33 38 25 40 26 38 32 55 35 45 33 27 53 43 37 24 31 36 34 50 25 34 37 30 22 40 40 36 44 26 35 44 47 32 29 25 58 51 43 36 37 57 20 51 51 26 55 29 48 55 30 49 20 37 41 13 40 48 37 43 43 43 28 26 55 53 36 34 49 57 18 48 35 34 38 44 29 36 31 23 57 31 51 37 20 38 37 40 40 32 39 36 49 40 37 31 25 44 37 40 24 65 26 54 24 46 33 49 50 51 37 19 40 53 19 24 50 42 29 44 38 68 33 39 33 26 30 25 52 48 26 48 51 33 55 47 23 33 23 45 35 51 40 53 44 35 31 25 26 44 20 35 52 47 47 46 41 43 49 33 33 46 27 61 51 29 33 31 44 47 37 39 51 41 44 25 65 59 35 39 34 45 45 34 33 40 22 28 35 27 33 30 51 34 54 33 32 23 49 31 37 41 36 51 51 27 51 34 55 38 36 37 33 32 40 45 36 52 36 24 41 50 37 40 26 64 60 35 26 35 24 44 53 19 29 18 51 36 35 53 43 50 41 44 45 37 26 44 46 43 37 22 64 44 41 58 30 33 30 29 37 27 36 27 50 24 31 27 33 34 31 33 26 60 47 33 51 33 30 37 30 65 39 55 22 33 27 41 55 29 41 22 51 43 36 34 37 32 43 31 28 49 44 22 31 50 38 44 37 27 48 27 47 37 41 12 30 64 31 28 41 54 48 30 36 38 45 30 33 42 44 43 36 54 52 23 38 26 56 37 46 37 24 37 53 30 37 51 19 27 28 39 33 30 44 24 54 42 48 41 48 40 33 58 38 39 47 23 26 20 24 36 35 33 57 27 40 38 41 66 55 19 51 58 27 51 40 41 47 43 40 37 33 34 40 43 51 36 34 45 48 21 46 46 50 23 29 45 45 57 13 29 65 56 50 43 49 36 43 38 30 29 37 34 47 63 43 57 47 43 15 41 38 23 34 41 36 44 45 19 44 49 48 40 51 23 32 41 27 42 26 27 33 43 30 55 42 41 37 24 49 50 45 29 33 47 23 47 51 40 40 38 35 47 38 33 22 42 37 22 41 30 33 47 37 39 37 29 44 46 30 48 37 33 35 59 46 21 50 43 47 37 9 35 27 46 29 33 34 26 44 63 43 33 59 44 44 62 47 41 33 56 29 48 31 39 34 41 30 27 40 25 42 32 43 46 35 37 26 52 59 43 39 42 39 27 46 45 37 32 43 51 40 79 37 44 76 32 43 44 30 47 23 44 36 36 30 38 37 46 45 51 23 55 37 47 44 33 44 40 45 23 32 43 55 32 44 20 26 44 47 36 37 32 44 19 49 35 45 36 20 22 40 43 43 46 35 49 37 30 45 41 37 30 35 44 26 36 40 43 40 27 37 38 44 32 57 45 40 53 20 36 33 39 20 43 24 36 42 38 25 51 44 37 47 27 37 34 35 43 43 30 26 45 26 46 43 27 37 60 56 37 27 49 35 56 45 57 35 44 35 43 40 37 29 37 47 51 27 37 18 36 16 57 44 63 65 22 23 37 20 39 58 32 37 37 40 24 37 20 51 43 37 51 25 41 50 49 66 37 46 51 41 26 55 16 30 55 33 39 39 30 44 51 29 41 33 45 24 26 40 50 54 45 42 34 37 36 51 27 24 49 34 23 33 36 55 39 33 35 25 57 20 52 46 30 24 27 16 30 63 32 52 24 30 43 48 38 28 39 61 44 25 34 36 44 53 48 29 37 23 33 33 35 55 51 37 57 46 44 52 50 29 47 41 27 33 24 48 34 44 29 35 49 26 50 35 34 36 17 26 34 48 37 40 33 25 41 48 32 24 37 29 36 41 45 36 47 46 24 36 44 20 23 39 37 30 55 33 48 46 26 35 33 14 17 48 59 61 38 34 71 45 45 49 41 52 45 43 35 46 57 31 41 31 32 44 30 51 41 29 31 37 33 46 38 44 34 38 44 22 37 36 33 29 37 19 22 23 43 20 33 41 37 49 30 40 26 23 45 47 31 45 36 39 33 27 30 38 33 31 23 41 41 51 61 19 51 40 39 36 52 33 54 55 55 32 38 29 33 68 47 48 34 26 37 28 30 16 59 44 37 23 47 51 27 15 46 50 43 39 24 55 37 36 41 42 41 35 36 32 29 46 51 22 29 30 51 40 16 37 43 49 40 40 40 50 34 57 22 43 18 49 40 30 36 43 45 40 44 34 34 34 45 43 49 47 33 19 37 43 20 38 23 27 41 30 40 26 36 62 39 57 41 41 44 47 40 47 34 44 35 33 37 55 38 45 26 41 37 29 43 41 29 41 33 53 27 41 48 40 28 48 45 58 44 48 42 55 37 44 32 33 51 41 33 32 34 39 49 37 34 39 49 34 40 31 42 50 38 31 44 26 32 38 20 39 43 36 29 21 46 22 37 41 37 34 23 47 37 14 25 48 32 40 34 37 29 47 34 28 51 33 31 40 57 23 39 43 41 30 16 29 38 36 27 35 36 37 46 34 48 51 52 54 37 38 46 35 34 40 63 34 43 31 43 37 54 58 46 37 37 40 57 21 19 42 31 34 37 26 27 47 37 20 43 52 30 29 39 60 34 45 47 61 28 44 34 43 44 41 46 21 37 36 29 32 50 44 35 37 32 57 51 57 42 30 28 34 20 35 33 29 37 46 33 33 44 55 16 36 42 27 48 27 30 56 42 41 41 16 49 38 23 37 33 40 47 20 65 33 57 30 43 39 37 40 30 52 44 30 23 29 31 36 30 47 40 28 35 27 34 40 37 36 15 51 34 39 40 54 34 37 29 38 36 33 29 47 19 49 23 40 23 42 37 43 68 40 44 37 39 36 42 44 37 38 43 20 30 25 48 27 41 44 40 24 30 48 29 33 48 47 48 33 22 37 33 38 23 31 52 53 33 51 27 30 26 50 32 48 34 28 45 44 50 48 51 30 38 36 37 30 37 34 33 46 51 36 35 31 45 51 29 31 33 49 29 23 25 37 27 41 38 38 36 30 51 43 38 53 33 43 44 27 48 30 36 34 40 31 39 48 38 29 23 45 35 51 30 30 45 47 33 49 40 47 40 48 46 27 60 24 37 51 34 44 27 43 38 45 35 40 47 42 35 26 29 54 51 36 24 46 34 57 29 31 35 29 42 44 47 35 44 40 41 37 34 47 47 42 68 39 43 39 41 51 44 32 51 30 40 46 37 40 31 40 57 46 34 30 30 57 36 39 40 30 44 62 35 45 16 40 33 29 43 51 49 25 45 37 57 37 45 39 37 41 19 41 48 33 43 41 26 35 38 40 38 23 51 51 33 34 51 33 22 49 51 52 43 53 40 30 38 33 39 33 19 41 56 55 39 38 40 46 37 35 26 41 52 40 48 37 30 43 33 47 33 44 56 20 26 29 24 31 37 35 47 51 27 37 40 33 48 26 37 43 49 25 36 37 37 45 13 53 33 51 36 37 16 43 42 38 43 45 39 51 37 33 38 16 44 31 29 54 36 47 59 37 38 41 30 54 50 51 21 59 55 52 30 36 69 36 37 57 43 37 54 31 34 16 36 16 20 43 33 55 33 39 32 61 34 41 57 46 47 34 33 52 49 26 48 36 49 37 51 38 46 39 29 30 33 37 52 57 44 50 20 47 34 34 23 44 29 37 36 54 40 43 33 49 15 16 37 57 30 29 22 38 48 46 20 33 37 30 38 37 30 35 30 36 36 26 35 51 34 45 23 40 23 35 50 47 42 54 52 37 47 33 29 37 65 22 44 36 44 53 17 40 43 32 44 37 43 33 30 42 43 33 38 53 37 39 27 52 49 25 36 36 41 45 36 49 28 41 47 48 31 37 47 22 16 29 36 48 13 44 37 49 37 27 27 49 20 37 71 25 46 23 36 40 71 35 32 19 39 20 34 46 23 40 44 40 36 36 41 38 34 28 29 31 48 27 56 31 30 31 24 45 37 40 27 43 42 57 44 49 43 51 41 40 34 55 42 43 46 44 49 27 56 31 52 36 33 36 38 26 25 41 30 57 30 26 27 37 30 30 20 34 22 31 55 43 34 47 46 40 27 47 34 66 40 47 22 23 42 25 45 25 19 57 30 39 36 44 34 23 38 55 26 43 43 33 19 27 44 49 43 52 31 37 51 52 43 34 32 47 33 46 30 13 33 37 44 24 36 54 56 55 41 44 47 41 47 37 23 38 29 65 50 37 39 20 23 26 47 13 34 18 42 15 41 30 31 33 50 21 37 27 39 20 52 38 38 37 39 24 30 65 40 16 41 22 43 33 45 34 47 55 58 45 29 31 36 48 51 40 43 37 36 58 34 43 35 38 65 42 37 50 41 28 53 35 43 58 41 61 33 38 33 37 29 48 50 53 33 33 54 24 45 27 56 45 36 34 37 27 59 41 54 35 53 41 51 31 30 41 43 51 16 53 20 43 28 44 44 40 28 54 37 59 36 59 23 31 20 42 46 33 36 30 30 25 21 35 20 46 47 54 30 34 50 39 44 51 37 56 46 35 44 36 34 43 27 54 28 58 50 76 45 46 52 43 29 46 32 33 38 34 36 40 34 37 36 30 44 22 48 47 47 23 31 37 50 29 33 17 54 23 44 23 34 49 38 37 44 22 37 47 39 46 64 55 39 41 36 29 29 37 26 29 24 44 50 27 36 50 53 34 45 59 30 54 37 19 38 31 52 37 40 48 41 31 23 36 30 23 39 38 57 22 46 41 49 10 43 37 52 39 36 29 37 47 42 43 56 23 40 29 51 35 44 37 38 25 36 45 31 36 34 30 31 33 36 37 40 23 51 35 48 50 44 45 49 55 43 26 30 29 26 39 29 36 31 48 59 30 40 31 40 33 20 37 55 37 38 44 39 51 37 43 36 29 34 30 47 49 28 30 33 40 45 31 72 33 38 29 33 37 38 44 37 30 37 44 69 27 32 36 46 27 37 37 37 31 40 31 37 47 38 48 41 57 34 43 31 41 45 38 36 41 38 63 53 26 17 46 38 16 34 20 43 29 44 53 43 30 38 59 29 26 31 44 50 46 42 28 40 43 16 45 31 47 47 44 34 59 44 60 47 37 49 52 29 35 34 52 31 22 39 35 20 46 44 37 43 36 48 56 37 27 51 44 26 58 62 43 34 32 40 45 40 44 35 38 36 29 31 41 37 30 43 24 34 37 28 57 25 50 34 57 26 45 23 23 49 39 41 48 29 30 23 44 37 36 34 40 38 10 50 23 39 44 37 32 32 59 26 27 35 34 52 30 29 35 49 41 41 25 33 34 46 40 29 36 55 45 40 37 37 25 59 37 26 27 39 55 43 27 39 23 29 56 33 33 22 42 48 38 20 35 49 36 15 34 47 33 34 40 40 19 38 41 33 36 35 26 40 44 54 50 31 36 46 25 33 37 33 43 36 44 29 32 54 39 31 23 29 54 36 38 45 67 37 41 13 23 44 50 60 31 48 55 45 44 34 57 41 39 33 48 37 27 30 48 57 51 42 30 30 23 26 30 43 44 48 44 33 33 45 26 39 58 41 38 34 45 33 34 41 44 40 45 27 23 37 41 24 44 30 27 36 51 26 51 59 58 52 46 54 39 50 54 37 28 41 37 33 23 31 37 34 30 40 47 30 44 37 30 37 37 43 40 56 27 38 33 43 32 20 44 60 20 26 39 43 38 35 47 62 34 54 36 49 52 48 28 22 30 54 38 27 46 30 33 51 37 37 30 51 40 50 25 37 50 34 41 37 41 45 45 31 24 23 45 40 33 38 46 46 23 50 34 22 28 48 41 29 24 35 42 30 30 17 39 40 30 37 47 36 37 39 38 33 24 44 44 22 37 30 44 52 31 57 36 34 37 26 37 28 43 55 50 36 25 19 53 35 36 56 42 22 34 22 23 29 37 51 23 57 58 49 36 40 44 29 53 21 27 22 31 35 33 40 53 23 35 33 41 33 30 41 38 49 31 33 23 41 31 43 37 27 29 60 59 39 30 46 15 55 52 33 30 40 30 35 35 33 42 23 23 31 49 21 30 41 34 41 38 33 19 37 24 43 19 48 47 33 41 40 36 39 40 42 23 24 27 27 55 41 38 56 33 46 27 52 55 33 33 36 39 64 20 28 39 25 34 31 35 41 47 29 36 32 48 33 48 37 45 37 40 30 24 42 35 31 19 28 30 41 34 34 27 47 36 29 44 41 27 30 29 16 40 25 31 47 34 28 27 38 51 34 35 44 51 27 32 40 55 34 44 66 39 31 17 36 54 49 48 54 40 24 37 54 37 41 33 54 40 55 32 45 45 31 37 58 28 30 41 43 34 41 40 27 43 36 38 27 32 23 23 43 30 43 49 33 30 60 30 57 34 52 38 30 39 53 30 51 41 51 42 43 44 54 34 29 39 47 50 43 21 39 27 51 26 38 38 27 37 43 53 37 36 24 50 22 34 34 59 59 33 47 46 45 27 22 34 23 33 27 43 32 30 34 40 41 51 26 40 37 40 33 24 32 49 27 29 51 37 51 30 60 23 27 46 37 25 19 24 37 23 32 30 29 30 36 53 33 30 16 23 51 50 51 41 22 26 37 48 33 38 52 28 31 42 55 39 30 42 51 34 24 36 35 28 54 26 33 34 37 52 25 37 33 41 50 44 32 37 47 33 41 37 57 34 19 42 39 29 43 48 45 29 33 43 57 48 33 31 43 57 31 33 36 45 29 29 44 29 48 45 37 43 29 38 51 51 37 23 44 40 41 38 30 37 35 23 49 12 32 35 48 37 41 41 54 37 33 37 43 46 32 25 33 27 30 40 26 43 29 29 48 47 19 22 32 44 36 37 31 41 24 37 23 33 37 44 37 31 45 55 43 34 35 49 55 39 40 49 37 48 27 56 30 44 55 28 33 45 41 62 44 44 36 44 40 36 40 30 31 38 51 34 44 47 45 52 49 35 25 41 47 47 30 31 57 33 24 40 38 49 56 55 31 35 41 36 31 22 51 55 23 38 30 34 36 39 54 29 21 29 39 46 36 29 42 39 49 37 25 34 43 30 32 44 40 47 13 31 36 51 38 43 33 66 37 50 44 35 55 42 41 43 57 22 58 43 33 41 28 53 30 30 44 51 34 31 51 45 51 30 40 33 49 55 25 38 40 37 29 33 33 53 28 41 47 33 36 25 22 24 48 45 27 64 28 41 40 36 38 61 29 27 44 40 43 50 47 31 36 17 9 51 37 50 34 37 35 51 37 21 28 38 40 36 31 26 39 44 43 33 34 40 30 55 27 43 36 46 51 36 19 30 39 29 40 35 41 44 50 30 44 34 52 10 24 33 33 20 41 40 57 43 26 51 40 40 37 38 40 29 43 22 36 32 16 38 43 49 43 37 38 30 43 40 43 36 43 26 52 35 41 47 34 37 30 46 33 42 30 32 45 32 38 47 31 40 37 37 40 52 53 48 49 34 40 41 32 26 33 34 30 51 50 25 51 59 33 49 36 65 34 33 41 51 43 36 14 43 51 41 52 55 19 30 44 32 49 34 30 21 45 42 36 41 45 26 47 45 40 33 23 40 36 41 50 29 44 42 36 42 42 37 43 44 57 59 37 39 48 37 46 38 31 42 37 33 33 37 56 39 41 47 39 44 47 40 43 30 53 31 25 37 27 39 41 59 51 25 37 39 26 42 33 30 29 35 45 37 50 58 24 30 32 25 43 40 36 29 37 51 57 44 30 45 23 39 46 47 23 41 35 30 44 51 19 51 43 41 39 32 39 37 36 44 43 49 26 55 37 24 17 44 33 24 30 29 68 33 32 56 44 33 62 48 46 29 48 29 36 30 24 43 36 27 31 36 45 50 43 45 41 41 17 42 26 20 40 44 47 40 28 37 37 44 54 33 30 42 41 42 36 47 37 50 29 40 37 41 57 39 44 26 35 43 41 48 40 43 29 27 38 29 21 45 35 37 37 43 39 54 42 43 47 42 28 23 45 36 26 37 29 38 40 24 31 45 40 28 44 44 30 43 29 59 32 33 36 27 27 23 36 59 53 23 38 43 26 33 33 34 37 52 55 26 38 44 36 26 42 36 57 44 30 29 47 39 37 33 39 48 50 30 47 37 34 36 16 23 44 37 49 25 35 39 38 19 41 27 45 43 27 43 48 38 34 27 51 26 47 43 26 31 47 47 31 25 42 32 46 48 61 36 13 51 25 30 20 31 58 52 20 26 37 35 63 45 39 37 37 44 51 36 31 30 38 29 40 27 38 57 28 20 43 35 39 56 29 30 46 33 37 44 41 47 26 47 23 48 26 26 75 45 37 60 65 28 36 51 37 25 26 43 27 33 37 33 43 44 36 33 45 30 55 41 47 34 43 37 31 37 30 37 26 48 43 49 38 43 49 30 48 36 40 45 41 20 43 17 44 47 35 52 29 30 55 25 48 40 48 44 30 49 35 36 47 41 37 23 50 32 40 48 40 34 34 33 38 44 24 50 44 39 33 37 39 36 31 43 46 29 35 30 36 39 44 22 30 37 28 36 23 49 40 27 43 48 42 55 43 41 12 29 31 29 41 43 39 47 31 30 38 57 55 28 50 47 42 23 38 47 28 51 36 55 22 43 40 48 49 34 36 47 37 44 37 42 20 13 30 34 37 47 42 37 19 30 35 54 52 37 48 38 52 33 31 34 37 48 54 34 47 51 31 37 42 42 16 37 39 22 45 24 38 22 9 54 31 30 41 40 36 23 45 31 42 37 50 35 45 58 42 33 24 20 47 49 57 24 43 39 30 48 62 39 37 33 31 37 31 29 38 48 38 37 40 32 30 36 16 26 27 24 30 45 49 43 16 63 33 52 39 47 24 45 36 24 52 42 51 23 29 26 29 30 31 23 34 33 23 34 29 34 37 37 38 43 45 43 27 36 38 30 43 67 37 37 40 54 32 16 33 38 45 51 39 56 57 40 37 34 56 42 28 27 37 47 34 43 40 41 26 44 47 56 47 51 41 45 43 45 19 23 42 26 36 57 40 41 37 40 43 50 33 31 52 35 29 33 30 52 37 38 46 35 40 43 36 42 30 38 41 33 37 37 26 52 40 30 38 55 27 21 37 35 37 38 30 33 26 43 29 38 33 36 23 43 41 59 33 22 33 42 29 34 17 43 51 43 57 46 24 42 20 26 44 29 65 41 44 57 48 26 44 37 61 43 50 48 27 36 46 30 29 24 32 27 23 39 57 31 40 32 34 26 38 36 29 37 47 46 37 54 30 33 31 30 29 45 38 35 30 54 31 25 39 32 27 31 37 46 51 30 31 37 49 51 32 50 39 34 29 37 27 46 30 44 55 53 24 41 51 22 39 35 46 32 39 43 33 37 34 42 41 49 46 31 45 26 55 51 16 39 56 28 15 57 44 51 36 25 36 31 32 39 19 28 39 35 25 61 31 36 51 50 35 35 47 37 34 37 37 40 33 31 34 48 29 51 30 25 52 30 39 27 44 38 51 43 39 30 67 51 30 38 33 50 29 31 38 38 30 37 30 37 42 20 33 25 37 33 46 29 33 49 30 45 37 33 33 43 44 29 55 35 45 53 40 27 38 61 37 48 29 25 42 36 38 26 42 17 51 26 35 45 34 30 46 55 33 40 48 38 49 38 47 41 19 48 57 59 37 53 52 33 52 37 19 32 28 51 33 23 43 17 27 48 41 32 32 57 51 35 29 31 42 28 25 50 58 41 51 36 51 38 33 37 49 42 33 37 27 51 45 26 30 34 26 46 33 29 30 43 19 48 44 47 24 41 26 36 36 47 47 36 43 30 39 55 44 36 31 29 33 29 19 47 58 44 44 57 28 18 16 31 33 56 37 44 48 27 41 43 22 38 44 28 36 36 38 63 37 24 43 44 30 24 47 35 59 24 23 44 44 32 43 34 39 26 37 43 41 28 32 33 48 34 43 38 19 41 35 44 45 50 33 26 33 45 23 34 27 38 25 30 39 34 35 37 38 29 37 37 39 27 31 16 51 26 47 44 15 33 41 37 33 37 43 30 37 34 27 53 30 51 30 39 37 36 38 40 30 34 23 26 32 29 26 45 48 49 17 21 31 37 53 43 34 45 33 37 35 44 47 42 27 29 30 39 41 53 40 41 26 27 53 37 48 48 54 51 33 40 47 33 17 51 55 37 59 44 23 36 26 45 39 46 36 22 38 50 43 47 36 41 30 47 39 13 37 43 35 37 18 41 44 34 55 51 31 16 24 23 42 38 39 47 37 45 69 30 50 46 30 40 55 40 45 35 48 43 34 22 36 29 21 27 31 51 34 19 47 40 50 51 45 54 51 55 43 47 34 45 29 48 26 30 55 36 27 22 55 43 29 26 27 43 34 34 23 33 45 43 55 51 50 60 52 34 37 36 37 39 36 27 37 41 48 41 28 53 52 24 47 57 34 37 29 43 56 35 27 50 36 54 53 39 58 40 23 48 40 25 48 41 57 40 14 44 34 41 29 27 44 23 46 40 20 44 47 33 25 50 34 44 45 27 43 48 37 30 40 41 32 26 42 26 47 16 43 43 37 37 38 27 52 53 33 26 40 22 68 36 29 57 27 59 24 40 43 31 16 35 37 40 31 29 41 34 26 45 32 30 40 36 46 41 54 47 51 30 31 37 38 48 46 31 27 33 49 17 38 51 35 52 38 30 41 29 45 40 20 40 49 30 51 19 44 29 56 21 27 47 41 27 41 61 33 31 20 20 56 38 61 56 37 30 52 47 67 37 32 44 58 36 45 34 39 39 48 44 53 27 28 20 28 29 42 37 27 44 23 43 25 35 24 33 40 10 38 51 26 31 27 54 33 37 41 21 43 27 30 39 33 44 35 27 43 57 40 34 33 33 37 19 42 53 48 33 42 34 53 32 30 47 24 49 61 51 51 31 48 37 35 23 54 37 44 45 30 51 61 48 33 31 44 33 53 43 51 34 45 40 34 38 41 36 29 27 39 40 31 34 29 41 19 28 43 54 22 52 43 37 30 27 30 23 52 46 30 37 45 36 30 44 43 51 39 25 32 38 48 43 44 35 50 48 52 51 43 40 26 43 19 49 37 33 43 53 45 30 42 44 62 37 26 41 48 52 53 37 43 48 41 40 40 50 32 45 36 50 42 48 40 34 49 48 56 37 27 41 57 38 43 41 37 39 32 43 41 42 45 66 27 30 43 19 44 27 30 44 39 45 40 26 56 32 31 40 51 38 10 37 13 46 53 30 43 19 33 63 31 36 40 29 27 20 39 40 61 27 19 41 49 44 37 60 24 37 44 57 30 55 27 37 62 27 48 29 40 43 34 26 31 26 39 41 40 23 42 50 50 44 17 30 43 35 24 45 27 32 38 46 28 53 33 51 20 52 46 57 51 36 43 42 34 20 45 33 29 50 33 27 51 43 60 32 19 37 23 36 25 27 23 40 38 26 40 55 34 28 41 24 49 22 59 36 27 30 48 50 46 33 26 47 33 44 36 43 40 49 24 41 45 43 35 37 33 46 39 52 46 54 37 33 52 39 26 55 41 25 44 45 38 47 33 59 10 22 52 22 10 19 27 17 30 32 29 30 24 41 29 47 45 30 37 30 26 16 45 15 38 38 36 23 49 24 35 45 33 36 23 31 23 44 19 19 30 33 57 43 40 43 25 49 27 40 28 26 52 29 47 22 29 54 22 49 41 61 36 26 36 47 51 37 50 19 24 23 38 29 27 35 44 38 41 38 29 23 51 53 15 41 43 9 37 40 40 35 37 37 48 39 37 26 36 47 19 57 39 33 43 42 30 31 31 54 47 43 50 45 42 13 47 40 34 51 24 46 40 34 33 43 35 35 42 49 24 36 39 43 32 37 33 43 31 53 51 37 34 37 51 23 40 44 42 37 30 27 43 37 38 50 36 44 23 35 45 33 27 52 45 39 52 65 32 45 29 55 35 47 27 44 29 46 54 45 41 45 54 52 49 34 42 34 37 39 61 33 29 25 47 39 43 36 29 52 55 37 45 40 22 47 27 35 46 44 44 45 44 29 36 36 47 33 46 49 55 53 41 63 48 38 30 32 46 24 40 47 41 35 31 18 42 44 55 30 36 31</t>
   </si>
   <si>
     <t>PTS</t>
@@ -102,52 +102,52 @@
     <t>List</t>
   </si>
   <si>
-    <t>EXN(0.6199513055865629, 15.04020882715896, 6.4974721842132634)</t>
-  </si>
-  <si>
-    <t>24 23 27 20 24 20 21 41 22 23 20 19 15 7 24 17 13 23 10 24 31 14 42 21 17 16 11 10 24 17 24 17 20 13 24 23 20 28 31 17 18 16 19 24 24 17 13 21 19 20 20 13 20 16 21 21 17 10 31 21 17 24 30 20 17 15 14 10 17 17 18 26 28 27 14 15 18 12 16 20 9 27 13 13 22 7 9 17 17 23 19 23 14 13 14 20 3 20 23 16 16 16 20 9 20 10 20 14 26 23 20 18 18 35 10 17 17 17 10 10 21 20 23 20 10 17 44 30 14 17 16 17 17 24 30 23 7 9 19 13 19 27 26 37 24 19 26 27 24 21 16 16 24 24 20 27 9 24 34 25 19 16 11 14 24 9 14 16 17 20 10 24 12 17 31 20 13 20 6 17 25 9 17 10 19 24 17 17 27 31 24 6 14 42 16 21 35 7 13 3 24 14 10 27 23 24 20 14 30 21 23 23 14 23 23 20 10 11 10 20 14 24 23 24 10 41 9 14 13 16 20 13 11 7 31 10 13 38 16 6 34 19 17 27 24 21 10 13 13 15 17 13 13 16 24 0 38 7 6 6 21 16 21 17 17 30 14 16 26 15 20 17 9 27 22 34 25 26 20 17 10 21 10 30 21 7 13 10 13 16 23 14 30 34 28 20 24 17 31 22 17 13 26 17 37 32 27 13 15 16 26 10 14 9 13 17 10 15 13 24 17 27 13 20 30 14 29 21 19 24 20 13 18 11 17 23 13 23 28 28 21 20 24 20 9 21 20 27 7 10 20 9 24 23 20 35 16 23 6 10 3 24 29 20 16 10 26 17 20 10 16 20 7 27 13 20 27 13 37 28 23 21 7 6 16 26 17 12 16 20 10 17 22 10 31 24 27 24 29 10 13 24 14 7 27 21 30 18 6 17 16 17 13 13 27 29 13 16 20 13 20 24 24 17 27 10 12 26 24 24 28 17 31 31 24 20 21 5 32 14 20 12 13 9 25 21 22 10 20 24 10 27 24 17 0 24 17 13 26 27 6 21 10 24 27 38 24 6 35 3 17 19 27 17 27 16 16 14 28 12 24 23 7 14 13 24 19 20 14 27 21 24 9 13 29 16 29 21 13 17 13 30 20 10 10 11 17 20 23 17 13 7 31 35 12 20 23 28 8 13 16 20 45 13 9 23 17 6 17 16 18 3 12 3 13 23 27 24 11 7 20 21 21 31 35 13 3 24 18 17 17 20 17 17 22 3 18 23 27 30 17 17 23 15 20 24 16 35 37 14 12 13 16 14 12 35 34 16 31 10 27 7 17 13 21 23 35 17 13 23 3 21 14 27 13 2 20 10 24 22 23 24 23 18 12 26 16 14 10 19 7 17 17 37 17 13 24 25 13 23 14 36 31 20 20 6 10 23 34 16 17 29 14 10 17 40 14 17 24 29 14 3 27 14 18 19 3 5 17 27 20 16 17 16 28 27 13 15 20 20 18 24 14 34 20 20 21 13 26 15 24 3 24 20 14 24 23 17 10 15 12 27 14 17 31 10 33 24 22 16 34 20 22 20 9 20 11 30 33 28 10 24 17 24 21 9 18 9 31 15 27 17 17 20 23 12 6 17 26 23 7 31 21 28 13 14 31 31 13 6 22 35 31 17 17 17 14 17 27 6 20 16 20 24 3 31 22 18 20 6 28 22 17 20 17 24 17 16 23 13 34 24 34 27 16 16 13 21 17 17 15 20 23 16 13 31 9 40 8 17 23 3 28 20 21 24 38 7 13 17 23 31 17 16 31 15 21 16 7 20 24 0 16 19 32 16 24 14 24 7 9 23 21 35 23 27 24 27 20 17 17 35 24 7 28 24 20 13 20 17 27 20 12 9 13 15 15 7 6 13 13 33 6 14 12 10 7 10 34 10 20 21 19 6 10 13 21 10 31 24 21 6 16 22 12 28 13 20 20 12 32 3 23 3 14 27 18 20 16 14 23 33 14 17 24 20 23 24 30 14 13 0 16 27 23 19 19 14 27 20 20 10 22 24 13 20 13 28 26 24 7 10 34 7 27 42 21 28 31 20 24 10 30 16 10 27 23 23 13 41 13 17 27 17 27 27 10 26 24 16 13 0 24 26 23 24 20 28 26 10 21 17 19 21 7 28 34 16 8 17 22 23 27 15 14 24 35 10 19 17 18 24 20 7 14 10 20 14 17 23 17 14 24 27 28 32 14 19 13 9 24 13 17 20 10 10 10 16 30 13 20 17 7 20 24 17 37 21 10 21 18 24 26 17 20 16 23 9 14 19 17 20 14 11 27 13 29 21 20 6 19 27 16 17 17 24 23 10 17 13 15 14 20 22 11 20 12 18 7 14 14 24 3 20 17 10 21 27 24 19 7 24 30 23 21 7 23 34 23 16 12 15 13 20 21 27 14 12 28 10 16 10 14 10 30 20 16 9 7 10 10 21 20 25 13 21 13 6 7 14 24 17 16 13 7 21 13 12 17 23 6 21 10 20 17 27 14 12 24 19 34 27 20 11 13 23 8 13 17 17 15 16 16 6 12 17 29 7 21 17 19 28 27 21 14 16 16 31 20 20 17 16 14 20 19 24 14 21 20 20 17 16 20 20 10 17 23 10 6 20 25 25 17 16 17 17 14 0 20 26 17 13 14 17 41 38 24 16 24 15 17 17 17 21 17 38 9 24 14 20 16 22 17 29 31 9 20 13 38 20 10 23 15 14 21 21 17 17 27 18 30 19 16 3 21 15 10 27 18 27 30 7 15 36 6 20 19 13 26 17 17 19 14 19 34 19 17 13 22 24 31 20 17 14 22 24 14 20 15 13 23 35 20 24 17 21 27 12 9 9 14 21 33 27 21 21 32 14 20 16 16 17 21 17 34 35 6 14 24 19 14 15 16 24 13 16 12 24 24 16 9 17 27 3 17 13 31 17 3 24 20 38 20 11 12 22 20 24 7 17 15 20 7 14 17 17 33 19 25 26 30 16 19 14 24 15 10 31 20 44 27 27 17 14 27 18 24 16 9 14 17 17 17 12 7 20 27 16 16 19 13 29 28 6 3 26 24 14 20 12 14 16 10 23 20 30 23 21 24 30 13 7 18 7 28 14 24 16 34 25 10 16 10 24 31 16 20 13 14 9 13 10 16 21 10 10 14 30 28 27 31 17 12 20 19 20 17 13 23 20 20 25 14 14 11 6 19 20 14 35 35 17 9 22 27 24 17 17 24 12 18 24 21 13 28 10 20 17 16 13 10 27 14 17 24 17 6 17 10 10 17 24 17 44 30 17 22 20 35 9 23 26 14 23 24 10 10 16 26 27 16 20 24 23 25 23 14 31 10 19 21 27 38 14 13 38 10 27 20 20 11 9 10 6 7 8 9 13 23 38 28 26 23 7 20 16 7 17 20 20 10 24 27 20 24 24 3 34 34 21 41 17 19 28 3 9 28 13 17 12 16 9 13 23 21 30 20 30 9 13 17 22 10 13 10 31 17 24 21 10 17 7 23 22 17 7 38 27 13 8 21 19 10 31 13 10 13 14 24 8 20 3 24 28 27 7 23 27 19 23 20 19 27 14 13 17 27 19 24 23 30 28 24 31 17 24 38 21 14 16 27 13 20 45 12 17 20 38 7 27 27 6 20 16 16 19 13 18 17 38 13 24 13 14 13 13 13 11 17 18 7 17 27 21 21 20 13 17 14 13 26 6 23 21 38 28 30 13 10 21 21 14 14 21 30 21 0 26 24 20 17 10 31 21 13 38 25 31 27 13 24 24 15 17 21 9 17 20 31 17 14 16 14 32 36 17 14 23 38 17 17 20 27 17 27 30 20 19 24 12 20 17 21 38 17 27 22 16 6 21 0 21 9 31 23 24 19 17 28 9 13 17 20 13 8 27 16 23 21 10 20 17 3 13 0 28 16 16 24 21 31 13 16 28 42 10 31 21 12 21 23 10 14 10 23 20 23 16 21 10 19 17 9 10 21 20 37 14 23 26 20 20 17 21 17 17 8 17 24 31 38 14 19 8 17 10 24 13 23 17 6 7 17 9 21 17 31 6 28 6 26 23 16 19 16 18 6 20 13 10 21 20 31 10 21 27 10 14 21 21 33 14 14 20 14 7 14 21 20 12 31 9 9 16 17 10 28 27 28 10 27 18 34 13 27 20 13 23 13 31 17 19 6 34 17 13 21 17 23 0 17 16 19 6 17 10 24 10 11 16 15 16 20 10 15 21 27 7 20 20 14 14 27 24 36 17 15 19 16 33 17 20 15 19 23 23 34 41 20 19 27 24 23 20 25 28 13 17 28 24 21 10 16 19 15 23 14 27 16 17 24 27 31 24 10 34 20 24 27 10 16 17 24 17 14 31 24 9 10 14 14 28 19 10 19 20 9 27 14 23 24 10 10 6 9 24 17 3 28 27 27 17 31 20 24 27 16 12 7 13 10 24 28 28 10 24 31 3 27 14 5 23 10 30 10 13 19 20 30 9 28 13 16 10 20 31 19 17 15 13 20 20 11 28 35 21 16 15 27 16 13 19 7 24 26 25 20 34 17 25 16 17 14 19 17 34 24 28 20 22 24 30 10 6 27 18 26 13 14 15 9 27 16 23 20 27 13 14 21 24 27 24 28 28 17 31 31 20 22 19 13 17 17 17 30 14 10 14 14 38 17 20 24 17 20 13 24 16 19 21 18 9 31 21 24 15 22 12 6 14 28 6 20 10 13 7 14 15 10 13 24 6 14 14 10 23 13 31 9 14 21 6 38 13 11 30 30 26 16 17 6 9 14 17 22 9 20 25 16 23 23 24 34 23 17 35 21 35 20 23 16 17 20 27 28 30 35 43 35 14 17 13 17 16 0 34 10 22 20 19 23 24 9 27 10 10 25 13 21 18 23 45 21 23 10 24 23 14 6 25 14 6 12 16 28 20 17 24 27 8 19 13 21 21 14 17 23 14 12 14 21 19 34 6 17 20 23 21 16 14 20 17 35 27 6 17 3 28 35 17 24 23 18 27 27 10 17 35 16 31 10 17 23 24 19 10 22 31 13 24 30 7 27 16 28 10 10 17 18 10 21 10 17 20 14 35 17 31 26 3 21 3 22 24 21 21 17 14 25 20 21 21 24 17 20 24 10 30 19 21 20 7 20 23 24 17 12 27 10 14 37 23 10 21 10 10 21 30 14 24 10 27 13 19 14 29 13 30 16 17 17 13 17 14 21 13 21 22 6 10 13 13 24 24 6 6 27 24 30 27 3 7 6 20 24 20 32 15 24 13 21 13 13 6 38 20 50 30 17 13 13 14 21 16 13 21 28 14 14 17 20 23 14 20 34 15 13 3 27 13 27 21 17 14 26 20 17 24 27 26 30 20 3 18 16 27 13 18 20 20 26 17 9 19 14 7 23 20 31 21 24 28 13 13 20 9 17 41 15 27 17 17 6 34 27 26 24 20 17 21 24 19 14 27 13 28 16 13 24 19 24 33 28 31 13 13 20 17 27 11 9 34 30 23 24 10 0 17 18 14 22 9 7 27 21 14 10 15 31 31 24 28 10 19 17 20 6 24 13 27 10 0 21 28 10 23 21 20 28 23 10 13 16 23 31 7 16 10 23 19 20 7 15 27 23 16 34 28 38 13 17 13 7 17 23 13 24 27 25 19 20 27 24 27 20 17 19 19 19 16 16 10 29 34 21 16 16 30 17 31 14 17 10 13 23 10 27 19 14 37 24 31 14 17 14 10 20 31 20 17 17 16 8 17 16 17 19 22 17 27 23 10 24 24 14 13 13 17 17 10 17 13 30 28 10 28 21 31 11 7 17 17 7 20 24 19 12 20 10 31 10 3 34 23 24 14 20 3 30 20 28 17 20 10 12 10 6 14 12 28 6 13 25 25 21 23 19 17 14 24 30 13 10 34 21 31 21 14 23 13 17 20 10 23 17 10 24 3 3 14 20 26 3 30 31 24 19 9 38 3 20 20 20 14 3 10 30 13 23 27 7 3 19 20 20 23 18 10 16 16 13 13 30 20 18 30 23 19 10 24 24 28 24 21 30 27 17 7 23 16 12 16 33 17 31 16 24 24 18 17 13 10 33 7 19 31 16 24 20 21 14 17 20 25 16 10 17 24 10 10 10 23 21 21 14 17 23 13 7 15 14 28 17 16 15 21 31 21 31 16 20 15 27 17 14 20 26 16 10 6 16 27 30 9 20 27 14 16 17 12 34 27 20 28 13 24 17 19 28 24 21 23 19 19 12 19 28 30 17 0 27 17 22 21 20 22 13 17 13 10 14 7 10 20 6 27 13 13 30 16 41 34 19 31 27 21 35 6 14 27 20 8 27 30 21 13 17 17 24 16 17 27 10 20 10 14 26 13 21 10 17 20 20 17 17 24 35 20 12 16 10 15 24 6 17 13 18 13 23 35 19 17 17 20 13 24 14 14 19 17 14 17 13 24 3 14 20 20 9 14 7 34 24 18 23 31 17 19 21 23 14 20 14 24 14 17 31 27 24 23 27 24 11 27 16 17 27 20 6 20 3 21 9 14 9 20 17 13 24 27 21 29 9 14 30 10 17 31 31 6 20 30 17 24 20 17 16 20 25 17 27 13 28 13 17 31 31 13 13 28 17 17 6 7 20 16 7 13 14 37 12 24 23 7 20 17 10 28 17 22 14 23 14 23 22 34 24 30 12 21 38 21 17 30 6 0 23 31 21 15 20 16 22 16 9 20 17 20 17 23 15 14 23 10 10 17 26 9 27 14 24 10 22 24 13 7 10 17 30 17 26 20 6 27 16 18 24 17 17 10 19 23 7 6 24 16 15 17 18 7 26 38 24 24 14 23 17 17 20 27 20 31 17 6 13 29 20 24 16 17 38 16 15 10 13 6 20 13 13 20 14 21 13 24 24 19 31 16 16 10 24 20 20 19 13 14 6 23 21 24 24 23 7 27 20 10 14 23 19 35 23 29 14 24 23 0 10 27 18 6 27 6 14 15 17 23 29 9 22 11 35 19 27 26 20 20 21 18 24 24 11 26 24 20 13 38 20 9 14 30 21 20 24 20 14 17 30 16 13 10 17 24 16 30 13 12 19 7 17 10 16 17 25 27 31 24 35 16 21 21 14 30 31 17 17 17 24 10 12 20 17 10 12 7 23 19 7 17 31 17 17 24 17 27 31 13 17 27 27 24 20 19 12 10 19 19 16 20 24 23 24 7 17 13 17 21 13 24 10 17 7 17 6 26 9 23 31 21 21 23 28 16 7 27 26 26 24 24 10 24 14 16 3 10 3 24 15 21 19 10 23 14 21 14 27 16 6 21 21 19 17 31 21 25 7 10 30 16 16 23 17 6 7 38 27 16 20 20 17 35 14 27 20 21 27 22 23 10 19 10 9 17 14 13 20 24 20 24 25 6 21 13 20 0 10 19 15 10 20 16 9 14 29 7 14 20 14 16 20 17 31 23 16 34 24 25 27 16 20 6 31 17 18 24 31 10 18 23 24 24 14 24 17 9 23 24 20 13 34 21 20 27 16 20 12 20 24 9 38 9 3 20 18 13 28 28 17 17 13 24 10 20 20 19 21 21 13 20 13 14 24 28 24 21 21 23 20 17 15 34 24 15 16 17 24 6 16 20 17 15 17 9 21 20 17 13 26 23 9 28 15 41 26 6 16 20 15 24 31 21 16 10 16 9 20 10 20 15 42 24 17 27 21 26 31 26 23 21 16 34 20 33 13 24 24 21 10 17 27 14 36 6 10 13 28 14 13 3 24 10 14 24 13 24 27 20 21 13 21 9 19 10 25 14 7 19 17 17 13 10 22 25 17 7 13 17 14 15 24 23 19 17 34 13 13 10 35 29 17 31 31 20 7 17 15 12 18 24 6 21 11 26 3 21 14 28 20 24 17 13 6 28 25 23 20 24 17 31 26 7 37 28 28 9 7 6 13 21 20 10 17 13 24 24 21 24 23 37 27 27 10 20 15 6 13 22 17 21 15 16 24 18 14 6 23 23 14 26 7 24 24 14 23 17 14 13 6 12 17 17 17 3 17 24 0 20 28 20 6 10 13 17 11 13 14 20 13 31 21 17 16 8 14 21 13 35 35 31 23 17 24 13 19 24 14 31 7 10 30 16 35 16 21 27 23 34 22 10 16 21 24 20 20 24 38 27 20 27 3 24 21 22 19 16 13 20 23 13 21 6 12 15 10 14 6 7 28 20 24 20 10 12 16 16 17 14 21 13 6 21 24 24 0 21 17 31 10 17 30 9 20 26 10 24 18 13 13 24 20 24 30 14 6 15 40 14 9 10 24 19 20 19 20 13 44 13 12 7 24 24 9 14 10 17 15 21 27 17 23 28 21 7 17 6 20 27 7 7 24 22 13 24 21 27 6 14 31 14 14 10 14 17 10 21 10 16 24 17 17 21 13 17 27 23 10 3 6 12 23 27 7 23 8 6 22 20 7 30 20 12 24 45 23 17 15 16 30 7 24 17 3 20 18 30 14 14 22 27 9 10 30 34 38 24 17 27 7 3 31 27 8 19 27 24 23 21 28 20 17 23 20 16 23 14 17 23 15 17 21 13 19 24 16 16 0 14 21 19 20 20 17 14 6 10 14 3 14 20 23 20 19 23 24 16 22 20 13 12 31 7 24 22 23 24 17 20 17 16 20 27 14 23 24 10 16 13 10 31 20 13 34 10 20 24 30 25 21 49 20 34 20 30 17 10 12 28 27 16 27 27 20 17 27 24 12 21 28 10 27 6 20 29 11 21 23 27 24 20 13 0 10 35 13 20 23 13 20 24 18 24 24 35 20 16 10 20 23 17 24 16 14 22 10 28 31 23 24 24 20 17 17 20 20 20 14 34 21 13 14 21 19 20 22 26 35 17 24 24 24 13 31 27 35 23 16 20 30 49 13 20 16 34 31 12 12 17 17 26 17 18 6 10 7 13 20 17 24 17 23 17 19 38 17 16 7 10 9 10 10 16 34 25 14 23 26 17 22 22 24 20 21 13 16 10 14 30 27 28 13 17 20 38 3 0 16 24 13 27 23 24 18 25 13 7 13 20 13 30 17 10 24 10 17 21 23 20 14 24 14 10 38 20 20 20 17 13 38 20 9 20 31 17 31 20 27 15 13 13 23 9 17 16 38 17 12 10 27 25 29 3 25 28 26 13 14 22 33 21 23 9 19 28 27 14 29 13 24 20 29 3 19 27 22 14 25 20 28 15 21 16 35 30 23 13 20 25 30 13 12 20 20 27 21 22 10 23 32 28 27 20 35 21 15 10 23 10 12 23 28 24 23 3 30 14 21 10 21 3 24 26 10 15 24 17 13 19 31 30 10 31 3 28 13 16 38 17 10 16 10 30 21 37 17 19 17 17 17 6 14 33 14 17 16 13 21 30 25 20 20 24 31 29 10 17 23 24 31 17 23 33 12 30 30 10 24 20 10 13 6 25 17 31 10 20 24 10 16 22 20 17 24 10 25 24 24 21 10 17 13 10 10 17 24 10 14 23 0 23 17 28 14 27 28 34 27 13 14 24 16 6 23 20 30 13 29 23 11 11 16 17 20 7 13 14 17 0 31 24 28 17 14 14 14 17 17 21 27 17 6 14 21 21 24 20 10 10 20 12 13 13 23 17 24 24 20 17 13 20 20 7 24 20 20 20 10 20 41 9 13 20 16 30 10 23 13 16 16 19 10 18 17 21 20 24 13 13 17 20 23 20 13 26 24 18 18 6 22 24 17 13 21 24 20 13 24 23 17 17 13 15 20 24 13 31 13 38 17 16 31 6 17 10 15 20 23 21 12 10 31 27 13 27 13 14 24 7 3 17 13 33 13 21 6 13 9 10 16 13 6 20 24 17 13 26 23 14 20 14 21 19 13 31 30 17 25 17 6 20 27 13 24 10 27 31 14 3 14 20 17 16 23 22 10 35 24 19 9 28 17 24 16 27 20 17 10 13 19 17 16 23 18 20 31 14 31 17 20 17 11 24 21 3 21 20 37 10 10 23 14 16 21 24 24 20 24 29 0 10 17 20 10 16 23 17 13 19 27 16 20 21 20 21 7 2 14 28 3 14 10 20 23 28 20 17 11 32 31 23 13 13 16 27 24 24 10 19 21 9 24 17 17 24 17 16 14 27 30 20 24 20 23 21 13 21 19 20 24 10 20 31 10 18 17 21 17 17 41 42 13 45 7 20 22 19 7 24 23 20 13 15 16 35 22 27 23 38 10 10 38 21 27 17 7 23 23 38 24 10 24 10 21 21 20 14 21 13 17 28 6 23 23 22 7 23 31 19 27 31 16 14 24 31 6 21 13 13 7 17 34 19 24 24 20 20 15 22 19 17 19 14 27 9 6 34 34 17 3 20 13 17 10 13 28 17 24 19 13 10 9 3 6 34 31 16 20 20 21 6 7 31 27 17 10 41 28 20 31 20 17 14 26 17 17 30 20 35 9 14 17 10 17 17 23 28 30 10 20 10 20 33 6 3 12 24 17 13 13 24 17 29 17 31 23 25 27 16 19 13 18 23 20 28 17 12 17 17 28 19 20 30 21 24 23 25 17 13 0 23 10 11 20 27 17 14 10 9 20 6 24 0 24 24 20 10 10 28 14 10 24 0 30 16 22 21 12 30 16 24 25 20 8 19 9 19 13 35 30 29 23 3 21 24 22 24 20 21 17 20 38 23 24 13 34 12 17 12 20 26 21 27 10 22 23 25 38 19 18 14 20 17 20 25 20 34 7 10 21 24 31 27 6 15 10 21 9 15 10 20 36 24 10 13 28 24 8 16 16 17 10 15 22 17 31 14 13 3 34 23 18 28 23 17 16 16 17 17 17 23 21 27 24 10 27 17 18 22 20 22 13 8 14 27 22 17 34 9 27 13 19 24 34 21 19 10 20 33 10 17 27 22 29 0 24 20 31 10 26 14 22 14 17 9 21 13 17 20 14 14 14 17 14 28 15 16 16 9 9 16 17 17 6 17 19 20 20 20 13 13 13 13 8 6 31 20 17 10 16 17 12 21 20 14 9 24 34 18 28 28 13 24 21 17 15 27 26 23 24 23 24 28 16 14 23 30 17 21 14 30 9 10 7 19 10 24 10 16 17 14 23 29 27 21 27 12 17 24 20 17 23 21 14 17 17 13 12 19 21 9 14 20 24 25 34 23 21 33 13 24 14 22 20 20 14 7 23 20 34 7 17 18 27 16 17 34 17 17 20 23 20 22 26 17 27 17 21 24 27 7 20 20 7 19 17 17 13 31 17 16 14 21 17 20 9 21 10 20 17 21 31 34 24 17 23 20 19 34 23 15 12 33 23 37 14 20 16 19 24 17 27 12 31 20 23 21 9 24 28 23 20 20 16 3 28 16 37 27 19 20 17 16 34 17 23 19 20 33 13 18 37 23 24 14 27 24 31 10 14 13 27 10 31 31 17 24 27 13 27 20 20 24 14 20 16 31 24 27 17 13 23 16 17 31 19 30 16 19 28 13 28 16 19 20 7 14 14 23 20 13 17 10 17 17 44 27 30 19 10 31 9 27 16 16 13 16 31 17 10 10 27 10 21 17 24 20 16 21 21 10 9 17 24 20 31 20 21 31 24 21 10 15 14 13 10 24 17 17 24 10 7 14 20 6 24 23 13 7 20 24 24 19 10 30 16 17 17 10 6 20 14 23 9 27 17 21 26 13 21 20 28 13 23 12 10 24 20 17 24 31 20 17 7 30 6 20 28 34 21 22 19 31 23 16 19 17 3 14 24 27 24 15 24 14 13 27 24 21 23 14 21 14 14 20 10 23 38 23 26 20 16 20 16 21 6 13 10 20 19 14 16 18 19 13 16 30 19 16 12 20 10 15 23 27 21 23 24 23 27 17 23 11 28 24 21 19 27 13 24 16 10 14 7 20 13 24 16 30 27 6 16 26 26 24 12 20 17 27 27 24 10 21 17 30 14 17 24 13 30 13 23 17 17 21 13 10 10 10 8 13 17 26 23 12 17 17 13 17 9 28 14 19 16 24 27 14 20 24 20 7 3 18 13 26 42 21 17 20 22 14 23 21 13 31 22 10 21 10 27 25 24 20 20 13 10 26 10 22 13 10 16 23 20 20 20 9 13 16 14 20 21 24 10 23 33 7 17 34 10 25 13 9 7 14 28 37 34 16 7 31 19 9 10 12 16 13 34 13 23 13 17 16 23 21 17 20 20 10 6 16 34 23 10 17 19 20 35 16 21 23 17 9 26 24 16 3 13 13 30 13 14 24 12 16 22 20 38 28 21 16 24 14 21 15 26 35 16 23 27 13 25 20 17 27 33 25 14 17 20 13 7 20 16 23 22 14 28 17 24 27 13 13 24 21 24 26 27 24 24 17 24 10 13 20 16 27 17 30 31 14 13 16 7 31 24 7 13 21 14 24 27 25 13 28 19 14 24 16 16 6 37 34 13 20 6 7 3 23 14 11 12 23 16 10 20 17 27 21 21 3 14 11 35 20 14 31 34 27 21 21 10 20 20 21 14 16 16 13 20 17 17 14 23 31 17 21 12 13 17 8 13 13 21 26 19 8 17 20 21 33 17 23 20 23 17 25 20 28 14 23 6 22 16 24 20 27 15 18 28 28 23 22 17 23 13 24 17 6 19 26 26 31 19 16 17 17 3 25 17 27 6 31 23 26 10 13 15 12 20 21 20 22 13 26 13 17 19 21 19 24 31 27 28 21 16 14 13 13 13 28 17 24 17 17 3 7 17 14 20 10 27 31 24 13 11 10 16 17 6 20 10 28 20 18 21 13 33 23 24 24 13 17 19 10 3 13 20 31 23 17 10 37 10 14 29 24 27 13 34 17 22 27 19 13 15 16 24 34 27 14 36 21 25 13 21 19 16 34 16 7 25 31 21 20 19 16 3 10 13 17 20 21 31 37 20 31 11 14 28 16 21 10 21 14 41 20 17 13 16 15 27 20 17 9 9 10 33 24 16 13 35 24 16 33 20 14 11 23 31 23 16 21 21 28 14 3 31 17 21 13 28 28 18 21 17 9 13 14 20 30 23 25 20 33 31 6 24 14 15 23 13 13 16 14 10 15 6 31 20 20 20 20 13 20 23 24 16 12 17 13 12 17 28 22 21 17 7 23 16 20 28 14 23 30 22 27 37 34 17 23 20 41 10 13 9 16 17 34 13 7 13 17 15 10 17 9 19 22 31 20 25 25 17 28 12 24 21 16 14 20 23 24 23 27 21 35 31 13 16 10 3 6 31 13 10 16 13 31 14 18 27 24 14 27 31 24 16 29 7 22 14 40 24 17 23 22 10 13 10 10 34 27 19 11 3 20 13 20 27 41 17 27 19 7 20 10 13 6 10 35 16 28 20 14 10 25 22 6 20 10 17 26 17 27 31 14 9 20 27 10 21 25 21 9 17 30 34 14 25 6 14 34 23 20 10 24 27 21 14 21 35 20 18 18 13 26 25 25 19 17 27 26 13 24 20 9 29 6 17 14 6 31 15 32 16 10 13 16 13 6 10 17 28 10 20 19 19 21 20 21 14 16 12 20 3 24 14 20 24 17 35 30 18 10 13 29 27 24 31 21 34 13 14 38 27 13 28 23 30 21 24 26 31 24 28 17 17 35 21 31 21 15 17 20 20 14 21 24 17 24 24 28 0 22 34 21 30 42 41 23 20 24 9 30 3 14 14 14 14 27 6 18 15 30 20 19 23 28 34 17 21 34 6 32 14 17 6 28 27 16 28 14 23 13 13 20 33 26 27 26 10 10 6 18 27 3 19 40 20 21 26 16 27 7 17 9 17 20 17 27 26 23 17 21 19 17 24 7 12 34 19 17 20 21 17 14 28 13 24 7 30 12 23 18 23 24 24 24 22 24 3 22 14 7 28 13 10 16 24 24 18 34 13 3 24 26 21 16 14 31 13 24 13 21 17 21 20 6 18 17 35 7 6 24 16 6 27 10 31 23 24 22 16 16 22 13 14 24 10 13 13 17 17 20 17 16 14 12 23 17 28 14 21 19 16 18 17 7 26 20 33 20 35 10 18 16 28 27 20 23 17 19 17 30 26 24 23 24 10 16 14 19 23 17 14 35 12 28 17 17 10 23 7 22 23 9 27 30 21 24 15 24 23 20 17 16 23 20 6 8 17 27 7 16 7 28 13 17 31 17 17 12 10 27 22 19 6 10 13 19 24 12 20 34 14 20 20 23 9 11 23 20 33 24 10 9 3 15 23 10 20 23 10 12 10 19 8 41 34 21 35 20 30 24 24 29 21 17 17 31 35 24 30 18 6 17 25 17 27 16 23 33 17 14 24 21 37 24 14 30 14 18 45 21 33 20 20 31 35 13 20 28 30 20 20 37 6 17 18 37 34 28 28 10 23 32 17 17 21 17 13 10 33 18 6 24 13 13 21 23 15 13 17 14 32 31 9 13 10 27 27 24 8 27 27 17 16 28 30 17 14 21 17 21 22 24 22 24 10 16 20 28 17 31 10 21 20 21 14 10 21 41 10 22 24 8 7 17 13 27 19 34 34 23 17 16 6 24 17 30 21 21 23 7 24 20 33 9 33 23 20 27 12 16 21 26 37 13 19 16 24 33 8 21 20 23 9 20 21 11 34 9 14 17 24 21 16 17 19 13 21 20 19 34 17 27 6 24 21 20 10 13 15 24 14 17 20 20 25 24 10 17 13 17 24 17 15 23 24 17 13 24 21 17 27 20 21 13 22 10 20 20 23 10 20 17 26 16 21 17 14 6 13 17 21 17 13 28 28 17 7 37 20 10 20 13 11 12 35 38 28 37 24 16 27 20 16 3 31 21 27 13 13 9 9 3 17 10 38 20 21 8 25 10 17 17 13 34 13 14 31 10 31 22 13 13 9 16 10 21 27 28 23 16 37 21 6 13 14 24 13 24 20 7 25 24 24 20 3 22 16 13 20 20 31 23 14 27 24 10 13 14 10 9 30 15 16 24 23 32 11 28 17 20 10 7 21 13 21 20 34 6 23 42 14 28 20 23 7 14 14 20 18 10 23 20 7 26 17 27 13 23 24 21 17 27 17 10 16 28 14 24 19 18 13 19 6 10 17 34 21 27 14 34 18 23 13 27 23 29 7 34 17 16 20 15 17 10 10 8 17 23 10 23 18 12 23 6 16 23 24 16 27 34 11 6 13 21 20 13 24 27 24 11 17 20 23 7 21 20 15 17 10 24 21 23 23 24 27 30 31 27 10 23 16 17 7 19 12 23 16 19 14 17 13 7 29 28 24 23 10 33 20 7 21 31 27 17 17 23 13 24 13 13 31 31 14 17 14 31 20 27 20 34 17 6 16 10 3 20 17 16 23 17 19 18 24 23 35 24 24 10 13 30 21 20 24 26 13 15 10 20 31 28 20 44 13 24 14 0 13 13 24 10 20 26 20 31 17 13 30 13 10 24 23 34 26 19 13 6 24 21 20 20 16 17 13 2 30 10 20 20 10 19 35 24 27 17 24 17 27 24 20 24 21 14 27 24 24 13 14 27 20 28 16 24 20 24 20 30 20 17 13 24 8 10 19 6 20 30 23 14 20 20 10 17 20 36 15 27 15 16 17 17 13 31 23 14 30 21 19 27 34 28 24 26 10 34 24 22 23 20 10 14 24 18 16 24 13 12 6 13 14 17 10 9 24 20 10 14 27 13 21 38 13 21 24 17 10 35 27 24 27 19 12 20 13 13 21 25 19 31 0 23 14 17 15 17 21 21 14 20 19 24 17 17 13 19 20 24 23 17 30 13 20 10 10 17 20 17 38 13 3 7 17 24 21 20 26 27 40 21 28 37 14 13 7 27 17 17 20 10 24 17 16 20 18 24 27 28 23 28 14 6 13 13 10 11 28 10 17 7 15 13 37 17 18 10 9 17 25 51 14 20 24 30 23 10 7 14 24 17 21 31 16 10 16 21 16 27 16 23 20 21 24 20 17 14 10 22 17 22 24 9 21 20 13 16 27 17 31 0 24 6 6 24 28 21 24 31 17 19 14 16 27 23 16 17 31 21 34 11 26 24 20 31 16 31 20 17 17 14 14 17 21 27 20 16 20 16 10 6 9 17 13 16 14 23 9 19 19 11 14 14 16 13 19 17 19 24 27 26 21 0 27 30 13 7 21 19 13 14 13 27 23 24 14 20 22 20 21 25 17 31 17 23 31 9 16 21 31 10 17 24 10 16 9 14 24 17 16 38 13 14 16 17 9 17 27 27 14 14 26 13 19 13 28 20 20 26 13 19 35 27 14 20 15 19 13 20 21 25 6 31 10 30 17 26 10 28 3 10 20 10 16 21 10 24 17 10 10 27 20 19 10 24 10 20 19 23 10 28 23 3 34 31 21 30 13 17 19 7 16 21 31 21 16 19 20 16 10 16 17 27 24 17 16 21 11 13 7 17 24 24 10 17 23 24 20 0 17 16 17 16 17 31 23 15 27 42 23 24 34 7 23 29 20 28 22 10 17 21 13 38 13 6 10 12 19 17 17 34 21 21 34 21 3 17 21 16 27 24 31 10 22 20 30 21 16 20 17 14 34 21 14 15 28 30 20 15 16 20 17 21 17 13 19 13 13 24 30 27 27 12 13 27 17 21 11 17 16 38 30 13 34 17 18 14 6 16 20 23 31 10 17 9 21 13 21 20 20 24 7 27 38 20 11 23 26 24 17 19 19 13 6 10 20 17 11 23 16 11 16 20 24 14 18 18 21 14 27 21 17 17 13 10 31 14 9 31 10 20 10 17 8 16 20 20 3 29 21 20 13 34 17 0 20 20 24 31 26 17 28 17 23 27 19 20 16 20 19 9 31 23 7 24 17 17 17 16 17 9 15 17 9 9 13 11 17 17 12 17 13 36 18 20 16 31 17 21 29 19 24 21 21 13 24 3 24 31 20 16 17 27 11 34 20 20 6 14 17 21 10 23 3 6 20 15 7 21 24 19 27 16 16 24 21 13 25 24 19 7 10 21 13 17 23 22 24 18 24 38 17 29 21 6 16 7 21 16 27 10 13 13 10 19 8 23 24 14 16 20 10 19 17 13 16 24 21 7 27 23 14 13 21 13 11 24 24 13 10 7 27 19 27 49 33 27 38 28 19 0 6 10 10 20 24 16 20 7 14 27 30 24 10 16 16 21 21 11 27 11 13 27 13 17 20 24 30 23 24 17 7 7 17 23 23 34 23 24 13 13 26 14 20 14 16 34 24 0 24 23 17 5 17 37 8 21 10 13 3 27 19 23 9 24 23 16 13 23 14 31 14 34 23 10 14 3 13 16 17 17 21 7 16 14 24 20 9 31 24 41 10 26 6 22 7 35 28 19 7 11 7 22 19 16 24 13 27 27 24 36 13 24 21 28 23 10 3 20 6 17 10 34 27 21 21 19 7 23 13 14 17 34 14 9 21 19 16 20 31 24 20 20 34 20 14 16 49 20 24 28 31 27 10 7 9 14 30 16 23 14 31 23 31 24 20 17 13 26 20 16 30 37 20 24 20 10 14 6 21 17 17 20 17 20 13 16 14 17 21 16 16 10 16 13 23 18 3 10 14 20 22 14 14 23 17 24 13 27 24 38 13 16 17 10 24 37 17 17 21 17 26 7 27 31 15 13 28 14 13 31 3 11 16 24 21 3 17 7 21 13 24 22 23 21 20 16 14 14 16 27 10 7 21 13 18 13 18 24 14 26 19 7 38 7 28 17 36 19 21 30 20 17 37 35 30 13 17 20 10 15 3 24 7 6 25 14 9 17 14 17 14 23 20 21 10 3 35 32 10 27 9 17 19 31 21 17 13 12 20 23 13 20 22 38 10 19 27 23 35 19 14 24 17 28 17 24 21 14 21 13 28 27 19 3 13 19 34 10 24 23 19 20 16 23 21 21 10 20 16 20 14 24 23 14 7 19 6 17 14 6 10 23 19 20 20 17 16 7 34 23 12 16 16 33 16 38 27 23 17 23 13 13 14 21 13 24 10 25 20 17 15 14 17 24 22 16 13 17 24 31 14 17 13 10 20 16 27 20 16 10 16 9 17 10 38 20 31 13 17 13 20 3 27 7 7 24 10 17 14 14 10 17 27 16 17 33 24 18 28 17 12 31 24 16 20 17 17 7 27 24 20 10 20 0 20 31 13 23 12 28 13 27 14 31 20 31 24 27 19 16 13 16 31 30 24 20 35 10 17 20 23 13 27 24 13 22 17 27 23 27 20 21 30 7 6 17 20 19 20 18 16 26 16 31 31 24 28 38 3 17 31 30 18 27 10 29 14 37 25 3 24 13 20 10 21 26 7 13 14 31 10 27 16 34 24 17 17 12 21 6 13 13 13 13 20 37 13 10 20 13 27 27 30 34 17 27 17 35 24 6 24 14 17 12 17 24 18 9 17 12 26 14 30 6 16 27 9 27 16 3 21 10 27 17 10 24 24 13 17 17 7 18 20 13 24 17 7 25 25 30 16 10 14 16 27 21 24 26 10 16 30 21 24 20 31 27 7 16 24 24 33 9 16 31 27 7 24 20 31 21 20 10 19 23 16 27 21 0 23 13 21 7 20 17 30 23 7 19 19 23 28 22 20 19 30 17 17 30 10 31 20 29 11 19 10 12 13 16 3 16 23 22 19 3 7 20 13 24 23 16 0 14 17 23 17 17 7 9 9 28 23 23 17 21 34 3 9 17 3 23 10 38 13 24 13 30 10 20 3 6 21 27 20 17 17 21 7 3 14 28 14 24 28 23 36 13 21 22 19 21 45 13 24 13 20 29 14 13 14 10 17 21 16 28 23 17 34 20 22 33 10 24 16 42 30 21 34 7 17 10 20 7 17 7 23 24 24 14 23 24 13 7 27 28 27 13 3 24 24 10 26 13 23 16 21 19 27 27 20 14 24 18 15 16 28 31 14 21 16 3 14 13 30 21 13 0 7 31 28 32 17 17 20 17 19 24 17 21 17 22 24 22 0 13 19 26 14 14 20 8 17 18 23 18 28 9 28 16 21 19 7 13 20 14 30 19 31 20 23 20 10 24 17 7 17 27 13 13 16 27 10 17 31 17 20 21 30 17 24 27 17 17 16 33 14 10 38 14 10 21 28 6 21 21 21 17 17 30 17 19 26 6 19 13 10 14 17 31 22 14 21 20 33 22 14 20 31 6 10 24 27 17 14 18 9 31 14 17 31 24 14 21 19 26 34 24 17 20 20 17 15 31 19 20 24 16 24 19 8 13 16 27 17 30 23 27 17 20 18 31 17 19 7 29 28 21 13 13 13 20 24 31 3 23 17 23 17 27 14 13 24 21 35 31 9 25 19 16 14 10 12 14 14 14 7 38 28 24 12 30 24 17 7 21 13 21 19 26 23 13 28 24 34 6 27 17 17 13 41 23 38 17 34 15 10 19 26 27 14 21 35 10 17 13 27 24 10 20 13 3 17 21 22 17 31 31 24 23 23 31 17 18 11 21 17 13 31 13 31 24 23 19 8 24 16 20 14 31 21 20 12 16 39 24 23 21 20 21 13 24 34 26 12 28 19 27 17 17 20 19 34 7 30 17 7 13 16 17 18 7 23 24 10 13 13 20 17 19 7 20 3 17 45 26 20 38 19 16 19 30 14 7 23 17 21 19 16 20 18 9 13 12 20 14 20 23 21 23 19 15 16 31 3 17 10 30 7 30 21 13 14 13 38 27 13 38 16 27 16 38 21 21 13 21 27 13 21 13 21 16 27 6 20 24 7 17 17 10 21 6 14 10 24 19 20 19 20 20 16 20 19 23 21 10 21 17 11 16 22 16 13 28 14 20 34 14 10 21 6 3 24 20 17 31 15 20 18 13 27 25 16 13 14 14 13 19 27 21 20 10 15 27 17 10 9 21 12 10 21 24 30 14 25 24 14 12 23 17 20 9 20 14 26 21 24 13 18 21 23 40 13 17 17 17 17 14 13 24 10 21 20 10 13 24 24 20 21 11 22 7 3 17 17 7 13 7 16 23 20 13 17 24 20 24 20 13 13 27 13 7 13 27 23 10 13 24 10 24 14 16 24 17 13 15 20 13 12 20 10 20 12 31 13 24 17 20 26 19 7 17 14 14 14 31 26 24 6 13 17 7 14 21 25 30 22 19 15 24 18 27 21 33 17 34 11 20 17 7 20 10 14 14 20 42 13 17 15 10 3 3 24 24 13 24 17 27 18 10 14 24 15 24 13 20 19 17 17 23 7 10 21 16 27 23 10 3 33 13 42 28 20 20 10 22 16 15 20 6 6 12 24 21 7 20 8 23 10 10 26 9 13 14 24 23 17 14 16 28 19 21 27 21 11 26 23 24 16 16 16 14 7 12 25 14 16 21 16 16 17 13 17 28 7 30 24 27 21 24 17 21 20 16 12 21 38 21 17 13 31 15 17 24 21 19 24 17 24 20 9 21 24 6 14 20 14 26 14 24 6 41 21 14 23 14 10 26 27 28 17 17 23 24 20 17 7 7 16 22 21 38 20 20 21 3 23 13 3 12 16 3 28 10 31 20 16 24 6 23 17 19 24 27 28 15 28 31 31 19 30 14 30 24 24 23 13 13 17 17 21 20 41 14 23 10 41 24 30 16 23 0 26 13 24 27 11 3 20 15 19 23 23 6 14 24 23 21 17 20 19 16 19 17 16 10 17 10 31 21 17 25 10 24 24 10 17 16 9 17 30 35 35 18 6 17 34 20 13 13 17 16 24 17 16 7 21 10 10 13 0 37 17 17 14 20 10 24 24 24 24 26 27 12 14 27 6 13 21 24 21 20 19 16 20 25 21 22 16 24 16 19 27 7 21 16 19 21 21 21 24 16 20 21 14 17 19 21 20 17 24 15 6 30 24 10 21 24 20 17 21 22 20 23 24 9 11 17 28 27 34 28 20 20 34 24 24 16 26 17 21 23 38 16 27 9 16 16 17 20 27 18 27 26 17 14 13 17 29 24 17 21 12 19 24 10 24 13 28 14 28 11 17 27 21 24 38 17 12 20 19 16 7 20 16 3 21 10 20 31 18 20 23 17 13 20 19 24 17 29 22 14 0 10 6 10 10 10 17 16 20 28 21 20 18 20 16 16 24 20 12 23 10 22 20 14 22 8 14 13 18 38 14 14 21 20 15 13 24 10 17 17 14 14 35 24 28 28 9 24 17 14 25 23 24 3 21 10 20 8 29 28 9 31 16 30 13 16 14 21 31 13 10 21 16 30 7 24 35 23 15 23 17 31 17 21 29 27 17 31 31 28 17 7 14 35 33 24 22 17 19 23 21 28 26 21 13 20 16 14 12 20 23 8 19 27 3 15 7 0 24 13 19 27 15 16 13 22 17 10 13 28 20 31 13 11 10 10 10 20 27 20 24 21 13 38 15 6 22 31 31 24 12 12 23 17 13 23 13 14 16 3 16 21 19 13 17 27 27 17 29 30 35 14 21 24 17 21 24 9 6 15 30 26 21 16 20 20 24 10 12 16 37 20 21 26 23 14 17 17 10 17 30 13 13 13 13 24 27 26 17 36 9 33 31 8 12 16 17 14 28 18 34 29 20 23 7 17 21 13 13 14 10 24 10 10 28 7 20 13 16 30 27 3 26 16 20 25 16 21 21 7 36 14 9 17 10 13 10 14 28 10 14 34 14 21 10 30 21 23 31 21 9 33 16 20 21 30 23 27 26 7 34 16 24 14 12 10 16 23 19 20 14 24 17 20 21 17 21 15 16 27 13 18 20 27 24 31 24 16 14 21 7 21 28 46 20 14 24 16 10 10 28 21 17 7 26 17 3 6 24 38 19 30 10 19 24 3 30 24 28 7 18 21 25 17 10 42 16 14 26 28 23 14 30 20 35 13 34 17 6 14 34 35 27 17 21 27 17 6 20 20 17 15 21 12 15 10 21 20 14 30 20 14 13 27 21 30 27 24 17 11 19 20 14 15 9 19 24 17 31 17 23 15 26 34 7 17 28 19 21 34 7 13 25 9 12 17 16 15 7 22 21 20 3 27 16 23 17 20 20 14 17 31 26 12 10 13 14 28 24 23 11 19 20 24 31 24 13 14 24 7 37 14 21 17 3 18 16 27 17 17 23 10 9 12 19 34 12 29 28 27 10 6 23 9 31 3 27 18 30 17 17 17 33 38 31 13 15 16 17 19 28 20 20 31 10 23 12 6 20 14 20 20 31 38 20 20 20 10 6 10 28 17 9 7 31 24 30 27 10 30 17 20 14 23 21 28 31 7 16 14 17 17 9 20 18 23 31 30 10 12 23 26 24 10 20 28 7 21 31 20 21 17 16 10 28 14 13 3 10 24 17 20 24 27 34 19 11 16 3 3 24 20 10 15 16 33 12 20 17 24 17 26 24 33 13 16 16 24 27 21 17 20 9 27 17 17 7 26 38 24 19 20 20 0 17 17 12 26 17 25 24 10 17 13 13 24 17 27 24 20 21 22 7 23 17 23 14 19 23 38</t>
-  </si>
-  <si>
-    <t>N(23.8148, 4.434196766044556)</t>
-  </si>
-  <si>
-    <t>22 30 21 20 22 28 22 29 22 22 29 20 20 17 15 20 23 26 30 26 28 25 32 22 23 17 20 28 16 27 27 17 22 19 22 23 24 27 23 20 23 33 26 25 29 25 24 18 23 19 26 21 24 21 22 23 27 24 23 28 21 24 24 27 17 26 22 21 27 19 22 29 21 27 20 21 35 27 21 24 22 30 24 17 23 13 26 27 19 30 19 26 20 23 27 25 19 23 25 20 22 28 20 17 24 27 24 24 24 23 20 26 24 20 22 31 25 31 22 14 22 26 26 27 19 24 32 23 20 24 29 32 26 26 23 22 19 17 27 22 23 25 26 32 23 23 27 21 34 23 25 22 26 28 22 29 29 16 27 26 29 20 21 23 27 25 26 21 20 29 28 27 25 20 28 20 23 23 28 32 22 23 17 33 20 33 27 20 22 20 24 23 24 25 14 24 32 25 20 18 23 23 18 17 25 25 20 24 28 25 27 30 21 20 19 26 16 25 21 31 25 23 26 17 25 29 28 23 25 26 18 27 21 16 24 20 20 28 19 25 21 15 26 23 23 18 21 24 17 26 20 27 21 20 26 19 37 25 22 18 32 21 26 22 28 29 25 23 32 27 20 19 23 25 35 29 19 16 29 22 22 27 31 25 16 22 18 27 22 31 35 27 20 32 31 28 26 37 21 27 22 25 28 24 21 23 34 23 23 18 22 25 26 25 24 21 26 28 24 25 27 23 16 22 26 30 26 23 24 24 22 23 25 20 21 26 18 21 28 25 19 19 28 34 23 22 24 27 29 22 23 25 21 23 26 17 23 17 26 25 21 22 35 30 27 22 25 20 23 25 31 24 34 25 19 30 30 21 20 26 16 25 16 26 26 27 24 20 27 21 25 21 24 24 29 20 31 22 24 23 26 28 17 20 27 20 31 25 15 25 23 24 29 30 29 24 23 22 24 32 33 23 28 24 28 13 19 26 18 25 26 16 24 18 24 30 23 20 28 21 31 26 26 30 23 23 22 16 29 23 27 24 26 25 19 22 25 16 23 26 20 28 25 27 25 21 27 21 29 23 18 21 25 18 30 21 18 29 22 27 25 29 16 29 26 27 25 38 27 22 22 17 19 19 22 26 32 20 19 26 28 19 24 22 20 28 30 23 26 19 24 25 29 33 26 21 18 25 25 22 18 22 29 24 23 35 21 19 19 27 20 18 21 15 17 29 26 33 31 23 20 25 30 21 27 27 24 30 16 24 26 17 29 21 17 18 27 21 24 20 20 17 25 21 28 28 20 26 29 21 27 17 21 21 23 33 22 30 30 24 19 18 22 18 33 13 19 23 22 22 23 26 19 23 28 22 25 24 19 20 25 24 29 20 26 22 23 32 19 23 26 24 22 18 38 27 33 30 25 27 26 23 28 19 22 24 30 25 28 20 19 24 24 17 24 30 23 19 21 27 17 16 23 20 22 21 19 25 27 22 36 28 22 23 22 20 22 25 23 28 16 27 22 28 26 26 23 22 22 28 28 17 20 22 25 19 29 26 17 32 21 23 23 39 24 23 29 22 21 23 24 24 27 22 20 21 28 33 26 16 20 25 21 27 25 17 24 19 34 20 21 24 26 25 29 23 17 25 20 25 22 25 22 19 22 24 29 29 31 17 24 18 24 25 17 21 27 24 26 21 26 18 22 25 17 25 20 22 23 21 22 23 10 22 22 23 27 14 22 15 23 27 27 28 25 28 19 23 27 30 16 27 20 33 30 19 21 31 25 25 20 21 22 23 25 27 24 27 18 23 24 25 19 24 21 26 29 31 21 23 24 23 21 29 27 27 29 17 26 13 26 27 23 30 29 21 20 26 29 32 17 24 31 22 28 32 18 17 30 22 26 20 21 21 29 30 28 26 24 26 27 27 19 17 27 20 17 23 22 21 30 21 23 21 20 23 37 20 24 21 28 25 30 20 22 33 25 22 22 15 28 15 24 20 24 26 25 32 21 26 25 29 27 25 26 30 20 23 25 19 21 21 16 20 22 28 25 20 20 19 23 32 30 22 23 27 22 23 25 23 27 28 27 26 24 25 20 24 31 21 22 23 19 19 19 28 25 21 19 24 21 19 24 23 24 19 29 25 20 22 25 18 27 26 19 29 22 26 18 20 20 20 25 27 23 28 22 20 17 21 21 27 22 19 23 32 31 25 26 25 19 25 23 24 26 22 23 17 17 23 22 25 29 20 25 18 19 27 22 24 19 24 32 25 19 19 15 25 30 18 24 27 22 27 24 28 25 19 19 24 32 26 27 20 22 22 20 18 22 27 25 24 20 20 23 23 22 26 20 28 24 20 18 25 25 23 26 19 19 26 26 24 24 17 24 23 28 28 28 21 19 26 18 24 21 28 32 23 25 18 24 30 33 21 25 22 27 24 20 26 18 19 22 16 14 20 24 21 26 13 24 29 18 22 25 17 16 13 25 24 29 23 31 30 23 26 18 23 24 18 21 15 25 15 28 26 29 22 22 17 23 29 28 31 24 20 28 26 27 23 28 28 28 32 13 28 24 24 27 21 20 20 25 20 25 25 32 25 22 23 19 21 26 25 21 28 19 20 21 25 28 19 25 24 25 21 25 23 26 29 23 24 23 27 26 21 27 25 19 22 34 24 19 22 29 21 24 27 25 25 21 26 19 21 19 25 28 20 21 21 27 26 23 20 29 32 26 33 22 27 20 24 24 24 28 22 17 20 25 24 28 28 30 25 26 20 26 31 29 26 24 17 14 17 23 18 24 22 22 25 20 18 20 24 30 26 25 22 26 27 25 24 18 31 28 32 28 24 25 25 28 22 22 13 28 28 26 21 15 24 23 21 21 29 25 15 18 23 23 20 18 20 25 23 18 25 25 23 23 31 20 36 29 27 24 19 19 25 24 24 18 26 28 21 28 21 23 23 24 24 19 19 18 27 24 21 21 19 23 27 26 23 28 23 16 29 23 25 16 25 17 26 24 17 22 33 23 24 17 25 22 28 23 21 29 17 16 28 17 26 23 22 16 19 21 19 28 25 19 27 26 26 14 18 26 24 25 29 18 23 23 29 29 18 15 29 34 21 23 26 22 23 21 17 20 33 31 19 13 23 22 30 25 21 32 21 25 25 27 24 12 20 21 20 26 24 19 23 32 23 23 21 26 24 23 27 23 37 18 32 26 29 30 26 28 28 27 17 22 22 22 25 25 30 25 23 23 27 32 26 25 25 17 25 30 21 29 20 22 25 17 30 28 24 24 16 24 22 24 18 22 20 27 19 23 24 20 14 18 22 26 21 24 33 26 25 23 28 36 17 21 29 22 25 25 18 21 20 31 29 23 33 24 25 23 20 15 23 26 29 36 34 26 23 24 26 13 28 32 23 25 25 21 24 17 18 21 23 28 29 20 25 29 27 20 23 37 23 29 14 19 22 24 28 17 21 13 25 34 28 28 24 27 32 18 28 26 28 30 21 15 23 17 24 20 23 21 28 27 20 27 24 18 28 22 27 20 24 25 18 31 24 26 28 28 23 30 25 21 27 28 19 24 27 16 27 24 28 22 24 20 17 19 22 29 32 21 26 17 28 26 30 23 27 22 26 25 27 14 18 37 28 21 32 23 26 19 25 23 26 29 31 24 26 24 19 31 27 22 26 23 32 24 27 19 25 23 16 21 29 14 22 18 28 25 22 25 25 22 26 31 19 27 24 18 31 22 18 30 17 23 30 24 33 28 31 28 20 25 23 39 19 17 24 23 26 15 27 28 27 26 21 27 26 18 30 21 33 29 25 26 21 27 21 21 22 24 17 29 25 21 24 20 30 25 18 17 22 28 21 25 19 29 23 27 33 25 26 24 12 25 24 20 25 24 20 28 18 21 34 11 19 23 23 26 24 27 21 24 19 27 13 26 21 20 23 21 21 20 33 21 20 15 21 11 27 19 25 24 16 24 29 19 26 25 29 24 18 24 26 22 21 21 21 25 20 21 17 23 24 26 23 19 26 26 19 25 26 26 24 30 24 21 23 20 24 17 22 27 29 33 26 23 23 24 25 27 25 28 24 26 27 21 24 24 20 29 23 26 23 31 27 25 28 30 31 26 27 25 22 16 16 32 29 18 24 25 20 23 29 29 22 17 17 18 30 25 29 21 35 27 16 24 19 26 26 25 30 24 23 25 36 19 18 26 19 24 18 13 17 25 36 24 25 28 22 21 23 22 15 16 27 30 17 21 22 20 15 20 21 30 19 21 21 39 20 24 19 22 21 28 22 30 18 29 26 17 22 23 28 18 21 20 28 30 26 27 32 20 25 27 26 19 26 31 31 26 23 28 18 25 25 24 29 30 28 28 23 21 16 27 23 26 23 24 33 19 21 26 15 27 21 26 23 13 22 23 20 22 20 17 24 24 33 19 23 24 28 29 28 22 16 20 27 16 24 24 23 30 25 21 23 25 29 21 30 18 17 21 17 21 19 29 21 21 23 24 21 28 27 19 26 27 33 31 24 21 27 22 26 23 28 20 24 22 22 30 20 19 27 31 26 21 22 24 29 24 27 18 20 25 20 26 32 27 27 28 19 23 21 29 23 21 26 21 29 24 27 24 21 24 22 20 13 21 22 25 23 21 25 25 18 30 24 20 27 22 23 22 17 22 18 30 23 20 32 25 26 25 22 33 23 23 28 26 22 18 30 26 26 24 18 21 18 24 12 25 24 26 22 27 26 26 15 24 20 30 27 21 21 28 24 22 17 17 18 27 23 18 19 19 19 27 20 19 24 27 26 18 25 21 18 23 24 22 26 32 28 27 22 19 18 21 22 28 22 25 27 23 23 24 22 27 24 24 22 24 27 23 27 21 33 18 24 24 22 32 26 24 24 19 23 26 29 18 29 20 33 26 29 26 32 25 23 22 19 23 32 20 22 25 30 20 24 23 24 25 20 23 26 20 18 20 19 30 24 25 20 22 24 24 21 20 12 24 21 24 22 20 18 25 24 28 26 25 22 19 21 24 26 23 31 22 35 21 19 18 23 28 33 22 21 16 23 21 15 20 29 31 29 31 19 26 27 25 26 25 28 24 23 19 42 20 25 25 23 24 32 29 26 19 19 30 27 21 30 25 23 21 21 22 18 16 18 20 33 20 30 28 25 20 17 22 17 19 25 26 31 27 28 22 20 22 26 22 19 26 31 24 20 22 28 16 29 26 19 19 27 21 25 17 24 23 17 25 27 27 22 19 19 18 22 20 15 25 27 26 26 24 21 17 24 21 22 23 30 33 20 27 25 27 16 22 19 33 20 25 21 33 17 24 20 22 21 26 19 26 28 13 27 26 15 21 22 22 23 22 20 25 24 18 20 21 26 24 27 19 24 27 24 30 22 30 18 34 26 29 29 24 30 29 19 20 26 29 20 31 16 27 20 29 23 20 21 20 20 23 26 30 30 25 20 20 30 22 20 29 33 25 23 28 24 27 21 22 26 26 29 25 24 20 24 18 26 16 26 22 24 25 24 26 26 23 30 25 21 20 17 25 24 25 27 26 26 22 23 20 22 19 22 26 22 22 26 20 18 20 19 35 22 24 30 22 25 21 25 16 27 24 30 23 19 23 29 19 16 24 23 30 23 24 32 26 19 30 16 30 24 24 31 19 19 18 28 19 22 28 27 26 24 13 28 26 23 21 27 31 24 22 18 28 24 27 39 30 30 20 17 23 12 28 23 26 34 23 17 26 25 31 21 24 20 16 23 23 23 21 29 24 24 26 26 22 17 23 19 27 26 24 25 26 27 22 28 21 19 27 21 22 26 29 27 24 24 22 21 29 26 20 19 15 32 29 22 27 26 25 28 18 19 24 32 22 22 22 33 23 18 21 25 13 23 31 24 25 25 22 17 29 18 25 21 29 23 25 23 27 19 21 26 27 19 23 34 28 25 28 14 28 28 25 36 25 18 22 20 25 18 21 20 28 17 24 21 21 19 25 34 23 25 23 28 14 23 29 24 23 21 28 21 24 27 26 24 32 17 24 27 21 20 18 19 19 27 26 26 20 18 20 27 26 12 20 28 27 20 21 20 22 19 20 25 22 22 25 22 22 29 24 26 29 20 26 20 30 23 27 28 39 20 21 27 31 19 27 22 22 25 27 21 20 15 23 31 30 20 22 31 25 19 23 22 22 28 21 27 30 18 24 15 20 22 22 20 24 36 22 23 25 18 24 25 26 15 21 21 24 21 26 21 24 22 27 23 24 30 33 23 29 21 34 24 29 22 20 23 19 27 24 21 14 28 27 23 25 21 26 35 23 18 13 23 24 21 28 24 29 24 20 24 29 15 21 20 15 28 24 24 24 27 31 27 22 24 23 27 26 22 15 24 24 22 27 24 22 29 26 32 26 31 21 29 17 30 25 21 22 17 23 24 26 23 17 11 23 21 32 27 22 20 24 21 33 22 22 20 31 20 19 34 21 28 29 20 23 22 24 28 27 22 26 19 13 21 22 18 19 26 25 19 19 27 32 25 24 30 28 29 21 27 29 23 16 30 26 20 17 32 18 19 27 25 14 23 29 29 17 30 23 22 19 28 23 16 20 26 15 25 27 28 22 23 28 23 30 20 26 27 25 22 27 22 29 19 28 28 19 19 25 17 27 29 30 21 20 25 19 28 23 27 25 23 17 20 27 28 26 18 24 30 22 20 30 22 24 23 25 24 32 25 26 24 16 25 20 28 21 23 21 19 28 22 23 21 26 12 23 23 26 21 27 30 20 23 25 25 23 22 26 22 27 28 29 23 21 14 28 25 18 25 23 18 36 26 24 16 20 27 26 27 20 21 22 25 26 25 24 24 25 18 30 26 25 20 26 29 25 31 32 26 28 29 21 23 19 26 20 20 25 24 24 24 29 22 22 33 24 20 25 29 27 24 27 19 23 20 21 21 27 26 27 28 20 29 19 25 21 22 22 19 23 17 26 36 31 24 26 24 21 24 23 20 20 28 20 21 22 27 26 38 20 20 26 36 24 20 29 29 27 17 25 23 20 19 23 24 29 26 28 19 29 20 28 24 22 24 20 22 30 23 21 28 24 27 27 25 17 18 17 24 20 25 20 24 19 29 33 23 22 26 29 28 26 23 28 24 31 26 21 22 24 17 22 32 34 24 21 25 30 20 28 28 27 25 22 22 23 24 22 24 27 32 18 22 32 27 22 26 29 23 20 27 22 23 24 15 19 23 25 25 22 24 14 19 28 28 24 24 27 26 25 17 24 27 25 27 18 27 32 15 24 28 15 28 20 21 32 23 26 24 25 28 33 23 22 26 28 27 21 23 18 30 21 22 16 28 25 21 31 31 30 22 17 23 28 22 19 26 26 25 22 29 21 29 17 22 25 26 21 32 22 19 18 28 27 17 12 29 28 27 26 30 26 25 22 27 25 17 25 23 24 25 35 18 28 25 24 24 32 28 26 22 25 26 27 25 21 19 24 25 35 21 27 27 24 24 23 23 22 25 41 30 17 23 24 27 21 20 20 22 25 17 19 23 27 19 22 26 22 21 30 25 16 26 26 18 21 24 26 21 20 31 23 27 35 21 18 17 31 21 15 23 26 22 24 25 24 30 17 27 27 22 28 25 22 24 17 24 31 16 24 22 20 26 27 28 33 22 28 30 21 28 26 28 23 24 29 25 21 23 19 19 23 24 29 23 30 22 17 19 19 30 18 23 26 27 28 32 23 19 21 14 26 25 21 17 21 31 30 32 26 30 26 30 27 25 27 25 27 22 22 25 20 22 23 26 24 21 30 31 25 19 27 20 20 25 17 21 26 22 23 24 22 28 24 25 23 20 20 29 21 21 24 25 26 29 25 17 21 17 22 25 28 17 18 21 17 30 23 24 22 25 26 20 20 20 25 31 24 18 26 35 21 16 22 22 19 22 22 20 16 24 18 28 21 18 18 19 20 24 17 16 25 22 28 17 27 29 23 25 27 25 15 19 16 34 18 23 24 24 24 20 21 22 24 29 26 27 19 22 16 28 29 22 19 30 20 20 24 24 21 25 23 23 18 26 19 23 30 28 27 21 25 21 20 31 18 24 22 28 17 16 33 23 24 25 27 23 27 28 21 24 22 23 22 25 27 17 24 31 25 26 25 19 25 24 18 37 19 22 27 20 24 27 28 29 18 21 26 25 22 19 19 22 18 25 32 26 24 31 22 30 25 28 23 25 22 25 22 26 20 26 26 19 18 22 27 23 24 25 26 32 37 23 17 18 25 22 32 18 24 24 23 32 28 19 20 24 26 18 19 22 20 19 18 26 23 17 22 22 28 28 22 23 27 20 25 22 22 25 19 18 23 27 24 30 20 19 25 22 18 29 28 21 34 22 23 20 19 25 27 17 19 22 20 23 30 19 27 26 24 25 19 12 27 27 22 15 20 29 31 21 29 23 19 20 27 19 31 17 21 23 18 22 22 24 22 23 15 26 14 24 30 23 19 24 17 24 22 26 21 22 30 25 24 24 20 27 22 20 21 29 26 25 26 20 20 23 26 23 19 31 22 16 28 21 17 20 28 23 24 23 26 31 22 26 26 21 28 28 27 23 22 27 21 24 28 20 28 25 17 27 26 24 29 24 30 24 25 22 19 22 26 22 23 22 25 28 23 31 23 20 28 28 28 15 21 22 23 27 25 24 28 19 15 21 22 21 32 21 20 26 26 30 23 39 18 26 20 25 20 22 24 16 30 25 17 29 22 27 19 24 25 26 25 20 30 21 30 29 25 31 24 14 19 26 26 31 26 31 25 23 31 27 24 22 23 9 30 17 28 26 22 25 16 26 25 25 25 15 21 34 26 23 31 22 21 22 29 29 27 23 30 24 18 25 21 22 22 21 19 22 18 20 25 27 24 20 23 29 24 22 19 32 21 28 20 22 24 25 31 22 31 25 29 23 33 23 31 27 30 27 26 25 23 19 27 29 23 18 22 28 28 20 22 19 16 28 15 21 29 25 23 21 22 21 17 25 16 20 17 29 20 24 17 23 13 21 21 20 28 25 22 27 23 26 23 29 27 27 22 16 24 24 20 28 30 31 20 16 20 26 19 28 17 33 25 32 22 26 19 21 33 23 29 20 25 21 21 22 29 20 19 33 22 21 26 29 26 21 27 15 20 20 17 22 21 25 23 27 26 23 25 27 22 26 25 20 23 20 25 23 30 28 19 24 23 22 19 24 35 28 20 20 21 25 27 25 27 21 22 24 27 27 24 17 23 28 29 23 18 26 24 22 27 26 25 28 27 21 28 26 23 21 23 20 32 20 21 19 23 23 23 29 27 25 24 19 19 22 33 23 17 21 24 20 22 29 20 23 26 14 32 23 28 18 21 21 20 27 26 18 27 26 22 24 25 30 16 25 23 25 28 23 27 21 19 20 20 23 24 27 24 28 19 22 31 21 16 26 21 31 19 21 24 22 23 28 23 26 31 30 27 27 24 24 22 17 26 26 20 25 25 21 24 25 23 23 21 23 17 28 17 33 24 24 18 15 18 31 22 19 30 26 28 23 19 24 28 21 19 20 30 13 26 24 20 23 22 18 23 23 19 24 26 31 25 28 25 24 28 22 28 23 19 23 29 32 22 27 26 19 16 22 28 14 25 22 31 19 23 29 25 22 26 24 24 33 18 16 23 21 23 25 18 17 17 28 24 26 31 25 26 22 19 22 19 29 24 26 28 18 24 21 22 26 27 23 27 26 27 31 29 25 24 27 24 29 17 17 20 27 27 25 26 23 21 25 23 18 24 17 23 23 29 24 23 31 18 22 24 21 26 21 24 29 25 18 23 31 28 24 25 25 23 26 22 21 28 18 20 24 25 23 30 18 19 22 28 27 14 27 31 20 26 19 28 24 22 29 18 27 22 19 25 23 19 25 21 14 34 29 20 22 22 23 25 20 24 27 26 22 25 24 25 21 20 22 28 17 20 19 26 29 14 23 24 27 22 31 23 25 26 26 22 24 31 25 26 21 23 24 23 24 25 26 23 21 27 21 27 25 22 30 25 23 29 23 15 29 15 17 32 27 27 17 31 23 22 17 16 32 28 28 18 28 20 21 19 18 22 19 24 20 21 19 26 22 18 23 25 30 20 21 20 29 16 19 12 26 22 33 20 36 25 25 24 26 25 19 29 16 22 27 14 18 22 23 21 20 21 22 22 28 27 23 19 23 26 16 28 24 24 20 30 23 26 24 23 24 28 22 19 27 21 27 29 23 22 31 22 24 19 22 13 23 25 28 22 28 28 26 28 28 24 26 27 24 20 22 34 37 19 26 26 25 31 14 24 23 18 22 21 24 29 28 24 29 21 28 28 26 26 26 32 22 35 24 23 19 27 24 23 22 23 27 17 18 32 23 21 21 31 17 25 26 27 20 29 26 17 26 29 24 29 28 25 18 22 27 20 19 34 24 22 24 25 26 18 16 23 25 21 22 21 32 21 18 19 21 22 22 19 29 23 29 22 27 18 24 27 26 24 23 24 28 24 17 28 31 22 22 25 29 25 21 23 17 25 23 19 27 26 25 21 25 21 23 29 27 25 24 21 19 24 25 22 18 22 17 17 25 24 19 20 18 25 23 22 26 22 21 32 28 21 31 20 30 20 24 23 22 28 20 20 20 24 18 26 18 27 35 32 14 18 27 24 26 30 22 24 23 25 34 22 20 15 20 19 20 31 19 23 23 26 26 28 27 22 29 26 24 28 25 16 23 20 28 24 28 24 18 22 33 28 28 15 28 19 23 24 32 27 16 31 20 25 13 25 15 27 24 22 32 27 18 28 24 25 25 24 23 21 18 24 23 18 22 33 20 20 21 25 21 22 27 19 27 24 18 24 28 24 23 18 17 26 22 28 25 29 25 26 26 19 26 36 26 28 28 30 18 19 31 29 23 33 31 27 26 21 23 27 33 31 23 22 16 25 23 27 21 19 23 22 26 29 31 30 16 25 24 24 30 25 26 31 28 26 20 27 20 32 18 16 21 22 30 20 24 27 28 29 30 22 24 22 21 23 18 29 25 21 21 26 26 19 27 26 24 18 29 32 28 22 16 19 22 26 20 19 24 23 24 23 20 19 27 18 23 24 21 26 25 30 26 25 27 27 18 26 21 20 31 23 20 26 30 35 17 23 24 25 29 30 19 19 21 23 23 28 18 20 17 20 21 17 19 26 20 23 24 27 21 22 29 23 19 26 23 24 28 25 23 29 22 20 25 28 29 30 26 18 18 26 30 31 16 23 27 31 20 17 25 23 24 25 30 33 20 20 24 20 18 20 23 20 16 28 28 17 18 26 16 29 23 23 25 19 24 27 25 26 24 27 25 19 22 26 26 20 19 21 20 20 25 33 22 30 31 27 28 17 21 23 24 22 24 23 22 28 24 19 26 25 33 21 22 34 14 23 23 23 21 31 35 13 20 18 17 21 23 24 28 26 29 23 26 24 23 18 23 31 23 22 23 17 19 29 29 31 27 26 22 26 27 22 22 21 23 23 26 24 26 25 25 20 27 31 21 23 23 22 30 26 35 29 28 25 26 29 26 21 20 29 22 29 19 19 19 18 26 33 24 26 20 23 25 26 18 25 23 24 19 24 27 21 24 22 22 29 27 20 22 25 24 28 23 17 19 24 24 35 23 23 23 26 20 20 18 20 24 18 21 19 25 25 17 11 22 24 19 18 25 24 18 29 27 21 21 18 19 21 18 17 20 20 18 26 24 19 32 16 17 30 21 24 21 21 21 27 23 18 21 25 19 23 21 20 18 24 29 19 18 31 31 27 18 17 25 29 20 21 18 34 27 19 28 20 29 31 23 22 24 26 24 22 30 13 27 23 22 25 26 26 30 20 25 24 17 24 25 20 26 26 18 30 31 28 25 20 24 27 29 24 25 24 24 21 23 19 23 26 24 24 23 28 19 28 28 20 23 22 16 22 23 26 23 25 28 23 27 33 21 23 23 18 20 21 39 18 19 23 27 18 27 26 26 22 21 21 23 26 22 24 18 29 25 18 28 21 19 20 17 28 27 19 29 24 14 30 26 28 25 26 21 20 30 28 25 24 28 23 18 25 26 30 20 20 21 22 27 28 20 28 20 25 19 25 24 17 25 24 25 18 27 33 28 25 24 23 27 26 21 20 24 22 20 26 27 35 26 26 28 22 29 24 19 18 22 24 22 28 27 29 31 22 30 18 26 25 34 23 29 27 18 18 32 22 18 20 16 25 27 30 19 23 19 32 22 24 30 24 27 17 16 21 23 28 16 22 21 25 25 23 24 27 20 29 27 31 22 21 23 23 17 28 17 19 25 18 21 26 23 26 21 21 23 28 15 23 26 27 28 23 23 27 15 25 20 22 23 23 34 30 25 21 19 24 24 19 36 21 26 32 21 25 31 24 21 26 23 29 30 22 22 24 23 18 22 29 20 30 26 24 28 22 24 20 30 27 28 30 16 28 22 19 24 22 31 25 22 23 31 25 26 18 16 32 21 20 24 32 21 15 23 19 24 15 21 18 25 32 25 28 24 25 13 34 28 30 28 24 27 21 31 23 24 22 19 25 28 27 22 29 24 20 25 25 26 20 26 31 19 29 16 25 29 20 20 21 25 16 20 32 23 28 26 26 37 24 24 18 25 21 25 23 27 19 22 21 19 25 20 27 26 26 30 23 25 23 26 27 24 30 25 24 29 28 27 18 25 22 17 16 17 26 23 22 31 29 18 24 27 20 25 22 24 20 28 27 26 19 23 31 38 29 23 29 26 20 23 16 17 24 19 23 27 19 18 18 19 19 24 17 18 25 25 27 23 25 25 25 20 24 20 22 24 17 24 26 23 25 13 31 23 26 20 21 18 28 13 20 26 23 30 25 22 23 30 22 24 22 25 26 20 27 28 27 24 24 34 26 22 18 25 26 21 30 22 35 20 19 19 21 29 21 16 25 29 24 24 27 27 23 29 18 21 25 22 24 24 20 24 24 22 19 27 25 28 24 18 29 19 25 28 27 27 24 28 26 19 26 24 28 22 30 22 28 22 15 25 24 21 26 31 35 20 17 18 28 28 23 23 21 25 24 33 29 24 22 24 20 25 20 22 24 28 27 25 27 25 23 24 22 19 21 22 20 21 25 27 20 23 13 19 17 24 27 19 14 18 30 20 26 19 26 26 15 25 32 23 28 19 15 23 27 28 32 27 22 27 22 24 35 17 27 25 22 23 30 25 21 26 21 32 28 26 22 25 26 30 21 23 21 35 29 26 27 23 14 26 28 23 22 24 27 21 30 18 18 19 23 25 24 27 22 22 27 22 22 23 16 25 19 20 24 24 19 22 18 25 27 24 21 26 18 24 20 28 26 31 22 23 23 19 21 16 27 27 25 29 14 25 17 25 22 23 22 30 29 20 22 23 15 18 29 24 25 24 24 19 26 28 29 21 25 18 23 27 24 30 35 19 19 20 21 22 22 29 27 16 19 22 28 22 23 20 19 26 26 26 37 27 19 31 19 24 29 26 21 25 12 33 24 25 21 23 25 19 14 19 24 27 27 19 21 18 21 24 16 24 22 30 28 18 26 27 23 28 25 31 29 27 22 22 21 26 17 22 24 30 17 33 29 24 20 29 29 25 23 25 21 19 22 25 29 28 27 24 25 21 28 23 27 24 28 29 18 18 28 24 16 21 27 25 28 23 28 28 18 19 18 17 25 30 20 29 28 26 27 29 30 29 22 27 25 26 25 26 23 26 30 20 28 26 18 24 15 27 23 27 23 22 26 30 24 28 14 25 19 33 24 23 29 31 27 21 27 19 22 17 23 25 23 23 22 24 20 25 25 20 25 21 24 28 20 27 25 22 26 32 22 25 19 26 22 30 26 29 21 17 30 21 23 14 23 32 16 21 19 27 24 27 25 30 25 18 30 13 23 19 23 21 29 27 32 17 29 21 25 30 18 22 19 22 21 27 19 22 33 23 28 19 30 27 28 29 21 26 19 20 25 24 19 24 30 32 24 20 16 28 29 24 20 26 25 17 32 23 21 22 26 25 20 25 33 18 25 22 29 31 19 31 22 17 24 24 18 29 24 26 25 25 24 27 20 19 19 18 29 27 24 20 21 25 20 17 22 21 24 25 24 31 21 29 23 27 18 21 22 18 25 27 25 25 16 20 22 26 24 21 24 21 25 17 25 25 23 18 32 23 29 15 22 25 15 28 23 29 21 33 28 21 21 27 35 16 19 25 24 24 23 24 22 23 24 19 26 16 28 26 20 24 23 23 28 22 27 23 31 21 24 24 23 30 19 23 20 24 32 21 15 22 25 29 30 21 27 21 24 28 24 25 20 21 19 27 31 22 22 24 20 29 28 27 23 25 19 33 20 19 25 23 26 18 23 19 27 37 28 25 21 18 23 26 27 26 22 30 28 21 16 29 18 20 26 29 27 25 25 22 25 29 22 14 21 23 21 22 30 23 27 21 30 24 30 31 20 21 23 20 29 25 21 20 25 22 23 30 26 19 23 24 18 21 25 29 23 26 17 22 30 24 24 20 20 19 25 30 25 20 14 27 22 26 25 20 21 22 27 19 21 28 23 17 19 21 24 21 25 28 26 19 19 27 17 23 27 15 21 15 27 26 26 29 26 19 24 29 23 19 23 24 31 20 20 28 25 30 25 20 22 29 24 26 22 20 32 29 33 23 22 27 28 19 19 26 35 24 28 33 27 21 20 27 24 23 27 25 18 22 16 22 19 26 27 30 26 22 22 21 28 28 25 20 34 25 21 35 21 19 15 31 28 23 23 26 20 32 23 23 26 17 27 27 27 22 22 22 18 25 18 17 28 24 27 27 28 23 20 19 20 19 26 31 30 20 33 35 32 22 27 21 24 22 26 27 28 25 27 18 27 33 26 19 30 25 18 28 28 20 23 28 21 27 21 27 21 28 31 19 23 20 32 28 28 26 21 19 25 17 28 22 20 21 23 24 24 25 27 15 19 25 20 27 32 16 18 17 26 31 19 28 38 25 19 15 17 21 31 21 20 20 17 23 24 25 23 22 23 23 23 19 23 25 18 25 29 16 20 22 22 22 20 24 17 25 21 22 27 27 20 26 20 26 18 25 17 17 22 21 26 31 19 36 19 29 20 25 25 30 20 24 17 21 24 26 22 25 18 27 22 21 31 22 18 27 25 29 19 24 26 24 23 23 20 28 19 25 15 26 27 30 22 25 18 25 28 19 22 25 24 18 21 26 28 21 29 25 25 26 20 24 22 17 25 24 21 28 25 24 26 20 23 21 28 25 15 26 16 26 28 21 20 18 18 20 24 19 25 20 21 28 24 27 21 22 23 25 17 13 17 20 31 21 20 27 16 25 25 27 23 23 22 21 29 23 17 29 23 24 18 20 25 29 23 27 21 14 28 15 18 25 22 24 26 27 19 18 25 26 28 35 21 35 25 31 21 15 32 25 24 32 27 21 21 23 18 18 24 23 22 26 21 19 23 23 28 16 16 27 23 28 30 16 21 20 23 28 23 29 21 28 15 17 25 15 21 17 26 35 27 23 20 30 22 13 24 27 18 19 20 29 26 24 29 21 24 29 21 29 28 21 22 26 20 32 26 19 32 26 25 19 33 21 20 28 31 25 18 25 29 29 24 30 24 27 26 19 23 17 23 25 25 21 31 22 23 24 23 26 21 26 31 31 25 27 20 27 17 29 26 24 21 14 22 16 29 23 23 19 17 32 23 19 18 17 34 24 22 28 24 28 18 23 15 29 26 23 31 17 23 23 24 22 29 24 23 20 16 23 25 26 26 25 27 20 28 19 23 27 24 22 19 34 23 25 31 26 27 24 22 24 19 18 30 23 28 30 23 17 26 20 28 22 27 26 34 22 31 30 24 31 20 31 28 20 22 16 26 19 23 19 23 27 32 28 21 23 28 14 29 22 17 22 22 32 25 20 22 18 33 26 29 25 17 25 27 29 22 26 29 31 29 21 21 25 30 25 27 23 26 20 23 26 23 24 18 25 24 23 17 23 22 29 22 32 23 25 30 23 35 24 23 24 29 22 25 17 23 26 29 25 23 38 24 30 23 25 23 20 20 27 21 25 30 26 27 29 34 20 22 27 25 27 27 24 22 27 33 32 31 14 18 22 21 26 18 21 21 22 19 18 29 25 18 23 26 29 20 26 25 28 33 22 28 21 25 22 29 17 28 26 26 26 22 29 18 18 14 19 22 29 16 27 23 29 17 21 20 37 24 19 27 22 16 20 25 25 23 28 16 33 20 15 24 39 27 31 29 21 26 36 17 36 35 24 19 24 23 23 23 28 26 28 26 24 20 21 27 31 26 20 16 26 21 20 23 24 26 26 20 29 21 28 17 26 23 25 26 22 30 20 28 28 24 18 19 21 29 31 21 16 24 22 24 21 27 25 25 26 20 23 25 33 25 10 14 23 19 29 18 24 27 23 17 29 23 18 23 27 34 28 23 20 24 24 13 31 25 36 24 23 31 28 22 18 23 18 23 28 24 20 21 23 14 28 23 22 30 29 23 28 31 30 27 21 19 30 20 33 21 20 24 22 20 23 21 18 23 30 28 24 20 18 20 22 29 28 30 14 28 23 19 22 18 26 27 21 31 19 20 28 22 25 18 22 29 26 24 23 19 22 32 26 20 24 25 31 21 25 23 28 26 22 19 20 28 36 23 17 32 23 26 27 21 17 24 24 22 27 31 18 28 24 32 13 25 29 28 30 26 25 33 29 26 27 18 23 22 20 21 31 21 21 23 26 22 17 20 36 25 22 28 29 18 21 25 25 28 22 17 17 27 29 19 25 15 23 18 28 23 22 24 25 14 25 28 25 23 27 27 25 34 26 22 28 30 28 24 22 28 25 24 29 22 25 20 22 25 24 15 24 24 23 23 19 22 24 15 24 18 30 30 25 27 29 21 19 20 31 25 23 23 25 22 31 34 29 22 20 20 22 17 20 27 33 20 23 24 25 20 29 21 24 16 24 16 32 27 22 15 17 32 32 23 31 24 21 31 22 18 21 35 24 30 24 29 21 28 25 16 25 24 27 36 30 31 26 25 30 35 22 25 22 25 23 29 24 26 24 16 36 28 20 17 25 24 15 18 28 27 24 17 22 26 16 15 28 20 20 23 25 27 25 23 21 23 21 28 30 22 25 27 27 21 24 28 17 20 24 25 19 23 22 18 25 27 26 32 18 25 25 29 18 24 27 20 19 23 28 27 18 30 23 26 21 23 31 25 16 21 27 23 29 27 24 28 18 19 27 25 16 24 33 21 23 35 21 29 19 17 24 21 26 22 13 15 26 17 23 21 31 23 24 17 30 30 25 22 23 30 17 18 21 24 22 16 25 23 25 25 28 30 27 21 26 23 38 22 36 23 33 30 26 28 26 23 22 14 25 17 24 28 24 24 23 24 26 25 18 21 27 27 18 23 28 22 24 18 23 20 27 27 25 21 21 25 20 27 24 26 21 24 21 25 27 33 24 21 18 26 26 26 26 31 27 32 22 16 30 23 23 27 28 26 27 34 18 29 24 27 28 25 20 23 32 21 21 29 21 28 23 32 11 20 12 22 22 28 29 29 29 27 17 24 24 27 26 20 26 23 23 29 26 24 23 24 23 29 22 27 24 20 26 31 18 23 25 21 19 27 32 20 29 25 31 27 19 23 15 26 19 24 16 22 23 17 15 33 24 28 29 23 27 22 22 24 21 17 21 17 23 21 26 23 21 24 29 21 16 22 22 25 20 17 24 19 35 29 22 36 28 33 29 31 27 19 29 24 23 18 32 26 21 27 20 23 19 28 23 25 16 27 26 28 17 28 23 23 23 23 25 22 25 35 34 24 21 28 18 23 24 23 20 15 24 28 21 24 28 27 30 28 17 30 22 28 18 28 21 25 26 25 27 24 16 23 30 21 24 27 18 22 26 24 25 19 24 24 29 29 20 33 22 19 25 18 23 25 22 27 24 18 21 23 25 24 28 16 27 28 25 24 21 25 21 28 29 28 26 29 28 22 32 39 25 30 31 25 22 25 25 16 26 25 29 24 19 31 24 22 25 24 27 23 25 26 26 22 26 20 29 27 28 26 18 21 24 28 23 22 25 33 24 24 25 25 29 26 28 26 17 18 20 26 27 30 20 20 30 21 21 23 26 24 27 24 24 16 26 21 25 26 17 27 20 32 25 33 25 37 24 23 24 24 26 32 24 25 21 26 26 26 28 18 29 27 20 24 31 26 31 20 21 22 23 21 16 19 19 29 22 19 21 20 34 29 22 19 26 17 20 19 21 26 32 27 29 23 34 19 21 30 27 29 24 22 21 31 21 18 25 20 29 24 18 25 23 21 19 26 24 22 27 25 25 23 20 23 25 31 28 17 22 19 16 30 19 18 18 18 21 24 25 29 23 18 23 24 26 22 30 21 22 23 22 21 27 24 17 21 26 22 35 24 23 25 23 29 25 26 25 26 18 25 31 25 22 24 22 25 21 27 22 28 15 25 24 14 19 28 23 26 27 19 25 22 33 21 20 37 13 29 17 22 28 20 23 29 22 29 26 33 25 23 17 28 20 27 22 21 28 18 30 27 18 25 29 15 22 32 30 24 26 24 29 21 18 19 24 34 24 25 34 27 24 23 27 23 25 27 29 20 23 27 22 23 30 19 29 16 28 17 20 22 24 23 23 29 29 23 15 17 26 27 23 27 20 17 23 26 19 22 18 23 21 17 23 25 16 20 20 30 33 18 20 17 31 24 21 16 24 24 21 30 23 14 20 23 22 29 26 17 24 17 19 35 27 21 24 32 24 27 23 22 21 26 31 27 15 16 20 18 23 20 23 19 23 21 25 21 28 26 19 25 25 28 24 24 20 28 29 27 12 22 22 21 29 24 21 19 16 23 22 23 20 23 24 20 20 22 31 31 20 21 25 23 21 26 15 26 16 26 19 23 24 25 30 26 30 26 14 25 21 29 25 21 17 15 25 31 29 32 15 16 29 29 21 27 20 22 33 23 24 18 19 32 24 29 18 24 22 20 24 24 26 25 22 20 33 18 27 22 17 24 29 27 25 25 25 19 25 32 26 28 16 32 26 24 27 17 27 24 27 24 24 27 27 15 23 27 15 24 31 25 15 26 30 27 29 22 30 23 27 27 23 20 30 33 19 30 25 17 19 23 26 24 27 21 19 34 27 24 19 21 32 29 37 28 20 24 22 24 20 24 27 24 20 23 16 29 24 29 22 14 16 20 31 25 26 20 16 27 21 22 27 24 23 43 26 23 20 31 23 25 21 24 26 19 26 23 21 27 24 23 28 30 24 32 28 19 23 21 22 22 20 18 24 25 28 19 21 26 28 28 27 16 19 26 23 31 20 20 19 26 24 21 30 18 17 24 25 27 28 24 20 21 26 26 20 15 14 21 27 26 28 28 24 23 26 23 11 20 24 20 31 33 24 22 19 23 26 15 25 27 23 25 27 34 15 24 22 15 29 23 30 28 28 28 23 22 21 28 30 32 27 22 27 26 22 24 32 22 22 22 23 27 33 21 31 22 23 27 21 26 22 17 24 28 21 20 31 19 27 20 22 29 26 31 25 24 29 29 20 21 22 22 17 25 14 17 25 28 22 25 25 25 18 25 31 22 22 24 19 22 16 19 25 18 20 30 25 17 21 18 23 26 28 22 22 30 17 30 19 20 22 19 23 18 23 24 29 23 30 23 36 17 23 24 20 22 24 25 22 16 28 29 18 26 30 34 25 20 24 19 22 18 28 30 19 26 26 23 21 38 22 27 27 27 24 19 29 21 22 20 15 32 29 23 23 22 19 24 34 17 27 20 29 33 27 27 22 26 22 28 28 30 23 15 24 27 20 24 20 23 27 26 17 23 20 24 20 20 23 26 20 24 14 21 20 25 20 33 28 34 18 23 27 26 23 16 22 14 22 22 18 27 24 21 32 23 25 18 25 29 14 23 23 22 24 23 26 21 19 20 29 25 18 26 26 16 21 17 20 25 25 17 23 28 19 27 22 23 26 17 24 27 21 22 20 25 18 28 30 20 21 31 22 24 26 27 18 19 31 24 24 21 20 33 26 26 19 23 19 22 28 22 20 22 27 19 28 24 24 20 24 24 23 23 29 20 29 20 23 17 26 21 27 19 18 19 27 34 23 17 17 22 19 20 26 34 26 18 21 25 20 22 24 24 28 27 23 29 27 25 20 33 27 19 28 22 27 20 21 23 20 20 17 23 18 21 27 24 21 29 23 24 31 30 27 32 24 28 34 21 24 15 22 22 28 25 22 22 20 34 30 20 30 26 21 24 27 29 25 22 19 23 18 18 26 20 21 17 21 22 26 27 26 23 23 23 23 32 16 20 26 27 22 9 25 23 20 20 24 20 22 24 19 26 25 23 29 24 25 32 16 20 23 20 32 18 21 25 28 16 25 25 21 22 26 27 26 34 18 23 18 26 23 23 22 26 28 26 16 20 23 22 20 22 22 22 23 14 30 27 22 20 32 18 22 27 20 16 21 28 20 23 23 22 22 29 28 23 28 28 24 27 25 27 21 20 20 22 26 22 22 24 14 30 31 25 21 32 25 24 21 23 18 28 27 28 20 25 23 27 35 25 27 27 23 18 23 16 20 24 22 32 22 24 19 29 23 31 25 29 18 36 18 29 20 22 31 18 14 20 17 26 22 20 17 21 30 22 27 26 22 28 20 20 21 24 30 23 22 29 24 31 28 31 26 23 32 25 19 22 24 23 20 27 26 16 17 25 24 27 24 20 22 20 27 29 21 30 23 25 31 27 27 19 22 22 30 18 13 27 19 19 29 31 21 26 18 27 32 19 20 25 20 19 19 21 23 32 22 26 25 23 27 23 20 21 25 27 33 23 23 19 22 33 21 31 18 19 19 25 30 22 17 27 17 24 17 17 25 24 11 22 25 26 33 25 16 22 26 21 21 31 21 23 24 28 24 27 32 19 21 21 20 30 22 14 21 20 24 26 22 24 31 27 27 19 29 16 25 20 31 20 21 16 22 24 28 23 22 22 24 32 12 25 23 25 23 25 22 25 22 29 19 18 25 22 10 23 23 28 28 22 21 23 23 19 26 16 25 26 30 26 28 26 25 17 25 18 17 26 21 28 28 32 21 24 30 30 22 23 25 27 26 24 31 34 15 22 32 26 23 22 28 32 19 21 22 24 24 26 20 23 27 27 23 21 26 29 28 13 18 22 23 21 26 21 24 24 23 29 22 30 20 26 22 14 32 26 28 33 25 31 19 27 24 19 29 21 23 28 29 28 29 20 20 25 25 30 23 31 26 26 29 26 29 18 25 31 26 34 35 30 20 29 25 25 24 23 27 24 20 27 23 24 16 25 24 16 18 22 20 27 22 26 21 30 22 26 32 27 23 16 22 14 30 27 22 26 25 23 22 22 24 19 20 18 27 19 26 19 25 25 21 11 24 28 22 22 29 20 24 22 26 24 25 21 22 23 22 21 19 22 30 29 25 24 40 14 18 24 21 22 22 36 26 16 27 14 23 26 23 22 31 24 20 23 26 18 24 31 27 31 32 22 32 23 32 28 20 30 27 23 29 22 27 29 19 31 18 35 25 27 25 29 34 15 25 27 29 26 25 18 29 22 19 17 26 16 22 29 22 22 32 30 24 29 20 27 26 22 20 28 24 26 23 13 27 20 26 19 31 18 22 24 29 19 21 32 28 26 34 28 26 19 28 21 21 25 34 27 23 24 24 34 22 26 25 16 20 26 27 18 22 22 20 18 27 26 25 29 15 19 29 27 33 25 26 29 28 16 25 18 25 26 17 28 31 23 25 20 27 26 23 22 23 21 22 25 24 19 23 20 34 19 24 24 19 26 23 24 25 23 24 28 20 35 35 19 30 31 27 28 19 22 22 25 20 26 25 23 22 22 25 25 26 24 23 29 21 17 23 21 24 22 21 24 24 17 26 17 24 17 32 23 21 19 24 27 30 27 19 24 26 30 28 19 21 20 25 20 24 30 19 18 31 23 24 22 22 23 22 20 30 21 25 31 20 29 22 19 17 24 24 20 18 18 19 22 26 22 22 26 29 22 22 23 26 25 25 20 27 20 16 31 18 25 21 26 28 30 24 24 21 27 24 21 30 34 11 26 27 27 28 23 27 24 21 17 26 22 21 34 24 26 16 26 21 32 16 24 23 33 27 25 23 16 28 27 15 23 22 21 20 24 34 19 24 21 24 26 18 25 24 32 26 24 26 19 16 16 20 25 23 34 14 18 26 25 21 21 29 26 28 31 20 24 22 20 27 30 19 20 20 25 21 15 20 21 30 35 27 20 22 19 23 18 17 23 18 16 27 33 31 23 17 27 18 34 27 13 19 27 25 26 25 21 25 36 29 21 20 21 20 37 31 28 23 22 26 23 23 24 26 23 25 28 24 21 21 19 27 26 26 22 28 14 20 26 22 31 23 30 21 24 22 19 14 21 18 25 21 19 36 29 22 16 19 29 26 26 22 29 24 30 33 31 22 14 28 27 24 21 26</t>
-  </si>
-  <si>
-    <t>EXN(0.6583890101693531, 29.933145676036002, 4.811952326977757)</t>
-  </si>
-  <si>
-    <t>32 39 26 31 33 40 29 33 33 32 40 27 27 25 23 32 29 33 39 37 37 39 37 32 30 25 34 34 20 36 40 25 27 24 29 35 34 37 30 31 32 48 32 33 42 32 38 29 37 26 34 29 35 33 26 33 39 34 28 36 29 29 29 37 28 36 30 26 41 25 32 39 30 30 36 27 50 39 28 33 29 39 38 28 28 22 35 37 29 42 22 31 28 37 41 36 26 29 35 27 34 32 29 27 36 35 29 37 29 35 24 40 39 27 31 38 31 39 34 19 32 40 41 41 29 34 41 27 28 33 41 46 37 34 27 33 30 25 36 33 35 31 34 42 33 32 35 34 44 34 35 29 40 33 28 38 43 20 37 36 35 27 32 37 36 43 33 32 32 38 40 42 39 31 44 29 35 25 35 50 33 34 24 51 33 41 34 33 34 25 28 30 34 27 26 35 35 41 32 26 33 38 28 19 34 34 31 34 34 36 29 42 29 24 38 32 28 27 31 42 35 32 39 23 36 31 40 30 36 33 25 37 36 23 31 34 25 34 31 40 27 22 41 34 30 27 27 32 36 40 25 35 35 28 37 30 48 36 32 23 38 37 30 33 36 39 31 29 45 39 31 27 38 32 50 39 27 25 36 29 35 39 42 34 24 35 25 38 30 49 43 34 29 42 47 35 31 49 28 37 32 36 34 30 32 37 40 29 28 26 28 37 35 35 32 27 36 37 31 35 30 42 29 31 36 39 32 32 33 33 34 29 37 31 27 38 23 26 34 33 26 22 34 42 32 34 34 32 46 32 33 36 31 29 40 26 28 25 41 41 35 30 44 41 34 30 37 29 30 34 40 33 45 40 23 40 37 30 26 38 23 32 26 35 34 30 28 30 42 33 33 28 39 34 37 28 40 34 31 30 35 35 24 34 35 26 37 35 27 35 29 25 42 48 43 32 32 31 39 41 44 30 39 32 45 20 30 33 25 30 37 20 31 28 32 51 30 29 38 27 42 34 42 41 38 27 28 22 39 31 39 28 38 39 30 30 33 29 36 35 35 39 32 38 32 31 37 33 40 34 32 30 38 29 39 31 26 33 32 38 35 35 28 45 36 36 31 52 46 28 31 24 30 32 29 37 45 25 27 38 35 29 34 33 28 37 35 25 37 31 36 36 34 41 36 32 24 32 36 38 29 31 34 32 35 42 33 33 24 34 32 30 31 24 27 38 35 38 43 33 35 28 36 29 40 37 36 35 24 30 33 23 43 28 24 32 41 30 33 34 33 22 32 28 41 33 28 31 32 35 44 32 37 28 33 41 29 48 37 38 27 24 35 26 42 19 28 34 34 35 38 33 25 28 38 30 28 36 29 31 30 36 33 29 36 30 33 49 35 33 40 32 31 28 53 41 40 34 35 33 37 33 35 24 30 40 44 39 36 26 29 36 38 22 36 38 34 24 31 34 28 29 30 29 35 28 28 38 34 33 48 42 28 31 27 26 29 36 30 41 25 35 29 35 32 34 28 40 30 45 33 30 30 27 35 27 35 28 26 45 36 33 34 52 32 37 41 31 28 32 33 31 32 36 34 27 43 38 37 26 29 33 30 32 32 30 30 28 41 28 34 33 32 36 38 42 32 37 27 36 30 32 29 29 35 33 35 32 40 27 39 26 31 34 23 28 33 30 33 32 34 28 36 32 29 37 31 33 35 33 32 32 20 30 33 30 35 22 35 21 34 34 34 41 37 43 27 33 36 40 27 36 24 50 47 25 37 39 35 33 30 31 30 31 35 41 31 38 24 32 39 43 28 34 29 35 36 44 33 37 34 44 32 36 37 35 38 23 29 23 38 36 34 37 37 28 22 33 44 49 24 31 37 31 33 41 22 30 38 26 32 23 34 31 35 42 42 36 38 34 42 36 29 23 39 27 23 32 29 37 37 27 36 33 32 33 44 24 32 31 36 34 42 24 33 44 30 29 25 24 35 22 35 30 33 32 36 38 26 37 33 43 35 35 34 36 25 32 35 30 30 31 21 26 28 37 32 25 31 31 33 43 38 28 33 33 33 29 32 30 41 39 33 40 33 31 26 31 40 32 32 34 31 30 30 30 33 34 27 31 31 33 31 29 30 28 46 36 26 40 37 30 34 32 32 37 28 35 23 29 24 26 30 35 32 34 28 33 31 30 31 35 32 28 32 37 38 32 39 41 20 29 28 36 38 35 30 28 24 31 31 35 36 37 30 24 27 38 31 32 27 39 47 33 29 27 20 35 35 27 40 39 36 40 41 37 37 30 23 27 47 36 32 26 30 31 28 31 33 36 32 39 31 31 31 33 27 30 28 40 31 29 27 34 36 28 34 29 25 36 36 31 35 27 31 32 41 41 42 38 26 32 22 34 25 35 39 33 33 32 30 40 50 30 33 37 43 33 28 37 29 26 30 25 18 28 27 27 33 20 35 34 29 30 36 28 33 25 40 35 38 36 37 38 30 35 30 35 40 28 26 24 37 25 36 38 39 33 27 26 32 36 34 39 33 26 37 37 30 33 35 37 35 40 19 40 38 29 30 38 32 30 37 25 35 31 42 32 36 35 28 26 32 35 31 36 27 28 26 28 31 27 39 35 33 27 32 35 35 38 35 31 31 35 38 34 33 36 35 35 48 35 30 32 39 30 35 37 37 29 27 38 30 30 26 33 37 29 28 30 39 40 30 33 35 41 35 45 28 36 24 30 30 33 32 32 23 28 27 39 36 37 42 36 35 27 34 35 36 37 32 21 31 25 31 29 35 24 33 34 24 32 35 33 48 45 35 31 32 32 38 27 29 41 32 46 34 33 39 34 31 32 36 19 40 38 39 31 24 38 31 31 33 39 34 21 23 32 33 33 24 22 31 29 27 40 29 26 31 40 35 43 38 42 31 29 35 34 30 33 30 35 35 35 39 31 32 29 32 38 28 22 26 47 33 26 25 25 40 34 35 27 36 37 24 41 33 33 26 38 25 29 34 28 30 47 27 32 21 29 31 41 35 38 36 26 26 32 26 34 28 27 24 33 35 31 34 33 33 36 38 32 21 31 42 32 37 39 28 27 31 33 41 26 20 42 39 35 28 35 29 30 27 27 25 41 41 28 20 37 38 43 37 33 40 31 29 32 36 33 23 28 33 27 36 32 26 31 45 33 32 27 41 36 38 35 36 47 28 39 32 36 46 40 39 37 31 28 29 28 30 32 39 44 39 39 37 40 46 34 31 35 32 33 43 24 38 22 26 30 31 39 41 30 31 22 34 38 28 29 33 28 35 25 29 31 31 26 24 36 31 28 32 43 35 31 31 35 43 37 27 40 34 35 32 26 34 27 38 39 31 45 26 38 29 31 27 32 35 37 48 46 34 33 39 32 26 34 40 41 31 33 29 36 29 30 33 35 35 35 26 35 43 42 37 33 50 27 35 18 25 28 39 35 27 26 18 36 40 35 33 31 35 35 24 38 34 38 42 28 27 38 27 32 33 33 33 32 36 27 32 28 24 36 30 35 35 36 28 22 43 37 32 38 32 30 38 35 39 40 44 23 38 36 22 41 38 37 28 33 28 32 29 30 31 39 32 36 24 39 38 39 29 36 30 31 32 37 22 30 52 34 27 38 30 37 23 34 38 39 40 38 34 33 39 27 43 30 31 34 27 48 32 36 26 36 33 23 28 34 22 32 25 40 36 28 33 40 32 34 40 26 34 29 26 40 37 27 40 25 32 38 30 48 37 40 45 30 38 32 51 25 25 29 32 40 27 41 40 33 32 32 32 35 23 34 30 37 32 41 32 30 33 29 27 33 34 28 35 31 32 31 32 38 29 24 25 34 40 31 35 27 42 31 34 44 33 34 32 19 30 33 30 38 36 26 36 26 32 47 22 25 37 32 36 38 40 30 28 27 35 15 34 31 33 37 34 29 34 48 34 33 26 33 27 34 32 37 29 23 31 37 28 41 33 36 32 33 33 34 29 35 30 32 34 28 26 24 33 39 34 31 27 34 32 29 35 33 38 35 37 36 26 27 27 31 35 39 30 37 40 36 33 36 31 40 42 35 31 33 33 35 27 36 35 35 34 33 34 30 48 42 36 40 41 34 46 36 33 38 23 21 37 45 29 31 32 26 33 38 39 28 26 27 27 38 30 34 35 48 34 23 36 30 37 36 32 38 33 36 32 43 26 28 34 27 34 26 26 23 31 46 38 35 32 27 34 35 30 24 22 37 41 25 29 32 24 20 30 29 45 24 30 37 52 28 30 25 29 27 39 34 40 22 36 38 27 33 30 33 25 27 33 33 36 34 33 38 30 31 36 35 25 37 43 40 32 31 40 28 26 45 30 41 45 35 34 38 32 24 41 35 31 27 31 42 24 32 33 21 33 27 34 36 24 32 31 33 29 30 26 32 33 54 25 33 37 40 32 34 27 27 33 35 22 33 30 29 38 32 26 41 27 39 26 38 28 32 32 30 26 29 41 28 33 26 33 32 33 36 31 35 35 44 40 35 31 39 31 34 34 38 28 39 29 28 36 28 31 33 35 38 35 28 31 42 31 36 27 34 39 25 39 40 39 37 37 27 34 30 44 32 29 37 27 35 28 38 32 30 32 29 30 23 33 31 35 35 28 33 34 30 39 29 28 32 28 31 28 25 32 27 36 28 28 42 32 33 37 32 43 29 29 36 34 34 29 47 39 37 38 24 35 27 28 20 40 33 37 32 37 38 38 21 31 28 42 42 35 33 34 31 30 25 26 29 38 31 29 25 27 27 35 31 27 31 40 32 26 39 29 28 36 35 35 34 44 35 35 31 24 28 35 31 38 35 33 36 32 29 30 33 35 35 34 28 36 36 32 38 31 38 29 34 38 34 37 33 28 39 28 27 34 44 25 32 26 48 35 34 38 39 42 30 34 27 28 37 29 26 38 39 25 34 34 31 32 29 32 38 27 28 30 32 50 34 30 28 28 34 35 27 28 23 36 26 32 34 30 25 31 32 37 35 39 26 30 27 32 30 30 39 28 43 30 33 28 31 42 50 27 33 24 30 26 27 30 33 45 32 38 26 40 34 33 32 37 39 36 30 25 52 25 40 34 29 29 43 36 38 28 34 43 44 27 40 35 29 28 39 31 37 23 24 29 46 25 41 32 30 26 26 36 25 31 30 39 41 41 33 31 31 31 38 30 31 38 41 31 32 29 35 26 34 30 25 26 33 33 27 29 31 33 23 35 37 31 29 24 25 20 36 26 25 37 38 34 33 37 29 26 37 25 28 31 47 43 22 35 32 40 24 37 28 48 32 33 32 42 23 29 27 28 39 31 28 32 39 20 39 36 25 33 33 35 30 31 28 34 33 25 29 31 36 36 39 32 34 36 41 40 27 38 29 41 37 44 39 32 38 37 33 31 36 40 31 46 26 34 28 37 32 23 28 27 28 38 37 36 46 29 28 31 49 32 31 38 43 37 28 45 34 39 27 29 36 30 36 39 32 24 35 23 34 29 36 34 31 34 29 33 36 32 36 37 32 30 22 34 37 35 36 36 35 32 34 36 28 26 35 39 39 26 33 28 24 30 27 45 33 33 35 32 28 28 31 24 33 31 40 33 30 32 39 33 24 33 30 38 31 43 44 37 29 35 26 39 38 32 39 31 26 25 34 25 29 36 31 33 39 21 40 36 37 30 35 37 30 28 27 38 32 35 49 41 51 31 24 30 19 37 34 34 43 36 26 39 30 41 27 35 22 28 32 30 36 29 38 39 33 36 33 28 26 34 26 35 37 35 31 37 36 31 38 34 29 35 27 33 35 34 36 32 36 27 30 40 34 33 33 23 42 39 32 34 36 34 39 31 28 33 48 39 31 27 45 37 27 37 32 20 33 37 33 39 31 31 30 33 32 31 31 36 37 45 29 34 29 36 35 42 29 32 43 37 34 38 20 35 35 34 54 38 28 32 25 32 26 32 24 35 23 32 28 28 27 32 47 38 34 31 36 27 27 41 34 29 35 33 38 34 34 37 31 46 22 37 37 27 24 29 39 31 34 31 35 28 24 28 33 31 21 25 36 38 28 29 30 31 22 31 33 31 29 30 37 27 41 28 37 36 34 37 28 35 37 35 41 55 26 30 42 36 26 34 31 33 36 39 30 37 21 32 39 44 29 28 38 34 28 33 34 35 40 26 33 40 24 31 20 29 33 35 29 30 49 32 29 32 27 34 34 34 23 23 31 30 29 34 28 33 26 38 36 33 41 41 33 36 31 39 30 40 36 25 35 28 34 34 26 19 38 37 30 34 27 32 51 28 29 18 30 36 24 37 34 41 35 28 33 39 25 28 29 28 37 32 33 28 41 34 37 32 31 33 42 32 41 25 34 38 37 32 35 34 40 39 41 32 41 32 34 27 39 35 29 35 26 37 31 33 33 33 18 40 28 43 35 34 32 34 36 42 33 37 32 38 34 24 39 34 37 42 26 36 33 31 36 42 32 32 32 19 27 33 27 29 36 39 26 29 31 43 37 32 37 35 43 28 31 43 29 25 38 42 26 18 43 30 27 33 33 18 35 38 35 26 38 36 35 26 38 35 24 32 33 25 34 42 39 32 33 36 34 39 32 31 32 34 38 32 34 40 25 37 35 34 27 41 22 34 39 39 28 33 30 26 35 29 35 39 32 28 31 32 36 37 26 37 33 25 22 40 34 38 34 33 34 36 33 36 31 29 32 26 39 35 33 31 23 34 27 38 33 36 27 32 32 33 31 36 42 26 35 35 41 35 28 33 30 33 36 43 31 30 23 41 32 27 40 32 28 46 32 33 31 25 39 32 35 27 32 32 37 36 31 33 33 33 28 39 30 32 25 37 34 38 44 42 33 35 38 27 30 22 33 32 26 33 34 37 32 35 39 29 46 36 31 30 44 32 47 33 30 34 29 30 32 41 35 32 38 26 38 24 38 26 29 33 33 29 24 33 45 43 30 41 36 28 33 29 29 30 35 28 33 32 38 38 50 30 24 39 42 35 26 44 42 35 27 37 35 27 34 33 28 39 31 37 28 36 29 36 30 29 36 21 37 39 32 33 36 31 29 37 32 26 33 26 30 24 37 22 29 25 43 46 33 29 34 45 35 33 33 42 36 37 40 31 36 34 25 36 39 42 32 25 36 36 29 35 32 32 35 28 31 31 37 35 35 32 44 25 34 46 38 31 38 36 34 30 35 31 33 29 26 24 31 31 31 34 34 24 27 39 38 34 33 33 31 32 28 36 39 32 34 24 32 49 24 39 41 25 41 32 29 43 30 36 38 38 35 41 30 35 32 36 36 32 33 28 43 36 38 31 36 39 37 43 42 37 36 24 32 42 38 32 36 36 36 38 32 26 39 31 34 35 35 29 41 31 28 26 37 33 23 17 41 35 33 46 39 35 39 28 33 28 23 34 29 32 34 51 30 40 33 32 30 42 35 36 29 38 37 41 44 32 25 31 30 51 26 29 40 29 34 34 30 30 37 45 41 22 26 31 33 27 37 31 31 36 27 30 32 30 24 29 33 35 31 43 32 25 38 33 24 35 31 36 27 30 40 30 39 43 28 24 26 36 42 21 35 36 31 29 31 29 44 23 39 39 29 36 40 29 29 22 33 40 29 32 30 24 35 38 37 48 35 34 35 28 41 34 35 25 31 40 37 34 34 25 39 39 34 42 35 38 27 25 24 33 34 23 34 38 38 43 39 27 31 30 27 34 38 29 26 28 45 40 43 36 32 36 43 33 36 35 33 39 29 28 39 28 30 31 34 36 32 34 40 34 30 32 25 26 35 27 36 34 35 29 30 33 37 32 35 32 34 25 37 31 29 34 32 40 41 35 27 26 28 29 37 29 26 26 36 24 43 35 32 29 35 31 34 25 28 34 41 33 27 31 51 34 26 31 37 29 26 34 29 24 32 33 35 26 22 26 23 31 36 30 21 36 33 36 27 34 34 30 35 35 29 24 27 24 51 30 29 33 35 31 30 34 32 30 33 37 34 28 39 28 35 37 34 31 40 28 25 34 39 28 30 33 37 26 35 30 32 44 40 40 33 34 30 29 48 27 37 30 36 21 27 48 38 28 35 34 32 39 41 33 34 34 29 32 36 36 24 30 37 33 36 38 24 41 32 26 41 34 33 39 26 38 35 36 32 32 27 38 32 31 28 30 25 28 34 43 33 34 33 33 43 32 36 27 28 28 29 36 30 22 36 37 24 30 27 36 33 36 43 34 40 53 36 33 31 32 27 38 23 39 39 30 38 39 31 28 30 35 27 27 30 35 25 24 35 32 25 30 34 37 33 34 33 35 31 35 29 30 27 30 27 36 39 32 47 29 28 30 34 30 41 34 27 41 34 30 30 26 34 40 29 28 28 29 29 38 30 38 34 27 32 24 22 37 36 30 32 32 45 41 31 39 30 27 25 31 25 43 28 27 31 25 29 35 35 28 30 20 35 24 31 36 33 35 34 21 30 29 34 32 30 47 41 37 37 32 35 26 28 29 39 33 38 35 30 25 28 33 35 29 40 29 21 37 27 23 23 42 36 38 28 35 39 35 35 36 29 39 31 39 32 28 36 32 29 34 26 37 32 27 40 37 38 48 35 46 35 32 36 31 30 28 31 39 34 30 35 27 37 32 33 39 40 38 25 27 29 32 38 38 29 33 27 23 29 29 33 35 29 27 31 45 44 30 45 30 43 23 30 30 31 38 22 42 35 22 35 30 37 26 32 32 31 31 30 39 27 39 36 33 39 31 25 32 34 34 42 32 36 37 32 39 38 33 30 27 24 44 26 35 37 32 37 26 32 34 33 36 24 28 43 42 34 43 31 30 24 39 39 30 29 39 32 38 32 32 26 29 32 28 24 29 23 32 35 33 30 34 41 30 33 28 39 31 34 31 38 34 34 37 30 39 29 38 35 38 35 38 36 36 38 35 35 35 27 39 34 35 31 28 38 38 27 28 27 24 36 27 30 40 36 33 29 29 30 22 32 24 36 25 35 29 32 32 34 21 33 34 32 36 38 33 37 32 35 30 39 35 40 28 29 34 34 28 33 33 42 29 27 27 38 28 41 27 39 32 39 27 34 31 33 48 35 40 28 38 32 26 33 36 30 24 47 34 29 35 40 39 32 33 23 30 22 28 36 26 34 31 35 34 31 30 39 31 41 31 28 34 32 33 28 37 44 33 35 31 33 28 41 45 35 26 28 31 38 37 33 44 28 38 35 33 40 34 27 29 36 40 35 25 35 35 27 35 35 38 42 32 29 38 37 30 29 36 31 39 33 36 30 34 29 32 42 38 34 28 23 29 36 42 30 29 27 28 37 32 41 26 34 34 21 43 29 37 25 26 34 30 37 35 23 35 37 28 33 39 39 30 37 30 33 35 32 35 27 31 32 33 32 31 34 37 40 26 31 35 35 25 35 32 40 26 29 36 28 31 35 28 33 37 39 37 36 28 34 27 25 36 33 33 31 33 30 33 30 34 38 30 30 24 38 27 43 32 30 25 23 24 39 29 22 39 32 37 31 28 37 38 22 26 30 36 21 39 33 39 34 36 23 32 31 20 32 32 41 30 37 38 30 38 32 32 28 28 27 43 50 28 35 32 23 32 27 36 19 36 26 37 20 25 40 28 29 33 28 31 39 27 26 32 24 32 35 35 34 34 36 36 37 43 34 31 33 26 31 32 43 32 38 35 24 35 30 32 32 34 35 40 32 35 38 42 34 36 38 31 37 28 22 31 38 33 31 42 34 31 35 37 26 29 25 33 29 45 34 34 37 27 33 32 35 32 34 36 40 34 30 30 44 45 27 31 33 29 33 30 34 35 31 25 33 34 29 39 27 26 31 34 33 26 31 43 33 38 27 41 32 30 37 29 44 29 38 39 31 29 37 30 23 48 38 36 31 27 36 33 28 28 38 42 33 34 34 36 36 33 28 36 26 27 26 39 35 24 36 35 36 28 44 30 38 35 30 28 33 42 32 41 29 33 33 31 32 36 41 33 32 37 31 39 36 31 40 32 38 37 27 18 42 20 30 38 34 34 24 39 32 36 22 19 35 36 40 25 35 36 28 26 27 33 29 32 27 30 29 41 31 24 28 31 38 29 36 31 34 28 27 22 36 24 39 31 43 41 29 32 37 35 29 37 27 31 34 28 27 29 32 27 26 31 29 31 38 37 28 23 28 37 27 44 28 27 25 45 34 31 35 27 32 40 24 23 40 28 33 41 26 31 38 35 35 24 24 21 34 32 38 31 39 40 30 41 34 31 38 41 39 30 26 44 45 29 33 33 34 37 19 27 33 31 30 29 26 39 39 31 35 30 32 41 36 42 33 39 28 42 30 30 33 38 33 42 37 36 38 26 29 37 28 34 34 37 21 34 39 37 27 34 40 24 49 42 34 37 46 31 28 34 34 27 27 40 33 32 37 37 37 24 24 34 30 25 31 28 43 30 26 29 27 28 31 34 37 30 42 32 36 23 33 37 31 32 33 35 35 37 28 36 42 33 38 35 41 30 33 29 25 32 31 33 39 49 34 35 36 32 27 38 38 33 35 33 28 32 42 31 26 35 21 27 34 36 31 32 29 29 30 29 40 33 25 43 45 31 48 30 43 33 27 31 29 35 29 33 31 32 33 33 26 37 41 44 22 32 31 31 42 41 35 31 36 34 41 33 26 22 29 23 33 49 31 34 29 31 34 40 38 29 46 38 31 41 36 24 30 30 31 29 39 32 22 29 41 46 47 21 35 30 33 29 41 36 19 43 27 33 22 32 21 33 35 33 41 38 31 35 33 30 32 41 36 24 22 40 34 23 35 41 25 31 27 32 28 32 38 25 36 32 34 34 42 34 29 27 29 37 29 46 32 43 41 36 33 36 34 45 33 39 31 34 33 25 34 43 35 46 44 38 36 33 28 36 44 39 35 28 30 30 35 35 34 27 34 33 35 38 41 39 26 30 40 35 42 32 35 43 39 33 31 45 29 43 27 26 26 31 49 27 30 34 38 42 38 28 31 31 30 32 30 45 38 36 32 33 32 26 36 34 37 31 47 38 35 28 24 28 33 37 28 30 34 29 32 28 29 28 37 28 25 36 29 32 35 42 36 35 35 38 26 35 32 27 38 31 25 34 45 45 28 30 35 36 36 38 29 28 32 32 29 30 23 30 26 28 29 27 28 33 33 31 32 38 30 31 38 29 33 34 27 28 49 37 36 34 30 29 32 38 39 46 39 25 24 32 40 39 27 35 39 41 28 30 35 30 31 31 36 47 27 32 33 29 30 24 34 28 25 46 37 25 25 34 25 39 34 27 40 36 30 40 33 38 29 42 36 26 27 32 33 24 28 29 24 26 32 46 38 44 42 38 35 29 29 34 29 27 29 28 28 30 34 24 32 33 45 28 36 40 22 32 31 29 32 37 45 19 34 29 26 30 28 32 41 38 43 42 35 33 33 24 34 42 36 29 32 28 31 34 46 42 38 34 29 38 41 34 28 30 34 31 40 35 37 34 33 27 37 44 33 32 33 32 40 36 45 37 40 31 31 47 44 30 28 36 33 41 31 24 28 23 45 43 35 40 29 35 32 36 31 30 32 41 24 34 41 39 34 29 33 36 39 25 29 40 35 35 31 30 26 35 37 39 28 27 25 33 25 27 29 27 36 26 24 27 36 36 26 26 31 37 27 26 31 35 28 36 41 29 30 28 24 25 28 24 28 28 29 36 32 28 50 31 24 34 28 28 33 26 28 37 33 26 27 35 29 37 24 26 28 30 39 30 28 49 42 36 26 29 40 40 26 32 25 53 35 25 38 29 44 40 37 30 28 35 33 29 44 18 34 39 29 36 31 32 44 31 39 36 25 29 29 34 36 38 30 41 42 38 37 27 37 34 39 28 35 38 26 27 30 27 31 36 30 32 37 34 29 38 40 31 31 31 24 30 32 34 32 38 38 33 30 54 32 36 26 21 29 25 53 23 24 31 34 28 40 35 42 29 29 24 31 37 28 30 27 41 34 26 40 37 24 24 28 37 44 30 38 37 26 39 36 39 35 34 32 29 37 38 34 32 41 33 30 37 34 38 30 25 33 33 36 35 26 33 29 43 33 32 35 22 33 29 34 23 35 38 32 31 31 35 48 38 26 33 42 31 40 37 32 54 33 32 43 35 42 29 26 24 33 34 30 35 32 41 41 29 41 28 42 33 49 28 38 33 26 30 36 35 29 28 23 41 41 37 27 31 29 45 31 34 42 30 38 28 28 28 29 34 27 33 27 32 34 25 32 35 25 37 37 39 28 34 34 37 26 41 28 21 32 30 33 38 32 32 27 33 33 36 28 27 35 35 38 30 30 38 21 33 29 31 32 33 40 40 36 28 27 35 33 21 53 34 40 40 30 38 43 33 32 30 33 36 38 28 28 33 31 31 30 40 29 46 33 31 35 28 33 32 43 38 37 41 31 40 31 31 31 32 37 38 31 32 40 35 30 32 28 37 32 29 32 43 31 28 33 25 34 32 28 25 34 47 28 39 34 32 27 43 41 41 35 30 37 32 41 35 36 35 32 29 36 38 33 42 37 27 30 33 35 29 30 48 26 42 26 32 39 29 30 31 37 23 29 37 31 38 38 39 45 33 33 28 31 32 34 31 32 29 29 29 26 31 23 40 42 30 36 29 32 29 33 37 33 37 44 31 38 33 32 27 35 32 25 27 26 33 26 34 38 43 29 39 32 31 39 36 36 26 37 44 36 24 38 40 53 43 30 37 43 23 34 35 24 36 31 32 31 29 33 26 25 29 39 24 25 36 32 29 33 28 35 38 31 45 30 39 30 32 35 39 31 39 27 38 29 34 31 26 34 32 26 38 36 29 44 31 37 32 33 29 37 30 27 37 28 33 39 37 29 32 49 33 27 30 32 34 29 40 30 44 32 28 28 37 34 35 27 31 38 31 33 38 36 33 44 29 31 33 37 30 35 32 33 36 31 26 37 35 34 35 32 37 25 35 40 40 36 33 44 36 32 41 34 35 28 37 32 34 27 21 36 38 29 39 44 48 28 30 35 36 34 33 46 28 35 27 44 35 36 32 30 29 38 30 27 28 37 37 35 38 40 26 35 27 29 39 25 26 27 34 44 31 36 21 26 25 30 35 26 22 24 38 30 38 28 31 31 23 30 38 31 41 24 23 39 36 36 41 37 30 34 30 35 39 25 35 30 38 28 37 40 40 33 29 39 42 36 29 33 41 35 28 34 29 46 37 33 45 36 26 32 39 35 27 31 39 33 42 27 22 27 29 30 29 34 40 32 34 33 25 30 28 34 25 25 45 31 25 33 24 34 33 32 29 34 28 32 24 39 34 49 29 31 35 29 29 24 41 35 36 39 25 40 29 33 27 33 29 42 35 31 30 36 25 26 44 28 38 33 34 29 33 36 37 37 36 30 29 38 38 39 45 25 27 31 30 32 30 36 45 27 34 32 38 24 31 27 31 32 37 30 41 34 30 41 32 30 35 36 29 41 18 42 37 34 32 35 30 29 25 27 33 39 33 36 26 34 27 28 23 31 30 36 46 25 35 37 30 34 30 50 43 32 31 31 31 34 26 24 38 42 27 40 46 32 27 36 35 34 35 44 29 27 30 30 37 38 34 36 35 26 44 38 34 31 44 35 24 28 37 26 21 30 40 33 40 27 40 43 31 27 25 23 37 37 29 36 43 38 36 42 40 32 29 32 31 39 35 34 37 31 42 26 37 34 23 33 28 37 43 31 32 31 33 32 31 38 22 32 30 43 34 37 48 47 33 33 37 29 34 26 31 32 34 31 34 34 32 39 37 27 30 33 31 37 27 31 32 35 33 45 30 37 26 34 29 39 33 44 32 26 39 35 29 27 37 37 24 28 30 33 35 38 29 36 33 25 36 26 29 31 37 36 38 41 40 24 41 30 34 38 31 33 31 29 30 35 33 31 47 33 46 24 44 37 34 36 27 35 26 33 33 31 29 32 45 41 32 32 29 34 35 36 34 38 33 23 38 31 35 30 32 31 29 33 47 24 35 36 38 44 28 46 31 26 34 31 23 38 35 42 31 32 32 40 33 24 29 25 37 40 38 34 26 29 26 26 32 30 38 34 34 37 31 42 37 40 29 27 30 27 40 38 38 29 29 27 29 35 34 30 36 35 33 26 34 31 31 28 43 29 40 22 34 35 27 43 32 41 31 42 40 25 31 42 41 24 34 29 40 28 39 40 34 40 34 29 32 26 33 35 26 31 29 36 41 37 36 29 37 30 38 37 31 45 30 35 27 35 51 28 23 35 37 38 44 28 30 30 35 35 31 36 28 27 24 30 36 29 29 35 25 38 35 36 28 36 28 40 28 21 32 30 33 23 30 31 38 49 33 33 33 23 37 29 31 39 36 38 34 26 30 34 30 35 36 36 37 35 30 33 33 39 30 27 30 30 31 32 35 34 47 27 42 30 40 42 30 27 30 33 40 33 29 35 29 28 33 41 35 26 30 31 28 28 32 35 33 34 22 28 44 32 36 25 29 25 36 39 32 27 23 38 33 41 32 29 26 28 33 29 32 35 32 28 26 26 35 24 33 35 37 27 33 39 23 30 35 24 26 25 31 41 35 43 34 28 38 42 33 28 30 32 38 28 26 35 39 38 40 24 28 43 27 33 30 26 42 44 43 35 35 34 38 26 26 35 45 36 36 48 36 28 29 35 35 28 36 36 25 26 22 33 23 37 34 38 41 29 31 24 37 36 33 23 42 29 30 47 26 32 24 48 40 32 36 41 28 42 34 36 34 24 38 33 38 29 29 31 33 36 21 28 37 27 35 36 39 35 26 32 30 29 39 46 39 27 45 45 40 33 40 30 33 31 36 35 34 30 36 38 42 44 34 31 38 37 27 38 35 33 36 36 29 33 26 31 26 41 35 27 40 28 44 39 54 36 34 22 31 22 39 31 31 31 32 34 33 38 37 25 28 31 29 41 42 23 26 25 38 33 27 32 53 33 25 26 24 26 43 35 29 32 29 33 37 35 32 29 32 32 39 33 30 38 26 33 38 25 27 28 34 28 28 38 31 34 36 32 38 34 28 38 27 37 43 31 21 26 33 34 40 34 27 47 26 37 29 31 36 39 29 31 28 29 36 31 29 34 31 36 38 30 49 31 21 33 34 41 28 32 38 42 31 32 23 41 28 36 23 34 35 42 29 38 29 33 31 29 31 33 38 31 34 33 37 28 36 35 36 38 26 35 30 27 33 34 36 38 35 35 31 28 34 30 37 36 23 31 27 34 39 32 35 26 23 28 34 28 43 25 28 40 28 34 31 32 31 30 25 24 27 27 40 33 30 36 20 31 31 36 26 37 32 33 40 27 25 42 26 31 28 30 34 37 30 39 31 22 39 22 28 32 33 30 31 37 27 31 34 34 35 49 28 49 41 38 35 21 42 36 30 40 42 26 32 40 27 26 29 30 29 32 26 29 37 35 33 23 21 33 33 35 40 29 36 33 29 38 31 45 30 40 26 26 30 23 29 26 33 48 33 31 26 38 31 18 32 37 22 29 26 44 32 29 37 29 35 37 24 31 38 30 33 35 28 40 35 32 41 34 36 24 41 34 34 39 40 35 25 32 37 34 37 40 28 40 37 29 33 31 31 33 36 35 40 28 40 29 28 34 28 37 43 41 32 42 29 37 23 39 32 38 31 20 27 24 38 31 38 22 27 48 26 34 26 27 37 44 33 40 43 39 25 36 27 34 33 32 41 22 36 33 35 29 41 32 32 25 26 30 35 36 33 35 32 31 37 24 35 39 33 30 24 46 29 29 35 36 33 39 30 41 26 32 44 28 31 46 33 27 34 28 31 33 40 36 44 34 42 49 28 42 33 41 35 26 29 22 34 23 30 26 33 31 42 34 27 28 36 25 38 26 26 30 27 39 34 28 28 26 41 36 40 33 22 34 42 33 33 34 43 35 41 33 29 39 44 38 40 27 35 29 35 35 42 29 28 28 32 31 25 34 27 39 31 40 30 33 36 41 46 36 39 32 37 31 41 23 33 37 46 34 25 47 30 38 26 32 30 34 27 41 28 29 39 28 36 53 38 32 37 34 37 35 33 29 34 45 48 48 35 28 23 28 27 39 30 31 39 30 30 30 45 37 35 31 31 39 28 36 36 38 39 30 37 32 28 35 38 27 35 30 36 33 29 37 26 24 28 31 30 38 26 37 33 34 27 24 32 42 31 28 31 33 23 26 30 36 32 39 23 38 27 23 33 46 34 33 39 27 37 49 27 56 45 31 26 34 35 29 33 37 29 42 39 34 37 33 33 39 35 26 22 35 26 28 31 29 36 30 29 40 30 39 26 47 33 36 36 31 41 30 41 36 34 26 28 31 40 41 34 24 34 29 33 32 40 32 39 32 26 28 37 41 38 18 23 34 29 34 29 30 41 34 30 38 36 27 36 32 42 41 33 27 36 35 23 41 28 46 33 30 44 37 35 36 37 28 28 36 34 22 34 31 18 36 30 33 33 39 33 40 38 35 37 33 30 37 29 35 34 30 34 31 31 31 35 27 35 40 36 30 35 20 26 33 34 39 44 25 44 35 27 27 29 31 34 27 37 28 30 36 33 37 25 29 39 39 34 32 35 33 44 39 26 32 32 41 31 41 33 35 35 30 36 28 40 43 34 25 42 35 34 37 31 24 32 34 31 37 44 27 34 35 41 23 30 35 46 39 35 37 43 38 34 33 23 33 32 31 34 46 28 30 39 40 30 25 24 55 29 33 46 41 25 33 32 37 39 31 26 28 31 37 23 36 26 36 33 42 30 30 40 30 28 40 37 27 30 43 40 47 42 35 30 36 37 38 30 37 33 36 37 34 37 34 31 35 29 34 29 34 36 28 37 33 32 32 28 32 30 51 38 38 37 38 27 26 32 44 31 35 36 28 32 43 39 44 30 26 23 32 25 25 34 41 24 34 29 34 36 34 29 34 22 34 21 41 41 28 24 29 40 45 37 38 33 31 41 31 25 31 46 35 44 30 33 30 35 33 27 38 31 35 56 37 42 34 38 37 44 25 37 30 35 35 42 33 37 33 26 42 38 25 24 37 38 21 29 40 32 37 22 32 35 34 20 42 28 31 33 36 40 32 31 37 35 34 36 41 28 36 32 40 29 33 40 26 25 39 43 27 34 30 26 33 30 35 38 21 35 36 34 23 36 40 25 34 39 33 40 25 37 35 35 28 29 51 31 24 26 38 30 35 32 37 47 26 28 29 30 29 36 46 31 37 43 28 37 32 23 29 32 33 32 23 27 40 23 32 32 41 29 36 25 36 41 33 30 30 39 26 31 34 32 33 20 28 31 33 41 35 36 32 27 35 30 47 33 46 33 45 42 32 38 33 33 31 19 34 32 30 39 36 31 28 34 38 38 27 31 37 35 31 34 38 30 36 26 29 23 33 32 39 33 25 36 32 35 33 37 34 32 31 32 37 41 30 25 25 30 36 41 33 33 42 41 27 25 37 30 30 36 43 38 44 42 27 38 33 30 31 34 26 32 44 25 34 40 25 31 29 39 20 32 21 29 27 34 34 36 40 37 23 38 30 34 32 32 32 30 35 32 35 37 34 35 35 42 32 44 33 28 35 39 25 31 34 34 27 37 38 26 37 35 48 34 25 32 25 39 23 36 30 29 37 26 24 47 40 29 35 35 39 30 31 31 32 22 30 29 27 28 39 36 30 33 40 27 26 31 33 35 29 27 30 29 40 39 31 43 40 50 34 34 42 25 39 46 30 33 38 34 34 39 23 31 33 47 33 32 22 33 39 39 23 34 33 31 30 32 31 33 36 42 48 35 26 34 21 34 30 31 31 21 36 40 27 31 43 42 38 43 32 39 31 35 27 41 32 36 38 39 34 32 21 37 42 28 27 31 26 26 35 30 40 25 32 32 38 39 31 44 33 32 32 23 35 32 27 36 33 36 29 32 37 37 47 27 31 38 32 29 29 34 36 36 34 40 38 38 36 31 35 48 36 43 38 35 34 31 35 27 33 33 42 33 30 44 31 31 33 33 40 31 36 32 35 32 36 25 40 35 44 31 27 29 36 41 39 30 32 39 32 29 34 33 45 36 43 33 32 24 32 38 35 38 27 38 36 26 25 28 32 30 33 30 41 24 34 26 31 32 22 32 34 47 32 48 34 45 31 31 33 33 35 44 33 35 29 38 34 32 40 26 36 39 30 38 38 31 44 27 33 30 31 25 22 27 30 33 32 31 26 28 41 40 31 24 32 25 38 29 34 35 38 33 39 34 43 31 25 35 35 37 26 38 31 39 28 25 33 33 35 31 27 31 40 28 30 36 36 26 37 37 28 29 30 34 36 47 35 19 28 26 21 37 29 25 28 27 27 29 30 38 34 23 32 30 35 28 33 31 35 33 32 28 50 38 31 33 39 37 44 43 35 31 30 42 33 38 34 31 26 35 41 36 38 36 34 34 27 38 26 46 27 39 31 25 25 40 34 31 37 31 36 31 38 31 27 53 21 39 28 25 32 33 28 37 29 32 35 41 37 32 26 37 26 33 33 27 42 25 40 31 21 32 35 24 33 36 35 33 28 30 40 24 27 25 35 43 35 29 45 37 36 37 37 33 29 37 35 29 35 35 30 38 38 27 37 26 40 28 26 40 33 33 32 32 39 34 24 29 39 38 34 36 29 23 41 35 29 28 28 36 31 26 30 36 25 25 28 36 48 30 29 28 37 38 28 27 32 33 27 49 32 22 29 29 30 34 36 25 30 27 29 46 35 29 30 43 35 33 31 27 35 30 42 38 25 18 30 27 29 27 32 25 35 31 38 31 35 31 26 30 29 39 37 39 27 37 36 43 15 31 29 33 45 34 35 25 25 31 32 32 27 30 34 32 28 32 39 42 28 32 36 33 35 34 21 30 21 35 27 28 29 30 41 33 42 32 25 34 27 43 34 30 24 22 35 34 35 38 24 27 38 35 27 38 29 26 45 34 30 27 27 36 32 33 27 43 33 31 31 36 32 30 37 27 39 29 40 28 24 28 37 36 31 32 39 26 34 38 38 33 23 46 35 29 32 21 40 37 33 31 32 40 40 22 26 33 23 41 40 29 23 37 40 32 45 31 38 35 45 35 31 28 39 45 36 38 34 27 30 33 38 33 33 27 32 42 44 31 26 31 39 37 47 38 29 36 27 39 32 32 49 32 25 32 26 34 36 40 31 20 22 27 39 42 34 27 23 33 35 30 35 32 32 55 36 34 31 38 33 33 33 37 41 29 38 38 26 37 28 28 34 40 31 43 36 35 33 27 31 30 30 30 34 32 40 36 27 32 33 33 35 27 30 31 28 39 32 33 25 43 30 33 47 29 30 34 34 42 35 28 27 33 39 35 28 22 19 32 34 33 32 41 35 30 34 31 20 22 30 35 43 40 30 29 30 31 38 28 35 40 36 34 40 40 24 32 26 21 42 37 36 41 40 35 33 35 23 36 38 38 37 30 29 38 26 38 37 27 36 28 33 33 41 26 42 31 34 35 31 31 27 24 31 38 25 33 39 25 35 31 33 37 38 39 37 34 38 40 27 31 29 31 23 32 21 25 33 39 26 35 31 42 30 34 36 33 35 37 26 28 21 25 32 35 27 37 31 28 30 27 33 40 37 29 37 40 30 39 37 30 34 30 35 25 30 33 42 33 46 32 44 27 33 35 27 28 27 36 28 25 32 47 27 44 42 40 36 26 26 24 32 25 37 39 27 30 33 36 32 45 29 33 42 30 27 23 35 30 32 30 28 38 39 36 37 27 26 30 46 27 34 33 35 47 35 32 27 34 31 40 39 39 35 20 26 38 27 37 28 32 33 31 24 28 29 30 30 34 29 37 29 32 26 35 32 38 25 42 43 52 25 32 33 29 32 32 27 28 27 35 32 37 31 27 52 32 35 23 40 38 28 32 32 31 32 31 29 30 28 32 34 36 23 35 33 22 30 27 28 36 32 33 30 34 24 37 31 30 37 22 36 32 30 34 27 34 30 36 37 24 32 32 28 36 40 34 24 31 41 38 28 33 27 54 33 32 35 32 28 27 36 34 25 28 37 27 38 30 40 26 34 36 30 29 34 27 43 33 31 27 39 30 36 32 26 31 37 41 28 28 29 33 30 31 34 49 38 29 35 38 26 34 32 30 38 37 36 45 35 34 28 47 40 34 38 31 36 26 30 37 38 26 26 29 24 35 31 33 29 38 31 34 44 40 33 35 30 32 45 28 31 24 34 28 34 31 32 32 26 43 35 24 34 36 31 36 34 35 36 27 28 35 30 21 29 33 28 26 31 33 41 37 41 34 35 36 32 45 26 31 35 36 32 19 30 42 31 30 30 35 40 36 23 37 34 32 40 35 35 44 23 24 32 34 40 27 33 34 36 26 36 30 26 34 38 33 38 45 22 26 32 34 32 32 32 39 37 32 27 27 26 30 27 36 31 37 28 20 37 39 37 33 46 23 29 32 23 26 27 39 27 30 33 35 27 42 38 35 36 39 32 40 35 34 30 27 27 30 37 36 30 34 27 36 39 31 28 47 31 37 32 32 29 36 35 39 35 31 31 33 44 33 30 34 35 23 32 31 30 35 28 39 31 34 33 39 32 40 38 39 20 42 26 42 32 32 47 25 31 32 20 30 32 30 29 32 43 34 34 39 33 41 34 30 31 33 41 32 34 42 33 39 32 38 29 33 44 35 31 36 32 31 28 30 35 26 24 37 34 34 32 31 32 32 43 38 36 40 36 36 42 36 41 30 31 34 44 27 19 36 32 27 39 39 34 38 25 37 40 28 32 37 31 35 27 26 30 43 29 32 31 36 39 34 32 26 33 39 42 30 36 30 32 47 31 40 23 30 27 36 47 35 34 42 23 34 30 27 38 34 18 29 37 38 45 33 29 39 29 26 29 48 27 36 33 40 29 43 41 27 32 29 33 32 32 20 34 30 38 37 34 34 39 38 34 27 44 26 33 27 39 27 33 29 32 31 40 31 31 26 33 37 21 40 30 32 32 29 32 36 33 35 29 24 37 27 24 34 35 37 35 33 33 35 36 29 33 22 30 35 37 35 37 34 32 31 37 25 28 37 29 40 37 42 27 36 42 46 29 30 37 37 33 39 47 42 21 35 46 37 32 35 33 48 28 28 31 33 40 34 35 33 38 37 35 27 32 37 41 25 28 30 27 31 35 28 37 34 33 38 36 48 25 32 24 23 42 29 43 41 32 44 25 35 33 30 41 39 29 34 33 43 36 28 26 34 31 39 32 46 35 30 34 46 48 29 33 38 32 46 43 39 24 41 27 34 32 31 36 29 30 37 29 32 26 33 37 27 23 36 30 38 23 38 24 42 32 36 42 34 39 23 29 17 39 37 31 34 37 39 30 33 32 27 28 35 35 27 38 25 30 37 25 26 36 33 30 32 35 27 36 31 45 34 33 27 29 32 32 30 25 27 40 35 34 34 47 20 26 33 30 38 33 49 35 23 36 25 32 36 38 38 47 30 32 27 33 25 25 38 42 43 44 28 42 35 45 35 31 38 33 30 41 31 35 37 31 34 28 43 38 34 32 33 45 23 38 36 38 32 36 25 42 32 24 28 42 20 34 42 39 26 40 39 32 36 26 37 36 31 27 36 35 33 32 24 44 30 43 25 46 22 34 38 35 32 33 47 37 38 45 33 42 25 36 28 29 33 38 39 27 32 34 51 30 35 39 20 32 33 40 28 26 32 27 25 38 36 36 37 29 36 37 40 41 39 32 41 41 22 33 27 39 38 23 35 36 28 36 33 36 37 29 27 30 32 37 30 32 31 32 29 38 36 33 29 28 35 35 33 34 28 29 44 28 44 44 29 35 45 43 37 27 30 30 37 26 35 38 35 32 34 30 31 34 39 34 46 36 28 41 34 32 26 42 35 34 27 37 28 30 25 41 27 28 25 29 37 36 38 24 31 38 42 38 28 31 31 35 28 28 42 31 26 44 29 35 33 32 31 34 27 35 36 37 47 33 37 30 23 26 33 31 22 28 21 25 31 32 27 28 38 38 32 27 29 45 35 35 31 38 32 22 43 28 36 23 34 35 40 39 32 33 35 33 27 42 47 15 36 35 41 45 29 34 40 33 31 39 26 29 41 35 38 26 32 29 43 30 31 32 40 38 33 33 23 35 31 21 28 31 35 27 30 43 24 32 32 36 40 28 38 37 41 34 37 33 24 21 29 36 38 34 45 22 30 44 34 27 28 35 36 37 41 29 34 26 28 37 35 33 31 31 33 26 25 27 30 44 46 32 35 35 27 32 28 27 34 24 25 39 44 34 31 22 33 22 41 37 22 28 34 32 35 34 26 36 46 38 32 29 37 31 50 43 40 37 38 31 30 32 25 36 36 33 39 38 29 27 26 35 30 30 32 33 24 26 42 29 41 32 41 26 34 36 27 26 29 28 35 22 29 59 40 32 25 28 44 32 39 30 38 31 34 43 43 31 24 33 39 36 25 34</t>
-  </si>
-  <si>
-    <t>GAM(131.80036444164455, -300.6795626734613, 4.108379086611791)</t>
-  </si>
-  <si>
-    <t>245 323 217 211 190 288 237 322 222 207 263 191 170 180 141 212 224 244 285 245 283 262 324 239 238 178 222 265 171 278 265 172 245 172 216 235 253 276 237 208 219 303 268 247 256 246 223 192 227 210 256 232 229 226 229 196 246 214 218 278 189 242 274 259 182 311 197 189 278 196 205 309 237 299 215 213 299 278 220 216 233 263 252 158 217 136 278 247 182 273 187 245 193 206 293 256 183 216 262 219 238 284 183 162 223 260 234 239 219 253 212 310 213 241 204 311 277 276 214 144 211 280 281 311 182 214 358 211 209 285 287 315 264 283 240 203 187 175 253 235 244 265 252 334 235 231 276 248 334 262 231 235 269 270 217 297 331 165 272 251 309 195 227 253 293 236 261 244 160 281 262 304 249 201 288 219 244 226 286 336 245 210 167 303 184 335 267 200 228 209 236 233 238 263 137 270 325 246 187 212 237 250 179 156 264 279 204 229 334 242 236 324 234 222 195 259 165 279 217 333 255 243 267 175 255 327 293 233 245 274 189 281 230 203 294 177 203 274 186 201 232 190 246 261 238 193 213 256 189 246 238 252 246 212 254 186 349 236 202 167 316 228 250 222 253 288 239 251 345 254 200 167 230 282 334 266 182 178 328 265 217 275 341 247 178 219 163 288 247 298 334 267 190 322 324 306 260 358 232 254 225 199 276 245 220 225 328 222 200 171 260 249 289 254 223 258 285 272 240 249 274 271 162 208 264 256 282 238 233 242 221 222 262 182 200 236 171 216 288 235 189 196 285 340 232 208 225 240 280 210 235 237 241 258 268 157 248 170 263 257 209 245 345 312 245 210 239 246 213 234 277 215 302 281 177 315 325 193 219 231 191 249 193 278 241 239 202 188 293 206 254 221 256 270 298 216 293 230 220 196 244 259 152 168 291 193 286 257 158 258 227 232 260 304 297 242 213 227 220 276 336 226 292 214 275 150 185 271 167 223 271 197 252 203 236 304 218 195 269 208 290 247 235 324 244 243 232 171 275 249 237 232 259 259 196 223 249 184 255 275 195 328 218 254 248 207 272 184 300 231 184 194 252 197 277 205 201 310 235 282 236 306 156 263 244 262 251 412 275 207 210 173 173 204 262 288 384 221 193 274 258 202 253 206 186 286 302 261 283 164 232 253 314 312 315 204 223 263 251 250 181 213 297 232 211 330 183 192 221 250 193 203 199 137 189 275 288 352 315 215 204 249 332 223 292 254 216 329 160 230 251 181 325 211 200 190 297 256 278 181 206 181 304 219 277 293 221 298 309 225 270 183 235 202 244 342 202 305 265 254 195 168 249 179 322 102 199 211 238 238 218 277 203 216 263 239 274 250 223 213 251 233 284 210 241 218 242 321 219 205 279 224 225 186 379 293 342 288 228 278 272 225 297 213 231 243 296 249 271 198 181 243 249 189 229 334 251 211 210 242 211 173 249 181 258 202 165 234 252 210 335 286 205 251 211 204 229 242 261 289 165 246 242 303 243 254 241 235 206 263 263 158 204 206 229 177 277 237 189 348 203 255 223 392 249 222 308 233 205 251 222 249 275 253 175 188 295 320 275 169 186 231 221 206 256 189 267 209 363 190 168 265 265 279 259 210 177 255 189 239 195 233 227 174 212 238 287 265 274 195 255 210 241 263 176 225 267 267 279 183 285 190 237 215 189 264 225 202 252 216 204 248 119 259 235 249 346 140 223 204 266 296 256 295 270 275 164 211 258 296 149 283 201 347 260 186 206 289 253 266 216 213 202 233 263 275 236 249 190 215 232 279 183 230 188 250 282 329 213 247 240 229 229 277 317 244 288 167 267 127 272 270 299 296 304 197 177 241 294 304 173 251 305 202 292 299 158 160 303 197 246 215 197 175 297 289 274 209 243 275 254 308 175 175 260 183 132 224 213 203 303 189 239 192 205 243 327 167 230 197 280 291 339 174 203 334 228 236 225 145 294 126 225 173 246 277 265 330 230 235 255 295 252 251 290 272 196 225 253 186 205 202 159 206 258 278 240 190 190 177 247 295 287 248 230 268 236 225 234 235 295 276 264 260 246 281 228 207 292 215 206 190 187 175 188 280 258 233 209 250 193 194 220 264 245 208 291 263 165 210 284 164 271 254 218 290 209 232 204 216 209 203 236 252 210 289 253 245 147 225 221 277 256 202 258 327 335 273 292 254 177 245 241 264 267 224 215 199 189 220 196 237 300 197 221 183 200 278 224 249 187 236 346 256 178 204 136 226 312 226 249 267 224 249 219 253 264 167 210 250 335 277 306 197 267 206 228 161 220 261 219 253 235 194 233 250 223 276 234 251 217 198 154 252 260 245 257 196 191 265 291 235 226 169 224 243 270 274 240 211 179 261 171 242 238 312 324 281 241 174 222 294 337 236 280 250 291 255 195 291 217 188 244 158 134 204 238 198 294 123 207 271 172 211 269 183 185 145 237 229 309 216 292 330 245 255 194 227 221 178 192 151 249 162 223 244 289 193 206 170 218 266 270 321 218 199 264 255 271 223 289 305 289 310 137 324 234 210 276 210 198 198 249 218 241 253 335 235 229 237 217 208 254 241 193 231 184 175 213 262 271 176 259 218 279 194 244 211 243 274 254 245 232 247 251 206 291 292 221 184 323 224 189 217 255 234 234 285 241 247 213 243 193 232 178 243 300 189 185 168 243 236 228 217 307 360 263 351 216 237 189 230 240 241 300 258 178 185 226 240 273 266 273 246 209 207 271 328 284 248 263 191 143 146 224 180 244 230 233 251 231 184 205 253 283 226 255 226 278 289 240 195 176 295 278 343 246 226 261 232 289 201 235 137 294 248 272 211 152 244 197 250 210 259 239 171 180 234 224 211 181 241 266 215 188 286 258 230 230 341 228 363 279 259 226 208 179 244 232 275 199 276 248 204 250 182 249 214 231 216 192 177 204 282 229 198 225 203 222 271 250 243 296 227 164 336 235 238 150 272 176 267 232 182 183 344 239 260 159 251 231 279 233 202 308 165 145 256 178 277 246 222 140 177 262 172 290 250 171 280 277 254 146 184 266 239 294 301 192 243 229 336 286 174 144 302 320 223 233 233 228 244 209 183 202 326 322 191 137 249 246 276 268 200 332 219 272 217 266 256 111 206 203 194 279 245 186 183 305 218 212 206 243 237 216 244 258 377 153 294 273 263 277 250 271 253 287 165 232 210 241 229 271 303 268 239 239 285 358 264 263 278 196 275 312 180 277 214 203 262 200 268 250 244 207 185 271 215 241 178 218 202 263 168 207 229 202 139 184 235 309 227 236 360 259 234 237 277 378 167 219 285 234 278 263 174 215 205 299 291 206 313 250 257 236 224 147 249 259 298 374 345 276 232 220 240 143 279 325 261 237 221 249 212 182 164 223 196 288 306 217 251 320 320 197 232 382 237 298 116 210 215 268 260 160 217 159 228 345 282 300 237 270 316 173 328 281 280 353 220 151 228 185 218 200 285 207 259 274 197 264 223 147 286 214 247 239 271 272 205 270 264 229 265 283 209 317 236 229 264 276 199 199 293 160 279 269 275 246 240 203 151 198 188 296 364 195 241 200 319 254 297 233 232 229 240 262 263 169 181 357 300 215 329 244 240 196 265 238 250 297 314 235 288 239 196 285 275 201 252 236 285 268 250 199 227 264 160 203 309 157 207 184 245 270 260 233 259 208 265 296 201 278 204 183 295 241 191 298 166 224 291 228 332 275 299 290 235 235 238 389 195 146 214 245 259 159 299 270 281 219 221 234 224 182 327 246 348 254 288 219 219 263 219 210 209 254 155 266 253 192 231 176 332 238 180 177 218 304 209 276 177 284 244 256 358 212 274 213 110 253 228 182 242 236 213 272 180 203 308 111 181 229 247 255 273 290 201 221 243 262 139 283 262 197 225 240 213 243 327 248 228 155 222 103 274 210 237 217 146 241 293 211 283 267 288 237 199 244 260 241 196 260 198 251 189 224 156 253 225 239 217 164 271 271 193 278 240 250 236 284 242 203 235 185 222 149 219 267 247 320 243 229 249 238 268 290 271 337 239 241 273 239 295 256 206 321 203 261 214 322 269 248 277 298 297 255 274 231 237 158 177 316 267 153 271 256 195 248 318 304 244 182 209 191 274 255 298 209 353 282 161 225 196 283 226 279 306 253 238 284 378 181 181 261 213 235 208 138 200 271 314 251 240 248 221 204 247 245 126 148 270 286 181 223 224 179 145 190 217 259 160 234 206 378 196 220 182 235 222 289 242 286 184 284 256 207 212 250 265 169 214 203 270 268 249 289 344 180 257 273 279 204 267 349 313 268 243 298 186 260 234 249 278 274 290 282 197 196 170 291 227 262 213 245 358 187 215 274 133 270 186 258 228 131 193 216 218 181 212 194 248 224 301 183 245 253 281 313 273 235 180 175 260 152 266 245 243 282 274 220 217 258 277 206 275 187 181 183 172 211 178 304 203 240 239 279 206 270 263 187 263 268 319 288 219 224 252 246 257 255 292 207 261 239 232 293 209 220 264 330 267 192 237 254 278 208 291 180 217 244 215 246 347 267 307 282 187 233 200 309 236 222 265 208 264 229 256 242 190 251 204 220 142 224 208 276 229 202 223 213 178 318 232 226 254 224 191 205 174 269 188 282 234 208 357 206 270 249 217 347 232 230 287 268 214 187 299 254 273 241 191 206 195 209 158 273 229 246 212 251 276 296 150 267 216 266 274 201 195 263 210 218 171 151 181 246 239 169 200 184 183 237 227 212 263 262 269 185 239 217 200 229 213 216 250 321 295 291 228 185 160 214 215 264 223 296 266 232 210 254 258 243 231 217 214 244 319 244 256 214 331 190 234 242 220 354 258 251 269 183 240 243 259 182 258 215 328 266 275 271 342 243 263 209 180 274 331 196 213 268 297 203 226 227 252 232 220 250 253 231 201 222 203 284 249 283 242 264 222 245 224 227 124 210 220 236 240 191 193 264 249 292 249 291 231 194 218 215 284 221 260 217 331 207 179 162 271 320 283 218 232 164 230 217 172 172 304 310 310 305 170 355 264 243 275 261 297 241 236 199 400 196 232 255 209 244 306 301 256 217 172 310 309 228 278 227 239 209 208 214 228 156 194 193 337 199 280 285 260 197 161 269 201 214 263 282 317 245 281 220 199 236 252 234 175 231 304 212 211 223 266 135 295 285 183 199 268 192 276 211 261 233 155 224 291 277 246 164 181 201 197 219 154 250 231 274 260 267 183 151 237 235 240 222 270 358 181 274 250 217 135 220 181 349 196 275 200 346 153 215 224 229 212 252 202 275 261 112 259 258 169 219 237 213 237 203 208 238 259 171 238 199 240 262 294 203 230 249 224 281 200 274 164 366 250 268 246 208 279 304 192 196 228 309 197 293 144 289 214 299 243 189 230 197 204 241 203 322 283 248 187 205 305 238 189 262 347 277 241 293 255 284 237 231 307 251 278 253 263 198 229 194 276 145 268 244 236 247 231 318 299 241 292 259 168 172 179 302 228 245 329 240 272 229 234 203 251 209 199 253 221 232 302 191 189 196 179 348 236 261 320 178 223 270 240 160 302 236 294 208 181 241 294 185 163 235 227 278 212 237 318 278 177 280 170 299 231 252 328 226 174 188 316 206 203 271 255 280 220 132 272 258 212 171 263 288 260 222 154 264 245 278 365 298 347 199 155 219 119 308 189 296 324 258 153 269 272 271 230 245 229 150 231 223 199 209 285 235 290 261 282 201 155 226 184 260 315 273 232 266 244 212 271 192 207 275 229 215 255 278 257 230 255 210 211 280 264 226 197 155 347 269 275 252 300 227 274 179 160 247 290 219 187 213 348 246 192 222 247 137 210 312 265 296 241 239 184 320 212 269 217 290 212 262 222 271 250 195 244 271 167 235 326 286 250 334 147 242 277 247 322 264 207 230 212 213 168 225 197 293 162 259 225 214 179 238 341 225 240 215 298 149 302 289 222 235 191 279 212 225 280 256 234 310 159 272 267 239 196 194 184 208 265 271 260 218 175 202 265 306 118 256 257 293 250 244 188 231 212 229 244 201 202 272 199 217 305 228 263 288 220 259 184 298 274 280 287 360 203 211 260 331 196 264 255 223 241 248 219 173 137 265 323 322 212 216 296 241 197 226 228 221 296 214 279 325 176 232 147 197 246 212 220 290 367 227 250 226 184 256 247 266 152 197 205 247 215 278 224 240 248 313 234 242 287 331 251 297 232 365 241 313 230 169 245 190 273 221 206 141 247 242 237 236 193 237 344 235 158 126 246 257 172 270 231 264 202 195 238 293 143 191 236 137 299 259 255 256 258 276 287 256 250 239 263 267 208 162 263 243 227 285 281 232 283 282 275 260 266 215 300 183 291 224 198 216 179 250 254 274 204 172 138 262 174 382 261 206 232 260 208 333 205 216 213 310 197 205 352 224 279 297 190 220 234 225 302 256 232 243 193 118 250 206 196 185 275 247 171 195 246 322 229 278 279 288 304 207 291 277 234 186 298 252 236 193 340 189 194 267 248 138 253 297 299 170 306 256 240 199 235 212 178 182 266 175 235 304 318 211 209 274 209 289 181 263 265 239 210 251 241 291 199 293 295 232 180 249 153 263 258 288 206 203 256 197 285 201 318 268 241 171 209 305 269 226 173 241 292 223 198 319 226 279 280 219 234 320 279 254 240 207 246 219 275 219 254 226 218 307 236 232 233 269 87 242 242 229 209 330 285 219 220 241 259 218 245 258 269 323 254 357 227 210 133 303 254 175 265 222 203 328 263 222 173 196 290 235 255 209 214 217 260 258 238 215 227 251 189 280 306 261 227 265 291 245 299 306 234 255 299 232 247 200 264 207 176 253 249 232 249 272 211 252 313 226 208 267 299 253 256 265 216 241 215 194 202 269 266 288 287 201 303 193 266 242 248 221 206 233 175 266 350 304 251 223 230 197 258 257 186 244 252 220 193 206 262 243 353 187 230 253 353 232 194 290 321 250 167 246 230 205 229 203 230 304 300 295 196 294 209 278 244 226 244 195 203 326 219 200 295 263 262 273 269 179 185 163 267 229 236 203 262 185 317 332 199 207 263 295 285 234 234 286 251 277 223 196 195 241 170 242 285 342 243 248 251 304 187 268 285 260 232 222 214 223 254 252 228 271 306 166 239 318 277 223 274 327 210 178 272 220 230 270 180 191 230 217 250 208 257 130 226 241 260 254 254 244 250 234 182 218 266 236 282 176 267 294 158 233 286 154 287 187 238 324 222 249 238 252 297 324 221 226 243 267 262 223 233 203 290 226 230 158 284 251 214 315 284 336 203 165 255 282 205 183 253 268 274 231 294 214 281 163 222 266 235 212 327 206 171 192 300 279 197 97 307 255 267 249 266 327 249 205 273 264 184 238 208 242 260 346 182 268 217 224 252 306 281 292 208 254 260 247 263 200 207 250 254 343 205 285 241 229 218 229 229 197 243 397 287 163 245 224 278 237 164 211 191 259 195 197 223 276 220 217 226 230 233 281 271 206 254 277 189 230 245 243 209 230 281 200 268 381 215 204 162 325 191 148 265 315 188 251 238 212 279 171 285 258 233 265 243 234 233 205 213 352 153 248 245 190 272 249 272 331 235 295 277 200 285 257 281 207 250 278 250 223 252 194 180 281 243 286 237 291 215 159 203 198 331 200 217 258 272 286 325 226 184 222 154 308 291 224 184 224 331 303 285 250 352 294 340 274 256 264 265 302 256 211 243 210 205 240 252 257 233 339 263 231 215 256 187 205 240 169 196 257 256 238 218 231 294 252 238 268 209 219 313 228 202 240 235 265 296 259 142 183 156 216 258 285 178 208 231 211 330 242 266 201 272 313 190 187 198 275 293 228 195 305 366 194 160 240 209 169 215 230 217 206 255 171 275 227 196 178 192 208 240 156 156 245 199 273 162 269 310 260 242 285 249 169 191 149 300 195 225 236 269 240 197 216 214 230 282 254 275 181 241 142 282 274 213 184 288 210 209 219 240 219 233 228 209 181 289 192 252 287 250 277 191 213 211 179 350 179 242 233 260 167 142 345 238 213 232 245 244 244 309 235 257 206 202 238 259 274 177 225 265 261 249 273 207 206 261 212 390 202 229 289 173 233 263 298 295 197 209 277 250 227 216 191 204 157 283 325 224 246 298 269 298 226 293 235 251 208 252 217 249 191 276 267 187 211 222 308 232 257 217 255 310 400 262 193 171 254 269 316 174 253 239 236 311 288 176 179 264 242 174 205 203 202 201 177 244 242 190 233 224 273 276 203 210 243 227 229 276 267 249 234 181 247 229 226 288 194 202 240 175 203 276 302 229 363 227 240 207 192 266 266 197 184 207 188 215 285 212 266 289 229 242 217 109 294 258 253 172 205 316 320 200 271 262 169 234 261 211 314 188 200 223 179 218 187 268 291 255 182 236 118 235 297 275 186 223 196 238 261 314 220 249 276 238 258 226 218 276 241 196 210 351 239 265 270 188 213 227 223 220 157 299 199 179 297 238 184 196 279 195 248 236 256 300 215 225 267 206 278 294 267 262 260 264 220 222 301 210 268 250 201 265 276 247 292 251 295 215 242 233 195 200 223 190 182 203 230 259 228 302 225 204 267 264 276 122 213 219 216 268 239 233 272 219 152 231 235 204 302 212 174 257 317 338 218 350 180 245 202 251 189 216 253 150 278 233 173 279 242 260 202 240 255 255 258 231 292 266 309 300 251 329 243 180 178 279 285 382 255 311 310 216 295 271 258 209 259 105 316 168 312 269 209 242 200 285 275 236 260 118 195 349 228 244 282 203 253 248 299 330 286 240 308 212 185 267 235 208 217 253 256 220 194 225 275 282 259 179 233 291 220 228 189 306 209 311 214 224 229 268 277 228 322 279 323 212 304 238 336 297 336 276 252 260 237 207 303 296 229 171 190 282 256 217 242 199 164 279 162 234 270 238 226 204 240 198 192 247 154 208 196 306 196 238 166 251 109 216 214 204 288 247 246 242 241 259 256 337 272 274 259 149 205 276 169 297 342 324 207 152 236 286 209 262 173 302 278 316 217 241 200 225 336 220 284 206 308 234 199 238 273 214 196 316 212 206 231 288 270 184 308 141 213 169 169 220 248 259 238 264 292 248 244 298 225 249 247 201 214 219 257 217 355 272 157 224 232 219 203 231 355 280 215 194 223 260 299 241 266 193 206 263 306 249 272 180 242 262 307 240 181 258 216 207 236 302 249 252 276 226 267 266 240 245 230 184 334 206 196 169 223 222 204 276 242 262 240 229 209 295 315 253 184 200 272 214 195 306 209 268 299 111 289 235 221 156 230 209 215 279 275 187 273 244 201 255 289 312 164 232 213 215 276 248 253 234 214 209 169 179 223 308 249 339 207 263 278 204 206 281 209 295 192 200 254 263 244 269 226 248 303 301 274 272 238 243 221 167 294 258 203 253 222 203 238 248 208 234 208 297 172 280 207 293 262 259 200 135 186 301 217 182 312 233 298 248 182 244 252 208 168 201 326 134 298 240 186 264 254 200 243 231 189 252 259 333 238 304 227 233 263 214 281 240 153 231 276 324 216 298 258 179 164 245 283 156 290 252 319 188 223 288 244 196 280 264 258 328 152 172 235 204 215 261 183 182 196 277 216 294 295 275 250 232 205 200 215 313 236 242 284 209 238 221 239 243 278 243 259 298 282 277 235 220 273 282 236 302 190 177 222 281 286 258 246 226 192 252 217 201 262 178 225 259 289 268 245 279 197 230 229 187 262 233 247 314 239 185 196 288 276 282 228 267 248 261 243 206 277 171 217 220 248 269 288 203 170 235 280 291 135 299 320 198 268 173 289 252 213 279 168 304 204 228 234 248 183 218 220 116 356 284 212 194 221 204 294 198 226 277 246 230 269 244 230 178 185 230 275 182 227 182 276 310 121 239 243 290 248 286 229 236 252 265 216 264 326 269 228 218 265 233 239 237 244 233 248 234 275 196 261 212 237 263 266 255 265 251 156 338 158 170 309 258 296 173 308 260 205 146 156 268 279 284 191 286 189 201 177 221 229 180 253 228 218 168 271 213 203 211 225 293 210 190 213 318 153 174 138 231 259 351 214 333 270 249 253 275 254 225 297 173 210 236 139 177 243 219 214 168 239 216 237 264 279 217 190 214 241 164 293 249 240 193 291 262 271 268 242 229 289 227 200 263 211 262 283 228 229 364 211 216 147 220 157 218 285 247 240 284 280 265 279 282 232 265 273 250 236 222 355 363 193 286 235 285 351 144 218 233 183 191 221 250 341 272 248 301 207 314 299 249 248 290 323 245 325 273 228 188 295 247 226 227 235 269 155 178 347 246 193 237 276 156 258 258 267 185 290 274 177 240 307 250 328 279 237 200 224 265 219 224 305 252 210 236 243 294 215 174 243 252 211 226 212 301 211 166 219 217 226 223 178 319 235 304 218 278 186 217 299 269 252 236 244 299 215 141 311 326 210 218 243 296 206 182 239 202 239 241 217 289 249 256 210 243 208 249 305 268 239 234 197 165 243 257 221 220 200 169 179 271 271 177 194 191 253 238 223 294 217 211 306 275 234 328 197 316 191 254 244 188 301 176 205 222 257 191 347 176 289 310 312 128 198 285 218 304 259 229 242 220 272 352 200 259 162 199 171 201 341 173 221 211 243 270 275 313 211 307 243 248 312 241 175 239 189 289 245 285 221 177 263 348 264 281 171 304 163 229 260 329 252 153 296 223 280 123 257 143 258 222 250 369 285 187 272 244 236 288 217 250 201 169 237 248 185 230 279 211 217 170 257 216 200 278 182 286 227 174 255 271 250 235 179 180 290 228 300 268 314 234 266 253 160 240 368 262 288 289 295 202 197 326 268 243 334 333 262 258 224 231 253 341 320 215 217 166 242 216 267 225 187 211 235 300 295 307 309 148 252 219 284 285 276 260 309 292 258 214 235 186 312 179 187 216 234 274 202 262 216 274 281 329 236 231 206 223 244 180 291 249 182 210 235 264 181 287 285 242 169 300 337 261 220 131 179 232 285 241 199 225 220 309 261 174 180 275 210 247 260 217 274 264 313 314 262 257 262 175 264 241 209 313 279 204 274 375 331 152 269 236 260 313 298 194 197 186 233 258 277 174 223 192 203 177 171 231 258 208 224 249 284 203 207 292 234 208 292 182 262 253 271 254 284 225 202 255 276 284 316 269 167 160 258 295 339 148 241 276 326 175 151 249 230 236 290 269 307 181 166 248 196 175 220 211 186 147 287 264 172 218 257 186 261 234 208 256 222 241 260 254 274 253 284 221 188 218 220 236 188 215 217 206 187 290 348 213 297 335 276 266 159 216 224 215 231 268 259 233 299 232 204 257 265 346 212 231 316 109 210 211 210 204 312 331 170 205 150 178 200 219 232 271 257 326 264 270 239 218 212 211 278 211 204 227 158 216 296 280 342 285 267 276 264 258 282 232 180 270 232 258 243 275 274 296 197 279 316 236 236 257 212 269 260 330 282 296 268 286 271 298 210 197 247 226 298 195 190 206 204 310 345 241 277 223 253 238 210 225 238 205 248 187 250 279 246 209 231 221 297 304 204 223 250 250 297 207 177 227 235 260 345 227 240 221 261 210 197 181 203 216 177 195 178 240 243 206 102 203 284 246 157 244 235 146 278 270 209 225 204 197 197 181 144 202 182 161 293 232 193 315 169 143 313 183 256 232 232 189 266 240 194 224 241 198 251 230 201 236 202 283 185 179 368 356 296 178 186 274 267 198 200 160 310 270 204 276 220 291 342 233 235 279 250 235 207 284 135 256 224 232 249 310 274 305 199 249 216 200 244 231 221 258 276 187 326 291 252 256 189 253 313 303 219 215 241 278 203 196 170 228 259 224 239 210 291 179 293 273 207 245 214 184 224 269 252 248 229 295 223 262 294 241 234 256 192 211 225 416 174 183 234 231 208 283 261 255 208 224 224 225 275 257 255 156 314 255 201 268 256 193 188 157 252 274 195 287 252 131 294 227 314 231 273 200 208 313 277 252 287 297 260 164 245 233 259 210 182 247 236 283 307 213 297 194 246 192 246 234 168 247 234 244 201 242 316 277 224 216 256 261 279 210 209 220 257 217 281 316 351 261 283 255 212 295 225 197 217 202 225 254 274 274 269 310 222 291 189 256 243 326 231 295 272 192 164 343 233 190 214 168 239 254 313 199 232 199 310 219 249 304 266 275 207 147 249 226 283 163 258 223 292 238 249 237 242 193 296 252 330 269 225 217 248 187 277 167 177 255 178 202 274 209 265 203 236 217 296 162 217 248 291 292 222 215 272 158 239 201 231 288 245 383 305 244 187 170 228 256 221 373 224 248 312 235 272 313 255 228 256 254 278 299 214 243 267 214 220 195 274 201 289 273 207 282 228 214 208 300 266 276 281 155 254 230 179 237 238 314 245 222 206 314 229 281 210 148 327 234 193 223 292 224 173 248 208 222 150 205 200 226 283 261 274 261 249 148 317 292 329 275 242 283 235 285 274 222 195 181 237 282 255 220 289 265 222 265 228 292 202 294 305 180 311 162 260 266 205 229 209 245 176 210 311 239 268 281 255 345 254 243 176 242 198 221 274 293 177 240 222 176 206 200 270 275 236 280 234 237 257 254 264 263 292 234 260 318 286 248 174 218 225 192 148 197 254 219 226 328 314 206 250 295 188 242 205 234 216 281 268 241 189 232 294 384 305 219 280 224 188 242 160 157 235 188 190 258 178 185 184 188 190 239 148 177 277 294 269 261 237 242 272 197 201 232 195 249 157 230 254 216 254 129 330 231 271 215 195 194 295 147 189 266 232 301 227 197 247 324 234 267 241 278 256 179 299 307 287 221 244 322 260 229 217 269 273 214 325 207 380 208 200 155 252 308 237 168 260 293 242 247 310 246 236 274 184 191 214 248 266 266 202 235 242 237 214 269 279 273 265 171 306 195 235 271 282 321 292 269 262 204 230 230 306 235 297 216 286 235 173 280 256 237 281 303 371 208 198 192 278 328 262 271 184 255 226 322 287 223 232 241 206 268 179 253 249 276 267 226 283 302 247 227 221 195 244 219 210 188 242 266 169 204 116 201 156 270 242 188 138 175 294 207 245 172 281 248 153 259 306 199 299 175 161 246 263 304 296 266 235 297 202 234 357 186 241 249 239 236 307 241 222 242 216 353 280 234 220 219 281 302 209 232 213 329 300 244 292 245 159 238 306 208 240 239 288 205 279 209 180 211 231 288 257 281 214 210 242 213 227 201 193 264 190 214 211 249 166 213 147 254 282 204 204 269 169 232 210 296 264 310 200 248 216 187 193 170 266 291 256 303 134 242 209 255 196 287 227 288 275 156 222 231 150 176 265 258 273 236 209 199 241 286 293 180 253 178 264 309 273 296 342 178 170 211 217 212 204 260 277 169 196 246 319 184 255 219 188 302 261 227 354 305 193 314 204 244 319 295 232 259 113 306 239 245 208 229 248 206 147 182 251 240 257 205 214 178 215 235 158 234 212 323 264 151 267 274 239 286 250 333 316 264 229 271 210 258 218 252 255 319 161 328 294 290 205 263 333 279 229 274 200 178 214 242 281 276 285 240 228 207 290 227 251 257 321 303 187 192 289 256 142 238 257 273 276 216 296 291 185 178 187 133 221 286 197 273 286 271 256 316 311 287 210 265 271 263 261 253 208 300 307 196 242 275 200 304 160 297 224 300 230 260 258 267 244 282 136 247 181 335 222 258 279 330 277 228 264 187 221 207 216 231 254 272 207 246 211 274 256 174 245 209 276 288 250 265 319 218 271 349 233 259 217 250 199 313 276 307 216 180 316 212 238 166 219 309 194 200 201 255 263 271 219 278 224 197 319 98 264 197 255 208 317 289 336 182 318 203 268 299 211 221 208 205 195 282 225 234 313 197 302 191 303 278 302 307 224 267 181 213 291 241 207 246 302 295 255 189 136 315 249 220 210 284 265 163 309 230 219 205 275 246 217 264 343 202 231 253 273 302 174 285 211 160 270 287 166 287 258 302 265 257 226 241 216 191 186 169 321 267 253 220 195 267 185 187 234 243 195 279 244 313 210 314 202 260 168 213 229 163 230 277 249 268 152 183 216 276 215 201 282 164 249 154 266 232 227 164 344 259 285 172 257 246 138 293 220 289 239 306 265 200 248 270 341 168 186 292 220 245 210 247 228 225 237 212 269 148 274 273 203 253 250 251 302 248 270 213 324 208 251 255 233 326 196 202 172 256 338 189 134 211 224 263 284 226 242 193 260 279 260 321 178 172 189 286 346 240 199 237 195 301 291 306 262 246 202 336 202 182 231 251 306 184 237 176 277 343 311 226 204 183 235 263 279 266 220 290 257 202 134 304 170 217 247 322 285 268 276 232 287 308 207 161 238 224 214 243 309 210 244 243 296 226 305 307 175 197 233 195 318 208 250 178 274 217 237 312 263 215 219 261 150 228 273 276 258 303 200 235 278 261 276 177 190 172 240 335 212 209 134 232 234 231 253 194 240 231 275 196 226 282 206 165 200 218 245 223 275 310 248 207 167 266 205 214 268 133 198 133 261 284 289 325 311 197 243 275 246 188 232 237 305 206 175 298 229 291 240 217 207 299 244 296 217 231 318 259 311 232 204 262 275 182 209 252 329 217 273 404 266 223 227 273 247 233 306 213 178 217 171 236 249 267 256 332 261 206 252 212 298 257 264 195 385 249 192 328 235 179 139 281 262 230 248 295 222 330 240 208 263 190 268 295 285 250 211 232 197 235 169 203 272 224 272 250 283 238 204 181 189 206 252 310 348 205 344 361 315 199 296 200 231 231 262 274 311 248 235 189 278 341 245 173 309 282 205 299 289 212 230 275 199 281 234 288 187 287 316 175 236 206 293 283 243 280 211 214 236 185 307 212 185 216 191 257 230 250 269 132 218 245 188 284 289 157 174 184 239 338 198 266 392 330 212 141 184 207 297 200 203 179 154 234 277 272 210 212 269 215 236 180 229 247 164 239 285 157 219 236 204 222 185 261 180 231 236 212 296 272 209 274 203 261 194 290 194 182 223 224 251 273 212 340 188 277 163 239 254 305 206 232 158 215 264 253 217 251 212 262 210 221 324 217 173 237 241 249 160 232 274 225 227 201 186 266 177 257 142 267 270 309 232 240 186 256 285 219 197 267 247 172 188 248 307 227 331 260 220 234 208 249 232 177 240 242 244 315 246 230 282 273 253 229 281 253 160 237 162 267 285 201 195 158 181 214 233 235 281 204 213 290 274 303 232 213 214 260 176 133 162 218 321 189 224 317 159 272 239 266 255 242 218 230 293 236 149 306 228 249 175 180 231 319 222 272 208 134 289 123 170 216 221 272 288 280 168 198 233 307 262 313 214 371 257 286 191 130 329 262 258 346 250 238 199 252 192 169 219 208 222 269 210 210 227 203 282 137 164 288 236 298 293 167 244 197 251 267 231 306 182 267 152 149 219 187 190 147 283 354 276 230 226 300 203 144 216 295 195 216 168 235 243 246 262 211 227 268 208 308 283 195 199 298 211 353 287 247 352 229 196 202 329 189 194 266 321 246 160 232 249 266 221 309 251 293 230 199 234 166 229 274 229 236 290 178 263 239 244 222 190 230 316 299 268 284 173 260 147 293 253 240 242 131 207 196 312 230 248 149 158 282 246 215 180 169 365 249 212 235 242 298 201 269 142 286 260 259 301 167 243 230 249 214 286 236 256 217 164 201 257 264 266 243 231 217 250 199 207 288 275 250 200 337 219 245 311 251 280 243 239 236 190 172 298 214 296 302 242 170 249 189 315 245 297 304 376 195 302 320 235 310 211 295 296 220 230 157 283 217 212 212 216 272 334 273 205 231 296 170 313 188 211 200 235 342 220 219 211 177 357 268 310 224 189 251 301 334 224 301 247 301 315 205 215 253 287 250 275 243 278 214 238 278 230 261 189 250 224 221 203 232 244 285 239 292 231 237 299 226 341 234 237 260 331 221 281 149 244 282 274 269 230 393 200 306 221 259 267 227 209 278 239 231 305 248 316 282 356 215 258 269 247 285 287 251 231 292 337 307 337 159 175 205 221 305 185 229 175 216 187 170 308 246 182 252 256 275 199 255 252 281 299 211 259 247 261 253 283 188 276 273 287 251 218 310 199 157 143 197 257 279 157 271 270 291 170 216 206 375 230 199 303 251 169 199 251 254 212 254 186 321 215 168 232 372 273 321 259 188 259 361 184 327 352 229 208 230 239 221 256 271 276 283 273 270 207 208 294 333 257 233 186 275 192 200 257 254 240 250 216 348 221 293 153 268 237 272 284 235 309 204 305 253 235 158 177 208 274 323 199 166 210 235 257 229 292 269 286 227 181 230 264 321 255 117 145 216 189 307 178 243 287 249 189 303 235 159 226 270 373 309 248 188 245 245 151 299 251 389 236 284 329 255 225 161 243 197 217 305 244 183 253 248 164 332 234 232 277 283 230 292 305 312 268 206 191 272 218 330 191 209 217 214 200 235 211 175 198 289 279 233 185 188 248 255 300 283 313 165 285 269 172 186 188 266 254 190 322 195 208 288 262 269 169 189 278 267 242 234 220 230 305 293 198 239 283 318 199 207 219 285 248 190 184 188 257 372 243 179 336 227 246 302 220 181 258 271 217 297 336 166 267 265 303 118 250 295 293 265 265 268 315 306 291 305 195 231 209 230 219 328 212 210 216 272 228 189 212 426 239 236 263 294 200 221 253 247 251 214 202 199 293 256 201 223 140 268 171 286 216 186 240 246 135 249 279 251 265 246 280 257 329 291 225 285 281 318 241 198 269 259 240 247 233 297 215 228 257 273 151 240 260 193 265 203 213 250 157 232 182 341 313 246 231 287 193 166 208 298 250 191 259 253 219 308 394 286 203 199 199 200 183 185 275 326 165 249 257 258 221 316 249 246 166 266 189 278 248 231 155 173 305 285 215 306 251 209 311 222 156 225 340 230 296 238 273 197 257 250 145 264 241 266 341 307 322 285 258 326 336 235 253 219 233 201 268 243 256 260 150 351 262 201 176 229 266 194 179 271 258 230 170 220 252 165 136 276 214 227 214 229 277 256 239 187 236 213 299 298 208 239 265 258 196 236 292 182 225 215 262 207 229 220 173 264 277 265 291 171 237 237 275 189 254 246 230 171 262 261 251 183 275 239 270 223 238 277 240 155 237 289 250 292 260 225 268 174 170 271 254 148 231 305 205 229 331 215 308 219 163 214 178 255 211 157 171 281 214 253 263 277 235 244 167 318 303 229 228 240 344 165 209 201 279 213 198 244 311 237 251 275 275 260 220 295 252 363 200 343 221 347 307 276 310 268 252 205 111 273 178 278 269 236 269 228 241 241 268 161 212 248 292 185 228 243 234 254 197 214 193 293 252 272 207 215 250 205 235 246 216 210 206 235 253 290 331 261 203 183 315 271 279 280 360 288 303 238 160 306 226 230 285 272 253 275 343 183 290 236 289 298 268 215 260 354 180 195 305 215 261 231 295 119 196 121 201 222 240 322 279 297 257 166 202 249 283 234 211 254 237 236 283 272 261 257 240 229 297 219 246 230 184 276 317 181 214 271 216 189 273 323 229 266 222 301 264 191 234 167 217 203 246 158 257 235 183 186 311 223 237 289 256 249 240 230 241 225 190 217 174 229 221 280 218 183 241 278 187 188 239 173 239 216 179 249 182 364 276 210 416 313 367 299 319 240 168 319 217 242 176 348 259 212 234 198 184 222 318 234 234 139 252 274 253 177 269 212 247 221 233 266 212 239 362 323 226 226 278 197 221 257 246 222 144 198 283 227 233 277 269 295 281 176 333 202 307 161 291 181 220 272 228 256 259 172 237 275 218 283 265 160 264 254 253 283 198 269 247 287 258 217 303 205 201 282 179 234 244 205 268 194 213 213 248 245 238 275 161 266 256 253 245 240 271 226 273 295 274 242 285 284 184 322 368 240 314 319 254 208 248 243 164 239 194 315 260 197 325 231 204 232 286 258 253 227 253 275 200 250 216 279 250 272 271 160 216 232 249 207 227 264 316 236 272 258 243 282 239 289 271 180 164 249 261 259 274 208 193 293 214 232 237 256 258 262 229 204 149 234 210 247 271 177 270 221 321 265 356 260 343 232 239 262 235 267 334 269 288 231 265 278 295 306 144 301 275 193 273 342 284 296 186 221 255 228 220 191 199 196 286 226 195 213 218 329 286 223 193 286 172 211 199 195 272 339 291 259 249 314 200 194 296 271 306 239 255 233 307 223 178 251 200 303 243 193 251 251 215 170 237 239 216 295 244 237 252 202 246 267 329 280 173 240 193 164 309 165 171 175 180 207 216 230 279 240 173 240 259 235 218 307 225 192 242 187 231 281 268 159 187 231 216 313 268 206 266 232 284 203 24</t>
-  </si>
-  <si>
-    <t>MIE(0.44854684342071705, 2.6616886550416368, -4.781454159478996e-30, 1.85689757365061)</t>
-  </si>
-  <si>
-    <t>1 1 2 1 0 1 2 3 0 0 2 1 1 1 3 1 1 1 0 1 1 2 4 0 2 0 0 1 2 1 2 0 2 1 1 1 2 3 2 1 2 1 1 1 3 0 1 1 2 1 1 1 1 0 1 2 2 1 2 2 1 2 1 2 0 0 1 1 2 1 1 3 0 3 0 2 2 1 1 1 0 2 1 0 1 0 0 2 0 2 1 3 0 2 1 1 0 1 1 0 1 1 1 0 2 1 1 0 2 1 1 2 1 1 0 1 1 0 1 0 1 0 1 2 1 1 1 2 1 0 1 2 0 3 2 2 1 0 1 0 0 3 2 1 1 0 2 2 2 1 0 0 2 3 2 1 0 1 2 0 1 0 1 1 1 1 1 0 2 1 1 3 1 1 4 1 1 1 0 1 1 0 1 1 1 3 0 1 1 1 2 0 2 1 0 1 2 1 1 0 0 1 1 1 1 3 1 2 2 2 3 2 1 2 0 1 1 1 1 2 0 3 1 3 1 3 0 0 1 2 1 0 1 0 3 1 1 2 2 0 3 1 1 1 2 1 1 1 0 2 2 1 1 1 2 0 4 0 0 0 2 1 2 2 1 3 1 0 2 1 2 2 0 3 2 3 2 3 1 1 1 3 1 1 0 1 0 0 0 0 3 2 1 2 3 0 2 2 1 3 1 1 1 1 2 2 3 2 0 1 2 1 1 0 0 2 0 2 0 2 0 1 2 2 3 2 2 2 2 2 1 1 2 0 2 1 1 1 1 2 2 1 3 2 0 2 1 2 0 1 1 0 0 2 1 3 1 1 1 1 0 1 2 2 0 0 1 1 0 1 1 2 0 2 1 1 0 0 2 4 2 2 0 0 1 3 1 0 0 2 1 2 2 1 3 3 2 3 1 1 1 1 2 1 2 3 3 0 0 1 1 1 1 1 2 0 1 0 1 1 2 1 0 1 2 0 1 2 2 2 3 1 2 1 3 1 2 0 2 2 2 0 1 0 1 2 1 1 1 1 1 3 1 1 0 1 2 1 1 2 0 1 1 3 2 2 1 0 4 0 2 1 2 1 2 0 1 1 3 0 0 0 0 0 1 2 2 0 1 1 2 1 0 0 2 2 2 1 0 0 1 2 2 0 1 0 2 1 1 0 1 1 2 3 0 2 0 1 1 1 1 1 2 1 0 1 1 0 1 1 1 0 0 0 0 2 3 3 1 0 1 2 2 1 3 1 0 2 1 1 1 1 1 1 0 0 0 2 2 2 1 0 1 1 1 1 0 1 2 1 0 2 1 2 1 0 1 1 2 1 2 1 1 0 3 1 2 1 0 2 0 2 2 0 1 0 0 1 0 1 1 2 2 1 0 1 0 2 0 1 0 2 1 1 1 0 3 2 1 2 1 2 3 2 0 0 1 1 2 2 0 2 0 0 1 3 1 0 2 2 0 0 2 1 1 0 0 0 2 0 2 1 0 1 3 1 0 2 1 0 1 3 1 0 1 1 3 2 1 1 0 0 1 3 1 2 2 1 1 0 1 2 1 2 2 1 2 3 1 1 3 1 2 2 0 1 1 2 0 3 0 2 0 2 0 0 0 0 1 0 3 1 1 1 3 1 0 2 0 2 1 1 1 2 1 2 2 1 0 0 0 2 2 0 0 1 2 1 1 0 1 0 0 1 0 1 1 1 1 0 3 1 1 2 1 2 1 1 1 0 1 2 1 1 0 1 1 1 2 1 2 1 1 1 0 2 1 3 1 2 0 0 2 2 1 2 3 1 0 2 1 2 1 0 1 2 2 2 0 1 1 0 1 1 3 2 3 1 2 1 0 2 2 4 1 1 3 1 1 2 0 2 1 1 4 2 1 1 2 1 1 2 1 0 1 2 2 0 1 1 1 1 0 0 0 1 1 1 2 0 1 1 1 0 0 0 3 1 3 2 2 1 1 2 1 2 1 1 1 1 3 0 2 0 2 2 1 1 0 1 1 2 2 1 1 3 1 2 2 2 0 0 0 1 1 1 1 0 1 2 2 1 0 2 0 1 1 1 2 1 1 0 2 1 2 2 1 2 3 0 2 1 1 1 1 1 1 1 1 3 1 1 2 1 1 1 1 1 3 0 0 0 1 3 1 2 2 2 2 0 2 2 2 1 1 2 4 2 1 1 0 0 2 0 1 2 3 1 1 1 0 2 1 1 2 1 2 1 0 1 0 2 1 3 4 0 1 1 0 0 0 1 2 2 0 0 1 1 1 1 1 1 1 2 2 1 2 1 0 2 2 3 2 1 1 1 1 1 0 1 1 3 1 1 2 1 0 2 1 1 1 3 0 1 2 2 1 1 1 1 1 2 2 2 1 1 1 2 1 1 2 1 0 1 2 0 0 2 2 1 1 3 4 2 0 1 0 2 3 1 0 2 0 1 2 1 0 1 2 1 1 0 1 0 1 0 1 0 1 1 1 2 2 1 1 3 1 0 0 2 3 1 1 1 1 2 1 0 1 0 0 2 1 1 2 1 1 0 1 2 3 2 2 1 0 1 1 0 1 0 0 0 2 0 0 2 4 1 2 1 1 3 2 2 1 1 1 3 1 1 2 2 1 2 1 2 1 3 2 3 0 0 2 3 0 2 1 1 0 1 3 0 0 2 2 2 2 0 0 1 2 1 2 1 1 3 1 2 3 1 1 2 2 1 2 4 1 1 2 2 1 1 2 0 1 0 1 1 3 1 1 2 0 1 2 0 2 0 3 1 2 0 1 0 2 0 0 2 0 1 3 1 0 3 0 2 2 0 1 0 1 1 2 1 2 1 0 1 1 2 3 1 0 0 2 1 2 1 0 0 2 2 0 1 1 3 2 0 0 0 0 1 2 0 0 2 2 0 0 1 0 2 2 1 2 2 0 1 1 1 1 1 2 1 1 1 0 1 3 1 0 1 1 0 1 0 2 1 0 2 2 4 1 1 0 2 0 1 0 2 0 1 1 1 2 1 1 2 1 0 0 1 1 2 3 0 1 1 0 3 2 1 1 1 1 1 3 1 0 2 1 1 1 0 1 1 2 0 0 1 1 1 3 0 0 1 3 2 2 1 1 0 1 1 1 3 2 1 1 1 1 0 2 1 4 1 3 1 4 1 1 1 0 0 0 1 1 1 1 1 1 0 1 1 0 1 2 3 0 2 4 1 2 2 1 2 2 1 2 0 0 3 1 1 1 0 0 1 1 3 4 0 0 2 2 1 1 1 2 1 1 3 3 1 2 0 1 1 1 0 1 2 1 0 2 2 0 2 0 1 1 2 1 4 3 2 1 2 3 1 2 0 1 0 2 0 1 0 3 0 1 1 3 2 2 1 1 4 1 1 2 2 4 1 0 4 0 1 2 0 0 1 0 0 0 1 1 2 2 2 1 1 1 1 2 0 1 1 2 2 0 1 3 1 1 0 0 1 2 3 2 1 2 2 0 0 2 0 1 1 1 1 0 2 1 0 1 2 0 1 0 3 1 0 0 4 2 2 1 0 2 0 2 2 0 1 3 2 0 1 2 1 1 2 1 1 1 1 0 0 0 0 2 2 3 1 2 2 0 1 2 1 2 2 0 1 2 1 0 0 2 2 2 4 2 3 2 1 1 2 0 1 1 3 0 2 1 1 1 1 1 0 2 0 1 1 1 1 1 4 0 0 1 2 0 0 1 1 0 2 1 2 2 3 3 2 1 1 0 1 1 1 1 2 4 3 1 1 1 2 3 2 0 2 2 2 0 2 2 1 0 1 2 2 0 2 1 0 2 1 1 1 1 1 1 0 1 2 2 1 2 0 1 1 3 1 0 1 3 1 1 2 1 0 2 3 3 1 1 2 0 1 0 4 1 1 0 2 0 2 0 2 0 0 2 2 2 1 1 0 1 1 2 1 1 2 1 0 2 1 2 1 0 1 0 2 1 1 3 0 2 1 0 1 2 1 1 1 0 1 1 1 1 1 1 1 1 0 1 1 0 1 1 1 1 2 1 1 0 1 1 2 1 2 2 1 1 0 3 3 2 2 0 1 1 0 0 1 1 1 0 1 0 1 1 1 1 0 1 0 2 0 1 1 1 2 0 1 0 0 0 1 3 1 3 1 1 1 1 2 2 1 0 2 1 1 2 2 2 1 4 1 1 0 1 1 2 3 1 0 1 1 0 2 1 1 1 2 0 0 2 1 0 1 1 0 1 1 2 0 1 0 3 0 1 1 2 1 1 0 2 1 1 1 2 2 2 0 1 2 1 1 3 1 2 2 0 1 1 3 1 2 1 1 2 1 2 0 1 1 3 2 0 0 1 3 0 1 2 1 1 0 0 0 2 1 1 3 1 2 2 1 1 0 1 1 1 3 2 0 0 1 1 1 0 3 2 0 1 1 1 3 2 1 0 1 1 3 2 2 2 1 1 0 0 1 1 0 1 1 1 1 3 2 1 2 2 0 1 1 1 2 1 3 1 2 1 0 2 1 0 0 1 1 1 1 2 1 1 1 2 0 1 1 1 3 1 2 2 1 1 1 1 0 2 2 1 0 2 1 0 1 1 3 0 1 0 1 0 1 2 1 1 2 1 3 2 2 2 2 2 1 0 0 2 2 1 0 1 1 0 3 0 1 2 1 0 2 3 1 1 0 1 2 2 1 3 1 1 2 2 2 2 1 1 1 1 1 1 2 1 0 1 1 1 1 1 1 0 1 1 0 2 1 1 2 2 1 0 2 4 0 1 1 1 0 1 1 1 0 0 0 2 0 1 1 0 2 0 2 0 0 3 1 1 1 3 1 2 1 0 0 2 0 2 0 1 1 1 0 1 2 4 1 1 4 3 0 1 0 1 1 0 3 2 1 2 1 3 1 0 0 2 1 0 2 1 1 1 1 1 2 1 1 1 1 1 0 0 0 0 2 1 2 0 2 2 0 0 2 1 0 0 1 3 1 2 1 1 1 1 1 1 3 2 1 1 1 0 2 2 1 2 0 0 2 1 2 1 1 1 2 3 0 0 1 0 3 3 2 2 2 0 2 1 0 1 3 2 2 0 2 2 1 0 0 0 1 0 1 2 1 2 1 2 1 0 2 2 1 3 1 2 0 2 4 1 2 2 0 2 0 1 0 1 2 0 2 3 1 2 2 0 1 1 3 1 3 1 1 0 1 1 2 0 1 1 2 1 1 0 1 1 2 1 1 2 1 2 2 1 0 1 1 2 1 0 1 0 2 0 1 1 1 2 1 3 2 0 1 1 0 1 3 0 0 2 3 1 2 0 0 0 0 1 1 1 1 0 0 2 1 1 0 3 1 1 1 1 1 1 1 1 1 1 3 1 0 2 1 0 2 2 1 1 0 1 0 0 1 3 2 0 2 2 1 1 2 2 2 3 2 0 1 2 2 2 0 2 2 1 2 1 1 2 1 1 2 3 2 2 2 0 1 1 1 1 2 1 1 2 1 0 2 1 2 0 2 2 1 0 1 1 2 1 2 0 1 1 2 2 0 3 3 1 1 1 1 2 1 1 4 3 1 2 0 0 1 1 1 2 0 1 2 2 1 0 0 3 2 1 4 1 2 1 2 0 1 1 2 1 0 1 1 0 0 1 1 2 1 0 1 1 2 4 0 2 0 1 0 1 0 2 2 1 2 3 2 3 1 0 2 0 0 2 1 1 2 1 1 1 2 2 2 2 1 1 0 0 1 1 1 0 3 1 0 0 2 1 1 1 1 1 1 2 1 1 1 1 3 3 0 2 2 2 1 1 3 0 1 1 1 0 2 1 2 1 1 2 1 2 1 2 3 2 1 1 2 1 1 1 1 3 3 1 3 2 2 1 1 1 1 0 1 2 2 0 2 1 2 0 0 2 1 2 1 1 0 1 1 2 1 2 0 0 1 1 2 0 3 0 0 2 2 2 0 0 0 2 1 2 1 1 3 1 3 2 0 2 0 2 1 1 1 1 1 0 0 0 2 1 1 0 2 3 1 1 1 3 0 3 1 1 1 0 0 1 1 1 1 0 0 1 2 1 1 1 1 1 1 1 1 1 1 2 0 2 1 0 3 2 0 2 3 2 2 0 1 2 1 0 1 1 1 2 1 2 2 2 1 1 1 1 0 1 2 2 3 1 1 1 0 2 2 1 0 1 3 1 1 1 2 0 2 0 1 2 1 1 0 1 2 1 1 0 2 2 1 3 1 1 1 3 1 0 1 2 1 0 0 1 1 0 0 0 2 2 0 1 0 1 2 2 2 1 2 1 0 1 1 2 3 0 2 1 0 2 3 2 0 1 1 2 1 1 3 1 0 0 0 1 1 0 2 0 2 1 1 2 1 4 1 1 2 3 2 3 0 2 2 0 1 2 1 3 1 1 1 1 0 1 2 1 1 0 1 1 1 3 1 1 0 1 1 1 1 3 2 0 1 1 1 2 0 2 1 1 1 1 1 2 1 1 1 1 2 1 1 1 2 2 1 1 3 0 1 0 1 0 0 1 4 3 2 1 2 1 1 1 1 2 1 1 2 1 0 2 2 0 1 2 0 1 1 0 2 2 1 0 1 0 3 1 1 0 2 0 1 1 2 2 1 0 0 4 0 1 3 2 0 1 1 0 1 1 2 1 1 1 2 2 1 3 0 1 1 2 1 1 4 1 2 0 0 1 1 1 1 1 3 1 1 1 1 1 0 0 2 2 1 2 1 1 0 1 2 1 3 1 1 3 2 0 3 0 0 2 3 1 2 1 2 2 1 1 2 1 1 2 0 2 1 1 1 1 1 3 1 0 1 0 0 1 2 1 0 0 2 1 1 2 1 0 2 2 1 2 2 2 0 2 1 1 1 3 2 1 1 1 1 2 3 2 1 1 1 0 0 1 2 1 1 2 0 0 2 2 2 0 1 3 1 2 1 1 1 2 1 1 1 1 2 1 2 2 1 3 1 1 1 1 0 1 2 2 1 0 2 1 1 2 0 0 3 1 0 1 1 1 5 2 0 1 2 2 0 1 1 1 1 2 0 1 2 2 1 2 1 1 1 4 0 1 2 2 0 1 2 3 1 1 1 1 2 1 3 0 0 2 2 2 2 3 2 1 1 3 0 2 0 1 1 0 2 1 1 1 1 2 1 1 1 3 2 2 2 0 1 1 2 1 2 3 0 2 1 1 1 0 1 2 1 0 1 3 1 1 0 4 1 1 3 1 1 0 0 1 1 3 1 2 1 0 1 2 2 0 1 2 1 2 0 1 2 1 2 1 2 1 1 0 2 0 2 0 1 2 2 3 2 3 1 1 1 2 2 3 2 0 2 1 2 0 1 0 3 1 1 1 1 0 1 2 1 2 0 0 2 3 1 1 4 2 2 1 0 0 1 1 2 2 0 1 2 2 0 0 1 2 4 1 3 1 3 2 2 2 0 1 1 0 1 2 1 2 1 2 3 3 0 1 1 1 0 1 2 1 1 1 0 1 1 0 1 1 2 2 0 3 1 2 0 0 2 1 2 2 0 1 0 1 1 1 1 0 1 1 2 0 2 2 1 1 1 1 1 0 1 2 2 0 3 2 1 0 0 0 0 2 1 0 1 0 1 1 2 1 2 0 1 1 1 2 0 0 1 0 1 0 0 0 1 2 3 1 2 2 1 0 2 2 2 2 1 1 0 1 1 1 0 1 0 2 1 1 0 1 1 0 2 1 4 0 0 1 1 2 3 1 0 1 0 0 0 0 1 2 1 3 3 0 2 2 2 2 1 1 2 0 2 1 2 1 1 2 1 0 1 1 2 4 0 0 1 3 1 0 0 1 0 1 1 1 1 4 2 1 1 1 0 2 0 3 1 0 1 0 0 1 0 0 2 2 1 0 1 0 1 3 1 1 0 3 1 1 1 4 1 1 2 2 1 1 1 1 1 0 2 0 0 0 3 0 1 2 4 1 1 2 1 0 1 2 0 2 1 1 3 3 1 2 1 3 1 0 0 0 1 0 1 1 1 0 2 1 3 1 3 1 2 1 0 2 0 0 0 1 1 1 0 1 1 2 1 2 3 0 1 1 3 1 1 1 0 1 2 0 0 2 2 0 0 2 2 0 2 3 1 1 1 1 1 1 0 1 1 1 1 1 1 1 1 1 2 2 3 2 3 1 0 2 0 2 3 2 4 1 1 1 0 1 1 2 1 2 2 1 1 1 0 2 1 0 3 3 2 1 1 0 3 1 2 2 1 1 1 2 0 2 0 1 1 1 0 0 1 1 1 2 1 0 0 1 1 2 1 2 1 0 1 2 2 0 3 1 1 1 1 2 1 2 3 0 2 0 1 1 0 1 2 1 1 0 1 3 0 0 1 3 1 1 2 0 1 4 0 1 1 1 1 0 2 0 1 1 2 1 0 1 2 2 1 1 0 1 1 0 1 3 3 1 1 1 3 0 0 1 2 1 1 2 1 0 3 1 0 2 1 2 1 0 2 3 1 0 0 1 0 0 1 1 1 1 1 1 2 1 1 1 0 2 2 3 2 2 1 2 0 1 1 0 2 2 3 0 1 1 1 1 1 2 2 1 3 2 3 1 0 2 1 0 1 1 3 1 1 3 1 2 2 1 2 1 1 0 0 2 2 2 1 1 1 1 1 0 1 1 1 2 1 1 0 1 0 1 0 1 0 1 1 2 3 2 1 2 1 0 0 3 1 1 0 1 2 1 2 1 0 0 2 1 1 1 1 1 0 0 4 0 0 2 1 1 1 1 1 2 3 2 2 0 4 2 1 1 1 2 0 1 2 1 1 2 2 0 2 2 1 2 0 0 2 0 0 1 1 2 1 1 0 0 3 1 0 1 0 1 2 1 2 2 3 1 1 1 1 0 0 2 1 0 0 0 2 0 1 0 0 2 1 1 0 0 3 1 4 1 1 0 2 1 2 2 1 2 2 1 0 3 1 3 3 4 0 0 1 1 4 0 1 0 2 3 1 1 2 0 1 1 1 0 1 0 1 1 1 0 1 1 1 0 4 1 1 1 0 0 1 1 1 4 1 2 1 1 2 0 1 2 1 1 0 1 1 2 1 2 3 1 1 0 0 0 0 1 1 0 2 1 2 1 3 1 1 1 2 1 2 2 0 1 0 1 2 0 1 1 1 1 1 3 2 2 2 2 0 3 1 0 2 3 1 2 1 0 1 1 0 1 0 1 1 2 2 0 0 2 3 1 0 3 2 0 1 2 1 3 3 1 0 0 2 2 1 3 1 1 1 1 0 1 1 1 1 0 2 3 2 3 1 2 2 2 0 1 1 1 1 0 2 1 2 2 3 1 1 2 2 2 1 5 1 0 0 0 0 0 3 1 2 1 0 2 2 2 1 2 0 0 2 1 1 3 2 1 1 2 1 0 1 0 4 0 1 3 2 0 1 1 3 0 3 1 1 1 1 1 0 0 2 2 1 1 0 2 1 2 2 2 0 3 3 0 1 1 2 2 0 1 2 0 2 3 1 2 1 1 0 0 2 1 3 0 2 3 1 1 1 1 1 1 0 3 2 2 1 1 1 1 0 0 0 1 1 1 2 0 1 0 1 1 2 1 2 2 2 1 3 1 0 1 1 4 0 4 1 1 1 0 1 1 1 0 2 2 0 2 1 3 0 1 2 2 1 0 1 1 1 1 1 1 1 2 2 0 1 0 1 0 0 1 1 2 2 1 1 1 3 0 1 2 0 2 0 1 0 3 0 0 1 1 3 1 2 1 1 1 2 0 1 0 3 2 1 1 1 0 1 2 1 1 0 1 0 2 1 0 3 0 0 2 3 2 1 2 1 2 1 1 2 2 1 1 2 0 0 1 0 3 0 1 1 2 0 1 1 1 0 3 2 0 1 1 1 1 1 0 1 0 3 0 2 0 0 1 1 0 1 0 1 3 2 1 2 1 1 1 1 2 1 1 3 1 1 1 1 0 0 2 0 2 0 1 1 2 0 1 1 1 1 2 0 1 2 3 1 0 3 2 2 2 2 1 2 0 1 1 1 1 2 1 1 1 2 2 2 0 2 1 1 2 0 1 0 2 0 1 2 1 1 0 2 3 2 1 2 0 1 1 1 1 1 0 0 0 1 3 2 0 2 0 2 1 0 1 1 0 0 1 2 1 3 1 2 1 3 2 0 1 0 0 0 1 3 1 1 2 0 0 2 0 3 2 1 1 3 0 1 2 2 0 1 0 1 1 1 0 1 1 2 1 0 1 2 1 0 2 2 1 2 1 1 1 2 0 3 0 1 0 2 2 1 2 2 1 4 1 1 3 1 2 2 1 2 2 2 2 0 2 0 1 3 2 1 2 1 1 1 0 2 1 2 1 0 3 1 1 2 0 1 2 3 1 2 1 0 1 1 2 1 3 0 1 2 0 0 2 0 1 1 2 1 0 1 3 1 0 1 0 1 0 0 2 1 2 0 1 1 0 0 0 1 2 1 3 1 2 0 0 3 1 1 0 2 2 0 1 2 0 2 2 1 1 2 1 0 1 2 1 1 1 2 2 3 1 1 1 1 0 2 0 0 0 3 2 1 1 2 1 2 1 2 2 0 1 2 1 0 1 2 1 4 0 0 0 0 2 2 2 3 0 2 2 3 2 2 0 1 1 1 2 2 0 2 0 0 1 0 1 0 3 3 1 0 1 2 2 1 2 0 0 1 1 3 1 1 1 0 1 0 0 1 1 0 1 3 1 0 1 0 3 1 1 2 1 1 0 2 3 2 1 0 1 1 1 0 1 3 2 1 0 2 1 0 2 1 0 1 2 1 0 2 1 1 0 0 3 2 4 2 0 0 0 2 0 1 0 0 4 1 1 1 2 0 0 0 0 1 0 2 2 1 1 0 0 0 2 1 1 2 2 2 0 2 1 2 2 0 2 2 3 0 1 2 2 2 1 1 1 0 1 0 0 1 4 0 2 1 1 2 3 1 2 1 2 3 0 1 0 2 1 0 3 1 3 1 3 1 3 2 2 0 2 1 1 1 1 2 1 1 2 2 2 0 0 0 0 0 0 0 0 0 1 1 2 2 0 1 0 1 0 0 4 2 1 1 0 0 1 1 0 1 1 2 2 1 1 3 1 2 1 2 2 2 1 1 2 1 2 1 0 2 0 3 2 2 0 4 1 1 1 1 0 3 1 1 2 1 1 1 3 1 3 0 2 3 0 0 2 3 0 1 1 1 1 0 1 0 1 0 1 3 1 0 3 3 2 3 0 1 1 1 1 1 1 2 3 1 1 1 2 1 1 2 0 2 2 2 1 1 1 1 1 2 3 2 2 1 2 1 0 1 2 1 0 4 1 1 1 3 1 1 0 1 0 1 2 1 1 2 2 1 1 1 0 2 1 0 1 0 2 2 0 0 1 2 2 1 1 0 3 1 1 2 0 3 2 1 2 0 1 0 1 1 4 2 1 1 0 0 3 2 1 2 0 2 0 2 2 1 0 2 3 0 2 1 2 0 1 1 2 1 2 1 1 0 2 1 1 2 1 2 0 2 1 2 0 1 1 1 2 3 1 2 1 2 3 0 2 0 2 0 0 1 2 0 2 1 1 1 0 0 4 2 2 0 1 2 0 2 0 1 1 0 2 1 1 0 2 1 3 2 2 2 0 3 1 1 0 1 2 2 2 0 2 3 1 2 0 1 1 1 0 1 2 1 2 0 1 1 1 0 0 1 1 1 2 1 3 1 0 2 0 0 1 1 0 1 2 1 1 2 0 2 1 1 1 1 3 1 2 0 0 2 1 1 2 3 0 1 1 4 0 0 3 2 3 2 0 2 2 1 1 0 0 1 1 1 1 2 2 1 1 1 1 3 1 1 1 2 2 1 1 3 4 3 1 2 0 2 2 2 0 1 1 0 2 1 1 1 1 1 2 4 1 1 1 0 1 0 2 2 2 2 1 2 1 0 1 1 3 2 1 0 0 0 1 2 1 2 0 2 1 1 2 2 0 0 2 2 1 1 0 1 2 2 4 1 1 2 2 3 1 2 3 0 2 0 1 2 1 2 0 0 1 1 0 0 0 0 1 1 2 2 1 1 0 3 1 1 0 2 0 1 0 1 1 0 0 0 0 2 2 1 2 1 2 0 1 2 2 2 0 1 1 0 2 0 1 1 1 1 1 1 0 3 1 0 1 1 1 2 1 1 1 2 1 1 2 3 1 1 3 0 2 1 0 3 1 1 0 2 4 3 3 0 1 3 1 1 0 1 1 0 2 1 1 1 1 1 2 2 2 0 1 1 0 2 2 2 0 0 2 0 2 1 2 1 2 1 3 2 0 0 0 0 2 1 1 2 0 1 1 1 3 2 1 1 2 1 2 2 2 4 1 0 2 2 0 2 2 1 3 3 2 1 1 1 0 3 0 2 0 2 3 1 1 1 0 1 2 1 1 2 1 1 1 2 2 1 1 1 1 3 2 3 0 2 1 1 1 3 3 0 0 1 2 2 2 3 0 3 1 1 0 1 0 0 1 1 0 1 1 1 0 1 1 1 0 2 1 1 3 1 2 2 2 0 2 1 2 2 1 3 2 0 2 1 1 1 2 1 2 1 1 0 1 1 1 2 1 2 2 1 1 0 1 1 1 1 1 2 0 0 1 1 1 1 0 1 2 0 0 1 1 2 1 0 0 2 1 2 2 2 2 2 3 0 1 0 2 0 0 2 0 0 1 1 2 4 2 1 2 1 0 2 1 2 1 3 1 2 0 1 0 2 2 0 0 3 1 1 1 0 1 2 2 1 4 2 2 2 0 0 0 0 0 2 2 1 1 0 0 1 2 2 2 1 3 3 2 1 1 1 1 2 0 1 1 1 0 1 2 0 2 1 3 2 0 2 1 1 0 0 1 3 0 2 0 3 0 2 3 1 2 1 2 1 0 3 1 1 1 0 1 3 1 1 1 2 1 0 2 0 2 1 1 1 2 3 0 1 1 2 0 0 0 1 1 2 3 2 1 2 1 1 1 1 1 0 0 2 5 1 2 0 2 1 0 2 2 0 0 1 1 0 1 0 3 1 1 2 1 1 1 1 2 1 1 1 1 2 2 0 1 0 3 1 3 2 2 3 0 0 0 0 0 1 1 1 1 3 2 0 3 1 0 1 0 2 2 2 1 2 0 1 0 0 2 0 0 1 0 1 1 1 0 1 0 0 2 3 3 0 1 2 0 0 3 1 1 3 2 1 4 2 2 1 1 3 1 1 0 0 1 0 1 1 1 1 2 1 0 0 1 3 3 0 3 3 0 4 0 1 1 1 1 1 1 2 3 0 2 2 1 1 1 1 0 0 1 2 1 1 1 1 2 1 1 3 1 1 2 1 0 2 1 3 2 1 3 2 2 3 0 1 1 0 3 3 2 1 0 1 0 2 1 2 1 2 2 0 1 1 1 0 1 2 2 2 1 1 1 3 2 0 2 0 1 1 1 2 1 2 1 0 1 0 1 3 2 0 0 1 2 2 1 0 1 2 1 0 1 2 2 1 1 2 2 2 1 1 0 2 1 3 0 1 2 2 1 1 1 1 3 0 1 1 0 3 0 3 1 1 1 0 1 0 1 2 3 1 1 2 0 2 1 2 1 1 1 2 0 1 1 1 1 0 2 1 0 0 0 0 1 3 3 1 2 0 1 2 1 1 4 1 0 3 0 2 2 3 0 1 2 2 2 3 1 1 0 1 1 1 1 2 0 2 1 3 0 2 2 3 1 3 2 2 2 1 1 4 0 1 2 1 1 3 0 1 1 1 1 1 3 3 2 1 1 3 0 1 1 2 0 3 3 2 4 0 1 0 0 1 1 1 1 1 1 1 0 2 1 0 1 4 1 1 1 1 2 1 1 0 1 1 2 2 1 1 0 2 1 1 2 1 0 3 0 2 0 2 2 1 2 1 1 1 3 0 1 2 1 1 2 2 2 1 0 1 1 1 2 0 0 0 1 1 0 0 1 0 2 1 3 1 0 1 0 0 0 3 1 1 0 0 2 1 4 1 0 2 2 0 0 1 2 0 3 1 1 1 2 0 2 2 0 1 1 2 1 1 1 1 2 1 1 1 2 1 2 2 0 2 1 1 3 2 2 2 2 1 1 0 2 0 2 0 2 0 1 2 2 3 1 1 1 2 1 2 1 1 1 3 1 2 1 2 1 2 1 2 1 0 2 4 2 1 0 0 1 2 1 0 2 1 1 0 1 2 0 1 1 1 0 2 3 2 1 0 1 1 0 1 0 1 1 0 0 0 2 3 0 2 2 3 0 1 1 1 4 0 0 1 0 1 1 1 0 1 1 1 1 1 1 0 3 0 3 0 1 1 0 2 1 1 2 2 4 1 2 2 0 1 1 1 0 0 2 4 2 0 1 3 1 0 1 3 1 2 2 1 1 2 0 1 5 1 1 4 1 0 1 2 0 2 1 1 1 3 3 1 2 2 0 1 1 1 0 1 3 2 0 3 1 1 1 1 1 1 0 0 2 4 0 1 1 1 3 1 1 3 2 1 0 2 2 1 0 1 1 0 3 1 1 2 1 0 1 4 1 0 1 2 1 2 0 1 3 2 0 0 2 1 1 0 0 1 1 2 1 0 2 0 0 2 0 2 1 1 2 1 2 1 1 0 2 1 3 1 0 1 2 3 4 0 1 1 2 1 1 1 1 2 1 2 1 0 1 1 2 2 2 2 0 0 2 0 3 0 0 1 2 0 0 1 1 2 1 1 1 2 1 1 1 1 1 3 1 1 1 1 3 1 1 0 2 1 1 3 1 1 0 2 3 1 2 1 0 2 0 1 1 1 2 1 1 2 1 0 1 0 3 2 1 2 0 2 0 2 1 1 1 1 0 1 2 2 3 3 1 0 2 2 2 0 3 1 2 1 0 0 0 0 2 1 1 1 2 1 2 0 2 2 1 3 1 2 2 0 2 2 1 2 0 0 1 1 2 1 1 0 1 1 0 0 1 1 0 3 2 1 0 3 2 0 0 1 0 1 2 2 2 2 2 2 2 1 1 0 1 0 3 1 1 1 2 1 1 1 0 2 0 1 1 1 3 2 3 0 0 3 1 3 2 1 1 1 0 2 1 0 1 1 1 1 1 1 0 1 2 0 2 2 2 1 1 1 2 1 2 1 0 1 0 1 1 3 2 4 1 2 2 1 2 1 0 4 1 2 2 2 2 1 0 1 0 1 2 0 1 1 1 1 1 0 0 2 2 1 2 2 1 0 0 3 1 2 1 3 3 1 2 2 2 1 2 2 0 2 1 2 2 2 1 1 1 2 0 2 1 2 0 1 0 0 0 1 2 0 2 2 1 1 1 3 1 1 1 1 1 0 1 3 1 0 2 1 0 0 0 1 2 1 1 1 1 2 1 2 2 2 2 0 1 1 0 1 2 0 1 2 2 2 1 1 4 2 2 1 0 1 2 2 1 2 1 2 1 2 3 2 1 4 1 2 2 0 1 1 1 0 1 2 1 3 2 0 2 1 0 2 2 4 2 1 1 0 2 3 2 1 1 1 1 0 0 0 2 1 1 1 3 1 1 1 1 1 1 3 0 1 2 2 0 1 3 1 1 2 2 3 1 2 1 2 2 1 1 1 0 2 1 0 1 0 1 1 2 2 1 1 0 2 2 4 2 3 2 0 1 2 0 2 1 1 4 0 1 1 1 3 1 1 1 1 2 1 1 2 1 2 2 0 1 2 1 0 0 0 2 1 0 0 0 0 1 0 2 0 2 3 0 2 2 2 0 3 1 2 2 0 1 2 1 1 0 2 1 3 0 1 1 2 1 2 3 1 2 0 1 1 0 2 0 2 1 2 0 2 1 1 0 1 1 2 0 1 2 1 0 1 0 1 0 2 0 3 3 2 2 3 1 1 0 3 1 1 0 0 2 1 0 0 1 2 1 1 1 2 2 0 2 0 0 0 1 1 2 1 0 0 3 1 2 1 0 1 2 3 2 2 2 2 2 0 0 1 3 2 1 2 0 0 1 2 1 1 0 1 1 0 2 0 1 2 1 2 1 2 3 0 1 0 1 1 1 1 2 0 1 0 0 0 1 2 1 3 0 2 0 1 0 1 2 1 2 1 2 1 2 1 2 2 0 2 1 0 0 2 1 1 3 1 0 1 1 1 1 0 0 2 0 0 0 1 0 2 1 1 0 0 1 1 2 1 1 2 3 1 3 0 2 3 1 1 2 2 1 1 1 1 1 2 0 0 0 0 2 3 1 4 1 1 4 0 0 1 4 1 2 3 1 1 0 1 2 2 1 4 1 2 1 2 0 2 3 1 0 2 2 2 1 0 2 2 1 2 1 2 2 3 1 1 1 1 0 1 0 1 0 2 0 1 1 1 1 1 0 0 0 0 1 2 1 3 2 1 0 1 0 0 0 2 1 1 0 2 0 1 1 0 1 3 1 2 1 0 1 1 1 3 0 3 0 1 1 1 1 1 1 2 2 2 0 2 0 0 0 1 1 2 1 1 2 2 1 0 1 1 2 0 2 1 1 1 1 1 1 2 4 0 1 2 0 2 1 0 2 1 0 3 1 0 1 0 2 2 1 2 2 1 3 1 0 1 0 1 3 1 2 1 2 1 2 2 1 1 0 1 3 1 2 1 0 2 0 1 1 2 0 2 1 0 1 1 1 1 1 2 2 0 0 3 2 3 1 1 1 3 0 2 1 1 2 0 0 0 2 2 2 0 2 0 3 0 2 2 2 3 1 1 1 1 1 2 1 1 1 1 0 0 0 1 0 1 1 3 0 1 1 1 2 2 2 1 1 2 2 3 2 2 0 0 3 1 1 3 0 1 0 1 1 0 1 1 0 2 2 1 1 3 0 0 1 0 2 1 3 2 1 2 1 1 1 3 1 1 0 0 3 2 1 1 1 1 1 0 2 1 1 1 0 1 1 1 2 1 1 1 1 1 2 1 0 1 1 1 3 1 2 2 3 1 0 0 2 3 2 1 1 1 1 2 1 1 0 1 1 2 1 2 0 0 1 1 1 1 0 1 3 1 0 2 3 0 3 2 1 1 1 1 0 1 1 2 3 2 3 4 1 1 3 0 1 1 1 2 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 2 2 0 2 1 1 1 2 1 1 2 1 1 0 1 1 1 1 3 2 2 2 2 0 0 0 0 1 1 1 1 2 1 1 2 2 1 1 1 1 1 3 1 1 1 1 2 1 0 2 2 2 2 2 2 1 1 0 1 1 2 2 2 1 0 1 1 2 1 1 0 2 0 2 1 0 0 2 4 1 0 0 0 0 0 1 1 0 1 2 0 1 1 2 2 1 2 1 0 1 0 0 2 1 1 3 0 0 1 3 2 0 1 2 4 1 2 0 3 1 3 1 1 1 1 1 1 2 1 2 0 3 1 1 2 1 2 1 0 1 1 0 1 0 1 0 3 0 3 3 2 0 2 0 1 2 1 1 1 2 0 0 1 2 1 0 2 2 2 0 2 2 2 2 2 2 2 0 0 1 2 2 1 2 1 2 2 3 0 2 1 0 1 2 2 3 4 1 2 1 0 1 0 1 0 1 1 1 2 1 1 1 1 2 1 1 1 0 1 2 2 0 0 2 0 2 2 1 1 2 3 0 1 2 1 0 2 1 1 2 4 1 1 2 0 0 1 3 2 2 0 3 1 0 1 0 0 2 2 3 0 0 1 1 1 1 1 1 3 2 1 2 1 2 1 0 0 2 0 1 1 1 2 0 3 0 1 3 0 2 1 3 1 2 2 2 1 2 3 2 0 1 2 1 1 0 1 1 1 1 1 0 1 1 2 1 0 2 2 1 0 2 2 1 2 0 1 2 2 1 1 0 0 0 0 2 2 1 2 1 0 1 0 2 2 2 1 1 3 0 3 1 1 2 2 1 2 1 0 0 1 0 0 2 1 2 0 2 2 3 1 1 2 1 1 1 2 1 2 1 0 0 1 2 0 0 3 0 1 1 1 1 1 3 2 0 2 2 2 2 4 3 2 2 3 1 1 1 3 0 2 0 2 2 0 1 2 2 2 0 1 0 2 0 3 1 2 0 0 1 2 2 3 0 1 0 1 0 1 4 2 2 1 2 1 2 0 3 0 1 1 1 2 0 2 1 1 2 1 0 3 1 1 2 2 0 2 0 1 1 1 1 0 1 0 1 0 3 0 0 0 1 2 1 2 0 3 0 2 2 2 2 2 2 1 0 2 2 2 2 0 2 0 1 0 0 1 2 1 1 0 2 0 2 2 1 2 2 1 0 2 1 1 1 2 2 3 0 1 3 3 4 3 0 1 2 2 1 2 1 2 1 1 3 0 0 1 2 1 1 1 1 0 1 2 1 2 0 3 1 0 2 0 3 0 0 1 1 1 1 2 1 1 1 1 1 2 2 2 1 0 2 3 1 0 2 2 2 0 2 2 0 0 2 1 1 2 2 1 1 1 0 4 2 0 2 1 0 2 1 2 3 1 1 0 0 1 1 2 1 2 1 2 0 2 0 0 1 0 3 2 2 2 0 2 0 2 3 0 2 2 1 0 2 1 2 0 1 2 2 1 1 0 2 3 0 1 0 2 0 2 3 0 1 1 0 1 1 0 0 1 1 1 1 1 3 2 2 0 1 0 1 2 0 2 1 1 1 1 1 0 1 0 0 2 2 2 1 0 1 2 1 3 2 0 0 1 1 1 1 1 1 0 0 1 0 0 2 2 3 0 0 1 0 1 0 2 0 1 1 2 1 2 0 0 2 2 0 1 2 2 1 0 2 2 1 1 3 1 3 0 1 2 0 0 4 1 1 1 0 3 1 0 2 0 1 2 1 1 2 1 2 1 2 3 1 2 1 3 1 1 0 0 1 1 0 1 2 0 1 1 2 1 1 3 1 0 3 3 2 1 0 2 0 0 1 0 2 1 3 1 2 0 1 2 2 2 2 2 4 0 1 1 1 0 0 1 2 3 1 0 1 3 2 3 2 1 1 1 0 1 1 2 2 2 1 2 0 1 0 1 1 2 2 1 2 1 0 2 3 0 2 1 2 2 1 1 1 1 3 1 4 0 3 2 0 1 1 1 1 3 1 0 1 2 1 0 3 0 2 2 2 1 2 1 2 1 1 2 1 1 1 2 0 2 2 0 2 3 2 2 0 3 1 1 1 0 0 1 0 2 1 3 3 2 1 1 2 1 1 0 2 0 1 1 1 1 0 0 0 1 0 1 2 3 1 1 0 0 1 2 2 1 2 1 1 2 0 0 3 0 2 0 1 1 1 2 2 0 3 2 1 2 2 3 2 1 1 1 1 2 1 1 0 1 3 3 0 2 1 2 1 1 1 1 2 1 3 1 1 1 1 1 1 1 0 0 0 1 1 0 3 0 0 2 2 2 1 2 0 2 1 2 2 1 2 2 3 0 3 0 1 1 5 1 1 1 2 1 0 1 2 1 1 3 3 0 2 2 2 2 0 2 1 0 0 0 1 2 1 2 2 1 1 1 1 1 1 3 1 0 0 1 2 3 1 0 1 3 0 1 1 2 2 1 0 1 3 3 1 2 1 3 1 1 2 0 1 3 2 2 1 0 2 1 1 0 2 2 1 0 0 2 1 0 1 1 1 0 1 2 2 0 1 1 0 1 2 0 0 2 0 1 2 2 1 0 2 1 2 1 1 2 1 0 1 0 0 2 1 1 0 3 1 2 0 3 0 2 1 2 0 3 0 1 1 1 4 2 1 0 1 2 1 5 2 2 1 1 1 0 3 1 1 2 2 0 1 3 1 1 2 0 1 1 2 1 2 0 1 3 1 2 1 0 2 1 1 0 2 1 1 2 2 0 1 1 1 0 2 1 1 2 0 0 3 2 2 2 1 1 1 0 1 0 1 0 1 0 1 0 2 1 0 1 0 2 1 0 0 3 1 1 3 1 2 0 0 1 1 0 2 1 0 1 2 1 1 3 2 0 1 3 2 1 1 0 1 1 2 2 1 2 0 1 3 0 1 1 3 0 1 1 3 0 0 2 2 1 1 1 0 1 2 1 1 2 2 0 1 0 1 1 1 0 1 3 3 1 1 2 0 2 1 2 2 1 1 0 2 1 0 2 0 0 0 2 0 3 2 1 1 0 0 2 1 0 1 4 3 1 0 1 1 1 2 2 3 1 2 1 2 2 1 3 2 2 1 1 1 2 1 0 2 1 0 2 2 3 1 0 1 0 0 0 1 2 1 2 1 2 2 1 1 1 2 2 1 1 1 1 1 2 0 1 1 0 0 1 1 0 3 1 0 2 2 1 0 2 1 1 2 0 1 0 2 2 1 1 0 0 1 1 2 1 1 1 1 2 1 1 1 3 0 0 1 1 0 1 2 2 0 1 1 1 0 1 2 2 0 1 1 1 2 0 2 3 0 1 3 3 1 2 2 3 0 2 0 2 3 1 0 1 1 1 2 3 1 2 2 2 1 1 0 0 3 0 1 2 0 1 1 2 0 3 1 2 1 0 0 2 2 1 1 1 0 2 2 1 1 1 1 1 3 2 0 2 0 0 1 2 0 0 0 0 3 1 3 1 0 3 0 2 1 1 1 3 2 1 2 3 2 1 2 2 2 1 0 0 2 1 2 1 1 0 4 1 2 1 4 2 2 0 1 0 1 0 1 1 1 0 1 0 0 0 2 0 2 2 0 3 1 2 2 0 1 1 1 1 1 0 2 2 1 2 1 2 2 1 1 0 1 1 2 2 4 0 0 2 2 1 1 0 1 1 1 2 1 0 2 1 1 0 0 3 2 2 1 2 0 1 3 0 2 2 1 0 2 2 0 1 2 2 3 1 2 1 1 1 3 1 1 2 1 0 1 0 1 1 0 3 3 0 1 2 2 2 2 1 1 0 2 2 1 1 0 2 1 0 0 2 2 1 1 2 1 2 2 0 1 1 3 2 4 1 0 1 1 0 3 2 0 2 1 2 3 1 0 0 1 0 2 2 2 1 0 1 1 1 1 1 2 2 2 2 0 2 1 1 2 1 1 1 2 0 1 0 0 0 4 1 0 1 1 0 1 0 1 0 2 1 1 2 2 1 1 1 1 1 1 1 1 4 1 1 0 1 0 1 0 0 0 2 1 3 2 1 1 1 2 2 2 1 1 3 1 2 2 2 1 1 1 1 1 3 1 1 2 2 0 1 2 0 2 1 0 2 1 2 0 3 0 2 0 1 3 3 1 0 1 0 1 1 2 2 1 2 1 2 0 1 1 2 1 0 1 3 0 1 1 1 2 2 1 0 1 1 0 2 3 3 2 3 3 3 2 1 2 3 3 2 3 1 2 1 1 3 2 2 1 2 0 1 1 1 1 0 2 1 0 0 1 0 1 0 0 1 1 2 0 3 1 1 1 1 1 2 2 1 1 1 0 1 2 1 2 2 0 1 1 0 1 0 2 1 0 1 1 1 0 0 0 0 1 0 2 2 0 1 1 1 2 1 2 1 0 2 1 3 1 3 2 0 1 1 2 1 1 0 1 2 1 1 1 2 3 2 2 2 2 1 1 1 1 2 2 1 2 1 0 2 1 2 0 3 0 3 3 1 1 1 2 1 3 2 2 2 0 0 1 2 2 1 1 2 0 3 0 0 1 1 1 0 1 1 1 0 1 1 1 1 2 2 3 1 3 1 0 2 1 0 0 1 1 1 2 1 0 0 0 1 1 3 2 3 1 2 0 1 3 2 2 2 1 0 3 1 0 2 1 1 1 1 0 2 1 1 2 1 3 1 1 0 1 1 1 2 2 1 3 2 1 0 1 1 0 1 1 5 1 1 2 1 0 0 3 2 1 1 2 2 0 0 2 4 0 2 0 1 1 0 2 0 2 0 2 0 2 1 0 3 1 1 1 3 1 0 4 1 3 1 2 1 1 2 2 2 1 1 2 1 1 1 1 1 1 1 3 1 0 0 2 2 1 2 2 1 1 2 2 3 2 1 1 1 2 0 0 0 0 1 3 1 4 2 2 2 1 1 1 2 1 0 1 4 1 0 2 0 1 2 1 0 1 1 3 2 0 0 1 1 2 1 1 2 0 2 2 0 1 0 1 3 1 1 1 0 1 0 2 2 1 1 0 0 1 1 1 2 0 1 1 3 2 1 0 0 0 0 1 3 0 2 2 2 1 0 1 0 3 0 2 0 3 0 1 1 1 2 4 0 1 1 1 1 0 2 2 1 1 2 0 0 0 0 2 2 1 2 1 1 0 1 0 1 2 0 0 0 2 2 2 1 1 1 2 1 1 0 1 2 3 0 2 1 2 0 0 1 0 1 1 1 1 0 1 1 1 0 0 1 1 1 4 2 1 1 1 0 4 0 0 0 1 3 2 2 1 2 3 1 0 1 0 0 2 1 1 1 2 2 0 2 2 1 1 2 2 1 1 0 1 1 1 2 1 1 0 1 2 1 1 2 3 2 0 0 2 0 1 2 1 2 2 2 2 1 0 0 0 2 2 1 2 1 3 2 1 1 1 2 1 0 1 1</t>
-  </si>
-  <si>
-    <t>GAM(0.18925330153159542, -1.8279929964111025e-32, 0.18476166588406595)</t>
-  </si>
-  <si>
-    <t>0 0 0 0 1 3 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 1 0 0 1 0 0 3 1 0 1 1 0 0 1 1 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 2 0 0 0 0 2 0 1 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 2 0 0 1 3 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 2 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 4 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 2 2 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 1 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 2 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 0 1 1 1 0 0 0 3 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 2 0 1 0 1 0 0 0 0 1 2 1 0 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 0 1 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 1 0 1 0 0 0 1 0 0 1 1 1 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 2 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 3 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 3 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 2 0 0 2 1 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 1 0 1 0 0 2 0 1 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 2 0 0 0 0 0 0 1 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 1 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 2 0 1 1 0 0 0 0 0 1 1 4 0 1 0 0 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 0 2 1 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 3 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 1 1 1 0 0 0 1 0 2 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 3 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 2 0 0 0 2 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 2 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 1 0 0 0 0 0 0 1 0 2 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 2 1 1 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 2 0 0 0 2 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 1 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 2 2 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 2 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 1 0 0 1 0 0 0 3 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 0 0 0 3 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 2 0 2 0 0 1 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 2 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 3 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 2 0 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 1 2 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 1 0 2 1 0 0 0 2 0 1 1 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 1 0 1 0 1 0 0 0 0 2 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 3 1 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 3 0 0 0 0 1 2 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 2 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 0 0 1 0 0 0 1 0 0 0 2 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 3 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 3 0 0 0 0 0 1 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 2 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 0 1 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 2 0 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 2 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 2 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 1 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 2 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 2 0 0 1 0 1 0 0 0 2 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 1 0 3 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 2 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 2 1 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 0 1 1 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 1 1 0 1 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 1 2 1 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 2 0 2 1 0 0 1 0 0 2 0 0 1 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 1 1 0 0 0 0 1 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 1 1 1 0 0 0 0 1 0 1 0 1 0 1 0 0 1 0 2 0 0 0 0 0 2 1 2 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 3 0 0 2 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 1 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 1 1 1 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 2 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 2 0 0 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 2 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 1 0 0 0 1 0 3 0 0 0 0 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 1 2 1 1 0 1 0 0 0 1 0 1 0 1 0 0 1 0 1 0 1 2 1 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 1 2 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 3 0 0 0 2 0 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 1 2 1 0 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 2 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 1 1 2 0 0 1 0 0 0 0 3 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 1 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0</t>
-  </si>
-  <si>
-    <t>JSU(-14.66396189688394, 8.218663158987308, -204.83533708849632, 109.23692933535096)</t>
-  </si>
-  <si>
-    <t>111 109 137 129 229 92 138 153 191 106 69 147 96 72 92 116 120 98 82 120 85 168 175 132 80 154 118 86 233 55 148 176 121 132 137 136 70 89 139 121 98 15 105 156 163 110 107 106 58 203 85 80 96 176 119 163 98 82 198 125 146 130 100 116 121 116 83 57 95 152 68 121 155 96 92 5 92 83 101 96 85 104 102 76 194 123 73 72 190 143 163 140 136 81 97 83 90 122 139 134 75 101 152 79 148 102 108 34 146 96 142 34 86 172 154 137 61 189 83 143 146 125 85 77 73 81 159 204 106 93 166 31 129 88 186 182 122 99 109 110 82 116 89 167 126 160 121 116 153 139 117 123 105 160 97 151 23 206 163 169 90 76 33 93 177 23 141 107 191 74 134 47 15 139 122 112 83 149 85 61 132 77 114 82 76 98 81 168 210 133 94 119 164 190 162 147 105 61 135 58 90 96 122 212 105 123 110 138 218 58 113 122 106 115 153 150 87 190 54 55 88 104 163 142 65 127 103 152 126 81 131 23 64 72 116 147 71 166 84 54 127 123 13 120 139 154 115 88 88 99 118 95 50 90 62 42 128 114 47 154 95 131 90 93 92 124 87 91 117 109 142 126 95 92 188 117 147 89 150 87 159 98 50 120 99 74 115 59 92 83 47 83 174 143 47 131 174 61 158 232 72 119 110 115 143 223 118 56 151 144 122 97 79 49 81 56 138 97 135 99 138 99 203 147 165 76 146 129 141 233 171 75 72 114 138 115 188 135 125 143 181 139 108 66 122 144 135 138 77 72 135 91 179 138 119 240 115 127 32 88 104 132 105 63 115 109 185 57 126 112 104 160 84 121 113 78 127 93 188 151 150 134 72 38 116 114 135 90 99 158 91 134 109 45 149 106 137 73 112 84 94 100 129 79 134 124 175 106 113 122 154 133 128 40 55 203 85 50 95 27 85 177 146 174 115 142 106 141 184 111 118 138 179 148 108 17 99 104 149 57 120 142 61 93 140 63 153 87 84 131 79 164 150 87 36 155 150 102 111 97 110 99 95 147 96 132 87 59 170 29 92 84 71 179 242 76 124 117 119 128 90 92 91 90 86 84 101 70 64 118 137 173 79 131 125 128 88 188 89 144 93 166 87 145 67 134 61 121 155 132 60 33 124 98 61 107 104 111 45 47 156 100 198 32 49 139 64 134 148 61 80 114 80 150 72 161 99 68 33 106 129 125 119 79 129 85 122 173 134 116 59 94 81 101 142 33 85 140 111 145 150 92 128 85 117 112 173 133 114 96 85 99 110 146 58 142 223 21 164 82 124 78 147 133 48 213 233 93 100 89 41 83 90 147 139 50 146 50 178 178 112 151 75 68 147 165 144 48 101 127 44 163 105 163 156 69 125 84 96 120 52 151 111 95 69 69 53 116 145 79 119 110 54 96 82 157 132 161 91 150 105 72 112 154 129 107 58 82 116 189 34 116 117 67 109 160 67 59 144 128 134 90 131 161 154 133 70 61 135 45 115 90 141 124 125 175 112 131 102 138 211 146 20 25 213 101 147 158 128 85 254 123 209 82 114 152 47 131 132 167 176 167 117 117 102 100 115 107 105 137 166 79 117 107 99 84 134 87 182 163 81 177 119 114 79 86 115 113 118 149 95 221 140 84 182 171 78 115 172 96 89 74 206 142 93 152 141 101 90 8 131 97 156 146 113 104 59 106 202 148 199 82 188 111 115 46 116 124 98 90 143 117 140 152 72 148 31 168 62 68 135 100 138 95 111 130 186 44 200 162 125 160 93 53 183 55 131 42 71 120 116 89 137 110 134 86 116 54 103 64 89 139 79 110 101 150 150 163 122 50 83 122 122 35 110 56 158 77 91 67 185 79 62 154 109 41 70 84 72 54 111 107 71 87 59 119 72 63 170 188 151 145 110 74 127 110 76 112 134 103 84 110 45 143 122 131 92 159 196 155 139 66 126 65 78 135 64 131 143 68 114 116 61 80 129 98 176 137 183 83 116 41 166 126 105 145 116 191 168 156 172 59 96 122 128 95 140 156 130 122 45 62 144 33 146 122 162 68 130 120 101 140 190 147 96 147 108 167 90 182 49 102 123 101 118 208 67 197 197 153 81 42 190 149 166 47 115 123 125 54 184 130 97 106 56 87 149 56 94 86 138 125 185 61 134 149 134 78 140 68 108 151 79 81 43 129 52 98 131 147 138 101 97 189 182 208 136 123 130 110 168 95 27 97 92 109 34 117 190 168 124 87 43 110 128 46 174 223 124 101 78 85 162 101 124 120 172 112 131 79 88 136 84 94 181 89 108 80 119 61 104 206 110 146 48 186 123 84 140 184 71 58 72 93 91 107 122 87 61 70 128 127 77 139 121 106 132 119 121 163 71 83 87 102 61 5 142 189 165 74 92 83 44 146 221 187 122 70 128 87 58 125 78 83 126 171 96 83 90 33 82 145 66 111 88 40 102 66 137 100 177 152 78 124 64 66 115 146 89 164 74 101 113 87 89 170 125 61 125 153 155 135 56 27 76 104 30 94 106 121 150 143 30 102 118 110 46 145 131 94 108 94 114 116 143 114 113 219 100 96 142 141 117 89 55 154 103 126 107 62 118 98 81 94 99 124 97 72 105 125 39 141 186 119 128 69 118 75 108 214 168 103 123 118 303 190 144 96 218 135 141 109 92 83 107 114 42 127 118 139 117 184 121 204 109 79 169 160 215 106 99 93 88 124 111 174 93 130 205 97 102 125 102 126 59 85 74 130 123 121 75 96 113 239 60 58 183 116 126 110 118 160 113 85 177 83 110 84 103 147 152 80 121 110 104 161 100 155 181 88 131 144 121 149 94 113 115 96 85 108 92 175 155 160 97 89 184 95 95 94 103 82 126 135 193 188 124 38 141 106 105 113 59 164 90 175 94 96 93 171 177 138 138 51 90 78 193 76 94 93 120 215 145 104 138 74 139 142 132 73 166 79 106 93 112 102 124 117 233 154 128 99 131 64 113 109 121 157 194 175 164 133 180 69 118 131 80 101 99 67 108 118 128 109 55 133 134 198 107 151 108 105 114 117 58 125 98 118 100 73 108 120 109 125 150 153 148 134 159 134 74 83 45 35 114 61 70 89 84 148 133 150 81 141 119 115 142 205 53 21 122 133 80 145 81 96 65 119 210 161 110 109 39 102 91 97 38 89 92 85 105 170 106 43 23 63 174 65 98 160 105 126 62 90 114 139 155 93 135 74 136 82 96 70 161 152 78 158 161 129 46 137 89 167 100 136 138 152 97 111 80 64 86 189 175 45 129 86 119 58 91 148 111 124 113 138 22 147 75 158 95 108 85 139 64 155 74 84 38 84 30 100 183 112 101 206 113 131 107 133 55 53 70 43 93 44 82 61 119 155 220 117 134 68 66 131 13 83 88 167 76 171 150 97 161 128 105 154 65 70 199 168 160 141 93 48 96 92 107 107 119 21 147 219 121 118 139 145 91 110 159 105 106 68 154 170 32 116 139 127 63 61 82 42 122 137 143 190 146 10 77 146 50 147 130 61 35 107 162 64 143 75 129 131 88 41 152 127 121 123 59 69 174 54 95 144 144 122 206 166 103 192 126 134 92 80 155 85 67 158 170 71 122 182 108 113 142 121 111 135 151 66 115 157 159 137 70 139 156 109 134 148 111 68 82 76 73 44 130 78 62 110 93 182 99 46 64 84 95 78 144 83 155 53 104 99 86 72 107 153 52 155 116 108 153 115 91 112 151 77 105 97 208 116 116 183 100 114 86 137 137 202 44 149 102 71 106 119 199 118 81 85 81 117 129 126 159 130 152 104 122 107 123 103 109 122 99 127 112 125 92 104 161 151 112 213 100 101 149 72 63 148 86 121 147 128 64 113 158 144 109 122 79 90 106 95 94 127 118 66 105 78 45 88 113 101 115 100 130 178 108 48 107 167 220 137 196 125 121 149 165 66 116 74 73 135 72 168 137 91 191 148 99 50 90 86 184 115 154 144 93 135 115 134 109 85 64 97 89 166 174 52 106 49 67 36 80 99 80 112 92 64 146 75 172 120 151 76 140 102 88 126 66 161 38 128 55 130 56 71 118 154 102 71 170 121 116 156 104 62 115 94 130 131 93 90 69 134 96 60 192 97 123 101 63 55 125 144 155 62 75 29 251 86 162 130 104 139 111 205 68 62 93 217 48 142 126 73 117 82 123 120 63 89 106 98 172 80 151 102 54 134 124 75 54 171 183 58 100 95 83 112 89 131 134 114 134 141 111 126 150 136 104 73 68 100 130 159 190 104 202 102 135 96 96 149 140 90 152 209 79 128 147 142 48 205 96 227 109 102 116 143 108 206 106 124 103 103 117 117 60 107 133 88 127 148 177 166 77 137 158 163 200 32 156 73 27 151 51 79 108 23 73 64 169 127 168 75 146 108 200 109 145 86 181 82 81 127 80 80 80 189 110 164 54 101 101 67 217 111 66 124 43 133 53 110 58 100 89 93 142 73 148 136 146 176 107 108 35 71 114 109 79 127 230 86 155 109 216 172 93 84 54 84 129 84 89 224 116 117 98 54 112 83 140 166 173 118 96 118 196 161 175 85 168 76 134 108 74 137 72 146 147 129 85 157 82 173 152 152 88 132 78 131 157 90 272 129 105 136 57 124 117 102 125 141 75 32 42 97 87 183 136 102 147 150 118 178 104 108 66 131 192 116 134 77 48 88 79 99 91 72 121 99 89 75 76 68 93 84 87 118 98 59 83 152 94 72 140 94 174 42 196 102 88 122 101 95 39 99 87 107 68 133 145 131 93 100 78 97 126 77 137 95 189 123 102 109 111 91 41 93 181 162 112 181 183 181 248 59 143 83 106 83 49 125 127 79 88 104 140 123 71 140 36 62 142 81 91 127 99 139 80 102 106 127 157 136 104 67 120 123 101 109 140 127 121 82 120 66 100 95 137 102 95 89 100 185 116 97 64 93 116 89 69 103 115 61 130 41 72 60 185 127 49 97 57 126 112 60 183 111 112 159 90 136 159 182 35 119 82 126 118 121 135 105 88 141 78 139 108 39 158 91 121 102 95 91 78 95 105 86 103 80 75 197 112 148 128 61 132 28 133 153 118 92 121 76 95 156 103 95 88 89 179 133 37 99 101 108 136 89 139 155 157 139 18 141 127 52 247 77 122 89 45 100 129 144 70 110 73 133 88 135 76 81 43 187 139 174 128 114 105 120 96 85 97 104 70 70 102 94 139 149 139 28 73 148 100 123 121 71 82 136 148 134 98 153 99 205 123 127 129 56 139 131 222 197 169 36 71 111 111 72 66 109 143 63 101 75 132 113 98 148 192 117 62 64 131 118 115 135 109 102 149 107 106 157 113 120 136 152 24 93 58 154 33 131 84 121 85 124 90 136 138 106 107 68 96 19 120 177 117 40 130 37 106 105 90 169 32 107 66 153 126 47 148 133 76 135 111 66 84 119 143 128 132 133 196 92 129 161 127 136 97 86 149 132 117 45 122 181 110 127 153 68 46 76 134 70 103 120 72 72 190 73 144 131 75 130 134 90 95 156 84 86 95 120 119 119 114 16 135 114 96 238 97 96 131 161 81 82 71 180 151 74 31 117 114 59 120 67 73 100 132 167 118 138 157 93 144 78 97 140 193 149 115 172 151 105 77 171 88 157 74 31 186 180 162 103 115 83 161 96 92 158 43 143 96 146 59 111 126 134 79 36 126 145 31 138 128 100 123 91 129 101 72 83 153 93 113 144 150 72 125 103 174 133 90 115 72 60 102 93 105 102 126 160 90 44 119 116 153 110 132 139 91 143 98 76 158 90 85 139 86 65 59 113 70 112 174 66 88 134 120 163 115 106 118 130 113 151 67 58 41 32 81 129 99 94 134 150 136 88 75 158 136 88 94 159 73 99 43 135 90 201 75 151 181 85 104 127 93 235 118 55 162 61 40 103 121 118 135 68 112 156 132 39 145 21 140 53 115 190 62 94 121 106 103 165 77 40 200 86 101 122 142 75 88 91 151 132 119 100 90 133 154 157 158 149 146 133 168 72 200 128 148 113 155 114 103 199 181 160 115 41 89 144 61 105 127 114 103 64 121 115 143 111 148 90 132 135 49 130 35 101 141 69 75 70 74 119 104 97 88 85 105 112 70 126 85 212 154 113 39 40 146 151 158 80 159 95 89 117 100 137 124 139 94 93 109 162 198 95 102 121 42 100 118 67 159 111 86 145 114 140 108 123 157 155 160 44 81 101 77 171 150 95 98 62 205 74 113 89 62 103 131 181 77 83 118 104 102 105 61 129 91 110 109 29 169 147 154 139 181 103 168 65 71 85 135 45 94 160 152 100 51 97 129 161 122 99 93 124 91 110 152 62 47 86 78 84 179 117 86 184 69 144 93 103 72 112 97 67 140 90 86 77 135 108 136 125 68 156 50 92 100 55 131 143 52 73 66 101 112 124 182 117 45 130 68 198 90 91 103 153 78 88 119 79 71 63 109 66 103 133 193 109 179 147 133 136 130 153 76 102 135 97 42 133 58 95 62 64 104 134 116 97 83 155 143 144 74 113 92 69 92 191 129 144 80 144 131 112 136 58 67 153 125 153 187 47 132 104 67 147 112 84 213 123 79 127 127 91 96 124 65 157 91 186 138 193 112 72 147 39 133 128 73 192 105 135 79 122 168 169 94 131 107 122 166 86 124 181 49 66 109 135 138 85 95 114 152 77 50 78 79 96 116 152 58 90 90 87 85 147 123 73 181 109 160 92 102 106 112 83 93 44 220 133 188 81 108 132 78 123 119 86 88 120 79 191 54 80 60 90 89 94 55 86 94 177 114 106 146 97 217 89 94 146 134 259 152 27 61 106 80 152 104 85 224 108 111 87 85 65 45 69 149 102 45 76 52 132 152 161 153 120 115 114 123 154 113 62 74 134 83 152 115 78 132 153 88 166 68 101 102 103 86 85 148 169 54 65 120 98 37 128 88 74 102 117 139 81 154 161 174 30 170 40 123 117 102 96 77 122 175 97 24 120 71 140 89 92 87 184 149 63 140 153 180 92 124 119 99 97 88 107 91 106 115 151 90 111 110 67 124 81 133 149 78 70 113 188 131 156 183 120 68 142 79 142 283 131 74 111 85 76 150 157 101 35 155 65 73 147 64 79 109 170 120 201 101 177 167 106 79 156 150 135 168 187 94 92 107 105 141 148 140 144 80 144 116 52 133 113 125 105 29 133 57 97 15 126 38 111 153 102 53 93 150 60 41 154 125 103 163 109 161 150 88 91 87 115 48 75 101 50 67 93 131 94 132 108 137 95 75 88 105 105 84 108 118 42 64 116 113 79 120 117 134 54 95 131 130 128 140 129 110 124 54 134 162 72 136 62 100 126 158 152 84 114 63 158 97 118 159 146 127 41 73 141 68 60 77 70 88 101 103 101 52 121 180 107 43 78 61 104 118 50 102 132 178 235 143 100 114 151 160 93 155 85 130 101 203 64 138 109 196 73 92 101 84 80 111 208 168 104 146 154 164 153 42 72 101 126 167 116 117 66 30 107 91 116 202 138 102 66 124 152 121 123 102 106 71 107 93 155 53 217 146 159 155 121 163 35 57 133 90 195 138 25 103 108 198 90 140 138 199 119 104 101 153 134 109 96 124 150 65 135 80 150 211 91 117 109 62 103 157 126 122 131 103 127 96 123 56 102 211 104 78 120 180 141 104 152 197 130 101 146 118 164 81 110 114 174 43 140 122 85 129 128 89 135 118 159 121 95 144 68 52 111 79 145 82 116 143 108 93 133 128 91 84 85 81 105 134 143 113 115 218 108 91 50 153 126 118 114 126 77 73 80 100 121 174 76 111 75 86 199 87 81 70 97 113 46 175 155 109 98 165 94 54 64 96 195 174 128 76 85 93 143 160 129 80 153 123 96 111 56 189 112 233 106 52 29 43 100 84 46 73 109 182 85 124 107 145 124 183 162 112 266 39 96 101 96 109 74 43 164 94 120 92 86 167 178 64 124 48 126 93 120 147 90 146 43 47 101 71 123 131 50 110 113 72 113 96 150 55 79 82 112 63 102 102 176 29 145 97 74 47 75 103 107 49 207 129 113 217 81 74 111 86 176 61 126 110 65 159 131 153 124 134 220 135 132 79 86 87 153 155 87 160 104 175 133 156 124 29 92 99 204 35 148 200 66 152 73 147 131 64 71 52 134 140 81 181 132 76 87 56 69 106 105 106 95 113 85 48 122 163 136 84 113 157 201 30 164 229 60 77 112 91 212 104 87 111 116 101 135 97 70 70 129 197 89 149 154 185 135 97 79 132 119 113 108 111 95 126 102 56 137 113 122 88 157 169 202 118 167 148 75 98 130 77 154 71 139 133 109 74 184 75 146 90 52 131 61 97 81 183 151 105 80 118 167 153 106 95 147 82 44 167 121 24 98 38 121 165 129 65 109 13 16 136 158 39 164 160 107 156 127 131 100 100 100 195 71 100 146 34 92 88 117 138 120 202 192 29 83 83 178 140 113 121 126 51 83 200 110 41 116 166 105 138 192 124 128 67 132 154 61 113 158 90 192 142 103 113 119 92 105 172 51 60 35 117 137 131 86 85 118 85 87 68 64 134 176 171 103 141 89 149 116 111 149 70 149 81 46 146 84 96 106 169 115 77 109 175 116 138 122 184 150 111 98 150 131 65 59 166 43 61 107 93 183 102 207 114 105 92 100 100 75 113 168 106 118 131 70 167 132 84 112 116 139 159 78 111 111 92 161 168 85 140 120 137 118 60 62 125 69 111 142 139 139 76 68 99 62 79 199 137 97 66 133 139 148 119 110 108 115 97 144 123 96 113 206 84 47 117 118 95 126 67 126 89 153 73 74 127 99 128 120 171 227 202 132 109 77 102 116 122 86 70 116 215 196 86 155 54 149 129 171 85 69 158 136 102 126 52 96 83 65 64 108 198 88 172 80 124 131 147 144 68 92 70 88 120 177 106 123 71 164 105 121 154 99 129 64 102 146 129 109 195 146 98 137 43 122 123 189 63 64 92 137 92 87 153 87 87 113 78 48 36 190 82 141 113 44 119 73 140 110 134 153 150 56 116 40 165 158 159 109 140 50 204 101 105 121 201 126 173 63 208 135 106 168 147 101 65 72 180 118 85 75 188 97 127 45 69 106 161 102 115 90 160 80 168 68 156 124 154 78 129 195 107 83 123 99 106 92 80 84 142 112 103 58 45 126 185 146 119 144 163 199 161 179 125 121 121 108 87 40 78 65 131 146 135 167 132 108 189 75 122 76 77 120 136 149 55 80 148 92 91 84 124 67 115 143 91 96 95 122 132 104 97 119 93 220 114 64 121 118 128 95 46 117 38 193 162 137 77 79 146 123 78 59 126 197 59 118 131 90 75 168 107 113 149 125 136 115 99 108 166 112 193 133 113 211 112 168 174 82 152 109 76 84 119 150 133 112 65 122 144 82 109 142 147 105 171 93 53 127 134 80 78 87 101 106 71 125 138 96 94 135 67 111 137 172 153 160 199 145 106 47 73 31 139 41 104 74 70 125 167 164 72 46 175 131 143 92 132 112 97 91 77 143 71 75 112 71 114 82 58 99 174 42 84 102 128 179 131 94 136 110 119 36 162 85 172 166 107 112 78 119 105 67 67 84 130 74 99 95 126 64 113 109 133 77 107 134 35 173 90 121 147 87 136 154 151 89 71 98 124 99 92 217 75 114 67 186 113 75 57 37 148 139 100 114 148 114 133 81 136 134 86 64 198 111 70 177 140 110 63 131 177 166 177 99 102 125 62 90 170 128 115 110 114 135 101 115 113 41 155 135 57 94 102 164 80 52 69 94 57 162 121 57 100 170 65 52 16 147 95 116 141 132 120 49 90 207 101 94 221 97 126 95 96 104 237 117 49 149 154 61 109 89 67 64 143 109 101 133 133 90 65 164 78 152 83 144 93 66 108 141 104 133 59 143 74 126 102 83 168 78 109 152 85 104 127 41 82 129 199 150 73 130 157 139 91 111 123 52 99 126 34 120 136 136 96 154 144 128 108 152 87 88 102 168 129 73 81 80 134 147 101 110 122 86 92 82 218 120 29 171 162 114 126 129 142 157 94 132 106 172 140 61 125 192 140 108 137 121 122 162 145 95 134 156 95 115 103 98 88 145 114 74 74 147 93 132 124 77 114 143 174 206 90 125 77 198 145 149 115 144 125 66 84 43 77 177 74 107 159 140 43 21 145 129 124 119 78 127 138 217 182 88 128 50 141 175 119 64 155 83 108 181 94 126 139 112 84 119 123 156 89 157 106 88 123 187 37 88 122 85 28 106 155 140 194 87 119 124 92 126 131 71 86 114 123 57 72 98 93 92 47 152 143 90 93 99 117 118 206 136 112 67 95 117 75 220 201 103 129 138 79 165 72 171 133 93 114 177 171 111 152 98 77 136 87 104 63 126 164 170 114 74 152 80 70 57 122 123 106 102 97 88 99 125 65 21 66 104 114 92 79 111 109 85 140 104 93 211 176 14 103 158 84 219 89 215 119 150 124 108 140 57 124 83 109 157 86 126 60 11 51 76 78 121 142 194 64 81 120 42 95 82 94 44 123 88 106 89 94 97 81 82 114 54 208 106 141 55 77 128 131 108 178 149 50 128 79 137 109 131 195 138 131 17 147 157 124 77 180 71 182 100 165 121 181 124 168 28 86 129 150 111 141 124 109 117 124 117 177 80 91 97 63 128 90 114 128 124 120 76 91 148 126 104 89 158 63 95 81 82 74 187 157 215 128 146 135 115 69 119 92 126 62 42 120 61 77 69 67 120 189 140 88 82 102 110 97 87 114 118 77 161 172 143 96 84 170 82 56 107 97 144 85 87 75 182 132 39 224 146 140 81 141 190 157 172 112 145 141 101 70 98 124 154 123 72 135 66 148 158 127 39 102 137 68 42 84 121 125 146 93 57 147 132 58 67 23 127 169 123 64 108 117 145 57 151 144 114 244 121 85 110 111 79 116 94 160 90 118 112 138 166 72 160 148 98 82 154 139 95 123 130 55 141 171 103 54 161 157 102 112 120 115 133 146 67 103 164 58 149 128 73 41 66 90 59 56 99 56 69 76 109 133 160 80 83 135 153 168 109 154 75 116 114 112 146 116 100 92 71 173 102 61 166 111 103 131 83 127 202 131 168 47 83 93 103 114 132 172 126 151 139 101 150 134 111 127 91 102 79 121 107 58 147 189 148 127 96 109 114 159 121 92 127 51 110 87 138 89 145 185 128 106 101 142 113 74 130 54 66 107 132 156 146 142 87 95 164 160 129 91 70 56 170 153 142 112 113 51 88 141 84 162 100 158 116 150 119 90 74 170 160 71 135 134 79 168 106 99 121 149 121 144 113 180 106 145 57 206 105 67 83 130 190 197 67 98 156 126 69 97 96 139 122 118 158 137 119 109 91 57 125 110 222 103 71 203 168 116 121 155 125 126 103 88 149 139 138 128 93 142 73 179 98 60 142 77 86 116 158 54 120 116 57 238 76 149 216 115 143 31 170 91 150 88 106 40 129 131 59 54 46 152 157 86 58 173 157 105 133 100 99 105 99 106 133 130 62 70 156 119 88 52 112 176 189 141 151 121 89 66 48 100 114 127 87 147 195 142 98 100 120 106 129 46 159 163 128 82 130 83 234 57 94 101 65 156 154 120 116 101 109 66 75 106 136 120 143 105 139 166 195 143 130 161 143 95 153 57 125 100 145 197 117 96 121 157 150 52 46 116 109 141 56 130 60 83 108 128 121 131 113 175 110 74 80 108 115 163 96 133 137 98 102 77 136 94 79 71 151 85 97 112 121 162 101 30 95 100 93 106 132 85 49 144 106 50 119 149 115 109 110 93 38 177 100 155 141 172 110 112 167 91 104 109 199 90 133 37 165 200 137 88 38 150 182 95 112 71 58 154 116 77 56 86 111 43 92 166 115 142 82 102 76 67 101 124 109 66 53 70 95 101 207 89 72 65 88 91 145 47 72 87 103 144 92 97 58 95 130 70 79 61 71 103 160 142 61 118 122 70 75 102 135 143 131 165 47 145 71 73 114 160 93 111 69 83 111 100 58 131 45 161 115 74 50 115 153 57 83 88 138 81 97 83 166 150 65 75 140 121 61 137 20 48 59 114 199 157 123 79 125 151 102 81 116 123 77 128 151 97 99 115 216 115 76 79 76 181 55 56 132 132 147 97 117 121 160 193 107 83 210 67 27 125 81 79 60 153 67 156 106 119 126 116 70 149 147 144 143 122 155 117 169 133 76 108 120 92 174 117 137 132 132 65 155 173 95 57 109 126 119 95 104 102 75 142 59 160 94 146 144 109 59 112 79 152 90 123 135 146 83 111 131 122 212 42 148 126 229 183 78 64 101 83 173 104 86 110 143 85 112 155 70 116 161 197 46 146 102 110 118 96 192 91 93 64 97 64 154 133 159 103 118 76 140 61 98 96 68 91 46 122 48 150 119 150 198 142 145 101 127 107 210 154 111 136 153 87 48 120 85 97 148 164 109 83 117 103 143 141 108 154 73 188 162 155 85 161 110 60 129 147 115 85 120 157 122 92 194 165 80 90 134 90 172 128 175 35 82 134 115 135 122 111 159 111 108 56 51 139 82 103 141 90 92 165 149 34 178 127 132 87 156 107 184 39 72 92 60 113 143 180 71 145 184 106 126 77 153 49 176 137 193 209 89 179 95 134 124 96 179 134 111 181 114 109 57 110 119 89 133 97 118 172 100 30 37 72 97 50 121 95 145 104 93 66 106 166 183 71 119 118 169 109 116 102 119 103 125 132 142 61 114 123 43 189 134 118 64 106 151 87 94 136 55 68 120 239 153 83 148 179 118 60 189 151 140 99 160 96 95 101 139 142 148 50 42 87 50 114 159 91 129 136 164 127 121 80 95 123 117 79 87 118 100 107 125 78 75 62 49 168 91 115 82 58 97 203 100 93 67 100 218 129 133 119 117 47 145 105 154 116 108 107 101 80 58 153 187 150 109 121 130 77 101 102 83 128 140 105 105 132 111 115 83 111 44 166 118 176 120 153 84 70 41 40 98 142 174 161 140 121 182 113 114 76 147 111 122 71 86 105 147 137 96 103 141 111 124 87 92 119 102 151 79 123 180 233 202 118 167 102 207 58 62 84 120 114 123 67 104 132 125 32 41 158 68 126 27 120 128 76 88 107 158 54 136 107 130 55 148 128 136 212 140 144 156 175 69 106 66 135 87 164 101 105 99 74 164 110 99 191 120 163 167 157 96 150 127 113 45 101 197 121 49 148 43 108 134 108 146 115 150 103 83 60 148 63 104 199 173 163 133 137 159 125 100 156 110 63 147 60 142 107 98 90 98 157 74 147 71 106 121 99 84 124 103 74 112 175 96 123 109 60 108 75 161 211 84 157 102 132 110 130 140 20 80 178 90 62 191 135 100 111 94 128 139 93 89 119 64 135 164 165 157 153 67 113 67 124 142 92 192 159 119 84 81 135 211 87 131 21 64 169 26 67 102 100 70 73 193 115 153 75 122 121 85 110 71 176 155 101 112 108 51 103 173 174 90 104 67 123 91 90 182 111 173 141 129 124 90 196 169 101 108 168 112 79 213 137 209 164 24 79 193 130 188 107 74 91 117 71 101 40 68 111 79 136 140 137 75 119 194 46 80 6 78 128 90 68 151 57 141 166 131 137 111 151 79 162 120 160 122 132 69 119 114 77 76 161 103 132 114 154 119 83 135 174 161 226 151 103 67 120 104 130 60 56 198 117 84 112 39 157 67 92 74 186 140 107 101 128 166 118 81 133 97 181 63 109 169 160 166 113 140 92 122 137 86 138 80 138 82 123 100 119 74 102 120 74 204 45 102 102 49 175 130 138 77 164 145 160 175 104 47 42 207 91 90 106 115 108 96 140 80 150 133 114 29 29 66 235 63 57 119 86 114 77 87 162 125 64 112 99 125 173 154 58 141 49 154 109 119 62 91 227 164 104 75 98 91 138 97 144 126 60 53 97 44 134 117 173 142 108 105 57 92 178 173 123 151 54 105 105 101 88 68 206 82 115 110 128 147 193 127 89 96 92 162 75 106 55 131 111 153 114 144 129 193 95 59 71 155 118 116 79 151 99 146 152 40 79 62 82 44 26 216 145 103 65 128 133 81 40 131 152 129 63 40 62 134 183 147 76 114 63 104 117 108 44 79 95 122 130 149 65 17 49 39 192 93 179 124 53 106 116 107 39 162 147 142 147 184 162 128 147 152 141 105 94 155 141 160 173 137 141 218 71 96 86 113 128 156 96 102 191 114 230 178 115 204 67 57 139 86 142 104 184 154 110 46 155 158 122 80 191 200 116 118 59 155 157 166 103 90 91 138 202 122 115 123 63 53 119 37 73 86 75 67 122 183 100 130 160 74 156 103 95 115 77 118 133 112 61 159 110 108 108 177 204 69 165 53 111 73 141 134 156 124 94 98 126 100 103 239 131 131 116 133 151 106 142 287 125 121 202 48 91 90 193 156 62 170 122 148 69 56 144 79 150 177 97 113 126 106 87 90 136 79 139 115 65 108 79 111 49 70 95 121 106 123 119 188 74 161 200 55 113 50 114 118 130 53 78 167 132 108 71 152 62 128 53 156 131 122 108 139 28 90 173 118 100 146 77 146 142 63 83 82 111 180 69 103 109 95 88 96 95 185 92 89 81 143 121 138 186 34 107 123 86 79 146 68 94 86 57 106 169 98 93 101 141 78 48 120 188 110 67 171 127 58 83 129 156 121 85 107 57 87 117 162 29 74 130 116 88 84 55 86 106 126 125 84 94 41 78 19 107 52 151 99 127 64 164 110 100 65 131 172 62 94 95 48 89 140 85 101 31 208 105 108 129 146 144 153 153 133 49 99 116 119 113 135 59 114 205 140 151 197 85 142 101 86 163 64 233 113 13 94 172 125 43 162 89 61 172 144 70 142 192 163 55 191 134 124 98 89 99 105 76 109 113 88 144 228 115 140 128 187 48 110 84 140 80 77 198 97 59 112 79 120 103 99 127 193 143 100 90 69 178 101 103 204 90 59 121 53 97 74 74 143 106 158 60 212 48 49 91 85 158 124 33 165 154 95 86 44 173 51 149 48 86 121 104 125 82 117 197 27 193 152 113 135 160 138 37 50 86 150 100 97 78 145 202 69 96 177 110 78 117 93 111 112 113 144 134 113 125 160 132 80 233 142 152 100 82 122 70 139 163 153 84 140 92 146 132 56 80 98 131 120 83 163 165 117 173 131 81 132 163 100 157 160 92 140 186 178 72 78 93 164 145 92 111 172 169 86 117 55 60 59 108 139 109 135 136 125 99 157 125 124 119 81 138 162 116 77 153 112 57 34 96 112 118 181 131 185 93 137 115 58 125 124 160 130 94 179 109 162 84 175 112 92 101 111 113 144 174 219 150 83 122 79 128 75 150 113 55 81 170 83 127 112 78 101 171 153 115 114 174 155 204 63 97 133 80 43 152 149 80 169 59 137 95 130 95 102 137 91 108 215 69 32 87 183 55 66 104 70 133 144 83 82 116 112 138 73 96 151 47 118 43 184 101 115 93 141 108 115 81 178 78 168 199 172 196 135 42 185 153 107 132 74 109 125 143 99 106 242 119 185 124 104 83 146 75 130 115 137 108 121 75 121 125 222 158 110 136 78 83 117 151 148 126 171 77 192 114 97 101 115 115 187 20 253 116 61 87 75 84 163 82 119 131 88 101 148 114 35 140 115 158 48 96 104 119 67 120 126 148 75 139 26 61 102 138 165 89 194 133 89 174 108 125 137 81 102 167 77 87 92 87 147 92 183 119 167 58 157 112 209 162 172 71 111 47 92 107 100 203 62 114 67 135 124 142 161 80 43 137 23 106 189 158 68 126 127 63 137 100 80 50 57 63 161 101 124 121 98 101 109 182 136 168 138 111 171 87 114 88 83 57 106 108 38 96 121 100 67 139 129 141 18 152 75 17 132 166 43 124 136 116 141 126 105 173 96 166 153 74 63 114 52 106 106 128 94 123 114 96 79 112 80 95 66 62 169 137 158 79 78 56 26 47 93 116 117 55 93 131 120 115 76 64 93 93 32 84 152 106 124 150 128 74 113 155 115 60 60 101 97 85 67 103 238 147 153 157 138 103 151 116 139 75 147 117 135 112 99 103 134 127 88 114 78 59 57 157 135 146 51 88 95 112 138 88 89 131 40 49 117 109 173 72 83 146 38 141 118 109 85 125 150 136 193 89 90 91 111 148 124 145 116 84 121 116 122 116 62 102 155 53 88 143 68 85 42 86 128 75 90 114 166 88 93 53 122 50 151 111 134 63 130 118 132 290 110 114 99 98 192 175 60 132 67 138 163 92 72 129 45 54 131 131 183 97 89 69 120 115 114 78 74 154 43 55 123 89 136 114 39 152 218 100 71 91 199 87 133 232 187 103 152 126 88 152 69 106 78 131 111 109 115 134 98 83 99 85 55 127 163 115 196 152 82 140 145 99 201 196 76 98 99 82 83 83 139 189 176 174 128 104 153 142 84 72 60 151 102 166 103 103 113 94 143 137 146 78 80 116 149 165 102 210 95 86 134 121 94 30 144 82 144 148 127 57 99 84 61 100 104 146 154 160 84 71 69 119 153 64 158 120 104 42 198 185 130 52 135 155 143 97 79 177 89 138 20 83 120 75 108 98 84 113 55 148 83 45 75 150 70 126 80 74 159 94 110 116 81 108 201 63 157 77 179 20 138 148 111 41 128 80 124 108 101 80 55 154 139 153 167 86 50 142 107 118 175 122 98 85 180 161 109 190 126 25 121 49 128 107 125 84 103 115 84 106 48 114 58 96 82 107 115 91 122 96 177 70 128 158 115 87 38 175 63 181 120 173 72 171 78 184 105 94 141 33 163 158 123 89 107 146 97 73 150 46 78 136 133 113 78 179 144 107 176 90 178 31 107 86 104 140 31 57 146 123 84 140 148 29 83 52 119 47 99 54 78 66 71 125 141 109 28 101 150 152 75 42 146 94 146 117 127 87 122 83 118 103 209 105 126 158 62 81 142 101 110 25 96 93 62 115 67 92 181 152 234 152 101 172 175 116 57 56 49 48 152 196 125 95 57 90 76 132 110 84 127 101 141 118 26 159 93 102 147 73 88 60 74 154 157 125 54 101 45 118 141 175 121 55 165 67 145 184 99 125 40 87 149 118 38 117 124 112 123 149 183 167 105 78 152 46 140 146 113 133 90 158 113 101 124 52 110 120 141 138 76 73 98 89 90 125 104 48 96 122 67 134 79 87 134 148 108 111 128 75 27 78 162 89 92 78 39 83 74 144 88 116 73 152 158 73 112 80 136 154 135 131 100 90 83 76 161 108 141 107 100 115 83 33 132 105 68 74 206 75 46 128 88 171 164 84 92 166 167 144 81 74 107 168 74 155 174 253 134 90 170 98 76 189 109 90 67 172 74 149 117 88 102 81 80 130 111 96 212 80 182 114 75 77 180 127 160 127 95 155 92 104 134 60 145 152 131 98 123 74 69 134 43 64 105 61 100 98 108 128 150 110 48 108 149 181 173 133 111 104 108 136 159 128 91 140 92 116 87 174 151 86 142 101 107 135 203 101 33 41 155 96 37 106 45 84 143 220 174 131 190 157 140 73 123 103 122 77 64 136 62 140 63 114 118 163 95 65 64 114 51 42 101 155 76 199 123 59 138 114 175 143 160 43 191 102 145 63 116 49 151 93 105 47 137 58 90 96 130 146 103 131 109 100 125 100 114 46 162 118 127 114 134 141 121 122 94 78 39 163 119 38 156 104 152 200 157 97 177 138 106 74 97 141 105 106 57 152 133 136 77 127 80 162 66 186 83 98 106 114 118 28 156 65 127 182 154 90 197 109 65 102 114 101 45 90 80 172 166 102 58 103 108 152 44 123 148 68 104 80 133 94 114 78 128 41 92 89 172 125 35 176 109 109 9 98 183 69 64 91 159 87 93 111 132 127 187 92 97 158 39 156 48 126 163 151 73 111 74 120 65 76 140 141 79 138 60 96 105 185 58 107 111 83 100 102 50 94 123 171 65 96 144 145 110 183 130 132 114 175 42 129 156 64 87 142 109 140 100 64 70 97 180 102 100 18 105 104 143 64 152 142 98 213 133 114 111 125 70 149 137 152 138 175 66 144 189 164 131 131 93 85 106 120 141 183 164 133 104 178 63 76 142 147 154 82 112 76 91 122 251 130 115 72 135 16 113 90 144 133 164 72 144 86 260 46 83 133 119 67 62 84 79 24 142 103 184 133 90 85 119 190 112 132 163 60 42 123 103 96 79 180 263 69 49 200 78 135 125 163 130 154 160 175 142 149 116 97 95 71 145 80 104 70 116 130 155 172 101 164 53 127 174 129 85 98 21 107 68 197 120 40 101 43 91 87 137 111 92 120 165 81 176 38 177 193 92 105 64 30 147 137 158 149 133 110 179 93 113 87 158 109 98 65 210 103 153 188 94 137 201 198 82 121 149 167 67 183 69 85 85 94 132 89 94 98 102 137 104 65 106 138 153 106 100 91 86 120 89 159 72 229 101 76 167 111 120 77 144 72 118 48 115 145 112 70 97 118 124 147 95 60 80 128 129 124 92 97 69 76 197 120 82 59 107 107 83 86 156 92 93 113 52 144 79 76 88 77 208 40 133 95 224 35 49 51 139 74 178 135 117 83 151 168 104 78 121 139 98 109 69 161 77 93 47 104 122 194 123 192 138 167 116 110 99 140 118 56 96 137 150 133 113 139 174 129 141 167 154 121 108 113 269 210 58 47 73 109 69 92 68 147 129 130 119 130 112 72 92 159 110 112 98 64 125 85 82 78 113 112 92 91 65 86 179 122 89 74 39 115 137 197 201 69 184 117 50 91 108 158 78 101 39 61 149 178 131 85 132 86 103 101 131 87 86 49 57 178 138 53 149 179 166 96 61 106 60 131 133 200 139 101 104 130 86 83 119 76 125 90 75 134 82 120 103 57 141 69 81 113 62 68 98 90 89 70 172 73 167 192 108 131 83 171 88 95 106 77 106 55 169 101 81 131 45 99 126 115 55 67 75 174 129 61 152 117 88 130 76 102 79 105 101 77 127 59 63 51 126 105 97 53 82 148 84 62 156 160 88 119 89 88 166 114 99 195 92 61 146 96 184 163 126 157 103 95 130 24 107 99 123 83 111 154 129 24 70 175 142 110 187 146 196 149 95 49 152 80 151 67 185 132 102 41 144 90 172 100 94 56 161 106 132 127 146 90 116 98 160 137 217 26 181 123 156 86 51 105 156 126 97 53 160 122 157 83 138 53 136 100 153 138 162 85 103 105 67 122 154 136 91 149 137 89 57 95 71 137 173 129 65 61 103 133 114 65 88 136 103 132 119 192 51 129 131 90 35 116 116 190 139 128 135 88 93 67 130 158 122 59 59 135 145 143 89 141 70 204 48 80 169 142 120 63 144 146 101 136 170 210 61 169 91 77 110 93 166 140 181 128 65 109 104 65 85 113 173 159 93 199 82 49 86 146 157 82 113 120 84 88 72 123 184 113 224 58 115 43 109 256 170 267 185 117 84 109 116 122 69 111 109 83 131 192 60 95 77 130 129 169 79 134 114 125 148 124 61 146 140 108 135 97 200 88 100 108 168 71 79 79 128 141 108 124 205 102 170 87 123 115 111 158 79 74 87 200 56 169 139 156 138 72 131 84 105 95 46 126 60 110 130 91 63 142 162 102 171 104 133 76 113 129 140 26 104 89 128 110 102 107 122 174 166 131 119 122 74 97 109 112 161 95 131 65 109 151 171 48 95 71 139 73 205 75 104 174 126 83 170 115 110 89 135 118 99 86 125 131 124 109 74 152 70 131 149 122 73 55 118 154 160 84 65 96 78 104 228 115 79 187 64 168 96 123 138 83 119 87 53 80 88 134 148 109 45 115 76 91 117 32 74 88 47 166 80 88 84 128 124 79 149 91 90 43 174 123 69 52 110 160 60 76 158 79 131 128 92 75 110 79 108 104 146 103 86 36 139 81 140 60 55 100 94 257 121 74 48 91 71 70 169 121 69 168 99 86 67 62 140 56 169 147 140 48 156 105 184 136 134 124 179 101 73 98 122 73 23 165 104 97 217 136 156 132 74 75 101 105 130 91 98 105 153 108 71 117 87 34 130 141 113 103 107 97 166 111 65 152 144 114 108 31 101 169 109 206 148 131 129 41 56 115 72 87 90 38 55 162 110 139 126 103 206 120 54 94 19 111 123 110 96 61 79 175 169 104 205 128 129 95 154 189 128 130 170 56 111 51 44 128 77 82 158 103 153 1</t>
-  </si>
-  <si>
-    <t>GAM(0.3668627570683598, -1.0609730912386175e-27, 0.6538092898317768)</t>
-  </si>
-  <si>
-    <t>2 1 1 1 2 1 1 2 1 2 0 1 0 0 0 1 0 2 1 1 3 0 2 3 0 1 0 0 1 1 1 2 0 0 2 1 0 1 2 1 0 0 0 2 0 2 0 2 0 1 1 0 1 1 2 1 0 0 2 1 1 1 2 1 2 0 1 0 0 1 1 1 3 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 2 1 0 0 1 0 1 1 0 1 1 1 0 1 1 0 0 0 1 2 1 1 1 0 1 4 1 1 1 2 0 1 2 2 1 1 0 1 5 2 1 2 0 0 2 0 1 1 0 0 1 1 2 0 0 3 1 1 1 2 1 2 1 1 1 0 0 2 0 2 2 2 1 1 0 0 2 0 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 0 2 1 2 3 1 0 0 4 1 2 3 0 0 0 3 1 0 2 2 0 1 0 2 1 0 0 1 1 2 1 0 0 0 0 2 0 1 0 0 2 0 2 1 0 1 1 0 1 1 0 0 3 0 0 1 1 1 2 1 2 0 0 1 0 0 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 1 0 1 1 0 0 0 3 3 0 1 1 1 1 0 0 2 2 1 2 1 0 3 0 1 0 1 1 2 1 0 0 2 1 1 0 1 0 1 0 1 0 1 1 2 2 0 1 0 0 1 1 0 1 1 0 0 1 0 1 0 1 3 2 1 1 0 0 0 1 1 1 1 0 0 0 2 0 1 2 0 1 0 0 0 2 1 0 1 1 1 1 2 0 0 0 1 1 0 1 3 1 2 0 1 0 1 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 2 0 0 2 0 0 1 0 1 1 0 1 0 1 0 0 1 3 0 2 1 0 0 2 3 1 1 1 0 1 1 1 1 1 2 3 0 1 1 0 1 0 0 0 0 0 0 1 1 0 1 2 0 0 2 1 0 2 0 0 2 1 0 1 0 0 1 3 2 1 1 0 0 1 1 1 2 1 0 1 1 0 3 2 1 2 0 1 0 2 0 2 1 2 0 1 1 0 1 2 1 2 0 1 0 1 0 0 0 1 1 2 0 0 2 2 0 0 3 3 0 0 0 1 4 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 1 2 1 1 3 2 0 0 1 1 1 1 1 1 1 2 0 1 1 1 1 1 2 1 1 2 2 1 4 2 1 1 0 1 0 0 5 3 1 2 0 1 0 1 1 0 1 2 1 1 0 0 1 0 3 0 0 2 0 3 2 1 1 0 1 0 1 1 0 1 1 1 0 1 3 1 1 0 0 0 0 1 2 1 0 2 0 0 1 2 0 2 1 1 1 1 2 1 2 1 2 2 0 1 1 0 1 0 0 0 3 1 1 2 0 0 2 1 0 1 2 1 0 1 4 1 1 0 0 1 0 3 0 2 0 1 1 0 1 0 1 0 1 1 0 2 0 2 0 1 0 1 1 0 0 0 1 0 1 3 1 1 1 2 1 3 0 1 0 3 1 0 1 1 1 0 0 0 0 2 0 0 3 2 2 1 0 2 3 1 0 2 3 2 2 2 1 0 1 2 0 1 2 2 2 0 3 1 1 1 0 1 1 1 1 0 1 1 1 2 1 3 1 3 2 1 1 0 2 0 1 0 1 1 0 1 2 0 2 0 0 2 0 2 0 2 1 2 0 1 0 1 2 1 1 3 0 1 0 1 1 2 0 0 0 1 0 0 1 1 0 0 0 1 1 1 2 0 2 1 0 2 2 2 0 0 1 2 0 0 1 2 0 0 0 0 0 0 1 0 0 0 3 0 0 0 0 0 0 2 1 1 2 0 0 1 1 0 0 1 1 1 0 1 1 0 2 0 1 1 0 1 0 0 0 0 2 0 1 1 1 1 1 0 1 2 0 1 1 1 0 1 0 1 2 1 1 1 2 2 1 0 0 3 1 1 1 0 3 1 2 0 1 3 0 1 4 1 2 1 2 1 0 2 1 0 3 2 1 0 3 1 1 1 1 2 2 0 2 0 1 1 0 2 0 0 1 0 2 1 1 1 0 0 2 0 1 0 0 0 1 1 2 1 0 1 1 2 0 0 1 2 1 1 0 0 0 1 1 2 1 2 0 1 0 0 3 1 1 1 1 3 0 0 0 1 1 0 0 3 0 1 1 0 0 1 1 3 2 1 1 0 0 1 1 1 0 1 0 2 0 1 0 0 0 1 0 2 1 1 0 0 0 1 1 0 1 1 0 1 0 1 0 0 1 0 1 0 0 0 1 0 2 0 1 0 1 3 1 1 0 0 0 0 0 3 0 2 2 0 0 1 0 1 1 1 2 2 0 2 0 1 1 1 1 2 2 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 2 0 1 0 1 0 2 1 1 2 0 1 1 1 0 1 1 0 1 1 2 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 0 1 1 0 0 0 2 1 0 0 1 0 1 0 0 1 0 3 2 0 0 0 0 0 2 3 0 0 0 1 4 2 2 0 0 1 1 0 0 2 0 1 0 2 0 0 1 1 0 2 3 0 1 0 2 1 0 0 1 0 1 2 0 2 0 1 2 1 0 0 1 0 1 1 1 2 1 0 0 1 0 0 0 1 2 2 1 0 0 1 2 0 2 0 2 1 1 1 2 1 1 2 0 1 2 1 0 1 2 2 1 0 1 1 0 0 2 2 1 3 3 1 1 2 2 0 2 0 1 1 2 3 0 1 2 0 1 0 0 1 0 0 0 2 0 0 0 1 2 0 1 1 2 1 0 1 0 1 1 0 1 1 2 2 1 0 0 1 0 0 0 1 3 0 1 3 3 0 0 0 0 1 0 3 2 3 1 2 1 1 2 1 0 1 0 0 1 1 1 0 0 1 2 1 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 2 2 1 1 2 2 2 0 1 0 0 0 1 0 0 0 1 0 0 1 3 4 0 1 0 1 0 0 1 0 2 1 0 0 1 4 1 0 0 0 1 1 1 0 0 1 2 2 0 1 0 0 0 2 1 0 2 1 2 1 1 0 2 1 1 1 0 0 0 0 0 2 1 1 1 0 1 0 2 1 2 1 0 0 0 1 0 1 1 1 2 0 0 2 0 2 0 0 2 1 3 1 1 0 1 0 3 1 1 0 1 1 1 1 0 0 0 0 1 1 1 1 1 1 2 0 2 1 0 1 0 1 0 0 0 1 3 3 1 1 0 0 1 0 1 0 0 1 2 0 1 2 3 0 3 2 0 3 1 1 2 0 0 2 1 0 0 1 0 1 0 2 3 2 2 0 1 1 0 0 1 1 0 0 1 2 1 0 1 1 0 2 0 2 1 1 0 0 0 0 2 0 0 0 1 3 1 2 0 1 2 1 0 0 1 2 1 0 1 1 0 1 1 1 1 3 2 1 2 1 0 0 0 3 2 0 0 3 0 1 3 0 0 1 4 0 2 2 0 0 1 0 1 0 1 1 1 1 3 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 1 2 0 1 0 1 0 1 0 2 0 0 1 0 0 2 1 2 1 0 0 1 1 2 0 2 1 1 3 1 4 1 0 2 2 0 1 2 0 1 0 2 1 0 1 0 3 1 1 2 1 2 1 1 0 2 2 1 0 0 1 2 0 2 1 3 1 1 2 1 0 0 1 0 1 0 4 0 1 0 1 3 0 0 1 0 0 0 1 1 2 1 0 0 1 0 1 0 2 0 1 0 3 2 0 1 2 4 0 3 2 0 2 1 0 1 0 2 1 1 1 2 0 1 1 0 0 1 0 3 1 2 1 1 0 1 1 0 1 0 2 0 1 3 0 1 0 1 1 2 1 1 1 0 0 2 0 2 1 3 0 3 0 0 2 1 1 0 0 0 1 1 1 3 1 1 0 0 2 0 1 2 1 1 1 2 0 1 0 0 0 0 0 0 0 0 1 0 0 2 0 3 1 2 1 4 0 2 1 0 1 1 4 0 1 0 3 1 1 2 1 0 0 1 1 0 0 1 0 1 0 0 1 0 1 1 0 0 1 1 1 0 0 0 1 0 2 2 0 2 0 0 1 1 0 1 1 1 1 2 5 1 1 0 1 3 2 2 1 1 1 2 2 2 1 1 1 0 2 1 1 0 0 1 2 3 3 0 3 1 0 1 1 1 1 2 1 2 1 1 0 0 1 1 1 0 0 2 2 0 0 0 1 1 0 0 0 0 2 1 0 3 2 2 1 1 0 2 1 0 1 0 0 0 1 1 1 0 1 3 0 1 1 0 2 0 2 0 0 0 1 2 0 2 1 0 0 1 1 0 0 0 0 1 1 0 4 3 1 0 0 1 0 1 1 0 0 2 2 2 3 2 1 0 1 1 0 1 1 1 2 0 1 1 2 1 0 1 0 2 1 1 1 0 0 1 1 0 2 1 0 0 2 2 3 3 1 0 3 1 1 2 0 0 0 0 1 3 1 0 1 1 3 1 2 2 1 2 0 1 1 1 2 1 0 2 2 2 0 1 0 0 0 0 0 1 0 0 1 1 1 0 1 3 0 0 2 0 2 2 2 0 0 3 0 2 0 0 3 0 2 0 1 0 0 0 2 1 0 1 2 0 3 1 1 0 1 1 1 0 3 1 2 0 1 2 0 1 2 3 4 2 1 2 1 0 1 0 2 0 2 1 0 1 1 0 2 0 0 2 1 3 2 2 4 2 1 1 1 1 2 0 1 1 0 1 0 1 1 0 2 3 0 1 0 2 0 0 1 1 1 0 0 1 0 2 0 2 1 1 1 0 1 1 0 2 2 0 1 0 1 2 0 1 1 1 1 2 1 1 2 0 2 1 0 1 2 1 1 1 3 1 2 1 0 1 0 2 0 1 0 0 0 0 0 0 2 0 1 1 2 0 0 1 0 1 2 2 0 2 0 0 1 1 1 3 1 1 0 0 0 1 2 2 0 1 0 2 1 0 1 0 0 5 1 0 1 0 0 1 3 0 1 0 3 0 1 0 2 1 2 1 0 1 0 1 1 1 0 0 0 0 0 1 1 2 0 0 0 1 0 2 1 0 1 0 2 2 1 2 0 3 2 1 0 0 0 2 1 5 2 1 0 0 1 1 0 0 0 3 2 0 1 2 0 0 1 3 0 1 0 3 0 0 1 2 0 1 1 1 1 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 1 2 1 0 1 0 1 4 1 2 0 1 0 2 2 0 3 0 0 1 3 1 1 1 1 2 1 0 2 1 1 3 1 1 0 0 1 1 1 0 0 0 1 1 1 1 0 1 1 0 0 0 0 1 1 1 1 0 1 2 2 0 0 0 1 0 0 2 0 1 0 0 1 3 1 2 2 2 1 1 1 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 2 2 1 2 0 1 2 0 0 2 1 1 1 1 1 1 1 0 1 1 1 2 1 0 0 3 1 2 1 1 1 1 3 1 1 0 1 1 0 2 1 1 1 0 4 0 0 0 0 1 1 2 1 1 0 0 0 0 0 1 1 0 2 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 1 2 0 0 1 1 1 1 1 0 0 0 0 2 1 0 2 1 1 1 2 0 2 1 2 1 0 1 0 0 0 0 0 1 0 1 1 1 0 2 1 2 0 2 2 0 0 1 2 1 1 2 0 2 0 1 0 2 1 0 3 0 0 0 1 2 0 2 1 2 0 0 2 0 0 1 1 1 0 1 2 0 1 2 1 0 0 0 1 2 1 0 1 0 0 0 2 1 0 3 1 1 1 0 1 4 1 0 2 1 2 0 0 0 0 0 3 1 2 0 1 1 0 1 0 0 2 1 1 2 0 0 1 2 0 2 0 0 0 1 1 0 0 0 0 0 3 0 2 1 0 0 0 2 1 2 1 0 2 1 2 2 1 0 1 0 0 1 2 1 1 0 1 0 0 2 3 0 2 1 0 1 1 0 3 1 0 2 0 1 1 1 3 2 1 0 2 0 0 2 2 0 0 0 2 1 0 2 1 0 0 2 1 1 1 0 1 0 0 1 0 0 2 1 1 3 1 2 0 0 2 0 0 2 2 0 1 2 0 0 1 1 2 1 0 1 0 1 1 1 1 0 0 0 0 2 1 1 0 2 2 0 0 0 0 0 1 0 0 0 1 0 1 4 0 1 1 1 1 1 1 0 0 0 0 1 0 0 0 1 2 1 0 2 0 0 0 0 1 2 1 0 2 1 0 1 1 1 1 2 2 1 3 1 1 3 0 2 1 0 1 2 0 1 0 0 0 0 0 0 2 0 2 1 1 2 0 2 0 1 1 1 2 0 1 3 2 2 1 0 0 1 1 0 1 0 1 1 1 3 2 0 0 0 1 0 0 1 1 0 0 0 1 2 0 2 1 0 1 2 1 1 0 1 0 2 1 2 1 2 2 0 0 2 2 1 2 1 0 0 0 1 2 0 1 0 1 0 0 0 1 1 0 3 0 1 1 0 0 1 0 0 3 1 3 1 1 1 0 1 1 0 3 1 0 1 0 1 0 1 1 0 0 1 0 1 0 0 0 0 1 0 1 0 0 2 1 2 1 1 2 2 1 1 1 3 0 0 1 1 0 1 2 1 2 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 2 2 1 0 0 1 0 0 2 2 1 2 1 0 1 1 1 1 0 0 0 3 1 0 0 0 0 2 1 0 1 0 1 0 0 1 1 0 1 0 1 1 2 0 0 2 2 0 0 2 0 3 2 0 0 2 2 0 0 1 1 1 0 0 1 1 0 1 0 1 1 2 1 1 0 0 1 0 0 0 1 1 0 2 2 1 5 0 1 0 1 1 1 2 0 1 2 0 0 1 0 0 1 0 0 0 0 2 0 1 1 0 1 2 4 1 1 2 0 2 0 0 0 0 1 0 1 1 1 1 1 1 1 0 1 1 0 1 0 1 1 0 0 1 1 1 2 1 0 0 1 1 0 2 0 1 0 1 1 1 1 0 0 0 0 0 0 2 0 0 3 1 1 1 1 1 0 1 0 0 1 0 1 1 0 1 4 1 0 0 0 0 0 3 1 1 2 1 0 1 1 0 1 0 1 1 1 1 1 0 0 0 0 0 0 2 0 0 0 0 2 1 1 0 0 0 1 0 1 1 0 1 3 0 1 1 0 1 0 1 2 2 1 2 2 1 1 1 1 0 2 1 1 2 4 0 2 0 3 1 0 2 1 0 1 2 2 0 2 1 2 0 0 1 0 2 3 0 3 0 0 0 2 0 2 2 1 0 1 2 0 1 1 1 3 2 1 1 1 2 3 3 1 0 2 0 1 1 1 3 1 0 0 1 2 0 0 1 1 1 1 1 1 1 1 1 2 2 1 2 1 1 2 0 0 1 0 0 3 2 0 1 1 0 2 0 0 0 3 0 2 1 1 1 2 1 1 1 1 2 1 1 0 2 1 0 1 1 2 0 1 0 1 0 1 1 1 0 2 1 1 2 0 2 0 0 2 0 1 0 0 1 1 1 1 1 2 2 1 1 3 1 0 0 1 1 2 0 0 1 1 1 1 0 0 0 1 1 1 2 2 1 0 1 1 0 1 1 0 3 1 0 0 2 0 0 1 2 0 0 0 3 1 2 0 2 1 1 0 0 3 3 1 0 1 0 2 2 2 0 1 0 3 1 2 0 1 2 2 1 0 2 0 0 1 3 1 2 0 1 2 1 0 0 0 0 2 2 0 0 2 1 2 2 1 0 0 0 0 0 2 0 0 1 0 0 1 1 0 0 0 1 0 1 1 1 0 3 1 1 1 0 1 1 0 2 3 1 1 2 1 1 0 0 0 0 0 0 2 2 3 0 1 2 0 2 0 0 1 3 1 1 2 0 1 1 1 2 0 0 2 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 3 1 1 1 1 0 0 0 0 1 1 0 0 2 1 1 0 0 1 3 0 1 1 0 0 0 1 1 1 1 0 3 1 1 2 1 0 0 2 2 0 0 0 0 1 0 2 0 2 1 0 0 2 2 1 0 1 1 1 1 2 2 1 2 1 0 1 0 1 2 1 0 0 0 0 2 2 0 0 1 3 0 0 0 0 1 1 0 0 1 1 1 0 1 1 0 0 1 1 0 0 1 2 2 0 1 0 0 1 0 0 2 1 0 1 4 0 0 0 0 1 1 2 1 0 0 0 0 2 1 1 2 0 0 1 2 3 0 0 0 0 0 2 2 1 0 2 0 1 2 0 1 0 0 1 0 1 0 1 2 0 0 1 0 0 2 0 1 0 1 0 0 0 1 1 2 0 1 1 0 1 2 1 1 0 0 1 0 1 1 1 1 1 0 2 3 1 1 1 0 1 1 2 1 1 2 2 0 1 1 1 0 2 1 2 0 1 2 2 1 0 4 0 2 2 0 0 0 0 3 1 1 2 1 1 1 1 1 0 1 2 0 1 0 2 1 0 3 1 2 1 2 0 0 1 2 0 2 2 1 1 1 0 1 1 2 1 0 0 1 2 2 1 0 1 3 1 2 4 1 3 3 0 1 1 2 2 0 1 1 2 1 2 1 1 0 1 2 3 0 2 2 0 0 1 0 1 3 1 0 2 3 1 1 2 2 0 1 0 0 2 1 1 1 0 0 1 0 1 1 3 1 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 2 0 0 1 2 1 0 0 0 3 1 1 0 1 2 5 0 0 0 2 1 1 2 1 1 0 0 0 0 0 0 1 0 1 2 1 1 1 2 1 1 2 1 0 2 0 1 0 0 1 2 1 0 0 1 1 2 1 3 0 0 1 1 0 1 0 3 0 1 1 1 0 1 0 0 2 3 0 0 1 1 0 1 0 1 2 1 1 1 0 2 1 2 0 1 2 1 1 1 0 0 0 0 0 3 2 1 1 1 2 2 0 0 0 1 1 1 0 0 1 2 2 2 1 0 2 0 1 2 1 0 0 3 1 1 0 2 0 1 0 1 0 2 1 0 1 0 0 0 1 2 2 1 3 0 0 1 0 2 0 1 0 0 0 3 2 1 0 1 1 1 0 2 2 0 1 1 1 1 2 0 0 1 3 1 0 1 1 1 1 1 2 1 2 1 1 0 0 1 1 0 1 0 1 1 1 1 0 0 0 1 0 1 1 2 1 0 0 1 2 0 1 0 1 1 2 2 0 1 0 0 1 2 3 1 1 3 2 1 0 1 0 0 0 1 1 0 1 0 2 0 0 1 1 1 0 1 0 0 0 2 2 1 2 1 0 0 1 2 2 2 1 0 1 2 2 1 0 1 0 2 0 1 1 2 1 1 1 1 1 0 0 2 0 1 2 0 2 0 2 2 0 1 1 0 0 0 0 0 0 0 0 1 1 2 0 0 2 0 0 2 1 0 1 0 3 2 1 0 0 1 0 2 1 1 0 1 0 1 1 0 1 0 0 1 2 0 2 1 5 1 1 1 0 1 0 0 2 1 2 0 1 1 1 1 2 0 0 2 0 0 1 1 1 1 1 0 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 1 0 0 1 2 1 1 1 0 2 2 2 1 1 2 3 0 0 1 1 1 1 0 1 0 3 0 0 0 1 0 1 0 1 1 0 1 0 1 1 1 1 0 1 3 0 2 0 2 0 0 2 1 0 2 2 2 1 0 0 1 0 3 1 0 0 2 0 0 0 1 1 0 0 2 2 1 1 0 0 2 1 2 0 0 0 1 3 0 2 0 0 1 1 1 0 0 1 2 2 0 1 1 3 2 0 0 0 1 0 3 0 2 0 0 1 1 0 3 1 1 0 2 2 1 1 1 1 3 0 1 2 0 2 1 1 0 2 3 4 0 4 0 1 1 0 1 0 2 1 1 0 0 4 1 1 1 1 0 0 2 2 1 0 0 1 0 3 1 1 1 1 2 0 0 1 1 0 1 3 0 1 1 1 0 2 1 1 2 2 1 1 1 1 0 1 0 1 0 1 2 0 0 3 1 0 1 1 0 2 0 1 1 0 0 3 1 1 0 1 1 1 1 1 1 1 1 1 0 0 0 0 0 4 2 1 0 1 1 0 1 1 2 1 1 3 2 2 3 0 2 0 1 1 0 1 1 5 0 0 1 0 1 0 0 1 2 0 1 0 2 1 0 0 0 0 0 0 0 1 1 0 1 2 0 2 2 0 0 1 1 1 1 0 2 0 2 2 2 0 0 1 2 1 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 2 0 0 0 1 1 0 1 0 0 1 0 4 0 0 0 0 2 0 3 3 2 0 0 0 1 0 2 2 2 1 0 0 2 1 1 1 2 2 0 2 1 2 1 4 0 1 1 1 0 1 2 1 0 1 3 3 0 1 1 0 1 2 0 1 3 1 1 0 1 0 1 0 2 1 1 0 1 1 2 0 2 0 0 2 3 1 1 1 1 1 0 0 1 3 1 1 0 2 1 1 2 0 0 1 0 1 0 0 2 1 2 0 1 2 0 0 1 1 1 0 0 1 3 2 0 0 0 1 0 0 1 1 2 0 0 1 1 1 1 3 1 3 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 2 0 2 1 0 0 1 2 2 0 2 1 1 0 0 1 0 1 0 0 0 0 0 1 0 1 2 0 2 2 1 0 1 2 1 3 1 0 1 2 0 0 1 1 1 1 2 1 2 1 0 2 0 0 1 2 0 0 0 0 1 1 0 0 1 0 1 2 3 1 1 0 1 0 0 2 2 0 0 1 1 1 0 0 1 2 1 1 2 2 0 3 2 0 1 0 0 2 1 1 1 0 0 2 0 1 0 1 1 1 0 1 2 2 0 0 1 1 2 2 1 2 0 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 0 1 1 0 2 1 1 0 2 3 2 1 1 2 1 1 2 1 0 0 3 0 2 2 2 0 0 1 1 2 1 1 1 2 1 1 0 2 0 0 2 0 0 3 0 1 1 1 1 2 2 1 0 2 0 2 1 1 0 2 2 3 0 0 2 2 0 0 1 2 0 2 3 0 2 2 1 1 1 1 1 1 1 1 2 2 1 2 0 1 0 0 1 0 1 0 0 1 1 2 1 0 2 1 1 0 2 0 0 1 0 2 2 2 1 1 1 0 2 0 2 1 0 0 2 2 1 0 1 1 0 0 0 1 0 1 0 2 0 0 1 1 0 2 3 1 1 2 1 1 0 1 0 1 2 0 1 1 1 0 1 1 0 3 1 0 0 0 2 0 0 1 2 1 2 1 0 0 1 0 1 0 1 2 1 2 0 2 1 1 0 0 0 1 1 1 1 1 1 2 1 0 0 0 2 1 2 0 0 2 2 0 1 0 2 0 0 2 2 2 0 1 1 0 2 2 0 2 0 2 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 2 0 1 0 1 1 1 2 0 2 2 2 0 1 1 1 2 4 1 2 0 0 0 1 0 0 2 0 2 3 0 0 1 1 2 1 1 0 2 0 2 0 1 0 1 0 0 0 1 1 1 2 0 1 1 1 1 0 0 0 1 2 3 1 0 0 0 0 1 0 1 1 1 1 1 3 1 2 2 1 1 0 1 1 1 4 1 0 1 1 2 2 1 0 2 3 0 2 1 1 3 2 1 1 0 0 2 1 0 1 1 0 1 0 1 1 0 0 0 1 1 1 0 0 1 0 1 0 3 1 0 1 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 2 0 2 0 0 0 0 1 0 1 1 0 0 0 2 0 1 2 0 2 3 0 1 2 0 0 0 1 1 0 1 1 1 1 1 1 1 0 2 1 2 2 2 0 1 1 1 0 1 1 0 2 1 0 2 0 0 2 1 0 0 1 1 1 1 0 1 1 1 0 1 1 2 2 1 0 1 2 2 1 2 2 2 0 1 0 0 1 0 0 0 1 4 0 0 0 0 1 0 1 1 2 0 1 1 0 1 1 0 0 3 1 1 0 3 3 2 1 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 1 1 3 1 2 0 1 0 2 0 0 0 1 1 1 1 0 0 2 0 2 0 1 1 0 0 0 2 1 2 0 1 1 1 2 2 1 0 2 2 2 2 2 1 2 0 1 1 1 0 2 0 0 1 2 1 1 0 2 1 1 2 0 0 1 1 0 0 1 0 1 0 0 1 2 0 1 2 0 1 0 0 0 0 3 2 0 0 2 0 2 1 0 0 2 0 1 2 1 1 2 1 1 1 2 0 2 1 2 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 2 2 1 0 1 1 1 0 1 1 0 1 0 0 1 1 1 2 0 1 2 1 0 1 2 1 0 2 1 2 0 0 0 0 1 2 1 2 1 3 1 2 1 1 1 0 3 0 0 0 1 3 1 1 0 0 1 1 1 1 1 1 2 1 2 0 1 2 0 1 1 3 0 0 1 0 2 0 1 3 0 0 0 0 0 2 2 0 1 2 2 1 2 1 1 0 1 2 1 1 2 2 2 0 0 3 2 0 0 1 1 0 0 2 0 1 2 2 2 1 2 1 0 2 0 0 1 0 1 1 0 0 0 0 0 0 3 2 2 0 3 1 1 2 2 0 0 2 0 0 2 2 0 0 2 0 0 1 2 1 1 2 0 1 2 1 3 0 2 1 2 0 0 0 2 1 4 1 0 0 1 0 0 2 0 1 0 0 2 0 0 2 0 0 2 2 1 1 1 2 1 0 3 1 3 3 0 0 0 0 0 3 0 0 0 0 3 0 1 2 0 1 2 2 2 1 1 0 0 0 3 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 2 3 1 1 0 1 1 0 0 0 0 3 0 2 1 1 0 0 1 0 0 1 1 1 1 1 3 0 0 2 2 1 2 0 0 0 2 2 2 0 2 0 0 2 2 2 0 1 2 2 1 1 3 1 0 1 1 0 2 0 1 0 1 1 0 2 2 0 1 0 1 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 1 1 1 1 0 1 0 0 0 2 1 1 2 2 3 2 1 1 1 3 2 0 1 2 2 1 1 3 2 0 0 1 3 0 3 1 2 0 4 1 0 3 1 1 2 1 1 1 1 1 2 1 2 1 2 1 0 1 2 0 2 3 3 0 0 2 0 0 0 1 0 0 1 1 0 0 0 3 1 1 0 1 2 1 2 1 0 2 1 0 0 0 1 0 0 2 1 1 1 1 2 1 2 1 0 0 0 0 2 0 1 1 1 2 1 0 1 0 1 1 1 1 0 1 1 1 2 1 1 1 1 0 1 1 1 0 2 1 0 1 2 0 2 0 0 0 2 0 1 2 1 1 1 2 0 1 1 0 1 1 1 1 2 2 1 4 0 0 0 1 0 1 2 3 1 2 1 0 1 2 2 0 0 1 1 0 0 1 0 0 3 0 2 2 0 2 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 1 0 2 0 1 0 1 0 1 0 0 0 1 0 2 0 1 1 2 3 1 2 0 2 1 1 0 0 1 1 0 0 1 0 1 1 1 2 0 2 1 0 0 1 0 1 2 0 1 0 1 1 1 3 1 0 1 1 0 2 0 1 1 1 1 1 0 3 1 0 1 0 1 1 0 2 1 0 0 0 0 1 3 0 0 1 2 0 0 0 1 0 1 1 0 3 1 0 0 0 1 0 2 2 0 0 0 0 0 5 2 3 2 2 1 2 3 1 2 1 0 2 1 2 2 0 0 1 2 1 3 1 0 0 0 2 2 0 3 3 1 0 0 0 4 2 2 0 2 3 0 0 1 0 2 2 1 2 0 0 1 3 3 1 1 0 0 2 2 1 2 1 1 0 1 0 0 0 0 0 1 1 1 0 2 2 1 0 0 0 0 2 0 2 0 0 2 1 1 2 2 1 1 1 1 3 0 2 1 1 0 1 1 0 1 4 0 1 1 1 2 0 0 3 1 3 1 0 0 2 1 2 1 2 3 2 0 1 0 1 2 1 2 2 1 0 1 1 3 0 1 1 0 2 0 0 1 0 1 1 0 0 1 3 0 2 1 0 0 0 1 1 3 0 0 0 0 1 2 2 0 1 0 2 2 2 0 3 0 2 0 0 0 0 1 1 1 1 1 1 2 0 0 1 0 1 0 1 0 2 1 1 0 0 2 1 3 0 0 0 0 0 3 0 3 0 1 1 1 1 2 0 0 0 0 2 0 0 1 2 4 0 1 2 1 0 1 0 1 0 3 3 1 1 2 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 4 1 1 0 0 1 0 0 0 1 0 0 2 1 2 1 0 0 0 1 0 2 1 3 1 1 3 2 0 1 1 2 1 0 1 0 2 0 1 2 0 1 1 0 0 1 2 1 0 1 1 0 0 2 0 0 1 0 0 2 0 1 0 3 2 0 1 0 2 0 0 0 1 0 2 3 1 1 0 1 0 1 2 0 1 1 1 1 0 1 1 2 1 1 1 3 0 1 0 0 0 2 0 2 0 1 1 0 0 0 1 1 1 0 1 2 0 1 0 2 2 0 0 2 0 0 0 1 2 0 1 0 0 2 0 1 1 0 1 0 2 0 1 0 1 2 0 0 1 0 1 0 2 0 0 0 0 0 1 0 1 0 1 0 0 1 1 1 1 2 2 1 4 1 0 1 1 1 1 1 0 1 0 2 0 0 0 0 1 1 2 1 0 3 1 1 2 1 2 2 0 1 2 3 1 0 2 2 1 1 1 2 2 1 1 2 0 0 0 0 0 2 0 1 2 0 0 0 2 1 1 1 0 0 1 2 1 1 2 1 0 0 0 0 1 2 1 1 0 1 0 0 0 0 2 1 1 0 1 1 0 1 1 0 1 1 0 1 1 1 0 0 1 0 1 1 0 1 0 0 3 1 1 1 0 1 2 2 2 1 2 1 2 0 2 2 0 0 3 2 0 0 1 1 1 1 0 1 1 1 0 2 1 1 1 1 0 1 1 0 1 2 0 0 1 1 1 0 0 0 0 0 0 1 1 0 1 2 1 1 0 3 1 2 3 1 2 1 0 3 0 1 1 0 0 0 1 1 0 1 0 1 0 1 0 1 1 0 3 2 0 1 1 1 1 2 1 1 1 0 1 2 3 1 1 2 0 0 0 0 3 1 1 1 0 1 1 0 1 0 0 1 0 2 1 2 2 0 1 0 1 1 2 0 3 0 2 0 0 0 1 1 3 0 0 0 2 2 3 0 3 0 2 1 2 1 0 0 1 1 1 1 2 1 1 1 1 2 1 1 2 3 2 2 0 0 0 1 1 0 3 0 0 0 0 1 2 1 0 0 0 1 0 4 0 0 1 1 0 1 1 1 0 0 1 2 1 1 1 1 0 2 1 2 1 3 0 2 1 0 0 1 1 0 0 0 2 2 0 0 2 1 2 0 2 0 0 3 2 0 2 1 2 0 2 0 3 1 0 1 2 2 2 0 1 2 0 2 1 2 1 2 2 0 1 1 0 2 2 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 2 2 1 0 0 1 0 1 1 2 0 0 2 0 0 0 1 0 0 1 0 2 1 1 2 2 2 2 1 0 0 0 1 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 2 2 0 1 0 0 1 2 0 1 1 0 0 3 0 1 1 1 0 1 1 3 2 0 2 1 2 1 2 0 1 0 1 2 1 0 1 0 0 0 0 1 2 2 1 1 1 0 1 2 1 1 3 1 0 3 1 2 1 0 2 0 0 1 0 4 0 1 2 1 0 0 0 1 1 1 0 1 1 0 2 1 1 2 1 0 1 0 1 1 0 1 0 0 1 0 3 1 0 2 5 1 1 0 1 1 2 2 1 0 1 0 2 1 2 0 0 0 1 0 0 1 2 1 2 1 2 0 1 2 0 0 2 2 0 1 1 1 1 0 1 2 0 1 0 0 1 4 1 2 1 0 0 2 1 1 1 1 1 0 1 2 1 1 0 1 1 0 0 0 1 1 2 2 0 3 1 0 0 0 1 0 0 2 1 0 0 0 1 1 0 1 0 0 2 4 1 0 0 1 2 1 1 2 1 0 0 2 1 0 0 1 0 0 0 1 0 0 1 2 0 2 0 0 0 1 1 1 1 0 1 1 1 1 1 0 1 1 2 0 0 1 1 0 1 2 0 1 2 1 3 0 0 3 0 1 2 1 0 0 1 1 0 1 0 0 2 1 1 1 1 0 0 0 1 0 0 0 0 0 1 0 1 0 2 0 1 1 3 1 2 1 1 0 1 0 0 3 0 1 1 0 0 1 2 0 2 1 1 0 1 1 1 0 1 0 0 1 0 0 1 2 1 0 0 1 1 0 1 0 1 0 0 0 2 1 1 1 0 0 0 0 1 1 2 0 0 0 0 1 0 2 1 1 1 0 2 0 2 2 2 2 2 0 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 2 0 1 0 2 0 2 4 2 1 3 2 1 0 0 1 0 1 2 0 0 0 1 2 1 2 0 1 0 2 0 0 2 0 0 1 0 2 0 1 1 1 1 0 0 0 2 1 1 2 0 1 0 1 1 1 0 0 0 4 1 0 1 1 2 0 0 1 0 3 1 1 0 3 1 1 0 2 1 1 0 1 0 2 0 2 1 1 0 0 1 0 1 1 0 1 1 0 0 0 0 3 1 1 0 0 0 0 0 2 3 0 0 0 0 2 0 0 0 1 0 2 2 1 0 1 2 3 2 0 0 1 0 1 1 1 3 0 0 0 1 0 1 1 0 3 1 0 1 1 1 1 2 2 2 0 2 0 2 0 5 0 1 2 2 1 1 1 0 0 1 1 0 1 2 1 1 3 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 2 1 1 1 0 0 0 1 1 1 1 0 0 1 0 0 0 0 1 0 2 0 0 1 2 0 0 1 2 1 4 1 0 1 0 1 1 0 1 1 2 2 0 0 2 0 1 1 1 1 3 0 1 0 1 0 0 2 0 2 0 2 1 1 0 0 0 0 1 0 2 1 1 0 1 1 0 1 1 2 0 2 0 2 1 1 1 2 1 1 1 0 1 2 2 1 1 1 0 0 0 0 2 0 0 2 1 0 1 1 0 1 2 0 1 0 0 3 1 0 1 0 1 0 2 2 1 1 0 1 2 0 0 0 3 0 1 2 2 2 0 0 2 1 1 2 0 2 1 1 0 3 1 0 0 1 1 4 1 1 1 0 2 0 1 0 2 0 0 0 1 1 1 1 0 0 1 1 1 0 0 1 0 1 1 1 1 1 0 1 1 1 0 0 1 0 1 1 1 0 0 0 0 1 0 1 1 1 1 0 2 1 0 0 1 3 0 1 0 3 1 0 0 1 1 1 0 0 0 1 0 1 0 2 0 1 0 2 0 0 0 0 0 0 1 0 2 0 0 2 0 0 1 1 1 2 1 2 1 2 0 1 2 3 1 1 1 1 1 2 3 1 1 0 0 2 4 0 0 0 2 1 0 2 2 0 2 1 1 0 0 1 0 2 1 1 2 3 1 1 2 2 0 1 2 0 2 0 3 1 1 1 1 2 0 0 0 2 1 1 0 0 0 1 3 1 0 0 2 0 1 2 1 0 2 0 2 1 3 0 0 3 0 0 0 1 2 0 1 1 2 0 1 1 1 2 2 0 0 0 0 1 0 0 0 1 2 0 0 1 0 2 1 2 2 1 4 0 2 2 0 1 0 0 0 0 1 0 0 0 0 2 0 2 0 0 2 0 0 0 0 1 0 3 0 0 1 0 0 1 2 1 1 1 0 2 0 0 1 1 1 1 1 0 1 0 1 1 0 1 0 3 1 0 2 2 1 0 1 1 2 3 0 1 2 2 0 2 2 2 0 2 0 2 1 1 1 0 0 2 0 2 0 1 2 3 1 0 0 2 1 1 0 1 1 2 2 1 2 1 2 1 2 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 0 2 0 1 1 1 1 1 0 1 0 3 3 2 0 1 1 0 0 1 0 1 1 3 1 2 0 2 0 0 0 0 1 1 1 1 0 1 0 0 0 1 1 2 1 2 1 1 1 1 2 3 2 0 2 0 2 1 1 1 0 1 1 1 0 3 0 1 3 1 1 1 0 1 0 3 2 2 4 1 1 0 2 0 0 1 2 2 1 1 1 0 0 1 0 1 1 0 0 1 3 1 2 1 1 0 0 1 1 3 1 0 1 0 0 0 0 4 0 2 1 0 2 0 2 0 0 0 0 1 2 1 0 1 1 0 1 2 1 1 0 1 2 0 0 0 1 2 1 0 0 0 0 1 2 0 1 0 2 1 1 0 0 0 1 1 1 0 0 2 0 0 1 2 1 0 1 0 1 1 0 1 0 2 1 2 1 1 1 1 1 2 0 1 0 1 1 0 4 0 1 1 2 0 1 0 1 0 2 0 1 1 2 0 1 0 1 0 1 1 0 0 2 1 2 0 0 2 2 0 0 2 2 1 2 1 0 3 2 1 2 0 1 1 1 3 4 1 0 1 0 1 1 2 1 2 0 1 1 1 0 0 1 1 0 3 0 1 1 0 0 1 0 0 0 2 3 1 0 0 1 1 0 1 0 0 1 1 1 2 1 0 1 1 2 2 0 2 0 1 1 0 1 2 2 1 0 5 1 3 0 1 1 0 0 1 1 1 0 1 0 1 2 1 1 0 0 2 1 0 1 1 4 1 2 1 1 0 1 2 1 0 2 1 0 0 1 1 1 0 0 0 2 3 1 0 3 2 1 2 1 3 1 1 0 0 1 1 3 0 2 0 1 2 0 0 1 2 1 2 1 1 1 0 1 0 1 1 1 0 0 1 2 2 0 1 0 1 1 2 1 1 3 1 2 0 0 1 1 0 1 1 1 2 0 1 0 0 0 2 0 1 0 1 4 2 2 3 1 0 0 1 1 1 0 1 1 1 1 0 1 0 0 0 2 0 1 1 3 0 1 0 1 1 0 0 0 2 1 0 3 0 1 1 1 1 0 5 0 1 1 0 1 1 1 2 2 1 0 0 2 0 1 0 1 0 0 1 0 1 2 0 0 0 1 2 1 0 1 0 0 2 0 1 2 1 0 1 0 0 0 1 0 3 1 2 2 1 0 1 0 0 0 0 0 2 0 1 1 1 2 3 1 1 1 2 0 1 2 2 2 0 1 1 1 1 0 0 0 0 0 2 1 2 2 2 1 1 0 1 2 0 0 1 2 0 1 1 0 0 0 4 0 2 1 1 0 0 0 1 1 2 0 1 0 2 0 2 2 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 3 1 1 0 2 0 1 0 1 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 1 2 0 2 1 0 0 1 1 2 1 0 0 2 1 0 1 2 0 0 1 0 0 1 0 2 0 0 0 1 1 0 1 2 1 3 0 0 1 1 0 0 2 0 0 3 0 2 0 1 0 0 2 1 0 1 1 1 0 0 1 2 0 1 0 1 0 1 1 0 1 0 1 1 3 1 0 0 2 0 6 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 0 2 0 0 1 0 0 1 2 0 1 1 0 1 2 3 2 2 0 2 0 1 1 0 1 1 1 0 0 0 2 2 0 1 0 1 0 1 1 2 0 0 2 1 0 0 2 0 0 1 2 2 2 0 3 1 0 0 1 0 1 0 2 1 0 3 0 0 1 0 2 2 1 1 0 2 2 0 1 2 1 1 1 3 1 1 2 1 0 1 0 0 1 1 0 3 2 0 3 0 1 0 0 0 1 0 1 0 1 1 1 0 0 1 1 0 2 0 2 0 2 1 2 1 2 0 1 2 3 2 0 0 0 1 2 2 1 1 0 0 1 0 2 1 1 0 2 1 2 2 0 0 0 2 2 2 1 0 0 1 2 0 1 0 0 1 1 1 0 0 1 1 2 1 1 1 0 1 1 0 1 1 0 1 2 3 1 0 0 0 2 1 0 1 0 0 2 0 1 1 1 0 0 1 0 1 0 0 1 1 1 2 0 3 1 1 2 0 0 2 0 0 1 1 0 1 0 1 1 2 0 1 1 1 0 1 2 1 2 1 2 0 0 3 2 0 0 0 0 1 0 3 0 0 2 0 0 2 2 1 3 1 0 1 2 0 1 0 1 0 0 1 1 1 0 3 2 0 3 3 0 0 2 0 2 0 2 0 3 0 1 1 0 1 1 1 3 2 1 0 0 1 2 1 0 1 1 0 2 0 1 0 3 1 2 1 1 3 3 3 1 1 0 1 0 2 0 1 0 0 0 0 1 2 0 1 2 1 0 1 1 2 1 0 1 1 0 0 0 0 1 1 2 0 2 1 1 1 1 1 0 0 1 1 0 0 0 1 0 0 1 0 1 0 0 2 0 1 1 0 1 0 1 1 0 1 2 0 4 1 4 1 0 1 2 1 0 0 2 0 1 1 1 0 2 2 0 2 0 1 1 0 1 1 3 2 0 0 2 2 0 2 3 1 0 2 1 3 2 1 0 1 0 1 1 1 0 0 0 2 1 1 0 1 0 2 2 1 2 1 0 0 1 0 0 1 1 0 0 1 0 2 0 0 2 1 1 2 0 0 1 0 1 0 0 3 1 2 0 0 0 0 1 1 2 1 1 1 1 4 1 0 2 4 2 2 0 1 2 1 1 2 1 1 1 0 0 1 1 0 1 2 1 1 2 2 5 0 1 0 1 0 1 0 0 0 1 1 2 2 1 0 1 0 0 0 2 0 1 1 0 1 1 1 0 0 1 0 0 0 1 1 2 1 2 1 0 0 1 0 0 0 0 1 1 0 2 2 2 2 0 0 1 0 0 0 1 0 1 1 3 0 0 1 1 2 2 0 2 0 1 1 0 1 0 0 2 1 0 0 0 1 1 1 2 0 0 3 2 3 1 2 2 0 2 0 0 1 1 1 0 1 0 1 1 1 1 0 2 0 0 0 1 1 2 0 1 2 0 1 0 1 1 0 1 2 0 0 0 2 0 2 1 1 1 1 1 1 3 1 2 1 1 0 1 1 1 1 1 0 1 0 0 0 1 1 2 1 1 0 2 0 1 3 2 1 0 3 1 1 1 3 1 1 1 1 1 2 0 1 2 0 2 1 0 0 2 3 2 1 0 2 1 0 2 1 1 0 0 0 0 1 1 0 1 1 0 1 0 0 1 0 1 2 1 0 0 2 2 1 0 0 0 1 0 0 0 0 2 3 0 0 3 1 2 1 0 1 1 0 0 0 1 1 0 2 0 0 0 4 1 1 0 1 1 0 1 2 0 0 0 1 1 1 2 1 0 1 1 3 2 1 0 1 3 1 3 1 2 0 0 1 1 0 0 1 2 1 0 0 0 1 1 2 1 1 0 0 1 0 0 0 1 1 0 2 1 1 2 3 0 1 0 1 1 0 4 0 0 3 0 0 0 0 2 1 0 0 3 3 1 1 2 0 0 0 2 2 0 1 2 1 2 2 0 2 0 1 1 2 1 2 1 1 0 1 0 2 0 1 1 1 2 2 0 1 1 1 2 1 2 3 0 1 0 0 2 1 1 1 0 1 1 0 0 0 0 1 2 1 1 1 1 0 0 0 1 1 0 1 0 2 0 0 0 2 1 1 1 3 1 1 1 2 2 1 1 1 0 3 0 1 0 0 2 1 2 2 0 0 1 0 0 1 0 1 1 0 2 1 1 1 0 2 1 1 0 1 0 1 1 0 1 1 2 4</t>
+    <t>JSU(-12.852854251809283, 9.453299513733956, -44.50654280868045, 34.71584290392691)</t>
+  </si>
+  <si>
+    <t>31 23 30 27 20 16 15 13 12 3 10 13 12 0 16 24 27 11 20 30 19 7 24 14 13 17 14 10 24 10 21 31 24 6 17 17 20 13 6 38 17 24 24 9 16 22 13 31 10 17 24 20 24 30 23 14 21 35 13 16 20 17 17 14 17 27 17 13 27 27 11 13 24 34 20 16 30 24 24 24 24 10 27 9 7 23 23 17 14 17 27 17 31 16 10 31 13 48 21 10 34 13 16 13 27 24 20 20 23 21 24 17 27 17 20 0 17 6 7 17 12 17 10 17 22 27 10 14 13 24 3 17 13 13 6 10 16 24 41 15 10 17 10 21 24 15 16 14 13 17 10 3 20 16 21 27 14 19 17 27 14 16 17 24 24 17 10 13 20 9 17 13 10 23 17 27 10 9 13 30 21 28 10 24 27 20 20 20 6 15 19 24 22 16 13 24 27 10 10 24 10 21 11 6 23 21 10 11 14 22 17 20 9 23 23 26 17 20 18 14 13 17 24 20 17 23 20 20 13 14 17 22 30 24 10 21 31 7 20 17 14 14 13 27 27 24 20 17 14 20 27 23 10 17 26 17 17 16 17 17 12 28 24 16 23 20 20 6 26 15 10 17 20 38 6 16 28 19 13 10 15 28 20 21 9 13 23 29 16 20 8 13 20 21 29 31 21 18 16 24 10 19 16 14 31 27 17 21 20 9 30 9 21 20 19 19 9 27 31 8 14 10 3 20 17 20 16 27 17 31 34 13 23 17 15 13 14 17 16 10 14 14 29 34 35 15 13 14 20 9 19 12 24 13 10 23 9 14 10 16 14 26 35 31 17 21 23 13 35 27 40 9 22 13 14 10 8 7 18 34 28 13 7 16 0 13 17 28 16 21 13 16 13 6 27 3 31 17 41 17 9 23 27 9 16 13 12 28 21 17 20 10 30 20 24 27 31 17 14 17 31 34 21 35 29 16 17 20 3 17 17 18 19 17 31 13 17 10 24 45 23 13 19 31 18 20 17 13 12 27 10 17 20 35 9 24 9 10 17 24 14 17 17 13 27 14 5 7 14 24 14 16 21 10 31 14 16 22 24 13 10 29 10 21 15 10 24 26 10 7 17 40 23 14 28 23 13 27 39 24 11 24 17 20 24 35 24 20 19 13 20 16 14 16 34 9 10 16 14 31 14 20 26 10 6 23 24 18 20 20 22 24 10 21 13 14 24 21 7 44 17 26 7 27 17 19 19 27 13 21 6 20 20 21 13 27 24 10 15 13 17 8 9 24 16 24 28 17 17 21 20 19 23 13 6 13 38 20 20 23 26 17 21 6 9 23 14 24 18 16 18 6 31 20 16 21 23 13 17 7 14 19 19 13 13 22 9 9 17 22 14 9 40 13 14 14 28 21 23 34 16 34 13 23 13 13 31 13 17 19 23 17 16 27 17 9 24 31 10 26 17 22 6 23 9 17 16 14 6 8 13 24 23 20 6 15 9 19 7 24 16 27 6 17 16 13 41 13 31 7 13 14 21 10 17 17 10 20 3 27 20 38 13 10 21 13 16 13 13 24 20 21 23 17 24 17 17 23 17 23 17 27 24 27 20 13 17 10 31 17 3 10 23 28 24 32 27 27 28 23 28 17 30 16 21 17 21 21 17 20 27 6 13 13 13 24 27 7 34 7 23 16 19 3 14 23 28 10 21 7 11 10 13 35 24 20 28 20 16 11 16 20 31 17 3 22 31 23 23 16 34 23 10 14 20 7 13 27 7 23 14 18 30 17 23 3 25 14 17 17 23 30 27 10 16 16 20 18 20 16 7 17 20 37 20 34 23 7 20 10 14 31 10 15 27 24 9 34 28 16 19 14 17 17 18 7 10 9 20 16 28 17 24 20 17 21 13 10 34 9 24 10 40 24 14 24 14 24 19 21 24 23 17 6 27 13 17 7 20 21 21 16 16 23 11 34 34 28 29 30 26 22 20 21 31 10 17 20 28 26 28 10 17 34 13 24 6 22 23 33 27 31 15 9 24 21 17 21 16 26 23 28 30 12 23 26 19 17 28 16 18 17 24 10 37 17 10 10 17 7 27 16 27 17 16 16 18 14 12 34 3 28 17 7 20 14 26 10 17 23 27 31 9 20 23 21 21 15 26 23 34 13 20 30 23 42 24 19 21 13 17 38 8 16 27 22 14 6 24 24 14 7 15 10 23 7 23 16 13 13 7 28 23 17 21 23 28 38 17 22 20 24 23 24 10 27 19 10 20 24 31 20 34 10 14 20 9 23 30 31 27 17 31 30 24 17 10 21 14 16 6 27 19 24 17 14 31 24 24 24 16 22 24 21 13 9 15 13 21 27 21 18 17 14 16 31 27 6 13 27 26 24 26 21 24 10 15 34 24 14 13 23 20 21 3 29 17 38 24 22 21 6 10 12 7 14 23 23 9 27 17 14 13 28 24 23 16 10 20 10 10 17 24 24 30 12 31 10 9 21 6 13 37 21 23 21 34 27 18 10 31 30 10 14 34 30 13 20 37 30 31 20 30 14 19 37 24 21 31 17 21 34 10 17 6 13 23 22 35 17 20 16 16 17 21 23 7 17 17 30 17 27 24 7 27 27 27 0 8 31 13 17 17 24 34 7 13 14 24 16 17 13 16 31 20 11 19 27 23 15 24 7 39 13 13 24 21 10 12 38 16 27 20 17 20 10 21 17 19 15 35 21 16 24 13 7 33 13 0 35 29 21 9 23 15 20 17 31 23 22 13 26 13 24 24 10 17 17 17 48 24 20 20 23 24 16 21 20 33 22 21 10 19 41 10 13 19 24 23 14 20 27 13 24 20 14 17 16 13 26 10 17 3 16 24 14 13 20 27 19 20 24 10 17 22 14 24 24 13 5 10 23 14 20 8 20 13 21 20 9 10 28 10 7 21 31 27 10 20 34 30 38 23 20 31 21 23 33 20 24 10 20 17 31 16 17 3 6 13 26 27 17 37 21 23 17 9 35 21 30 17 19 24 23 11 9 17 24 23 10 10 10 20 26 17 10 17 24 24 17 19 10 23 31 12 20 31 10 17 24 17 10 27 16 17 13 27 17 20 13 16 34 16 22 23 30 20 17 17 17 21 23 31 17 21 21 34 21 19 7 16 21 23 10 17 7 10 30 6 35 3 10 21 26 13 34 20 21 18 7 6 31 12 20 16 10 17 7 26 12 17 9 24 23 18 26 18 3 38 17 21 22 16 27 16 13 30 31 31 27 18 21 14 26 14 10 17 19 20 17 20 17 13 21 13 28 31 28 21 14 14 20 6 0 17 20 23 23 11 20 14 17 30 21 6 14 22 28 24 52 3 22 19 13 24 17 21 24 13 21 14 20 14 7 28 13 13 17 13 12 28 6 16 34 13 24 9 34 31 24 31 22 24 30 20 7 21 20 16 10 10 20 16 13 3 13 20 28 17 29 20 45 21 17 17 13 22 15 16 20 3 34 17 28 37 24 32 17 16 18 16 20 23 24 10 46 17 42 17 17 24 7 3 24 15 24 30 13 17 16 26 28 9 3 19 21 27 16 33 21 27 15 21 10 10 20 6 14 17 20 14 16 17 23 16 21 7 7 24 31 0 10 10 31 27 31 13 10 27 3 38 30 13 17 32 31 24 20 27 17 37 3 34 3 22 20 20 20 7 14 29 21 27 20 10 21 35 17 17 17 30 17 15 17 10 30 23 23 20 24 17 23 10 24 13 24 28 11 21 20 27 14 27 10 34 17 23 13 12 17 20 13 27 28 6 17 17 14 16 16 14 10 24 20 17 23 19 27 22 23 27 13 23 31 13 30 14 17 17 20 13 9 17 27 27 13 20 14 23 10 13 27 26 31 34 22 27 13 20 13 9 10 7 31 16 20 24 13 16 31 7 10 34 20 19 14 27 24 10 7 14 16 24 6 22 14 15 27 17 10 24 3 24 28 7 16 30 23 23 31 9 24 13 31 17 6 21 24 24 16 27 3 13 20 7 30 20 31 26 30 17 30 21 14 14 9 17 24 30 6 38 27 20 19 24 19 15 7 13 22 11 20 14 6 20 17 34 17 27 21 17 16 24 29 6 14 24 37 22 27 16 24 17 24 30 28 16 17 24 30 13 17 22 13 21 35 16 16 20 14 17 31 16 11 9 7 27 17 17 24 9 13 13 35 14 12 3 23 20 13 16 24 23 20 17 14 9 17 17 20 18 12 20 14 7 21 27 17 17 11 28 20 14 17 16 14 14 23 21 12 24 24 20 17 10 19 13 17 14 9 25 9 20 13 15 24 27 15 15 22 10 14 10 14 10 24 19 17 7 17 30 31 17 17 17 20 17 9 38 28 17 21 33 13 23 13 21 14 10 13 24 25 19 10 16 17 38 24 23 27 7 17 14 27 30 20 16 17 17 13 23 19 20 10 7 24 17 28 20 20 17 24 31 7 21 24 20 13 10 23 15 17 12 14 29 6 24 21 7 19 23 7 14 10 10 10 17 17 20 30 16 13 21 17 20 17 13 23 31 14 16 13 21 22 10 19 17 23 7 20 26 17 24 23 30 13 20 17 21 10 16 10 19 20 28 15 24 14 20 17 20 14 3 10 14 24 20 13 24 7 13 16 17 37 27 24 6 31 15 20 30 33 14 17 23 24 17 16 23 14 17 20 20 13 20 17 21 31 14 9 16 27 13 13 24 31 34 23 12 24 26 6 22 23 14 14 29 20 23 30 16 27 21 17 10 6 31 21 30 20 19 21 20 17 26 16 28 31 9 17 16 35 10 9 3 27 17 13 11 12 28 13 23 19 28 7 19 31 27 17 14 13 10 10 20 23 3 20 7 21 13 20 24 30 20 7 23 17 15 31 7 30 14 16 20 16 23 13 28 16 41 17 20 21 14 21 14 20 10 17 24 14 14 16 27 35 24 20 17 21 13 23 38 13 35 25 0 14 20 25 38 20 0 17 7 20 29 17 14 9 28 10 6 34 16 17 31 20 22 23 20 16 19 25 13 10 22 19 13 31 20 24 16 34 13 24 10 12 17 28 20 20 23 26 16 14 7 24 24 17 17 22 31 17 20 17 17 24 14 16 20 27 21 27 0 21 31 19 21 13 20 23 30 10 41 19 6 17 17 20 27 18 6 26 24 10 0 15 20 19 23 20 20 13 7 27 13 23 24 17 27 3 36 11 10 23 17 6 19 20 20 18 21 16 7 18 3 20 18 23 20 20 26 17 7 23 27 20 20 3 22 30 23 13 12 27 27 20 27 23 26 10 33 10 23 6 18 20 3 23 29 6 21 20 10 14 14 17 26 7 27 16 3 24 10 14 38 16 20 13 38 9 23 6 14 28 16 14 27 17 14 21 3 24 17 30 20 13 13 23 20 17 11 31 31 11 15 17 14 23 20 9 22 31 9 20 25 23 35 24 17 10 20 14 24 16 16 17 27 20 28 27 12 20 17 14 20 14 6 24 21 30 14 24 3 3 13 17 28 17 17 6 13 24 14 17 23 16 16 26 24 26 20 20 10 23 27 16 29 17 13 16 20 24 11 26 35 24 13 16 29 24 23 17 22 20 17 31 24 20 20 10 16 24 24 17 27 13 16 18 19 13 20 10 23 7 24 17 13 10 24 24 20 14 13 17 25 24 38 20 21 16 17 21 27 19 10 29 14 13 12 10 27 6 10 26 21 7 6 27 29 14 7 24 30 13 3 17 13 20 17 42 17 23 24 29 19 10 31 16 30 19 22 16 19 19 17 12 9 14 20 30 25 18 10 10 23 20 16 13 24 19 21 24 17 24 24 19 14 19 28 26 6 17 41 30 10 17 27 21 24 17 21 16 13 10 34 18 10 16 29 22 10 10 21 24 20 16 21 24 26 14 27 25 23 14 20 28 22 12 30 26 10 6 29 10 20 21 9 10 20 23 13 27 27 30 27 3 17 19 16 13 13 13 7 18 23 14 18 38 10 28 10 19 21 13 10 27 24 17 13 24 13 20 24 27 16 26 21 10 14 6 13 16 10 17 10 20 27 20 13 10 10 13 21 13 10 20 9 26 27 30 26 31 20 10 13 21 16 21 0 24 31 24 14 34 19 15 14 33 24 16 12 7 7 16 34 24 27 17 30 31 21 19 28 0 10 10 27 24 11 27 27 10 13 17 17 6 24 34 13 45 30 14 17 24 23 7 21 13 16 7 19 24 23 9 23 19 9 30 23 10 17 7 27 30 16 16 17 13 6 20 20 20 10 41 20 14 18 14 23 27 3 14 17 14 16 26 33 35 21 13 15 14 28 14 33 17 9 17 13 21 16 14 16 7 8 24 19 6 22 21 23 21 27 24 13 24 17 38 17 13 28 14 14 20 20 19 27 10 16 20 33 17 23 7 15 22 6 17 9 24 23 25 31 13 16 27 10 3 19 31 7 13 13 17 26 24 11 34 20 13 10 14 23 34 20 13 21 12 31 27 21 17 21 34 9 24 17 13 13 31 18 24 20 21 39 27 31 10 23 30 23 19 23 23 17 16 17 21 17 16 23 32 22 35 14 13 24 30 33 9 21 14 16 16 16 13 11 12 15 33 24 24 15 17 16 27 14 9 20 21 27 14 21 10 13 18 13 10 0 0 20 24 30 13 41 17 13 21 21 15 34 24 13 23 19 14 22 35 6 18 17 6 23 9 23 22 17 11 27 16 16 24 3 17 13 13 20 37 17 17 7 13 24 31 17 14 17 29 13 10 27 15 30 23 16 37 17 17 17 7 13 25 20 27 24 3 20 15 19 20 9 14 13 16 35 10 13 20 12 25 14 24 20 17 20 19 8 19 34 34 17 20 27 14 12 13 16 17 27 20 0 20 28 9 24 15 20 14 14 23 34 14 20 20 30 20 13 16 30 16 12 12 10 13 27 23 26 13 21 28 25 21 28 20 21 14 20 22 20 19 38 7 27 13 10 21 10 20 19 29 23 31 13 20 10 15 25 20 3 23 9 30 21 9 31 6 23 7 10 20 20 31 24 23 31 17 31 6 23 20 38 24 10 25 20 6 21 23 14 7 17 21 14 34 13 31 13 31 8 22 34 17 13 21 10 17 20 10 13 18 20 19 6 9 20 13 25 23 25 17 38 26 21 23 13 30 27 24 31 20 17 31 28 23 24 13 13 24 10 29 27 20 15 17 15 17 23 14 29 24 23 8 17 7 20 24 20 23 15 10 24 7 28 27 7 22 24 17 26 26 20 23 17 15 30 14 19 9 20 16 10 17 24 21 21 25 16 23 9 10 31 17 27 14 24 24 16 6 19 14 21 20 14 10 0 21 16 19 27 16 17 13 24 14 17 17 13 28 31 26 34 28 16 23 20 0 23 17 12 14 31 28 10 16 30 20 6 12 6 23 26 27 6 34 21 20 20 22 24 31 18 14 17 28 20 19 8 29 20 17 17 16 17 9 14 9 26 13 10 17 34 17 21 17 20 20 31 22 20 38 14 28 27 10 23 13 17 20 20 7 40 23 20 16 18 19 23 27 28 24 18 38 13 10 22 17 16 18 13 21 19 35 14 37 11 10 27 24 11 24 0 9 10 42 17 20 14 27 27 14 30 30 10 14 13 17 24 14 17 21 38 35 19 24 12 10 23 22 13 18 23 20 31 13 24 35 21 21 25 16 19 24 17 26 21 18 19 20 14 23 20 24 7 27 13 20 15 12 13 21 21 23 37 17 7 21 26 24 9 24 10 9 15 9 23 31 23 20 13 17 20 13 13 17 31 16 24 27 28 7 23 20 34 17 14 23 24 35 17 24 25 16 28 35 7 10 21 20 10 24 13 14 24 17 16 13 16 20 20 20 27 66 7 26 28 13 17 22 35 21 17 31 10 3 16 21 0 14 23 24 38 13 24 28 14 30 34 14 30 31 14 17 20 28 17 10 25 24 21 3 15 24 24 23 27 38 23 16 19 19 3 24 31 24 16 17 26 3 27 13 6 22 9 18 3 17 20 20 16 20 21 7 17 16 8 24 9 16 24 20 20 24 27 34 19 24 34 17 16 23 13 10 21 40 27 3 27 20 17 17 17 10 20 21 6 31 17 26 9 10 17 24 18 27 11 6 21 20 34 23 31 21 17 24 35 16 10 16 13 16 12 21 15 17 26 10 28 45 6 16 24 24 16 23 12 11 23 20 13 19 10 22 20 21 15 20 13 17 17 26 13 21 10 20 31 27 15 10 17 12 18 16 27 12 17 20 17 17 27 23 17 13 21 18 13 7 16 27 7 27 26 27 12 17 14 24 18 13 19 19 24 18 17 17 15 26 12 20 14 25 24 13 34 13 3 20 23 21 21 3 21 10 22 10 9 16 13 20 21 13 20 31 7 42 30 23 25 13 23 13 23 36 30 3 27 17 19 20 18 13 20 7 24 10 10 0 7 10 16 17 10 13 27 17 35 20 10 16 13 20 27 21 9 10 14 21 21 24 24 30 6 21 13 24 28 30 17 28 17 20 3 10 6 21 10 26 27 13 23 17 23 19 13 20 17 16 19 20 17 35 23 16 15 17 21 7 20 14 16 15 17 23 10 27 23 17 10 3 23 13 24 26 14 27 27 31 24 14 24 14 20 8 20 17 27 14 13 23 9 28 27 24 6 3 13 34 21 17 20 17 11 7 12 22 21 14 13 15 17 20 24 17 16 7 19 21 19 14 27 27 18 13 34 17 18 17 21 19 21 3 7 26 17 26 13 27 35 21 10 13 19 11 13 28 9 30 23 13 24 23 17 17 6 13 20 28 10 23 30 17 26 8 24 29 38 21 22 14 26 14 23 14 24 13 13 17 20 16 19 14 20 28 7 6 26 16 7 23 16 23 27 14 14 17 9 23 7 20 34 17 16 17 15 25 13 22 31 17 22 17 20 14 26 27 16 34 24 23 17 27 29 13 10 10 0 19 24 27 12 19 17 14 23 20 21 0 20 10 6 12 21 14 14 18 13 14 22 9 10 14 9 16 14 20 20 20 17 25 20 6 27 26 23 27 14 21 16 31 27 13 34 32 27 19 22 14 14 30 17 9 21 24 20 13 20 27 20 6 27 24 24 16 20 16 18 3 17 6 23 3 28 13 23 11 3 18 17 16 23 23 16 16 19 20 9 7 16 14 9 31 6 26 20 3 15 14 31 27 20 20 28 31 7 27 16 17 21 24 14 19 6 28 24 24 22 21 10 28 9 17 24 10 24 16 16 18 20 21 16 20 20 17 20 20 13 6 23 14 21 24 23 31 22 38 25 15 6 19 23 24 34 21 14 37 14 34 24 28 24 20 6 25 17 14 24 20 18 7 10 20 17 23 27 21 10 27 31 22 30 13 17 22 14 20 20 34 21 24 12 26 31 7 31 23 13 14 8 27 10 15 26 21 17 17 13 6 9 13 13 21 23 10 24 31 26 31 35 7 13 13 13 10 13 24 15 10 17 17 23 20 23 33 10 24 20 19 24 17 23 12 13 29 24 7 17 17 13 22 30 17 27 33 14 23 21 13 16 23 38 13 20 20 10 24 27 24 10 26 6 10 23 13 24 14 26 13 5 35 26 33 34 15 27 16 14 7 19 23 20 10 14 17 38 10 13 17 23 27 13 14 23 31 27 31 34 16 16 13 31 24 34 19 7 10 17 28 24 21 20 28 23 17 10 25 23 17 24 18 20 10 35 13 47 37 31 23 20 27 13 17 16 10 7 13 17 3 25 13 13 14 12 45 17 23 29 12 19 10 9 21 27 29 23 40 28 22 17 20 13 20 28 20 10 12 12 17 3 20 20 34 17 13 13 29 10 23 16 16 10 24 19 37 9 21 13 26 22 23 10 19 27 24 28 34 13 23 6 13 21 0 17 24 27 28 26 27 24 22 21 16 17 24 27 9 24 37 22 20 24 12 17 17 7 12 8 10 17 6 24 27 23 16 17 19 21 24 31 30 20 21 17 16 16 13 17 16 37 28 13 31 31 31 13 13 31 20 28 20 23 24 28 17 24 7 24 10 16 17 9 22 17 14 9 23 22 30 21 27 13 16 20 31 6 20 16 17 10 17 35 13 10 27 17 13 17 7 9 28 38 3 27 28 7 30 28 17 7 23 23 23 31 17 20 16 20 24 17 24 13 34 24 24 13 21 20 0 27 31 26 19 24 27 28 14 27 25 34 3 3 14 10 21 13 17 26 19 27 17 10 38 13 19 19 27 16 16 0 20 6 20 23 23 6 24 22 10 23 24 10 28 27 20 20 21 17 20 28 18 10 23 11 17 34 13 16 24 44 6 7 14 10 27 7 14 17 23 29 35 27 12 18 19 15 13 24 12 33 8 10 27 19 13 13 9 27 28 6 10 21 25 7 20 17 20 10 21 27 15 24 20 17 20 17 10 16 22 35 16 12 17 14 29 30 20 21 14 30 27 19 15 10 17 13 3 23 16 19 24 16 13 17 16 19 13 9 27 23 23 20 20 20 17 34 23 20 28 17 21 24 7 26 7 17 24 10 27 19 17 14 16 10 15 16 29 25 20 28 24 35 15 17 22 10 21 17 13 16 24 17 10 17 31 20 6 28 17 13 27 10 20 19 38 17 20 17 12 27 21 27 0 45 10 16 8 23 20 23 35 24 17 14 10 30 10 17 16 7 20 21 10 31 13 21 16 10 17 22 21 17 13 17 27 19 29 17 23 7 17 21 15 41 17 19 17 14 14 12 9 24 17 23 24 34 27 37 10 19 19 20 20 26 14 34 27 23 10 17 27 27 17 11 13 14 34 12 30 18 20 22 24 24 21 8 13 17 14 19 21 14 20 17 27 28 30 19 19 6 36 21 27 21 16 32 27 10 24 27 27 28 26 17 14 10 17 24 30 31 23 10 21 26 17 33 10 34 20 16 3 21 24 28 15 7 13 6 28 10 21 23 20 27 10 10 10 17 23 24 19 20 17 3 15 30 8 28 21 14 20 3 6 3 33 7 21 14 17 15 16 14 7 16 6 27 20 6 27 13 24 17 10 31 24 31 16 20 5 28 21 22 17 3 23 24 17 10 17 17 30 9 15 14 24 13 21 21 21 23 20 14 27 24 23 17 21 12 13 37 7 13 17 24 31 7 14 16 14 17 19 16 27 30 19 38 24 13 16 10 29 14 26 17 17 20 20 17 13 17 7 6 8 13 6 20 17 14 24 21 20 27 17 24 15 31 18 13 34 17 10 14 14 20 28 20 27 10 21 16 14 31 34 13 21 41 15 24 24 10 23 34 17 17 7 14 23 24 18 20 20 31 10 14 24 24 17 9 13 22 24 26 3 17 31 23 24 30 23 19 20 21 10 20 14 24 24 17 13 27 41 20 3 27 22 17 24 31 12 24 21 10 23 26 21 7 24 13 20 13 24 18 16 13 27 24 13 27 27 17 23 3 23 17 37 9 6 17 10 23 27 21 27 14 21 29 22 13 9 18 14 13 10 12 10 22 20 13 20 6 25 16 23 41 17 20 20 31 20 21 30 24 30 10 0 21 10 27 16 23 14 17 21 35 23 9 21 13 21 24 23 28 17 26 16 19 17 23 3 27 10 18 23 17 26 22 40 30 21 13 20 21 28 20 14 18 21 17 38 24 17 26 23 24 34 35 13 27 41 21 16 23 17 27 10 17 27 20 3 16 28 27 16 24 13 24 17 17 24 10 20 30 24 13 9 12 24 26 14 13 6 20 20 20 24 19 24 12 23 20 24 22 14 15 21 24 19 12 21 23 27 17 14 17 24 20 17 14 10 17 16 19 13 10 17 7 24 7 26 24 10 34 0 22 14 16 20 14 17 16 21 22 9 32 37 17 27 13 10 7 21 16 23 24 23 24 17 26 20 14 20 33 38 21 24 17 21 21 21 31 26 33 21 20 10 27 10 22 27 30 10 14 3 16 9 26 21 41 17 6 16 13 7 22 28 12 17 6 27 3 20 7 17 20 17 22 19 17 34 35 22 21 34 24 17 3 24 10 14 21 23 23 12 10 24 20 10 27 20 24 10 23 21 13 34 17 24 20 17 6 14 14 0 21 24 3 6 17 31 17 20 15 3 20 11 28 17 16 10 7 6 17 28 20 7 7 17 27 25 14 28 23 37 28 15 26 13 24 28 17 20 23 17 24 19 15 28 31 27 31 24 27 24 27 17 27 28 10 9 9 31 14 20 16 19 14 13 24 21 7 22 7 10 13 27 10 19 19 9 10 29 15 7 20 3 19 31 17 11 26 20 17 17 3 17 10 13 20 14 20 13 31 20 3 19 17 9 10 26 35 27 15 26 40 31 24 28 27 37 21 13 14 22 16 18 28 10 3 11 10 27 17 16 16 20 13 13 24 24 10 16 17 9 13 16 12 20 17 13 9 6 20 6 24 26 17 26 20 27 16 10 14 27 21 24 21 26 6 14 9 22 14 11 20 28 20 17 34 6 34 24 23 17 21 24 13 20 31 22 21 12 14 20 31 21 20 16 16 17 17 10 30 28 21 14 35 27 20 6 36 19 24 27 3 41 16 20 21 18 27 17 10 13 13 20 30 12 23 17 20 17 13 17 20 21 20 17 24 28 15 34 19 21 12 26 21 17 20 24 24 13 24 14 10 24 17 13 22 24 20 7 10 22 13 15 10 17 10 17 26 9 13 34 18 30 14 14 31 13 34 27 27 24 14 10 23 24 21 29 23 14 20 12 20 7 16 24 23 25 14 27 20 27 21 14 24 24 34 27 11 27 31 23 13 13 31 30 20 12 17 13 23 21 27 18 26 18 14 14 28 21 22 17 17 9 13 17 7 27 20 19 16 6 12 9 17 24 16 14 10 23 10 14 16 31 6 24 20 30 13 32 18 15 24 17 19 27 38 10 23 14 28 16 10 16 17 16 10 23 23 20 18 24 20 31 28 24 20 30 28 9 20 24 34 24 23 14 27 24 13 34 17 20 20 16 34 14 16 18 17 14 20 13 17 23 20 17 23 13 14 23 23 33 24 21 24 24 13 26 15 9 21 25 26 9 23 13 16 19 30 14 18 18 6 30 24 34 18 10 12 10 13 19 27 10 17 13 16 20 20 45 6 16 23 24 20 10 13 25 17 14 20 13 17 17 17 11 13 20 17 14 35 6 30 17 23 20 14 23 27 23 20 27 13 20 14 17 20 21 24 19 15 20 28 11 17 12 6 20 24 22 24 33 24 11 19 16 17 20 9 21 9 23 13 21 7 18 31 24 23 24 27 27 16 20 19 17 20 17 16 6 17 16 17 17 17 31 17 14 16 17 13 20 17 27 35 13 15 13 13 19 13 14 35 22 10 33 10 16 7 23 10 34 13 16 24 30 30 31 24 18 14 20 27 13 17 10 16 10 24 6 21 14 26 24 13 17 17 21 13 16 10 27 14 24 24 11 13 10 24 17 21 15 17 24 26 17 24 13 26 17 16 14 15 21 21 23 10 21 14 17 7 20 25 34 17 20 11 30 19 20 27 10 30 6 34 28 20 31 13 24 14 24 16 19 22 16 16 14 19 30 27 10 14 22 27 21 16 10 16 16 16 21 16 17 17 17 34 10 14 33 13 28 35 17 19 9 14 28 28 19 28 24 17 26 17 23 14 24 26 26 14 7 20 37 19 24 17 21 24 48 21 21 3 21 30 22 24 24 16 16 21 14 27 20 24 21 27 28 7 21 14 10 34 24 10 15 28 13 16 5 24 24 19 21 34 10 13 16 24 24 31 24 24 11 24 27 19 10 6 17 42 24 16 28 13 27 10 17 10 18 39 27 13 14 6 23 23 13 27 30 31 13 17 17 10 17 17 16 21 24 0 24 13 17 21 16 14 13 28 15 16 13 27 24 3 25 14 20 13 17 3 19 8 16 20 30 23 11 24 17 27 0 20 17 13 20 13 31 35 13 16 17 17 24 37 24 9 38 18 23 13 13 27 19 20 27 13 17 17 17 14 3 24 10 7 20 13 31 24 23 20 27 15 13 19 24 17 18 13 24 14 16 31 13 29 28 34 14 26 16 13 20 10 15 28 27 24 23 10 27 14 14 10 13 13 20 10 32 13 20 30 15 3 10 17 30 14 16 16 24 27 27 7 7 20 10 16 23 23 25 10 10 26 17 16 23 17 23 10 23 16 16 14 21 11 31 7 23 38 23 17 21 24 6 24 13 27 22 7 24 9 15 21 20 23 20 17 35 19 13 24 40 17 18 20 28 28 11 21 17 17 24 13 3 17 27 26 31 14 20 17 10 13 20 7 31 3 14 14 27 24 6 20 21 0 20 37 16 6 13 6 23 37 28 19 10 23 17 14 26 13 23 27 23 17 24 28 21 3 9 13 15 23 14 23 10 27 15 11 21 17 27 27 27 26 30 20 22 16 26 17 10 19 29 20 23 2 34 32 3 35 10 18 15 20 21 21 17 16 24 16 30 20 20 12 20 3 17 7 13 9 17 10 30 24 20 27 19 24 20 21 22 16 20 6 13 16 12 24 19 12 27 3 18 17 16 14 13 17 31 7 13 26 17 13 24 16 20 23 23 14 20 31 31 20 14 9 21 3 20 10 0 7 17 17 14 33 31 21 24 34 31 21 14 27 17 13 28 15 52 32 27 22 7 16 6 26 7 14 12 23 6 14 13 20 10 17 14 20 13 20 3 24 17 24 14 8 7 20 38 24 9 17 10 10 19 21 13 21 31 27 21 20 21 16 17 27 7 23 21 19 20 6 27 15 22 30 9 24 26 24 16 20 22 20 32 22 20 13 20 13 21 17 27 20 22 23 13 20 17 17 14 41 21 13 14 20 17 28 31 21 22 29 17 6 14 17 28 23 30 10 37 7 20 22 6 13 23 21 30 17 31 20 31 10 7 13 27 13 23 15 6 20 9 12 28 14 20 27 38 16 14 29 8 14 34 28 35 23 13 14 17 24 34 10 24 7 31 13 20 24 13 17 27 16 28 23 14 12 14 27 13 10 20 12 27 20 12 17 27 31 10 10 23 21 13 13 7 30 13 20 14 20 31 14 10 13 6 20 10 23 36 42 31 18 27 20 13 16 17 10 16 15 17 24 14 20 30 28 21 21 31 13 24 17 6 14 17 35 14 17 17 22 24 13 17 9 13 6 24 27 12 28 24 23 7 24 13 38 19 30 13 20 21 26 23 22 7 17 20 27 14 31 27 22 13 13 31 14 15 24 6 14 20 13 16 17 3 9 14 13 34 24 38 26 31 24 3 20 17 20 13 16 13 17 18 21 14 17 18 20 20 14 16 24 17 22 34 17 24 20 20 13 13 24 24 21 30 16 17 13 16 21 21 25 24 17 23 20 17 9 20 20 10 23 31 21 17 19 13 26 24 3 17 17 14 23 18 28 20 14 20 21 21 14 9 3 24 21 21 16 17 38 30 10 16 14 15 28 6 20 7 20 13 24 36 23 28 24 28 16 17 14 27 27 37 28 19 17 26 6 18 14 23 24 24 17 21 31 32 34 24 22 31 23 17 18 21 17 13 24 21 13 20 17 14 19 20 27 28 24 13 34 24 17 38 24 20 13 9 14 27 14 14 14 14 19 13 24 17 27 20 20 17 7 21 7 30 16 27 6 30 9 33 7 6 14 16 25 18 16 13 10 20 24 17 17 23 14 7 31 10 26 20 17 19 20 35 23 17 14 20 28 10 13 19 22 10 28 16 19 21 21 16 23 15 27 21 20 13 17 15 23 10 10 17 15 34 23 14 20 10 20 25 10 23 6 20 28 22 13 19 23 10 9 10 20 17 14 13 16 6 24 28 13 19 14 10 17 27 21 15 14 13 16 10 20 17 10 16 19 17 12 7 37 19 7 3 16 31 17 28 21 29 20 24 10 20 10 16 28 14 29 24 17 20 6 16 31 28 13 18 20 17 14 17 30 34 28 20 17 20 9 21 23 38 21 19 10 13 21 16 24 38 17 28 14 24 20 14 24 10 27 24 10 20 17 31 14 20 20 3 16 20 7 15 35 35 29 28 40 22 28 34 20 9 24 17 13 16 28 17 14 17 17 24 20 31 20 7 17 20 19 24 26 27 24 24 19 10 7 21 33 17 16 12 20 11 19 17 34 14 30 13 17 38 17 9 13 10 23 28 17 26 20 7 15 17 17 14 28 20 30 15 16 30 26 27 24 24 21 21 17 7 9 21 23 16 16 19 24 10 20 14 16 15 31 11 20 10 14 18 13 17 0 10 16 9 18 20 20 17 19 21 9 15 13 24 16 27 11 20 24 10 20 20 20 17 3 21 16 20 24 23 14 12 0 20 19 9 25 25 10 7 6 13 13 24 24 10 30 27 15 20 16 21 16 24 6 17 16 24 23 10 14 25 3 13 23 24 27 10 17 15 28 10 7 10 17 17 23 17 7 9 22 28 17 24 15 6 27 31 10 10 16 21 19 22 16 28 10 10 14 23 14 10 10 24 14 10 10 6 17 17 20 16 31 16 23 24 10 20 6 17 18 14 7 24 17 31 24 17 35 16 37 10 30 34 23 11 13 17 34 13 9 23 8 24 14 19 24 34 16 20 13 27 17 27 24 17 13 13 23 14 26 14 14 6 21 16 24 7 24 10 24 17 17 34 24 10 20 16 6 24 9 24 20 31 9 10 15 24 16 24 18 17 7 13 27 21 10 27 37 13 7 10 17 21 21 7 23 24 10 27 24 20 28 19 24 23 17 10 21 14 10 20 32 18 10 17 16 24 24 23 17 29 19 21 13 5 17 13 19 16 17 10 20 16 33 13 26 21 38 15 13 17 35 7 29 17 27 12 23 18 38 14 16 9 27 13 19 14 15 14 24 9 13 23 13 27 23 28 20 23 7 22 13 20 20 31 37 17 21 26 38 20 9 13 13 27 9 15 17 10 24 13 10 27 7 23 21 24 6 17 19 14 20 13 30 17 24 17 34 10 17 15 10 16 9 9 17 13 22 17 13 17 21 22 10 10 6 23 26 20 20 31 9 10 26 38 16 31 15 12 14 6 31 6 3 22 30 21 24 17 21 16 34 7 20 14 20 28 18 13 3 24 23 24 17 17 26 9 20 20 16 24 9 23 23 16 19 28 10 13 9 23 26 21 16 14 16 29 21 13 9 16 22 16 24 16 27 21 17 12 16 21 34 24 17 10 21 16 31 10 13 20 14 13 21 3 13 27 34 23 24 14 34 20 16 16 20 27 9 3 20 17 20 27 13 19 13 26 17 31 9 16 10 17 13 24 17 19 7 13 9 19 27 13 17 20 24 22 31 24 15 37 38 15 17 15 21 27 14 18 20 14 31 11 20 15 17 35 28 10 23 20 23 12 31 7 13 14 28 14 37 27 31 28 23 7 9 31 26 31 7 7 24 19 0 17 21 27 38 17 24 19 24 12 21 9 27 37 9 28 17 17 19 26 38 9 7 13 23 28 17 16 28 16 33 16 25 13 20 20 22 21 34 17 3 0 12 27 15 24 14 21 20 21 30 17 26 24 15 23 31 9 27 23 17 24 15 18 24 3 24 27 24 17 27 18 24 13 13 10 14 21 15 23 17 30 9 23 14 20 11 32 21 7 20 3 9 9 27 24 20 35 16 17 16 10 10 25 17 17 21 23 20 22 6 17 12 7 9 34 24 33 20 10 7 21 24 21 11 14 14 23 14 7 22 15 22 21 13 31 14 24 10 17 19 20 24 24 7 20 21 19 14 14 34 27 24 21 20 20 29 10 10 17 10 9 14 23 28 9 19 24 30 13 17 21 17 13 27 10 27 23 3 25 23 28 23 20 30 16 23 23 20 23 16 13 38 20 17 15 10 17 12 3 20 24 17 9 21 13 21 27 3 13 10 24 27 35 25 28 26 13 6 21 13 7 6 17 10 13 24 13 27 27 19 14 23 21 17 13 22 24 27 20 0 23 24 17 31 17 9 10 24 13 21 13 14 14 34 14 23 24 31 20 26 12 16 10 23 14 11 30 24 6 24 18 27 14 19 27 22 20 20 31 20 27 23 20 17 11 14 16 16 10 23 17 21 27 24 23 15 20 26 37 17 14 25 10 13 28 10 20 19 35 24 22 7 18 6 28 16 7 22 25 21 20 20 41 10 14 7 10 20 26 20 12 24 28 19 31 27 24 13 19 20 17 10 20 19 13 24 17 13 27 23 14 20 17 21 13 20 27 13 23 17 13 10 21 17 17 20 18 21 12 30 20 10 18 14 6 24 34 26 16 18 16 13 10 14 20 10 12 14 20 0 27 29 35 17 24 7 36 10 20 23 24 27 24 16 20 17 28 31 3 10 16 12 28 20 30 30 20 10 24 24 17 31 16 34 16 17 7 14 21 14 23 9 17 14 17 12 21 20 23 20 23 24 26 16 16 30 17 15 10 8 13 16 10 13 7 13 7 14 28 34 0 34 27 13 13 9 35 13 12 27 17 17 17 3 25 30 9 10 19 23 20 13 20 30 28 24 23 11 14 20 17 15 24 31 20 13 9 17 21 24 23 6 28 22 10 20 20 24 9 9 20 13 20 26 6 20 16 15 13 17 10 21 17 17 24 31 14 20 14 24 20 24 9 14 17 26 21 17 13 29 20 27 31 17 10 10 27 15 13 17 21 21 38 13 12 13 22 35 8 30 14 20 24 24 20 14 11 24 16 10 17 21 37 12 13 20 25 17 25 13 20 26 27 17 27 15 0 16 20 3 15 7 19 51 24 21 17 38 11 17 24 21 19 7 20 21 30 17 15 20 17 26 27 21 14 31 17 20 27 23 27 21 10 13 24 7 21 20 21 24 36 21 24 27 13 16 24 31 20 20 17 27 30 23 15 6 17 31 6 31 23 28 30 13 26 15 22 20 17 24 10 17 15 21 20 17 14 7 19 14 21 14 23 20 18 10 17 23 6 14 10 14 12 14 24 27 9 25 19 14 17 9 23 13 28 24 17 20 21 28 31 27 24 9 6 17 6 14 37 13 21 24 6 38 30 26 21 23 14 9 7 24 13 19 24 10 31 9 13 27 11 25 10 19 27 24 20 10 14 20 10 20 20 17 31 12 20 7 13 19 24 31 17 31 9 28 6 17 21 21 31 24 21 34 28 7 17 26 12 3 20 33 9 24 14 15 6 3 13 17 14 17 17 20 16 24 14 11 21 22 20 21 16 20 14 14 13 26 22 26 24 24 20 7 14 30 19 17 10 14 17 14 6 24 31 10 17 9 19 13 20 10 6 17 0 17 24 27 22 10 35 14 28 23 21 14 28 16 15 29 24 24 13 10 13 10 14 10 13 24 23 3 14 13 9 20 17 27 20 24 16 12 21 21 3 24 42 17 27 17 37 15 6 10 24 18 27 30 35 27 23 10 24 38 24 21 21 21 26 18 20 16 20 17 24 23 16 24 29 14 24 24 21 6 6 23 10 15 22 17 20 10 24 20 24 10 7 24 10 13 19 7 22 11 17 31 16 23 23 23 14 13 6 14 24 20 20 9 7 23 14 31 35 17 3 21 19 10 24 0 13 23 20 19 16 20 26 10 20 13 24 10 3 13 18 13 24 10 23 30 20 35 17 15 27 17 10 21 9 41 31 21 38 27 6 16 17 30 12 30 34 20 24 20 14 16 16 14 17 0 18 30 14 20 19 27 14 17 23 6 21 6 37 17 20 20 9 7 13 6 12 31 16 17 34 19 10 10 6 10 10 24 26 35 10 21 24 21 38 13 16 20 14 13 17 10 29 10 24 37 31 7 17 20 16 21 16 15 22 23 25 3 27 10 22 27 23 23 17 21 3 32 31 9 26 25 19 9 27 30 7 16 15 20 14 15 18 9 17 18 7 22 34 22 13 10 20 18 9 21 13 13 23 21 23 9 19 24 20 13 17 10 13 21 13 21 7 10 24 28 9 18 16 44 27 17 14 26 20 16 14 21 17 13 17 7 20 23 17 12 22 20 16 26 16 10 28 17 21 28 10 27 23 21 17 35 21 14 22 16 17 20 27 14 15 13 10 13 13 24 3 22 3 23 3 29 24 10 3 16 41 3 24 18 22 23 10 20 19 12 27 23 19 23 13 22 12 28 27 6 22 17 24 23 13 13 14 10 14 20 29 12 26 19 16 13 16 24 22 6 30 25 10 24 16 24 31 23 20 15 30 17 17 13 27 21 7 13 13 16 33 16 14 9 24 6 34 24 24 7 14 17 21 20 20 27 7 20 17 30 35 24 24 14 16 13 13 9 24 35 14 20 16 21 6 0 14 19 16 14 20 27 20 17 23 9 19 37 19 10 16 27 21 13 24 27 17 24 7 33 19 31 7 17 28 24 17 27 21 22 9 21 27 21 9 7 16 11 13 20 26 12 10 16 41 24 16 13 6 16 14 17 21 7 24 15 16 19 24 19 20 21 21 27 20 23 27 14 3 34 16 17 25 9 13 24 20 16 20 20 13 23 14 20 31 16 24 20 26 14 20 20 17 13 7 6 17 12 20 10 21 17 30 7 5 17 17 26 23 10 21 20 17 14 20 16 20 10 20 27 18 24 30 13 24 6 10 23 17 21 20 34 24 26 27 17 21 0 18 18 17 25 27 20 13 20 18 15 27 15 9 18 22 19 27 6 17 14 27 19 10 34 26 6 13 6 14 17 24 21 17 22 0 3 17 30 7 23 26 24 21 36 17 23 30 10 30 24 17 21 19 25 27 20 9 16 14 9 17 21 24 14 6 31 17 27 31 17 24 28 28 14 17 14 24 16 29 20 10 24 6 14 13 35 31 9 9 10 23 20 10 17 24 16 20 31 20 23 30 17 24 10 20 21 9 17 7 21 7 31 24 21 6 24 7 30 23 14 24 13 31 19 25 10 32 23 37 24 18 30 24 10 35 23 13 27 24 27 23 8 17 24 17 17 20 27 13 26 26 10 27 17 19 13 28 21 17 21 24 20 28 17 13 24 20 10 20 20 12 17 7 20 20 23 21 11 6 23 25 17 5 24 13 17 9 17 27 10 17 17 37 20 19 13 21 20 13 14 10 17 13 20 21 24 23 33 12 26 31 31 30 17 17 21 13 18 10 24 14 10 16 21 7 17 23 24 21 14 6 28 24 14 27 3 23 23 13 24 10 21 6 30 14 17 30 24 17 22 23 13 14 3 0 31 14 27 16 20 21 28 31 22 13 23 34 20 19 14 27 13 11 21 31 35 10 7 3 9 20 16 27 17 20 3 13 6 21 14 10 17 10 6 24 16 15 24 28 13 10 14 12 24 7 17 24 13 34 21 3 20 27 16 18 23 24 23 6 21 19 17 17 35 20 18 10 10 26 14 14 28 24 24 17 17 14 19 7 20 24 24 17 10 28 44 7 16 14 31 27 30 16 38 14 24 26 14 10 13 16 13 7 13 23 14 15 13 23 13 9 25 24 16 21 13 17 7 17 17 10 21 17 17 20 28 23 3 30 13 24 18 13 15 17 11 23 24 16 28 17 24 20 30 16 19 20 6 20 20 9 12 20 21 24 24 20 34 17 10 28 21 29 30 20 23 27 17 23 27 17 13 22 16 19 12 21 16 24 21 30 21 17 20 21 41 10 30 17 27 19 21 23 27 32 22 28 24 27 24 13 14 3 13 19 13 24 17 3 41 10 31 16 21 24 0 10 13 25 38 18 22 3 14 21 10 30 13 12 17 14 17 11 32 9 7 21 26 27 17 29 10 17 24 21 10 31 3 20 13 12 20 16 17 24 10 12 15 14 23 24 26 17 18 33 30 21 10 7 21 21 6 22 10 13 15 20 17 35 19 35 7 24 9 34 24 16 13 26 20 17 22 16 23 26 23 6 27 20 22 16 6 17 7 19 9 10 10 27 11 20 6 28 27 10 31 17 23 16 38 24 14 13 21 28 16 20 6 19 20 24 19 19 16 28 17 20 24 23 14 21 16 28 20 15 19 33 23 10 31 20 10 35 24 19 18 17 12 22 7 34 10 6 29 10 3 7 10 17 16 26 13 16 14 17 13 34 24 13 17 20 23 6 14 6 15 10 16 9 26 14 15 38 13 17 13 24 17 24 13 3 19 13 26 23 17 27 5 32 20 21 12 17 26 26 17 16 19 31 13 28 19 23 13 17 17 14 27 31 25 13 9 7 0 16 17 14 17 14 31 27 16 9 27 41 6 24 20 0 21 24 22 16 17 17 30 21 27 16 20 31 19 20 18 13 23 13 24 14 14 34 31 16 26 19 15 3 11 27 14 23 17 40 31 14 10 24 19 21 14 34 7 20 0 23 22 17 10 20 10 23 27 23 14 20 28 7 30 30 28 20 20 10 27 8 11 23 20 27 17 22 27 9 7 16 28 20 28 24 13 24 6 24 13 31 7 7 9 10 24 31 22 26 38 34 26 21 19 9 14 9 24 20 17 16 9 18 20 16 16 24 24 24 21 17 12 19 10 21 26 20 17 23 11 19 23 7 16 24 29 23 29 30 17 28 0 24 20 19 16 15 17 44 29 6 10 0 28 24 31 24 0 9</t>
+  </si>
+  <si>
+    <t>EXN(0.4922245108327107, 21.7611961306933, 3.929312581317164)</t>
+  </si>
+  <si>
+    <t>25 28 25 28 17 19 21 25 19 25 32 16 27 13 20 30 24 22 24 24 26 23 22 22 23 27 20 16 27 26 19 34 27 24 25 17 28 22 21 29 22 23 28 26 28 26 22 31 25 36 30 22 30 24 29 16 21 27 27 17 25 15 25 18 18 21 19 30 25 23 24 20 32 26 18 30 25 28 17 22 21 14 20 23 23 25 22 20 26 26 24 21 23 22 27 26 29 25 14 19 21 19 23 28 26 20 22 22 32 29 23 24 28 28 25 19 14 16 20 23 23 23 21 23 28 30 24 21 25 26 20 16 17 22 25 26 21 26 35 23 22 22 24 28 32 22 22 18 19 23 19 24 21 17 25 26 23 25 25 23 22 15 19 21 20 27 25 26 13 26 18 30 21 27 16 22 24 19 16 25 28 25 19 26 22 27 31 25 25 21 26 26 22 21 22 21 25 22 14 27 20 19 23 21 22 21 22 29 25 23 28 30 18 20 25 26 22 28 22 23 27 29 32 23 24 30 28 21 18 24 20 27 25 28 15 22 23 28 27 19 27 22 31 23 23 24 22 18 18 19 26 21 14 28 32 22 18 31 24 21 15 27 19 15 19 28 25 20 21 25 13 20 20 25 20 23 16 25 26 40 18 23 22 20 27 25 22 21 25 17 17 22 22 28 24 25 26 20 21 26 14 19 20 19 32 20 23 22 27 17 29 18 22 26 21 23 29 26 28 23 20 18 24 25 20 23 31 29 30 20 27 25 24 24 18 21 27 19 30 19 22 24 31 23 27 28 22 15 19 23 24 24 20 22 24 21 22 26 22 27 23 31 39 18 28 27 21 16 32 19 25 26 28 25 17 25 21 23 17 25 19 20 22 31 14 18 15 27 20 22 27 29 19 16 29 23 31 19 22 29 12 28 24 17 12 20 19 22 25 26 33 21 32 30 26 23 32 20 21 26 24 31 29 25 15 17 18 22 14 23 24 22 27 21 31 22 20 17 24 32 26 21 26 26 28 22 22 30 20 20 21 17 22 23 19 24 15 18 29 20 19 23 24 19 27 24 25 24 20 21 22 22 23 17 25 25 25 22 30 23 15 28 21 20 30 29 23 25 23 14 34 30 27 26 28 18 21 27 25 20 24 23 32 23 25 32 26 25 22 20 23 29 25 20 24 23 24 22 12 20 20 21 23 31 24 20 16 21 19 22 24 24 19 27 23 27 26 24 24 36 26 30 21 28 20 22 28 28 16 33 21 25 26 18 27 25 31 25 22 29 32 20 23 29 20 25 25 22 22 26 21 27 30 19 23 25 31 27 25 29 26 26 27 11 21 21 20 24 35 29 27 22 20 23 23 26 27 19 35 24 18 22 22 23 21 23 17 17 18 31 14 18 26 22 21 16 25 27 24 30 33 36 32 29 23 27 18 23 21 23 20 28 21 28 23 23 18 28 21 28 18 22 22 32 20 24 25 19 21 18 18 21 29 16 30 24 19 22 25 28 25 26 26 25 29 21 22 18 25 21 23 20 31 18 32 21 30 16 15 26 22 29 22 27 24 26 23 18 25 22 25 23 23 26 20 16 27 19 25 22 33 20 24 26 26 25 14 27 26 15 24 23 26 24 28 27 20 29 30 27 24 19 25 23 17 22 22 18 24 22 24 24 16 23 24 27 19 30 23 25 31 23 21 18 30 25 24 17 25 23 21 21 21 31 23 24 22 26 20 24 16 19 29 29 20 28 27 23 24 20 24 26 20 30 30 17 20 28 28 28 28 32 23 25 23 19 26 23 16 25 18 23 19 19 27 32 27 36 29 25 16 17 19 27 22 25 29 23 19 25 29 28 25 18 30 16 24 37 24 21 22 22 24 24 21 22 16 29 26 27 22 16 24 24 19 25 24 14 27 34 23 17 33 16 27 24 14 25 30 22 19 24 31 30 25 23 27 21 17 33 16 24 20 20 23 25 24 33 24 33 29 20 21 23 20 17 25 26 21 21 26 20 30 25 22 27 21 31 24 28 22 24 20 29 28 27 33 26 22 25 29 33 23 22 23 26 33 21 26 16 27 28 20 29 26 20 24 24 18 23 20 29 31 18 30 28 24 27 21 34 17 23 26 31 21 23 25 21 21 23 26 21 20 24 25 24 26 23 30 22 21 25 21 32 26 27 24 21 14 22 29 28 22 24 19 24 20 25 24 27 30 18 34 19 31 24 27 28 19 22 29 25 17 21 18 22 28 26 25 27 20 24 24 23 30 23 24 20 31 31 29 29 27 20 23 20 24 23 27 19 26 19 22 20 31 28 23 15 26 24 29 21 29 25 25 23 26 18 35 26 29 28 28 28 23 16 27 18 21 20 26 22 17 21 20 16 28 19 18 22 27 18 21 24 22 24 23 21 25 23 22 22 19 22 18 30 27 25 20 19 29 20 24 27 25 28 18 24 26 27 24 32 22 21 23 21 27 17 26 19 20 20 28 22 30 29 27 23 30 17 22 23 26 23 19 25 29 31 25 24 28 21 24 20 23 24 25 24 23 31 22 23 29 23 26 29 25 22 28 27 26 31 21 18 18 22 21 30 29 30 24 21 20 18 16 18 23 21 19 20 23 18 20 20 20 22 26 12 21 22 20 22 24 22 24 18 17 20 24 27 25 17 23 27 27 29 33 28 23 20 28 23 25 27 21 22 28 22 20 23 23 20 17 30 35 21 22 22 23 21 25 16 22 23 21 24 26 24 24 19 24 29 19 23 28 24 17 19 27 26 25 26 25 19 23 27 32 22 28 35 30 19 31 25 22 31 21 22 32 18 29 16 29 26 19 26 28 24 21 19 28 20 23 24 28 26 25 15 27 22 14 25 25 20 18 23 25 20 25 21 23 23 23 18 31 24 24 21 29 16 25 20 24 25 21 26 33 19 33 33 26 28 24 16 27 32 24 23 24 29 23 28 29 22 21 25 26 35 24 29 15 22 25 27 24 29 14 19 39 20 26 28 28 28 23 13 14 29 22 22 22 22 25 30 25 23 25 22 27 22 15 26 24 26 23 31 29 23 23 28 20 25 20 23 16 21 22 24 19 21 27 21 20 29 19 27 28 24 29 24 28 24 22 35 20 24 21 23 21 20 27 24 25 22 29 15 22 26 26 24 34 23 22 17 24 19 17 28 23 24 31 19 25 22 26 27 23 24 24 23 30 23 33 22 14 20 19 20 27 25 16 10 24 23 26 29 22 15 30 25 20 34 19 33 26 21 30 20 29 32 22 25 20 23 25 20 24 19 20 20 25 28 23 27 24 34 28 17 25 21 26 16 20 22 25 24 23 27 23 22 24 22 24 27 14 26 21 25 21 29 21 22 20 19 28 22 22 31 20 25 30 22 22 26 29 23 20 27 27 28 23 16 22 29 20 24 24 28 20 21 23 23 33 24 29 24 17 25 15 25 22 22 17 23 25 20 20 24 26 24 23 35 22 25 20 28 24 22 26 29 17 19 20 27 26 21 23 18 24 22 31 26 21 17 31 28 29 29 18 23 26 18 24 21 21 24 23 20 27 27 30 30 20 15 19 21 29 25 33 23 25 21 26 22 15 14 26 22 23 24 18 30 29 21 18 23 22 19 24 27 21 21 27 27 19 25 24 22 16 25 30 30 25 30 28 29 24 29 17 17 29 22 25 23 26 24 24 23 24 22 29 24 19 28 17 25 28 17 22 27 30 20 16 25 22 27 24 28 28 34 31 25 19 23 22 26 28 24 20 20 27 22 27 21 27 23 20 22 28 33 27 26 23 24 16 19 20 20 30 30 21 24 20 30 24 22 28 28 17 28 25 16 23 29 23 30 26 20 21 24 17 22 23 27 21 16 28 25 32 16 25 27 37 19 27 27 22 31 20 23 21 13 18 21 26 16 22 22 21 26 24 31 31 19 17 25 23 21 16 21 17 20 25 15 32 21 18 29 21 20 23 22 25 23 31 23 23 23 33 28 36 18 25 36 23 26 24 25 19 23 21 23 14 19 15 27 23 23 25 23 21 26 32 25 27 23 19 26 25 23 32 25 25 20 25 23 24 22 22 27 22 25 28 28 22 19 32 15 25 18 21 18 16 34 20 24 23 25 27 21 36 29 30 27 21 29 27 18 29 27 16 20 33 22 18 31 22 24 21 20 21 19 25 27 22 19 24 24 22 27 18 26 22 25 25 21 16 20 24 21 22 24 18 20 24 27 28 16 26 27 22 20 24 23 22 16 22 26 19 22 26 22 19 25 25 30 22 23 25 22 27 19 29 32 24 21 34 27 18 27 23 19 26 21 23 19 24 19 25 25 27 26 22 25 25 21 34 24 27 26 30 35 26 25 22 22 25 20 28 21 23 18 26 22 27 25 23 25 33 26 22 31 19 21 19 35 30 28 17 21 18 17 26 29 25 25 27 17 20 26 22 24 25 17 28 23 36 28 19 20 25 29 25 22 24 23 19 24 19 24 25 21 27 20 27 23 19 26 16 25 27 12 22 31 23 22 17 25 21 33 22 24 31 28 23 21 19 18 24 20 19 29 18 25 22 24 32 19 24 33 28 26 26 26 26 22 26 30 25 26 19 25 35 21 17 28 30 19 30 13 23 21 17 21 21 27 27 21 19 19 26 18 19 29 25 14 20 27 25 25 32 26 23 20 32 22 22 16 21 27 20 18 24 23 23 26 32 35 28 18 20 31 26 18 25 29 22 19 24 24 22 23 26 25 30 24 28 22 21 22 27 33 23 22 22 24 22 28 20 17 19 18 23 27 21 30 27 21 15 24 23 23 25 17 20 22 25 22 31 21 24 27 28 21 22 25 25 26 19 25 21 16 27 20 21 20 20 26 23 26 31 22 23 26 22 27 18 19 24 19 27 21 15 19 19 31 24 21 30 31 25 21 21 22 22 25 27 19 17 16 28 20 24 30 25 22 31 19 29 28 16 23 27 22 27 29 24 26 30 16 24 24 25 25 24 26 24 25 25 17 20 17 15 31 24 42 32 25 19 27 16 26 19 26 23 15 21 21 19 20 25 20 15 23 25 23 20 28 21 21 27 21 23 26 27 22 25 26 20 18 23 34 23 22 24 25 19 27 20 26 31 29 25 29 15 29 20 22 19 33 25 21 25 21 27 17 26 29 33 27 31 24 20 22 24 23 14 25 25 19 25 32 32 26 25 21 30 20 25 23 25 18 30 20 16 20 19 25 25 18 24 39 15 16 16 26 23 24 27 31 23 26 24 21 22 24 18 16 27 29 25 28 22 29 27 29 27 24 25 26 26 21 20 27 22 18 26 22 18 25 22 19 30 30 26 17 22 15 17 23 26 25 14 24 15 22 22 24 26 24 28 17 26 15 24 28 24 21 26 19 16 26 22 24 25 26 18 32 21 25 23 28 25 23 19 31 25 27 23 23 33 28 28 24 18 24 19 19 27 23 25 24 21 30 23 33 29 22 29 27 25 25 29 21 24 33 26 30 32 20 22 27 19 22 16 20 24 27 30 20 18 9 20 31 26 23 24 23 23 32 23 28 26 27 20 21 26 19 24 18 16 27 24 18 21 29 30 23 28 25 25 19 20 33 27 18 27 26 28 23 14 22 21 20 21 22 25 21 24 23 25 24 28 27 29 15 18 28 14 29 22 23 29 22 25 26 30 24 32 18 17 25 33 27 26 21 21 20 21 17 31 21 26 34 29 27 27 25 15 20 29 18 16 25 35 21 19 21 29 29 23 30 26 15 22 19 26 22 23 21 31 28 29 26 22 26 28 28 21 27 27 26 37 18 23 18 19 21 18 18 15 31 18 29 28 16 24 16 26 23 27 26 25 19 25 24 22 21 32 28 21 16 22 25 22 17 25 22 26 24 25 28 19 19 22 25 19 18 23 26 23 14 18 31 23 22 21 27 25 22 23 25 19 23 21 19 22 25 16 24 30 21 21 31 35 24 29 23 24 20 26 20 23 20 16 18 28 26 22 21 20 28 17 27 37 21 19 33 29 25 22 25 25 21 31 19 21 28 28 21 20 16 15 21 21 30 28 15 23 22 25 18 25 21 16 17 32 23 23 19 30 26 27 23 28 19 25 21 20 25 26 24 25 31 28 30 17 26 19 25 17 28 26 17 16 26 32 30 20 19 26 29 27 26 32 21 24 27 25 21 26 23 23 14 22 18 33 25 19 22 20 35 24 31 22 30 26 17 30 31 21 21 24 21 24 25 29 25 21 29 25 25 23 22 17 26 25 19 19 27 20 16 24 19 17 24 34 24 25 19 26 25 18 20 20 23 28 28 36 22 23 26 25 17 17 22 28 23 23 21 20 22 28 18 21 27 30 29 21 24 35 24 26 29 25 25 22 20 21 32 25 25 21 28 27 23 25 27 25 28 20 20 28 23 26 16 21 35 29 17 25 29 24 18 13 20 25 24 27 26 21 26 19 21 23 27 28 25 25 31 30 19 18 31 25 21 25 18 26 25 28 19 28 22 22 20 25 24 14 13 25 17 26 32 31 25 29 24 26 18 21 26 22 29 16 17 19 24 23 29 20 23 21 29 31 24 26 19 30 29 30 16 36 22 21 21 18 30 20 24 18 30 30 26 29 25 26 25 24 29 23 28 28 21 19 20 15 25 22 23 19 22 29 30 27 25 31 23 27 23 25 23 21 22 25 32 24 16 25 28 18 27 19 19 27 20 23 27 19 19 23 24 29 19 20 21 19 19 32 22 28 26 18 27 25 25 25 20 22 25 19 22 23 18 25 30 21 26 21 27 29 33 22 22 21 29 29 17 24 17 28 20 26 22 16 20 23 26 17 30 16 23 28 29 21 26 29 25 22 30 28 31 10 26 23 24 19 10 21 23 24 21 23 27 30 24 21 31 22 19 23 30 26 28 24 32 21 18 22 26 17 23 21 23 31 28 25 21 32 27 24 28 17 18 25 17 17 21 25 21 18 27 28 17 26 26 26 24 19 20 22 28 21 29 20 19 20 26 23 23 24 32 20 30 24 19 24 17 31 24 27 27 23 23 34 28 31 23 26 18 23 25 24 22 19 30 26 22 25 30 28 22 20 22 26 24 24 25 25 20 24 21 19 22 17 25 20 14 27 26 20 26 26 21 19 24 28 27 26 22 24 25 32 27 19 29 16 23 19 26 28 25 24 21 27 27 19 19 17 25 16 28 26 22 23 18 21 18 22 19 26 33 26 21 14 23 30 22 25 27 21 22 25 21 27 22 20 27 30 26 25 27 21 28 20 19 26 20 20 17 21 25 18 16 25 19 25 19 34 26 27 27 32 28 31 24 27 20 25 22 29 16 22 20 27 15 16 26 27 27 20 20 22 29 26 29 27 23 26 27 28 26 22 14 26 22 20 27 27 23 22 26 23 28 16 28 29 22 19 16 24 22 26 26 29 25 22 28 31 20 30 27 23 24 20 22 27 17 29 21 28 19 20 18 26 18 27 26 31 26 18 26 30 20 23 26 25 22 29 26 23 32 22 27 25 32 30 27 21 20 23 22 27 21 26 22 30 23 33 29 22 22 21 29 29 23 27 19 19 22 26 23 25 28 22 22 22 27 21 24 26 27 16 28 23 25 22 17 19 19 22 26 29 24 24 21 25 26 19 27 27 24 17 25 19 24 18 24 24 26 17 25 28 28 26 30 22 26 27 25 28 26 25 20 29 22 24 31 24 19 24 28 25 29 18 26 21 24 25 28 24 21 17 30 28 17 27 21 26 28 17 28 16 24 34 24 27 30 33 20 25 25 21 31 21 28 24 21 27 21 20 30 21 25 25 29 21 19 20 32 27 24 22 29 28 27 18 21 28 23 24 22 19 26 24 28 17 20 19 19 22 13 27 35 28 23 28 26 37 24 33 25 22 25 14 17 26 30 17 21 29 30 29 18 22 28 19 27 27 21 22 25 24 20 21 21 27 26 17 26 21 15 28 26 18 24 19 28 23 23 19 20 22 26 27 19 26 22 25 23 22 22 22 27 13 25 29 23 24 24 25 21 23 20 17 29 21 17 24 19 27 23 21 26 31 26 24 28 25 26 22 23 29 26 20 30 24 18 21 24 31 25 31 19 20 25 22 26 27 22 26 31 19 23 25 22 27 27 21 26 31 21 25 22 19 26 23 28 19 26 24 25 25 25 20 21 24 26 23 24 20 25 34 26 25 26 20 31 23 28 26 21 20 24 24 23 21 23 18 29 27 19 12 21 18 29 20 26 25 21 31 29 24 15 23 26 26 25 26 15 33 22 25 33 26 21 26 27 25 32 24 27 24 24 33 29 22 26 19 18 26 31 24 25 26 16 19 31 32 23 23 33 16 26 19 15 17 20 23 21 20 25 27 25 16 19 24 25 18 17 22 25 30 20 29 28 17 25 18 29 24 22 22 25 24 14 22 26 28 26 20 16 19 24 24 26 23 29 23 25 28 22 20 21 28 31 28 21 27 19 22 24 22 16 21 21 25 29 21 20 25 27 21 35 31 20 24 28 20 23 25 22 12 18 22 28 11 23 19 22 25 21 21 24 32 24 18 23 31 24 17 24 26 22 20 29 25 18 20 20 18 24 22 20 20 27 28 27 21 17 25 30 26 28 27 30 24 27 21 23 22 20 21 32 20 26 28 26 22 28 27 26 22 22 20 19 27 25 22 24 18 22 29 18 23 22 20 23 24 25 31 22 31 31 26 29 27 26 25 21 21 15 20 21 25 19 24 23 22 25 18 25 18 18 26 27 24 21 31 28 21 24 22 19 25 29 25 26 26 12 23 25 23 23 27 22 25 32 23 16 32 22 27 21 28 25 29 24 24 20 29 23 31 23 25 18 21 19 20 20 19 22 22 24 22 27 23 21 22 25 22 28 24 20 20 28 19 23 21 26 26 23 32 20 20 23 31 22 26 24 14 26 20 19 24 23 26 24 24 20 22 25 23 20 27 18 23 23 25 21 25 23 23 25 23 20 27 22 20 26 29 16 31 25 28 21 21 17 23 21 21 20 26 26 20 29 19 26 20 20 20 21 25 29 21 25 29 22 20 19 25 16 25 18 31 29 21 24 20 26 16 25 16 27 34 25 34 24 25 20 25 35 23 31 29 27 30 27 21 30 30 18 25 28 21 19 17 30 13 26 26 26 24 18 30 25 21 20 29 21 26 29 17 20 28 26 24 18 23 24 15 31 29 29 20 28 22 25 31 26 22 35 23 27 23 24 25 25 22 25 20 24 30 19 28 28 28 30 28 16 25 28 30 17 25 33 30 20 18 23 21 24 28 23 20 28 17 24 22 23 30 21 29 22 21 23 17 31 27 23 22 16 31 16 19 23 24 26 23 24 24 21 19 24 23 16 33 27 26 26 23 21 21 32 24 24 19 26 20 17 32 27 29 23 25 25 25 16 21 29 23 17 27 31 19 24 23 14 26 24 18 29 29 23 27 31 28 19 21 17 29 20 26 19 20 30 23 29 16 19 18 28 31 27 28 27 30 18 29 26 22 28 23 19 26 19 31 35 20 20 32 21 17 29 23 31 26 27 25 22 24 32 24 27 25 34 31 23 21 32 18 28 21 23 24 20 24 21 27 28 25 24 27 28 26 23 15 20 21 38 22 29 27 25 23 27 18 23 19 21 16 23 25 24 33 28 26 27 19 25 25 25 36 20 26 26 21 25 19 23 25 17 27 29 26 24 26 23 29 27 23 26 33 30 29 24 27 23 25 26 24 20 15 17 20 27 21 25 20 17 17 18 25 30 20 24 20 23 26 23 28 18 23 21 31 28 26 25 18 25 25 23 27 24 25 27 19 29 17 17 25 25 23 27 27 28 22 26 19 18 13 27 17 33 29 19 26 19 24 27 22 23 24 24 23 22 15 23 29 25 23 15 18 17 25 22 21 21 22 18 24 22 21 29 18 27 28 29 26 20 25 32 22 21 16 19 16 21 18 19 26 28 26 29 24 25 22 26 22 20 25 24 29 22 17 26 23 26 27 17 30 29 29 25 24 22 32 30 25 20 29 30 23 25 24 24 22 20 27 27 23 25 22 26 23 20 25 25 25 23 20 17 23 22 16 26 31 26 20 23 23 24 25 34 20 24 23 17 15 30 23 17 22 24 15 29 29 20 23 29 23 21 24 26 25 27 29 29 20 24 21 24 24 19 23 23 23 23 20 24 27 23 24 23 20 29 27 25 26 21 14 16 26 20 27 30 21 24 26 23 28 28 19 33 18 23 22 20 20 23 27 17 19 27 36 26 26 20 23 26 26 24 30 18 26 18 30 23 30 28 15 25 27 13 25 23 21 20 28 27 21 18 24 27 29 21 17 28 20 25 29 27 21 29 25 29 17 31 32 27 16 30 26 21 25 23 26 25 28 20 22 22 27 25 29 25 19 19 27 26 23 22 21 20 19 20 26 28 22 20 30 28 18 17 23 26 21 23 29 26 21 26 22 26 25 23 25 26 19 22 19 20 20 19 24 21 27 27 29 28 21 26 23 20 23 23 24 19 24 26 20 13 23 18 24 18 19 24 25 25 21 30 22 20 28 26 28 25 26 21 28 20 24 20 19 25 22 19 21 26 31 13 29 30 28 22 17 24 26 32 20 19 19 30 24 20 23 20 25 24 26 18 28 23 22 20 27 19 19 21 28 21 15 29 37 16 25 25 22 19 25 23 30 20 25 23 25 29 30 23 22 20 17 28 27 23 21 21 30 20 20 26 28 27 20 27 22 19 18 14 19 19 23 29 23 20 24 24 25 33 21 23 22 22 30 31 25 27 17 30 21 21 23 25 24 21 19 31 25 14 25 21 29 18 13 36 20 24 23 33 23 19 22 22 30 34 18 23 20 22 25 23 25 23 24 32 29 28 30 21 23 26 26 24 25 22 24 28 26 17 19 16 26 22 24 16 23 29 24 22 25 23 27 26 15 19 14 25 20 23 21 21 19 26 24 22 21 29 28 20 24 27 22 25 25 26 26 20 12 25 21 25 16 29 18 21 14 25 17 21 16 23 24 20 20 28 19 29 22 20 25 17 31 24 27 20 18 18 23 28 21 28 18 26 28 20 32 21 11 23 21 29 29 25 22 22 33 25 29 21 18 21 24 26 23 27 23 17 29 23 24 17 34 24 21 31 25 21 25 21 21 29 19 20 25 15 18 28 25 26 22 28 23 23 24 27 21 36 26 15 18 28 20 31 22 25 20 21 26 26 24 31 19 20 25 24 26 32 15 24 26 22 21 35 27 28 20 17 21 17 27 25 23 29 21 19 27 21 27 30 29 20 27 18 24 22 21 28 16 24 27 16 22 22 25 27 32 29 15 25 22 24 22 26 26 26 23 24 24 22 30 30 19 28 35 28 26 27 29 27 25 26 20 28 21 26 27 33 22 25 26 24 29 17 28 29 18 15 27 30 20 22 27 25 26 22 25 20 25 23 22 23 16 33 38 16 21 16 31 28 19 17 23 27 19 25 26 20 18 28 21 21 29 25 21 25 19 25 21 20 26 16 21 33 20 20 29 26 32 26 18 28 20 11 19 24 22 24 22 17 19 26 22 29 21 28 20 28 26 22 22 20 31 19 33 30 24 22 23 24 20 19 26 15 26 29 18 29 25 20 21 28 23 26 27 26 27 27 24 24 23 28 19 27 36 29 27 27 21 26 27 16 21 21 29 32 23 20 20 23 21 25 23 19 23 19 25 25 19 28 27 29 21 25 31 21 25 23 30 17 20 26 17 22 23 20 21 21 22 31 29 15 19 24 29 24 24 28 24 25 18 27 28 24 20 25 17 13 24 25 28 20 17 21 17 26 19 32 27 30 26 14 22 22 17 25 23 19 16 28 29 20 26 37 23 28 16 20 23 17 28 31 27 23 29 14 19 21 26 25 22 34 25 34 22 26 26 26 16 18 25 24 25 28 24 19 25 25 21 22 18 14 22 17 27 21 24 29 21 23 27 15 23 31 26 25 17 20 19 25 24 25 24 24 20 21 29 20 23 35 21 26 32 26 21 22 24 21 31 25 22 21 22 27 27 20 27 28 23 23 26 20 22 20 29 22 21 25 24 36 24 16 23 25 19 25 20 20 20 27 18 17 32 28 27 25 27 19 16 25 16 14 24 29 21 18 24 18 24 25 25 23 27 15 25 17 25 25 29 15 23 22 20 27 20 21 22 29 24 26 21 21 20 25 24 19 25 15 20 24 22 23 27 18 19 30 13 18 20 28 28 19 19 27 22 27 23 21 29 20 18 17 23 21 22 25 21 21 21 27 15 15 27 28 18 22 23 28 28 29 20 25 28 32 22 31 20 25 24 21 23 28 19 22 21 26 28 27 27 25 20 23 28 19 19 23 21 29 27 24 20 21 21 25 22 27 17 21 18 23 19 24 22 23 19 23 21 22 20 19 22 21 21 22 27 24 27 22 20 31 24 20 21 25 21 23 19 18 21 16 16 32 18 28 28 20 27 24 30 18 20 20 41 24 17 27 21 26 19 22 20 35 24 15 33 26 25 31 22 22 27 23 25 25 35 33 22 22 30 24 25 23 16 27 22 22 22 29 24 22 22 16 19 26 26 24 23 23 18 30 30 23 32 24 30 24 33 28 20 23 26 24 20 27 24 22 21 23 28 18 28 24 22 26 23 24 20 18 26 20 26 27 19 23 18 26 19 23 26 26 20 36 21 31 25 27 20 24 28 27 26 22 26 28 25 22 27 18 28 30 24 30 20 36 17 25 24 21 23 25 22 29 26 29 23 37 26 36 25 24 31 25 20 22 25 22 20 25 25 17 29 23 24 16 35 18 27 21 21 24 24 23 25 25 28 29 21 23 27 18 21 24 30 22 25 22 24 26 21 21 16 25 25 23 18 19 18 26 21 26 21 20 32 19 19 24 25 19 23 19 23 18 23 24 23 22 20 20 27 26 33 18 28 25 25 27 24 25 27 26 18 27 20 24 26 21 26 28 23 23 23 25 24 25 31 23 29 29 25 18 22 23 25 26 28 20 24 28 25 24 21 31 24 21 24 29 17 21 23 30 23 22 19 17 24 26 12 23 20 27 22 29 20 24 25 19 27 20 21 26 20 20 26 34 30 32 33 27 17 26 24 21 21 22 19 25 22 23 17 21 26 25 23 27 26 28 21 28 28 20 24 25 20 16 20 28 24 23 30 23 21 27 18 27 28 36 16 32 27 23 18 23 31 29 26 22 15 21 28 33 23 26 27 27 25 23 20 29 18 20 23 24 18 21 20 24 29 21 27 24 25 25 26 18 24 27 27 28 22 28 20 21 20 26 21 26 21 28 20 26 23 27 26 25 29 18 26 23 25 30 31 21 25 35 19 24 26 22 23 31 26 30 24 21 26 24 25 35 22 28 20 25 24 25 19 22 20 24 23 23 27 35 17 24 12 21 26 26 24 26 26 23 25 24 19 26 16 19 21 22 27 23 30 19 29 23 26 17 30 27 29 22 27 30 23 20 16 26 22 17 23 18 22 30 27 27 28 29 16 26 22 22 25 24 33 18 15 20 26 22 20 23 19 19 28 30 22 25 22 26 26 27 18 26 25 19 17 17 27 22 24 23 29 25 29 20 24 22 18 24 17 31 23 23 23 25 31 25 23 28 26 20 23 18 24 26 23 31 30 28 19 31 25 25 23 26 17 18 26 27 21 30 16 24 27 32 28 30 21 21 18 15 27 23 22 19 28 22 26 24 21 25 19 20 27 15 24 21 21 20 14 25 26 24 22 14 19 23 26 26 33 27 25 15 27 19 19 23 22 24 29 23 25 27 22 23 22 21 21 14 26 22 22 21 31 21 23 28 23 26 24 25 20 21 18 21 25 27 17 28 23 23 28 19 23 21 24 22 24 17 20 22 22 22 18 24 20 23 28 26 26 25 21 23 23 31 18 25 19 23 26 17 26 31 16 22 23 24 22 27 19 32 17 27 26 30 24 26 31 28 24 31 36 21 21 25 20 24 34 20 20 24 23 24 14 26 18 25 23 16 27 29 16 25 30 20 22 27 32 25 23 26 30 21 24 23 25 16 25 25 20 22 20 19 23 23 24 29 23 26 30 23 25 11 20 19 22 25 19 24 32 30 15 17 23 24 20 17 17 19 27 27 16 14 31 27 20 25 19 18 36 21 22 25 24 32 26 27 26 20 26 30 20 23 28 24 25 21 32 23 23 25 19 25 33 15 24 27 20 23 25 18 18 23 17 18 23 20 18 16 16 29 30 18 26 23 21 29 22 20 18 22 27 29 19 22 24 32 26 21 29 20 31 19 22 28 22 26 27 23 20 16 23 28 28 26 33 20 28 21 16 27 23 24 19 23 25 22 22 26 22 33 18 20 24 24 26 22 25 18 23 19 23 21 23 31 28 24 22 32 26 29 29 21 27 19 23 25 30 23 25 20 24 23 26 24 20 21 25 23 21 31 30 26 23 24 23 22 25 22 21 28 23 20 17 18 19 24 28 18 28 26 24 27 23 24 21 20 32 24 19 16 28 29 21 22 22 18 25 26 20 21 13 25 27 27 24 20 20 32 15 22 22 27 26 30 34 19 23 25 23 29 28 21 26 20 21 20 21 23 23 24 18 25 28 25 25 31 23 27 30 25 21 23 23 27 22 24 25 37 22 20 32 17 26 16 25 21 26 20 26 19 27 22 20 28 25 19 23 25 18 20 20 19 17 20 23 24 23 26 27 22 22 16 19 20 31 20 22 30 23 28 30 17 21 22 28 27 21 27 24 33 27 18 27 33 30 20 23 24 26 18 26 26 28 26 26 26 19 16 24 25 22 25 30 36 26 24 25 24 19 20 28 25 23 27 29 29 28 28 26 20 19 17 27 22 25 24 22 28 17 29 18 30 15 22 31 27 24 19 25 30 21 20 22 17 20 25 26 25 24 28 25 27 23 32 17 27 23 20 24 14 24 31 28 32 23 21 25 23 23 17 24 26 25 16 20 30 20 36 25 21 29 21 23 22 20 21 19 25 29 18 25 22 29 31 19 25 23 29 26 20 18 24 21 22 23 21 16 22 22 19 22 27 21 21 30 25 20 24 30 31 31 24 17 20 25 29 26 24 20 22 24 22 28 25 18 25 23 28 20 23 19 26 20 25 21 25 29 34 24 29 20 24 28 23 23 23 26 27 28 23 25 23 28 25 22 31 29 25 23 24 25 21 18 26 26 24 27 29 31 27 28 30 17 21 25 23 20 27 23 26 29 29 26 17 24 27 25 26 25 29 26 29 36 24 20 26 24 20 21 26 20 25 27 25 36 24 29 25 30 31 16 18 28 19 20 17 30 25 18 26 26 18 28 25 24 21 20 22 22 22 22 28 22 25 21 24 27 25 25 29 17 16 20 33 25 21 22 19 24 30 22 24 25 17 26 27 30 18 20 30 21 32 19 24 19 28 28 21 21 15 33 23 24 22 19 29 27 19 22 20 23 22 25 33 24 22 32 27 25 29 22 28 20 34 24 17 23 29 19 31 26 25 19 22 25 34 26 42 32 26 23 21 27 22 22 25 24 22 20 18 25 24 34 22 18 25 25 24 20 19 25 22 22 30 23 28 15 24 21 18 25 22 23 27 23 30 23 22 27 26 25 25 22 18 21 31 17 24 23 33 21 23 20 24 29 21 25 25 22 26 20 29 24 23 26 28 23 22 22 22 25 32 23 27 19 30 26 26 24 18 22 19 27 27 24 26 22 24 21 27 23 25 22 17 26 24 29 23 25 23 25 20 25 23 25 26 19 16 20 23 25 26 20 18 27 21 22 18 21 33 25 24 27 21 27 18 28 25 22 23 19 25 25 32 25 23 19 22 24 25 19 20 22 24 26 23 23 30 17 25 18 24 36 21 17 19 25 23 19 24 27 36 23 28 23 26 24 22 21 25 21 21 21 27 32 25 26 29 24 23 29 21 18 23 30 19 34 19 27 27 14 20 27 32 23 23 30 25 27 20 28 22 27 26 19 25 21 23 27 24 24 27 19 34 27 24 19 22 19 25 20 25 18 28 28 28 19 24 21 29 28 27 21 22 22 24 13 24 27 20 20 24 18 26 28 32 26 21 28 26 35 24 23 25 27 28 22 23 24 21 23 22 20 33 22 27 19 22 32 21 28 27 23 32 23 19 19 25 29 31 26 29 32 19 25 21 25 24 23 27 20 24 19 25 28 19 26 23 20 20 32 21 23 30 32 23 29 25 22 19 26 26 21 25 23 24 30 22 29 23 21 24 22 20 20 23 28 17 27 26 18 26 22 26 28 24 28 24 22 27 26 23 29 22 24 25 20 19 20 18 20 20 24 23 18 24 18 33 26 26 18 25 14 20 26 25 20 15 23 22 26 15 28 19 26 34 18 21 22 24 16 17 30 26 26 21 32 22 24 25 24 24 23 21 21 21 27 23 18 17 18 13 33 26 23 22 28 14 22 18 22 23 26 24 34 20 22 32 19 23 20 25 26 24 16 24 24 26 21 18 20 23 25 23 31 33 24 22 16 18 14 19 30 20 20 24 17 33 16 22 26 18 30 13 22 23 26 22 32 29 28 21 21 19 29 24 19 19 20 27 22 28 26 30 23 18 19 26 25 20 25 25 25 23 16 20 23 21 27 26 25 21 25 17 19 24 16 19 27 19 18 28 23 24 22 24 19 23 24 29 17 18 22 22 22 20 21 20 12 28 19 24 21 17 20 16 26 28 28 25 26 34 27 24 22 25 17 20 28 18 22 21 17 23 23 26 18 20 22 24 32 17 22 24 21 27 15 16 19 19 29 23 24 22 23 15 30 14 20 18 23 24 22 23 27 21 22 20 27 28 31 30 28 28 24 29 21 19 28 28 24 17 24 21 16 24 20 29 19 26 28 31 25 25 16 17 27 29 27 21 21 23 31 19 23 20 23 26 17 22 14 25 25 26 23 23 17 16 21 24 19 21 24 31 30 16 24 24 32 23 24 19 26 34 21 19 17 20 22 23 29 20 16 22 24 29 19 19 21 31 24 24 17 30 21 20 27 29 23 32 32 18 15 23 20 16 22 20 23 30 19 25 16 20 21 21 22 26 19 30 27 35 17 28 23 23 18 26 25 20 21 24 32 24 27 18 20 22 23 23 24 18 20 24 29 27 19 23 20 23 22 19 26 24 24 23 26 29 24 17 16 28 20 19 24 21 24 18 24 24 29 24 26 22 21 20 30 23 27 26 25 27 22 24 30 26 26 22 26 29 17 16 23 13 22 27 35 27 19 22 22 22 19 21 22 14 27 22 22 21 20 20 18 21 25 31 8 17 23 28 22 25 25 23 26 23 23 31 24 21 16 30 22 21 23 20 24 26 23 27 23 25 23 25 34 26 28 18 19 22 21 20 30 19 27 23 33 27 21 26 24 21 26 25 24 30 29 24 22 21 27 29 34 19 26 23 30 20 30 26 25 26 22 22 21 23 25 19 21 16 32 30 18 30 19 22 32 22 31 22 20 13 20 27 29 22 19 26 30 22 29 25 27 22 24 24 23 20 24 21 22 21 32 29 20 26 15 24 22 22 24 30 29 27 17 20 28 28 28 26 21 34 25 27 20 22 21 31 22 20 26 21 24 27 21 27 20 24 24 20 32 26 26 34 22 22 27 10 32 20 20 20 19 27 26 27 31 24 25 20 20 27 17 33 23 18 26 31 24 27 25 25 25 23 17 27 28 25 29 20 27 27 22 30 24 22 20 22 25 22 17 26 25 26 26 21 23 26 32 21 22 19 20 16 23 17 18 17 32 24 15 26 21 27 29 25 25 23 21 19 24 21 22 23 16 30 29 23 20 22 27 21 17 19 28 18 28 35 27 24 21 22 21 24 29 25 31 22 22 23 25 19 23 24 23 18 20 23 26 24 31 26 29 29 21 24 25 25 32 32 27 19 23 20 21 28 14 24 27 34 22 25 22 27 19 23 24 24 26 17 21 20 25 20 21 26 23 26 19 23 26 26 28 26 24 29 25 23 21 27 23 22 24 27 29 20 27 22 21 28 24 24 17 18 25 25 31 21 22 25 22 24 30 33 29 21 27 21 25 21 20 25 33 27 21 37 19 26 25 18 22 28 22 19 30 24 31 26 21 33 18 26 23 20 26 28 25 18 18 23 19 14 31 18 27 23 20 22 30 26 32 28 26 26 18 23 23 20 19 22 29 25 23 26 25 31 23 17 24 19 19 24 23 21 25 25 22 23 22 26 21 22 21 22 23 23 32 15 21 20 20 18 34 31 28 22 30 27 29 22 24 30 25 22 25 22 28 28 19 26 26 25 21 21 18 30 23 29 20 22 26 25 20 24 24 19 16 20 20 30 19 21 25 26 17 22 21 21 25 22 32 24 22 25 25 22 29 28 29 21 29 18 24 30 22 27 25 28 20 29 26 24 18 22 18 24 24 24 24 22 23 23 15 28 18 23 26 23 22 29 21 24 16 37 23 28 23 19 19 22 30 32 19 24 28 24 26 22 18 19 27 21 15 23 21 15 16 17 23 22 23 21 24 24 29 20 23 34 23 23 21 21 20 26 31 22 25 23 22 24 30 20 19 17 19 24 17 22 20 32 23 20 28 24 28 15 26 22 24 19 25 25 25 27 24 17 18 17 28 29 33 25 23 24 19 28 17 24 24 24 24 17 23 25 24 23 32 22 27 23 17 26 25 23 26 23 22 16 21 22 18 21 27 24 27 22 22 22 18 27 24 26 29 15 20 24 21 26 21 25 30 31 21 22 27 22 22 18 19 24 26 24 18 23 24 18 23 24 22 19 25 29 17 25 23 28 22 31 22 19 18 27 21 31 20 30 25 38 20 19 22 29 21 22 24 24 24 21 19 24 23 24 20 29 21 24 30 24 26 19 21 30 28 24 27 14 30 17 22 26 16 26 29 28 24 21 25 22 26 20 21 23 29 17 24 17 20 23 26 25 25 22 26 21 17 28 25 20 29 18 31 23 30 18 29 25 23 19 21 22 20 28 23 20 28 38 26 26 23 15 25 25 18 21 22 22 25 18 25 21 25 24 11 15 25 31 23 21 30 26 28 25 22 25 31 26 23 28 26 21 22 20 31 18 17 23 23 26 23 29 24 20 23 24 17 24 20 29 24 18 23 18 21 28 18 31 17 25 28 26 28 15 24 17 22 31 24 20 19 19 17 17 25 31 27 28 20 20 19 29 27 24 22 19 21 24 21 31 30 29 20 21 28 26 31 19 25 22 24 16 16 26 20 31 30 23 21 31 21 15 18 28 17 20 18 20 13 24 14 22 21 28 26 21 28 24 35 22 24 23 21 33 24 25 26 27 25 26 14 19 22 23 27 21 26 27 25 22 24 24 19 16 22 25 25 25 26 24 22 26 22 25 28 36 21 22 38 22 26 24 31 18 29 23 24 22 22 18 25 21 20 23 20 31 25 32 24 25 19 27 19 25 28 28 27 27 24 20 28 20 20 20 22 23 28 24 26 30 21 29 22 23 29 13 25 25 20 19 18 23 20 23 24 30 20 25 18 14 27 24 15 30 22 23 20 21 20 18 26 25 22 26 17 29 20 23 28 31 32 20 22 24 20 30 25 25 25 25 19 16 23 25 28 24 28 27 28 33 23 27 26 31 23 23 24 28 18 30 28 24 20 22 21 26 21 21 19 21 26 23 22 27 22 19 25 24 17 31 23 29 23 30 24 17 28 25 26 26 35 31 25 25 19 16 20 29 17 22 25 29 24 21 23 20 16 25 20 27 21 22 17 26 21 25 13 26 26 30 25 25 30 26 22 20 25 27 25 23 25 25 21 27 24 24 41 24 22 22 22 27 19 23 29 17 21 28 20 28 24 26 22 27 23 21 26 20 23 22 30 26 25 29 25 23 24 28 22 23 21 29 18 23 24 30 21 28 21 25 19 23 23 18 27 29 28 20 18 23 25 25 21 24 26 18 28 22 22 23 23 25 22 28 25 29 13 23 23 19 22 24 25 25 26 26 19 36 25 29 28 21 24 18 27 21 24 25 23 24 19 15 23 24 22 20 25 18 26 23 27 34 36 19 30 27 16 16 28 30 21 24 24 21 29 24 30 26 24 25 29 33 21 20 24 25 17 25 14 28 18 28 22 20 26 21 20 25 19 28 23 25 21 24 28 23 17 15 26 27 24 18 22 22 32 31 28 24 22 21 22 17 24 23 17 16 23 30 16 27 24 21 30 24 20 22 23 25 23 31 26 29 22 22 23 18 18 24 27 24 24 26 22 23 23 23 32 18 27 28 19 28 27 19 19 27 24 31 20 24 20 25 22 24 22 22 24 25 21 24 26 23 24 38 32 25 26 17 28 25 18 20 19 25 28 23 19 21 24 18 24 34 22 14 20 26 24 19 22 21 24 24 23 33 31 21 23 15 21 28 22 23 28 22 19 25 27 24 26 25 25 21 34 30 24 26 22 24 22 25 21 20 25 16 20 25 22 22 24 26 26 23 26 23 26 23 21 21 33 25 18 28 23 19 23 23 23 24 20 25 24 25 22 29 24 26 19 25 23 30 28 25 18 33 25 28 19 29 26 30 24 32 22 24 21 27 24 21 24 25 28 23 24 23 18 21 27 24 43 25 30 26 20 20 21 35 14 23 22 20 16 27 19 22 19 22 25 24 23 14 24 31 14 22 12 30 34 28 29 24 20 22 20 15 27 19 25 28 20 23 35 20 26 23 30 31 21 22 29 28 27 24 21 16 24 24 26 21 22 20 22 25 28 21 33 26 25 19 22 28 21 30 19 15 18 17 22 15 28 20 20 21 30 32 27 25 20 30 26 25 20 24 23 18 31 31 16 35 34 27 20 21 25 25 22 19 26 27 25 22 19 18 27 19 30 26 12 27 18 32 22 26 20 24 20 28 25 20 27 26 24 26 23 22 21 22 26 27 19 19 31 25 25 22 22 14 21 23 23 17 13 25 19 25 24 15 25 32 25 24 28 27 26 26 17 25 26 26 28 20 25 27 26 20 22 26 20 27 22 19 28 21 23 27 26 22 12 32 19 25 23 22 22 25 20 20 19 22 26 15 23 31 26 24 30 27 24 21 20 23 25 26 18 30 23 20 29 24 20 26 30 22 23 25 22 24 12 24 28 25 28 26 27 21 26 20 19 12 21 21 24 17 23 25 26 20 31 26 24 18 15 32 23 25 27 27 19 22 23 22 30 24 26 26 31 21 27 23 22 26 31 24 24 29 20 24 16 26 13 20 25 32 24 22 23 24 21 26 28 25 21 28 15 24 25 18 23 21 28 25 22 18 19 26 24 33 31 24 32 30 32 22 27 22 25 21 33 32 27 26 28 21 35 27 29 20 24 27 33 19 24 30 25 23 24 21 34 30 27 22 23 21 30 22 19 20 31 21 17 21 20 23 29 22 22 19 25 21 17 26 23 26 23 22 19 26 20 22 24 28 22 30 23 20 25 22 25 23 23 26 25 25 17 26 27 27 22 28 21 17 18 16 17 24 23 24 22 28 30 25 26 26 21 27 18 33 28 18 28 21 25 30 18 19 37 26 21 27 28 22 24 25 25 24 25 25 29 22 20 22 19 29 26 20 25 26 18 20 23 20 21 21 23 24 25 26 26 26 22 28 29 30 27 22 27 29 26 22 25 23 15 21 19 22 24 22 28 19 33 23 21 20 25 21 19 24 28 25 23 19 15 24 17 23 22 16 19 20 21 23 26 23 18 21 25 23 24 26 16 19 19 30 17 25 24 22 30 19 31 20 24 19 16 21 19 19 23 27 24 20 25 23 25 25 18 21 22 24 19 20 20 29 22 17 27 26 22 27 22 23 28 30 27 16 24 18 16 24 24 22 27 19 19 20 25 21 24 26 17 16 25 26 20 17 24 20 30 18 14 24 23 18 29 23 20 24 24 33 20 24 20 30 25 19 23 24 21 21 20 22 16 29 15 24 21 23 18 25 31 22 22 26 22 25 31 23 24 20 18 30 21 25 23 40 23 23 27 27 18 21 34 20 16 13 23 18 18 27 22 23 27 16 19 30 29 27 17 19 24 16 26 23 23 24 20 15 16 20 21 34 25 24 24 27 28 23 21 18 23 21 29 35 25 22 29 28 22 24 22 24 28 25 29 22 26 24 17 24 23 29 26 26 21 32 21 18 22 23 21 25 20 22 21 23 26 19 22 28 31 20 25 24 20 18 27 16 23 22 22 20 20 23 24 22 27 28 23 26 20 27 28 27 25 29 24 19 20 26 28 29 21 21 27 18 29 19 19 30 21 33 25 16 20 20 25 26 26 33 32 16 21 21 21 19 24 21 27 18 26 22 26 25 29 29 24 24 25 21 22 26 19 23 19 23 24 30 24 17 24 24 33 27 27 20 24 30 26 38 23 17 27 26 32 27 27 19 29 31 29 22 28 27 26 24 25 25 22 26 32 30 21 20 23 31 22 21 25 18 27 23 32 22 25 18 19 24 17 24 20 30 25 25 30 29 28 26 27 24 23 22 19 27 23 20 24 28 20 23 24 33 26 21 26 24 26 24 20 26 22 25</t>
+  </si>
+  <si>
+    <t>GAM(40.17725764847513, -3.154028651600412, 0.9001318144048946)</t>
+  </si>
+  <si>
+    <t>32 29 31 34 27 27 32 36 27 39 43 20 38 26 32 34 31 34 35 28 35 29 28 29 35 31 26 24 36 39 24 39 39 36 37 27 35 34 30 33 27 26 39 37 36 33 38 38 38 45 34 29 39 30 38 21 36 39 41 24 34 20 32 26 36 29 26 35 30 33 39 30 40 36 33 44 33 33 25 37 31 23 31 32 30 31 36 27 35 37 33 34 31 31 41 28 40 27 23 26 28 33 36 41 34 29 30 29 40 45 34 33 33 36 33 31 26 25 35 30 33 32 37 35 36 37 32 31 30 31 33 23 20 29 33 40 35 31 40 36 35 31 38 35 43 27 32 27 25 29 32 37 30 25 31 34 40 43 31 31 31 21 29 30 30 40 39 38 24 39 26 44 32 37 23 31 32 26 23 35 41 34 33 34 34 35 39 39 38 30 38 36 30 28 26 30 31 32 20 35 44 25 34 29 31 26 39 41 37 41 39 39 33 26 34 36 26 42 37 35 38 50 40 32 39 38 40 33 27 33 28 34 36 37 21 31 33 48 33 29 42 28 40 33 26 32 28 28 25 26 37 30 21 32 43 36 24 47 32 26 23 39 29 24 28 38 32 32 25 36 27 25 26 31 33 29 23 30 36 56 26 31 30 34 36 41 28 27 36 24 27 35 27 35 30 33 41 26 34 34 25 26 34 30 38 28 30 29 38 27 35 31 25 36 31 36 38 38 37 32 33 29 34 36 32 31 42 33 43 28 34 33 34 40 24 31 40 24 36 27 27 31 40 32 35 47 34 27 28 33 35 39 27 35 37 28 34 33 26 38 28 44 45 23 46 39 31 27 39 29 32 40 42 33 27 38 29 38 34 28 25 30 29 47 26 35 21 34 26 33 39 38 29 26 43 32 40 29 28 36 20 42 32 37 20 33 24 26 39 38 35 31 43 36 36 25 39 28 33 28 34 42 37 30 24 31 22 32 26 32 32 32 33 33 38 34 31 29 32 40 31 32 33 36 35 32 30 46 35 26 27 26 32 29 27 29 20 26 41 29 32 31 33 33 36 34 43 35 28 25 34 27 29 25 31 30 27 30 39 33 29 39 33 26 44 40 30 29 36 17 48 40 38 41 39 25 32 34 33 26 32 37 40 36 30 39 33 35 33 37 27 36 32 33 33 30 32 31 22 31 34 26 31 49 40 30 25 31 25 28 33 31 27 33 36 37 38 34 32 44 33 41 38 34 26 26 31 38 25 38 35 34 34 25 40 33 42 33 31 44 45 35 37 37 34 31 44 31 26 37 30 35 38 29 33 36 42 38 36 38 36 37 32 24 32 28 28 30 57 37 40 35 26 32 31 33 35 33 44 37 26 32 32 34 36 33 25 26 22 36 26 33 34 34 41 24 30 33 32 41 44 44 42 37 33 41 24 41 29 28 30 39 32 35 33 29 28 33 38 40 24 31 34 44 33 31 38 29 29 29 32 32 38 22 38 34 27 30 33 45 38 40 37 38 35 31 33 23 30 36 30 29 42 31 44 30 40 27 23 40 29 38 38 35 32 44 35 27 33 30 36 26 34 36 23 22 38 35 29 31 49 32 30 31 40 31 23 38 32 24 31 31 35 33 34 39 27 34 42 40 34 26 30 35 20 28 32 23 33 29 31 42 21 34 35 36 30 44 31 41 39 30 31 31 44 30 36 27 33 38 34 33 31 35 33 34 35 35 26 34 26 26 34 38 27 40 36 32 31 27 37 31 28 39 39 32 28 36 40 35 42 44 29 41 33 28 36 37 21 31 29 29 23 30 36 43 36 43 35 34 27 26 32 31 31 29 38 33 26 39 38 36 41 27 35 19 42 42 27 31 33 29 33 37 28 32 22 46 33 39 25 24 28 32 26 34 34 25 35 51 33 28 37 28 31 33 23 35 37 29 24 31 37 36 36 37 36 35 24 46 27 31 31 25 31 34 34 39 34 44 38 28 29 28 30 28 43 37 31 32 32 27 36 32 36 40 29 46 37 34 30 32 31 45 40 39 54 34 34 31 44 42 32 35 34 39 41 27 36 21 40 41 32 32 33 30 36 36 26 34 26 42 37 22 40 41 29 34 29 40 27 31 36 38 30 31 35 30 34 30 32 28 32 31 32 28 33 31 41 33 31 35 30 37 36 33 34 28 22 30 43 31 29 38 28 32 30 31 34 38 44 29 49 33 45 35 33 38 34 35 36 34 25 32 25 27 39 39 44 37 29 30 34 32 39 29 33 33 43 43 31 38 32 33 36 28 41 35 41 26 35 28 32 30 39 35 33 24 33 26 47 26 37 28 31 26 36 25 46 35 40 34 36 42 32 26 38 33 30 26 34 36 26 23 26 21 36 28 27 29 42 24 31 29 30 32 42 30 31 29 32 36 24 28 25 35 36 33 22 23 35 31 33 39 38 33 25 28 40 36 29 38 35 33 30 32 31 28 41 29 35 29 34 33 40 42 33 34 38 22 30 34 30 35 26 31 34 37 36 35 39 31 38 36 32 31 35 29 29 39 26 32 37 31 30 37 30 28 35 41 32 33 28 23 28 36 27 39 33 42 35 32 27 28 26 22 35 32 28 25 35 24 27 30 29 32 34 27 30 29 28 32 33 32 31 24 26 31 42 38 40 22 32 30 37 43 45 40 43 33 34 35 34 33 33 34 39 36 27 36 30 28 26 38 44 30 26 29 35 29 39 23 39 32 33 37 33 35 34 22 33 33 27 34 36 29 29 27 36 35 34 35 34 25 28 34 43 27 37 43 37 38 39 34 25 42 35 30 40 27 36 36 43 34 28 37 37 29 34 29 33 31 31 32 38 45 32 23 38 28 25 32 33 36 29 29 35 28 34 30 34 32 33 23 36 31 34 28 36 32 33 26 33 31 37 33 45 27 44 47 39 34 32 23 31 36 33 32 37 34 33 37 40 30 26 43 34 46 30 36 25 29 30 36 34 38 26 31 55 25 35 36 35 41 29 15 20 36 28 32 29 32 37 44 33 37 32 25 34 33 20 40 32 30 32 52 41 26 30 42 32 37 27 28 28 28 27 34 28 25 38 27 28 40 23 43 35 31 36 37 41 32 42 48 30 31 30 30 29 31 33 31 31 34 35 25 29 37 36 39 46 41 34 23 32 28 27 34 40 28 45 29 30 28 34 36 30 32 36 33 46 26 41 38 23 26 28 31 41 31 25 21 30 32 37 39 29 26 39 34 23 40 32 49 39 40 37 27 41 41 40 34 33 30 38 35 34 25 28 34 35 44 38 37 33 46 39 27 39 31 30 21 32 40 33 33 30 31 35 30 31 31 33 33 22 33 29 32 31 34 30 29 36 32 39 29 28 40 28 35 38 30 40 38 35 39 29 43 31 39 29 25 31 35 29 28 36 31 25 29 30 35 39 34 40 43 21 34 21 37 36 27 29 30 38 28 29 29 38 38 32 44 32 31 26 41 35 30 40 40 26 29 27 38 32 26 27 30 39 31 45 30 25 29 46 39 48 34 30 32 34 24 34 28 28 29 32 30 32 37 44 37 31 29 29 29 35 36 45 28 34 35 28 35 31 23 45 32 32 33 23 42 40 32 30 34 29 29 33 33 33 30 39 32 28 33 34 32 24 31 32 39 33 39 40 36 29 35 26 21 35 30 37 32 37 35 31 33 37 31 36 40 26 45 30 34 40 29 35 39 40 28 26 32 36 38 25 43 40 45 49 39 25 35 33 32 31 35 27 31 38 29 31 29 32 29 37 32 47 43 32 34 34 33 23 28 28 33 42 42 26 36 29 37 37 28 39 35 24 33 31 25 35 37 28 46 32 33 27 33 28 33 33 35 29 31 42 41 43 23 36 39 46 22 38 38 30 48 30 28 33 24 29 30 34 24 28 32 31 36 39 49 37 27 30 39 28 29 25 31 29 26 30 22 42 26 30 39 30 26 29 35 33 28 39 30 33 30 48 36 53 29 35 49 36 40 27 40 24 33 25 40 17 29 24 36 30 32 32 31 30 32 40 30 36 35 27 38 34 37 36 37 36 30 29 35 30 35 29 35 32 34 38 44 27 24 41 19 36 24 26 25 23 39 35 32 27 28 35 29 46 38 39 33 33 36 34 29 37 35 32 23 40 41 25 34 34 33 25 28 28 23 31 44 38 32 41 35 34 34 29 38 38 30 32 38 27 29 38 33 31 31 28 26 34 38 36 24 32 38 35 35 38 32 36 28 31 32 27 34 33 33 34 27 31 43 30 30 44 42 37 33 41 50 33 29 40 32 28 38 30 29 30 27 29 23 27 25 38 37 41 41 31 33 32 28 41 29 40 32 40 42 35 34 32 33 31 32 37 25 33 23 38 30 29 33 31 36 51 34 31 47 33 27 34 49 35 36 24 31 30 25 36 39 34 28 38 30 29 39 27 34 37 28 36 33 46 35 33 25 35 41 34 35 34 28 23 38 27 33 33 34 33 27 36 35 28 41 28 36 47 24 32 49 38 29 23 31 31 39 30 36 35 35 35 26 25 26 31 32 26 38 25 32 28 32 47 26 31 47 39 32 37 30 35 34 33 38 30 37 24 43 43 28 23 36 36 28 42 21 32 31 26 41 29 35 44 34 24 24 35 30 26 34 29 20 32 44 41 35 40 35 32 27 40 30 33 26 33 34 27 27 33 30 32 45 43 47 34 27 27 43 37 29 32 36 28 31 37 31 32 41 37 36 36 35 40 33 28 27 43 45 25 33 32 36 30 36 37 29 24 29 34 37 32 38 33 30 25 34 32 29 40 25 27 32 32 28 50 32 27 36 38 31 33 37 36 32 29 39 31 25 40 30 29 31 32 35 33 36 45 30 29 35 31 35 25 25 31 28 36 29 20 30 26 39 31 29 38 37 34 26 27 34 32 32 35 24 25 28 31 31 37 37 31 29 42 27 32 37 29 33 34 33 35 37 44 32 37 26 32 32 41 40 34 46 34 36 37 28 22 24 25 35 35 51 38 32 24 36 23 36 27 37 33 27 33 29 26 32 39 24 21 28 35 30 32 38 33 29 36 26 28 38 39 45 44 34 30 21 32 43 28 33 43 29 26 38 28 37 44 37 32 34 25 35 27 34 27 42 33 28 31 27 33 31 33 33 46 34 44 32 29 37 28 30 18 35 34 27 35 49 35 39 40 35 44 28 31 28 34 28 39 27 22 25 23 39 36 25 34 49 20 24 28 38 37 33 42 47 36 30 36 28 36 33 24 23 39 37 37 44 33 40 35 36 33 35 38 34 32 30 27 40 32 26 38 28 34 37 32 33 37 38 34 26 29 22 26 33 28 32 24 31 25 31 29 38 32 34 40 24 39 22 33 37 32 24 31 24 28 34 28 31 34 35 26 41 35 35 28 39 36 30 32 41 35 33 33 35 42 40 39 25 28 32 26 28 35 34 30 39 28 40 30 44 35 35 37 37 35 33 38 35 37 44 33 35 48 31 32 35 22 26 28 36 32 40 44 27 29 19 34 41 42 35 32 32 27 41 28 36 38 33 33 26 31 23 34 32 26 36 33 24 34 37 35 31 37 33 38 24 27 41 32 31 43 36 33 36 23 32 28 27 31 30 37 32 37 39 32 35 37 39 37 33 29 45 21 42 33 31 38 36 32 36 39 33 41 28 27 38 42 29 32 31 34 32 31 23 52 38 35 49 43 33 37 37 26 27 39 34 30 34 41 30 30 26 41 43 35 37 37 22 28 24 34 34 30 32 43 44 37 37 28 37 37 45 32 35 33 29 47 25 36 24 29 31 23 25 22 44 25 34 43 27 31 24 36 30 31 35 37 23 33 38 30 25 40 37 32 22 29 32 29 26 30 34 33 37 31 40 23 26 30 32 28 28 32 35 33 25 28 48 32 25 25 33 32 37 30 33 26 41 29 30 28 32 22 29 35 30 29 38 45 30 40 39 36 30 38 33 28 32 26 25 34 32 28 26 28 38 23 35 45 35 28 42 35 34 33 32 32 27 37 24 33 41 31 28 23 30 22 41 34 33 51 28 32 33 33 27 35 33 20 28 48 33 32 28 34 32 36 28 35 34 36 27 31 28 44 33 35 35 38 38 23 36 26 32 24 42 40 27 29 34 39 42 29 23 36 41 34 37 39 35 37 44 38 25 35 29 29 23 35 26 49 38 25 32 26 48 32 38 32 38 40 31 38 40 27 31 36 33 33 36 40 37 35 33 33 30 32 32 24 36 33 32 31 38 31 21 37 27 31 29 44 33 37 25 34 30 24 32 27 31 42 37 42 37 30 33 44 24 22 26 39 34 38 34 30 31 40 26 29 36 48 38 30 38 44 33 32 32 35 27 31 31 31 38 42 32 29 39 32 38 31 35 32 39 31 28 38 35 34 34 31 50 45 23 34 41 27 25 20 37 32 31 34 41 32 32 32 29 29 35 32 34 39 38 41 29 29 41 31 28 36 31 38 41 34 30 39 28 27 38 41 37 22 29 35 25 43 41 41 32 39 30 35 30 33 38 29 40 21 30 27 36 26 32 31 38 31 38 43 27 36 27 38 37 34 30 47 34 28 33 31 37 30 35 35 40 40 31 43 33 34 32 32 41 30 43 37 25 28 26 26 30 32 35 28 37 41 42 37 37 42 31 40 33 36 29 30 27 29 44 37 26 35 34 29 39 29 31 38 27 31 34 31 25 29 34 42 21 38 37 26 26 41 30 40 35 24 41 28 34 32 31 30 36 24 33 27 24 31 36 30 36 24 32 43 45 33 32 31 36 39 25 33 26 35 29 37 29 29 28 28 40 26 36 30 31 44 35 30 37 38 39 31 35 34 37 18 35 33 34 34 15 30 37 30 30 41 37 39 37 35 46 29 30 34 36 34 47 33 45 31 29 29 37 19 34 33 32 48 38 32 28 44 41 28 32 27 25 35 26 25 34 33 27 29 34 35 30 34 33 33 33 31 26 28 36 29 38 26 22 35 31 28 29 36 39 32 41 36 30 31 27 37 44 38 37 32 30 40 40 45 31 39 26 33 37 31 30 37 40 31 35 35 38 45 30 25 30 41 30 34 32 36 22 32 28 26 30 28 32 29 30 36 39 30 35 38 26 35 38 38 42 36 31 37 31 37 38 22 36 23 28 30 34 31 33 40 31 36 31 28 27 27 31 24 37 34 39 31 33 35 28 28 24 38 45 34 33 27 36 37 27 37 31 30 37 32 30 33 28 27 37 42 35 36 37 30 33 28 23 35 30 28 23 32 35 27 24 30 26 34 30 48 32 40 30 46 35 37 36 35 25 35 31 34 33 27 27 39 21 37 34 38 35 28 24 31 37 36 44 33 27 37 38 31 38 30 19 32 26 33 44 35 36 32 42 31 35 29 41 39 32 41 30 37 36 34 33 46 32 27 37 38 27 40 34 32 31 24 30 36 25 46 33 35 24 26 22 33 27 38 40 43 36 29 33 40 25 30 33 38 26 36 34 38 39 33 35 28 38 35 29 36 30 32 31 34 25 37 32 39 35 42 39 28 33 29 41 38 40 36 28 35 35 32 31 34 32 32 27 31 39 27 32 48 35 35 44 43 34 32 26 31 25 34 33 37 31 36 27 30 41 29 36 42 32 30 30 25 35 23 35 38 34 24 40 40 38 39 43 30 34 37 33 41 40 35 29 36 34 33 47 32 28 31 36 46 34 25 35 35 32 32 40 35 25 25 40 34 28 38 28 36 37 22 35 27 29 50 31 36 42 39 30 31 34 27 48 27 39 35 29 35 26 26 42 29 38 32 43 35 28 26 36 37 27 32 36 34 39 25 26 38 30 37 28 28 33 34 42 24 28 25 30 30 20 33 42 38 29 34 34 48 29 37 36 28 37 23 32 40 39 26 27 40 37 37 22 33 36 32 40 36 28 28 38 31 30 26 26 39 32 24 33 26 29 37 30 24 30 28 42 30 32 32 36 27 37 32 24 36 32 36 43 30 35 38 36 25 31 42 25 37 33 36 35 26 29 30 38 28 23 29 24 39 32 33 44 38 35 33 38 31 35 34 37 40 30 28 36 26 29 25 38 39 32 40 27 27 36 31 34 39 33 42 41 29 28 37 24 33 48 24 35 40 26 37 30 25 38 32 45 23 35 33 38 34 34 32 27 34 32 27 31 27 35 46 31 43 31 32 39 37 35 36 30 28 28 33 32 29 34 29 36 37 23 23 26 30 35 26 34 32 30 37 39 28 26 33 35 38 36 31 24 39 30 29 44 32 26 37 37 37 41 34 35 26 31 48 46 31 34 32 25 36 42 33 39 41 20 24 47 50 29 29 48 27 30 25 22 39 26 32 35 28 35 31 37 21 34 37 34 32 26 27 40 36 30 42 32 24 40 27 36 33 37 38 30 30 27 30 36 40 38 31 22 28 39 34 29 33 40 35 38 39 28 31 32 33 46 36 25 39 27 31 38 31 19 32 29 31 36 31 27 37 36 32 45 43 27 36 36 25 30 36 32 20 24 37 36 23 33 27 35 32 29 35 37 47 30 26 34 46 34 27 29 36 37 25 43 31 26 29 28 29 34 33 28 38 40 38 35 29 32 34 42 35 39 39 36 30 34 32 30 33 27 29 51 33 39 33 36 28 39 33 28 36 28 33 35 42 29 27 41 29 31 41 25 29 37 29 29 39 36 42 26 38 45 40 40 35 34 42 30 28 25 30 28 31 34 37 30 26 31 28 37 25 24 33 40 31 31 39 38 37 35 28 29 42 34 42 35 33 26 32 32 35 31 40 32 38 48 33 25 43 30 31 30 39 31 37 28 29 27 34 28 38 32 35 27 36 31 28 27 28 27 29 28 31 32 33 26 39 33 30 41 35 32 27 36 33 28 32 39 31 39 45 32 30 27 43 28 39 34 20 36 34 33 35 32 32 39 30 30 32 32 34 32 33 28 38 31 33 28 37 29 33 33 31 30 35 38 30 35 43 30 44 32 38 28 31 22 29 34 35 27 45 33 28 38 27 37 26 27 30 32 33 37 31 33 41 27 31 25 36 24 33 22 42 34 28 30 27 31 29 37 26 35 41 34 46 34 33 26 36 41 30 42 38 38 43 45 26 45 38 25 32 37 31 29 27 46 20 33 37 32 34 30 37 27 33 31 49 32 34 36 29 31 36 39 28 26 31 36 21 45 32 38 28 33 33 39 49 43 32 42 40 35 34 31 36 36 38 33 25 35 36 30 35 35 36 41 36 29 38 43 44 23 31 39 42 30 33 34 25 31 38 28 34 36 26 40 32 34 42 30 37 30 25 28 23 34 37 30 30 24 43 22 28 32 30 32 35 30 32 34 27 32 31 24 44 32 30 36 29 38 33 47 27 32 27 35 27 26 39 35 31 33 34 34 36 20 31 45 34 24 36 39 21 35 33 27 36 32 28 36 39 36 33 41 39 26 29 31 36 26 35 27 31 37 33 38 26 25 28 37 37 36 42 37 43 23 36 37 34 40 38 29 32 35 36 48 31 30 40 31 21 40 28 45 35 44 38 29 30 50 32 39 39 47 34 27 38 37 29 41 28 29 30 31 30 32 35 36 31 30 31 40 34 32 25 32 29 56 30 36 33 35 28 39 24 35 32 35 26 35 35 31 40 36 33 37 36 41 38 31 44 28 40 36 24 31 25 36 28 23 33 38 38 32 40 28 41 36 27 35 42 41 36 27 41 32 34 35 35 28 26 28 27 38 25 46 34 22 30 29 35 32 31 30 30 35 36 33 41 26 31 25 42 35 32 37 24 32 28 33 34 31 34 41 23 39 30 28 34 37 29 39 37 32 30 31 32 21 24 32 26 43 38 25 38 29 31 39 33 32 33 30 27 31 19 32 36 42 35 31 22 24 28 30 31 30 31 27 29 34 38 42 23 34 39 35 33 26 37 40 30 35 31 26 35 27 26 32 34 40 33 47 32 30 33 38 32 24 35 31 38 28 32 45 35 37 36 23 48 37 40 28 36 35 40 46 32 28 37 43 30 33 32 36 33 25 40 32 32 33 30 34 31 30 31 33 34 26 27 25 32 27 25 32 37 32 27 30 24 35 34 45 34 40 35 29 23 41 29 24 31 29 22 43 37 39 35 43 29 34 31 34 34 36 35 41 30 30 27 33 30 29 31 29 31 31 25 31 32 34 31 30 25 38 33 34 39 31 20 23 40 30 37 38 27 33 38 34 45 32 27 48 29 35 29 31 31 32 44 22 28 38 50 30 35 34 33 35 36 31 41 31 33 27 40 30 40 40 25 29 41 20 32 33 27 26 36 37 33 28 32 40 39 31 23 36 29 31 43 36 33 35 29 42 27 40 45 41 25 35 40 31 32 29 32 32 38 32 29 28 39 33 36 31 26 24 35 36 25 36 31 31 25 33 33 37 26 33 38 37 27 27 30 32 29 28 34 35 27 31 36 31 31 37 37 34 26 27 25 30 28 32 39 31 39 37 37 39 29 33 32 33 30 36 31 25 30 38 24 27 29 33 34 23 27 28 36 35 32 45 36 31 34 46 39 33 33 31 34 28 39 32 28 27 38 26 27 33 43 24 37 37 42 36 25 38 36 43 28 26 29 40 37 27 31 32 29 31 32 37 35 33 33 32 35 26 24 28 40 29 28 43 45 22 33 33 30 23 36 36 35 30 36 33 33 42 37 28 30 36 33 33 34 31 31 27 39 25 29 38 37 37 27 36 28 30 27 28 26 27 31 33 30 29 33 31 40 44 25 31 30 29 40 38 35 37 28 38 28 29 35 42 32 27 35 42 40 20 35 28 32 25 25 43 26 31 33 45 31 29 31 28 37 45 30 30 32 34 31 31 31 29 33 42 34 44 35 26 36 35 39 34 42 29 29 37 33 27 25 25 31 38 35 24 26 36 33 37 32 31 35 35 23 25 25 29 26 26 26 29 28 36 40 33 25 39 39 26 38 36 34 41 32 31 34 26 22 35 33 42 30 39 27 34 24 32 25 31 22 35 32 36 30 45 28 35 38 25 32 31 41 32 37 21 25 29 33 37 30 36 32 38 35 31 45 30 20 27 29 41 43 34 27 32 40 30 33 30 21 34 33 37 33 37 29 29 43 29 33 29 42 37 30 42 34 24 37 29 30 42 34 30 34 24 33 35 29 37 33 38 39 31 38 38 27 45 37 25 31 39 28 44 26 39 31 29 35 37 30 42 26 33 33 35 41 37 25 31 34 33 27 42 30 35 27 24 30 26 37 35 33 41 26 25 36 33 42 42 36 29 43 32 39 28 28 39 27 33 39 21 29 27 31 45 41 42 19 35 24 33 29 33 36 29 32 35 35 33 43 43 24 37 53 34 37 44 41 29 35 41 27 38 30 38 33 39 29 36 41 30 42 27 37 40 26 24 37 38 27 33 37 38 32 32 34 28 33 31 35 34 25 38 51 29 27 23 43 32 25 31 29 34 24 37 31 27 33 35 34 30 39 35 28 27 25 40 38 28 36 28 31 43 28 29 36 36 39 32 24 33 31 20 30 35 31 39 25 25 25 34 32 36 32 44 25 39 35 33 23 32 39 28 49 44 34 32 33 38 25 28 32 28 39 36 27 36 35 28 35 35 32 34 33 33 38 35 36 31 39 36 29 32 47 38 34 33 29 34 38 21 26 36 42 41 32 30 29 31 26 34 33 26 27 29 35 36 26 38 36 38 28 34 43 28 34 35 37 27 31 39 27 33 39 26 33 34 30 46 39 23 26 36 36 36 32 32 36 31 22 36 35 36 26 34 25 18 36 41 33 31 28 31 26 33 28 44 31 45 38 30 31 26 24 31 36 26 24 34 35 35 36 48 33 37 23 32 32 23 38 36 36 29 33 23 23 25 40 31 31 41 32 45 38 34 37 36 22 26 37 27 38 39 31 29 31 32 31 34 31 24 34 23 38 26 31 39 34 28 33 30 35 42 36 35 27 30 31 39 32 30 34 34 29 25 32 25 35 51 27 30 41 36 36 25 36 26 36 33 30 29 32 38 45 29 32 34 36 43 34 26 35 25 46 28 25 31 34 49 31 28 35 37 28 32 28 32 32 35 26 32 44 44 31 33 32 29 31 38 21 18 38 48 38 26 33 26 36 38 33 26 34 25 34 24 29 32 37 20 28 31 30 38 28 32 25 42 30 35 26 30 30 32 34 24 33 21 32 32 30 33 34 26 25 39 22 27 36 34 37 25 30 39 36 36 42 30 38 31 25 24 30 33 27 32 27 37 30 41 24 25 43 34 31 35 30 38 45 36 27 38 37 46 25 36 33 30 30 30 37 38 32 28 24 33 41 37 31 35 26 33 35 27 31 31 42 43 38 31 27 28 30 35 30 40 24 31 30 31 27 35 32 33 27 30 30 26 30 30 36 36 28 28 35 38 34 34 31 49 38 23 28 36 31 29 30 25 37 19 27 43 26 38 38 27 33 32 35 22 29 30 45 31 26 44 29 29 26 39 27 40 31 28 41 36 38 39 27 32 33 28 32 34 43 45 28 35 36 38 30 31 24 35 29 33 27 38 34 35 40 25 31 33 37 31 29 30 30 40 41 33 40 32 39 39 43 43 23 33 34 29 30 36 33 32 29 27 34 32 33 36 32 32 34 32 30 24 35 31 33 37 30 29 26 29 27 29 38 37 28 50 28 36 33 37 27 47 37 34 32 26 42 40 32 29 37 28 40 44 36 43 28 54 28 28 33 31 25 36 36 39 33 47 32 56 34 44 35 32 36 31 32 31 31 32 28 32 36 31 35 31 29 27 44 31 34 27 28 42 35 30 38 39 40 41 34 33 39 28 29 32 41 31 32 28 35 32 27 28 28 36 33 26 31 32 23 32 29 34 30 27 44 25 28 29 31 30 35 24 32 30 27 36 32 24 31 27 33 34 47 26 38 32 34 40 30 39 34 40 22 32 32 34 34 29 33 38 33 27 27 36 32 37 41 35 37 37 36 31 26 33 32 32 33 31 29 35 33 36 29 46 31 29 35 48 28 28 32 47 33 24 26 25 35 36 22 27 27 34 38 35 36 37 33 26 39 32 32 39 27 22 33 45 46 46 40 40 29 33 33 31 27 31 27 33 29 30 27 36 35 36 35 36 35 49 28 38 42 30 29 44 32 28 28 37 37 29 34 34 29 35 31 34 37 44 23 41 32 28 28 30 40 48 35 41 31 27 36 43 32 39 37 38 34 30 22 38 27 27 31 35 23 29 28 34 36 29 37 31 35 37 36 26 32 37 36 39 35 41 29 34 33 34 35 36 26 33 27 35 37 33 40 35 36 28 33 32 32 39 41 30 34 54 31 36 29 35 35 36 31 36 35 33 34 33 37 45 30 40 30 31 37 34 26 38 30 35 32 38 39 45 26 36 27 31 33 37 39 33 39 28 35 30 23 38 36 31 30 40 38 33 44 26 34 30 37 25 40 40 41 27 38 35 27 28 26 36 32 28 36 28 36 43 32 41 40 35 25 29 29 28 35 32 38 24 25 27 32 29 30 30 25 29 37 34 31 32 33 35 39 38 27 44 33 27 24 27 37 31 30 28 44 33 39 33 31 30 29 41 32 38 29 33 29 36 47 31 36 39 29 24 27 22 33 34 36 36 37 37 27 41 35 33 27 34 27 26 30 33 31 48 27 34 34 38 37 37 31 28 25 24 34 34 33 27 33 31 35 27 29 36 24 26 36 26 35 32 27 29 26 34 30 29 23 23 26 33 34 35 40 39 33 24 36 27 36 40 31 32 37 28 35 38 33 29 30 25 27 26 34 31 36 34 44 32 24 47 32 38 34 32 33 29 29 28 29 40 25 40 41 35 39 24 28 34 34 30 29 28 27 34 29 31 31 31 28 38 34 36 35 40 33 32 36 36 24 37 31 36 32 30 35 44 25 29 27 31 27 41 27 41 24 35 34 43 31 29 45 40 36 41 45 27 27 29 27 32 46 27 27 35 26 29 22 34 30 33 33 27 32 34 24 36 40 29 32 36 41 37 35 36 30 34 30 28 31 20 37 34 34 32 30 29 37 25 34 31 32 33 40 35 33 19 32 25 30 34 37 32 37 42 26 28 31 31 27 31 24 23 38 39 28 24 38 34 31 34 31 24 52 35 32 35 32 48 37 36 35 27 31 39 34 34 38 27 40 28 37 30 33 33 24 32 43 21 34 38 26 31 33 25 27 31 29 26 40 25 27 22 26 42 36 25 32 29 28 36 34 31 24 29 40 41 29 32 33 43 32 27 38 31 38 32 40 33 33 40 36 27 28 28 32 34 39 34 46 24 37 33 26 41 29 29 27 30 28 34 31 38 32 43 26 32 34 27 34 27 45 34 34 29 33 29 35 48 33 40 33 38 34 36 33 30 39 30 32 38 44 34 39 35 35 31 30 30 35 30 31 35 26 45 43 40 29 34 35 32 30 25 32 38 28 30 23 24 30 34 36 30 47 34 35 37 32 40 23 31 39 32 28 29 38 41 36 26 38 27 31 38 33 30 24 30 33 36 35 32 32 35 25 28 32 35 37 38 44 28 31 37 39 38 33 27 39 30 34 27 34 32 36 34 26 33 39 33 34 39 35 36 37 37 31 31 32 42 30 30 37 44 29 24 44 20 33 28 31 25 36 30 37 35 39 33 25 37 37 24 30 31 29 32 31 26 32 30 39 36 28 36 33 31 33 23 27 30 43 27 32 36 32 36 40 25 29 31 34 34 28 37 32 41 30 27 33 38 38 34 35 32 35 26 36 35 36 35 29 42 30 27 37 32 33 30 36 51 41 33 38 30 29 27 40 38 30 42 41 34 37 35 39 28 27 29 40 31 29 29 36 43 21 36 26 39 26 38 44 38 31 28 36 40 27 32 31 23 27 28 31 26 33 40 36 39 34 38 25 35 33 23 34 25 33 45 40 43 33 35 36 36 38 23 39 37 40 30 34 36 32 45 32 33 45 29 25 32 32 31 28 34 35 27 39 36 41 37 27 40 35 32 35 28 26 30 31 30 31 27 24 29 32 24 27 31 38 40 36 33 28 37 38 40 40 24 26 28 33 36 40 30 29 36 38 35 42 33 24 38 30 35 23 28 28 35 35 36 34 35 33 56 40 45 27 31 37 31 34 29 47 31 40 28 30 31 41 33 31 41 41 41 32 35 35 28 33 36 34 39 36 36 37 34 36 33 24 32 44 32 32 42 31 34 35 38 33 24 31 37 42 36 35 39 35 34 44 30 29 35 33 32 22 34 29 34 42 31 55 33 39 34 38 40 23 30 37 30 28 21 42 36 26 34 38 27 36 29 34 36 31 24 34 33 31 35 35 28 30 29 34 33 39 37 21 27 27 41 38 31 31 33 34 38 35 32 36 26 38 35 32 24 25 39 28 39 28 34 31 38 41 28 29 23 44 35 41 32 28 41 33 35 28 32 27 28 33 42 32 31 43 36 34 36 29 33 27 43 31 28 33 37 28 47 34 33 24 33 39 45 32 51 40 30 31 25 42 30 27 38 31 32 24 30 35 30 42 35 28 33 35 31 25 23 35 31 33 34 33 39 24 34 30 23 37 35 36 40 33 38 33 31 32 31 41 33 31 27 32 36 22 31 34 37 32 33 30 35 43 29 34 36 37 34 32 43 27 35 41 34 37 28 27 34 32 39 34 37 29 36 35 34 37 27 32 27 36 35 32 38 30 31 32 34 30 36 29 28 39 27 43 38 34 30 32 36 34 28 36 36 31 25 34 32 32 35 24 30 39 29 24 25 31 39 32 33 35 28 34 25 38 32 32 32 27 31 35 50 32 38 29 27 31 40 31 36 29 41 34 37 31 42 23 28 32 36 40 29 31 27 35 32 31 34 34 51 35 39 30 37 34 35 26 32 25 31 28 34 43 33 36 37 36 39 33 29 29 33 39 31 46 25 30 39 28 31 39 42 29 34 43 35 40 35 34 27 36 34 36 35 33 32 36 37 37 33 23 49 33 31 24 28 29 40 29 31 26 34 35 37 30 26 31 40 33 36 32 34 35 38 28 35 35 29 32 31 28 33 40 41 32 35 39 38 40 31 34 33 34 36 33 42 36 24 27 32 25 45 31 33 28 29 37 30 35 35 33 40 33 28 32 36 41 40 28 42 36 32 34 26 32 36 30 38 29 36 29 30 38 25 32 26 25 25 44 28 37 45 44 37 34 33 23 35 38 37 30 32 35 35 38 29 38 34 36 33 33 29 26 39 34 30 36 35 24 36 35 37 43 31 41 34 30 33 39 32 47 27 31 38 27 24 30 23 29 28 37 29 29 34 29 43 39 34 32 35 27 28 35 32 33 28 31 30 44 22 35 28 36 44 30 31 31 28 23 19 41 35 47 29 40 27 35 40 37 44 27 30 33 34 33 27 22 24 28 23 50 32 26 29 37 21 31 22 30 34 34 33 46 25 36 38 28 35 33 42 36 37 28 34 33 44 27 24 24 30 33 30 40 47 30 29 26 29 25 25 42 29 29 30 21 36 22 30 29 26 40 17 30 30 31 43 52 35 35 33 31 25 40 29 31 28 25 30 28 38 32 43 25 26 24 41 32 30 39 36 36 29 18 37 29 32 33 42 34 36 34 29 23 31 21 28 39 34 25 35 36 30 32 31 27 27 30 37 25 22 29 28 41 32 27 30 25 39 20 35 28 28 32 24 35 43 31 33 40 39 32 32 32 29 23 28 38 32 34 28 27 32 26 32 29 35 34 27 43 22 29 30 27 34 31 23 26 24 39 34 32 35 32 26 47 26 25 23 31 35 35 33 33 26 27 35 36 45 41 41 37 41 31 42 28 31 39 34 32 28 28 28 25 33 31 36 23 28 38 36 33 33 21 23 37 34 36 33 28 33 36 25 33 33 30 33 31 37 19 33 34 29 33 32 26 20 29 31 31 28 35 46 40 26 32 36 42 29 30 33 32 49 29 28 27 34 31 34 40 29 22 33 31 42 27 30 33 35 36 34 29 41 33 28 34 40 28 38 43 33 23 36 26 31 32 35 32 41 26 32 22 30 27 34 33 32 26 38 37 45 39 39 35 29 27 35 32 35 32 29 49 25 39 28 24 28 34 32 45 29 27 37 47 36 29 31 24 26 33 29 43 32 29 39 34 43 35 27 21 35 28 24 33 28 33 35 36 32 34 38 30 27 28 28 37 31 31 35 33 37 28 32 40 35 30 37 40 37 23 26 29 20 31 36 46 38 28 31 30 27 32 33 39 26 36 36 33 30 29 36 34 25 33 45 15 24 31 41 27 33 32 28 32 29 32 41 30 25 25 44 30 32 29 30 34 37 30 35 31 35 31 36 45 35 38 25 26 29 28 30 40 23 30 34 44 38 27 30 32 26 36 41 30 42 43 34 29 25 32 43 38 27 34 36 43 30 36 31 31 36 35 30 30 33 32 30 30 27 40 38 27 40 27 35 47 32 39 28 25 19 26 37 34 36 30 33 43 33 38 36 37 41 32 38 35 26 32 29 31 36 37 38 28 32 23 30 35 27 31 44 41 32 36 29 34 45 38 32 30 49 33 41 24 34 30 40 40 27 41 28 30 36 27 33 29 37 38 28 39 33 33 42 31 33 37 20 42 25 29 28 30 34 32 32 50 29 37 28 24 34 31 40 34 30 36 36 29 38 32 37 33 30 26 36 40 33 39 27 30 39 31 40 30 38 31 30 35 32 28 37 30 32 36 34 29 39 41 27 28 31 30 25 30 26 21 30 41 32 21 47 33 34 42 33 35 31 33 29 33 33 31 31 28 43 43 32 30 27 41 28 30 29 34 27 37 46 36 29 28 33 28 30 43 36 37 29 26 30 38 25 33 28 32 36 30 27 34 28 39 32 39 39 23 31 38 40 41 42 43 35 31 33 27 34 22 33 38 46 31 33 34 37 31 28 35 34 34 31 26 40 37 32 27 36 31 36 25 38 40 45 31 33 33 35 32 31 31 39 30 30 35 33 39 39 30 32 36 39 32 33 24 24 38 29 35 24 34 33 30 40 39 42 32 30 41 32 32 28 28 36 46 35 27 48 31 31 30 21 27 33 36 26 38 28 38 37 34 45 28 31 34 28 34 37 33 30 23 29 33 19 45 26 40 27 26 29 37 36 48 40 34 32 25 28 33 28 28 29 37 34 30 36 37 39 35 30 34 25 34 34 27 31 36 34 30 35 30 35 32 28 29 37 31 34 49 23 29 33 36 27 49 36 49 35 40 29 40 36 31 37 36 34 33 34 41 33 26 33 38 30 31 32 26 40 34 37 26 29 33 32 27 31 29 29 26 28 37 40 26 30 31 39 19 29 30 29 30 39 40 34 29 37 48 32 38 45 38 32 39 28 29 38 30 35 32 36 32 37 35 38 25 32 23 30 32 33 34 31 31 35 24 43 28 27 33 38 26 40 36 33 24 45 33 37 26 29 24 32 43 36 25 33 45 35 44 31 26 26 32 30 23 29 33 26 29 24 29 33 33 30 35 42 36 30 31 39 40 27 31 31 29 35 37 38 38 31 41 35 38 31 30 25 26 35 29 32 27 42 33 31 38 29 35 27 33 31 32 34 27 39 35 40 30 29 24 32 36 37 48 35 36 31 30 41 26 35 36 28 32 22 31 36 33 35 44 35 40 35 26 34 34 36 33 34 33 24 29 34 32 26 37 31 37 35 33 24 28 36 31 36 47 24 32 34 28 37 40 35 35 40 32 32 35 29 31 27 24 40 38 34 22 31 29 28 31 35 29 29 37 39 27 32 35 36 32 40 32 28 29 31 31 48 32 33 30 48 31 29 31 44 27 29 32 35 34 32 24 33 29 31 33 38 31 35 38 33 34 28 29 43 40 28 44 20 37 26 32 42 24 40 40 35 38 28 37 30 32 27 32 31 44 26 36 26 34 33 37 34 39 32 30 34 20 37 35 30 40 22 48 28 42 22 45 36 27 24 27 30 34 41 33 44 39 43 38 37 36 20 30 38 24 34 32 31 37 32 34 33 35 33 16 27 34 37 27 28 44 40 41 32 30 41 47 34 31 41 30 27 28 28 44 25 28 35 34 33 29 39 28 27 34 49 27 35 27 38 41 24 32 22 29 44 34 40 25 35 38 37 38 20 40 28 36 43 30 26 28 32 26 27 30 41 40 33 31 29 24 48 39 32 30 28 30 32 30 39 33 34 34 28 37 36 36 26 38 28 36 22 26 35 36 44 43 28 34 40 27 28 24 43 24 29 24 33 23 26 20 27 24 40 36 30 38 35 45 28 28 35 30 39 35 33 41 36 33 35 26 26 26 38 32 31 32 41 36 33 34 27 27 33 33 37 38 42 36 34 34 39 35 35 36 40 27 27 49 33 35 32 38 24 37 29 29 34 28 29 31 32 27 30 25 43 32 38 37 30 25 32 28 33 35 34 32 37 38 30 36 31 34 26 37 38 34 33 33 38 34 38 34 32 38 19 32 37 33 31 29 33 35 33 31 36 28 37 24 25 33 29 22 40 32 35 33 27 37 26 41 37 30 40 27 34 26 35 35 46 44 27 29 29 25 40 33 36 31 33 27 31 30 33 34 37 35 36 40 38 36 33 32 40 37 29 31 40 27 34 34 29 31 31 29 30 28 26 31 29 33 33 32 40 28 30 37 36 28 43 36 34 31 44 33 31 38 34 47 41 44 40 27 28 34 23 30 43 22 35 32 35 28 32 25 28 28 31 30 36 28 29 31 35 27 31 26 36 34 40 36 33 43 34 28 30 40 40 31 33 34 32 37 35 27 33 49 31 35 35 29 33 29 33 35 25 31 37 28 37 36 36 31 36 27 31 39 31 32 32 44 33 38 39 42 28 34 41 27 36 31 33 23 29 33 39 31 40 30 41 32 30 31 27 33 42 38 24 26 35 29 34 26 33 33 26 38 30 32 32 36 36 30 43 36 37 21 33 36 29 29 30 38 33 33 29 26 51 31 37 35 25 30 28 32 32 35 38 29 33 24 25 36 35 30 26 40 29 32 38 32 43 45 31 41 36 26 29 39 33 28 32 37 36 35 35 44 38 32 34 41 42 31 32 38 42 25 34 23 37 25 36 27 25 38 30 35 36 28 36 30 35 30 33 41 39 28 25 36 33 37 26 32 34 42 40 34 33 39 25 33 22 31 34 20 28 38 41 29 37 39 28 40 32 31 33 42 31 42 42 38 35 29 37 33 34 23 32 36 31 27 33 37 32 30 29 38 27 33 41 26 45 40 26 32 38 36 47 25 31 31 33 29 39 34 35 31 30 32 34 30 34 36 48 38 31 31 23 38 35 25 30 28 32 34 35 32 29 37 25 34 43 28 20 37 32 30 24 37 29 33 37 34 44 38 31 30 22 32 39 29 27 37 28 32 39 40 27 39 31 29 32 44 36 41 35 26 32 30 27 29 25 33 22 28 31 29 34 32 36 36 32 32 28 35 27 31 28 39 29 26 42 33 28 37 28 31 33 30 31 34 32 37 38 30 36 27 32 34 40 35 35 24 46 37 38 24 37 40 43 28 38 39 35 36 37 36 31 34 35 32 32 32 28 25 30 39 44 53 40 44 34 30 27 31 51 26 31 28 29 21 30 26 26 31 31 31 35 29 22 34 41 24 25 16 43 45 36 45 29 26 32 31 24 37 30 38 35 29 27 44 32 34 24 42 42 30 29 42 41 38 32 32 30 35 33 37 29 28 33 30 34 34 25 45 35 35 29 28 38 34 37 32 22 25 25 31 31 39 30 32 30 39 38 37 34 27 45 35 35 31 33 28 24 39 39 20 46 50 33 31 29 26 38 33 30 32 39 31 30 24 42 36 26 38 39 19 32 27 39 39 32 37 32 26 35 32 29 34 32 37 35 31 31 30 32 35 40 28 32 39 36 35 33 29 23 28 33 30 27 26 34 24 31 33 24 39 45 35 32 38 42 33 34 24 31 41 47 37 32 32 35 31 26 30 36 28 46 25 35 35 27 33 40 33 32 24 36 28 31 29 31 34 31 28 29 28 29 36 26 29 42 36 30 39 37 34 29 28 30 36 36 32 39 34 34 37 32 31 34 33 33 30 41 29 37 21 30 33 35 42 34 36 30 32 25 27 18 24 37 27 25 28 30 32 28 40 32 39 24 29 51 29 30 32 44 27 25 30 36 41 29 39 38 41 29 41 31 43 35 44 30 32 41 29 33 21 32 22 26 38 42 33 31 34 31 28 33 37 32 37 34 26 34 32 21 31 32 45 38 30 25 29 38 34 41 36 35 41 43 45 35 37 27 38 35 48 44 34 30 35 28 45 40 47 31 31 42 38 27 39 38 35 36 32 29 40 35 35 35 34 27 38 37 31 30 40 26 22 34 25 31 34 28 29 34 33 29 24 37 33 32 28 32 28 34 29 32 29 36 30 38 28 22 41 32 38 38 38 38 32 32 25 33 36 42 36 36 27 27 30 31 37 34 35 38 28 40 37 34 39 31 34 37 27 45 33 30 35 24 37 34 28 26 44 32 39 35 38 26 31 34 38 35 29 31 37 34 28 27 27 40 36 25 42 31 23 28 30 27 31 32 25 35 33 33 35 32 35 36 33 43 34 31 34 41 33 33 34 26 22 33 28 32 30 37 36 34 39 34 24 33 35 29 35 31 33 31 32 28 17 34 26 35 30 32 27 32 34 36 30 41 26 26 33 27 38 35 24 26 35 42 33 30 35 27 43 27 38 32 33 29 25 28 35 27 29 34 38 26 34 34 37 34 24 33 28 27 31 30 32 35 31 26 37 34 27 32 34 31 42 37 31 27 34 27 28 33 36 31 36 31 28 35 30 24 31 34 37 22 47 35 33 28 32 35 45 24 26 24 36 27 41 31 30 27 30 44 24 33 25 37 42 26 31 33 31 31 33 34 27 39 21 28 26 35 29 36 38 27 27 38 28 33 40 32 29 29 26 40 29 32 28 53 35 29 41 41 27 38 42 31 24 25 35 27 28 36 29 32 31 24 36 35 36 45 31 31 34 21 38 41 36 39 34 24 18 29 33 43 37 33 34 35 32 31 31 30 35 32 43 41 33 30 45 36 26 35 34 34 40 35 38 29 33 30 21 30 25 45 39 38 26 44 27 28 35 36 28 33 38 31 31 34 34 33 28 36 43 28 36 34 32 27 34 33 33 34 32 28 27 37 27 31 32 34 31 35 27 32 36 31 31 39 35 28 29 36 34 35 34 29 44 27 34 24 25 40 27 38 30 21 32 28 29 35 41 42 43 24 36 23 30 29 39 28 39 27 35 27 43 30 38 43 37 34 32 29 37 36 28 41 24 27 29 39 32 25 31 37 46 45 33 29 33 43 35 43 31 24 34 35 40 37 42 30 35 40 39 31 31 32 40 35 31 41 30 36 40 44 27 27 38 42 31 32 39 28 33 34 40 31 35 27 29 32 30 30 32 42 36 32 38 44 45 29 32 32 34 26 24 40 38 28 29 41 29 30 35 43 32 34 42 35 35 30 26 37 34 40</t>
+  </si>
+  <si>
+    <t>JSB(10.216510121809794, 9.150679660526258, -330.49567030310516, 2305.526263935538)</t>
+  </si>
+  <si>
+    <t>230 277 231 265 173 169 212 254 186 272 302 153 227 126 183 305 235 206 306 229 260 229 233 229 206 277 215 178 303 281 227 353 281 253 288 174 279 222 209 313 233 219 250 272 279 258 216 363 255 326 303 223 284 255 283 152 192 326 243 188 270 149 273 177 182 216 239 285 271 215 253 205 348 313 180 287 272 246 201 215 209 138 204 188 236 241 237 193 261 249 296 211 254 213 275 292 275 270 170 201 215 191 246 269 268 198 245 254 326 297 230 221 293 272 298 175 150 144 219 234 274 218 208 188 263 318 235 216 266 239 185 166 170 235 247 266 220 216 364 199 190 203 238 305 297 229 211 178 239 235 225 239 215 171 248 269 244 239 226 239 197 162 190 209 231 249 229 267 153 259 158 297 235 251 174 212 213 191 153 242 254 251 187 255 227 271 286 293 210 222 251 241 223 194 207 238 280 165 153 293 212 213 230 226 234 236 211 293 238 265 291 268 193 204 240 270 216 300 194 224 227 259 338 238 224 317 264 232 181 270 191 272 240 290 138 227 292 267 277 192 262 219 318 245 240 227 214 181 165 203 265 214 170 257 350 218 189 308 233 214 184 258 165 140 179 264 226 212 220 246 150 199 205 305 185 255 136 270 241 371 181 244 190 219 268 253 211 168 271 168 175 208 209 303 217 231 249 186 219 237 164 193 239 193 292 206 219 210 259 168 333 211 214 285 205 242 287 278 273 194 163 189 269 271 178 239 278 271 277 209 284 258 245 265 190 222 278 222 275 165 226 255 305 257 264 288 220 142 189 231 252 262 208 225 244 213 217 268 211 288 236 358 404 161 308 259 200 154 303 200 280 256 258 261 173 237 201 251 173 245 241 217 243 343 128 178 158 331 219 237 291 284 234 175 292 217 311 213 237 305 111 272 267 171 143 209 196 207 256 234 339 234 323 289 281 240 293 217 187 247 253 326 289 263 140 160 185 204 131 204 229 213 253 178 271 233 194 205 248 349 261 202 286 287 285 237 248 294 184 211 197 169 226 233 194 232 162 189 312 231 193 223 253 187 270 223 253 278 208 260 208 199 270 158 258 249 239 227 315 206 166 295 204 217 301 275 227 252 227 128 364 307 279 284 274 169 223 259 275 202 257 235 324 236 230 309 297 237 263 226 228 269 234 183 236 202 231 250 111 211 220 181 243 330 252 203 130 180 189 240 235 265 177 260 215 265 277 246 268 369 219 344 215 241 198 197 291 308 125 295 242 255 280 166 293 242 298 212 213 276 316 184 263 298 218 264 262 236 232 243 206 279 312 176 252 260 313 307 242 303 276 265 244 120 213 226 197 281 375 288 258 213 197 233 262 259 283 207 367 251 176 224 202 231 220 258 149 153 167 313 158 197 282 226 197 175 249 255 245 327 286 354 282 283 239 312 166 221 218 209 214 284 205 255 246 216 205 284 210 299 137 210 234 316 177 212 266 173 227 180 165 215 270 163 303 245 218 264 278 310 282 241 237 245 278 207 268 159 254 201 209 198 354 200 336 204 276 157 152 347 273 334 240 249 246 281 245 175 251 195 233 233 244 298 175 163 270 205 208 254 315 239 240 302 273 226 161 264 283 151 230 234 250 232 265 278 170 288 341 315 258 190 263 237 178 223 228 189 201 238 226 275 166 244 220 324 219 301 253 234 339 218 224 159 303 252 279 157 269 208 180 215 210 324 257 221 228 249 238 215 158 198 293 303 196 280 277 234 282 188 244 310 200 284 296 146 194 305 275 311 275 299 223 242 219 201 263 244 149 265 175 249 201 197 275 335 263 361 321 247 161 178 193 255 212 270 261 222 177 246 290 260 215 214 306 184 229 358 251 212 231 235 239 267 196 213 130 278 263 245 237 159 229 255 173 260 231 126 296 297 232 182 301 190 254 251 147 249 315 197 185 239 308 268 219 221 256 181 169 322 164 251 210 180 211 231 273 328 219 364 324 204 223 231 213 169 252 271 225 206 285 213 316 261 225 284 182 321 253 270 224 247 195 279 261 308 315 244 223 260 330 326 220 206 268 253 311 237 250 167 282 293 186 262 297 163 255 222 184 219 240 292 323 163 290 334 252 282 197 354 205 237 266 317 204 253 263 207 212 221 292 213 223 224 279 283 229 246 295 212 224 248 205 300 278 276 229 225 140 215 325 290 190 242 196 251 181 230 265 274 315 172 341 199 333 268 268 329 165 241 297 232 130 208 183 205 265 230 236 265 175 276 236 266 272 257 251 171 315 269 287 318 280 223 230 187 219 201 294 202 282 197 217 219 284 238 233 161 292 230 259 218 289 252 286 263 271 201 321 304 281 275 306 260 243 175 235 149 230 202 226 224 173 223 195 128 321 179 207 226 260 193 218 273 207 229 206 227 246 224 223 225 185 230 155 311 278 279 184 183 296 209 237 252 215 276 186 279 269 315 246 337 248 216 233 197 290 230 270 217 197 198 273 227 283 277 275 243 284 190 218 226 272 243 161 246 316 328 257 222 269 200 244 241 211 232 225 238 211 335 236 231 279 273 266 296 253 253 316 273 239 312 190 233 147 187 206 326 315 249 269 168 191 218 181 164 242 185 177 202 258 177 191 181 212 195 246 106 206 231 186 239 253 176 252 189 159 212 301 290 240 179 227 283 267 273 342 276 230 216 293 210 244 259 207 224 298 210 225 266 247 234 181 339 338 222 228 205 225 234 258 185 226 247 222 235 261 260 241 222 218 283 174 246 293 247 181 233 292 255 235 266 257 209 250 266 277 237 314 317 307 196 278 254 239 334 207 216 305 169 308 152 279 257 166 268 280 219 204 178 315 220 215 241 282 254 226 144 295 237 136 265 252 225 176 224 247 174 224 223 251 248 255 190 296 235 252 202 268 153 236 193 243 245 218 244 326 227 315 328 263 311 230 195 293 304 243 213 244 288 207 329 321 240 218 270 246 373 266 325 153 200 276 254 205 302 148 165 401 164 308 290 265 264 202 128 130 278 286 204 239 212 245 275 245 237 254 230 283 214 150 228 250 306 243 268 282 221 221 267 177 287 230 244 151 224 245 237 205 191 266 222 224 267 193 249 266 222 320 219 328 255 241 329 166 244 222 231 214 215 295 266 282 215 288 142 222 258 283 212 357 214 210 129 248 198 190 273 243 228 285 170 245 214 249 315 276 239 246 215 293 243 329 228 175 206 186 184 257 261 169 85 255 208 277 304 199 138 302 220 210 310 197 350 288 246 296 178 287 350 229 248 204 251 251 191 235 186 176 209 237 260 246 267 239 326 265 158 285 226 265 166 198 187 248 260 221 275 243 198 208 232 249 271 142 233 172 251 203 327 213 244 238 175 307 257 241 320 219 249 321 248 211 269 288 228 240 230 276 317 237 168 262 283 204 258 257 291 209 195 240 217 304 268 320 222 173 249 170 243 222 247 187 260 220 205 211 261 269 241 232 368 222 247 231 257 242 224 225 292 173 217 194 282 281 235 278 216 248 228 292 237 199 212 300 306 262 278 208 205 247 143 260 238 267 234 222 195 320 295 298 262 178 121 209 186 320 229 314 208 260 194 273 233 136 161 228 220 234 292 203 276 344 238 164 231 189 197 266 279 229 218 276 294 199 245 248 200 158 263 287 278 303 259 291 265 257 248 158 190 300 216 235 220 233 277 241 210 246 217 304 242 205 295 198 217 281 169 241 312 289 215 170 257 236 253 256 290 302 356 321 303 187 259 223 258 276 230 231 187 247 206 270 207 270 207 202 201 269 327 276 250 257 236 168 183 200 178 289 285 217 257 240 276 224 221 268 294 159 272 242 170 264 331 232 328 273 208 228 260 160 201 235 278 215 175 329 262 309 151 242 287 334 188 257 304 232 308 190 199 195 136 175 227 265 150 220 201 222 284 243 330 309 166 174 248 253 233 190 199 159 213 202 152 300 194 202 306 214 200 224 204 222 271 321 264 200 215 363 297 349 195 236 344 232 234 247 260 202 251 220 235 189 225 156 281 244 261 232 243 187 284 353 258 270 216 175 275 238 243 278 242 220 214 262 210 209 190 218 242 202 252 280 291 206 186 352 161 257 204 190 194 203 294 205 231 202 295 274 244 328 304 290 256 230 278 273 216 283 269 148 201 352 246 175 321 208 219 234 184 191 162 234 269 214 187 264 244 233 294 177 270 217 310 254 218 156 221 228 234 236 213 172 197 247 285 259 157 230 274 220 196 231 246 204 165 220 216 188 213 284 236 218 235 236 266 222 214 266 219 274 179 298 309 229 233 345 259 187 273 222 191 237 227 226 214 230 203 252 223 291 236 247 264 276 230 351 242 279 244 341 326 222 257 237 257 233 230 330 233 220 185 278 230 283 235 211 239 342 283 257 325 208 197 195 425 309 276 152 229 164 187 243 291 242 252 295 191 224 234 219 218 262 180 295 273 338 268 182 245 262 318 234 219 217 245 199 215 214 241 236 197 253 208 296 205 176 251 177 268 296 139 246 286 229 198 186 251 217 372 222 239 295 252 217 203 201 200 265 209 162 306 166 274 194 231 327 180 229 340 299 247 276 260 243 221 275 289 250 258 185 208 331 228 145 268 310 181 300 152 279 216 144 236 204 262 264 213 158 169 255 208 179 310 228 166 194 277 290 214 301 290 230 179 335 205 223 187 239 238 230 156 252 218 222 240 298 335 243 176 218 307 276 189 259 300 210 193 261 231 210 234 256 310 287 223 297 223 226 202 281 331 193 241 211 239 233 266 260 161 186 157 219 246 212 291 271 245 136 230 212 262 217 194 209 213 234 208 312 189 249 282 272 210 218 230 262 271 177 212 203 155 260 200 196 209 215 241 234 301 286 228 246 251 248 240 224 201 211 211 289 229 145 196 214 315 217 223 315 272 279 195 189 217 194 260 257 191 175 165 278 206 236 278 244 252 306 212 259 292 172 192 259 228 262 283 243 275 331 175 231 240 249 247 240 257 266 246 261 171 209 168 167 355 234 411 298 253 202 252 167 260 179 299 234 164 205 205 221 199 252 188 152 236 239 208 200 290 204 210 281 227 250 252 260 193 269 266 173 201 234 321 247 205 283 214 164 271 201 230 330 298 254 295 157 299 187 240 168 310 261 211 222 203 276 188 274 303 324 280 295 251 212 212 273 227 157 261 247 266 267 321 311 261 211 265 309 204 248 206 238 184 270 163 160 227 193 239 269 199 245 389 161 147 164 241 242 230 249 333 212 247 224 201 187 248 197 170 272 262 260 272 210 276 263 302 315 242 257 269 254 203 207 273 219 173 289 244 153 267 202 189 329 298 270 214 266 174 168 213 280 246 126 199 139 250 199 201 280 227 295 176 286 154 257 291 234 212 304 156 147 301 198 221 244 279 162 342 196 294 252 282 285 235 170 286 264 245 270 217 322 269 287 232 172 235 185 188 269 237 272 228 211 317 269 287 314 207 276 264 263 275 291 169 246 313 278 275 309 203 237 267 185 189 166 208 261 274 330 221 177 83 188 307 288 237 229 280 268 298 231 308 241 317 207 252 282 205 249 203 183 274 245 170 193 304 294 225 318 255 296 201 176 311 263 177 266 270 309 225 146 219 212 187 209 256 295 196 245 240 283 245 279 280 285 148 199 299 134 289 206 256 288 184 278 240 317 251 324 156 177 252 298 290 256 199 202 205 170 195 304 238 257 322 338 267 282 234 126 173 253 162 167 259 349 217 211 222 291 261 237 306 302 174 196 204 225 241 236 201 308 251 306 228 205 324 306 244 223 271 253 296 345 196 244 183 194 232 159 142 138 319 189 297 265 177 250 168 232 197 268 258 233 189 289 222 202 229 383 305 292 162 217 280 252 172 239 273 224 237 289 264 221 182 234 272 235 164 236 291 220 145 212 346 240 221 197 283 259 193 240 267 210 220 245 162 222 280 154 240 262 222 215 296 353 240 254 231 275 211 256 228 218 200 174 196 315 263 191 191 204 284 169 264 402 228 228 343 265 229 236 284 249 205 332 196 188 279 282 224 182 142 158 194 225 307 292 163 219 210 251 196 248 229 152 183 278 244 264 157 282 263 257 266 279 184 267 221 208 235 260 225 249 332 313 312 172 245 204 281 162 289 287 188 135 256 340 302 207 180 259 283 264 238 320 187 281 232 270 203 245 221 227 129 216 177 323 271 211 240 195 350 250 300 228 305 273 199 315 328 235 212 254 225 225 262 263 248 233 311 281 251 225 213 171 282 268 186 179 235 216 190 207 197 190 271 342 214 274 169 289 272 168 186 218 208 300 263 356 215 247 247 244 194 194 209 300 238 222 199 201 243 294 194 228 264 283 300 232 231 348 186 255 259 276 255 206 195 265 303 257 258 195 291 303 245 240 302 254 246 217 217 280 225 249 157 188 345 270 163 216 277 242 160 134 179 235 217 257 248 217 255 217 182 233 260 283 245 223 339 315 178 167 310 242 203 251 189 280 288 265 214 264 260 220 190 270 241 152 144 225 196 263 289 275 225 277 251 269 158 200 255 224 292 166 164 202 243 232 295 181 220 242 300 356 220 252 174 299 316 306 185 348 199 203 203 193 317 166 236 172 319 297 309 285 241 255 244 222 293 218 299 284 214 201 197 162 224 244 252 194 258 299 267 306 229 337 229 249 232 271 216 183 214 249 307 240 166 242 263 172 283 208 193 274 196 194 320 175 220 221 247 279 220 182 212 205 214 330 234 285 276 173 258 251 239 241 239 233 273 194 220 277 203 262 293 204 251 207 286 266 316 241 213 171 275 313 171 242 155 280 184 222 214 166 217 247 265 168 307 171 235 251 278 232 270 269 236 216 329 278 366 110 244 227 234 209 90 196 223 229 172 218 291 300 231 190 300 249 194 231 311 245 268 235 315 217 185 214 260 186 218 180 230 305 294 249 190 318 245 237 284 175 204 276 148 163 229 260 227 181 264 289 172 267 266 237 268 251 185 223 291 200 272 208 217 179 246 239 256 262 296 193 315 282 188 232 188 312 231 310 254 251 265 319 295 281 235 225 176 220 270 218 230 197 279 250 228 247 347 280 203 180 194 250 268 254 264 244 211 257 210 237 207 204 239 227 137 268 264 198 242 241 223 177 252 283 267 304 194 240 209 297 275 172 283 152 205 214 265 306 249 236 224 313 280 191 195 179 256 157 285 267 275 252 165 229 161 259 225 258 346 283 218 147 226 318 226 264 294 221 238 241 239 283 202 191 237 297 272 268 270 229 281 224 177 265 209 188 173 211 226 174 155 248 194 293 217 330 231 235 270 287 236 318 222 262 219 218 219 292 139 210 192 237 116 157 268 237 262 252 170 224 257 270 327 286 227 223 360 283 283 236 140 278 236 184 298 270 233 227 274 252 264 152 253 335 226 189 151 244 251 300 254 308 249 232 313 363 213 308 292 212 264 180 216 282 192 267 202 267 158 177 195 226 174 282 222 304 252 209 254 331 207 237 254 222 220 295 294 235 339 202 287 258 354 316 284 203 201 206 199 285 186 295 169 311 247 371 306 261 252 234 320 297 187 256 221 199 222 267 221 251 265 185 220 236 256 225 242 267 262 164 250 262 270 230 161 197 177 219 232 314 257 211 207 268 269 210 259 289 219 216 273 199 266 196 219 270 290 182 254 330 296 270 300 216 246 263 266 311 243 250 233 280 222 227 342 231 220 255 291 235 315 168 256 219 260 237 283 248 165 191 340 280 159 246 203 276 298 163 282 181 225 329 220 289 315 316 172 234 230 197 315 203 289 242 222 275 205 174 336 210 248 282 280 199 166 248 357 314 214 221 245 267 316 200 222 283 246 250 193 198 261 255 239 189 176 192 194 197 116 270 357 287 227 284 290 372 258 322 262 246 245 134 163 267 292 175 210 295 295 315 178 229 278 209 310 229 200 237 288 263 198 228 219 290 280 168 244 206 146 295 247 176 281 228 282 237 237 198 204 195 248 289 199 279 230 246 221 245 203 220 268 128 220 269 204 262 219 265 236 234 196 162 305 250 200 215 196 266 229 202 239 282 243 216 307 235 237 238 254 304 296 206 315 280 181 253 238 317 218 311 174 200 275 193 240 261 244 268 346 207 230 248 227 255 259 208 256 314 239 258 223 185 297 231 275 183 300 244 255 246 227 206 222 221 244 201 247 188 278 362 263 251 297 224 299 241 288 220 213 176 253 242 252 219 222 184 298 259 207 106 201 213 299 216 255 238 211 323 288 258 143 227 264 281 262 250 143 340 270 254 320 261 193 267 267 229 314 271 262 213 227 351 289 223 254 187 175 290 297 251 251 259 167 207 336 311 228 221 319 170 250 206 149 159 164 218 210 206 288 305 244 181 232 236 232 201 146 206 272 287 203 305 298 208 258 184 304 241 221 207 275 236 141 217 272 276 249 231 158 198 232 245 257 238 300 242 274 271 233 205 193 292 290 295 200 265 180 258 221 224 156 208 198 262 282 215 183 248 287 216 376 337 194 279 273 215 245 257 207 118 183 217 271 106 248 220 229 272 219 209 219 304 237 182 249 311 240 196 277 256 257 218 279 253 159 202 192 187 230 210 197 204 278 305 266 206 154 232 342 255 241 207 292 230 262 253 230 179 234 189 331 203 270 266 249 209 254 262 241 217 278 178 209 247 256 217 222 170 222 273 173 240 237 219 264 217 275 352 213 333 268 277 273 268 265 275 239 240 182 221 206 260 219 243 215 232 267 180 210 156 193 279 298 249 214 332 276 215 266 219 223 245 274 294 272 250 120 208 254 263 213 278 224 248 288 212 151 345 257 281 195 288 269 294 248 234 214 321 238 290 200 238 173 231 203 186 185 189 204 230 257 218 262 235 218 251 257 221 284 256 190 195 266 200 277 190 264 300 229 320 196 211 246 302 222 258 257 162 307 221 179 247 245 245 265 255 190 229 281 243 209 251 164 224 236 239 255 224 235 224 218 232 210 278 202 208 248 271 190 295 263 280 195 218 185 221 206 240 220 266 231 203 273 195 250 221 213 209 211 278 309 209 252 316 211 226 191 239 168 268 194 345 290 222 197 235 256 164 226 147 261 365 246 359 265 268 250 253 344 253 307 280 288 322 235 190 300 300 185 262 282 205 190 171 300 124 269 268 298 262 169 337 225 219 174 272 195 230 316 163 201 278 271 233 190 233 258 167 296 300 298 212 290 259 244 310 267 230 319 232 241 245 239 234 274 216 261 213 212 310 182 274 296 285 306 286 153 246 247 298 161 200 343 295 181 207 215 190 246 320 195 200 301 163 248 235 240 313 252 283 247 219 239 170 303 264 221 263 162 304 162 190 253 275 270 223 230 212 220 168 236 239 159 329 275 254 246 230 210 236 333 280 250 199 295 202 162 314 268 278 222 260 281 233 154 203 298 243 161 274 324 200 239 246 164 247 233 192 265 283 224 272 330 298 168 229 162 329 202 263 201 208 309 249 296 165 206 206 272 313 265 276 280 298 190 271 245 210 287 240 190 294 202 267 319 218 209 285 205 175 295 258 287 257 281 231 211 248 301 264 285 269 326 305 235 204 312 187 268 224 212 249 199 228 199 263 261 246 250 293 269 232 225 150 195 209 378 200 268 287 261 295 281 166 203 192 224 139 225 258 236 328 284 270 252 206 221 242 255 375 198 274 275 199 242 209 212 259 175 254 292 227 299 245 200 290 272 251 261 293 284 313 267 269 247 223 270 250 189 149 158 186 271 221 273 216 180 188 196 262 312 189 245 220 248 265 250 272 199 235 192 326 288 274 265 185 251 211 207 261 221 231 247 175 296 144 186 246 294 236 292 267 318 195 262 171 182 111 285 181 308 294 203 256 216 260 271 207 251 241 257 263 206 149 236 321 241 256 153 175 154 256 265 213 197 212 208 232 223 206 281 194 222 286 296 253 213 264 298 200 208 152 184 155 191 185 179 247 289 269 261 261 255 247 233 238 215 230 240 274 223 182 245 241 236 301 166 279 296 301 233 233 234 356 322 275 182 264 278 243 239 241 279 235 191 257 264 251 251 204 264 278 211 245 239 235 222 215 182 230 224 178 230 290 248 204 256 221 235 276 336 180 269 200 155 151 337 243 160 240 244 130 268 289 237 249 307 254 195 196 246 266 284 303 325 214 249 213 242 225 187 249 213 233 206 239 243 288 255 238 254 197 285 274 221 264 225 132 151 275 188 302 314 227 245 256 224 281 285 233 340 161 256 210 185 215 227 261 186 204 292 404 281 278 214 224 252 261 218 328 179 269 189 329 202 294 276 156 259 279 131 277 235 213 173 302 257 218 180 208 269 271 204 140 291 214 266 264 236 201 324 261 265 175 314 305 275 148 302 265 215 264 251 248 275 291 207 213 209 264 242 290 264 179 177 285 288 202 257 245 177 185 181 270 283 260 221 329 296 181 164 213 274 221 239 294 289 234 265 222 316 256 223 247 215 185 251 185 209 182 175 245 195 280 259 287 271 202 270 225 210 282 236 270 210 230 295 236 173 240 187 239 201 217 264 262 241 197 306 172 222 265 276 289 262 257 230 262 195 242 207 165 281 196 187 198 256 319 181 276 315 280 216 170 233 277 328 186 152 160 285 218 194 208 189 230 240 241 155 294 211 224 203 261 215 211 221 281 185 164 276 366 164 225 271 252 213 268 224 259 230 273 248 243 244 309 215 210 217 194 291 293 203 220 233 298 188 210 267 290 274 281 263 216 174 205 103 183 201 228 295 247 173 241 261 262 293 203 221 219 244 352 282 239 250 157 292 209 221 231 266 235 234 190 314 299 133 240 223 299 177 141 317 204 237 233 339 265 181 194 229 296 333 163 224 203 270 232 245 254 205 235 329 310 269 297 244 251 255 270 223 260 211 222 292 284 146 235 159 262 229 244 163 237 288 227 209 251 186 326 274 150 214 163 256 209 211 204 197 221 286 259 224 239 299 285 168 233 270 199 246 264 258 283 225 95 245 199 248 199 290 203 191 122 237 182 229 167 232 232 212 230 294 207 282 235 182 267 195 294 279 306 188 180 184 241 302 205 280 178 266 259 185 309 246 92 234 235 321 306 267 228 235 349 256 278 200 193 209 267 253 226 276 211 168 268 194 279 170 369 233 211 309 273 208 249 204 235 278 196 211 276 154 173 302 265 251 240 289 220 270 270 282 220 371 250 157 176 241 195 358 234 273 218 222 281 247 261 294 198 208 229 247 275 337 162 282 272 221 212 334 265 305 203 172 203 174 244 271 204 287 226 169 248 210 324 281 331 204 256 179 237 232 217 286 149 247 283 152 218 203 218 249 312 306 142 294 244 268 214 268 237 238 254 224 234 215 269 307 181 300 347 270 245 236 289 243 258 255 199 285 225 258 277 304 221 253 243 251 298 163 289 286 172 176 257 308 226 193 277 309 244 200 259 221 245 217 199 261 181 340 356 147 191 160 287 269 212 145 217 248 211 282 228 208 164 318 172 196 285 261 201 244 196 226 177 202 256 187 205 302 203 196 327 258 319 276 174 315 160 100 195 232 227 215 212 180 193 265 216 282 239 285 217 262 285 193 208 183 318 189 325 291 232 227 265 245 238 190 259 174 283 309 198 317 256 189 272 267 211 270 257 278 282 251 224 235 249 297 194 279 400 290 279 277 179 281 244 166 247 204 283 301 234 210 210 231 189 241 234 164 246 220 270 222 192 261 241 274 205 257 288 234 265 191 257 175 214 267 152 234 220 216 238 205 231 307 306 153 212 276 287 270 229 267 251 236 180 286 283 206 242 269 200 127 238 209 282 231 215 206 150 238 168 306 268 330 266 147 240 194 168 295 219 232 157 287 295 205 274 381 234 281 149 207 269 188 240 349 234 233 303 143 176 242 261 252 282 367 261 331 249 261 257 270 152 177 247 214 255 297 249 166 259 224 232 218 178 125 208 158 286 194 252 317 203 255 261 167 255 328 270 249 161 171 206 242 196 270 254 222 200 207 238 212 216 368 225 244 339 263 211 254 224 217 278 260 259 239 228 277 259 190 268 281 212 240 245 223 245 191 243 224 228 206 237 354 230 154 219 254 226 239 223 224 210 287 153 184 331 270 298 232 236 203 174 283 180 148 260 311 215 216 229 179 222 262 253 252 292 154 246 151 247 264 279 171 254 213 225 262 201 215 216 299 256 257 264 221 231 267 242 222 263 164 191 264 237 227 268 195 181 300 167 160 200 277 270 181 212 301 236 277 254 222 301 175 183 175 241 184 214 257 206 199 186 267 165 156 258 252 170 203 216 278 243 295 213 256 288 310 185 278 180 273 228 211 264 264 200 288 223 265 265 239 263 248 204 231 271 174 217 193 236 319 281 249 224 207 237 221 245 238 195 209 156 220 192 232 200 237 172 245 228 237 169 167 215 204 236 206 267 244 263 237 183 309 252 215 223 248 211 249 182 219 234 165 173 340 202 281 289 243 283 239 292 163 225 167 397 227 156 307 239 251 176 203 248 391 255 163 331 246 244 286 193 189 257 225 251 223 318 344 211 200 289 219 240 208 158 309 230 210 216 291 256 229 233 168 222 251 274 223 226 247 194 301 315 221 351 262 278 247 340 286 210 243 233 234 190 291 253 187 229 251 269 205 287 211 213 245 244 257 205 193 277 199 280 261 207 204 191 300 211 240 242 256 196 348 212 312 231 246 161 232 288 280 281 192 273 257 221 237 247 177 256 299 223 292 211 346 172 242 247 215 178 307 252 286 202 289 243 382 251 359 248 239 337 252 214 202 224 216 172 239 243 179 303 225 235 161 366 201 234 200 225 214 256 234 243 233 270 263 198 274 290 200 191 268 328 219 273 210 279 292 215 239 156 258 241 211 171 208 198 267 183 258 224 212 318 182 194 255 250 188 237 197 255 191 232 261 232 256 186 241 258 280 319 204 286 245 307 307 232 211 274 294 176 280 244 239 211 223 281 288 252 238 216 229 255 226 350 206 256 288 244 208 207 218 255 220 295 192 206 274 206 256 214 322 244 210 225 298 168 228 251 303 210 232 193 163 253 275 121 243 209 252 236 291 201 278 248 188 265 173 196 257 210 206 259 332 321 301 344 264 178 266 212 191 230 249 221 231 202 216 167 233 275 228 251 252 251 275 228 310 292 212 260 270 211 160 191 267 253 208 306 246 203 278 164 276 280 382 168 305 286 216 198 237 345 317 256 205 141 223 259 344 227 241 237 250 276 265 216 300 186 184 217 232 204 234 185 268 266 216 249 224 247 256 259 170 245 252 289 289 243 227 192 198 224 280 209 242 205 273 213 247 218 277 246 260 268 188 239 225 235 281 302 209 263 321 215 254 246 239 239 287 259 278 231 210 272 284 263 354 238 304 182 240 259 271 178 240 185 243 225 242 264 331 167 223 126 222 270 259 219 216 285 220 247 235 230 262 180 159 214 234 277 198 334 168 308 229 269 173 315 289 258 210 287 314 221 208 155 258 186 190 238 170 248 297 293 294 264 297 166 265 212 208 276 241 331 188 141 212 248 259 210 234 195 203 274 298 199 222 220 229 281 295 163 278 271 205 196 156 287 234 252 251 282 263 303 206 268 236 213 250 173 324 206 260 212 247 306 284 216 257 302 241 225 187 270 278 214 328 292 301 196 304 229 254 227 283 193 171 268 289 233 284 152 208 332 285 265 271 262 226 174 163 274 228 201 182 261 219 277 212 219 251 240 210 258 173 255 232 211 228 113 244 266 265 233 133 169 214 288 265 361 279 261 164 253 198 196 216 205 256 319 283 287 279 231 270 259 239 191 136 250 230 209 208 329 228 223 318 239 231 222 244 234 249 163 204 249 277 214 297 217 260 271 190 240 243 246 221 228 178 189 232 246 259 170 221 187 225 275 261 249 252 221 217 239 281 177 271 218 243 242 146 282 302 169 202 230 282 233 287 197 308 173 309 244 296 233 264 290 285 281 273 365 234 221 193 197 245 314 205 198 205 218 249 125 246 182 236 253 145 272 306 151 277 333 176 213 249 291 252 191 296 294 200 268 217 242 152 269 254 198 209 205 193 249 217 254 276 258 242 299 213 270 107 196 194 209 274 211 247 317 302 140 178 234 250 207 194 195 207 279 281 149 122 314 252 229 224 207 164 373 190 217 222 264 310 246 235 243 215 265 288 219 212 297 251 239 213 321 264 238 283 222 239 320 125 245 256 181 229 272 195 175 237 169 173 226 173 177 172 166 293 320 212 279 252 238 282 207 191 167 220 272 263 193 243 259 317 260 238 281 236 321 220 215 275 201 271 266 269 222 148 240 271 252 233 313 192 296 192 130 352 244 242 193 241 261 207 207 264 195 356 162 212 231 257 267 241 229 175 257 219 220 226 233 319 284 211 208 315 248 264 261 217 286 183 225 249 304 228 264 176 235 241 244 280 205 210 247 219 245 316 275 236 221 230 244 215 236 222 227 288 234 203 169 189 181 250 249 178 285 265 225 298 235 244 215 216 357 211 172 169 272 292 205 217 202 175 302 263 227 250 134 257 260 316 216 188 181 325 157 241 223 294 275 298 333 190 250 269 211 295 296 232 250 182 204 172 187 241 196 225 171 266 280 243 283 331 254 319 267 281 204 231 212 239 227 269 289 375 246 225 324 184 260 167 239 193 302 212 238 188 287 246 192 270 226 188 219 255 169 209 227 198 181 195 231 234 230 255 264 219 228 165 190 192 282 214 201 287 237 281 281 169 197 242 297 252 217 236 250 341 264 202 246 301 317 196 230 258 254 164 270 237 307 263 258 227 161 205 292 271 197 259 290 370 251 208 245 233 219 190 326 247 235 255 272 314 272 289 254 218 191 178 252 204 259 237 214 317 171 322 197 363 163 212 277 269 248 213 248 260 194 225 249 147 174 273 256 251 286 296 253 213 234 323 197 288 268 215 241 137 230 302 277 301 280 250 256 249 232 177 221 263 249 149 172 306 185 346 230 240 312 250 276 222 230 182 180 263 294 170 254 212 263 300 201 245 238 259 234 209 179 247 180 217 239 182 165 188 236 198 201 303 211 216 279 265 212 290 356 305 368 250 201 210 285 281 244 218 203 222 236 220 270 260 191 253 236 263 206 254 184 256 178 244 203 258 311 341 222 303 216 235 294 267 239 234 246 260 238 274 228 216 318 267 239 305 326 254 261 212 247 200 174 251 288 246 251 284 296 260 259 331 181 213 249 222 207 300 212 264 292 307 293 187 271 261 255 262 225 363 273 247 373 220 223 253 251 205 193 270 198 286 299 276 369 278 273 217 282 299 175 182 281 210 210 183 312 279 194 266 264 167 262 257 238 199 240 258 242 212 236 284 225 248 195 266 322 239 217 287 166 165 215 315 247 219 240 187 279 297 215 270 261 151 266 263 309 209 170 289 201 354 176 231 200 296 301 246 241 145 328 212 212 236 185 262 267 156 248 205 225 206 269 352 275 183 331 260 256 243 210 305 223 343 238 145 194 291 205 280 245 285 183 235 228 324 259 408 333 275 230 274 273 197 255 238 258 221 187 191 252 206 334 233 175 276 281 240 214 188 251 207 200 319 259 296 176 237 195 184 267 219 226 256 236 299 207 212 277 294 224 241 218 195 225 299 163 228 228 309 199 227 217 220 292 215 246 280 246 232 199 301 250 259 232 264 188 242 303 238 252 319 231 274 199 310 270 234 232 180 234 199 260 254 259 232 211 218 224 246 218 276 222 181 249 220 332 237 221 233 246 206 269 214 241 279 196 161 228 238 232 248 194 178 279 200 205 172 213 299 266 248 238 202 258 168 269 235 244 237 187 227 259 338 255 214 194 208 250 250 208 196 216 263 239 250 217 296 190 261 173 202 373 247 148 187 233 202 199 216 295 318 271 250 201 298 226 235 227 239 222 231 201 266 285 248 258 293 201 232 271 225 187 264 318 186 325 203 296 273 157 182 251 324 253 225 302 249 305 215 297 239 245 260 188 260 194 222 266 237 274 257 167 360 254 317 186 243 203 229 212 271 172 294 280 303 190 240 213 300 276 285 200 246 209 217 134 252 248 196 181 249 178 254 280 315 277 214 254 231 326 229 248 277 248 264 246 253 244 211 222 254 206 337 238 262 202 243 328 186 280 257 217 339 217 171 213 252 315 318 259 311 326 181 257 232 259 251 286 265 202 253 194 263 277 204 264 258 216 269 333 205 241 306 311 292 271 236 204 184 318 250 226 258 250 261 269 182 303 218 185 239 212 233 187 214 281 173 263 284 180 269 221 281 262 235 255 265 225 277 295 241 311 244 305 244 216 214 202 199 227 210 230 250 158 227 186 344 280 271 176 218 147 192 234 255 198 153 235 211 232 133 312 175 246 336 165 214 215 258 181 184 269 262 266 218 332 242 256 239 269 255 251 212 210 220 259 260 172 170 184 127 347 233 212 235 257 130 253 212 255 226 239 226 352 210 207 301 176 239 190 229 283 262 173 237 252 254 203 181 172 201 259 267 252 329 244 210 169 186 152 207 296 205 199 255 189 298 158 218 261 172 318 124 232 261 248 221 333 264 306 214 205 185 280 229 201 201 207 286 205 288 261 300 223 180 193 264 263 199 218 263 256 217 196 231 207 217 311 244 253 228 235 166 176 305 174 199 285 166 192 306 248 251 214 210 193 216 254 324 173 236 202 206 223 205 195 203 112 269 212 185 195 160 218 171 302 267 305 273 262 309 261 226 243 256 193 219 290 190 223 210 187 245 209 260 179 220 208 259 308 157 238 248 186 260 149 168 189 214 264 230 217 218 274 139 319 148 197 189 237 230 200 219 290 247 210 163 285 253 345 273 284 305 256 306 207 206 308 247 211 189 215 214 155 273 190 297 188 226 264 311 238 264 148 188 274 292 259 180 206 225 293 181 244 248 258 283 182 206 145 228 267 274 245 239 173 173 218 251 165 225 237 276 304 160 255 267 307 240 268 206 273 319 222 182 166 203 216 213 297 191 151 198 219 276 219 188 176 277 245 283 156 317 172 183 232 297 221 337 353 152 160 248 226 141 199 222 246 329 167 243 176 199 190 175 230 261 199 273 272 317 193 262 210 200 170 259 289 180 248 251 329 275 269 186 219 236 217 230 248 175 185 251 269 261 174 212 230 271 239 159 227 233 258 224 244 267 223 163 151 287 228 167 276 189 264 188 229 227 282 213 274 216 196 212 280 220 246 281 252 307 227 239 342 249 235 202 252 302 181 168 228 99 221 290 344 298 173 241 196 228 193 228 193 144 256 226 220 179 230 210 171 207 263 301 79 178 273 273 226 226 271 230 236 233 234 276 237 254 167 277 221 210 246 198 264 210 218 250 263 248 230 276 352 263 266 149 203 216 224 222 302 187 294 227 337 263 223 274 238 245 232 247 255 303 261 221 223 223 283 278 289 172 255 201 272 186 270 274 240 238 210 222 242 243 276 193 238 154 338 267 159 323 214 222 343 196 331 215 221 142 188 278 265 224 175 272 299 241 291 244 281 233 243 223 225 227 254 241 275 179 322 290 235 265 171 245 231 229 220 299 275 290 165 194 305 301 264 259 233 324 260 284 237 210 234 331 225 199 253 214 239 236 189 277 206 240 262 205 278 275 254 338 251 229 256 104 324 204 227 208 186 252 276 280 298 259 254 185 193 248 174 323 255 220 232 307 246 321 228 216 277 226 173 260 279 212 301 228 251 257 218 333 233 231 160 221 227 245 167 281 271 235 247 241 200 280 333 230 239 224 219 166 232 188 187 172 268 232 167 259 190 253 349 261 251 222 201 176 274 254 213 229 152 273 291 240 244 226 276 208 185 198 300 177 278 348 279 211 262 211 201 269 297 242 294 234 246 218 285 178 201 247 228 199 187 231 273 267 322 275 290 281 206 248 226 256 338 294 281 182 224 186 232 300 164 249 266 332 222 267 222 239 181 250 242 235 242 168 195 220 245 197 192 231 239 256 172 240 269 240 295 247 246 286 254 217 225 271 225 217 217 281 303 215 294 230 213 270 247 269 182 191 264 270 311 214 242 265 205 208 272 305 280 218 329 201 255 242 209 229 334 278 187 356 199 244 254 180 242 285 227 174 300 225 291 217 165 349 193 262 219 208 249 295 303 213 153 258 176 135 286 188 273 240 236 255 287 290 325 310 248 262 185 237 289 200 227 211 278 252 236 260 264 313 229 171 252 178 204 269 232 209 254 227 232 227 255 245 203 233 216 250 221 269 364 142 200 231 209 158 328 312 270 207 266 281 247 220 251 301 295 178 244 230 258 299 188 312 258 289 205 217 199 282 209 304 212 265 272 246 193 268 274 203 170 195 211 276 206 219 248 261 132 215 202 223 253 189 334 228 224 237 271 210 283 272 271 230 291 160 208 344 189 266 274 279 220 293 256 274 165 213 173 233 245 207 269 252 230 217 140 306 164 220 269 218 201 285 223 241 152 341 259 309 234 185 203 254 251 30</t>
+  </si>
+  <si>
+    <t>GAM(0.46476843597785567, -2.2260429500742734e-21, 1.2227419131601605)</t>
+  </si>
+  <si>
+    <t>2 1 2 2 0 1 1 2 1 0 1 0 1 0 0 2 1 1 2 2 1 1 2 1 2 1 1 0 2 1 0 2 2 1 0 2 2 1 0 3 1 2 3 0 0 0 1 3 0 1 3 2 2 1 1 2 2 3 0 1 2 2 2 1 1 3 1 1 2 2 1 1 2 3 0 1 3 3 1 1 1 0 1 0 1 2 2 1 1 1 2 2 1 1 1 4 0 2 1 0 0 1 0 0 1 0 1 1 2 2 3 2 1 0 2 0 1 0 1 0 0 1 1 2 2 3 1 1 1 3 0 1 1 0 0 0 1 2 3 1 0 1 1 3 2 0 0 1 0 0 1 0 1 1 1 2 1 1 1 1 1 0 1 1 3 2 1 1 0 1 1 1 1 2 2 2 1 0 0 1 1 4 1 0 2 1 2 1 0 0 1 2 2 2 1 1 0 1 0 2 0 2 1 0 0 0 1 1 2 2 1 1 0 0 1 1 0 1 1 2 2 1 2 0 1 2 1 1 0 1 1 2 3 0 0 3 1 0 1 1 0 2 1 1 2 3 0 2 1 1 3 0 0 0 0 1 0 2 2 0 0 2 1 0 1 1 0 1 2 0 1 1 1 1 0 0 4 0 1 1 1 2 1 1 1 1 2 2 0 1 0 0 1 3 2 2 1 2 2 2 1 2 1 0 2 1 1 1 2 1 3 0 3 0 1 1 0 2 3 1 2 0 0 0 1 2 1 0 2 3 4 1 1 1 1 0 1 1 0 0 0 1 4 1 4 2 1 1 1 0 0 1 0 1 0 1 0 2 1 0 1 3 5 1 1 2 1 0 4 0 1 0 2 1 0 1 0 1 1 2 3 1 0 0 0 2 1 3 0 0 1 1 0 0 1 0 4 1 2 1 0 1 2 0 1 0 1 1 1 0 2 1 1 2 1 1 2 1 2 1 3 1 3 3 1 0 2 1 0 1 1 1 2 1 3 1 2 0 1 4 1 0 1 3 2 0 1 1 0 2 0 1 0 1 0 2 0 0 1 1 1 1 1 1 2 1 0 1 1 2 2 0 2 1 2 2 2 0 1 0 1 1 0 1 0 1 1 2 0 1 2 3 1 1 0 0 1 2 3 2 1 3 1 0 1 2 2 1 0 1 2 1 2 1 3 0 0 0 0 2 1 1 0 1 0 2 1 1 2 0 1 1 1 2 0 1 2 1 0 0 1 2 1 2 0 0 1 2 0 2 0 2 2 2 1 2 3 1 0 1 2 1 0 3 0 1 2 1 2 2 1 2 1 1 0 1 0 2 0 2 2 1 2 0 0 1 2 2 2 1 2 0 1 0 0 3 2 0 2 0 1 0 1 0 1 2 0 1 1 2 1 1 2 1 1 0 2 2 1 2 1 3 1 2 0 1 3 1 1 1 0 1 0 1 2 1 1 0 1 1 1 2 1 1 0 2 0 2 0 1 0 0 1 1 1 1 0 0 1 2 0 1 0 1 2 1 2 0 3 0 1 1 2 0 1 1 1 1 0 1 1 2 2 1 2 1 1 1 1 3 2 2 2 0 1 0 2 2 2 1 2 2 3 3 0 1 1 1 2 0 0 0 1 2 3 1 1 2 3 1 1 0 2 1 0 0 1 1 1 2 1 1 1 1 1 2 1 1 2 1 0 1 1 0 2 2 2 1 2 0 1 0 0 3 1 0 3 1 1 1 1 1 3 1 0 1 1 1 1 0 3 0 0 0 2 0 1 4 0 0 1 1 3 0 1 0 1 2 2 2 1 3 1 0 0 1 0 1 1 1 1 1 2 0 1 3 2 0 2 0 1 2 1 1 2 1 0 3 2 0 0 1 1 1 2 0 0 1 0 1 1 2 3 2 1 2 0 1 1 1 0 1 4 1 0 1 2 1 2 2 1 2 2 0 3 0 0 1 0 1 2 1 1 0 1 2 4 3 2 2 1 1 1 2 2 0 0 1 0 2 2 1 2 2 1 3 0 2 1 1 1 2 1 1 3 1 1 1 1 1 2 3 3 1 2 0 2 1 3 2 2 1 2 0 4 2 1 0 1 0 1 2 1 1 2 1 1 1 1 3 0 2 2 1 1 1 2 1 1 1 0 3 0 2 1 2 1 1 0 1 3 0 1 2 1 1 2 2 2 0 1 3 1 1 2 1 1 0 0 2 1 1 2 1 2 1 1 0 0 0 1 3 2 1 0 1 2 1 1 1 1 3 1 2 1 3 0 1 2 1 2 0 1 0 1 1 0 1 3 3 1 1 3 2 2 2 1 0 2 1 1 1 1 2 2 1 3 1 3 1 2 2 0 2 0 1 2 0 1 2 2 2 0 0 0 1 3 0 1 2 1 2 0 1 2 0 1 2 1 2 1 1 0 0 0 2 2 1 3 1 3 0 0 0 1 2 2 2 0 2 2 2 2 3 0 1 1 1 1 0 1 0 1 0 2 1 0 0 1 3 0 1 2 2 3 2 3 1 2 1 3 2 0 1 2 1 0 1 1 1 2 1 1 0 1 1 1 1 2 2 2 2 0 0 0 1 1 1 3 2 1 1 1 1 2 1 1 2 2 2 1 0 3 0 2 3 1 0 0 2 1 0 2 1 2 0 1 1 2 1 1 1 0 4 2 0 1 1 2 0 1 1 1 1 1 2 0 1 0 3 0 0 1 1 3 1 1 1 1 1 3 2 0 0 1 1 2 0 0 2 4 2 0 1 2 2 1 3 0 2 1 1 0 3 1 0 2 1 0 6 2 1 2 1 2 2 3 1 4 0 2 1 1 2 0 1 2 2 1 1 2 0 1 2 1 1 1 1 2 0 1 1 0 0 2 2 1 1 1 1 1 2 0 0 3 1 2 0 2 0 1 2 2 0 0 2 1 2 0 1 1 1 1 0 3 3 0 0 2 3 2 2 1 1 0 1 2 3 0 1 1 1 1 1 1 1 0 0 2 2 2 2 2 1 2 2 0 3 2 1 1 0 2 0 0 1 2 3 2 1 1 1 1 0 1 1 1 0 0 2 1 0 2 3 0 1 1 1 1 2 1 0 1 0 0 2 2 1 2 0 1 1 1 2 2 1 2 1 1 2 2 2 1 0 1 1 1 1 1 0 1 0 2 0 1 0 1 1 0 2 0 1 2 1 1 2 1 1 1 0 0 1 1 1 1 1 2 0 2 0 2 0 3 1 1 3 0 0 2 0 1 0 0 1 0 1 1 2 1 1 1 1 1 1 1 0 0 1 3 0 1 1 1 1 1 3 3 1 1 2 1 1 0 0 1 1 1 0 1 2 1 0 2 2 0 0 2 3 0 3 0 1 1 1 1 1 1 1 0 2 2 1 1 1 3 1 1 2 0 0 0 0 1 3 1 3 0 2 2 2 4 1 2 0 1 0 1 1 1 1 1 2 1 1 0 1 0 2 2 2 1 3 0 1 1 1 1 1 2 1 0 3 2 3 3 2 1 0 0 0 1 1 0 2 1 0 2 6 1 1 2 1 0 2 1 3 1 1 1 1 2 3 1 0 0 2 1 1 2 2 2 2 2 0 0 1 0 2 2 0 0 1 1 1 0 0 0 1 1 2 0 1 0 2 1 2 0 1 1 0 3 4 0 2 0 3 3 1 0 2 2 0 3 0 1 1 2 1 1 1 1 1 1 2 0 3 2 2 2 0 2 1 2 1 1 0 1 2 1 1 1 2 1 1 1 3 2 1 1 2 3 1 1 1 4 2 2 1 1 2 2 0 2 1 0 1 2 1 2 2 1 0 1 1 2 2 1 1 1 1 3 0 1 1 0 2 0 0 0 2 1 0 1 1 2 1 1 1 1 1 0 2 2 2 0 0 1 0 1 0 0 1 1 2 1 2 3 0 0 3 0 1 3 1 1 0 1 3 1 1 2 0 2 0 0 1 0 2 1 0 2 0 2 1 1 0 2 0 3 1 1 2 1 3 1 0 2 1 2 1 3 0 0 1 0 1 2 2 1 3 1 3 2 2 1 0 2 3 1 0 1 3 2 1 2 1 0 1 2 1 1 1 1 0 1 2 2 2 0 3 0 0 0 3 0 1 2 2 2 2 1 2 1 1 1 3 1 1 0 3 0 1 0 1 1 3 2 2 2 2 0 1 1 1 0 1 1 0 1 1 0 1 1 1 1 0 0 2 1 0 1 2 1 0 1 1 0 0 0 1 2 0 2 1 1 1 1 2 2 0 2 1 1 1 1 2 1 1 3 0 3 1 2 2 1 1 2 1 0 1 2 1 1 0 1 2 2 2 0 1 0 1 0 1 0 1 2 1 1 0 2 3 1 2 0 1 1 0 2 2 1 1 1 0 2 1 1 1 1 1 2 1 0 0 0 2 2 2 1 1 1 0 0 2 2 1 1 1 1 1 0 1 1 1 0 3 1 1 2 1 2 3 2 1 1 3 1 2 0 0 2 0 0 1 2 0 3 3 0 1 2 0 0 0 1 0 1 1 0 3 0 1 1 1 1 0 0 0 2 0 1 1 2 0 1 1 2 1 1 2 2 2 1 1 0 0 0 1 1 0 0 0 1 3 1 1 2 1 2 0 2 1 0 1 1 0 2 0 1 1 1 1 0 3 1 1 0 2 1 2 2 2 2 1 0 3 0 0 1 2 1 2 0 0 1 2 1 2 2 1 1 2 1 2 0 2 0 2 1 2 3 0 1 2 2 1 1 1 1 0 1 3 2 1 1 1 1 3 1 0 2 2 1 2 1 1 4 1 0 1 0 2 1 0 0 3 1 0 1 0 3 0 1 1 4 1 0 1 1 2 2 2 1 1 2 2 0 2 0 1 0 2 2 1 1 0 0 2 1 1 1 2 0 1 2 2 2 0 2 0 2 1 1 1 1 2 1 1 1 0 2 2 2 2 3 0 2 0 2 3 1 2 3 1 2 2 0 1 1 0 3 2 0 2 1 1 1 1 2 0 0 0 0 3 1 2 2 2 3 3 1 1 0 1 1 0 2 0 0 0 1 2 0 2 1 1 0 0 2 2 1 2 1 1 1 1 0 1 1 2 1 3 1 1 1 2 1 2 1 1 2 1 2 3 0 2 3 0 2 1 2 1 3 1 3 1 0 2 2 1 2 0 0 3 3 1 0 1 0 1 1 1 2 1 1 2 1 1 1 1 2 0 4 1 1 0 0 0 0 1 2 1 1 1 1 2 0 2 2 1 1 1 1 1 1 2 1 1 2 0 1 3 1 1 0 0 1 1 3 2 2 0 2 1 0 0 1 1 0 0 1 0 3 1 1 0 1 0 1 1 2 1 0 3 0 1 1 1 2 1 4 0 2 0 1 2 0 2 1 0 1 2 0 3 1 2 2 0 0 1 2 0 1 3 3 1 2 0 1 2 1 1 2 2 0 1 1 1 4 3 2 1 2 2 2 2 1 2 1 2 2 1 0 1 2 2 2 1 0 3 1 1 2 2 0 0 1 0 3 1 1 0 1 1 0 1 1 1 1 2 3 0 2 1 1 1 2 1 1 1 1 0 1 1 1 1 3 2 0 1 4 1 1 1 1 0 0 2 1 2 0 0 1 1 0 1 2 1 0 2 0 1 1 1 2 0 1 1 0 0 1 0 2 2 0 2 2 1 3 1 2 0 2 1 0 1 1 2 2 0 1 0 2 1 1 3 2 0 0 2 2 1 1 2 1 1 0 1 1 1 2 4 1 0 2 0 2 0 3 1 2 2 2 1 1 1 2 1 1 2 0 3 2 1 1 1 1 1 1 1 0 3 1 2 1 2 2 0 1 3 2 2 0 1 2 1 0 1 3 1 0 0 1 0 1 0 2 2 0 0 1 1 1 1 1 1 1 1 1 2 1 0 3 3 1 1 2 3 0 0 2 2 1 0 1 1 1 3 1 0 2 1 1 3 2 2 3 0 1 0 1 1 0 1 1 2 2 2 0 1 0 3 0 2 3 0 0 1 2 1 0 3 1 0 1 2 1 1 1 0 1 0 0 1 1 1 1 0 1 0 2 1 1 0 1 1 1 1 1 2 2 0 0 1 1 1 1 1 0 3 0 2 2 1 1 2 0 1 1 2 1 1 1 1 1 2 2 3 1 0 3 2 2 0 2 0 0 0 1 1 0 2 2 0 1 2 1 0 2 2 1 2 3 1 1 3 2 0 0 1 1 0 1 2 2 0 3 0 1 2 2 1 1 1 0 3 1 1 2 1 0 1 0 1 0 3 2 0 1 0 1 0 0 2 2 0 0 2 1 4 1 1 1 0 1 1 2 1 0 1 1 0 2 2 0 0 1 1 2 0 2 3 0 2 1 2 1 2 2 2 2 0 2 2 1 1 1 0 1 0 0 0 3 2 2 1 1 3 0 2 1 2 1 2 0 1 0 2 1 0 2 2 1 1 0 1 0 0 0 3 3 0 0 2 2 3 2 1 1 0 1 1 3 0 1 2 0 3 1 0 1 1 2 1 0 2 3 2 3 1 2 3 1 1 1 0 2 1 0 0 2 0 0 2 1 3 1 0 2 2 4 0 1 2 0 1 1 0 1 1 0 2 2 1 1 2 0 0 1 1 0 3 2 0 2 1 0 2 0 1 0 0 1 2 1 0 3 1 0 3 2 2 2 0 0 2 2 1 1 3 0 2 2 0 2 0 2 0 2 1 2 1 2 1 0 2 2 1 1 2 2 2 1 1 3 3 1 0 2 3 1 0 2 0 2 2 1 1 1 1 1 1 1 2 2 2 1 0 1 0 1 2 1 1 1 1 3 1 1 2 1 1 1 2 0 2 1 1 0 1 0 4 0 2 2 2 0 0 1 1 2 0 0 0 0 1 3 1 1 0 2 2 3 2 1 2 2 1 1 1 0 0 0 1 1 1 2 0 2 0 0 3 2 1 1 1 1 1 2 1 1 2 3 0 2 1 0 2 0 2 1 2 2 2 1 1 1 1 1 2 0 3 1 2 1 1 3 0 2 1 1 1 2 1 3 2 2 0 3 0 1 1 2 1 1 3 2 0 2 2 2 1 0 1 2 1 1 2 1 2 0 0 2 2 1 1 1 0 2 1 1 0 2 1 0 0 3 0 2 2 3 0 2 1 1 3 2 1 0 1 2 0 2 2 2 0 1 1 0 2 1 2 3 1 1 2 0 1 0 1 1 2 3 1 0 1 2 1 0 2 1 1 2 0 2 1 1 2 2 1 0 2 0 2 0 1 2 1 1 0 0 1 1 1 2 1 3 2 2 2 1 1 1 1 2 1 2 1 1 1 1 1 2 1 1 0 0 3 2 1 1 0 2 1 2 2 1 1 1 1 2 1 4 0 0 1 2 0 2 0 1 1 3 3 1 1 1 1 0 0 0 3 1 1 0 2 1 2 1 1 2 3 1 1 1 0 1 0 1 2 3 1 1 1 2 0 2 1 2 0 0 1 2 1 2 1 0 2 2 1 2 3 1 2 3 1 2 2 1 1 1 1 3 1 1 1 2 1 3 2 2 0 1 3 1 1 1 1 0 2 1 3 1 3 0 2 1 1 2 3 0 3 0 0 1 1 1 0 1 0 2 2 3 3 0 1 0 1 1 2 1 3 1 4 0 2 0 0 1 1 0 1 3 2 2 1 0 2 1 1 2 1 2 3 1 2 1 1 1 2 1 1 1 2 1 2 0 2 2 0 1 2 2 1 1 2 1 2 1 2 0 1 0 1 1 1 3 4 1 1 0 1 0 1 0 2 2 0 1 2 1 0 1 2 2 1 1 3 0 1 1 3 2 2 3 2 1 1 2 2 0 1 0 0 1 1 1 1 1 1 2 2 2 7 1 1 2 0 1 1 3 2 1 2 0 0 2 2 0 1 2 2 2 1 1 1 2 1 3 1 2 2 1 1 1 1 2 0 0 2 3 0 2 3 1 0 0 3 2 1 0 0 0 2 2 2 0 1 1 0 1 1 0 1 0 1 0 1 2 1 0 2 2 0 2 1 1 1 1 0 2 1 1 2 2 4 2 3 1 0 1 1 0 1 2 2 1 0 2 1 2 1 1 1 1 2 0 4 2 0 0 0 1 0 1 1 1 0 0 2 3 1 3 2 2 2 4 1 1 1 0 1 1 1 1 0 1 1 3 1 1 0 2 1 1 0 1 0 0 1 2 1 1 3 2 1 0 0 0 1 2 2 0 2 0 0 1 2 0 0 2 0 1 0 0 2 2 1 0 1 2 2 1 0 2 2 1 1 1 2 1 2 2 2 0 1 2 3 0 1 0 2 1 2 2 2 1 1 1 0 2 3 2 1 1 0 0 1 0 3 2 0 0 0 0 0 1 0 0 1 1 1 2 1 0 5 1 1 1 1 1 1 2 4 2 0 1 2 0 1 1 0 2 1 2 1 0 0 1 0 1 2 0 0 2 1 2 0 0 1 1 2 2 3 0 0 2 1 2 1 3 2 1 2 1 2 1 3 2 3 0 1 0 1 0 2 1 1 2 1 1 1 1 2 1 3 1 1 0 0 2 3 1 1 0 0 1 1 0 1 0 1 1 2 1 3 0 2 0 0 1 2 1 2 2 2 3 2 2 2 3 1 2 1 1 0 2 2 1 0 1 3 2 3 0 0 0 2 2 2 2 0 1 0 1 1 3 1 1 0 2 2 3 2 0 1 2 1 1 2 1 1 1 0 1 1 2 1 2 1 0 0 0 0 1 2 0 0 5 2 1 1 1 1 1 2 0 3 2 1 2 2 2 2 1 1 2 2 1 0 3 1 1 1 3 2 3 3 0 1 1 2 2 1 2 1 1 1 1 1 2 2 1 2 1 0 2 2 1 3 1 2 3 0 1 2 1 0 1 0 2 1 1 2 0 2 1 1 2 1 0 0 2 2 1 1 1 3 2 0 2 1 2 0 1 1 0 0 1 3 0 0 1 2 1 1 1 0 0 0 0 0 3 0 1 2 1 0 2 0 1 1 0 2 1 1 1 1 0 1 1 0 1 1 2 1 1 2 1 1 2 0 3 2 2 1 2 2 1 3 0 0 2 1 1 1 2 1 1 0 1 2 1 1 1 0 1 0 1 1 1 0 3 1 0 0 0 2 1 2 1 1 1 1 1 1 0 1 2 1 1 1 0 2 3 0 2 1 1 1 1 2 2 2 1 1 1 1 2 2 1 2 1 2 2 2 2 2 1 2 0 1 2 1 3 1 0 0 1 2 1 0 1 0 2 2 1 1 0 1 0 1 2 3 1 3 0 0 0 0 2 1 1 1 2 3 2 3 2 2 2 0 0 3 1 0 2 1 1 0 0 2 0 1 1 3 1 1 3 2 2 0 2 2 2 1 1 3 2 0 1 2 3 1 3 1 1 0 1 2 1 1 0 2 1 1 2 0 0 1 1 1 2 1 1 4 2 4 3 0 2 1 1 1 1 2 0 0 2 2 2 2 1 3 1 0 1 1 1 2 1 1 0 2 2 0 2 2 0 2 2 1 0 1 1 1 2 1 0 1 2 2 1 1 0 3 2 3 1 1 0 0 1 2 3 0 0 1 0 3 2 2 3 1 2 1 2 0 1 2 1 0 0 0 2 1 0 1 1 3 1 0 1 3 2 3 3 0 1 1 2 2 2 0 1 1 1 1 1 2 2 1 1 2 0 1 2 2 2 2 1 0 3 1 3 2 4 0 2 1 1 2 0 1 1 0 0 0 3 0 0 2 0 3 1 2 1 0 0 0 0 1 1 0 2 3 3 3 1 2 2 1 3 3 1 1 0 2 0 1 1 4 2 1 0 1 1 1 1 1 1 3 1 3 0 1 1 2 2 2 0 1 2 1 2 2 0 0 0 0 3 0 1 2 2 0 1 1 2 2 3 2 1 1 1 1 1 4 2 1 1 1 2 1 1 0 1 0 1 0 1 1 2 1 1 2 3 2 3 0 1 2 1 0 1 1 2 1 2 1 0 1 1 2 1 1 2 2 4 1 1 3 4 2 2 1 0 1 1 1 0 1 2 2 0 0 3 0 2 3 1 1 1 2 0 2 1 2 1 0 2 1 0 1 1 1 2 1 0 2 5 0 2 1 0 3 2 1 1 2 1 1 3 1 0 2 0 1 1 2 0 2 2 2 0 3 0 0 0 2 1 1 2 1 2 1 2 3 2 0 0 2 0 1 1 1 3 1 3 1 1 1 1 2 1 2 2 2 0 2 0 0 1 1 0 1 3 1 2 3 0 2 3 1 2 1 1 1 1 1 1 2 1 2 3 2 1 2 3 0 0 1 1 3 0 1 1 2 2 0 2 0 2 2 1 1 0 1 2 1 1 1 1 0 1 1 3 2 0 1 2 2 0 1 2 1 1 2 3 1 2 1 2 0 0 0 2 0 1 1 1 1 1 2 1 2 2 2 1 3 2 1 1 1 1 0 1 1 1 2 1 0 0 1 1 0 0 1 3 1 2 0 1 1 4 2 1 1 1 2 2 0 3 0 2 1 0 3 2 2 1 0 1 0 1 2 1 2 3 2 2 0 1 0 1 2 2 1 0 3 1 1 1 1 1 0 2 2 1 3 1 2 2 3 1 2 1 1 1 1 1 0 2 1 1 0 1 2 0 1 1 2 1 0 2 1 2 2 1 0 2 1 3 1 0 0 0 2 1 1 1 0 2 1 1 3 1 1 1 1 3 1 1 1 2 0 1 1 0 1 0 0 1 2 1 2 1 1 0 2 0 2 1 1 4 1 2 0 2 2 1 2 1 0 1 1 0 3 1 1 2 2 0 2 0 1 1 1 0 0 2 0 2 2 3 2 1 1 0 1 2 0 1 2 2 2 1 3 3 3 1 0 2 2 0 1 0 1 2 1 0 1 1 2 3 1 3 2 1 0 2 2 3 2 1 0 0 1 0 1 0 2 0 1 1 1 1 2 1 2 1 2 0 1 1 1 3 2 1 1 0 1 0 3 0 2 0 2 1 1 1 0 2 0 2 2 1 2 1 0 0 0 2 2 3 0 0 0 2 2 1 0 0 3 2 1 0 1 0 1 1 0 1 1 1 2 1 2 1 1 0 2 1 1 1 1 1 1 2 0 1 2 2 2 0 2 0 1 2 1 1 2 1 1 3 0 0 0 1 2 2 1 1 0 2 1 1 1 2 1 0 1 2 1 1 2 1 0 1 2 2 2 1 0 2 1 1 1 2 1 1 0 2 3 1 2 1 1 2 2 2 3 1 2 1 2 2 1 1 2 1 1 0 0 2 1 1 2 3 1 1 1 2 3 1 1 0 0 0 0 1 0 1 2 2 1 2 1 1 0 2 0 2 0 0 2 1 2 1 2 2 0 1 0 1 3 3 1 3 0 0 2 2 1 0 2 1 1 1 3 2 1 0 3 2 0 1 2 2 0 0 1 1 3 1 0 1 0 1 4 1 1 2 1 0 1 1 0 1 2 1 1 0 1 1 1 1 1 0 0 0 1 1 2 0 0 1 2 0 2 2 1 1 0 2 1 2 1 1 1 1 2 4 1 0 2 0 3 2 1 3 2 2 1 1 1 1 0 2 1 0 1 1 0 0 2 1 2 1 1 3 3 1 2 2 2 2 2 3 1 0 1 2 2 5 1 3 4 1 2 2 1 2 0 2 1 1 0 0 2 2 1 1 1 2 1 2 3 0 0 2 2 0 0 1 1 0 1 1 0 1 2 2 2 0 1 0 2 1 0 2 2 0 2 2 1 1 2 0 2 1 1 2 1 0 2 2 1 1 2 2 1 0 2 0 2 1 2 2 0 3 0 2 0 0 1 2 0 1 2 1 0 0 4 1 1 1 0 1 1 2 2 2 1 1 1 0 0 0 2 1 2 2 2 2 3 2 3 2 0 0 1 1 1 3 0 2 1 1 0 1 0 1 0 3 1 3 2 0 0 1 1 1 2 1 0 0 2 0 2 1 1 2 2 0 1 1 1 2 3 1 2 2 2 0 2 1 1 2 2 2 0 1 2 1 0 3 0 1 0 0 0 0 3 2 2 1 1 0 1 1 0 1 3 0 1 1 3 1 0 1 0 2 0 2 1 1 0 1 0 2 2 2 1 1 1 3 2 2 3 1 1 2 1 1 1 2 2 2 0 1 1 0 1 1 2 2 2 3 2 1 0 1 1 3 1 0 0 1 1 0 2 0 0 1 0 1 2 0 1 1 1 1 3 0 2 1 0 1 2 0 0 1 0 0 2 1 1 2 1 1 0 0 1 1 1 1 1 2 0 2 1 0 2 1 1 1 2 1 2 0 2 4 2 2 2 1 3 2 2 0 1 1 2 1 1 0 1 1 2 1 1 1 2 0 1 1 1 1 1 1 0 0 1 0 1 1 1 1 0 1 0 0 2 1 3 1 1 0 1 1 2 1 3 2 1 1 1 0 0 0 1 1 3 0 1 1 0 1 0 1 1 2 1 1 1 2 0 1 0 1 2 1 1 1 1 1 2 2 0 2 2 2 0 3 2 2 0 2 1 1 2 0 5 2 2 1 1 3 0 0 1 2 1 2 0 2 2 2 1 1 1 1 2 2 2 1 4 0 1 1 2 0 2 2 1 1 2 2 1 1 1 1 2 1 0 2 2 2 1 1 1 0 1 0 0 0 1 1 1 1 2 1 2 1 2 1 0 3 0 1 1 0 1 3 2 3 1 1 2 1 0 2 1 1 2 1 1 1 1 2 1 3 1 2 2 1 2 1 2 3 3 0 1 2 1 2 1 2 1 2 2 3 2 1 0 2 1 0 2 1 2 1 0 1 2 1 1 2 0 1 0 0 0 0 2 2 2 1 0 0 0 0 1 0 1 1 3 1 1 2 0 3 2 0 2 3 1 1 2 3 0 1 1 2 0 0 1 2 1 2 2 2 1 2 2 1 3 4 0 2 1 2 0 1 2 2 1 1 2 1 2 1 1 2 0 1 1 1 1 1 1 1 2 2 0 2 1 2 1 2 2 1 2 1 3 0 0 0 0 3 2 3 0 1 2 0 1 2 1 1 0 0 1 1 1 2 0 0 1 0 1 3 0 2 0 0 2 1 3 0 1 2 0 0 1 0 2 1 1 2 1 1 1 0 1 1 2 1 1 1 1 3 2 1 2 0 2 3 1 0 2 1 1 1 2 1 3 2 0 0 1 2 0 1 1 0 1 2 2 2 3 1 1 0 1 1 2 0 2 0 1 0 1 0 2 2 1 2 3 3 1 1 0 0 0 2 1 2 1 0 0 0 1 2 4 1 1 1 2 1 2 2 2 3 0 0 0 1 0 1 2 1 1 1 2 1 1 0 2 0 3 1 2 1 2 1 4 2 0 1 1 2 1 1 1 1 1 2 0 2 2 0 3 0 2 1 3 1 1 0 1 2 2 2 1 1 1 2 2 1 1 1 2 1 1 1 1 2 1 2 1 1 2 2 1 1 1 1 1 1 2 2 2 1 0 1 1 2 1 2 1 2 0 3 1 1 3 0 1 1 3 0 1 2 2 2 0 1 1 1 1 2 1 1 2 0 1 1 0 0 2 1 1 2 0 2 1 2 2 0 2 2 1 2 0 1 1 2 1 4 1 1 1 2 1 2 2 2 1 1 1 2 3 1 2 1 1 3 3 1 2 0 2 1 2 3 3 2 1 1 2 0 1 2 3 4 3 1 3 1 1 2 0 1 1 2 1 1 0 2 1 2 1 3 1 1 1 3 0 1 2 2 1 2 1 0 1 0 1 4 1 1 3 1 1 1 1 0 0 2 1 1 2 0 2 2 2 0 3 3 1 1 1 0 1 2 1 1 1 0 2 1 1 2 0 0 1 1 0 1 1 1 2 0 2 1 1 2 2 0 2 0 1 0 2 2 1 2 0 0 0 0 2 1 0 0 1 1 0 1 1 2 0 1 0 0 2 2 0 0 0 4 2 1 2 0 1 2 1 2 0 1 0 0 2 0 1 1 1 1 3 0 0 2 3 2 1 2 2 2 0 2 0 0 2 2 0 1 1 0 1 1 2 2 1 2 3 0 3 1 2 0 0 1 1 1 1 0 0 0 1 0 0 0 2 1 0 1 2 1 2 1 1 1 0 0 1 0 2 1 0 2 2 1 1 1 3 1 1 1 1 0 1 1 1 1 0 1 0 0 2 2 0 3 1 1 3 1 1 1 0 2 1 2 2 1 2 1 0 0 1 2 2 2 1 2 1 2 1 1 2 0 0 1 1 2 3 1 0 1 1 0 1 0 2 0 0 1 3 1 0 1 1 0 0 4 1 0 1 1 2 2 3 1 0 2 1 2 0 1 2 3 1 1 2 1 2 0 0 0 0 2 1 2 1 1 1 0 2 1 0 2 2 1 2 2 3 2 1 1 0 1 1 1 1 0 2 3 0 2 1 2 0 0 2 1 1 1 2 0 2 1 2 1 2 0 1 1 2 0 1 1 2 2 2 2 1 3 2 2 1 1 2 0 0 1 0 2 1 0 1 0 2 1 0 1 1 0 1 1 1 1 2 1 3 0 1 0 1 1 1 1 3 2 1 0 1 0 2 0 0 1 2 1 1 1 2 2 2 4 3 3 1 1 2 0 3 1 5 0 2 2 1 0 0 0 0 1 0 2 0 2 0 0 1 2 1 1 0 2 0 2 1 2 2 1 1 1 1 1 0 1 0 1 1 1 0 2 3 2 1 1 1 1 2 1 1 1 3 1 2 0 1 1 2 3 0 1 1 2 0 2 1 1 2 2 3 1 2 1 1 0 2 1 2 1 1 2 1 1 1 4 1 1 0 2 2 3 3 3 3 1 0 0 0 2 1 0 1 1 2 1 1 0 0 1 0 1 1 2 3 1 2 1 1 2 1 1 0 0 0 1 0 0 1 1 1 2 1 1 0 1 1 1 2 3 2 1 0 2 1 0 3 1 2 0 2 1 2 1 1 1 1 1 3 1 2 0 0 1 1 1 2 1 1 0 0 1 3 2 1 0 1 1 1 0 1 2 1 0 1 1 1 0 1 2 0 0 1 3 2 3 1 2 1 1 1 0 2 1 1 0 1 1 1 0 1 2 3 1 2 1 0 1 0 1 2 3 1 0 2 1 1 1 0 1 1 0 1 2 0 4 1 2 0 1 1 3 1 2 2 1 1 2 2 1 1 1 2 3 1 4 1 2 0 1 1 1 0 2 1 2 1 1 1 2 0 1 2 1 2 2 2 2 3 1 0 1 1 0 0 1 1 0 2 3 2 1 0 2 0 1 1 3 0 1 3 2 3 0 2 1 1 1 2 2 1 1 1 0 1 3 2 2 0 0 1 0 2 1 0 2 1 1 2 2 2 3 1 3 2 0 1 1 1 0 1 3 2 1 2 1 2 2 1 0 1 3 2 1 1 3 2 1 0 1 2 2 0 1 1 2 1 1 2 0 4 2 2 0 2 0 2 2 3 2 0 1 2 0 2 2 1 2 2 1 2 2 3 3 1 0 1 1 1 1 2 1 1 0 1 1 1 2 1 2 0 2 2 2 1 0 2 1 2 1 2 1 1 1 1 2 2 2 0 0 1 3 0 1 1 2 2 1 1 0 2 1 2 0 3 0 2 1 0 1 0 2 0 0 1 0 2 3 2 2 2 2 1 2 1 3 1 1 1 2 3 0 1 2 0 2 1 1 1 1 1 2 1 1 1 0 2 1 0 3 1 1 1 2 0 2 1 0 2 1 1 1 2 1 1 2 2 1 1 0 1 2 1 1 1 0 1 0 0 1 1 2 1 2 0 1 2 1 1 1 1 1 0 1 2 1 1 0 1 2 0 1 0 0 2 1 1 3 1 1 0 0 1 0 2 1 3 1 1 1 1 1 1 2 2 2 0 2 1 1 2 0 2 0 2 0 1 1 2 2 0 1 1 1 0 0 1 1 2 1 1 0 1 1 1 2 2 2 1 1 1 2 1 3 0 2 2 0 1 2 1 1 2 2 0 1 0 0 0 3 1 2 1 1 0 1 2 1 1 3 1 1 1 1 0 1 1 0 0 2 4 2 1 1 2 2 1 2 2 2 2 2 1 1 2 3 0 0 1 2 1 1 1 3 2 3 1 2 3 1 0 0 1 2 2 0 0 1 1 2 0 2 2 3 2 3 1 2 3 1 3 2 0 1 1 0 0 0 3 1 0 1 0 1 0 0 0 1 0 3 1 1 1 2 1 0 0 0 0 2 1 1 1 1 0 0 1 0 0 1 1 1 1 1 2 1 1 3 1 2 1 0 2 1 1 1 1 2 0 0 2 1 1 2 1 0 1 1 0 1 3 2 0 2 1 1 1 0 1 0 3 0 1 1 2 1 1 0 3 0 1 1 1 1 0 0 1 2 1 0 1 2 0 1 1 1 1 2 3 1 1 2 0 2 1 0 1 2 2 2 1 0 1 1 1 2 3 0 0 0 2 2 0 1 0 2 1 2 0 2 1 1 2 1 1 0 2 2 0 1 2 1 3 0 2 2 0 3 0 2 3 0 1 1 2 3 1 1 1 1 2 1 1 1 2 0 3 1 1 1 2 2 1 0 1 2 2 3 0 0 0 2 1 0 1 2 0 2 2 2 2 2 1 2 1 0 1 0 0 2 0 0 1 0 2 0 0 2 1 1 1 0 2 1 2 2 1 0 0 1 1 2 1 2 1 1 2 2 2 0 1 1 0 1 0 1 1 0 1 1 0 0 1 1 3 3 0 0 1 0 2 1 0 0 1 1 1 1 0 2 0 4 0 2 1 2 1 0 1 3 1 1 1 2 1 0 2 3 0 1 1 1 1 2 1 2 2 0 1 1 0 0 1 3 2 2 1 0 1 0 2 2 2 1 1 2 0 2 1 0 0 0 1 0 1 1 1 1 1 0 2 0 1 3 2 0 1 1 2 1 0 1 0 1 2 0 0 2 2 0 0 0 0 1 0 2 0 0 2 2 2 1 0 0 2 1 0 1 1 1 0 3 3 0 4 2 0 2 0 3 0 0 2 0 2 2 1 2 1 2 1 1 1 0 4 0 2 0 2 3 1 2 2 1 0 2 2 2 1 0 0 1 0 1 2 1 1 1 0 2 3 1 1 1 2 2 1 1 2 1 1 2 1 3 3 0 1 0 2 2 2 1 1 2 1 4 1 1 0 0 0 2 0 1 1 1 1 1 1 3 1 0 1 2 1 0 0 2 1 0 1 1 1 0 0 2 2 0 0 1 1 1 1 0 0 1 1 0 0 3 1 0 1 0 3 2 2 0 2 3 1 0 2 2 1 2 2 0 0 2 1 1 2 1 2 0 0 1 0 1 1 2 1 0 2 1 1 2 3 2 2 2 1 0 2 1 0 1 1 2 2 0 1 2 2 3 2 1 2 1 0 0 0 2 2 0 1 0 2 1 0 2 0 0 0 2 3 0 1 2 0 2 2 0 0 1 1 0 1 2 1 0 0 1 1 2 3 2 3 1 2 1 1 3 1 1 1 2 0 2 2 1 0 1 1 1 0 3 3 2 1 1 2 3 1 1 1 2 3 0 2 2 2 0 2 1 2 1 1 2 0 1 0 0 0 2 1 1 5 0 1 0 0 1 2 0 0 0 1 1 0 1 1 0 0 0 3 2 1 2 1 1 1 2 2 0 1 1 2 2 0 2 1 1 1 1 2 1 3 1 2 0 1 1 1 1 1 1 1 2 1 2 2 2 1 1 0 0 1 0 0 1 1 2 1 2 1 2 2 1 1 2 2 2 2 2 0 2 1 0 2 0 2 0 1 0 1 1 1 2 0 1 1 1 1 1 1 1 1 0 0 0 1 0 0 3 1 2 1 0 1 0 2 2 2 2 3 2 2 0 2 1 1 0 2 1 1 2 1 2 3 0 2 1 3 0 1 1 2 0 3 0 1 2 1 4 2 0 1 2 1 1 1 1 1 2 2 2 1 3 2 1 0 0 0 0 1 0 1 2 0 1 1 2 2 2 2 2 0 3 2 1 1 0 0 0 1 1 1 2 0 1 1 2 2 2 2 1 1 2 4 2 1 3 1 0 1 0 2 0 2 3 2 1 1 0 2 0 0 1 3 1 0 0 4 0 0 1 1 1 0 1 1 1 3 1 3 2 2 0 1 2 1 0 1 2 1 2 2 1 2 2 0 0 2 1 1 1 0 1 1 1 0 0 1 1 0 0 0 2 1 3 0 0 1 0 0 2 4 2 0 1 0 1 1 1 1 0 0 1 2 0 2 2 1 2 0 1 2 0 1 1 2 1 1 1 2 1 4 1 0 0 1 0 1 0 3 1 1 1 2 3 1 2 1 4 1 1 1 2 3 1 2 1 0 2 1 0 2 1 2 1 0 0 1 1 2 2 2 1 0 1 2 0 0 0 0 0 1 0 2 2 0 0 2 0 1 0 4 1 0 2 1 2 1 0 3 1 1 1 0 1 1 2 0 2 1 1 2 1 1 0 1 1 2 0 2 1 0 2 2 1 1 0 2 2 0 1 0 2 0 0 1 0 2 1 0 0 1 1 1 1 0 1 2 2 1 2 1 2 2 2 2 3 0 1 1 1 2 1 0 2 2 2 1 2 1 0 2 0 0 0 0 2 2 1 1 1 0 4 1 3 1 2 3 1 1 1 1 3 1 0 1 2 3 0 0 0 1 0 3 0 0 0 2 1 2 2 0 0 1 0 2 1 1 4 2 1 1 4 1 2 2 2 1 1 1 2 2 1 1 2 2 1 3 1 2 2 0 1 2 1 2 2 1 0 2 0 3 2 2 2 2 2 3 3 1 0 1 3 2 2 1 2 2 2 2 1 1 2 1 1 2 3 1 1 0 0 1 1 1 2 1 2 2 2 3 1 1 1 2 1 2 2 1 1 2 1 1 1 0 2 1 2 1 2 3 2 1 1 2 2 1 0 1 1 1 3 1 2 2 0 1 0 1 0 0 2 0 2 3 0 1 0 0 2 2 3 1 2 0 1 1 2 1 1 2 0 3 0 2 1 1 2 0 2 1 2 1 1 2 1 1 0 2 2 3 1 0 0 1 0 3 2 2 3 0 3 0 0 1 3 3 1 2 3 0 1 1 0 2 0 2 3 0 3 1 1 0 0 1 1 1 1 0 1 1 2 1 1 3 2 1 3 1 1 2 1 0 1 1 2 1 3 1 0 1 1 1 2 1 0 1 0 0 2 1 0 2 0 1 0 2 0 0 1 0 2 3 1 2 1 1 0 1 1 3 1 1 0 0 2 3 2 0 1 1 1 2 1 1 2 2 0 2 1 1 2 2 2 2 2 1 0 3 1 0 2 4 1 1 2 2 1 0 1 3 0 3 2 1 2 0 1 2 3 2 1 2 0 1 1 2 1 1 1 1 1 2 2 2 2 2 1 2 0 0 1 1 2 2 1 0 1 1 2 1 1 0 1 1 1 1 1 1 1 1 2 1 1 0 1 1 0 0 2 1 1 3 0 1 1 1 2 3 1 0 2 1 1 3 0 0 0 2 0 0 1 1 1 2 0 3 0 0 1 2 0 1 1 2 1 2 3 2 0 2 2 0 2 0 3 3 1 4 2 0 1 1 2 1 1 4 1 3 2 2 1 1 1 1 0 0 2 1 1 1 2 1 0 1 0 2 0 2 1 2 1 0 1 1 0 2 2 1 0 1 1 0 0 0 1 1 3 2 0 1 1 0 3 2 0 0 2 1 1 0 0 1 0 1 2 1 1 1 3 1 3 1 1 1 1 1 0 3 1 2 2 3 1 2 0 0 2 3 0 1 2 1 1 0 2 0 0 0 1 2 0 1 0 1 2 1 2 1 1 0 1 1 1 0 1 1 0 2 1 1 0 0 1 1 1 2 1 0 1 0 3 1 1 2 2 0 1 1 3 1 1 1 2 1 0 2 0 1 0 1 1 1 1 0 0 0 1 1 3 1 1 2 0 3 2 1 1 0 3 2 4 3 1 3 2 1 0 2 1 2 1 1 1 0 3 0 2 0 2 0 2 1 1 0 1 4 0 2 2 1 0 1 1 0 0 3 1 2 1 1 2 0 1 2 0 1 1 1 0 1 0 0 1 1 2 3 0 2 1 1 1 2 1 0 0 1 1 1 2 0 1 2 2 2 2 2 1 2 0 3 1 1 1 1 0 2 0 1 1 2 0 1 3 1 0 2 1 3 1 1 2 1 0 1 3 1 2 2 0 1 1 1 0 2 2 2 1 2 2 0 0 2 1 2 1 2 2 1 2 1 0 0 2 0 1 2 1 2 0 3 3 2 2 0 1 1 1 1 1 1 1 1 0 2 1 0 2 2 1 0 1 1 1 1 0 3 0 1 0 4 2 1 1 0 1 2 0 2 1 0 0 0 0 1 0 1 2 1 1 1 2 2 2 0 3 2 0 2 1 0 2 1 1 2 1 1 2 1 2 4 1 1 0 1 2 1 1 2 0 1 0 2 1 1 0 3 2 2 1 0 1 1 0 2 0 2 2 2 0 2 1 2 1 1 2 1 2 1 1 3 0 0 1 1 1 1 3 2 1 2 1 1 0 2 1 0 2 0 1 1 1 2 0 3 1 0 2 3 1 1 0 1 2 0 1 0 1 0 0 0 0 2 2 2 3 1 0 0 0 1 2 0 1 1 3 3 0 0 1 1 1 3 2 1 2 0 2 1 1 0 1 1 0 1 1 2 2 0 2 0 2 3 2 1 0 3 1 1 2 0 1 3 2 0 1 0 0 1 4 2 0 0 1 2 1 1 0 1 1 1 4 2 0 3 2 1 1 2 2 1 2 1 2 1 1 1 1 0 0 1 2 3 1 2 1 3 1 2 0 1 1 1 1 2 2 3 1 3 2 0 2 2 3 1 0 0 0 2 2 1 2 1 2 2 1 0 1 2 1 0 3 1 2 2 1 1 1 0 1 2 1 0 2 1 1 1 1 2 0 0 0 0 1 1 1 0 2 0 0 0 1 3 0 2 0 1 1 1 1 3 2 0 2 0 1 1 1 2 2 2 2 1 0 2 2 2 2 2 1 2 1 1 3 0 0 1 3 1 0 2 1 2 0 0 2 2 2 0 0 1 3 0 2 0 1 0 3 1 2 0 2 0 1 2 1 0 0 0 2 1 2 0 0 1 2 1 3 0 1 1 3 1 1 1 0 0 2 2 3 1 0 0 1 0 0 1 2 1 0 0 0 2 2 1 2 1 0 1 1 1 2 2 0 1 1 0 1 0 2 2 0 3 2 0 1 1 1 1 1 0 2 0 3 1 2 0 3 1 2 1 1 0 2 2 2 2 3 0 1 1 0 1 2 2 2 2 0 3 2 1 0 1 2 2 1 1 1 1 1 1 0 0 1 0 0 1 2 2 1 1 0 3 0 0 0 2 0 2 1 1 1 0 1 1 3 2 1 1 1 2 0 1 1 3 2 1 1 1 1 1 0 0 1 1 1 1 2 1 0 2 0 2 2 0 1 0 2 2 1 1 4 0 0 0 2 3 1 1 1 2 1 1 2 0 1 1 0 2 1 1 1 2 0 1 1 2 1 2 3 1 2 1 3 1 1 1 1 2 0 2 1 2 0 1 1 0 1 0 0 1 2 0 1 1 3 2 2 2 0 1 0 3 4 1 2 0 1 1 1 2 1 1 1 2 1 1 4 1 0 2 2 2 1 2 0 1 1 3 0 1 0 1 2 0 2 0 1 2 1 0 2 1 2 2 1 0 2 0 2 1 1 1 1 1 0 2 1 0 2 1 1 2 0 4 0 1 1 2 3 0 1 1 1 1 1 1 1 1 2 0 2 2 1 0 0 0 0 0 0 1 1 3 1 1 1 2 2 0 2 2 1 0 3 1 1 0 0 3 1 2 1 3 1 2 1 1 2 0 0 1 1 2 2 0 1 2 1 0 1 2 2 1 3 2 0 0 2 1 0 2 0 1 1 1 0 0 3 1 0 1 0 1 1 2 0 2 2 1 1 2 2 0 1 1 1 0 1 0 1 1 1 0 1 1 0 4 1 1 1 2 2 2 1 0 1 1 2 2 1 3 0 1 1 2 0 2 1 0 2 0 1 3 1 2 0 3 0 1 2 1 0 0 1 1 0 0 0 0 1 2 2 1 3 1 1 0 3 2 0 2 1 0 2 1 2 0 2 1 1 0 1 2 0 2 1 2 0 2 2 1 3 1 1 1 2 1 1 0 2 0 1 2 1 3 0 4 2 1 1 1 1 0 1 2 1 2 0 2 1 2 1 2 1 1 1 1 2 1 3 0 3 2 1 0 2 0 1 1 1 0 2 1 1 1 1 0 1 2 2 1 3 2 1 1 1 0 0 3 1 1 0 0 3 0 1 1 3 1 2 2 0 1 1 0 3 1 1 0 0 1 1 1 1 1 0 0 2 1 0 2 0 2 0 1 1 3 1 1 2 1 1 2 2 2 2 1 2 3 0 3 2 2 2 0 0 4 1 0 1 0 0 0 2 1 0 1</t>
+  </si>
+  <si>
+    <t>GAM(0.47644670049510995, -6.130354024092235e-29, 0.07970995940998105)</t>
+  </si>
+  <si>
+    <t>0 0 0 1 1 0 1 1 1 1 0 0 1 2 1 1 0 2 0 0 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 1 1 2 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 0 0 0 3 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 0 0 0 1 1 0 2 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 0 2 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 4 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 0 0 0 2 2 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 3 0 1 0 0 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 1 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 2 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 0 1 0 2 0 0 0 1 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 0 0 1 2 1 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 2 2 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 1 2 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 2 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 2 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 0 0 1 0 1 0 1 1 0 1 0 0 1 2 0 0 0 0 0 2 1 1 0 0 0 0 1 0 0 0 1 0 1 0 2 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 2 1 0 1 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 1 3 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 2 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 1 2 1 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 1 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 0 0 1 1 0 0 1 1 0 0 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 1 1 0 0 0 0 0 0 0 2 0 0 1 2 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 1 0 0 1 1 3 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 0 0 2 0 2 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 1 0 1 1 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 0 0 0 0 1 1 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 2 1 0 0 2 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 3 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 0 2 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 3 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 3 0 1 1 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 1 0 2 1 0 2 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 1 0 0 1 0 1 0 1 0 2 1 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 2 0 0 0 0 0 0 0 0 2 0 0 1 2 0 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 1 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 1 0 0 0 0 0 3 0 0 0 0 0 1 0 0 1 1 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 3 0 0 2 0 1 0 1 1 0 0 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 3 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 2 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 1 3 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 1 2 0 1 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 2 0 2 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 1 2 0 1 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 2 2 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 1 0 2 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 2 2 0 0 0 0 1 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 0 0 1 0 0 3 1 1 0 0 0 0 0 0 1 0 0 0 1 1 0 1 1 2 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 2 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 0 1 0 1 0 1 0 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 1 1 2 0 0 0 0 0 2 0 0 0 1 1 0 0 2 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 2 0 0 0 1 0 0 0 0 2 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 1 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 2 0 0 0 0 0 0 1 0 0 0 0 1 2 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 2 1 0 0 0 0 1 0 0 1 0 2 1 0 1 0 0 0 0 1 0 0 0 1 1 3 0 0 0 0 0 2 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 1 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 1 0 1 0 2 0 0 0 1 0 0 1 0 0 2 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 1 0 1 1 0 1 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 2 1 1 0 0 0 2 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 0 1 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 1 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 3 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 2 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 2 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 0 0 2 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 0 2 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 2 1 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 1 2 1 0 0 0 0 0 0 0 1 0 0 0 0 0 2 2 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 3 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 0 0 3 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 0 0 3 0 2 0 0 0 0 2 0 1 0 1 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 1 1 1 1 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 1 0 0 0 0 2 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 2 2 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 1 0 3 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 1 0 2 0 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 1 0 2 0 0 2 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 1 0 1 2 0 0 0 0 0 2 0 0 1 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 2 0 0 0 1 2 0 0 1 1 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 2 0 0 2 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 0 1 1 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 0 0 1 1 0 1 1 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 2 0 2 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 1 1 1 0 0 2 0 0 0 0 1 1 0 1 0 0 0 0 0 2 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 3 1 1 1 0 0 1 1 0 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 1 2 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 2 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 2 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 2 0 0 0 0 2 0 0 0 1 0 0 0 0 1 2 0 0 1 0 1 0 0 1 0 2 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 2 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 1</t>
+  </si>
+  <si>
+    <t>FTL(0.11229405016815217, -252.62131056367252, 364.3631057571111)</t>
+  </si>
+  <si>
+    <t>149 129 142 114 127 150 173 40 73 64 60 71 118 59 128 226 170 55 78 264 117 83 145 122 56 112 115 99 97 74 116 108 158 31 84 113 64 152 108 140 110 174 143 113 143 85 64 112 102 136 141 180 174 222 90 100 148 118 97 139 81 135 99 145 154 137 90 72 81 143 124 40 160 162 135 74 131 118 142 121 112 102 168 153 38 135 154 179 33 110 85 107 203 97 84 147 165 131 194 105 184 66 106 52 183 170 132 75 85 121 91 85 210 78 115 76 152 139 78 65 154 68 119 124 103 113 84 78 111 131 176 130 158 51 86 104 81 147 94 133 53 111 104 54 109 107 57 138 59 125 21 84 69 107 94 147 42 90 84 169 103 108 100 175 123 107 111 97 178 73 161 86 67 84 161 167 145 85 108 124 84 159 83 162 176 154 129 118 79 151 235 124 106 97 66 131 135 114 99 118 75 90 135 137 178 94 34 41 60 32 112 106 69 80 126 138 150 73 75 55 92 104 105 71 119 97 60 136 110 79 118 89 213 169 173 129 127 42 122 121 84 108 42 134 143 162 116 83 98 137 118 129 120 138 69 97 159 40 96 139 135 175 179 140 116 93 157 38 179 88 64 176 146 156 69 111 210 129 73 48 126 76 146 124 34 37 168 133 120 123 101 143 136 82 248 162 107 86 28 105 112 173 56 151 185 177 100 122 79 112 108 98 118 95 136 97 92 116 124 49 98 91 77 149 111 103 75 148 77 77 148 73 106 57 125 69 74 67 90 144 97 113 50 185 142 70 127 130 121 85 160 51 147 81 74 136 124 115 125 70 221 56 75 217 69 61 183 142 122 112 176 105 96 94 110 125 45 27 41 120 117 106 78 62 64 92 126 86 85 109 103 73 89 133 133 98 81 121 242 108 120 117 146 94 139 81 72 125 178 119 105 105 168 151 95 159 150 103 97 132 130 202 59 114 201 115 116 108 62 176 110 120 92 127 128 141 82 53 81 196 218 92 147 161 21 117 102 47 146 132 62 163 150 227 94 149 79 71 115 172 91 89 130 87 119 67 92 54 105 127 96 70 127 60 82 81 86 99 147 93 88 112 89 106 98 109 115 110 82 59 90 134 52 65 79 187 111 83 189 114 83 101 96 117 112 112 153 231 142 118 136 77 118 171 182 159 67 77 182 129 58 155 119 15 65 204 236 102 127 154 136 93 138 73 86 67 76 123 71 123 77 134 59 164 190 166 127 138 163 74 107 73 108 170 51 129 84 71 185 116 51 76 114 77 93 109 115 105 94 77 197 77 164 104 56 120 157 45 147 147 118 123 155 55 108 112 114 163 21 74 97 81 147 133 104 114 90 119 73 56 141 148 200 118 85 151 147 103 123 128 219 76 224 120 79 143 166 82 108 101 58 158 56 172 72 137 275 71 156 129 134 101 123 144 62 115 104 144 80 170 126 137 70 101 89 126 111 103 82 114 152 177 135 93 47 187 104 80 48 119 102 106 111 128 66 101 184 90 156 54 88 122 73 150 30 125 53 124 76 93 107 157 68 67 49 55 124 113 134 97 164 142 153 115 128 125 63 191 127 101 42 147 162 71 113 117 103 100 145 114 95 110 117 94 95 125 126 134 72 53 144 103 145 128 124 100 108 190 187 71 141 62 56 133 88 37 175 62 155 92 120 80 117 72 96 118 110 94 97 114 127 99 135 95 140 123 152 111 135 50 146 199 111 45 101 150 202 129 110 82 190 121 140 185 69 137 85 114 70 92 82 109 99 76 165 64 81 41 148 121 140 175 150 82 106 86 82 54 62 142 63 90 84 172 93 162 126 145 124 47 72 121 80 121 139 148 126 84 119 98 98 143 106 99 112 58 118 19 99 130 163 184 106 114 135 96 100 69 198 71 131 73 190 222 125 91 125 166 66 103 187 105 81 50 117 69 126 34 146 156 120 81 103 171 124 212 138 153 133 65 48 145 130 74 124 110 91 103 161 64 100 77 107 158 47 70 93 91 80 118 151 137 62 54 190 69 29 108 96 167 125 68 255 144 92 180 90 93 144 143 29 45 84 58 156 132 46 52 89 117 118 31 132 167 102 64 136 52 109 191 125 114 48 83 157 116 140 108 124 154 102 126 64 58 158 113 134 93 150 117 135 99 174 120 58 235 103 111 168 181 121 96 84 117 150 130 73 91 80 114 51 100 75 155 95 43 159 134 114 94 59 195 185 128 149 153 145 182 58 123 167 125 91 101 65 140 162 56 157 144 108 74 175 90 49 103 101 83 183 179 169 110 173 195 98 97 105 161 51 97 58 137 160 110 77 88 74 186 100 134 64 121 120 63 49 81 33 134 116 139 66 47 96 106 154 200 120 124 92 148 102 119 115 70 111 67 91 166 129 132 86 156 142 117 93 168 107 181 107 178 30 57 104 123 70 33 136 119 114 101 127 116 29 123 155 126 106 68 110 80 77 113 51 124 138 147 127 64 93 109 99 59 193 94 204 153 120 120 150 32 131 188 117 41 143 162 121 157 153 136 199 95 141 47 152 119 182 152 102 91 135 134 80 112 95 133 152 52 146 48 73 94 100 89 170 130 19 59 153 206 125 201 153 84 128 141 126 98 139 138 58 71 124 153 104 65 85 81 88 104 63 118 118 96 90 104 76 133 80 86 113 82 197 157 24 124 112 82 98 135 83 143 120 97 63 100 43 126 134 117 203 145 119 170 92 57 160 77 59 138 111 92 100 77 49 159 111 131 159 132 111 163 79 105 102 135 70 90 121 192 77 155 169 152 115 87 99 146 159 97 116 61 94 208 105 106 105 99 163 100 89 141 159 119 103 91 78 156 78 105 72 90 91 176 137 79 115 93 157 102 97 92 140 122 114 140 115 105 62 147 95 108 77 103 135 139 104 88 87 57 149 125 68 116 69 99 173 119 128 171 185 87 97 135 207 72 144 154 100 98 64 145 88 177 49 60 89 155 79 236 101 56 176 121 162 140 69 84 105 122 127 187 176 151 67 81 89 94 99 68 45 64 89 96 150 31 98 161 172 105 133 117 113 166 119 95 195 117 110 156 97 81 157 54 142 37 172 126 71 89 75 176 120 61 161 195 116 74 128 133 93 125 145 122 102 151 208 124 146 117 100 134 203 104 76 75 60 126 114 203 45 109 90 74 139 113 119 96 93 97 47 97 76 80 103 79 167 54 154 79 92 143 133 141 126 119 163 80 136 124 140 128 108 154 124 131 139 217 120 98 159 81 121 136 101 90 131 151 96 111 51 87 75 127 66 97 147 218 71 55 82 107 147 55 70 139 170 143 74 187 166 140 143 69 67 106 100 156 111 179 82 95 77 150 129 137 91 91 87 88 98 94 60 70 196 68 94 125 106 110 172 81 246 179 55 96 67 146 181 119 217 202 115 138 120 19 145 97 72 86 65 103 135 91 89 145 191 166 94 126 167 154 98 96 79 79 162 101 105 85 60 177 126 188 181 105 99 105 125 59 135 200 164 102 97 123 89 153 99 99 208 111 101 89 100 102 108 72 127 122 103 129 128 74 150 192 132 93 136 124 146 93 156 118 148 120 74 54 149 97 130 76 24 157 93 191 96 97 104 110 51 103 41 143 209 208 85 142 139 44 204 72 116 70 106 96 114 162 214 149 102 122 206 82 157 67 183 139 87 144 171 77 157 105 52 85 162 203 117 107 130 137 23 84 47 174 123 135 108 93 39 45 153 135 87 106 145 40 147 149 118 126 110 161 144 103 152 128 86 48 129 110 156 110 91 127 100 97 76 102 114 102 114 76 34 155 121 135 196 154 122 131 136 105 99 79 125 163 109 78 102 119 93 125 125 152 87 90 95 94 131 104 117 191 137 105 95 89 124 136 165 56 46 168 111 223 132 129 73 92 64 57 185 212 206 146 188 112 126 106 98 89 192 87 68 107 165 145 134 90 87 21 105 126 62 97 95 150 80 106 51 200 61 73 86 60 131 89 86 72 101 73 113 151 124 140 123 79 135 149 148 119 63 78 86 68 90 110 146 42 110 119 163 85 80 172 93 58 126 118 148 131 95 102 121 100 142 115 139 104 104 97 128 179 75 153 120 179 93 180 78 92 74 108 135 194 101 144 117 134 99 107 165 71 110 144 98 116 162 111 98 199 97 56 47 91 160 153 150 84 103 95 80 97 70 90 59 179 97 104 151 167 121 163 60 124 43 149 127 123 50 69 49 61 79 143 157 185 62 92 96 110 75 100 154 42 97 161 32 88 103 98 45 81 126 111 68 157 165 40 143 40 186 83 78 83 205 84 87 146 39 103 133 160 59 152 121 123 93 131 90 97 126 81 83 124 112 117 139 128 139 186 145 99 114 129 110 71 6 161 178 152 126 117 108 47 92 146 126 125 119 89 107 91 166 80 26 135 142 51 191 107 97 80 51 126 81 203 114 121 149 71 211 120 127 84 86 100 136 87 102 112 138 93 120 77 51 55 62 61 114 119 83 95 60 133 120 109 121 89 111 107 81 71 128 88 106 175 102 102 119 59 144 104 99 171 42 172 41 92 101 134 53 116 187 126 86 137 144 91 127 29 65 72 255 48 29 126 36 120 58 77 169 48 97 150 34 100 226 78 89 138 112 118 179 158 117 90 76 114 146 80 58 157 103 151 87 105 139 114 71 119 90 201 64 28 149 133 28 70 69 112 105 135 186 124 145 117 68 177 167 93 126 144 92 136 128 58 169 175 101 185 159 122 191 87 206 105 162 115 63 114 150 100 243 89 127 133 124 63 159 151 25 50 118 153 79 130 112 100 94 77 141 133 123 54 127 131 108 74 95 81 50 93 100 112 131 113 105 139 103 69 125 129 136 82 140 86 168 222 90 165 146 98 112 20 82 62 104 103 143 106 109 163 137 77 76 99 44 143 110 90 133 89 117 161 111 124 110 73 134 126 166 40 173 79 45 114 58 182 143 120 26 95 69 147 59 66 171 113 174 76 82 92 113 68 180 113 118 127 147 87 133 100 154 137 62 136 108 181 62 186 103 119 126 96 96 112 101 170 106 156 123 110 131 92 22 109 208 127 190 50 145 56 91 119 145 189 104 75 85 95 96 146 108 93 123 178 149 75 91 155 225 40 128 158 72 89 20 164 143 140 98 104 83 73 54 83 160 124 166 89 74 36 69 132 58 129 104 102 150 76 116 136 81 235 99 96 89 208 87 156 188 157 97 66 143 147 111 81 143 69 121 130 65 108 148 151 150 107 78 111 100 86 68 146 114 104 166 68 131 210 155 73 128 88 100 154 138 126 200 121 111 134 54 61 103 136 161 88 150 135 96 136 118 160 188 98 82 92 197 98 130 150 113 68 112 146 98 121 143 64 59 119 100 183 96 92 146 145 108 83 36 210 253 49 29 82 41 76 130 53 92 147 63 145 176 158 149 157 112 89 82 94 126 130 127 133 171 91 143 171 64 141 84 51 87 90 54 149 120 121 112 217 116 50 100 204 99 110 137 103 69 173 72 103 143 136 147 108 116 107 146 96 156 80 140 88 165 159 111 96 123 175 50 133 185 108 98 105 106 193 175 129 125 179 95 179 89 137 160 51 98 202 117 46 140 144 137 60 113 71 108 76 90 62 112 113 140 59 116 103 89 80 84 91 117 127 152 221 212 107 64 95 130 132 84 145 114 123 53 23 100 55 93 180 159 81 85 177 158 103 77 125 93 122 105 85 99 51 117 168 81 150 206 179 61 64 154 77 92 218 41 127 184 138 68 82 18 123 137 108 104 89 61 127 155 108 93 126 218 25 98 68 143 95 116 147 103 114 109 130 100 101 204 221 71 115 113 150 112 109 93 118 106 62 121 71 69 120 94 153 76 104 120 187 140 176 148 93 84 185 137 74 81 96 165 86 111 105 125 197 92 84 116 113 89 91 91 136 113 184 137 156 69 119 66 53 128 136 129 124 126 114 63 60 112 67 127 204 147 86 101 102 23 99 73 131 121 117 144 80 98 105 66 121 87 153 139 165 107 137 167 74 68 103 59 140 162 99 55 65 107 110 189 104 47 78 109 123 160 171 138 171 67 99 102 96 109 59 35 185 215 123 87 109 147 179 63 120 159 73 39 82 65 75 113 94 182 158 127 148 143 174 126 73 113 124 140 109 98 158 141 146 64 123 63 89 117 151 82 151 139 112 97 119 116 85 116 52 118 79 127 153 85 69 112 64 100 154 93 98 97 38 197 103 116 140 141 127 63 115 109 169 95 198 167 146 137 159 82 120 111 111 90 120 142 128 119 235 116 83 117 71 155 172 201 156 79 114 86 91 94 136 131 68 31 107 118 51 41 184 123 156 141 130 123 136 107 106 65 100 163 71 59 152 107 138 120 49 122 166 96 84 120 17 127 74 75 139 54 104 155 249 275 96 92 138 96 70 83 109 140 70 87 93 93 125 107 150 75 74 110 49 125 187 123 124 102 126 161 137 132 81 141 211 89 82 109 136 116 160 43 132 115 149 145 167 160 127 96 117 86 159 148 119 108 56 74 162 68 204 120 147 74 175 107 85 83 130 131 166 70 103 150 110 172 91 133 91 151 152 61 155 73 74 125 156 116 103 125 138 114 99 101 118 142 90 108 36 102 87 84 151 81 159 161 62 137 79 136 71 152 144 109 167 100 83 163 168 126 100 122 68 111 73 177 65 78 88 185 131 54 205 49 123 62 114 116 196 88 80 56 75 145 186 133 67 88 94 104 141 117 126 172 111 104 186 95 110 88 91 111 86 112 88 148 18 105 139 119 115 47 116 108 151 176 107 101 97 77 128 91 100 184 107 86 154 54 84 105 147 130 110 179 82 120 284 116 66 131 115 12 130 119 112 138 108 116 115 100 78 163 91 102 68 166 141 137 72 216 93 139 82 51 92 142 157 178 87 107 72 135 144 119 178 118 81 113 133 150 37 170 89 168 86 97 92 97 109 76 147 136 153 165 146 113 77 81 82 67 127 107 135 130 109 163 86 103 65 99 200 172 160 134 103 177 91 116 45 162 128 179 162 73 100 73 105 94 136 37 64 157 124 67 141 93 192 104 153 70 178 218 81 108 117 65 176 123 95 106 127 91 181 100 100 46 115 80 109 124 110 124 132 138 121 75 165 148 111 124 95 121 156 149 199 144 111 104 160 44 92 99 110 105 143 169 140 116 29 190 107 90 76 167 109 86 166 114 119 86 39 140 109 81 142 148 139 85 154 188 178 142 102 187 123 121 104 133 131 189 40 152 135 171 96 166 104 102 116 54 44 113 86 133 102 119 156 145 68 88 159 121 154 113 103 81 61 74 135 169 100 144 124 201 40 125 117 174 92 118 76 197 111 94 102 167 58 100 112 47 55 185 107 102 87 132 79 90 198 133 146 122 115 40 147 118 137 82 87 125 98 114 115 127 130 91 136 40 151 76 76 138 165 143 160 35 67 147 98 87 95 130 123 119 103 142 81 179 108 138 150 133 188 134 114 152 74 128 104 120 139 137 210 83 152 83 111 157 142 112 100 125 160 82 51 124 93 91 108 71 200 81 160 128 155 64 89 130 57 87 140 61 66 33 195 99 115 113 153 129 72 107 150 71 178 130 104 182 37 80 75 234 161 149 139 185 109 126 82 80 138 41 54 169 64 128 162 123 98 97 97 105 71 141 114 97 99 89 150 85 97 113 80 101 133 141 204 78 102 168 186 95 108 210 119 27 94 145 134 103 145 97 97 46 61 126 160 63 151 121 165 141 39 147 77 129 123 108 135 195 79 125 125 162 64 122 135 129 159 136 110 166 93 85 99 150 88 74 187 75 133 165 93 107 55 149 140 98 138 115 213 164 244 144 124 109 88 57 102 119 129 56 163 65 108 62 71 74 85 53 166 162 63 133 182 79 119 250 102 151 143 90 75 115 140 175 63 134 75 114 82 118 46 178 165 207 135 136 98 122 147 102 101 131 139 149 27 128 82 89 47 64 118 74 119 28 138 108 87 62 82 84 84 187 79 46 193 84 124 168 155 147 134 122 156 79 130 172 117 112 75 81 72 74 109 169 48 131 106 83 82 112 97 84 83 101 150 122 141 147 133 100 136 101 157 94 60 125 129 144 78 175 88 91 76 160 77 91 84 140 60 95 155 108 158 142 84 189 153 39 124 28 161 147 79 104 104 173 106 82 98 123 66 124 149 138 154 55 98 91 182 201 141 95 73 193 79 69 88 57 48 107 193 160 83 159 121 104 96 93 182 116 112 150 124 76 17 101 170 74 193 171 155 151 66 35 167 107 99 116 122 142 65 94 124 113 112 18 98 78 81 152 94 154 96 55 150 189 158 111 68 158 121 125 85 186 98 64 149 134 66 127 125 48 135 169 115 166 79 179 66 70 80 154 83 155 97 119 82 107 120 101 53 115 70 55 79 62 48 35 107 64 64 84 127 170 129 116 137 110 117 135 178 92 101 133 97 125 210 102 149 92 94 89 142 75 141 95 95 63 114 43 76 108 70 122 132 126 119 110 121 119 85 134 51 70 102 95 133 136 144 82 94 202 49 95 57 118 147 132 16 54 159 83 127 76 78 88 49 168 79 125 71 135 80 164 83 145 71 127 103 131 37 167 158 92 47 166 136 47 117 162 137 74 104 30 140 110 108 81 142 30 76 48 132 99 183 100 86 66 228 51 51 117 25 93 124 140 128 111 175 116 136 205 107 114 107 155 112 205 61 129 151 60 105 116 200 128 82 80 69 99 33 107 184 122 79 61 112 206 137 90 103 68 100 111 93 102 187 174 83 185 56 110 93 140 93 106 96 118 113 97 131 112 84 100 104 111 101 102 125 131 165 67 91 132 78 86 137 126 127 150 142 139 58 41 175 101 169 117 97 59 131 99 101 81 124 140 95 139 141 144 112 140 108 64 225 108 110 112 143 128 99 110 126 34 106 192 155 151 132 167 120 88 113 145 98 166 98 44 132 127 83 51 112 100 112 162 111 64 113 53 66 129 132 132 83 179 200 137 29 135 136 124 148 49 136 83 147 107 59 158 136 104 107 83 35 78 127 142 52 127 84 115 93 92 88 95 87 100 137 120 79 130 96 96 150 114 54 116 64 145 88 146 54 95 107 124 48 147 119 186 124 148 118 108 101 74 142 144 182 57 168 119 36 57 116 102 124 155 101 176 158 48 122 101 99 76 143 146 70 60 142 118 83 145 111 148 88 145 99 148 68 131 107 113 122 169 180 102 152 116 120 94 69 137 23 150 112 187 130 86 144 185 98 141 120 92 153 75 172 103 77 117 155 45 187 153 185 195 155 66 175 81 91 95 78 114 83 92 141 170 145 155 83 48 100 171 132 125 92 117 35 90 93 133 108 169 132 87 110 130 70 172 84 121 182 53 108 126 101 102 56 144 79 102 94 98 46 143 177 182 62 87 152 139 239 188 55 60 83 88 117 96 83 119 81 81 81 91 114 49 214 57 83 128 128 106 93 93 40 92 200 100 86 123 43 72 95 134 127 193 88 37 58 122 62 82 156 219 45 67 146 168 40 173 94 64 101 58 77 177 107 167 94 178 105 60 179 113 219 124 45 119 153 142 14 76 48 129 100 38 111 133 47 92 146 192 185 104 70 154 110 93 169 90 111 106 92 98 111 132 140 36 32 80 219 120 123 124 146 60 43 103 192 130 79 89 65 92 83 117 111 111 131 145 163 151 111 83 105 137 118 76 104 72 13 109 117 175 158 75 258 84 107 135 139 111 104 66 104 125 218 82 234 151 115 135 118 72 124 134 113 47 133 100 43 93 100 116 114 116 34 104 94 82 90 162 157 80 119 134 137 68 159 63 132 77 119 115 114 220 184 94 141 162 158 73 134 82 41 136 195 124 103 114 147 138 113 171 119 107 125 146 75 142 229 119 165 78 92 200 147 111 117 27 133 165 71 122 187 88 41 90 101 41 155 134 140 91 68 72 140 149 77 103 107 219 159 90 87 160 173 131 106 91 91 107 130 90 157 92 145 119 59 209 96 97 120 97 108 112 77 98 88 127 128 73 116 94 93 130 114 112 112 40 94 62 128 163 117 78 148 83 43 130 218 93 108 202 45 248 122 78 116 169 125 50 101 85 93 164 82 96 109 101 104 76 132 155 134 109 123 101 119 170 53 144 167 131 122 115 184 150 61 165 152 186 52 66 91 64 119 159 84 153 99 199 87 50 163 91 20 168 106 131 166 80 182 56 187 177 84 77 106 100 43 121 74 69 170 121 143 95 90 53 153 163 58 73 107 98 132 146 81 94 215 164 41 109 59 24 134 55 37 140 100 141 128 130 113 127 54 91 40 144 58 115 22 160 123 90 51 73 55 172 150 53 55 114 140 67 120 73 109 105 112 112 112 238 97 92 131 94 84 65 115 145 111 34 130 93 166 161 197 123 83 77 107 211 99 124 117 130 71 161 89 90 170 165 107 105 101 104 114 133 139 132 145 97 97 127 64 114 67 91 151 91 83 143 77 114 91 61 114 119 146 40 81 46 74 64 102 130 87 102 80 76 128 183 85 147 139 97 141 113 84 114 126 128 72 129 154 103 69 189 80 81 98 73 133 159 199 86 139 111 104 174 105 159 48 159 117 86 115 121 107 100 188 178 121 95 32 107 127 110 49 37 200 23 50 86 122 103 89 120 83 134 132 110 147 152 126 92 150 118 105 69 120 153 128 203 90 56 109 114 170 73 111 138 107 122 64 191 109 247 85 130 82 135 98 130 56 128 130 121 56 127 134 175 102 58 101 99 178 112 90 106 149 139 95 138 110 46 56 121 134 180 173 126 166 67 151 152 165 130 115 93 190 130 156 99 65 150 130 89 136 115 123 170 165 87 55 112 120 154 160 67 209 185 180 169 108 223 100 162 84 91 86 106 176 143 32 167 89 62 120 82 155 114 233 240 83 87 40 109 88 80 129 129 102 58 32 159 68 98 114 161 122 68 42 58 123 84 111 122 160 89 74 154 90 108 100 131 101 56 135 78 172 208 131 143 82 198 127 115 31 121 92 162 85 85 77 160 116 48 102 211 141 71 40 69 113 50 82 33 168 64 132 104 102 172 121 66 141 102 123 121 117 32 158 60 127 70 99 87 114 131 152 45 155 163 145 154 207 150 71 138 161 99 122 103 120 89 113 152 61 92 65 76 62 72 52 166 125 71 99 140 63 132 61 84 121 186 107 59 197 162 110 100 121 223 114 83 182 121 167 58 53 126 189 112 107 157 79 87 145 20 84 110 79 146 115 141 118 125 120 100 69 106 68 168 117 128 99 80 91 134 135 130 85 95 105 133 75 144 170 118 161 125 72 166 80 120 83 131 55 140 162 150 108 164 179 111 105 124 92 96 74 128 111 179 190 12 98 125 119 65 131 151 155 100 76 136 131 201 132 134 134 65 128 64 141 93 51 145 152 98 135 155 149 43 125 205 121 135 83 164 48 125 72 60 58 114 116 104 87 70 184 131 196 188 77 107 130 94 81 150 102 151 146 105 114 112 99 133 78 199 103 102 119 169 124 68 82 86 138 88 186 171 116 78 109 67 77 88 52 107 114 186 135 137 219 133 112 139 133 85 114 85 148 182 106 70 49 75 118 132 78 156 161 115 132 33 57 121 135 214 74 83 99 156 94 44 131 63 41 106 150 172 124 190 134 117 132 124 129 103 58 101 141 176 128 28 130 121 90 126 110 140 106 152 136 235 109 76 169 143 114 108 95 140 65 83 56 79 126 207 146 161 56 102 149 51 81 102 119 93 115 63 106 124 98 60 96 169 114 152 16 99 56 163 143 155 158 51 131 141 170 150 185 166 84 70 90 114 91 110 219 76 91 186 159 91 149 169 112 81 130 228 124 101 76 94 144 79 67 145 155 115 124 115 22 78 103 69 139 134 92 91 51 117 110 113 150 163 24 63 121 148 91 124 136 68 180 95 128 51 153 227 37 101 77 116 90 123 225 181 41 127 183 62 87 55 116 101 143 77 106 120 91 80 54 87 143 186 89 162 66 193 199 124 160 81 87 148 194 68 27 152 33 168 127 92 7 68 150 157 101 203 40 67 103 103 88 96 131 121 100 137 168 137 23 147 139 181 141 43 108 130 229 179 126 137 76 140 53 64 142 127 107 164 118 126 81 163 90 157 76 128 163 180 147 97 129 125 114 62 96 90 174 130 151 90 52 231 164 86 93 118 127 107 59 151 115 166 66 38 127 79 108 119 47 56 173 113 77 172 52 109 115 52 84 138 86 154 80 59 108 248 80 23 139 103 48 160 80 164 201 125 148 206 143 123 131 107 201 62 78 137 113 56 91 165 93 40 38 41 171 126 98 71 203 56 90 146 150 81 102 87 111 68 104 104 98 108 121 135 86 61 89 129 85 95 149 81 134 80 48 142 142 154 152 128 153 43 83 29 160 94 74 181 135 103 108 114 82 141 164 108 141 71 154 103 139 183 206 178 116 107 38 164 136 107 73 87 118 142 116 149 123 103 127 114 206 152 126 170 112 141 150 18 187 82 143 156 143 106 104 108 141 81 146 135 103 140 145 81 123 112 40 136 56 130 61 70 75 87 153 129 79 159 89 90 71 159 136 141 105 156 150 105 155 49 94 127 214 80 116 51 119 110 142 68 126 107 86 124 49 106 153 176 89 110 75 206 121 199 93 130 145 122 81 145 153 128 188 140 18 96 98 66 28 115 137 153 82 154 134 55 107 167 81 86 35 170 92 41 132 117 83 93 114 171 89 153 133 127 162 89 136 145 113 103 138 69 92 155 141 128 117 84 85 118 61 93 145 66 172 138 95 62 98 117 97 90 70 119 96 99 140 111 158 79 207 144 137 122 172 212 132 76 72 138 134 155 125 101 101 68 100 112 108 133 101 69 134 107 90 55 131 76 164 47 90 101 137 159 54 87 97 168 96 137 110 133 98 82 200 99 94 126 87 142 156 106 37 155 158 132 159 98 151 105 113 171 43 58 122 135 189 124 136 114 78 134 114 113 93 96 138 187 130 174 103 131 130 189 66 162 66 135 145 96 171 104 110 92 37 136 140 117 38 122 89 162 130 147 124 55 113 95 106 148 84 116 110 121 96 71 124 82 92 124 28 47 127 100 109 142 112 113 165 160 139 106 155 98 139 90 106 109 83 63 77 118 86 136 110 120 110 86 46 121 56 73 161 99 85 111 153 99 45 140 124 114 137 90 115 100 144 113 103 60 73 140 169 130 145 138 127 125 147 149 120 120 82 138 79 178 185 126 75 163 160 180 67 128 64 168 118 70 139 136 86 147 54 99 116 84 72 131 49 66 123 103 148 100 79 51 176 97 137 95 112 163 81 89 123 92 137 115 92 149 95 93 61 98 46 59 84 153 160 145 77 86 90 89 81 73 151 121 156 67 50 60 137 108 100 85 130 92 119 139 133 109 151 112 93 69 114 33 79 147 162 123 93 161 131 55 143 95 163 107 86 30 144 126 109 92 45 194 96 138 170 153 196 87 122 104 140 117 162 100 105 70 138 65 117 109 59 116 110 57 100 185 74 157 95 126 133 39 81 98 122 202 98 133 178 91 115 224 117 182 34 38 137 146 137 61 70 92 212 129 83 158 102 111 152 83 41 109 186 144 112 130 178 101 178 152 118 59 104 106 117 117 87 99 102 119 54 141 147 194 75 145 92 72 85 56 97 180 166 91 163 207 61 86 68 106 108 116 84 166 135 126 106 122 139 96 119 98 62 92 119 129 92 86 112 202 116 121 146 124 131 104 83 100 131 116 159 59 67 63 42 180 51 130 125 179 90 57 71 113 122 104 91 110 120 40 118 68 114 109 95 97 155 164 125 87 48 150 112 89 196 125 114 72 71 72 30 88 158 56 87 138 27 128 82 140 87 126 103 155 131 118 139 241 69 120 88 85 110 160 150 81 182 43 156 57 87 60 116 151 145 120 120 85 96 70 62 155 102 149 168 115 193 157 188 143 115 152 74 58 179 127 105 61 162 142 90 167 99 94 163 179 143 127 124 143 84 86 97 134 136 138 98 164 120 92 71 125 214 43 115 124 164 87 151 197 77 40 72 74 246 91 132 120 77 112 96 83 86 75 128 126 104 173 177 51 121 110 94 87 98 117 102 81 157 115 145 169 62 85 147 33 113 115 119 130 133 141 87 63 60 157 98 153 142 43 100 126 128 156 152 109 300 137 93 194 153 93 152 131 117 75 99 139 202 139 194 77 30 82 129 89 86 158 123 33 109 109 107 129 147 96 111 149 208 169 122 120 106 32 96 186 123 39 94 53 61 155 87 120 66 140 80 74 100 155 168 154 113 93 123 149 106 40 73 147 79 109 92 90 46 109 97 87 72 116 159 172 110 138 145 74 132 102 118 99 153 152 122 121 96 57 134 177 53 149 66 59 127 139 115 82 93 91 131 141 140 125 141 84 164 66 90 78 67 68 110 78 112 144 168 209 97 76 79 183 57 55 108 135 173 101 142 77 75 152 119 80 81 72 114 110 153 106 109 132 120 138 75 54 92 84 89 121 175 108 131 116 172 114 96 92 164 60 74 48 102 77 64 89 74 159 73 73 76 176 96 72 87 102 124 122 111 137 209 126 136 98 127 192 122 119 63 108 92 155 82 66 99 145 145 96 127 188 115 187 69 177 149 149 117 46 74 123 181 117 104 88 113 142 179 136 131 140 131 147 90 88 189 135 70 145 74 105 69 78 102 138 157 74 132 101 101 48 138 164 172 57 156 120 169 112 67 151 120 62 75 160 112 102 40 74 101 58 122 126 79 182 118 63 132 225 145 134 127 97 93 167 102 42 112 154 135 135 151 88 105 157 127 167 35 64 113 128 173 100 247 157 185 42 33 184 142 54 138 67 127 104 41 167 104 171 25 145 211 162 113 125 12 131 125 174 247 204 28 50 119 127 144 120 179 125 97 78 64 182 58 65 104 120 104 206 78 137 150 84 96 150 153 140 125 162 77 178 87 162 110 80 116 180 94 64 101 146 73 121 96 155 153 129 101 75 57 73 90 127 153 93 176 93 131 101 68 121 139 80 227 149 70 137 112 176 90 156 83 109 102 128 99 163 107 72 60 143 80 108 44 108 133 107 55 102 104 39 103 125 127 133 119 108 82 88 83 80 110 192 97 141 163 165 152 62 149 60 97 104 109 112 141 194 103 103 100 147 105 98 64 109 84 80 100 128 24 38 75 47 125 131 235 78 138 115 77 133 138 176 62 87 35 165 77 104 133 105 85 137 101 110 125 110 132 107 233 69 112 127 29 87 127 125 125 142 167 147 125 91 103 95 176 100 109 47 141 115 77 53 85 112 131 98 169 77 73 70 100 219 77 67 162 126 120 176 99 96 95 105 79 158 76 173 34 115 112 77 114 132 164 161 187 67 156 118 62 150 142 120 91 119 98 135 87 185 143 113 186 94 68 90 104 164 137 133 111 144 107 132 15 79 149 125 165 163 78 132 90 78 137 138 185 116 99 82 136 169 84 92 140 73 141 78 137 173 107 83 142 182 112 240 115 116 153 129 151 156 64 53 207 63 114 43 117 140 100 201 139 111 87 100 85 73 114 105 125 114 138 70 136 128 192 81 125 45 110 86 114 82 127 56 74 139 64 68 73 55 101 110 88 84 107 107 205 120 131 199 177 58 196 166 99 103 153 78 59 146 98 150 93 116 109 151 104 141 100 154 69 101 59 109 47 110 70 54 164 116 138 107 67 186 112 114 192 87 131 123 136 123 108 110 93 94 88 125 116 55 74 127 85 160 129 61 45 91 73 67 190 132 47 121 115 145 89 105 123 55 113 97 84 182 57 128 106 93 103 90 125 108 194 107 106 176 114 171 178 103 86 156 60 111 173 108 186 69 137 121 136 125 85 118 132 97 72 124 178 101 92 87 130 131 165 146 112 131 104 115 89 104 113 66 153 66 116 162 169 55 97 134 65 116 209 117 135 109 192 117 133 81 61 106 170 72 116 140 112 139 153 149 80 87 136 108 65 169 136 135 120 165 105 121 81 178 155 120 132 105 54 84 114 121 137 161 111 175 88 87 62 139 121 153 84 130 69 124 55 129 110 154 67 101 107 118 109 74 100 103 40 88 93 155 141 150 51 106 143 108 152 106 177 163 84 119 143 225 179 130 122 101 103 170 120 129 59 107 97 103 157 141 92 134 100 142 134 171 64 122 86 84 84 142 92 99 118 91 76 151 183 107 53 140 152 180 110 114 154 101 193 89 92 80 89 98 48 110 98 91 70 151 159 123 138 96 88 53 93 194 54 63 95 149 86 103 79 86 129 145 142 157 103 85 157 150 195 135 61 99 81 117 146 189 80 105 115 39 100 94 127 104 92 92 151 136 76 45 36 61 178 168 130 72 106 60 131 84 136 36 99 149 124 75 26 86 134 127 117 132 117 122 71 131 77 77 106 109 157 47 96 127 66 129 138 116 67 199 29 175 137 80 161 67 123 57 143 64 95 150 141 137 81 188 86 162 147 121 88 123 38 53 84 136 100 113 200 89 126 100 140 125 160 67 145 91 124 224 148 170 95 106 50 119 70 156 86 127 111 134 107 85 80 103 109 145 121 117 191 117 61 108 122 57 85 52 163 87 174 117 82 114 50 135 184 116 97 40 137 170 78 132 142 271 71 133 74 143 191 108 78 86 68 140 123 95 139 192 146 114 77 87 138 168 64 108 85 162 143 125 106 83 82 72 203 144 118 123 124 75 91 83 71 58 93 163 56 67 196 143 114 196 158 162 46 132 107 137 84 153 71 83 70 93 104 104 63 83 59 139 53 112 93 110 88 73 60 67 114 85 140 149 110 88 120 102 147 119 144 135 132 193 159 168 219 194 199 97 68 113 152 46 137 173 53 109 23 71 161 115 224 140 109 95 168 190 29 93 106 197 63 81 93 171 126 144 37 95 51 45 49 171 180 101 119 152 147 72 47 105 113 117 103 118 83 119 138 87 103 70 87 151 151 6 177 136 53 109 67 123 168 148 106 150 146 145 101 149 81 154 79 115 119 174 31 47 153 115 166 105 127 86 95 89 103 32 104 118 170 114 115 132 133 71 132 47 94 155 124 159 97 97 113 145 151 69 115 127 106 98 132 143 121 146 52 92 96 157 159 93 94 106 78 140 83 130 180 116 146 134 69 75 128 170 134 177 67 170 126 109 156 89 61 90 100 105 185 90 74 101 87 84 158 103 223 102 143 49 182 101 103 140 168 138 110 104 66 95 57 169 132 107 36 194 83 123 120 220 147 78 42 150 161 95 28 197 110 145 80 94 74 194 116 141 61 123 117 150 54 184 116 115 91 185 92 193 186 102 115 120 31 81 127 94 99 70 7 94 144 60 147 151 126 239 65 122 151 186 34 83 132 116 106 108 228 157 154 95 163 133 138 32 150 83 128 127 111 120 93 132 117 153 115 122 266 173 96 210 82 115 26 69 129 105 100 67 89 133 59 134 84 130 114 59 132 76 80 110 82 114 124 81 71 155 63 110 121 175 181 111 116 140 89 89 37 61 91 93 89 94 123 59 173 64 61 63 120 124 42 134 39 155 96 75 170 132 88 132 112 100 173 82 147 176 98 129 114 118 109 15 163 80 57 106 180 153 137 93 50 55 93 131 117 110 150 87 120 120 79 162 143 161 118 89 124 80 64 105 73 93 123 150 105 136 90 92 112 56 163 196 119 146 124 118 116 224 190 71 125 142 95 42 150 151 40 152 128 109 69 107 162 111 98 126 91 101 104 125 98 130 142 98 80 143 106 146 125 132 197 33 168 197 128 70 88 128 97 126 42 124 121 105 66 60 108 121 139 26 71 100 98 136 172 128 127 138 97 84 115 142 69 30 118 59 76 205 100 117 94 135 93 97 21 133 166 183 155 230 129 56 179 85 137 106 90 56 35 174 63 119 104 186 124 189 32 83 89 198 75 121 130 160 69 122 105 68 121 73 74 178 118 149 113 92 118 108 138 28 195 118 155 95 105 126 68 99 12 62 91 76 133 181 142 142 104 74 71 182 82 72 78 105 76 142 127 80 143 119 190 135 187 89 76 118 216 150 57 134 79 80 130 162 177 69 116 27 136 180 141 106 131 60 92 113 108 176 122 126 136 89 96 114 98 105 136 149 88 110 137 176 126 92 108 193 77 104 182 84 176 117 38 73 133 140 97 169 73 118 79 52 154 45 41 104 136 45 171 115 44 30 158 114 62 56 123 84 80 129 75 18 94 242 123 90 150 56 207 117 129 181 105 154 119 158 106 124 170 143 94 155 55 98 159 169 205 155 103 121 141 128 106 147 149 103 125 94 34 42 189 114 141 53 124 50 136 125 76 100 158 111 182 108 148 84 110 196 100 170 78 78 111 132 41 76 62 75 75 127 164 190 52 162 104 72 63 106 93 101 59 178 102 70 133 71 89 148 53 72 139 165 98 61 146 162 136 111 87 99 73 139 193 96 216 126 117 183 66 63 159 149 112 63 169 177 88 58 75 102 109 79 119 92 115 154 104 86 170 166 103 230 97 177 104 82 174 124 166 176 169 161 118 148 79 117 103 97 144 123 48 136 69 77 162 73 42 99 114 89 71 116 101 125 207 71 108 116 96 187 32 97 92 140 151 184 98 79 122 108 134 64 159 99 138 121 92 93 128 102 124 115 143 142 161 78 157 111 17 104 97 119 80 100 149 184 102 120 67 107 36 93 131 194 101 67 183 91 162 73 110 148 110 107 159 120 73 230 69 114 116 135 105 157 128 175 107 51 72 129 61 102 147 96 103 118 56 96 199 134 141 91 76 172 132 97 42 21 133 195 45 156 164 104 130 93 102 116 137 86 187 146 90 116 95 175 85 149 119 63 163 91 100 83 117 164 104 87 93 112 79 130 41 91 89 143 93 111 64 198 97 168 90 79 175 100 147 84 125 84 113 137 162 146 99 117 74 132 62 69 134 135 72 160 96 154 86 242 96 94 93 50 90 93 55 132 100 130 157 113 75 97 68 160 88 95 154 140 72 29 96 165 121 136 109 100 117 28 131 105 76 159 107 121 107 124 118 147 53 116 124 139 144 100 174 159 170 67 134 162 91 97 165 196 91 126 67 62 61 88 47 100 129 98 103 148 153 88 63 49 138 152 124 148 82 86 168 122 132 90 119 84 90 91 47 80 67 160 215 98 133 56 104 88 86 154 80 69 81 35 146 147 102 84 127 107 83 171 156 128 103 112 203 171 134 122 39 185 136 74 96 38 148 130 156 133 78 69 79 37 215 133 110 82 81 125 75 107 87 92 128 174 107 110 98 123 55 121 244 91 139 97 145 75 90 99 111 67 136 201 179 100 113 50 163 157 175 175 79 99 172 127 148 94 150 85 157 134 27 103 157 62 58 184 88 49 130 133 70 83 146 88 71 66 159 132 206 72 76 164 72 87 117 92 90 48 93 144 149 192 115 162 51 188 82 108 100 112 188 122 24 71 109 122 135 127 69 121 158 107 136 31 131 188 99 162 97 163 111 79 119 91 66 35 62 101 112 92 61 104 151 122 92 229 90 237 239 80 96 81 104 138 81 130 126 112 84 90 104 121 142 123 137 115 91 167 178 130 115 66 111 32 44 120 80 151 178 219 96 129 100 56 91 52 206 103 80 154 128 82 121 77 29 182 63 113 111 81 115 49 62 99 116 127 101 149 88 156 160 173 120 123 109 150 120 117 85 73 80 121 126 128 180 91 111 49 114 125 140 51 116 159 107 79 120 99 146 92 57 125 75 128 106 171 168 123 139 84 147 72 110 166 48 168 57 103 111 193 96 141 112 74 41 99 127 141 74 85 91 119 49 126 73 84 118 182 131 89 116 180 119 95 38 65 86 105 149 127 15 63 114 100 39 198 81 205 96 98 123 148 97 94 139 186 95 56 187 49 198 153 156 68 127 220 96 193 99 108 135 114 25 147 44 144 183 55 117 116 131 90 61 134 82 113 129 115 77 177 91 64 54 87 70 73 90 112 38 106 114 87 86 141 143 40 101 60 99 102 71 99 103 239 158 105 35 127 89 83 126 191 139 125 156 106 100 197 66 93 75 102 61 161 123 68 38 153 98 77 162 148 149 34 173 117 56 140 95 104 119 104 144 56 160 71 213 132 172 161 111 77 86 122 82 107 82 82 159 34 160 102 151 54 40 69 106 67 168 122 117 108 140 128 112 73 144 115 121 103 139 144 201 205 53 72 76 115 133 54 117 145 67 83 98 141 56 177 146 78 154 159 69 68 120 110 100 92 120 94 32 193 89 146 62 262 77 133 100 117 126 195 135 127 117 118 138 133 73 85 77 52 86 122 138 77 55 226 100 128 97 71 116 108 43 8</t>
+  </si>
+  <si>
+    <t>GAM(0.2211665579770871, -8.630209363260291e-28, 0.6044968120960155)</t>
+  </si>
+  <si>
+    <t>2 1 2 1 2 0 0 0 0 0 0 1 0 0 1 1 2 0 0 1 0 0 1 1 0 1 1 1 1 0 3 2 1 0 2 0 1 0 0 2 1 1 0 0 1 1 1 1 1 1 0 0 1 2 1 0 1 2 1 1 0 0 0 1 1 0 1 0 1 1 0 0 1 2 2 0 0 0 2 2 2 1 2 0 0 0 0 1 1 1 1 0 3 1 0 0 1 4 2 1 4 0 1 1 2 3 1 1 0 1 0 0 2 2 0 0 1 0 0 2 0 1 0 0 1 0 0 1 0 0 0 1 1 1 0 1 0 1 2 0 1 1 0 0 1 0 2 1 1 2 0 0 1 0 2 1 1 1 1 2 0 1 1 2 0 0 0 0 2 0 1 1 0 0 0 2 0 1 1 2 2 0 0 3 1 1 0 1 0 2 0 1 0 0 0 2 3 0 1 1 1 1 0 0 2 3 0 0 0 0 1 1 0 2 1 1 2 1 0 0 0 1 1 2 1 0 1 1 1 1 1 0 1 3 1 0 2 1 1 1 2 0 0 2 1 0 2 0 1 1 0 2 1 2 3 1 2 0 0 2 1 2 2 1 1 1 2 0 1 0 0 1 1 4 0 1 0 2 0 0 0 2 1 2 0 0 1 1 1 1 0 1 1 0 1 2 1 0 0 1 0 0 0 2 2 2 0 2 0 0 0 0 0 2 1 1 0 1 1 0 0 1 0 2 1 0 0 3 0 1 0 0 1 1 0 1 0 1 1 1 2 1 0 3 1 0 0 0 1 0 1 0 3 0 1 1 0 0 0 1 1 0 0 3 1 1 1 1 1 3 3 0 0 1 2 0 1 0 1 2 1 0 1 1 0 0 1 1 1 3 0 0 1 0 2 0 0 1 3 1 0 1 1 0 0 1 0 3 2 2 1 0 3 0 2 2 2 1 0 0 1 3 0 2 2 2 0 1 0 1 1 0 0 1 1 0 0 1 2 2 1 1 1 1 0 2 0 0 1 1 1 1 2 4 1 1 0 1 1 2 1 1 1 1 1 1 0 0 1 1 0 1 1 0 2 0 0 2 2 1 0 2 1 2 1 0 2 1 1 0 0 1 1 0 2 2 0 1 2 1 0 0 1 2 1 2 1 1 1 0 0 0 0 1 1 0 1 1 2 2 1 1 2 0 0 1 2 0 0 2 1 2 0 0 1 1 1 2 1 6 1 1 0 1 2 1 0 1 1 1 0 0 0 1 0 1 0 0 2 0 0 0 0 0 1 2 2 1 0 1 1 0 1 0 0 0 5 0 2 0 1 1 1 0 0 2 0 1 0 0 0 0 3 2 1 0 0 1 0 1 1 1 0 1 0 0 0 0 1 1 1 0 2 0 0 2 2 1 1 2 0 1 0 0 1 0 1 0 1 1 2 1 1 2 0 0 2 4 0 1 1 0 0 2 0 0 1 0 0 0 1 3 1 1 0 0 0 1 0 1 1 2 0 1 0 0 3 1 1 1 0 1 1 1 1 1 0 1 0 2 1 3 0 0 1 0 0 0 0 0 0 1 0 2 2 2 0 0 0 1 0 1 0 0 2 0 1 0 2 2 0 1 1 1 0 1 2 1 1 1 1 2 1 0 3 2 2 2 1 0 2 0 0 0 0 1 2 0 2 0 2 1 1 0 0 0 2 0 1 1 0 1 1 2 2 2 0 1 1 0 0 1 1 1 0 1 3 1 1 1 1 2 1 2 0 1 1 0 1 2 1 1 1 2 0 0 2 0 0 0 1 1 3 1 2 0 2 1 1 0 0 1 0 5 1 1 0 1 0 1 1 2 0 0 1 2 0 1 2 1 1 1 1 1 0 1 1 0 2 0 3 0 0 0 1 1 1 0 3 0 3 0 1 2 1 2 0 2 0 1 2 0 0 1 0 1 1 0 2 1 1 0 1 2 0 2 0 1 0 2 1 1 1 1 2 1 2 1 3 0 2 0 0 2 1 0 0 0 2 3 2 2 0 0 0 2 0 1 0 1 0 1 1 0 0 3 0 1 1 0 0 0 1 1 1 0 0 1 1 1 2 0 3 1 0 0 1 0 0 1 0 1 0 0 1 1 1 0 1 1 3 1 0 1 1 1 2 1 3 2 1 1 1 2 1 5 1 0 1 1 1 2 0 0 1 0 1 0 3 1 1 0 0 0 1 0 1 1 1 1 0 1 0 1 2 2 2 4 0 1 1 0 1 1 0 0 2 0 0 2 2 2 3 1 1 1 0 1 0 1 2 1 1 1 1 0 0 2 0 1 0 2 0 1 0 1 1 2 0 2 0 0 3 0 1 0 0 1 2 1 1 0 2 2 1 3 1 0 0 2 2 1 3 2 1 1 0 2 2 0 0 1 2 3 0 1 0 4 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 3 1 1 0 1 1 0 2 2 3 1 0 4 1 0 0 0 0 2 1 0 1 1 2 0 0 1 1 1 1 2 2 1 1 3 2 2 1 3 1 1 4 2 2 2 0 1 2 1 2 0 0 1 2 2 0 1 0 0 1 1 1 0 0 0 1 1 3 0 1 1 0 2 0 0 2 0 2 0 1 2 1 0 0 1 0 1 0 1 0 0 1 1 2 0 2 2 0 3 0 0 1 3 0 0 2 2 3 1 0 0 0 2 1 1 1 2 1 1 3 0 0 2 1 0 3 0 0 0 1 0 0 1 1 2 0 0 2 1 0 2 1 0 1 2 0 1 0 0 1 1 0 0 1 0 2 1 0 1 2 1 0 0 1 1 1 0 3 0 1 1 1 1 0 0 2 0 1 0 1 1 0 0 1 2 0 1 1 1 2 0 1 1 3 0 0 0 1 0 2 0 0 0 1 2 0 0 3 0 1 0 1 3 1 0 1 1 3 2 1 4 2 0 2 2 1 0 2 1 3 0 1 0 0 0 1 1 0 2 2 0 0 1 2 1 2 1 2 1 2 1 0 0 0 0 0 0 0 1 2 1 0 1 3 3 0 1 1 1 1 0 1 3 0 1 1 1 1 1 1 2 0 1 1 0 1 1 3 0 0 1 3 0 1 1 0 1 1 3 1 2 2 3 0 1 1 0 2 0 1 1 1 0 2 0 3 0 0 1 1 0 2 1 2 1 1 0 3 0 1 0 0 0 1 0 0 0 0 0 2 0 0 1 0 3 2 2 2 1 2 1 0 2 2 3 2 1 2 0 2 1 1 2 1 0 2 1 1 0 2 0 0 1 3 2 0 1 1 0 0 1 1 2 2 0 1 1 2 1 1 0 2 1 1 3 4 0 2 1 0 2 1 2 2 1 0 0 1 0 0 1 0 0 0 1 0 4 0 0 1 0 0 0 2 2 1 0 1 1 3 1 1 2 1 1 0 0 1 0 0 0 0 2 2 0 1 1 3 2 1 1 1 1 0 0 1 0 1 0 1 2 1 2 2 1 2 0 1 1 1 0 5 0 0 1 1 1 0 0 1 0 0 3 0 1 0 0 1 0 0 2 1 2 0 2 1 1 0 1 1 1 1 0 0 0 2 2 0 1 1 1 2 1 0 2 2 0 0 1 2 2 2 1 0 2 0 2 0 1 0 3 1 0 1 3 0 3 0 1 0 1 1 0 1 0 1 2 1 2 0 1 0 3 0 0 1 1 1 0 1 0 3 1 0 1 2 1 0 0 2 0 0 2 0 2 0 0 1 2 0 1 0 0 0 0 0 0 1 1 3 0 1 0 1 0 0 1 1 2 1 0 0 1 2 0 1 0 1 2 3 1 2 2 2 2 0 0 0 0 2 1 0 2 0 1 0 1 1 1 2 4 2 3 1 1 1 0 0 0 2 0 0 0 1 2 1 1 0 1 1 0 2 2 0 0 0 0 1 1 0 1 1 1 1 1 1 1 0 1 3 0 1 2 2 0 3 0 1 0 1 1 0 1 2 1 0 1 0 1 1 1 3 0 2 1 0 1 1 1 0 1 0 0 0 2 0 3 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 2 0 3 0 2 1 3 1 0 1 1 2 1 1 1 1 1 2 2 1 0 1 2 0 1 1 3 0 2 2 0 0 0 0 2 3 1 0 0 0 2 2 1 1 0 0 0 4 1 1 0 0 1 1 1 1 1 2 1 1 0 2 2 1 0 1 0 1 0 2 2 0 0 1 2 1 1 1 1 0 1 1 0 0 0 2 0 0 0 2 0 1 2 0 0 0 1 1 1 1 1 0 0 2 1 1 1 1 1 2 0 1 0 2 1 1 1 0 2 1 1 0 3 2 0 2 2 1 0 0 1 1 0 0 1 2 1 1 1 0 3 1 1 2 0 2 2 1 2 1 0 1 1 0 3 0 1 0 1 0 1 3 0 1 0 0 1 0 2 0 1 0 1 2 0 2 0 1 1 0 0 0 1 0 1 1 2 1 0 1 1 1 2 1 1 0 1 1 1 2 1 2 2 2 0 1 1 2 0 0 0 2 0 0 0 0 2 1 3 1 2 1 2 1 1 1 0 0 3 1 1 0 0 2 0 1 0 0 1 2 0 1 2 0 0 0 2 1 3 2 0 2 0 0 1 2 0 1 2 0 2 1 1 0 1 1 2 1 1 0 2 2 0 0 0 1 0 0 1 2 3 0 0 1 0 0 1 1 0 1 1 1 1 3 0 0 1 1 0 0 3 0 2 2 0 1 1 0 1 1 0 3 0 1 1 3 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 3 2 0 0 0 0 0 0 0 0 1 1 2 1 0 1 2 1 1 3 0 0 3 0 1 2 0 0 0 0 1 2 2 3 1 1 2 1 1 1 1 0 2 1 0 0 0 0 5 1 3 0 0 0 0 2 0 3 1 0 0 1 3 2 0 0 0 0 1 2 1 0 1 4 1 0 1 0 0 2 0 0 0 1 1 2 2 0 1 1 1 1 4 1 0 2 3 0 2 1 0 0 2 1 0 1 1 0 1 1 2 2 0 1 0 3 1 1 0 1 1 1 0 1 2 1 0 0 1 1 2 1 1 0 1 1 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 2 1 1 1 0 0 0 1 0 1 2 0 1 0 0 0 0 2 2 0 1 1 0 1 2 1 0 0 0 0 0 1 1 1 1 1 0 0 2 1 0 0 1 0 1 0 1 3 2 1 0 0 1 1 2 0 2 0 0 1 0 2 2 0 0 1 0 2 1 2 2 0 1 0 0 0 1 1 4 0 0 0 1 0 1 0 1 2 1 0 2 2 1 1 0 0 1 2 1 1 1 1 0 1 0 1 1 0 0 2 0 1 1 0 0 2 0 1 1 1 1 0 0 0 1 0 1 0 0 0 2 0 2 2 1 1 0 0 1 1 0 0 2 2 0 1 0 0 0 2 1 1 1 0 0 2 2 1 2 1 0 0 0 3 0 1 0 1 1 1 2 1 0 1 1 2 0 2 2 1 1 0 0 2 1 1 1 2 2 2 2 0 2 1 0 2 3 1 1 0 2 0 2 0 1 0 0 1 2 1 1 1 2 2 1 0 1 0 1 1 2 1 1 1 0 2 3 1 0 1 0 1 0 1 1 0 0 0 1 1 0 1 0 1 0 1 2 0 0 1 0 1 0 2 1 2 1 2 1 1 1 1 1 0 1 0 1 1 0 0 0 0 2 1 1 0 0 0 1 2 0 0 3 0 2 1 1 1 1 1 1 0 2 0 1 1 3 3 1 1 0 1 3 2 2 1 0 1 2 0 1 1 2 0 0 0 2 2 1 0 2 1 1 2 0 0 1 1 0 1 2 0 1 1 0 0 3 0 1 0 0 1 0 1 0 0 1 1 0 0 1 2 0 0 1 0 0 0 0 0 1 4 1 1 1 0 0 1 1 2 1 1 1 0 0 2 2 2 0 2 2 1 1 0 1 1 0 1 0 2 2 2 0 0 0 1 2 0 0 1 0 0 1 3 2 3 1 0 0 2 1 0 0 1 2 2 1 2 1 0 1 2 2 0 0 0 0 0 2 0 2 2 0 2 1 2 2 0 1 1 2 2 0 1 1 1 0 0 1 0 1 2 0 4 1 1 1 0 0 1 3 0 0 1 1 1 0 0 0 1 0 2 0 0 1 0 3 0 0 0 0 0 0 1 2 1 1 2 1 2 0 2 1 3 0 0 0 2 1 1 2 1 2 0 0 1 3 1 2 1 1 1 0 3 0 0 1 1 0 2 0 0 0 0 2 0 2 1 0 0 0 3 0 2 2 0 1 1 1 1 2 1 1 2 2 0 0 0 0 0 0 0 0 1 1 1 4 0 1 2 0 0 0 2 0 0 1 1 3 3 0 1 0 1 1 0 0 1 0 0 1 0 3 2 0 1 2 2 0 0 1 1 0 3 0 2 2 1 1 1 1 0 0 0 2 0 2 2 0 0 2 0 0 1 2 2 1 2 1 1 1 1 0 0 1 0 1 1 0 1 0 1 2 1 1 2 0 0 1 3 1 0 2 0 2 2 1 0 1 0 1 0 0 0 1 1 3 1 2 1 1 0 1 0 2 3 1 0 0 1 1 2 0 0 0 0 0 1 0 3 0 0 1 0 0 2 0 0 0 0 1 2 0 0 0 0 0 1 1 2 0 1 0 1 1 1 2 0 1 3 1 1 1 0 0 1 0 1 2 0 1 1 2 0 0 1 0 0 2 0 0 0 0 1 1 1 2 0 1 0 1 1 5 0 2 0 1 0 0 1 1 1 1 2 0 2 3 0 0 1 1 2 0 0 1 0 1 1 1 1 0 1 4 1 0 0 0 0 1 2 1 1 3 1 1 2 3 1 2 1 1 1 1 0 2 1 1 0 1 1 1 0 1 1 0 2 0 1 0 1 2 0 0 0 0 2 0 0 1 0 0 0 0 1 0 3 0 0 2 2 1 0 1 1 3 2 0 0 0 0 1 0 0 0 2 2 0 3 0 2 0 2 1 2 2 0 0 2 0 2 0 0 0 1 1 1 0 0 0 1 1 1 0 2 3 2 2 0 0 2 3 2 2 1 0 2 2 2 2 0 1 1 0 0 0 1 0 0 0 1 2 0 2 1 0 0 2 0 0 2 2 1 0 0 1 1 2 2 0 0 1 1 2 1 2 0 2 0 1 1 0 1 2 0 0 1 1 2 0 1 0 0 0 0 3 1 1 1 1 2 1 0 1 1 1 1 1 1 0 0 0 2 3 1 0 0 1 0 1 1 0 3 2 1 0 4 1 1 0 0 0 2 0 1 1 1 0 0 2 1 0 0 0 0 1 2 0 2 2 0 1 2 1 1 1 1 1 3 1 1 0 2 0 1 1 0 0 0 0 0 1 1 1 1 2 1 0 1 1 0 2 1 1 2 1 2 0 0 0 0 0 1 2 0 2 2 1 0 0 0 0 1 1 3 0 2 0 0 1 1 1 0 1 0 0 2 2 3 0 0 1 0 1 0 0 0 0 5 1 2 0 3 1 0 0 0 1 1 1 1 2 0 1 0 4 1 2 1 0 1 2 1 1 1 0 0 2 0 3 3 2 2 1 0 0 0 1 0 2 1 1 0 1 1 1 1 0 1 1 0 0 0 0 1 1 1 3 0 0 1 1 1 0 2 1 0 1 0 0 0 1 1 1 1 2 0 1 0 2 2 2 1 3 1 1 0 2 1 1 0 3 3 1 0 1 0 1 3 0 0 1 0 1 2 1 2 2 0 0 0 1 1 0 0 1 2 0 2 2 1 1 1 2 0 1 2 1 0 0 1 0 1 1 1 3 1 2 1 0 2 1 1 2 2 1 1 1 3 0 1 3 1 0 0 0 0 2 3 3 2 1 1 2 1 0 1 2 1 1 1 2 0 2 0 0 0 0 1 0 1 0 1 1 0 1 1 0 0 0 2 0 1 1 1 1 0 1 0 0 0 3 2 0 1 1 0 0 3 2 0 1 1 0 1 1 0 1 0 0 0 0 2 0 1 1 3 1 3 0 0 3 1 1 1 1 1 0 0 1 0 0 1 1 0 0 2 0 2 1 0 1 5 0 1 1 2 1 2 0 1 3 1 0 0 0 0 0 2 0 2 1 1 0 0 1 1 1 2 3 1 2 1 0 1 1 1 4 0 0 1 2 1 1 1 1 1 1 0 0 0 0 1 0 1 0 1 1 1 0 0 2 0 1 0 2 0 0 0 0 1 0 2 0 0 1 0 3 1 0 2 3 0 1 0 3 1 3 1 0 1 1 1 2 0 0 3 1 1 2 2 2 0 1 0 0 0 1 0 2 0 1 1 1 1 0 0 1 0 1 0 0 1 0 0 1 1 1 1 3 2 1 0 0 0 1 0 1 1 0 2 1 2 0 1 0 1 1 1 2 1 0 0 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 1 0 1 2 0 2 2 0 1 2 2 0 2 1 1 0 1 1 0 0 2 0 1 0 1 0 2 0 0 1 0 2 1 0 0 1 0 0 1 2 1 0 1 2 0 1 1 0 0 0 1 3 1 0 0 2 0 1 0 0 0 1 0 1 0 1 0 0 1 0 0 2 1 0 3 2 1 1 3 1 0 1 1 0 3 0 1 2 1 0 1 3 0 1 0 0 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 1 0 2 0 1 2 0 0 2 2 0 3 1 1 0 0 1 1 1 0 1 1 0 0 0 2 2 0 0 1 0 0 0 0 0 0 2 1 0 0 2 0 2 3 1 0 0 1 1 0 1 2 1 1 2 0 0 1 2 1 1 1 2 0 2 1 1 0 0 0 2 2 1 0 1 1 0 1 1 2 0 1 1 0 0 0 2 1 0 0 2 1 0 0 1 0 0 1 1 1 1 2 2 1 0 2 1 0 2 1 1 0 3 1 1 1 2 1 0 0 0 1 1 2 1 0 2 1 0 0 2 1 0 2 0 2 0 1 1 1 0 1 0 1 0 1 0 2 1 0 0 1 0 1 1 0 0 0 1 0 0 0 1 0 3 0 0 0 0 0 1 3 2 1 0 2 2 0 2 0 1 1 0 1 0 0 1 1 1 1 0 0 2 1 1 1 0 0 0 1 2 1 1 0 2 1 2 0 0 0 0 2 1 3 2 0 1 0 2 3 0 0 2 0 2 3 2 0 1 0 1 1 2 1 3 0 0 1 2 1 1 1 1 1 0 2 1 2 0 0 2 1 1 1 1 0 1 0 1 1 1 1 3 0 0 1 0 1 1 1 2 0 1 0 0 3 1 1 1 0 0 0 0 1 2 1 0 2 0 0 0 2 1 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 3 1 0 2 0 1 0 1 2 1 1 0 0 1 0 2 1 3 2 1 1 1 0 1 1 3 0 1 1 1 0 1 0 0 2 0 1 1 0 0 2 2 0 0 2 1 2 1 0 1 0 0 1 1 1 1 1 1 2 3 0 1 1 1 0 0 2 2 1 1 1 1 1 0 0 2 1 3 1 0 0 1 3 2 1 0 2 1 0 1 1 0 0 1 0 1 1 2 0 2 2 0 2 0 2 0 0 1 0 0 1 2 0 0 1 1 0 0 3 1 0 3 0 1 1 1 1 2 4 0 2 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 1 2 0 1 0 1 0 0 1 2 1 2 0 0 0 0 1 0 1 2 2 2 2 2 0 1 0 0 1 1 1 4 2 2 1 0 0 0 1 2 2 0 2 1 1 1 2 0 0 1 0 0 0 1 1 0 2 2 0 0 1 0 0 1 1 3 1 1 1 1 0 0 0 1 2 3 1 3 3 2 0 0 2 0 0 1 2 0 0 0 1 0 1 0 1 1 0 1 0 0 0 2 0 3 1 1 1 1 1 2 0 0 1 0 0 2 3 0 1 2 1 0 0 0 0 2 0 0 2 2 1 0 1 1 0 0 1 1 1 1 2 0 2 2 1 1 1 3 1 1 1 0 2 0 3 2 2 0 1 2 2 1 1 0 2 0 0 0 1 2 0 1 0 0 1 1 0 4 0 0 1 1 0 0 0 0 0 3 1 1 0 2 0 0 0 0 1 2 0 1 0 2 1 1 2 1 0 0 0 0 1 0 0 1 2 0 1 1 0 0 1 0 1 0 2 5 1 0 0 0 0 1 1 0 1 0 0 2 0 1 0 0 0 2 0 0 1 1 1 1 0 1 0 1 0 0 1 1 0 2 2 1 0 1 4 0 0 1 1 2 3 0 1 0 2 0 0 0 0 1 0 0 1 1 1 1 1 1 2 0 0 1 0 2 0 1 0 2 1 1 0 0 1 3 0 1 1 1 0 1 0 2 1 0 0 0 0 1 0 0 1 1 2 0 1 1 3 1 1 1 0 1 0 0 2 0 1 0 1 3 1 0 2 0 0 0 0 0 0 2 1 0 1 0 2 2 2 0 4 0 1 0 1 0 2 4 2 0 1 1 2 0 0 0 0 2 1 0 1 1 1 1 1 0 1 2 1 1 0 2 1 1 1 1 0 1 0 0 4 1 0 2 1 1 1 0 3 2 2 1 3 1 3 0 2 0 2 0 2 1 0 2 0 1 0 1 1 0 0 1 1 3 0 1 1 1 0 1 3 1 1 0 1 0 1 2 0 2 0 1 1 1 0 0 0 3 1 3 2 0 2 0 0 0 0 0 3 3 0 0 1 1 3 2 2 2 1 2 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 3 1 2 3 0 3 0 0 0 1 0 2 1 1 0 0 1 2 0 1 1 1 1 0 0 0 1 1 1 2 0 1 0 1 1 0 0 1 0 0 1 0 1 0 1 2 1 1 1 2 0 1 1 1 2 0 0 1 1 1 1 2 2 0 0 0 2 0 1 1 1 1 1 2 1 2 1 1 2 0 0 2 1 0 0 1 2 1 0 1 1 0 1 1 2 2 0 2 3 1 1 0 1 0 2 1 2 0 1 1 0 0 0 0 0 0 0 1 0 1 3 1 1 1 0 2 0 2 1 1 3 0 0 1 2 1 1 1 1 0 2 0 0 2 1 0 1 4 0 1 2 0 0 3 1 2 1 0 1 2 0 0 2 3 0 0 0 2 0 0 1 2 3 2 0 1 2 1 2 1 2 0 2 1 1 0 2 1 1 1 0 2 3 0 0 2 2 1 0 1 0 0 2 1 1 0 2 1 1 0 1 0 0 0 0 1 0 1 1 2 1 0 2 0 1 1 2 0 0 1 1 1 0 2 2 0 2 3 2 0 0 1 0 0 0 1 0 2 1 0 1 0 2 2 2 4 0 2 2 3 0 2 1 1 3 0 0 1 0 1 0 2 1 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 1 1 0 1 0 1 1 1 2 1 3 2 1 1 1 0 1 1 0 0 0 0 3 0 1 2 1 1 2 0 0 0 2 2 0 0 1 0 1 0 2 2 0 1 2 1 0 2 0 1 1 0 0 1 2 1 1 1 0 0 2 2 1 0 0 1 0 0 1 2 2 0 0 1 3 0 0 1 0 1 1 0 1 2 1 1 0 0 2 2 0 0 0 1 0 1 1 1 0 1 1 0 1 1 1 1 0 0 2 1 1 0 2 0 1 0 0 3 0 1 2 0 1 0 2 0 1 1 1 2 1 3 2 1 0 3 3 1 1 0 0 0 0 2 2 3 1 1 0 0 1 1 2 2 1 1 0 0 0 0 2 2 0 0 1 0 0 0 2 0 1 0 1 0 0 0 1 0 0 2 1 1 3 3 0 2 2 1 0 0 1 0 1 1 0 1 1 0 1 1 1 0 2 2 1 2 3 1 1 0 1 1 1 0 0 1 0 1 0 0 0 1 1 1 2 0 0 0 0 2 0 0 1 0 0 0 2 0 0 0 1 0 1 0 1 1 4 2 0 1 0 1 2 0 2 1 1 3 0 0 2 2 1 1 1 2 3 2 1 1 3 1 0 0 3 2 0 1 2 1 1 1 1 1 1 0 0 0 0 1 0 0 0 0 2 0 1 1 0 2 2 1 0 1 1 1 2 0 1 0 0 1 1 1 1 2 2 0 0 1 0 0 1 4 1 1 0 1 2 1 2 2 2 1 0 2 1 0 0 3 0 0 0 0 1 1 1 1 0 1 1 2 2 0 1 1 0 1 1 0 1 1 0 0 0 1 0 3 1 1 0 1 1 1 0 1 1 2 0 1 1 0 1 0 3 2 0 1 1 2 1 3 0 4 3 1 1 1 2 0 1 2 2 2 0 1 0 3 2 1 0 0 0 0 1 2 2 1 0 2 0 0 0 2 1 2 1 0 0 0 0 2 1 0 2 1 0 0 1 1 1 0 0 1 1 0 1 1 1 0 0 2 0 1 3 0 1 0 0 1 1 2 1 1 0 2 0 0 1 1 1 0 1 0 0 0 1 1 0 1 2 1 1 1 0 0 3 1 1 1 0 3 1 1 3 2 2 2 0 0 1 0 1 1 0 1 0 0 0 0 1 1 2 1 2 1 2 0 1 1 0 3 1 0 1 1 0 1 0 2 2 0 0 0 0 0 1 0 0 2 1 0 1 4 0 1 0 0 0 0 0 0 2 0 1 0 0 0 0 2 1 0 0 0 2 1 2 1 3 0 2 1 0 1 3 0 0 0 0 2 1 2 0 1 0 1 1 0 0 0 1 1 1 0 1 0 1 1 3 0 0 1 0 0 0 0 1 2 3 1 0 1 2 0 2 1 0 2 1 2 1 0 1 1 1 1 0 1 0 0 2 0 1 0 1 0 2 2 0 2 0 1 2 0 0 0 1 0 0 1 0 1 1 1 0 0 1 0 1 1 3 0 1 0 0 1 0 0 1 0 1 1 0 1 3 0 0 0 3 2 0 1 1 1 1 0 0 1 1 2 0 0 1 1 0 4 0 1 0 2 1 2 0 0 1 2 1 0 1 1 0 1 0 1 1 1 1 2 1 1 0 0 1 1 0 1 0 1 0 1 1 1 0 0 1 0 1 1 1 1 0 2 2 1 0 0 2 0 2 1 2 0 1 0 0 2 1 2 1 0 0 1 1 0 0 0 0 0 1 2 1 1 1 0 1 0 0 2 2 0 1 0 0 1 1 1 1 0 0 2 1 2 0 1 1 1 1 1 0 1 0 0 0 1 0 0 0 3 0 1 0 1 0 0 0 1 2 0 1 1 0 0 0 1 0 2 1 1 1 2 1 2 0 0 1 0 0 1 1 1 1 0 2 1 1 0 0 1 2 1 2 0 2 0 1 1 0 2 0 1 3 1 1 1 2 1 0 1 0 0 0 0 2 1 2 2 0 0 0 2 1 1 0 0 1 1 1 1 1 0 2 2 0 0 1 1 2 3 1 0 0 1 3 1 0 0 2 1 1 0 1 0 1 1 2 1 0 0 2 1 1 1 2 0 3 1 1 0 1 2 0 0 0 0 0 2 0 3 1 1 0 0 1 0 0 1 0 2 3 0 0 1 0 1 0 1 1 1 2 1 0 0 0 0 3 3 1 1 0 1 2 1 0 0 1 2 2 1 1 0 2 0 1 1 1 1 2 0 0 0 0 0 0 3 1 1 0 1 1 1 1 0 0 2 2 0 1 0 1 1 1 2 0 3 0 0 0 2 1 0 1 1 1 0 0 0 0 0 1 2 2 1 0 1 2 3 0 2 0 0 3 1 3 3 1 1 1 0 3 3 3 0 3 0 2 1 1 0 0 1 1 1 1 0 1 0 0 2 1 1 0 1 3 2 1 1 1 1 1 0 0 0 0 0 1 0 1 2 1 3 2 2 2 2 0 1 1 0 0 2 2 1 0 1 0 0 0 1 1 1 1 0 2 1 2 3 1 0 1 2 1 1 1 0 1 2 1 0 0 1 1 1 1 2 1 0 1 0 0 0 1 1 0 0 2 0 0 2 2 0 3 0 2 4 2 2 1 1 0 0 0 2 0 0 2 0 1 1 1 0 0 1 3 1 1 2 4 0 0 0 3 2 0 0 1 1 0 1 0 1 2 1 0 0 2 1 0 1 1 1 2 0 2 1 0 2 0 1 2 0 2 0 0 0 0 0 0 2 1 1 1 1 1 0 2 0 1 0 1 1 1 3 1 0 0 1 1 0 1 1 0 2 0 0 1 1 3 1 1 2 2 0 0 0 1 1 1 0 2 1 2 0 2 0 0 3 0 0 1 2 1 2 1 0 1 1 2 1 0 0 0 0 1 0 0 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 1 1 0 1 0 0 2 0 0 1 1 0 0 2 3 0 0 1 0 0 0 1 1 3 1 0 1 3 1 0 1 0 2 0 0 1 0 0 0 1 1 2 1 1 1 0 1 0 1 3 0 1 1 0 2 4 1 0 0 1 0 2 1 0 0 1 0 0 1 2 0 0 1 1 1 1 0 1 1 1 0 0 0 1 4 2 0 1 1 0 1 1 1 1 1 1 1 2 2 0 0 2 0 1 0 0 1 1 2 1 1 1 1 2 2 1 1 0 1 1 2 1 0 0 0 1 2 2 1 1 1 1 0 1 1 1 1 1 2 1 2 0 0 1 1 0 0 3 2 0 2 0 3 2 2 0 3 0 1 1 0 0 2 2 3 0 1 1 2 0 0 0 2 0 2 0 0 1 0 1 3 1 1 1 4 0 2 2 0 1 2 1 3 1 1 0 1 3 1 0 1 1 2 1 0 2 0 1 2 0 1 2 0 0 2 2 1 0 0 0 2 2 0 1 0 2 0 1 2 2 1 1 0 2 0 2 1 1 3 2 0 0 0 2 0 0 2 3 3 0 2 1 0 1 0 0 0 0 1 2 1 2 2 2 0 2 2 0 3 1 0 1 0 2 0 2 0 1 2 0 2 0 0 0 2 1 1 0 2 0 1 2 0 2 0 1 0 0 2 0 1 1 0 0 0 0 1 0 2 1 1 0 2 1 0 1 0 0 1 0 1 0 0 0 0 0 2 1 3 1 1 2 0 1 1 2 1 0 0 2 0 0 0 1 1 0 2 1 0 0 2 0 1 0 0 2 0 0 0 2 1 1 2 0 1 1 0 0 1 1 3 2 1 2 0 0 2 0 0 1 2 1 0 0 0 0 1 0 1 1 0 2 0 1 0 1 0 2 0 0 0 0 1 0 1 0 1 2 1 0 1 1 0 2 0 1 0 0 0 2 2 2 0 1 1 1 0 1 1 2 1 2 1 1 0 0 0 0 1 1 1 1 1 2 1 1 2 2 3 2 1 1 1 1 0 3 1 0 1 0 1 0 2 1 2 1 0 4 1 1 3 2 0 0 0 1 2 0 0 0 2 1 0 0 2 2 1 0 0 0 2 1 2 0 1 0 1 0 1 0 0 0 1 0 2 1 0 1 0 0 0 0 0 0 0 2 0 0 1 1 0 0 2 2 1 0 2 2 0 0 0 0 0 2 0 1 1 3 0 1 0 0 2 1 0 0 1 1 0 1 0 1 3 2 0 1 0 0 1 0 1 0 1 2 2 0 0 3 0 0 1 1 1 0 0 0 0 2 2 0 0 0 0 0 3 2 0 1 0 1 0 0 1 0 1 1 0 0 0 1 1 0 0 1 3 2 2 2 1 1 2 0 1 0 1 2 0 1 3 0 1 0 0 4 1 1 0 2 1 1 0 1 4 0 1 1 2 0 2 1 3 2 1 1 0 1 0 1 3 0 1 1 2 1 1 0 1 1 1 1 1 0 3 1 0 0 0 1 2 1 1 2 4 0 3 4 1 3 2 1 0 0 1 0 0 3 2 1 1 2 2 0 0 0 0 1 0 0 2 1 1 1 1 0 0 0 1 1 2 1 0 0 0 1 0 2 0 1 1 0 2 1 0 1 0 0 2 2 4 1 0 0 2 0 0 1 0 0 0 0 1 1 0 1 3 2 2 2 1 1 0 1 1 0 1 2 1 2 2 0 1 1 0 1 0 0 1 1 2 0 1 0 0 1 1 1 2 2 2 0 1 0 2 0 2 0 0 2 0 0 1 0 1 0 1 0 1 2 2 0 1 0 0 1 0 1 2 1 0 0 1 0 0 1 1 1 2 0 1 2 2 1 0 0 1 0 1 1 0 2 0 0 0 1 2 2 1 2 0 2 0 1 0 0 2 1 1 0 0 1 1 1 2 0 0 1 3 1 0 0 1 0 1 1 3 0 0 0 0 1 1 1 1 0 1 0 0 0 1 0 2 2 0 2 1 0 1 0 0 0 2 0 1 1 1 3 0 3 2 1 1 1 1 2 0 0 0 2 0 0 1 0 1 1 1 2 2 1 0 0 2 1 1 1 0 1 0 0 0 0 2 2 0 1 0 3 0 1 1 1 0 0 2 1 0 0 0 0 2 0 3 0 3 0 0 1 1 1 3 0 1 0 0 3 1 0 1 3 0 1 1 1 2 0 0 1 2 0 2 1 0 4 1 1 2 1 1 2 1 1 1 3 2 1 1 0 0 0 2 2 2 1 1 1 0 2 0 0 0 1 1 0 1 0 1 0 2 3 0 1 1 2 0 3 1 1 0 2 0 2 2 0 0 2 0 0 1 0 0 3 0 1 2 1 2 0 2 0 1 1 2 1 0 1 2 3 1 1 3 3 1 0 1 1 2 0 0 1 0 2 0 1 1 1 1 0 1 0 1 1 0 1 1 2 2 2 0 4 1 0 0 1 1 0 0 1 1 0 2 1 0 0 1 0 1 0 0 2 2 1 3 0 1 0 2 1 0 0 0 0 0 1 0 0 1 3 1 1 1 1 1 2 0 1 1 2 0 2 0 0 1 0 2 0 0 1 0 0 0 0 2 0 2 1 1 1 2 0 0 0 2 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 2 0 1 1 2 1 1 0 1 0 0 0 0 2 2 1 1 0 0 2 3 1 2 1 1 1 1 1 0 2 0 0 0 0 2 2 0 1 1 2 0 2 0 1 0 1 0 2 2 1 0 0 0 1 0 1 2 1 3 0 2 1 1 2 2 0 2 0 1 3 0 0 2 2 2 0 1 0 1 3 4 1 1 2 1 0 2 0 2 0 3 0 2 0 2 2 0 0 0 2 2 4 0 0 1 0 0 1 1 1 2 0 2 0 2 0 3 0 1 2 1 3 2 0 0 2 3 0 1 1 0 1 2 0 1 1 1 0 2 1 1 1 2 2 2 1 0 0 1 2 0 0 0 0 1 1 2 1 0 2 0 1 2 0 1 0 1 3 0 1 2 0 0 0 1 1 2 0 0 0 0 0 0 0 1 1 0 1 0 0 1 0 0 2 1 1 1 0 0 0 1 2 1 0 1 1 1 1 0 1 2 2 3 1 1 1 0 1 1 1 0 2 1 3 0 0 0 2 1 1 1 1 1 0 0 1 0 1 1 2 0 2 1 0 0 0 2 1 2 2 0 1 2 0 0 1 2 1 1 2 1 2 4 0 1 2 0 0 0 1 2 0 0 1 2 0 0 1 0 0 1 1 1 1 0 0 2 2 2 1 3 0 1 1 0 2 0 0 4 1 1 0 0 1 0 0 1 2 2 0 0 0 1 2 0 0 1 1 1 3 1 1 0 0 0 1 1 0 0 0 0 1 1 0 1 1 1 0 1 0 2 0 1 1 3 0 0 1 1 1 0 0 0 0 1 0 2 0 1 1 2 0 0 2 1 0 1 1 1 1 2 1 1 2 1 0 2 1 1 0 0 1 0 2 0 2 1 2 2 2 2 0 1 0 0 1 1 1 1 1 1 0 1 1 1 0 0 1 0 0 1 3 1 0 1 3 0 0 0 0 0 2 2 1 0 0 2 2 2 1 1 2 0 0 1 3 1 0 2 0 1 1 1 1 1 1 1 1 1 1 0 0 1 0 0 1 0 2 3 0 1 0 2 3 0 1 1 1 1 2 1 1 2 1 1 0 1 2 1 1 2 0 1 1 1 1 1 1 0 0 1 1 1 0 0 0 0 1 1 4 0 3 0 2 1 1 1 1 2 2 1 1 1 0 3 0 1 1 1 2 2 0 2 1 0 1 0 1 2 1 0 0 1 0 0 0 0 0 0 2 0 1 1 1 1 1 1 1 3 2 1 0 1 0 1 1 0 0 1 1 1 1 1 0 2 2 2 0 5 1 1 0 0 1 0 1 1 1 0 1 0 0 2 0 0 2 2 1 0 2 2 3 2 0 0 1 2 1 0 1 4 0 0 1 0 1 2 2 0 2 0 1 0 2 1 0 0 1 1 0 2 0 2 0 0 0 0 1 2 0 0 2 2 1 0 0 1 0 0 1 1 0 2 1 1 1 1 0 1 3 0 0 1 1 1 1 2 3 0 3 0 0 0 1 1 0 0 1 0 0 2 1 1 0 0 1 1 1 1 1 0 1 2 1 2 0 1 2 3 1 1 1 0 0 1 1 0 0 0 1 3 1 2 1 1 0 0 1 1 0 0 1 1 2 1 0 0 0 1 0 1 0 2 2 1 1 1 1 1 0 1 1 1 0 1 1 1 2 1 0 1 0 1 2 1 0 1 1 1 1 0 0 0 1 2 0 3 0 1 2 0 2 1 0 1 1 1 0 0 0 1 0 1 1 0 0 1 1 0 2 1 0 0 1 1 0 0 0 0 0 0 0 1 0 2 0 0 1 0 1 0 3 0 1 0 1 2 3 3 2 0 0 0 0 0 1 1 1 2 0 3 2 0 1 1 2 0 0 1 0 1 0 1 1 0 0 3 0 1 1 0 2 1 1 0 0 1 0 2 0 0 1 0 2 1 0 2 0 1 0 1 0 1 0 2 2 0 1 2 1 1 4 0 1 2 0 0 0 1 0 0 1 0 0 0 0 1 1 1 2 1 0 1 1 0 0 1 1 0 0 1 0 1 1 1 1 1 2 0 1 1 1 3 1 0 0 1 1 2 0 1 3 1 0 0 0 1 0 1 0 1 0 0 0 3 0 0 4 2 2 1 0 1 3 1 2 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 1 0 0 1 0 1 2 1 2 0 2 0 0 0 0 2 0 2 3 1 2 0 1 2 1 2 1 3 2 0 0 1 1 1 2 1 0 1 1 0 1 2 0 0 0 2 0 0 0 1 2 0 2 0 2 0 1 2 0 0 0 0 1 0 1 2 1 2 2 1 1 1 0 0 2 1 0 0 0 1 1 2 2 1 0 1 1 0 0 0 1 2 0 1 1 1 1 0 0 1 0 1 0 0 0 1 2 0 0 2 1 2 0 2 1 0 1 1 0 2 1 2 1 1 0 1 1 1 0 2 0 1 0 0 0 0 0 1 1 0 1 1 1 1 1 1 1 2 1 0 1 0 2 1 0 1 0 0 0 0 0 2 0 2 3 0 1 1 0 0 0 0 1 5 0 2 3 0 3 1 1 0 1 0 2 1 2 1 2 2 3 0 1 0 0 0 0 1 1 1 1 0 0 0 0 1 0 1 0 2 0 2 1 0 1 1 1 0 3 1 1 1 0 1 0 1 1 0 1 0 0 0 3 1 1 0 2 0 0 2 1 1 1 2 1 0 2 2 1 0 0 0 1 1 1 0 0 0 1 1 1 1 0 2 3 1 1 1 1 1 0 2 1 1 1 0 2 1 2 0 1 1 1 0 0 0 1 2 0 2 0 2 2 0 0 1 0 1 0 0 0 2 2 1 0 0 0 0 1 0 0 1 0 1 0 1 2 0 0 1 1 0 1 0 0 2 0 0 1 0 1 2 0 2 0 1 0 3 1 0 1 1 2 2 0 1 2 0 0 1 0 0 1 1 1 0 0 1 1 0 2 2 0 1 1 2 2 0 0 0 1 1 0 1 0 2 0 0 0 1 1 1 1 0 1 0 3 0 2 1 0 1 0 1 1 1 0 2 1 0 4 1 1 0 0 0 0 0 1 3 0 1 0 1 0 0 0 1 0 1 1 1 1 0 1 0 1 2 1 0 0 2 0 1 0 0 0 1 1 2 0 3 0 1 3 2 1 3 1 1 0 1 1 2 1 0 0 0 0 2 1 0 0 1 1 1 0 0 0 0 0 2 1 0 3 0 2 1 2 1 1 1 2 2 1 0 1 0 0 1 0 2 1 0 1 1 1 0 0 1 0 0 1 0 0 0 2 2 1 0 1 1 0 1 0 0 0 0 1 1 0 0 1 0 0 1 0 3 0 1 1 0 0 2 0 0 0 0 1 1 1 1 2 0 0 0 1 1 1 1 1 1 1 1 1 1 2 0 0 1 2 1 3 1 0 1 0 1 1 1 0 0 0 1 3 0 1 0 3 0 1 4 2 0 1 0 0 0 1 0 1 1 0 0 1 1 1 1 2 0 0 4 2 2 2 0 0 1 1 1 1 0 2 1 0 0 1 0 1 2 1 0 0 2 1 1 1 0 2 4 1 1 1 0 3 0 1 0 1 2 0 0 0 1 2 0 0 0 1 1 0 2 2 1 1 0 1 2 0 0 2 0 0 1 0 0 0 1 0 3 2 2 0 3 0 2 0 1 1 0 1 1 0 1 3 1 3 2 0 1 0 0 2 0 1 1 0 1 1 0 2 3 0 0 1 1 0 1 1 0 3 1 0 0 4 0 1 0 1 1 3 1 1 2 0 0 2 0 0 1 0 1 0 2 3 1 0 1 2 1 0 1 1 2 0 1 0 1 0 2 4 2 1 0 0 0 1 0 1 1 0 1 1 1 0 1 0 3 2 2 2 0 0 2 0 1 0 0 2 1 0 0 0 2 1 2 1 2 0 2 1 0 4 0 1 0 1 1 1 2 0 1 1 0 3 1 2 0 1 0 2 0 0 2 1 1 2 2 2 2 3 0 1 1 3 0 0 1 2 1 1 0 2 2 0 1 0 0 2 1 2 0 1 0 1 0 0 0 0 0 0 0 2 0 0 1 2 1 0 1 0 2 1 0 1 1 1 0 0 1 2 1 0 2 3 0 0 0 1 0 2 2 1 0 0 0 3 0 0 2 1 0 2 1 1 1 0 0 1 1 0 1 1 4 0 1 0 2 1 3 0 4 1 2 2 2 1 0 1 1 0 0 1 1 1 1 0 1 0 3 1 1 1 1 1 0 2 1 0 0 0 1 1 3 0 0 2 0 0 0 0 0 1 0 1 3 1 2 1 2 1 1 0 1 0 0 1 1 0 0 3 1 1 2 1 1 2 1 4 1 1 3 1 1 1 1 1 1 2 0 1 1 0 0 2 0 1 3 3 2 0 1 1 2 0 1 0 1 1 2 1 2 1 2 1 2 1 3 0 0 0 0 2 1 2 0 0 4 0 1 0 1 1 0 0 1 0 1 1 0 0 1 1 0 1 0 0 1 0 1 0 0 0 1 1 0 1 1 2 1 1 2 0 1 3 0 1 0 0 1 1 1 1 0 0 0 1 0 1 2 2 0 3 1 2 0 0 2 1 0 1 0 1 0 1 1 3 1 1 1 2 0 2 0 1 0 2 1 1 0 0 1 1 0 0 1 0 2 1 0 2 1 1 0 0 0 0 0 1 0 2 1 1 2 0 2 1 2 2 1 1 2 0 0 1 0 0 1 1 0 1 0 3 2 1 2 0 0 1 0 2 1 1 1 2 0 0 1 1 1 5 1 1 2 0 0 1 0 2 1 0 1 0 0 0 1 1 0 1 1 0 0 1 0 2 1 1 1 1 1 0 1 0 1 0 1 0 2 1 1 1 0 1 0 1 0 1 0 0 1 0 1 0 1 1 0 2 1 1 0 0 1 2 0 1 1 1 0 2 2 0 1 1 0 0 3 4 1 0 0 1 0 1 1 0 0 1 1 2 0 1 0 3 0 1 1 0 1 2 0 2 0 1 2 3 3 0 2 2 1 1 1 0 0 0 0 1 1 3 2 0 1 1 0 0 0 1 1 0 2 1 2 1 0 2 0 3 1 2 0 0 0 0 1 0 0 0 0 2 2 1 0 1 1 1 0 1 2 2 1 1 2 0 0 2 1 2 1 1 2 0 0 0 2 1 1 1 0 2 0 3 1 1 0 0 0 1 0 4 0 1 2 4 0 1 2 0 1 0 0 1 1 1 1 1 1 0 0 2 3 3 1 1 0 0 1 0 3 1 1 0 0 0 0 0 0 1 2 0 1 2 0 0 0 0 0 0 0 1 2 1 3 0 0 0 3 3 2 2 0 0</t>
   </si>
   <si>
     <t>Name</t>
@@ -165,12 +165,12 @@
     <t>FPTS</t>
   </si>
   <si>
+    <t>D.Lock</t>
+  </si>
+  <si>
     <t>T.Bridgewater</t>
   </si>
   <si>
-    <t>D.Lock</t>
-  </si>
-  <si>
     <t>Rec</t>
   </si>
   <si>
@@ -258,52 +258,52 @@
     <t>B.McManus</t>
   </si>
   <si>
-    <t>N(19.4168, 7.873479393508311)</t>
-  </si>
-  <si>
-    <t>30 9 28 14 17 22 24 21 22 22 7 21 20 20 10 14 19 17 23 21 23 20 15 23 13 13 16 23 21 30 19 12 14 9 21 21 33 9 20 27 24 31 7 19 27 7 14 20 42 13 10 28 26 0 10 26 3 17 14 12 20 13 21 9 14 13 15 34 31 12 24 25 22 20 23 41 42 17 36 14 14 21 20 19 10 15 20 20 16 20 9 10 7 16 28 21 16 10 6 20 30 13 9 27 9 20 6 20 20 20 14 11 36 27 9 10 24 24 27 9 16 17 28 49 28 20 14 29 21 27 29 23 3 13 28 25 40 24 28 19 24 14 23 10 21 14 11 30 14 20 14 6 21 27 9 10 31 20 14 17 14 13 33 27 24 27 12 20 24 31 20 27 44 17 24 3 9 17 17 28 10 14 24 20 19 27 14 23 13 21 19 24 24 24 9 14 6 34 21 30 31 20 17 24 24 19 13 17 24 24 21 20 21 21 21 7 30 21 30 7 26 21 20 22 14 13 16 20 27 11 22 9 14 33 24 19 22 34 24 26 16 27 31 19 26 13 22 20 17 23 12 27 30 21 16 27 9 21 28 16 7 13 34 23 27 16 16 10 20 12 23 20 23 10 16 17 16 19 0 13 19 17 30 20 24 27 12 15 24 19 34 32 35 9 27 17 9 45 3 22 13 20 3 23 29 10 30 16 23 19 3 24 28 26 23 21 17 30 20 27 13 13 16 16 14 15 24 13 26 10 7 17 26 17 9 26 6 17 31 7 17 17 14 26 20 27 6 10 24 17 23 21 21 13 14 28 21 26 30 25 16 18 23 27 22 16 3 13 12 16 10 24 35 30 10 10 12 20 20 21 20 24 20 17 17 10 24 10 14 23 14 16 31 23 6 22 30 6 13 17 17 21 19 13 0 20 24 25 13 22 10 9 3 35 42 17 23 9 14 23 26 9 20 11 10 17 17 17 31 10 34 20 8 21 31 34 28 9 35 20 17 9 27 13 10 22 10 28 38 19 31 16 24 42 27 16 6 17 28 24 19 24 16 20 17 24 9 34 38 33 22 22 17 20 7 20 9 11 20 16 9 21 27 20 16 16 20 24 24 20 6 10 3 16 21 24 45 18 16 24 7 17 3 16 17 13 14 24 26 24 28 20 10 29 9 27 24 9 23 29 24 23 17 35 20 20 10 14 8 14 17 22 10 20 28 20 9 30 40 27 23 14 17 15 16 16 17 9 16 21 20 24 30 20 13 29 3 28 21 13 23 13 26 26 37 19 13 28 16 16 21 9 22 6 17 18 20 34 27 24 19 26 22 26 24 6 19 20 10 20 16 31 13 21 16 13 12 20 27 13 3 3 16 16 0 31 12 30 17 13 35 16 16 23 17 21 24 20 24 6 38 10 23 17 14 24 42 10 16 24 19 14 32 16 24 15 26 11 19 14 23 20 19 3 7 16 27 20 20 13 35 34 29 6 27 13 17 31 3 23 12 27 19 10 17 22 26 30 7 24 21 23 6 15 27 18 6 14 6 24 18 20 24 38 0 37 8 20 6 17 13 17 17 6 17 14 48 17 6 23 13 21 26 13 17 20 13 13 3 10 24 19 24 9 17 17 17 20 18 17 24 28 15 14 27 23 28 13 24 23 17 25 19 13 22 20 22 6 24 13 24 12 17 21 26 3 23 21 26 30 20 21 22 23 20 20 37 19 22 10 17 20 7 17 20 34 16 24 6 27 16 16 20 19 28 16 30 17 26 20 24 16 17 23 16 10 22 17 9 13 11 34 13 20 20 38 14 27 17 21 23 19 22 13 41 22 27 24 18 17 27 20 27 18 26 21 7 23 14 30 13 20 17 17 16 37 13 20 13 23 14 13 37 13 10 41 37 13 23 21 16 16 20 20 17 27 20 13 18 21 23 13 10 13 24 31 26 37 37 27 17 17 44 20 22 31 14 13 17 17 26 23 7 27 16 9 31 7 13 30 20 15 24 23 10 31 13 17 17 24 24 27 13 13 27 21 7 13 17 34 23 38 24 18 16 17 10 24 20 17 34 19 21 27 17 3 13 16 23 19 13 16 21 17 38 41 28 14 17 24 38 10 21 23 17 10 24 21 13 19 17 27 17 17 20 17 23 17 31 23 9 15 34 28 21 14 10 35 16 3 17 20 19 7 7 3 15 17 10 38 9 29 23 25 20 15 16 27 24 3 16 23 21 24 21 13 9 24 20 13 3 27 20 21 9 13 20 27 10 14 12 27 24 22 27 20 7 27 25 23 27 13 28 10 16 10 16 10 16 13 21 34 17 30 17 14 10 13 14 27 17 16 23 10 20 7 10 13 22 19 21 24 12 13 34 10 27 24 31 30 10 21 15 24 13 17 10 12 31 16 10 31 35 27 31 41 10 24 21 23 20 23 17 17 18 21 20 27 14 13 15 20 17 25 10 34 23 22 17 27 24 24 23 13 15 26 24 7 13 17 10 24 21 28 16 24 17 30 21 27 10 26 14 17 22 16 6 22 9 24 31 16 19 38 20 23 27 19 10 23 19 13 24 21 13 16 35 13 27 3 9 26 21 24 10 20 13 28 16 16 3 12 3 6 17 18 20 23 23 28 10 20 12 37 29 30 13 30 10 21 30 11 20 28 20 24 19 6 10 20 11 16 7 27 6 23 17 21 14 23 20 27 20 26 11 18 33 27 7 27 24 27 23 11 27 20 17 16 15 13 20 16 24 17 26 24 27 6 6 26 17 14 19 19 30 13 13 29 20 24 20 18 17 18 31 24 13 17 23 10 31 17 24 24 20 31 24 24 30 9 22 27 24 17 22 20 17 16 16 31 20 23 15 21 7 28 24 16 17 27 26 14 13 21 27 24 6 10 16 13 21 31 6 27 10 20 13 27 14 27 24 20 24 20 23 13 16 23 27 13 7 14 21 23 7 14 23 23 37 17 17 20 17 17 29 28 13 19 21 20 10 17 14 30 20 37 10 11 3 17 16 10 20 20 28 13 17 10 14 10 6 6 20 28 19 29 30 28 37 38 24 20 23 16 48 17 24 13 0 17 14 14 28 9 10 17 10 13 15 24 24 13 17 34 19 17 26 11 12 14 21 21 26 38 31 19 27 21 17 7 7 9 26 19 23 10 19 17 28 37 19 30 26 31 24 27 13 14 17 24 24 27 27 28 15 27 27 27 9 26 37 31 26 25 34 34 26 17 24 6 14 14 30 30 24 27 20 12 18 20 13 8 24 16 20 13 28 14 20 10 38 17 33 20 29 24 13 16 17 23 14 21 20 18 14 16 13 30 14 20 22 10 17 20 19 9 34 13 28 21 21 7 23 20 32 14 13 16 12 16 38 6 20 17 38 20 13 21 22 34 20 19 20 34 23 26 34 26 19 18 10 24 26 26 24 14 34 20 19 22 23 13 12 17 19 17 16 9 14 10 17 16 37 11 20 20 14 14 14 17 21 36 8 15 30 20 23 3 0 12 17 30 24 16 24 25 34 12 16 16 19 23 26 31 13 14 16 23 22 34 27 17 16 25 10 31 24 14 17 34 9 10 19 27 3 20 17 6 27 17 27 24 10 17 26 16 14 21 13 3 9 8 10 3 16 17 28 9 27 21 0 30 13 6 16 14 23 24 13 3 24 27 17 19 17 27 23 16 23 13 15 19 10 20 24 10 20 30 9 42 28 16 24 27 17 22 6 12 20 14 11 28 17 27 14 31 27 12 28 6 38 17 20 17 20 10 19 0 17 15 23 26 3 17 23 22 17 23 22 38 16 21 23 10 16 30 13 13 33 20 13 3 31 16 30 6 15 13 15 27 7 17 13 27 21 7 40 38 28 22 6 10 10 19 34 14 18 31 24 31 15 28 19 20 20 0 24 19 23 17 10 19 17 21 19 24 38 17 9 16 17 31 22 23 22 9 10 24 27 20 17 21 13 21 21 9 20 30 13 3 17 21 9 24 16 10 14 9 18 15 11 22 20 30 23 13 14 19 20 32 9 27 16 26 19 23 24 23 17 24 10 38 17 27 21 22 31 21 24 7 27 27 20 28 17 21 28 17 17 27 13 24 20 16 37 16 23 26 14 24 18 17 14 27 35 24 7 10 24 41 20 11 20 13 21 12 20 24 17 28 3 20 16 28 20 17 16 20 25 17 16 37 17 21 10 13 7 18 26 20 27 24 0 24 11 21 27 24 26 16 24 19 28 24 13 24 21 31 21 13 33 21 23 26 38 16 10 10 26 23 23 11 3 16 7 24 6 17 17 28 22 14 23 21 17 13 10 0 10 31 14 16 22 12 31 18 20 14 3 15 19 38 10 22 49 17 31 21 20 24 12 24 23 26 19 28 15 27 21 13 13 20 21 27 16 20 16 17 17 16 20 33 13 24 22 30 37 10 17 7 12 20 23 30 6 21 17 24 9 12 24 20 21 31 17 20 28 25 27 29 20 20 15 26 30 20 10 13 3 16 24 10 13 13 31 16 31 28 17 22 21 20 20 3 24 26 16 9 38 27 18 24 33 14 23 35 10 19 23 6 14 13 19 29 17 27 10 10 13 20 34 37 15 21 19 12 21 23 24 28 16 3 27 30 13 21 24 6 16 21 13 13 19 13 6 6 18 21 24 18 10 22 12 22 14 28 14 17 48 15 23 9 13 24 36 7 13 24 23 7 20 13 18 20 21 10 17 28 16 20 28 10 14 16 21 13 29 20 24 26 23 10 26 16 16 10 31 24 16 23 19 14 25 17 13 27 26 17 20 31 23 34 19 20 19 12 14 17 38 28 18 16 20 13 27 10 20 31 7 16 20 16 31 6 14 16 7 17 23 28 24 28 24 20 31 10 16 13 13 27 26 7 20 31 15 20 21 28 20 17 8 10 20 6 20 35 28 17 18 29 26 15 14 20 20 29 19 10 10 28 16 16 20 20 31 24 10 14 20 27 24 19 27 16 34 13 27 22 7 24 24 15 3 19 29 10 27 14 19 27 19 30 16 13 20 14 29 21 38 33 6 17 10 21 21 21 13 14 24 13 23 3 17 6 28 13 10 14 14 26 14 23 13 21 20 17 13 27 24 19 10 20 10 27 21 9 27 28 17 20 6 37 14 21 16 24 16 20 22 19 19 12 17 19 28 17 30 13 24 17 6 20 16 13 21 16 44 21 24 40 17 26 24 27 20 13 24 24 16 27 13 24 7 24 17 31 16 22 14 24 10 20 20 16 22 23 17 17 26 17 20 16 26 10 13 34 37 20 6 24 39 13 17 6 24 13 17 20 10 15 19 15 26 33 20 19 15 7 23 27 34 24 24 9 34 18 25 28 21 34 9 7 17 23 16 24 37 20 23 13 30 14 19 20 23 23 13 21 15 10 28 10 34 17 24 24 38 13 10 19 14 20 16 21 17 13 25 25 20 23 17 13 15 30 14 34 20 12 24 9 51 20 20 14 24 27 30 10 20 7 13 12 19 21 26 10 13 23 6 15 17 6 16 6 16 16 10 19 24 20 17 27 27 14 31 24 20 24 15 28 23 17 9 13 7 16 16 21 10 24 20 10 24 17 31 9 27 25 6 24 28 32 7 38 17 22 20 22 38 6 20 21 21 17 13 16 38 15 30 9 13 17 23 17 20 20 16 17 14 20 14 31 9 23 20 10 7 7 28 20 27 10 21 24 10 31 27 22 24 28 13 13 14 31 18 13 17 24 31 10 20 24 16 16 17 20 22 14 34 28 30 17 21 10 19 16 27 10 13 20 19 30 6 23 13 20 14 12 20 24 27 33 21 21 13 17 10 14 14 24 20 16 24 21 10 37 31 16 21 25 14 30 16 12 19 36 17 9 23 28 6 35 23 20 34 16 16 20 14 27 22 10 17 30 25 12 23 24 17 13 27 20 32 45 24 24 16 23 38 30 20 27 27 17 38 16 27 20 12 20 23 16 27 10 17 17 27 27 21 21 14 25 14 29 13 21 16 17 11 26 30 6 17 15 20 12 14 16 16 30 22 44 3 10 23 10 24 31 13 19 10 17 20 3 42 21 18 14 16 13 21 31 27 17 10 23 24 19 14 20 9 13 23 14 11 20 25 24 21 15 18 19 3 19 17 26 23 7 17 24 31 23 9 22 31 7 10 16 21 0 30 14 10 27 13 14 7 24 17 6 19 21 20 14 21 34 26 16 28 14 13 27 3 13 17 13 14 22 13 10 17 13 10 20 13 24 31 19 20 17 17 22 13 33 17 27 6 20 10 12 13 26 21 27 20 15 10 33 20 24 21 10 14 26 23 17 16 13 15 37 23 14 17 17 20 21 20 24 36 42 10 21 24 21 3 24 19 24 27 23 28 24 24 9 31 21 20 23 23 24 24 20 23 17 31 19 13 17 23 16 20 13 13 10 24 27 20 17 17 13 38 20 27 13 28 17 27 28 18 13 24 20 20 3 21 17 21 30 14 14 20 14 15 19 14 19 24 23 27 19 23 11 6 36 20 17 10 24 13 3 20 23 9 34 24 26 20 32 27 10 20 23 19 31 13 10 24 3 24 24 16 24 23 24 10 24 24 7 21 24 20 16 31 33 9 29 20 31 28 12 17 24 21 23 17 20 24 25 7 10 3 24 21 31 31 27 14 17 13 37 24 31 27 20 19 23 20 10 23 9 20 16 16 13 17 22 7 21 22 10 20 20 31 13 17 10 14 17 17 20 10 35 20 24 23 16 10 34 26 30 7 31 13 24 26 23 20 26 24 28 13 13 17 21 17 23 23 14 17 34 21 24 14 16 20 23 13 20 3 13 20 24 31 0 19 24 14 23 28 16 7 20 23 17 35 24 31 44 27 42 23 7 20 9 27 20 23 10 19 17 13 8 24 29 38 7 17 26 12 31 9 28 23 20 21 13 23 26 19 6 38 27 19 6 12 24 30 12 7 16 10 23 6 37 27 6 21 20 18 16 23 21 21 13 13 30 36 17 16 13 11 21 33 22 10 12 44 16 24 38 7 10 17 38 19 9 10 31 26 31 16 16 7 13 21 16 17 27 20 26 21 25 21 11 12 6 17 20 6 19 16 34 27 17 20 20 16 20 23 19 27 17 6 24 30 21 28 31 20 17 17 12 31 21 16 6 15 13 15 24 36 9 14 23 12 30 13 13 10 17 20 42 24 33 30 16 27 31 17 27 30 20 14 17 6 16 10 12 13 19 27 8 10 13 27 29 17 23 21 17 17 12 20 27 11 23 20 16 20 19 19 31 20 27 35 28 14 17 23 13 34 21 27 20 31 21 17 27 16 17 10 34 13 13 30 27 27 38 18 17 17 24 17 29 9 0 17 9 24 25 32 24 9 31 14 21 27 24 17 23 13 12 15 14 23 6 27 26 24 13 28 13 17 38 24 24 22 28 24 13 20 27 31 0 17 14 14 15 31 41 9 27 23 30 37 24 23 17 14 3 33 16 12 19 21 31 24 10 16 30 7 16 6 6 13 15 13 24 23 24 23 19 12 12 19 16 20 10 17 17 27 21 20 25 17 17 20 23 18 9 24 31 20 3 9 14 15 10 13 20 44 23 28 31 31 35 20 23 10 17 20 17 28 16 24 26 16 14 38 17 14 17 13 7 10 20 31 31 0 12 13 30 10 20 9 20 13 21 21 24 24 21 24 17 9 16 22 27 13 19 24 15 24 27 17 23 35 20 14 27 7 23 13 12 19 16 23 30 17 30 13 21 21 20 22 14 23 24 14 20 10 15 34 27 14 7 25 6 13 20 16 10 23 7 24 17 20 23 21 19 38 13 27 7 23 13 17 20 19 9 24 13 10 26 28 19 6 7 28 3 16 20 23 21 16 34 27 35 23 14 27 24 17 20 10 17 13 17 27 25 16 31 35 20 17 35 16 13 16 10 17 27 31 29 26 27 24 23 13 22 28 24 16 17 13 22 21 20 21 26 31 17 24 19 29 34 34 17 13 31 10 20 19 17 22 16 10 12 19 21 13 17 21 13 24 19 9 20 34 13 17 24 24 16 17 10 16 21 20 35 9 20 6 13 16 30 33 18 16 28 20 24 20 13 27 27 14 13 30 30 9 17 21 20 20 24 28 13 27 37 12 16 19 26 30 16 20 34 20 3 31 20 27 14 21 26 29 20 0 9 18 13 16 13 13 13 14 27 28 18 6 13 13 16 17 13 6 13 32 27 20 3 41 3 7 21 7 16 27 20 21 17 20 23 26 17 13 21 10 16 12 13 24 25 19 23 16 35 20 24 16 10 20 17 20 19 17 16 31 31 6 23 28 14 14 34 10 9 13 9 19 21 27 20 16 35 17 7 7 10 10 30 14 8 20 10 17 10 19 28 30 21 16 10 30 24 9 9 20 20 6 10 20 13 16 15 16 22 30 37 16 13 7 19 9 20 16 19 17 17 17 14 17 10 17 19 17 24 15 24 10 30 14 17 34 13 24 14 26 6 24 12 27 35 24 24 30 19 6 16 14 14 13 10 17 13 9 31 14 10 38 17 24 18 17 23 7 24 27 27 14 10 21 0 16 21 35 17 31 13 23 24 24 10 0 9 31 16 31 24 21 24 14 21 14 20 20 16 23 13 16 16 13 18 23 26 6 16 17 24 42 21 23 30 45 20 30 14 3 17 24 16 27 22 28 21 10 20 3 34 17 19 20 27 20 23 13 13 14 24 16 21 16 6 16 16 17 8 26 13 21 20 23 6 9 20 24 10 14 16 23 27 16 15 10 10 20 27 24 20 17 10 30 25 30 17 14 20 23 14 13 16 25 20 14 21 10 16 34 13 16 24 16 23 16 7 26 20 26 34 10 13 8 21 22 3 6 14 20 27 20 20 13 24 28 17 14 10 23 35 24 3 29 14 20 24 31 25 24 16 24 27 24 16 12 28 23 10 13 20 3 14 13 17 6 16 16 16 19 24 9 11 23 16 20 23 19 17 24 27 20 17 16 17 26 32 14 10 20 16 13 17 34 30 24 24 26 16 24 20 16 13 15 26 16 34 10 10 31 30 27 20 20 13 19 17 18 17 7 23 17 19 14 12 22 18 20 20 17 10 24 18 28 28 32 13 20 22 15 30 21 17 24 31 22 26 17 6 27 20 0 18 24 23 14 0 16 7 12 14 7 20 14 13 6 6 16 22 16 14 12 31 12 30 29 23 20 16 17 16 28 3 16 17 23 17 23 17 20 6 17 16 21 27 22 20 16 20 23 13 13 30 27 24 7 21 14 24 6 24 17 14 27 20 23 24 13 3 7 11 13 24 30 28 13 13 31 13 24 23 13 13 10 20 21 23 13 28 13 6 6 10 24 29 38 17 29 20 15 24 16 16 21 24 16 13 24 13 23 13 20 25 10 31 23 13 24 13 27 23 24 34 20 17 20 23 13 15 27 20 17 14 17 23 9 13 13 17 24 27 31 17 22 23 10 9 15 21 20 27 3 9 15 7 10 14 17 25 7 28 16 24 16 7 10 12 24 17 30 17 7 17 28 18 17 27 19 24 24 13 20 16 3 15 27 28 23 13 3 26 31 21 20 20 33 34 26 31 21 27 21 9 20 3 26 17 28 20 7 9 17 16 16 24 24 10 24 14 13 13 3 24 10 20 13 16 14 20 12 17 12 17 19 22 13 21 24 42 38 23 17 10 18 20 17 20 21 17 10 13 49 19 23 0 15 12 17 17 6 6 24 21 37 20 17 21 6 17 27 12 24 17 14 21 21 20 21 17 20 10 30 20 21 16 20 28 14 26 19 20 16 18 15 17 17 20 31 23 17 24 31 19 21 19 20 7 9 18 10 22 7 16 23 23 0 23 13 13 19 20 13 30 20 40 27 9 27 24 24 30 17 34 26 34 23 17 20 27 16 6 35 31 35 24 20 21 26 17 19 16 27 17 21 27 18 14 12 27 30 25 6 13 19 22 12 33 17 14 13 31 24 23 12 20 17 14 13 16 23 20 14 16 26 24 19 17 15 14 17 6 20 23 10 21 10 20 20 10 17 22 17 22 10 24 17 9 28 13 20 3 17 14 14 25 16 9 30 9 20 16 33 14 17 9 10 21 11 21 12 24 38 24 24 13 17 13 23 16 12 19 19 24 17 20 20 24 14 8 13 12 7 24 26 30 19 14 13 31 14 24 21 21 20 3 23 38 24 23 21 27 20 26 16 15 27 17 17 24 16 28 18 24 20 20 20 7 10 10 12 26 27 14 16 13 16 27 10 16 24 24 40 16 44 10 0 7 41 28 20 16 17 0 10 22 14 24 27 20 18 6 20 13 14 19 24 30 27 14 27 14 6 28 13 15 6 14 24 19 14 37 30 22 17 23 10 16 17 13 21 16 16 21 23 10 10 20 13 16 20 13 13 33 31 14 17 33 23 6 3 16 17 27 21 20 33 19 10 23 16 16 10 29 17 12 12 17 24 12 20 6 23 21 27 11 10 17 26 23 24 17 13 10 27 17 23 13 24 35 9 24 22 27 18 30 6 20 13 19 15 21 30 31 26 27 30 23 20 30 6 13 21 25 17 14 21 38 22 6 26 20 24 13 24 10 6 20 24 14 26 24 27 10 14 21 23 30 17 16 31 17 24 24 15 19 13 16 23 34 20 17 13 19 20 13 26 22 13 20 27 14 17 19 17 37 31 16 19 21 24 24 28 17 20 17 17 9 13 13 6 26 24 17 29 21 25 23 23 23 9 31 19 20 19 33 38 23 7 21 27 18 24 7 28 9 6 13 20 28 17 16 12 20 23 6 17 28 23 17 21 16 23 9 24 16 20 23 6 7 10 16 24 10 20 17 9 16 17 20 31 40 21 42 13 23 9 19 6 10 38 13 13 20 20 34 10 20 24 20 10 18 9 23 30 31 44 15 20 17 27 20 16 30 9 29 13 13 19 19 17 7 17 18 16 7 6 23 27 23 0 28 23 20 14 23 14 17 31 31 24 10 38 3 10 13 27 23 15 17 20 16 17 22 24 10 10 13 13 17 13 15 16 17 10 16 17 10 17 10 17 23 31 16 28 24 12 23 17 38 24 24 13 19 21 13 13 24 13 17 6 20 16 10 21 15 23 45 31 23 27 26 14 34 16 24 19 20 31 33 17 37 17 14 23 30 24 28 20 27 26 37 23 27 36 30 3 27 21 16 20 31 30 10 20 16 34 10 22 19 24 17 21 27 10 17 13 14 9 22 23 24 24 24 17 20 17 30 7 6 23 21 16 26 13 17 20 16 13 26 34 24 20 34 24 31 23 28 20 9 20 16 24 16 27 10 16 23 13 17 19 23 20 16 30 20 24 13 24 9 29 10 28 27 10 23 6 10 16 13 24 9 11 10 20 17 13 15 10 24 21 16 20 10 17 28 17 35 20 16 30 13 19 17 16 22 24 25 14 14 23 13 3 6 21 38 3 0 20 24 7 22 30 28 24 27 34 41 23 10 24 27 30 14 16 30 17 16 29 13 10 6 24 14 6 14 16 13 20 19 28 13 20 20 10 0 19 24 26 10 24 13 51 17 18 16 20 9 6 21 31 20 14 31 14 14 28 8 17 17 10 20 13 22 23 9 10 22 23 13 13 25 34 13 6 13 17 16 9 7 34 13 27 13 3 22 16 14 21 9 30 24 21 6 17 20 27 9 10 6 26 19 23 13 16 10 17 26 23 30 13 14 26 24 13 13 20 14 9 29 20 20 14 37 20 27 20 10 18 17 13 16 14 13 13 27 23 30 3 34 13 23 13 24 17 10 34 6 19 18 16 16 13 12 24 9 20 20 20 14 20 37 6 17 23 9 17 29 7 14 13 27 20 17 24 21 18 34 16 17 13 17 26 13 23 27 20 24 24 14 33 24 23 14 13 20 16 12 14 6 22 34 20 21 24 21 31 24 24 23 24 27 31 13 21 6 19 17 21 10 12 17 16 10 23 21 33 24 13 9 13 24 16 31 10 13 20 38 28 13 20 15 14 23 17 0 27 10 13 24 26 13 38 28 20 31 21 27 15 24 23 40 17 23 30 22 6 28 27 18 28 21 13 23 13 23 13 19 9 14 22 34 6 22 9 27 3 17 38 20 14 17 26 24 26 13 19 35 14 16 0 17 16 24 17 13 26 24 20 44 20 20 27 28 17 28 22 28 20 13 38 31 20 10 17 23 30 3 16 34 24 28 16 30 27 6 10 19 17 17 23 20 3 13 20 44 18 18 13 9 27 23 10 24 21 17 17 26 9 3 10 17 16 23 13 24 12 10 27 19 24 37 28 17 24 27 20 10 17 16 17 6 7 30 16 25 32 10 20 13 34 28 10 31 13 14 14 14 21 20 17 24 20 23 16 27 28 22 10 19 26 19 10 33 17 27 22 9 37 24 13 16 13 16 27 23 10 27 17 20 21 13 17 13 31 31 23 27 19 17 17 29 20 3 34 30 16 31 20 19 21 27 21 17 9 33 10 12 9 22 20 14 26 23 37 31 26 27 21 17 45 17 17 24 45 20 16 24 15 20 21 27 18 16 17 3 27 24 24 26 24 10 27 30 27 10 7 20 13 13 20 37 16 29 31 23 24 9 19 37 17 20 14 7 27 13 21 45 24 17 3 20 32 24 19 31 29 7 16 13 17 16 12 18 17 24 33 32 17 6 26 12 20 10 24 21 13 24 16 13 7 16 20 33 3 24 27 10 14 9 24 13 10 10 34 17 27 37 9 24 24 16 16 21 12 23 34 21 27 10 18 10 26 36 12 9 10 24 6 11 24 21 9 21 24 21 22 17 31 20 19 17 10 0 28 23 30 20 26 14 40 21 8 16 38 30 8 20 16 18 20 19 14 17 27 16 16 28 15 34 13 21 13 26 27 23 24 16 10 14 17 23 7 27 27 12 29 16 17 21 21 13 28 17 10 17 10 9 23 14 16 20 24 17 41 27 13 20 16 10 9 35 28 3 23 0 28 18 11 19 20 27 26 28 17 17 20 16 26 34 16 35 31 16 31 13 14 27 19 18 18 3 10 17 7 19 20 23 20 14 24 20 27 33 24 20 17 20 10 24 31 14 21 24 15 29 22 10 13 14 14 23 24 12 21 30 13 21 3 21 10 22 34 29 21 34 13 28 26 15 17 15 16 17 16 13 24 21 23 20 16 20 22 27 24 24 6 17 25 23 17 21 19 33 13 9 14 27 10 38 25 14 27 27 44 12 14 21 21 30 10 20 38 21 20 17 3 31 17 27 35 31 9 18 23 20 20 21 31 17 20 16 26 23 27 16 14 31 13 35 17 17 14 12 31 13 10 13 23 12 21 29 17 23 16 35 10 20 13 16 19 7 23 31 28 30 9 19 20 3 8 24 31 40 19 20 23 23 18 18 25 23 13 21 10 17 14 20 17 13 23 26 26 20 13 35 26 48 17 17 20 22 14 17 13 20 17 10 17 35 20 28 31 24 31 31 20 9 31 10 22 12 35 23 49 27 16 6 16 3 13 23 17 33 30 9 31 29 23 29 25 13 14 16 19 27 26 31 11 31 30 12 20 13 13 17 24 14 21 9 13 31 37 24 19 24 6 24 10 27 20 13 27 23 10 10 31 10 22 6 12 9 13 34 6 19 17 27 21 10 27 24 28 17 21 13 20 17 27 19 16 17 10 10 9 7 21 13 21 9 24 31 20 23 13 17 27 10 8 14 30 21 31 28 25 27 14 12 16 20 21 10 27 17 20 19 20 31 20 21 21 17 35 16 10 15 20 26 22 17 24 20 25 35 17 41 17 31 16 24 21 19 21 23 34 19 16 23 6 21 16 24 21 21 21 21 24 25 24 10 16 24 11 16 22 19 14 26 20 10 13 0 16 34 13 24 13 13 23 11 14 9 23 17 19 24 16 24 14 30 27 13 21 20 17 13 30 27 17 21 14 17 31 23 31 17 19 7 21 26 27 10 13 24 17 13 24 25 10 13 9 17 7 17 12 12 6 17 29 12 3 16 31 21 12 9 21 6 14 20 15 21 27 6 17 28 19 21 40 10 19 31 12 35 14 13 10 23 29 20 19 17 23 16 6 40 9 24 17 10 21 17 18 13 19 30 19 17 13 21 24 16 14 16 17 13 7 31 12 27 13 13 17 24 28 14 20 24 13 10 6 21 21 19 16 16 10 25 26 21 27 21 3 23 23 17 13 7 13 34 12 10 13 31 20 3 20 34 27 20 27 17 23 20 20 3 20 16 16 7 10 10 17 6 15 16 16 26 23 17 13 10 20 7 13 29 24 30 17 33 15 20 34 23 13 3 26 28 6 31 17 17 27 19 16 3 24 20 13 6 38 3 17 24 14 20 31 20 15 19 20 6 20 9 22 26 9 19 23 14 31 27 0 24 20 24 7 14 20 12 17 34 13 22 26 20 9 31 24 7 17 20 17 21 20 25 6 23 27 16 19 14 17 42 26 20 27 27 31 20 9 30 10 16 7 13 17 16 27 24 6 23 26 18 37 24 10 14 14 16 17 27 35 16 31 17 25 16 7 17 10 21 24 14 3 24 24 26 10 34 24 20 17 20 19 25 28 20 17 13 20 23 3 20 14 37 21 18 23 13 20 19 22 29 13 23 11 9 7 13 23 8 13 20 27 10 10 21 18 7 27 10 24 18 17 31 6 22 24 17 20 17 17 23 30 24 27 24 17 17 34 23 16 34 21 21 20 19 13 18 16 10 23 20 17 20 24 13 16 19 24 24 26 20 28 13 24 20 7 31 16 24 27 14 17 31 14 23 34 30 16 13 17 12 23 21 20 10 38 20 20 13 20 27 18 10 22 3 13 31 21 12 17 17 17 17 26 23 7 24 45 10 31 6 24 24 26 34 25 24 13 15 15 31 7 30 14 27 11 17 26 30 22 17 19 3 10 30 16 42 21 22 23 29 17 19 42 13 20 24 14 25 9 20 20 17 20 12 21 30 16 27 33 9 19 6 13 20 17 18 17 9 17 31 37 13 24 42 20 12 20 16 19 17 20 10 10 16 27 3 22 17 10 23 13 14 27 17 23 13 3 9 9 27 17 11 23 10 17 38 20 20 24 23 7 23 33 16 32 13 20 24 28 14 10 13 13 28 13 31 17 21 24 34 23 17 12 6 18 28 26 21 28 27 37 20 30 17 19 23 17 30 23 25 23 40 21 22 13 31 16 24 19 14 24 12 27 37 7 14 31 10 15 10 34 13 16 24 14 20 27 24 17 30 24 9 9 23 17 17 17 24 20 21 12 25 27 21 23 21 23 8 21 20 27 10 15 17 9 13 9 21 18 10 20 20 18 30 17 17 3 14 26 13 6 19 3 22 23 0 12 13 24 16 10 28 10 20 26 19 13 6 28 17 24 24 24 34 28 25 10 10 19 20 13 21 21 6 20 10 21 20 21 15 10 31 10 38 38 27 31 17 34 16 12 10 21 14 19 20 17 16 3 20 17 7 26 10 22 7 14 40 7 8 20 18 20 17 12 16 27 14 23 23 13 16 6 24 17 13 16 10 23 30 14 18 13 11 20 20 21 17 12 13 14 38 16 14 31 9 27 24 28 14 8 27 16 15 13 27 13 44 17 9 30 13 28 17 6 13 20 10 18 13 24 38 23 18 23 30 30 13 3 12 17 10 7 10 35 17 24 17 10 14 19 18 30 12 9 24 14 21 13 16 10 9 19 23 17 10 20 10 35 14 17 21 17 27 16 17 24 19 26 10 23 24 12 24 9 19 9 17 20 26 17 27 6 37 17 28 27 28 30 17 20 15 10 19 13 27 24 13 22 23 20 24 16 34 6 27 6 14 27 17 7 17 9 35 17 16 7 44 23 20 13 18 19 16 20 33 13 28 14 0 17 14 20 38 14 13 26 13 19 31 10 24 21 9 10 7 17 17 31 20 29 19 23 20 21 35 14 27 13 10 9 8 24 20 16 23 13 22 17 10 21 3 9 23 20 31 27 15 15 23 19 13 10 32 23 24 12 18 17 17 27 24 13 7 16 29 13 17 27 37 30 23 16 10 23 6 28 42 23 16 24 9 24 24 28 17 16 13 22 20 10 26 21 24 17 17 24 30 20 13 17 9 23 14 15 10 12 28 44 28 20 10 13 15 27 0 23 21 23 23 23 6 28 17 12 17 26 29 22 20 30 29 14 7 10 10 22 18 31 19 13 20 26 21 10 13 17 15 10 21 16 31 13 17 29 13 23 28 20 27 13 20 21 13 6 14 17 14 24 20 16 28 6 17 29 28 33 17 21 24 27 42 16 27 30 9 26 17 16 34 17 16 3 17 14 30 19 22 13 24 19 10 23 13 6 24 3 19 19 14 13 13 13 16 16 13 27 16 13 27 38 24 21 20 13 29 13 16 23 9 30 30 28 23 23 19 22 10 20 6 7 17 6 28 7 16 12 16 23 31 17 22 10 30 12 13 14 22 20 10 12 26 13 14 45 15 6 20 21 27 29 14 25 16 23 26 13 6 31 26 24 19 18 21 14 11 10 21 3 26 20 36 23 14 7 6 24 24 12 21 7 19 17 31 14 14 7 23 28 31 24 17 13 14 7 13 16 24 28 17 24 48 17 13 13 23 21 17 8 16 23 34 10 6 27 21 24 17 10 23 20 20 21 43 16 27 13 16 3 23 27 21 21 27 33 3 28 16 27 17 24 20 24 24 23 9 13 20 24 20 41 20 14 21 22 23 19 21 19 24 13 27 28 13 10 21 23 21 24 21 24 27 13 20 23 30 22 20 23 36 17 15 31 26 26 16 21 23 27 24 28 24 23 24 16 7 16 7 33 14 30 7 23 16 20 13 10 16 9 10 31 17 17 26 17 24 29 31 10 19 21 24 16 35 10 17 13 13 24 14 44 19 23 6 8 9 29 38 16 20 16 20 10 34 20 26 22 18 9 14 24 19 17 14 24 24 14 37 17 14 16 10 17 20 21 21 10 9 10 13 26 9 3 7 15 31 10 16 30 20 29 13 9 20 10 37 24 10 9 23 27 31 34 20 31 20 10 33 28 19 10 26 13 16 37 36 30 13 26 23 27 20 24 17 28 24 26 27 20 10 17 13 17 16 8 21 24 13 13 13 11 23 6 28 24 20 17 13 19 21 23 16 32 30 21 31 7 20 21 19 33 13 25 20 13 21 16 41 20 27 27 16 6 21 16 6 28 33 27 17 13 22 22 20 13 34 16 38 19 21 19 10 23 26 17 28 15 27 20 37 10 3 26 13 26 20 27 6 24 20 17 23 14 31 19 27 28 6 24 17 24 6 16 35 17 27 30 7 27 17 18 16 6 6 16 16 20 16 23 23 20 12 21 7 0 20 21 24 16 21 14 20 27 15 16 3 27 3 17 23 13 34 17 27 24 10 17 27 18 28 31 13 17 10 30 24 25 25 34 17 18 21 21 16 6 9 20 20 16 10 19 15 31 20 26 17 23 20 20 31 16 27 20 20 20 14 3 17 25 23 23 17 24 20 16 17 16 17 14 7 6 10 17 15 27 19 17 16 17 20 20 10 14 10 20 40 17 24 27 17 13 21 17 6 35 13 31 12 16 3 17 26 27 17 20 21 20 38 27 17 14 20 7 36 20 30 17 17 24 20 30 0 13 34 18 21 21 14 24 17 12 9 9 9 23 29 10 24 21 9 12 10 40 20 13 25 18 13 17 27 24 5 23 31 20 23 18 10 17 17 17 18 9 14 21 21 18 19 12 11 27 15 24 9 34 13 21 35 20 16 20 31 31 22 10 28 24 35 31 10 10 16 27 10 10 14 3 24 38 20 30 13 28 26 17 16 28 20 17 20 37 14 31 7 16 0 22 7 27 14 24 13 20 31 21 13 10 20 21 44 9 30 37 16 24 27 17 25 17 16 14 23 27 11 13 19 31 27 20 14 10 13 20 21 17 16 21 27 24 10 28 16 31 27 16 13 13 27 7 17 3 21 16 3 14 13 23 20 20 16 13 13 13 20 6 21 14 17 7 24 21 10 30 21 41 26 33 17 21 24 23 34 9 26 17 36 11 14 41 16 6 28 25 17 10 28 15 14 22 20 20 20 19 24 17 16 13 22 17 29 10 24 24 10 12 28 20 26 23 27 7 21 12 23 24 6 19 28 16 13 9 20 26 24 14 13 9 23 21 19 6 36 6 19 23 24 24 14 10 14 31 23 14 9 16 20 33 30 13 20 28 24 10 26 26 7 21 24 19 30 13 17 19 14 30 38 13 10 20 10 10 21 21 17 20 24 23 16 6 27 20 31 16 10 6 16 34 29 17 20 20 20 16 31 31 21 37 27 24 14 17 10 27 26 20 13 34 23 17 10 23 24 27 21 23 26 23 15 28 16 27 18 27 10 22 13 30 10 3 29 19 29 17 27 10 34 16 41 19 24 24 19 10 24 10 22 13 19 27 20 24 27 20 31 13 17 12 18 26 17 9 24 19 28 20 30 14 31 17 28 20 13 27 20 20 20 23 15 22 17 20 9 20 6 29 18 6 10 0 19 35 13 24 15 21 20 19 24 10 24 16 23 18 21 17 14 23 14 27 17 21 25 21 17 18 3 12 9 12 33 28 20 24 14 20 27 17 3 15 20 22 24 22 6 21 10 24 3 24 17 16 16 15 20 21 18 12 17 16 7 19 24 13 13 10 10 34 30 10 30 28 20 26 31 17 27 8 17 13 17 24 10 23 27 20 26 17 17 19 13 23 23 14 31 13 20 26 20 13 3 27 17 19 10 20 7 15 17 27 20 13 14 21 14 10 25 38 21 17 17 28 9 18 17 30 28 14 28 19 30 30 19 24 27 9 27 17 13 24 10 13 21 16 27 19 10 32 20 13 18 20 27 10 19 13 9 40 24 21 23 13 16 20 10 27 17 20 27 7 13 17 24 24 16 31 21 16 20 20 9 27 19 17 15 16 20 0 6 17 27 21 14 10 24 25 24 17 13 26 14 17 22 3 13 23 28 10 26 28 13 17 14 17 21 10 14 34 16 10 24 29 17 10 29 31 20 16 24 27 21 20 31 17 17 21 31 30 10 13 27 16 18 24 3 14 17 34 24 24 13 13 20 31 19 19 16 28 24 13 22 3 13 22 24 13 9 0 13 16 33 22 15 33 37 13 20 33 24 3 23 16 28 18 20 20 13 19 24 23 10 17 23 13 12 20 27 38 31 24 17 20 17 27 17 7 24 14 16 24 12 17 17 37 24 17 12 16 28 34 16 20 31 13 13 24 31 17 14 25 27 27 7 21 23 6 17 24 24 20 24 27 17 13 9 24 23 26 24 27 24 20 17 17 31 27 14 28 23 20 34 13 20 16 16 16 10 30 9 31 14 6 28 41 19 16 27 6 26 21 20 17 15 34 9 31 17 17 10 30 19 28 24 16 9 17 8 20 34 13 19 27 9 19 14 10 23 21 7 24 16 22 28 23 17 20 9 34 24 25 24 28 18 20 26 17 13 28 34 24 11 16 19 17 28 36 34 13 10 20 12 20 28 14 20 10 20 20 20 14 14 34 20 3 16 19 24 12 14 20 13 6 13 7 6 23 15 10 14 6 23 10 31 14 17 29 13 34 8 9 12 20 34 24 20 6 21 35 17 20 13 23 36 21 3 9 16 13 10 16 9 0 14 13 14 7 6 20 16 13 34 20 22 31 34 10 23 34 14 31 19 19 20 11 31 35 20 21 20 13 21 13 20 12 17 16 6 30 10 19 23 18 16 10 23 9 13 20 20 13 23 21 20 11 29 38 20 24 27 10 13 13 14 34 13 23 17 16 27 17 20 17 9 10 24 27 6 20 14 13 10 30 17 24 7 47 24 27 10 12 20 20 24 14 17 14 13 25 12 21 12 13 27 18 16 35 20 17 28 18 30 24 13 17 16 38 7 10 15 10 16 7 6 17 27 21 14 7 10 20 17 10 22 10 15 20 24 14 26 26 29 13 6 17 10 14 24 17 24 0 24 13 5 24 15 16 21 34 10 38 13 17 27 27 10 23 38 25 19 12 27 16 33 16 24 6 20 13 9 24 21 24 13 16 38 27 21 3 14 31 20 13 20 7 21 19 17 17 13 12 20 20 14 17 16 19 19 22 17 6 6 10 20 24 23 14 28 27 27 31 32 16 37 28 19 3 10 7 24 26 17 33 18 21 24 30 6 24 24 10 10 15 15 35 13 30 23 34 31 21 10 24 8 21 23 16 30 27 20 25 16 6 16 10 20 21 3 17 38 49 6 21 14 13 21 14 13 17 27 18 17 9 17 30 9 27 27 17 31 19 30 22 31 20 14 13 9 34 19 21 27 17 19 23 23 20 27 17 41 16 16 23 17 27 20 14 31 22 7 17 28 27 10 21 6 17 17 27 16 19 24 10 10 9 26 31 23 13 17 21 20 30 7 27 27 23 29 23 14 23 35 13 24 17 19 20 20 15 24 14 19 24 27 3 23 31 23 6 6 29 13 17 12 23 24 24 26 14 7 28 16 22 16 13 24 30 13 23 23 7 14 23 16 31 19 6 20 27 27 12 24 9 20 16 24 27 16 10 16 14 6 14 23 28 17 24 17 16 27 32 17 31 16 18 21 28 18 24 13 10 13 21 8 17 24 20 23 24 14 14 24 10 24 17 16 10 17 8 16 21 19 13 13 16 23 23 7 6 17 17 30 28 27 10 24 20 17 32 13 6 38 13 31 21 24 12 27 12 10 24 7 13 23 23 20 31 24 19 28 21 16 12 15 17 21 27 17 20 12 31 41 12 40 24 24 23 28 14 28 34 23 18 34 13 17 27 19 10 31 10 10 17 23 30 37 25 27 27 21 24 10 23 16 31 17 17 27 7 22 24 24 29 10 7 41 13 20 27 19 40 14 26 12 16 24 15 34 27 33 30 20 6 13 9 0 17 14 26 0 9 20 25 10 27 16 14 11 13 19 23 23 17 21 21 22 16 14 24 15 7 13 23 20 32 13 21 24 10 34 23 21 10 37 15 21 23 30 24 24 16 33 17 31 13 17 21 17 14 17 27 7 14 14 17 33 16 17 16 40 22 20 19 13 28 20 17 17 24 13 26 29 7 31 27 21 24 20 7 27 19 20 23 20 6 16 20 24 38 26 16 3 24 30 34 21 20 23 14 26 21 42 27 23 6 24 19 17 3 17 34 9 17 23 22 33 12 24 13 24 13 17 14 20 10 14 13 13 6 19 30 17 17 20 31 24 14 26 31 9 14 17 19 3 13 30 31 24 6 17 23 28 24 20 17 22 20 21 28 20 14 24 34 26 14 31 33 22 22 13 20 33 41 22 21 27 30 20 24 9 17 10 34 14 30 15 10 17 23 6 10 6 16 20 23 22 26 19 6 10 16 21 23 24 10 28 3 24 18 21 17 17 24 20 17 20 23 17 23 23 13 17 17 16 13 13 17 13 17 13 16 23 22 15 27 10 19 17 14 27 19 27 13 12 20 6 6 24 21 20 13 20 24 21 16 27 10 20 29 18 33 20 12 17 17 17 17 28 20 29 9 26 6 16 10 20 24 20 27 38 10 23 24 27 24 6 21 20 20 7 6 15 23 23 26 12 20 34 20 24 16 28 27 21 12 30 17 16 10 21 24 13 24 13 17 27 13 27 24 27 17 20 13 13 23 20 25 26 20 20 22 8 10 20 27 24 17 19 20 20 35 17 22 20 24 21 26 42 25 41 17 19 19 7 13 19 27 24 20 33 37 3 17 27 22 16 24 20 27 17 13 14 9 17 30 30 24 13 28 20 35 41 23 22 17 31 16 6 20 24 35 24 28 29 22 16 19 6 33 17 20 18 28 33 20 20 27 20 17 15 17 21 16 10 27 30 23 17 10 20 23 30 42 21 20 12 28 31 24 16 3 23 41 13 13 14 6 6 23 6 15 12 27 16 38 13 10 27 13 6 14 24 34 17 30 28 10 21 13 13 17 10 12 13 23 24 6 7 26 29 38 10 20 3 19 16 18 16 23 23 26 24 13 15 24 20 23 3 14 9 27 24 35 7 20 14 24 14 23 13 3 26 35 26 19 10 24 17 16 34 34 16 23 17 24 7 17 21 27 15 34 16 18 14 19 10 20 30 27 31 10 10 30 35 25 9 21 10 20 30 13 16 19 26 16 7 9 27 31 13 14 9 9 19 37 14 8 14 20 20 8 20 20 16 14 10 17 24 13 14 9 35 21 14 24 20 15 28 10 17 34 14 6 19 13 23 16 21 19 24 31 14 24 42 10 15 23 14 20 13 28 10 13 13 27 6 21 25 24 10 20 22 13 13 20 21 28 21 16 31 20 18 13 16 13 15 27 14 13 20 13 7 35 17 13 17 10 10 14 16 14 19 26 20 11 24 10 12 40 24 35 9 13 27 21 17 10 13 16 20 6 29 27 14 16 24 21 16 14 19 13 16 27 26 20 24 23 23 14 23 16 24 10 23 10 27 24 32 13 35 27 20 20 20 23 21 19 6 10 13 14 31 21 10 19 9 6 17 15 17</t>
-  </si>
-  <si>
-    <t>EXN(0.4677644578611231, 21.054316417730647, 3.95217671053074)</t>
-  </si>
-  <si>
-    <t>24 22 21 23 18 15 27 25 22 25 27 25 13 26 28 23 24 23 22 23 22 19 20 25 21 15 19 25 33 27 18 22 26 21 30 22 31 20 24 24 25 29 21 22 22 20 20 27 28 21 19 30 22 16 16 26 21 25 23 23 18 23 32 21 20 18 21 32 25 21 26 26 19 18 25 36 28 24 27 26 19 26 19 28 16 28 17 21 21 21 16 22 26 17 21 18 20 24 24 22 22 14 26 23 16 18 20 21 22 23 23 20 32 26 11 12 21 18 18 30 15 15 26 37 22 24 17 27 19 22 23 22 12 24 24 19 22 22 25 21 23 21 24 12 20 17 29 22 16 22 18 13 14 20 28 22 30 23 28 18 17 17 27 22 21 28 20 16 21 22 15 31 41 30 24 31 16 20 21 23 25 18 29 23 30 24 19 26 19 24 25 27 25 30 21 20 21 27 18 27 38 22 31 21 24 23 25 23 21 25 17 18 17 23 18 19 32 14 20 14 20 25 26 30 22 23 21 23 19 19 18 23 19 29 27 15 22 24 24 25 18 30 29 23 22 23 24 22 20 21 19 23 26 22 28 29 21 24 29 22 14 21 29 18 17 14 25 21 27 19 23 24 24 21 18 26 26 24 18 24 24 18 27 19 28 21 24 15 15 15 27 28 33 26 23 20 20 27 24 26 23 23 17 27 25 26 26 26 20 22 13 18 24 27 24 17 21 24 24 23 21 21 23 20 16 23 26 24 21 23 20 21 25 20 22 29 15 33 21 21 19 18 28 27 21 20 22 16 22 29 22 21 26 28 18 24 16 23 28 20 22 29 21 24 25 25 13 22 20 16 14 26 26 25 23 20 19 25 31 26 21 22 19 21 18 16 24 20 16 26 22 24 25 24 12 28 22 20 22 25 23 29 23 23 21 22 25 20 20 18 20 22 11 31 29 27 24 20 21 20 18 19 14 25 17 22 19 20 34 21 29 26 23 19 24 34 27 20 25 28 20 17 22 16 22 25 28 34 24 25 27 21 29 36 21 19 13 23 22 20 25 22 21 16 26 23 20 35 28 26 30 25 20 31 23 23 25 24 26 21 20 19 26 29 16 22 24 15 23 26 20 26 18 24 26 25 22 15 22 18 15 23 18 17 27 14 21 23 22 24 21 33 17 22 15 22 23 22 22 23 21 26 28 33 24 21 29 22 19 21 24 20 20 21 27 21 15 27 26 27 23 13 14 19 29 16 18 13 19 15 17 29 23 21 23 34 24 17 26 27 31 25 22 29 26 23 15 24 28 22 22 23 25 16 21 22 23 28 19 22 23 29 23 19 26 21 18 20 17 22 28 25 22 19 21 19 19 17 34 20 19 21 20 29 14 21 23 18 24 23 31 24 28 21 18 23 24 16 16 19 22 23 28 25 28 21 26 25 21 22 20 17 33 28 21 26 22 23 29 15 21 24 25 19 21 29 25 22 17 18 22 23 27 19 27 21 22 31 24 25 22 25 20 17 28 23 25 30 19 23 31 22 23 23 25 18 18 19 19 16 20 20 27 21 16 34 22 19 18 21 23 23 14 23 19 15 27 17 29 39 15 22 27 27 27 23 16 25 13 20 25 22 20 18 22 25 18 22 20 21 21 26 22 26 20 23 28 22 18 23 22 32 21 26 19 25 25 20 27 22 22 22 21 20 28 11 23 20 30 28 24 23 28 25 19 18 28 28 24 29 26 24 16 24 20 29 24 18 23 21 28 18 22 20 22 27 30 14 25 23 25 20 12 21 24 22 22 19 16 20 27 29 26 14 31 33 19 19 27 21 20 21 30 16 24 20 24 31 26 31 20 16 22 29 25 29 23 30 15 24 25 19 18 31 24 31 24 27 24 20 18 25 30 18 17 31 22 20 24 22 24 23 16 21 22 21 29 26 25 26 28 14 23 24 19 24 18 26 36 21 23 24 25 26 20 33 20 22 17 26 27 29 16 25 25 24 22 19 23 27 25 27 22 24 27 29 18 21 26 23 27 24 19 22 21 14 19 20 24 29 14 31 20 22 26 12 17 24 25 21 30 21 19 24 27 20 20 29 30 23 28 20 28 22 27 27 21 24 18 30 39 17 32 19 27 18 22 26 19 20 21 28 23 24 19 25 27 26 22 19 24 21 25 21 26 22 29 32 18 23 20 28 15 21 20 16 23 23 18 28 27 25 38 18 21 19 25 27 22 21 17 23 18 18 22 23 14 22 25 12 25 21 22 14 25 18 30 23 18 19 20 28 32 19 28 19 20 18 20 27 27 26 23 19 17 15 29 22 20 17 23 24 21 27 24 19 21 20 23 27 23 26 28 21 24 24 17 26 20 19 22 30 25 27 22 22 23 22 24 27 23 21 21 23 21 15 23 29 28 24 20 23 23 27 24 40 17 21 21 23 24 23 22 19 24 24 25 27 22 24 18 24 23 26 17 27 24 24 24 23 20 24 25 19 22 27 22 22 22 22 23 26 25 29 19 24 14 24 23 23 19 23 14 20 22 22 19 15 23 31 28 30 18 29 21 24 39 19 18 27 19 21 22 21 15 19 24 13 27 18 20 27 30 22 21 25 23 33 22 20 19 22 21 17 24 24 17 22 21 26 17 29 24 24 25 22 32 26 16 22 26 19 31 26 19 25 27 16 29 18 25 27 16 21 21 23 20 27 20 20 20 18 23 19 21 20 25 27 18 28 19 29 27 15 23 24 18 16 30 24 21 26 18 19 24 22 26 14 19 22 28 27 25 21 23 25 24 30 20 21 23 27 16 24 32 26 27 18 24 14 26 23 24 19 23 20 20 19 23 11 24 24 21 22 22 20 14 26 19 26 23 23 24 23 20 30 28 19 19 27 29 26 21 22 22 26 18 15 24 17 24 25 17 21 22 28 20 28 25 23 21 19 27 22 24 15 20 14 22 23 18 17 20 18 19 21 27 33 28 20 18 28 18 23 20 23 27 26 24 20 13 26 22 28 21 30 21 13 18 20 25 17 14 13 29 16 23 15 20 17 17 23 22 29 23 21 25 26 33 30 24 21 25 22 30 24 29 17 24 23 21 28 31 23 22 19 16 26 17 20 23 17 21 35 24 23 27 26 19 29 24 20 23 31 25 26 22 18 22 22 17 23 30 23 20 17 27 19 27 37 24 26 21 20 22 25 23 15 25 23 27 23 24 21 20 21 30 24 24 25 28 16 24 21 28 29 20 20 16 25 20 18 24 26 26 29 23 26 25 19 21 18 25 20 20 22 23 14 25 18 28 29 29 20 18 21 26 32 17 21 15 21 24 20 24 23 24 22 24 25 20 18 28 16 29 17 29 24 26 26 30 18 30 32 28 24 27 32 20 26 28 15 26 27 27 28 26 22 17 19 20 22 25 23 22 29 25 25 21 25 20 23 23 24 28 21 24 22 14 27 29 19 23 19 24 19 23 22 30 23 24 16 23 22 22 18 24 21 18 17 30 30 14 23 29 25 22 20 13 23 27 25 24 21 22 19 29 20 16 18 24 25 24 31 18 19 29 16 21 28 23 24 25 27 25 23 25 28 28 25 26 28 25 31 17 19 19 18 25 17 26 24 21 29 22 16 25 15 32 13 18 19 23 31 19 23 35 23 26 20 18 23 20 26 17 25 14 26 19 17 16 21 20 23 19 23 27 24 26 25 19 18 20 23 25 21 27 26 11 30 28 26 25 18 25 21 19 28 22 18 23 24 24 29 26 22 20 21 21 26 32 19 29 30 20 20 27 19 19 20 22 23 29 27 27 19 25 18 26 22 24 27 20 18 26 23 23 20 18 26 22 14 33 24 34 24 26 26 27 28 20 19 22 23 24 13 30 24 24 24 23 17 25 33 28 23 20 26 23 20 22 23 24 21 25 23 22 27 31 22 19 26 21 23 23 24 33 27 22 18 20 26 30 21 26 24 24 24 28 20 23 18 24 22 27 21 20 28 22 16 17 20 21 24 23 26 23 19 29 21 24 17 25 24 22 24 22 22 25 24 22 24 27 23 21 25 25 24 19 14 18 33 18 25 23 24 25 20 21 23 25 26 25 23 24 29 27 24 22 26 25 22 21 20 30 17 23 24 20 25 24 19 28 21 33 23 17 26 31 28 29 25 25 24 25 17 28 16 22 19 16 26 19 21 27 22 25 20 25 19 27 23 27 20 18 22 17 26 28 24 20 16 13 22 25 25 22 17 23 22 24 21 27 22 22 25 32 42 28 24 28 28 27 23 29 23 16 21 18 29 27 19 22 23 27 21 21 23 26 21 23 24 23 16 18 26 21 13 20 25 19 22 25 21 29 13 20 18 14 25 22 27 17 24 27 20 29 17 21 24 16 26 19 22 26 18 22 23 22 24 18 29 19 28 25 30 27 20 14 21 19 27 24 22 24 26 29 27 25 25 23 25 25 24 19 27 24 23 21 22 19 32 23 29 23 22 26 24 24 23 20 22 24 24 24 32 18 18 25 20 24 17 24 25 27 28 28 29 21 21 32 17 22 17 26 26 26 15 39 28 22 24 28 30 20 29 16 15 18 23 23 25 25 21 21 25 19 20 19 25 22 26 26 23 23 22 20 28 22 31 23 16 22 26 19 29 19 17 21 16 23 21 20 26 25 24 21 18 27 22 21 23 20 26 20 32 16 20 31 19 23 16 20 21 31 22 21 29 21 26 24 21 24 19 26 25 22 27 16 26 25 14 18 30 25 28 22 17 23 32 26 22 22 18 24 20 26 24 19 17 29 21 25 25 25 25 22 21 24 26 27 29 23 23 25 23 19 23 31 22 26 20 25 19 31 16 34 21 16 17 16 25 34 16 19 17 21 28 19 23 24 23 23 14 21 20 22 18 22 23 24 20 21 27 26 22 22 18 33 18 19 23 20 28 22 28 27 19 27 27 27 24 22 25 19 24 21 21 16 27 21 22 18 28 24 21 15 24 24 21 23 31 30 18 27 23 17 24 14 24 24 20 11 22 24 19 30 19 23 32 24 25 25 15 26 18 22 25 28 26 27 22 23 18 29 23 18 17 23 25 24 22 22 22 26 22 18 25 24 25 18 17 22 20 22 18 21 20 23 20 30 22 24 29 21 20 23 29 19 27 21 33 27 25 19 15 21 18 21 19 24 29 23 25 23 20 22 25 23 18 15 28 23 21 27 30 30 25 20 34 27 20 21 23 24 16 26 25 29 17 19 27 21 23 19 27 28 26 23 32 18 24 21 25 13 19 19 22 23 17 27 21 31 19 14 29 26 27 20 29 27 24 26 22 25 24 24 22 24 16 22 22 25 29 24 26 19 14 26 28 30 37 23 22 25 26 29 32 22 26 20 25 27 24 18 16 28 27 25 25 20 28 14 22 26 28 18 18 21 19 27 19 26 18 19 32 30 15 15 25 27 30 20 17 17 18 27 23 19 20 26 20 23 26 31 29 25 16 19 21 30 23 27 22 22 26 32 23 31 23 20 23 27 33 26 29 20 26 15 24 26 17 28 10 20 25 17 21 26 21 12 22 28 17 29 24 27 23 23 25 22 17 20 19 27 25 18 23 16 22 26 23 23 15 31 26 26 24 19 13 31 38 15 20 25 20 18 26 25 22 23 24 21 23 18 18 29 21 25 15 28 18 32 27 24 24 24 15 24 22 23 21 14 18 21 20 14 17 17 20 22 17 23 20 22 23 27 23 25 33 21 19 20 21 20 22 22 19 28 20 24 29 19 20 26 27 28 15 30 24 28 22 22 31 23 19 24 33 20 28 26 20 17 16 19 26 17 23 24 17 23 28 22 23 17 24 15 23 25 26 30 21 27 28 16 23 21 19 25 36 19 19 25 20 24 26 20 27 26 22 21 28 22 27 31 15 20 26 27 32 22 17 23 31 27 22 27 26 17 17 25 22 24 24 28 23 14 23 30 22 23 17 30 24 27 22 23 24 16 21 23 23 18 16 33 26 23 29 30 22 22 25 27 28 21 22 30 25 29 27 22 20 17 27 23 15 30 25 25 22 20 33 18 16 25 13 18 26 19 21 16 23 24 12 27 26 25 23 19 18 23 22 25 19 24 21 18 13 23 23 16 24 24 19 26 21 21 25 27 26 17 22 19 26 18 28 29 24 16 29 22 30 19 19 21 23 19 21 18 23 24 14 25 24 18 21 22 33 25 19 29 18 25 25 24 18 28 19 19 25 22 28 27 24 22 20 24 24 21 18 17 21 17 19 24 20 22 15 28 27 22 23 16 22 21 27 23 22 20 24 29 24 21 30 26 21 24 23 25 25 26 22 24 18 24 27 17 13 21 28 26 21 21 24 26 23 19 15 28 29 20 27 23 22 16 26 28 21 28 28 21 29 27 20 28 20 25 22 22 25 19 21 31 21 22 21 20 27 23 19 24 21 23 30 20 20 21 22 22 19 21 19 31 20 28 20 27 23 25 21 21 19 20 17 26 19 21 26 25 15 25 20 26 28 18 18 23 21 26 26 23 22 21 26 17 23 22 25 21 21 16 22 24 26 26 24 17 24 23 21 26 23 22 21 23 16 32 17 25 23 28 22 23 24 23 21 27 15 27 21 25 26 23 26 19 25 22 31 23 16 18 27 20 27 26 25 26 27 24 23 12 28 25 25 21 23 23 21 25 30 23 26 26 28 23 29 31 24 26 24 18 26 19 24 21 20 24 18 22 10 22 36 39 26 19 21 25 27 15 27 24 22 23 22 23 26 19 24 20 17 20 25 21 33 27 21 29 29 22 21 19 23 28 25 21 24 23 23 22 25 20 19 18 27 20 26 21 23 25 16 20 21 24 19 29 21 25 28 23 25 17 23 23 24 28 17 29 24 27 22 21 28 24 19 19 32 19 23 23 27 19 19 17 33 30 13 32 20 20 30 22 26 27 26 22 13 32 28 27 12 29 25 19 25 28 21 24 25 20 24 24 25 10 27 23 13 26 24 26 20 21 24 29 22 29 31 21 29 27 18 22 23 27 17 22 17 26 14 20 37 23 19 23 37 17 20 20 28 17 28 24 18 15 26 20 16 23 28 23 29 26 18 27 22 19 21 30 26 25 20 22 27 22 21 19 19 19 23 23 21 14 18 19 28 22 26 18 24 20 19 20 29 24 26 14 20 21 24 18 23 18 21 24 22 20 33 19 21 16 23 30 32 17 30 20 21 26 27 19 23 31 22 22 24 28 17 23 29 21 21 25 22 23 24 26 24 14 30 16 19 21 21 25 21 26 20 24 19 26 29 25 23 30 22 27 27 14 23 26 25 28 23 27 27 22 23 23 18 20 19 26 25 23 21 29 37 31 32 22 20 18 28 19 25 15 21 24 21 15 25 23 25 20 23 23 26 34 24 19 28 16 20 26 28 18 24 32 27 21 23 31 21 23 28 26 28 28 27 17 14 24 25 18 23 29 19 15 26 21 32 23 23 25 22 24 24 24 21 19 17 24 29 27 24 20 28 25 25 24 24 16 17 27 17 22 22 28 18 25 23 24 23 31 23 21 23 26 21 13 23 25 31 25 23 22 21 26 25 27 23 25 19 23 28 15 21 24 22 26 19 32 20 21 23 30 21 21 24 19 25 23 27 24 26 24 24 25 22 22 24 20 16 24 25 25 23 29 28 17 18 25 28 20 18 19 28 25 20 18 22 27 20 24 23 15 19 24 26 25 24 27 24 25 24 21 26 27 20 27 26 17 22 15 21 23 21 26 18 16 20 25 24 25 18 25 24 30 25 19 23 18 20 21 24 17 17 30 18 23 21 22 21 18 20 26 19 27 28 27 16 28 25 25 21 23 22 22 23 26 14 19 16 24 29 24 22 22 19 23 19 22 23 22 26 16 19 28 25 23 22 24 22 24 22 19 18 27 21 22 23 24 26 30 23 21 26 26 23 22 20 25 26 32 21 25 24 28 19 26 26 23 20 18 22 22 23 15 23 22 29 26 21 21 22 30 18 31 26 25 27 24 23 18 23 21 17 23 17 24 21 19 19 27 27 26 23 17 26 25 29 24 28 24 19 20 20 21 24 18 22 17 23 20 22 22 27 34 15 22 24 27 25 26 33 29 26 21 17 22 21 15 33 30 25 25 23 26 32 20 19 21 23 25 21 26 21 29 27 26 19 26 21 25 23 25 22 30 23 17 12 28 20 19 24 21 31 26 26 24 20 19 22 22 23 21 17 23 16 29 31 26 16 32 21 18 19 17 20 26 22 25 15 16 26 24 17 24 24 23 26 19 18 19 23 16 28 22 30 25 25 22 29 29 26 27 21 21 26 21 32 22 33 20 24 15 26 25 21 22 22 28 24 28 19 29 25 18 17 23 18 18 23 21 14 24 13 17 18 21 20 24 30 26 19 26 22 18 20 27 24 17 23 24 16 20 21 27 23 28 17 26 21 20 23 22 30 23 27 21 29 18 21 20 24 21 22 20 23 24 20 27 31 25 24 28 27 35 18 23 27 28 26 26 34 22 23 28 22 16 17 15 28 18 20 24 24 22 24 25 19 30 23 22 26 26 23 23 24 27 26 26 22 21 22 21 22 35 23 36 19 19 23 28 23 24 16 28 15 21 24 22 21 31 26 20 15 21 16 19 25 29 27 20 22 22 29 18 16 17 23 32 26 30 23 32 17 28 24 24 23 22 22 18 25 30 17 19 16 22 28 28 25 25 24 22 20 24 19 19 25 27 23 24 21 27 21 22 21 32 26 29 24 23 19 26 23 15 22 21 30 20 28 20 23 20 21 23 17 24 24 19 18 21 23 19 28 23 26 24 28 17 24 22 24 26 23 20 22 29 21 24 27 20 30 22 21 27 29 23 32 22 34 17 20 26 17 23 26 22 25 21 24 21 22 27 24 25 19 25 29 18 27 25 21 14 20 27 25 28 25 20 23 23 22 25 21 17 20 20 24 14 22 30 23 22 26 21 23 23 24 19 23 29 20 22 21 25 26 32 27 26 21 20 23 26 26 26 23 25 25 21 24 30 22 29 27 31 22 15 13 27 16 24 29 20 24 18 10 18 25 27 31 21 13 20 25 26 25 25 28 25 25 23 15 20 15 20 23 24 20 21 23 17 28 20 16 24 23 19 26 23 17 31 22 23 23 15 16 21 22 19 24 25 28 30 19 25 26 19 21 26 21 29 18 25 9 21 25 24 19 24 24 21 28 19 22 25 26 20 30 16 24 27 27 23 24 26 20 30 21 20 25 24 29 23 23 23 23 25 23 29 29 22 27 16 19 25 20 25 21 21 18 17 21 22 25 22 20 21 21 14 25 28 18 20 25 24 30 28 30 19 20 22 25 16 23 16 20 30 15 21 28 26 21 26 23 25 28 25 20 21 24 26 28 21 22 26 20 25 24 27 21 23 24 31 21 29 19 27 24 26 27 19 19 24 23 21 22 32 24 22 22 23 27 23 15 19 17 25 25 31 15 24 26 18 20 20 23 22 27 22 21 29 17 24 21 23 18 18 27 22 21 25 16 18 20 20 24 21 24 28 26 26 19 19 27 21 26 21 21 24 26 18 27 24 22 18 23 15 26 27 25 28 29 35 22 24 35 24 21 15 23 19 18 25 24 22 20 24 15 25 26 21 30 27 24 24 20 18 26 22 18 18 19 18 27 20 19 23 24 23 23 21 21 22 23 31 31 31 25 14 15 18 27 22 28 17 21 21 13 29 28 22 22 18 19 23 21 13 16 19 22 20 23 23 21 17 21 28 15 27 17 15 23 21 22 22 18 27 23 25 26 27 18 23 29 19 19 20 18 24 31 21 21 27 29 32 30 22 25 21 23 22 21 24 24 16 18 20 20 13 17 29 24 20 19 18 24 27 19 33 25 23 32 22 18 32 25 19 25 25 28 30 32 28 20 27 26 19 19 28 19 33 24 20 25 20 22 20 24 20 27 19 18 21 19 18 26 25 21 17 22 22 21 23 22 25 24 22 17 24 24 18 22 22 17 16 14 23 22 22 21 24 30 22 22 19 26 24 27 26 23 25 25 18 24 23 16 22 25 22 21 14 16 11 20 20 24 21 16 31 20 18 27 18 14 30 23 19 26 30 22 24 14 22 22 28 25 20 22 27 23 27 16 23 26 22 20 26 31 24 23 26 19 19 26 26 28 22 19 11 33 30 28 26 18 20 26 26 26 19 25 22 15 21 31 20 27 22 26 21 19 23 26 23 23 20 26 22 28 18 23 26 22 24 23 23 20 20 35 29 22 25 23 20 30 21 17 27 23 21 21 27 28 16 21 26 23 20 23 15 21 26 27 27 13 21 27 27 21 23 19 19 22 28 31 21 17 23 16 22 19 21 25 20 22 22 25 26 30 29 26 18 25 17 22 27 23 12 35 20 25 21 21 21 22 21 25 21 27 21 19 19 28 20 17 22 27 16 19 21 26 21 25 22 29 20 25 23 24 25 23 27 21 21 23 24 18 27 27 25 26 22 22 28 23 30 16 23 26 20 16 26 26 28 19 28 34 16 22 27 26 23 24 22 21 17 25 24 23 33 31 20 14 21 24 23 23 18 17 20 31 22 21 26 34 24 18 21 27 32 18 23 17 20 27 25 22 30 22 25 22 20 25 32 24 19 23 29 20 25 23 24 27 26 23 30 21 19 30 21 19 27 26 23 27 23 20 23 20 21 16 23 23 30 31 21 21 25 23 27 25 19 21 25 25 17 20 21 24 24 28 20 18 20 22 29 24 21 22 20 21 29 34 29 27 23 23 26 18 24 22 21 24 14 18 23 27 27 17 16 20 29 19 21 24 24 27 25 21 24 17 29 25 22 20 16 22 25 21 23 15 30 29 23 27 24 25 25 33 21 22 24 20 27 28 21 17 28 26 15 22 21 31 24 20 20 23 15 18 23 20 21 26 27 24 24 19 26 18 24 25 23 24 26 16 26 20 18 24 29 23 28 16 19 30 24 21 16 21 18 23 15 31 11 22 19 34 24 23 31 17 17 29 28 24 21 15 26 17 25 26 25 17 22 19 13 23 18 22 16 18 21 20 20 21 22 13 17 21 25 19 32 24 20 23 24 24 24 26 22 18 24 25 18 19 26 24 21 23 23 17 27 24 26 25 26 31 26 25 28 23 27 22 23 22 30 19 19 30 24 15 29 24 27 26 23 28 22 30 21 26 24 27 17 26 25 20 25 18 27 21 25 21 23 13 23 14 27 24 20 22 20 26 21 24 20 16 25 20 19 22 14 18 23 26 29 21 15 16 26 25 21 30 28 25 14 21 25 24 23 27 24 34 28 25 19 23 29 15 29 21 24 24 18 27 26 18 21 26 18 18 24 26 32 20 29 20 21 16 26 26 26 26 28 22 17 22 22 19 20 25 26 26 23 21 22 28 25 18 21 19 27 29 25 20 34 24 27 20 19 24 15 18 31 19 19 24 19 19 19 18 16 31 17 19 18 20 21 24 30 21 25 22 29 29 28 29 29 16 26 25 24 23 22 25 22 22 25 26 18 22 19 27 17 19 24 26 23 19 28 25 21 18 24 25 24 21 26 15 29 19 21 20 22 22 24 25 29 20 28 25 22 15 24 23 30 18 22 20 27 23 30 20 29 19 23 24 19 25 25 25 27 19 21 14 19 22 33 26 24 21 14 26 24 30 15 30 27 29 25 13 23 27 23 19 26 26 30 22 29 20 22 14 20 23 15 28 26 22 25 25 28 22 28 23 20 23 18 22 21 37 20 20 21 20 21 25 28 21 27 23 17 24 25 30 21 35 15 25 15 31 26 13 22 22 25 19 25 25 16 24 18 20 14 21 22 24 20 25 17 25 23 22 19 28 23 24 30 23 26 26 19 19 29 28 23 21 15 23 25 20 24 26 21 24 19 20 26 18 23 17 21 24 22 20 20 20 24 30 24 25 22 24 29 24 29 18 18 24 22 16 23 20 32 21 27 25 23 24 21 23 21 28 35 22 25 17 21 22 21 23 16 20 25 29 22 29 24 25 22 28 24 23 18 27 29 25 25 21 30 27 24 27 22 24 25 19 24 25 27 19 27 24 19 21 27 30 27 28 17 25 22 26 14 25 13 22 20 26 19 20 23 23 23 27 29 28 23 21 32 25 30 21 21 23 17 26 18 24 26 20 18 26 18 22 25 27 24 20 26 30 23 28 29 20 17 22 32 26 21 18 27 25 24 15 23 27 20 32 23 20 26 19 23 24 24 13 23 28 18 23 15 26 23 21 27 24 25 21 26 22 29 20 25 28 20 17 17 21 21 31 20 15 24 19 23 23 24 28 21 20 19 24 20 23 14 14 18 20 20 23 17 20 29 19 22 15 22 29 22 27 29 27 20 15 25 25 21 28 19 19 23 23 28 23 22 22 23 24 18 33 19 28 25 20 29 27 26 23 21 22 22 24 26 20 20 28 28 17 20 22 24 14 23 21 25 21 27 24 23 14 27 34 22 27 22 22 17 19 18 26 22 25 21 16 22 25 30 16 22 17 25 27 29 17 29 20 27 26 28 27 28 25 30 25 20 33 14 23 24 21 20 18 32 29 29 24 22 23 23 30 25 22 13 26 18 21 18 25 23 33 18 29 25 21 20 27 27 24 20 26 26 27 19 30 25 25 16 14 28 21 25 31 25 24 19 20 24 21 20 22 29 26 29 28 21 14 25 17 32 22 23 35 16 20 31 21 24 21 26 24 15 19 29 18 19 23 25 22 14 20 27 22 23 28 21 21 24 26 14 30 27 23 22 19 29 24 31 21 19 26 23 25 16 29 23 27 25 18 21 27 21 28 21 21 24 14 22 28 20 17 25 26 25 22 27 22 32 22 18 18 35 24 18 22 26 26 27 27 18 20 25 20 22 27 25 27 21 31 20 28 24 25 21 27 17 15 15 24 17 25 27 16 24 27 29 19 22 25 25 16 20 22 17 22 26 24 21 26 23 20 20 28 22 24 29 14 28 29 32 26 19 19 21 24 21 23 24 17 26 23 27 21 19 27 24 30 32 31 26 20 21 18 22 30 21 18 35 18 22 24 27 24 26 22 27 24 18 26 21 27 26 26 29 13 23 15 30 21 23 21 22 24 24 17 24 24 19 21 26 27 38 26 27 21 18 28 16 21 24 20 29 29 26 24 24 23 24 24 22 20 25 25 25 27 25 21 25 18 21 21 20 21 16 21 27 27 19 22 23 25 20 24 17 29 15 28 26 23 17 29 24 20 26 20 20 24 18 22 26 21 20 20 24 36 22 17 31 19 26 25 20 22 23 17 22 28 24 21 28 23 22 21 19 30 27 35 15 18 23 24 25 18 27 26 24 20 24 22 22 22 25 29 24 18 22 26 26 24 23 23 22 28 21 27 24 16 16 18 23 36 24 25 24 25 26 22 25 24 21 26 25 20 16 23 20 23 25 23 26 28 25 29 29 25 14 21 22 27 20 25 24 20 30 25 23 26 24 25 25 27 24 24 18 25 21 23 24 25 26 23 24 31 32 15 21 14 28 26 20 24 27 16 19 27 27 20 22 22 20 22 29 22 22 33 27 28 24 22 27 28 26 15 17 26 21 18 20 31 25 21 21 23 17 26 25 22 22 16 18 19 23 19 30 23 22 15 27 19 19 24 21 25 20 26 27 19 31 32 22 28 21 18 24 19 24 19 26 21 29 20 21 18 22 15 22 18 16 20 24 25 26 14 20 23 24 26 24 24 30 27 21 31 23 26 22 24 17 14 27 22 26 25 20 25 24 27 25 18 27 27 18 25 18 27 21 28 28 20 23 25 18 26 20 31 24 25 23 20 24 27 28 17 24 16 30 24 20 25 24 25 27 17 25 19 22 23 31 29 18 21 19 19 24 31 18 13 15 14 21 26 17 21 14 26 28 26 27 14 24 17 18 27 20 16 24 24 25 32 18 24 21 25 26 22 20 20 16 24 24 18 22 23 26 29 23 23 27 20 18 27 34 26 21 24 21 25 20 22 19 23 15 15 20 23 25 16 21 29 33 20 15 30 25 19 23 25 24 20 23 18 17 27 19 20 16 28 20 25 19 28 18 22 22 17 22 20 25 20 24 25 23 27 12 23 23 28 28 20 28 14 26 32 24 24 20 30 28 22 24 26 21 20 12 23 19 27 22 26 25 28 19 21 22 29 23 22 17 26 17 23 18 21 16 27 19 27 22 26 13 22 21 14 28 16 21 22 26 23 26 28 23 22 23 25 22 22 27 21 24 28 27 18 22 27 21 20 18 23 17 25 24 19 26 37 30 20 24 21 27 26 15 27 26 21 24 27 26 22 27 22 24 25 26 34 20 21 21 20 29 21 24 17 22 21 19 27 26 20 27 19 23 20 31 26 30 23 24 20 29 17 30 27 19 22 20 33 29 16 19 28 35 25 15 21 30 15 19 28 19 23 23 19 23 30 25 20 23 33 24 19 19 18 18 24 28 20 20 26 21 32 28 26 24 28 27 23 15 24 17 20 13 20 26 24 24 26 26 27 21 25 23 20 19 20 27 17 21 17 32 29 26 18 23 16 22 21 16 26 24 12 14 23 26 25 16 32 25 29 21 22 29 26 25 24 23 18 26 26 25 27 20 28 17 24 23 21 24 30 21 31 19 24 24 22 15 26 22 21 21 23 30 23 19 19 20 20 29 26 18 26 22 21 18 22 25 19 19 19 16 17 34 24 24 25 26 16 29 30 21 30 20 26 28 26 22 22 23 13 23 22 18 22 27 16 20 22 20 16 24 21 26 19 22 20 14 23 29 23 28 24 36 27 15 19 24 26 21 14 28 19 24 22 27 22 24 24 29 19 20 25 22 28 16 17 24 31 18 27 22 23 26 21 26 24 17 26 31 27 20 22 29 26 28 26 23 23 19 27 20 31 14 23 23 24 21 22 24 32 16 21 20 17 22 21 23 23 35 20 24 22 22 22 35 15 16 24 18 21 17 28 23 24 27 26 24 30 27 22 24 16 21 13 15 24 16 22 28 19 24 25 25 18 15 32 24 19 28 18 21 27 22 19 21 29 13 24 25 23 19 20 18 22 23 17 27 18 24 13 23 28 19 29 21 14 31 23 24 22 26 17 19 22 26 16 17 24 20 26 23 18 17 23 25 15 15 26 18 24 17 24 23 17 35 24 23 22 28 22 22 18 32 25 23 26 30 28 22 31 18 27 19 25 20 24 23 28 23 20 24 19 23 24 25 29 11 21 21 26 25 27 21 24 26 24 18 24 24 22 17 28 24 19 23 20 18 24 19 21 22 29 25 23 31 25 25 25 22 23 22 26 20 19 23 24 25 22 13 27 17 17 25 13 20 24 23 24 21 27 28 25 21 23 23 26 19 20 23 17 23 27 20 16 19 21 18 25 26 27 26 29 25 25 19 28 27 27 23 31 21 22 20 19 25 14 27 21 24 33 22 22 18 22 20 28 28 26 25 30 21 28 19 21 23 25 22 26 21 20 20 21 24 19 20 18 23 12 20 32 20 20 24 24 21 23 17 16 23 17 22 24 20 19 22 28 22 24 23 23 23 26 16 26 24 15 23 23 20 25 24 17 23 30 23 22 19 22 21 25 26 20 19 39 25 25 21 25 20 29 17 22 35 23 25 19 21 18 24 20 23 20 22 31 19 29 29 26 18 21 14 20 27 23 24 17 24 19 23 29 23 16 22 22 25 18 17 26 19 27 20 21 23 23 25 26 17 20 18 25 29 27 24 29 28 29 29 22 25 24 33 19 19 27 24 23 24 30 15 23 18 28 25 20 15 29 21 27 24 21 36 22 19 21 25 19 25 33 25 27 20 20 18 23 21 24 18 24 15 24 29 14 18 17 19 26 16 22 25 24 24 23 20 28 22 25 19 29 27 23 25 25 23 21 22 27 19 22 30 23 22 32 17 22 21 21 18 19 24 19 24 17 29 21 29 21 24 32 21 28 18 18 21 22 21 26 23 27 14 27 19 20 21 18 19 24 23 19 20 20 22 20 22 25 20 23 18 26 22 24 20 23 27 25 18 25 15 22 25 26 24 23 23 27 17 16 14 27 24 35 27 19 22 20 25 27 29 22 27 15 20 23 22 27 29 20 19 28 24 24 27 23 28 25 20 27 16 27 25 30 25 15 20 27 23 17 28 19 27 23 19 29 25 20 24 30 22 26 17 30 26 15 26 36 16 14 19 28 27 24 22 24 22 28 24 24 26 23 24 24 28 18 22 21 26 14 30 21 24 27 25 20 21 24 26 19 15 26 17 19 20 25 22 21 23 20 23 17 24 23 19 22 28 32 23 19 26 25 29 18 24 27 14 19 17 21 16 19 20 22 21 28 17 30 29 17 14 26 26 23 25 20 17 17 19 14 28 19 27 16 15 28 28 27 28 25 26 21 13 24 16 22 24 33 21 27 24 26 23 19 31 16 20 33 21 23 18 23 19 24 26 32 24 20 13 21 24 21 25 22 23 13 22 17 25 27 25 21 21 31 29 30 25 23 17 14 24 23 19 20 26 24 22 35 28 27 27 17 17 26 26 23 22 27 28 18 14 19 29 23 20 26 21 20 18 32 26 14 20 26 27 28 24 26 21 20 23 15 24 34 29 23 25 26 26 23 22 20 23 22 16 23 19 25 16 26 23 21 20 18 15 27 24 18 22 22 20 26 22 20 23 24 26 26 22 25 32 23 27 19 20 23 21 22 27 20 21 19 17 24 32 18 28 22 24 23 21 27 19 24 24 15 21 21 28 18 24 21 23 18 18 24 20 20 21 26 28 17 23 24 15 24 24 33 20 27 21 23 21 17 29 26 26 28 28 21 21 18 25 17 25 13 32 20 26 22 29 22 22 21 19 27 24 23 23 30 18 24 21 31 25 18 26 21 25 30 17 26 21 23 25 19 37 25 29 17 24 21 30 30 26 19 14 24 23 27 23 28 21 29 22 19 24 24 24 20 19 16 20 35 17 32 21 23 23 25 19 20 17 17 16 25 25 20 17 24 22 24 25 18 22 23 28 20 13 20 20 23 22 23 22 20 24 27 26 16 22 26 23 29 26 20 28 25 24 23 30 23 18 20 27 22 23 19 28 26 28 21 23 23 16 22 24 20 16 29 33 21 23 18 29 17 22 18 20 27 26 21 25 16 19 20 25 20 29 30 30 27 18 25 22 25 30 27 29 29 20 20 28 23 24 24 29 24 17 27 21 23 20 30 21 26 24 21 26 22 21 28 23 27 22 20 27 20 17 21 30 33 25 21 18 32 14 24 26 25 31 30 23 22 23 25 18 27 19 22 27 22 25 21 18 15 26 28 21 31 23 32 33 16 24 18 17 25 20 20 26 15 17 27 23 31 21 24 27 17 18 18 25 21 24 23 24 23 26 15 21 21 26 17 18 27 16 27 13 24 25 18 23 26 28 22 32 20 19 26 29 23 25 29 31 21 24 16 19 25 16 19 21 24 19 24 26 21 25 23 27 21 21 23 15 28 21 28 17 20 20 20 24 19 22 32 34 25 21 22 27 19 17 19 20 17 24 21 21 18 26 26 16 26 20 22 20 13 20 22 28 22 25 23 26 31 20 24 18 25 25 19 25 15 24 17 26 24 19 27 30 21 18 33 24 25 25 23 18 33 24 26 26 24 22 19 19 24 23 34 12 21 24 29 26 16 23 11 26 21 24 20 22 26 22 24 22 24 33 26 26 28 22 27 22 30 24 17 18 34 17 22 22 17 20 22 27 21 19 17 23 29 23 22 18 30 20 30 26 17 26 18 26 21 20 28 30 30 27 24 21 27 19 24 27 16 19 29 27 26 26 24 21 19 23 27 29 25 26 27 20 28 28 21 22 17 29 21 26 16 16 12 18 25 29 24 20 25 18 26 28 20 16 23 26 31 18 36 31 20 22 26 21 20 26 27 29 16 27 23 30 32 27 27 30 24 21 21 18 19 29 21 19 24 27 20 26 24 23 22 22 17 20 19 17 26 17 24 21 14 25 29 22 23 26 21 18 15 24 23 13 32 21 16 23 24 21 18 25 25 24 20 27 27 23 20 18 28 16 21 19 31 19 23 29 23 17 23 19 24 18 22 28 28 19 21 15 22 20 30 21 23 22 23 21 26 20 22 19 28 23 24 19 21 23 20 27 24 28 23 24 15 17 28 23 18 22 27 29 30 28 19 22 24 22 30 21 21 19 19 22 18 26 19 15 17 23 19 21 14 19 21 23 26 24 25 23 16 26 20 23 18 22 28 27 26 22 30 31 21 32 25 19 21 35 21 19 27 21 27 25 24 28 21 22 29 30 26 22 25 14 24 32 19 22 24 22 31 23 33 32 31 25 26 20 21 24 18 26 21 21 23 33 26 18 18 23 26 23 23 20 18 18 34 21 24 20 26 29 19 32 16 28 22 17 26 22 26 24 24 25 23 19 26 25 19 22 19 16 23 16 30 24 25 22 23 23 21 23 24 16 20 11 26 30 27 18 25 18 22 26 25 20 29 20 19 16 24 28 25 26 22 28 22 19 23 25 12 26 9 31 19 17 19 16 21 25 28 16 28 23 26 27 20 16 22 24 26 16 21 32 14 28 17 22 26 21 23 25 20 19 25 22 23 22 23 26 15 21 18 28 24 28 20 18 24 17 23 23 15 15 22 19 24 24 21 18 21 22 17 23 35 22 21 32 12 24 20 24 20 15 21 25 24 17 23 20 22 34 22 20 26 16 26 24 16 24 25 34 24 24 27 27 29 23 31 28 26 22 23 22 20 26 18 14 22 37 21 26 20 20 28 28 19 24 15 17 21 22 18 17 27 28 22 18 17 30 31 23 21 26 23 26 23 19 30 21 26 24 31 23 25 18 17 25 19 32 23 18 27 24 22 27 27 20 29 16 32 25 23 22 25 27 22 19 26 21 26 22 27 24 24 20 30 18 27 32 21 25 22 28 25 23 28 26 22 24 24 20 16 22 23 21 13 23 29 26 28 20 22 25 23 26 28 30 21 19 22 17 28 23 25 18 33 26 22 23 20 17 14 23 22 23 25 19 25 19 17 18 25 34 21 22 28 30 18 25 28 24 22 26 30 27 21 21 26 24 21 23 22 29 29 22 18 21 23 25 21 21 30 24 17 27 26 22 17 19 23 22 25 22 20 19 20 19 27 24 22 26 27 22 22 22 16 19 31 24 24 22 24 18 24 21 24 22 23 16 22 18 19 26 24 30 20 23 30 31 18 25 23 17 24 21 27 26 20 17 18 26 27 26 25 23 23 23 18 28 25 22 17 20 27 27 23 18 18 17 24 19 20 21 21 34 24 18 15 21 27 19 20 25 21 21 20 23 17 21 23 22 25 25 20 26 28 22 26 23 24 24 19 24 20 25 23 30 23 27 25 29 24 17 23 22 18 18 20 27 21 35 23 32 19 18 25 22 24 30 27 24 17 16 23 27 30 23 30 31 22 19 21 19 18 30 22 28 23 25 24 24 20 29 17 32 22 25 22 20 17 27 22 16 18 26 31 21 24 16 22 24 25 26 24 28 16 20 19 25 27 16 16 26 25 26 29 18 22 32 22 19 25 21 26 22 23 20 18 21 11 24 19 28 25 20 18 20 24 13 28 23 26 26 27 30 18 23 30 30 22 26 22 14 19 23 22 20 20 18 25 23 16 22 24 19 21 25 22 17 23 13 22 19 14 20 20 19 34 20 23 26 27 28 29 31 17 28 13 20 25 22 24 23 16 25 22 21 26 21 22 21 23 23 17 21 16 18 21 20 18 20 31 25 21 21 27 18 27 19 23 24 20 30 22 30 29 21 22 24 18 29 21 24 25 18 28 13 25 24 24 25 26 24 16 23 18 20 14 24 25 17 20 30 22 23 18 22 22 22 19 22 25 19 23 23 23 28 30 17 28 27 25 24 22 17 31 22 32 24 22 14 19 24 29 21 16 24 28 22 19 27 21 26 27 24 20 27 12 19 25 25 20 20 23 17 25 23 20 19 20 22 30 21 24 21 33 19 20 21 20 17 22 20 27 29 28 31 21 18 23 28 17 28 35 26 21 16 31 24 28 23 22 15 22 27 23 18 22 26 26 21 27 30 21 20 25 26 20 20 22 20 24 21 19 23 25 32 19 26 18 29 29 25 22 27 23 15 19 21 20 25 18 17 23 18 27 29 28 24 27 22 25 11 21 22 29 25 19 28 24 21 19 27 23 26 20 23 14 17 27 22 23 23 25 17 25 14 16 28 25 20 31 20 22 29 21 17 25 18 25 22 27 19 25 19 24 29 15 20 25 17 21 20 20 25 23 15 24 20 21 25 23 23 22 36 27 15 24 25 34 16 17 21 20 26 14 25 37 26 22 23 26 23 18 26 24 21 24 25 30 24 29 20 22 24 21 29 28 22 20 25 23 25 20 27 21 21 19 20 20 20 29 21 18 22 22 25 21 25 24 19 34 19 18 23 22 22 26 16 21 18 24 27 21 22 32 25 32 22 24 21 21 34 26 16 19 21 19 21 23 22 25 19 33 19 23 25 30 23 22 24 23 22 22 31 30 18 28 25 23 30 21 19 26 26 30 25 21 22 18 26 22 21 21 16 21 30 15 26 26 21 20 20 26 23 25 22 13 19 19 28 15 26 23 17 15 20 26 27 18 23 24 18 28 25 16 22 28 21 25 28 17 24 22 16 24 23 22 18 21 22 30 27 18 12 24 17 31 27 23 20 24 22 27 24 22 21 30 26 21 27 23 21 27 18 19 25 23 21 25 22 20 27 26 26 27 28 21 16 31 33 30 23 19 23 10 27 25 18 26 23 24 23 26 21 24 21 24 19 24 23 26 28 20 20 28 19 17 25 23 25 25 18 26 25 30 21 21 22 27 27 23 20 20 16 19 18 25 29 23 25 22 19 23 29 24 29 26 22 25 19 23 32 26 25 33 22 28 15 25 25 15 22 25 24 17 21 18 23 21 31 19 28 30 15 21 25 22 27 21 21 22 22 20 33 27 14 22 28 27 25 26 22 22 22 23 20 21 29 27 20 16 23 19 29 26 18 28 22 25 26 18 26 22 21 29 25 20 16 19 25 28 20 20 19 28 25 24 24 25 19 30 16 33 22 14 24 20 22 21 23 24 26 27 17 26 24 20 23 24 22 25 22 23 29 20 19 25 24 23 27 25 14 27 18 21 21 28 24 30 18 21 26 20 21 18 18 24 16 20 19 24 22 22 20 24 16 25 19 22 25 19 20 27 18 22 28 25 24 18 26 25 20 22 21 25 20 18 19 23 33 21 28 24 21 20 22 21 23 23 24 23 24 21 19 31 25 21 23 22 16 25 24 25 28 15 16 26 33 22 17 29 23 19 19 20 16 21 26 29 34 22 18 24 26 23 24 19 19 20 28 23 31 24 17 21 18 21 23 20 21 20 21 24 28 17 26 20 23 25 17 16 20 18 30 28 20 28 29 25 15 13 26 25 28 25 25 14 22 20 27 19 24 20 19 20 25 33 14 20 32 22 21 25 25 19 21 22 15 22 19 29 30 25 26 20 27 23 26 17 23 25 23 23 29 23 27 27 23 26 18 16 20 23 22 27 20 21 26 24 21 18 24 19 21 19 27 24 24 27 15 22 20 23 22 20 22 26 25 19 20 23 25 19 18 19 27 22 21 17 33 30 21 30 26 22 25 25 21 22 24 25 18 26 27 24 18 26 18 18 27 18 32 23 23 16 24 19 19 29 20 18 26 25 31 27 21 26 26 22 27 28 22 20 22 28 24 22 26 23 24 21 22 29 27 17 16 28 27 15 27 25 23 23 30 19 28 30 26 26 16 24 25 19 33 24 25 20 30 25 25 23 21 21 22 19 28 24 25 33 25 22 28 18 23 21 19 22 29 22 27 23 17 23 23 14 26 28 31 13 21 19 27 26 22 22 20 27 30 18 26 15 23 15 21 14 32 28 34 21 30 17 18 26 17 20 19 20 27 22 25 28 26 27 23 12 23 20 13 18 22 30 20 23 26 25 25 16 32 15 24 25 29 17 24 24 34 21 29 28 26 26 31 15 20 19 27 24 31 20 19 18 24 24 31 19 22 20 32 26 24 16 23 21 21 27 31 23 28 20 25 18 23 22 26 19 29 21 13 15 25 21 19 27 19 24 23 23 24 26 21 25 21 21 24 18 19 24 22 17 20 15 23 31 20 16 20 22 22 20 25 20 21 20 16 17 18 29 25 23 24 21 26 27 24 17 24 25 21 22 23 16 16 28 20 20 25 20 23 19 17 23 22 22 19 17 23 24 24 21 25 20 27 21 23 29 22 27 23 22 25 16 26 25 23 23 18 25 23 20 24 13 24 22 20 30 25 19 28 27 25 23 31 20 15 20 16 15 28 17 16 17 18 22 12 20 22 22 25 20 23 21 18 23 35 27 27 17 14 27 22 21 23 19 19 26 28 20 16 22 17 21 24 27 20 29 19 17 24 21 21 21 28 24 19 20 25 23 22 25 24 24 26 33 25 23 27 27 21 25 25 25 27 17 18 23 21 24 21 21 26 18 16 23 19 19</t>
-  </si>
-  <si>
-    <t>NIG(117.82141952801408, 81.30434997493853, -1.4208558676935836, 37.87048209058459)</t>
-  </si>
-  <si>
-    <t>33 36 29 35 33 30 38 36 35 40 49 39 26 39 38 36 33 32 34 31 31 30 30 31 33 25 34 39 46 40 33 30 37 33 43 33 39 37 33 35 40 35 38 34 34 35 27 35 42 34 31 41 40 31 27 36 41 36 37 33 31 38 43 38 34 29 29 42 33 32 35 37 27 28 37 44 38 35 35 37 26 35 30 39 27 48 27 34 38 31 31 33 39 25 36 31 29 38 45 32 28 32 37 35 34 26 28 34 34 39 36 29 43 45 23 21 31 24 29 46 28 27 32 53 32 32 33 32 31 36 30 31 32 37 27 26 32 30 37 31 29 38 39 26 36 32 46 32 23 33 21 28 28 28 41 33 39 38 45 34 29 29 33 31 33 42 32 29 30 37 24 41 51 41 33 51 26 28 29 33 39 33 42 31 50 37 31 40 37 37 37 42 36 46 36 29 31 43 30 37 45 38 39 30 36 37 35 32 34 47 24 33 34 38 27 32 43 24 29 25 25 41 38 37 31 39 30 36 27 35 28 39 27 40 35 22 34 40 33 39 27 44 44 36 31 37 33 39 35 31 29 38 31 34 42 41 39 33 42 36 24 35 33 27 28 25 45 31 40 29 33 37 34 31 32 46 42 39 31 40 38 27 46 30 39 41 40 31 22 27 35 40 42 38 35 27 32 42 39 44 30 33 36 41 50 43 40 41 33 32 23 26 33 35 44 24 34 29 39 35 33 32 36 34 29 26 45 40 32 38 41 33 37 33 39 41 26 44 30 38 29 29 39 34 30 39 39 28 34 39 34 30 35 37 32 39 25 35 38 33 30 44 34 34 32 38 30 33 26 29 25 33 32 36 34 34 31 36 43 41 30 34 32 33 28 28 35 38 28 35 35 33 31 32 26 33 35 38 39 39 38 41 34 35 44 33 33 28 32 37 34 34 22 42 36 41 35 33 36 30 27 36 32 39 41 30 33 32 39 32 36 42 32 32 28 42 42 30 36 36 33 22 34 28 33 35 40 42 36 37 33 30 46 44 36 33 21 34 31 31 30 31 34 28 38 39 37 46 47 33 38 41 28 47 36 36 45 45 34 32 37 32 36 42 29 32 29 26 34 40 33 47 29 42 39 40 29 29 35 29 21 40 32 32 36 25 28 31 34 35 25 44 24 31 23 37 31 39 29 26 27 37 36 36 36 32 38 32 35 29 39 32 37 30 45 35 36 41 30 38 37 22 26 32 37 31 31 24 33 21 23 39 36 39 36 44 42 24 40 40 42 44 31 41 36 32 28 33 37 29 32 39 40 31 34 36 33 34 25 27 32 38 37 24 40 32 25 35 32 27 40 30 27 26 32 31 30 26 44 32 37 38 30 49 26 35 36 27 39 32 40 35 38 43 34 38 37 29 24 34 27 34 35 38 40 27 32 41 31 28 30 29 46 45 29 40 27 34 42 30 34 35 37 36 31 44 43 29 25 33 35 30 36 37 37 32 29 41 45 44 35 33 37 32 42 33 31 37 34 47 48 35 41 31 33 25 29 27 29 29 33 33 41 32 33 48 39 29 31 35 42 38 25 42 36 29 33 27 44 60 23 30 36 40 44 36 31 32 24 31 34 29 34 33 35 38 24 39 31 25 31 39 31 35 32 34 42 34 28 32 38 48 43 39 30 34 35 35 39 38 31 31 43 30 40 32 28 24 46 44 34 37 44 42 29 29 38 40 36 47 40 30 29 35 29 37 38 29 32 27 39 31 36 37 36 50 43 25 38 34 32 32 31 30 40 32 35 31 27 27 42 40 44 23 42 43 32 25 37 37 31 32 40 38 31 29 36 45 35 46 28 30 34 45 29 41 33 42 25 35 39 34 32 38 38 44 34 39 41 28 34 32 38 32 29 40 38 31 29 28 40 37 26 29 34 30 38 33 37 41 40 26 36 38 30 35 28 31 48 28 37 37 33 34 35 39 25 38 30 38 44 45 32 36 33 35 33 31 35 40 38 47 31 31 39 40 30 31 42 34 34 30 31 33 25 33 28 31 39 48 26 46 34 35 32 15 30 37 37 30 36 30 28 38 44 35 28 50 43 31 40 34 42 33 37 34 26 38 34 39 50 32 44 31 46 31 33 35 31 36 31 42 37 34 31 33 39 37 26 29 35 35 36 30 41 33 48 44 38 32 34 42 26 33 30 28 38 33 34 40 42 37 55 34 28 29 41 37 33 32 26 35 27 28 31 33 27 29 35 29 40 30 32 20 35 35 38 31 33 29 28 43 45 32 48 28 39 30 35 39 34 43 30 31 34 31 45 34 29 26 32 35 33 39 33 26 34 32 35 39 31 42 42 36 30 35 28 34 27 28 30 42 36 51 33 34 39 32 32 39 36 37 31 31 35 25 33 46 36 41 30 35 34 35 32 54 31 36 31 35 35 38 36 29 39 35 38 38 33 29 37 36 30 38 36 39 36 39 30 33 30 38 38 32 38 38 35 36 38 27 38 35 35 44 26 31 21 35 32 35 25 32 17 29 39 40 40 29 33 41 39 48 28 43 34 32 46 36 29 38 29 33 31 32 25 32 29 22 39 32 36 36 39 31 31 33 30 42 35 25 34 29 34 32 31 50 25 36 35 37 29 36 41 33 37 32 44 42 30 35 42 35 45 42 28 34 39 30 46 26 36 44 25 28 35 33 29 40 37 30 34 31 30 33 34 28 32 42 33 38 26 42 42 24 33 36 28 25 43 42 39 41 25 29 33 34 36 26 35 36 39 37 43 35 26 43 41 41 36 37 32 34 26 36 43 37 39 27 38 22 38 33 32 25 36 26 28 28 31 29 37 30 27 30 32 30 31 36 34 35 33 37 35 36 38 42 43 37 28 32 37 37 35 34 33 37 26 27 35 25 33 36 29 36 43 36 33 37 41 36 36 29 38 31 37 30 31 22 38 32 31 26 33 23 32 30 39 41 45 26 25 43 32 30 29 30 36 36 32 32 31 38 31 38 32 41 38 28 32 31 39 29 21 27 38 26 33 23 23 36 32 33 26 46 34 31 31 37 49 42 31 30 35 34 43 36 47 25 42 29 30 36 49 35 27 28 22 39 28 33 40 29 28 41 38 37 45 41 33 42 37 29 34 42 32 40 31 27 35 36 29 40 42 39 30 32 37 34 37 48 38 35 28 26 34 38 33 29 34 34 40 36 42 30 30 27 38 39 38 40 37 25 41 36 36 38 35 31 19 41 41 28 31 35 37 37 31 37 34 32 33 33 32 37 32 31 32 33 32 30 37 42 41 29 30 28 36 45 26 29 33 32 31 28 35 30 41 32 37 35 33 30 35 29 43 29 37 37 34 39 45 28 41 49 39 42 40 50 35 39 36 31 40 37 34 44 42 33 29 30 34 33 34 34 31 41 37 36 33 39 36 31 35 38 43 30 33 30 21 41 36 30 37 28 37 32 35 47 43 35 47 31 34 37 33 26 37 27 29 35 43 44 22 32 43 37 36 33 23 33 43 40 35 29 31 30 39 30 19 28 35 40 39 36 31 23 43 24 33 38 32 35 41 40 40 32 39 39 42 35 41 36 46 39 29 29 30 31 35 22 35 36 40 44 33 27 39 31 51 32 31 34 36 48 25 32 52 38 33 28 35 34 37 48 28 44 29 42 23 24 23 30 30 28 28 28 41 45 33 44 33 26 28 31 36 33 37 44 29 43 33 42 39 21 37 31 30 39 36 27 38 34 42 35 45 27 29 32 35 38 41 30 42 44 34 39 33 35 23 35 31 32 49 40 34 31 38 31 34 31 34 33 24 32 45 38 34 36 26 33 33 26 49 37 46 35 43 41 34 34 33 30 35 31 34 27 40 32 32 36 45 34 38 50 34 36 37 37 36 30 39 38 36 31 34 39 31 37 47 32 29 40 34 31 31 32 44 36 36 30 34 29 48 33 33 41 36 34 39 27 39 34 44 27 44 32 40 41 32 27 27 28 33 35 34 39 36 34 44 37 37 30 35 41 30 36 38 35 39 39 36 33 39 30 33 44 33 34 32 25 33 42 27 35 30 36 35 28 37 38 35 40 34 32 36 38 41 34 37 31 47 40 31 45 42 27 35 39 28 36 34 31 40 33 43 36 23 36 37 50 37 41 38 46 34 36 40 27 33 27 30 38 27 30 32 28 37 34 38 33 42 31 46 27 34 35 29 36 35 37 32 27 28 34 35 37 36 21 37 33 33 28 33 38 37 36 43 53 44 39 39 42 41 30 34 34 36 31 30 37 39 33 42 37 44 35 29 36 32 31 39 34 37 22 33 35 33 32 31 36 38 33 33 37 42 29 31 29 18 41 36 41 27 34 31 28 40 27 35 29 30 36 32 28 38 30 35 35 27 37 34 38 30 40 37 40 43 34 26 33 27 40 34 29 31 39 42 39 37 32 44 33 33 42 32 33 32 36 35 39 32 43 33 37 33 30 36 36 36 35 31 36 37 33 39 41 28 34 33 33 32 27 40 39 42 41 37 34 36 38 49 27 36 28 40 36 41 30 48 34 32 33 42 41 32 41 28 25 37 38 36 31 39 32 34 37 29 31 33 37 35 38 35 28 31 36 30 43 36 44 31 28 33 39 38 39 35 33 39 26 34 32 36 40 36 51 29 28 47 30 37 36 39 32 33 42 30 29 40 32 34 32 32 30 40 36 29 41 31 40 37 32 37 27 41 39 32 36 25 40 34 24 26 44 37 46 29 29 37 39 37 32 36 27 35 31 34 37 31 23 45 27 39 30 38 34 34 34 39 33 39 43 37 34 42 36 32 31 43 31 36 31 43 32 40 26 48 30 27 32 29 42 42 32 27 32 27 36 32 32 33 33 30 22 30 33 43 40 40 29 37 32 29 35 35 39 29 27 51 26 40 34 30 43 31 35 36 31 45 37 39 41 34 39 35 35 34 38 32 36 37 29 31 40 40 31 32 42 29 29 29 42 40 33 37 34 26 38 27 35 29 33 25 31 34 33 43 34 32 43 39 32 33 28 34 22 33 34 33 44 40 32 36 29 42 31 35 26 35 41 38 31 40 40 31 31 31 36 31 35 32 28 35 33 31 28 29 38 26 27 45 32 38 42 33 33 33 35 29 36 33 48 35 39 29 24 32 26 33 28 40 43 33 32 36 35 35 41 34 32 22 39 34 33 36 48 38 28 33 41 35 30 32 31 33 24 33 38 39 27 32 38 30 37 33 36 42 33 33 39 25 34 31 39 27 27 29 30 36 25 39 30 49 34 25 47 36 37 33 36 40 33 35 40 36 34 34 30 38 32 32 32 38 36 43 36 33 30 43 36 50 46 36 31 39 42 38 44 36 40 43 39 43 33 31 27 34 38 33 33 35 43 29 33 40 45 36 25 32 32 41 36 38 30 26 46 41 23 20 42 37 45 24 25 33 34 37 37 33 34 31 29 34 35 42 39 40 28 30 36 41 31 35 37 27 34 46 34 45 33 31 37 31 46 34 43 35 32 33 38 41 29 39 20 30 38 33 31 43 40 21 39 43 31 39 30 35 33 36 42 32 33 33 29 40 40 29 36 30 35 38 36 30 24 50 41 33 42 33 21 50 48 29 25 41 28 34 38 32 39 41 36 25 37 38 29 47 38 35 25 41 26 37 39 34 40 37 26 41 35 31 34 21 28 36 34 37 26 23 28 31 27 36 33 40 33 39 37 38 40 31 31 37 36 29 35 37 27 35 33 34 42 28 31 37 35 41 29 41 39 33 35 29 43 38 31 35 53 30 39 38 34 33 27 30 40 25 37 37 25 33 42 36 32 27 35 26 35 40 37 42 40 38 41 30 31 27 29 35 46 30 30 34 31 33 32 26 46 37 35 30 39 42 41 39 22 25 38 37 37 32 30 38 41 38 41 42 37 25 26 36 32 32 37 35 34 26 36 36 32 37 26 44 44 35 36 31 42 31 35 30 42 26 30 47 36 36 40 43 36 32 43 35 38 38 36 40 41 44 48 44 32 27 40 35 27 51 36 36 32 36 43 31 25 35 26 27 33 28 35 29 33 37 25 45 40 37 35 31 34 38 30 35 28 37 31 25 22 38 33 32 32 42 29 34 30 34 32 43 44 26 31 38 38 27 48 43 36 31 37 29 46 40 30 30 34 31 37 25 40 36 27 38 35 29 32 34 43 36 32 43 38 34 44 35 26 34 34 24 44 38 41 46 37 28 34 38 35 30 30 22 34 43 33 37 36 32 27 41 34 37 37 25 29 34 40 43 32 35 39 38 35 35 47 41 29 37 33 33 40 40 38 39 21 35 45 32 26 34 38 42 31 36 30 35 32 32 19 38 41 33 41 32 37 31 42 37 28 34 44 31 35 39 34 40 34 37 26 36 32 26 30 45 32 30 36 38 41 44 32 38 32 41 44 34 32 34 33 33 31 28 25 46 29 41 35 35 29 35 41 30 33 34 35 41 34 29 35 38 21 36 34 37 42 28 35 41 31 37 32 38 39 31 36 26 37 36 41 40 34 32 37 36 36 36 47 30 35 33 32 42 32 25 31 36 29 39 31 35 29 40 33 32 33 36 32 37 32 37 33 30 44 35 34 28 37 33 37 36 30 26 40 31 32 42 38 46 38 42 31 23 35 38 36 30 33 35 32 40 39 33 37 36 37 31 35 46 40 40 47 29 37 31 32 34 32 30 28 34 21 32 53 50 47 32 42 44 43 26 36 32 29 32 35 31 43 29 39 41 32 30 40 28 43 36 32 41 39 31 32 27 37 43 35 35 31 36 33 30 35 25 36 26 40 28 32 27 34 38 25 27 34 37 33 39 34 42 36 35 37 32 34 40 31 32 21 43 37 42 31 41 48 39 32 27 39 28 36 38 42 31 35 27 45 38 32 45 31 31 40 42 35 40 37 26 29 47 38 36 26 39 39 32 41 44 29 31 41 32 34 37 30 21 35 32 23 31 37 43 37 34 38 45 40 42 43 34 45 39 36 36 30 32 29 35 33 41 27 29 47 33 30 33 44 33 32 34 38 24 44 37 31 35 37 29 28 32 36 38 38 37 30 42 32 28 37 45 33 39 25 33 35 33 30 30 35 34 30 34 33 32 25 34 41 29 28 25 33 28 29 30 43 35 36 24 35 30 38 26 34 27 38 42 28 36 45 33 34 25 37 40 43 28 41 30 30 35 35 39 29 44 33 36 39 46 25 35 39 32 28 37 45 37 36 33 37 26 39 20 27 29 32 36 34 35 29 33 29 41 40 38 37 42 35 41 42 33 45 36 40 38 39 44 46 31 34 29 25 40 25 41 36 33 35 43 50 38 47 32 30 27 37 30 42 33 35 38 33 27 32 30 41 34 30 33 34 47 33 23 37 29 31 39 45 29 41 42 36 27 41 37 29 39 36 43 36 34 38 21 22 31 35 26 41 37 31 23 41 28 44 37 38 40 30 32 34 35 35 36 27 36 40 37 36 30 41 32 32 36 38 24 32 43 27 32 37 42 26 35 32 35 29 47 40 35 32 40 34 32 31 34 42 36 25 31 32 39 43 39 35 40 30 32 49 31 41 32 36 44 26 40 35 34 33 38 29 32 38 29 34 30 32 31 40 32 35 42 35 31 39 37 28 39 36 51 34 37 32 30 28 34 39 30 30 28 37 36 27 26 30 42 32 40 33 26 32 34 36 38 43 46 36 35 33 32 33 33 27 40 39 26 33 30 32 34 32 37 22 27 33 40 37 37 30 42 41 42 39 29 41 33 33 28 32 28 25 42 35 35 30 35 34 28 30 30 36 37 37 34 26 40 32 37 33 32 37 38 32 41 22 27 28 35 40 28 38 42 38 29 25 33 34 33 40 28 28 43 34 39 34 32 28 38 28 34 30 49 39 34 37 36 36 37 35 26 37 35 41 31 32 37 39 44 31 35 30 39 23 37 37 31 31 28 35 39 38 23 33 33 39 44 31 30 33 41 28 44 35 40 39 35 32 33 41 31 23 45 27 34 32 34 28 36 34 36 37 29 35 36 40 37 33 31 34 34 37 34 37 31 27 35 34 30 33 37 37 45 23 34 31 36 33 39 50 36 37 30 30 38 30 32 51 40 41 37 31 36 54 24 30 38 34 31 37 35 33 41 39 41 29 33 32 39 37 36 29 35 32 42 30 47 31 35 32 37 42 36 33 28 34 31 33 35 43 40 25 30 32 42 49 30 33 35 37 35 28 25 29 33 32 38 19 22 41 40 28 36 34 36 33 31 29 27 38 31 41 36 34 41 37 47 41 37 34 39 32 30 42 27 42 36 39 31 37 29 30 33 36 40 36 50 36 44 27 49 33 30 36 54 33 35 36 32 30 38 26 29 27 36 33 33 37 37 27 35 38 36 31 40 37 32 35 38 28 33 36 40 36 38 30 38 39 29 34 34 40 37 40 31 43 35 31 33 42 29 33 35 35 36 33 42 46 38 40 36 40 46 26 33 46 38 45 33 50 30 36 35 33 30 28 28 51 29 33 36 30 32 32 34 30 36 39 33 42 34 38 37 39 35 35 40 39 37 36 39 34 49 33 47 34 30 30 43 34 34 33 42 26 33 36 34 32 46 34 31 28 28 33 27 32 43 41 29 33 32 43 31 30 27 27 39 39 44 32 38 25 44 41 40 36 33 34 35 33 41 28 35 24 45 42 37 35 34 34 30 31 35 32 31 34 44 35 40 37 43 31 29 40 53 44 41 31 30 32 45 33 26 39 35 44 28 35 33 34 41 38 36 26 38 32 28 24 29 35 29 45 35 35 33 40 28 38 28 41 38 37 33 31 38 36 34 48 31 37 35 28 31 38 27 41 41 48 32 25 40 39 44 34 41 35 32 35 34 32 36 37 37 29 37 37 23 45 37 38 25 27 40 37 38 40 26 34 34 29 41 31 28 33 40 35 25 38 50 35 34 45 40 37 35 36 33 37 41 30 29 32 33 34 48 30 35 33 33 31 34 42 36 41 35 40 29 40 39 28 41 35 42 32 21 30 43 31 34 41 32 36 33 20 30 42 32 42 35 30 27 35 43 35 38 44 30 39 30 31 31 23 24 33 32 38 28 35 26 40 32 31 39 38 34 37 34 30 37 31 34 33 21 35 35 29 39 37 38 37 49 37 41 38 33 29 42 30 51 29 37 27 30 36 33 25 39 29 34 40 27 29 37 42 29 38 22 35 44 41 40 36 37 29 39 34 31 41 36 43 40 34 36 36 35 32 41 41 36 37 30 29 37 26 30 27 35 29 25 31 34 33 40 32 30 37 24 37 35 27 27 40 33 50 40 45 34 32 30 42 26 39 27 33 51 30 40 40 35 38 38 33 32 44 42 30 28 34 34 43 30 34 37 41 36 46 36 30 31 32 49 32 39 31 38 38 41 33 30 32 36 38 27 40 36 46 30 30 33 32 34 27 34 26 37 33 36 35 29 37 32 39 25 31 31 44 39 39 43 29 41 32 31 28 29 34 32 37 34 34 38 34 27 34 32 37 36 40 43 27 29 34 31 30 28 32 36 36 30 38 35 34 33 38 30 38 35 36 45 39 53 34 33 41 31 29 23 38 30 30 34 31 35 34 35 29 38 40 33 43 37 36 38 29 31 34 28 24 30 27 31 40 29 25 37 42 34 34 33 30 34 36 45 35 36 36 28 27 29 43 30 34 27 30 37 22 33 40 41 37 30 34 39 32 31 28 27 34 32 33 40 40 30 31 38 26 41 34 31 38 29 32 37 30 38 36 37 42 34 33 30 39 33 30 30 29 34 44 34 27 36 46 40 42 30 35 34 36 29 39 30 38 29 31 38 42 29 33 43 36 31 28 31 32 43 29 49 35 35 39 29 33 40 37 31 43 38 41 39 43 39 25 44 39 30 35 37 27 52 32 24 36 30 31 37 39 36 47 28 26 33 26 26 38 36 29 30 36 34 32 42 37 39 38 38 25 35 31 27 33 39 28 30 22 34 32 36 32 43 45 35 34 27 32 36 42 39 31 43 37 29 43 36 24 26 38 31 36 27 33 18 36 22 38 34 21 39 32 31 37 34 28 40 46 28 36 42 28 36 28 32 31 41 33 31 28 31 33 38 31 30 39 34 39 39 47 38 31 39 32 32 33 41 40 32 32 20 42 39 38 42 27 29 32 44 33 26 35 39 34 33 35 33 32 33 38 28 26 30 34 33 28 31 34 31 41 25 31 38 32 38 36 41 36 31 51 40 41 40 32 34 42 41 26 42 29 34 33 37 45 28 35 37 32 36 35 27 36 41 41 39 25 30 41 35 35 35 31 32 28 37 40 26 26 35 28 36 33 34 33 36 36 40 41 38 40 47 34 30 34 34 30 40 40 20 50 30 40 30 29 30 34 27 36 30 39 35 29 27 47 42 26 31 45 25 38 31 33 35 37 37 42 25 35 27 32 30 37 40 31 35 39 30 35 32 40 37 33 40 31 43 33 41 24 33 37 38 29 34 34 38 33 38 43 32 33 33 41 41 34 39 36 26 31 34 39 44 44 30 25 27 35 30 34 28 30 27 43 38 26 40 45 38 34 31 37 40 29 41 28 41 39 32 34 41 34 36 34 28 31 48 33 24 35 38 24 35 32 35 41 35 35 48 31 33 39 39 30 49 40 37 43 30 31 33 30 36 26 31 30 38 46 25 28 34 34 34 36 26 24 36 41 30 32 36 35 34 40 31 36 32 32 42 36 41 32 31 32 47 50 37 33 31 32 38 37 33 36 29 41 28 32 37 36 38 36 29 30 41 32 38 37 33 39 36 32 32 34 35 38 31 27 27 36 40 36 32 26 41 40 40 43 35 36 35 45 28 27 43 28 42 39 44 29 43 41 33 36 33 34 38 31 34 37 24 23 32 27 34 33 40 35 38 30 36 30 31 38 39 37 37 30 37 36 30 36 41 30 33 34 31 39 37 40 28 34 28 37 26 48 26 32 32 42 32 39 39 28 34 39 36 33 35 23 39 29 38 39 34 30 36 24 23 28 30 36 26 34 37 31 34 37 33 27 23 30 33 33 42 35 27 31 38 32 36 41 32 28 33 43 35 28 44 36 33 38 36 36 31 40 41 34 32 47 45 37 35 33 38 36 39 32 33 30 32 38 34 26 41 40 33 34 37 38 37 36 33 37 28 37 30 38 31 33 37 25 39 28 36 32 34 23 40 27 40 37 31 35 35 42 33 41 31 31 44 30 29 32 26 24 35 41 45 37 27 23 39 31 29 47 43 38 23 32 31 36 35 34 33 45 44 38 27 32 46 27 38 38 30 40 24 39 37 31 33 37 34 27 31 43 39 32 40 37 35 24 36 37 44 38 43 35 26 31 35 33 40 35 36 39 29 38 35 38 32 27 36 34 44 39 31 28 41 33 39 32 33 29 29 29 43 29 28 39 37 29 36 27 26 39 37 37 29 37 35 35 42 35 38 37 49 39 39 48 38 24 41 40 33 34 39 36 33 39 42 38 29 44 37 52 37 27 38 41 32 27 38 33 31 40 46 32 28 32 39 30 41 32 31 25 37 31 42 38 33 28 36 30 44 28 36 36 45 38 33 32 40 32 40 36 49 29 41 37 34 42 38 34 41 28 37 26 36 38 46 38 31 29 29 42 34 47 26 44 35 32 40 25 30 37 32 38 41 37 38 31 39 31 33 28 30 35 22 40 37 33 39 36 38 39 41 30 28 31 28 37 33 52 30 29 34 29 37 32 41 36 37 38 25 33 43 42 43 45 24 39 26 43 32 19 35 35 33 36 44 36 28 43 27 27 30 28 36 43 28 38 25 34 32 40 28 42 36 45 45 30 41 42 26 36 42 38 33 34 27 36 34 32 33 36 36 37 26 33 33 28 30 30 29 32 31 24 31 34 33 37 42 38 31 44 38 41 41 31 31 33 30 28 33 32 39 31 42 34 35 40 31 30 35 38 46 38 34 30 30 36 33 31 30 28 37 42 33 53 37 35 30 37 32 45 29 39 43 32 43 36 41 39 37 38 30 38 35 30 36 33 42 26 36 35 40 39 39 51 37 36 30 37 30 42 30 37 28 32 30 31 36 30 37 34 40 36 36 39 36 34 39 37 38 33 29 32 31 37 32 39 38 29 28 43 32 40 37 36 33 24 40 41 29 41 36 24 28 35 42 32 29 30 42 37 34 28 36 35 36 42 31 29 33 34 34 33 35 27 35 42 36 36 24 36 37 32 36 36 33 35 42 28 35 27 39 42 31 29 26 31 32 42 37 25 35 32 33 31 32 36 31 29 29 31 32 40 34 23 25 37 30 32 23 25 46 29 34 30 27 39 32 42 44 39 33 24 34 36 31 38 31 29 36 30 37 34 31 33 37 35 28 44 28 38 40 30 42 35 42 34 34 30 32 42 43 29 38 41 40 29 28 34 30 27 32 35 39 27 32 34 36 32 34 42 28 37 37 38 28 30 31 39 41 34 30 24 42 37 44 27 31 32 38 32 41 27 37 35 37 40 42 37 37 36 46 31 29 47 28 34 41 29 32 35 40 41 41 35 30 31 30 37 40 29 22 37 27 37 29 40 34 37 26 37 37 37 34 39 42 33 34 37 39 42 27 41 35 43 40 29 43 31 42 40 35 41 28 31 35 27 31 30 44 34 43 42 33 25 33 26 42 35 35 51 29 33 39 33 38 35 49 33 31 34 33 28 30 35 38 38 28 38 38 32 31 40 37 28 36 40 37 37 38 34 33 32 42 41 41 38 28 32 39 40 29 43 35 43 38 29 38 40 31 39 30 32 38 21 38 44 36 32 33 38 33 37 40 35 43 34 31 28 42 37 33 38 32 38 29 38 28 32 43 37 37 39 35 36 30 41 33 41 30 33 35 44 29 29 23 33 27 35 37 30 37 40 47 28 36 34 35 27 33 36 34 38 35 38 32 41 33 42 36 39 34 33 45 21 40 37 44 40 32 31 29 38 32 36 35 25 38 29 43 34 30 45 40 45 49 37 36 27 30 32 35 42 41 30 47 35 38 38 44 40 40 30 46 37 28 45 35 37 38 35 46 28 38 28 43 42 37 26 38 35 39 26 38 34 30 32 37 48 45 37 38 36 29 43 24 30 29 34 37 37 47 33 37 42 37 33 33 30 43 41 35 38 34 32 33 28 30 28 32 31 24 33 34 39 31 27 38 33 35 42 28 50 29 36 41 43 25 47 33 34 39 25 29 36 28 28 43 29 29 29 37 45 37 31 42 28 41 34 26 34 40 27 35 46 40 38 46 37 31 38 34 37 39 45 28 23 35 38 34 29 37 47 38 34 35 33 35 32 33 43 45 26 33 37 40 35 37 32 32 41 31 41 36 33 32 29 27 47 34 39 36 34 43 36 38 42 33 38 34 34 24 31 28 38 39 32 40 35 41 32 39 35 27 31 35 37 29 37 43 32 42 39 37 32 36 38 39 36 39 34 33 39 26 29 36 39 37 33 31 35 49 30 34 24 37 33 30 41 41 25 26 39 42 34 31 35 31 38 38 31 37 40 38 41 30 34 37 43 37 21 28 40 26 33 27 40 32 29 32 32 30 37 41 34 32 29 29 26 33 30 39 44 34 21 40 32 30 39 43 39 35 36 33 29 45 39 32 42 37 31 37 33 36 31 38 42 48 30 34 29 35 31 34 30 24 30 32 36 36 26 25 37 38 37 32 35 39 39 34 51 30 42 33 37 23 23 39 35 39 34 29 34 38 37 34 25 39 42 41 34 24 35 34 42 34 32 34 32 28 36 34 42 37 36 32 32 36 35 34 31 36 26 45 29 32 35 36 30 41 28 40 34 32 36 44 45 32 29 24 31 35 42 34 27 21 30 30 39 26 34 26 39 36 40 33 28 39 27 34 32 35 32 35 31 35 42 26 35 33 39 45 37 30 32 23 31 38 28 28 32 42 44 36 33 36 32 28 38 40 41 30 37 29 37 35 32 25 33 25 25 39 33 37 31 45 40 41 30 28 49 43 26 36 34 40 32 33 31 28 37 27 35 26 43 25 34 36 39 29 33 37 36 25 31 36 25 38 36 32 35 24 32 41 39 36 33 43 22 40 40 32 40 31 41 39 31 40 39 26 35 26 34 28 32 38 40 39 40 34 39 41 39 37 31 32 40 29 36 32 31 28 46 28 39 32 43 34 33 33 20 40 26 34 32 37 38 37 40 35 37 36 36 33 31 38 33 37 36 39 31 29 48 32 34 29 36 33 42 37 36 36 50 39 27 31 33 48 38 27 41 33 33 39 40 39 35 37 30 37 38 43 50 30 37 30 34 44 33 32 39 36 30 35 44 35 34 35 31 34 39 38 38 42 39 36 31 37 26 42 41 33 34 32 47 39 25 31 36 46 33 29 28 39 32 30 42 36 35 34 34 31 41 41 36 37 48 40 28 30 24 30 37 37 31 26 37 37 40 37 41 36 38 35 33 27 35 30 35 26 30 34 40 32 35 47 41 34 37 33 26 37 32 38 28 28 25 36 47 35 28 31 25 33 38 34 33 39 21 27 36 39 35 27 37 36 36 34 35 42 39 37 33 34 26 36 39 40 46 34 37 22 37 32 29 36 39 30 39 31 35 42 37 35 40 35 32 33 37 36 47 31 31 31 31 40 42 26 40 33 31 35 34 38 24 35 25 20 25 47 28 30 32 44 28 39 42 35 43 30 42 44 39 39 29 36 21 29 39 27 30 32 32 33 33 35 25 33 27 38 30 33 34 26 33 40 36 44 31 56 33 24 28 31 33 36 29 39 28 33 31 36 31 40 37 43 29 33 31 37 41 24 29 36 39 27 51 38 32 33 26 31 32 37 38 39 44 30 40 44 36 41 36 37 36 36 40 33 40 23 34 34 35 39 31 34 43 27 32 38 32 30 34 36 28 48 28 37 34 38 35 54 30 32 35 33 28 28 43 37 36 42 42 33 37 40 40 30 24 35 31 23 34 27 34 40 28 38 35 34 24 29 34 33 33 36 30 31 33 34 30 37 40 28 46 36 35 29 32 37 29 37 23 41 36 44 22 41 49 32 47 35 34 41 29 34 37 34 25 27 28 42 37 29 36 29 36 30 31 25 36 32 27 27 37 27 37 26 32 30 33 45 39 37 33 40 31 36 23 39 34 27 43 39 43 34 45 28 39 30 36 26 36 32 36 37 30 31 28 32 35 38 38 30 33 30 47 47 37 30 35 31 34 26 37 30 31 31 34 37 30 44 33 32 37 29 29 36 41 39 34 40 45 33 39 44 38 34 44 31 27 32 32 32 32 22 35 24 32 32 22 36 28 38 47 40 42 40 36 35 40 36 36 34 40 37 30 32 45 30 29 31 35 30 38 37 48 33 47 39 37 25 40 39 43 33 41 33 36 30 26 33 29 47 26 40 41 35 33 24 32 27 41 41 35 30 46 30 39 27 38 30 38 35 40 34 27 27 32 35 28 30 31 31 23 33 38 28 32 32 33 31 31 41 30 33 30 32 30 33 38 34 34 35 37 36 41 32 37 26 45 39 30 38 31 27 34 36 31 38 38 37 36 27 37 31 39 38 30 30 50 36 39 32 36 31 42 25 41 47 43 38 33 41 33 34 33 42 37 34 41 29 35 41 35 30 41 30 36 45 36 33 29 29 30 35 37 38 23 34 40 40 34 29 38 31 36 35 31 39 34 40 43 21 34 28 38 36 43 32 39 41 36 36 35 37 40 48 35 31 36 44 32 34 38 25 31 30 39 35 28 31 39 31 34 31 29 48 40 31 37 35 32 35 41 37 44 33 34 34 34 38 37 24 38 25 36 42 27 33 26 28 37 23 31 33 37 40 40 30 44 32 35 28 38 47 37 44 48 33 26 37 38 31 39 39 38 35 39 26 33 28 32 29 30 36 33 29 25 40 31 39 28 33 44 35 42 28 27 40 36 30 43 30 36 25 43 28 36 34 31 33 37 39 34 34 24 37 30 26 35 27 42 24 35 36 43 29 35 35 39 28 34 22 31 32 40 42 35 30 34 25 28 24 38 33 45 38 29 36 27 36 30 39 38 38 25 27 34 35 39 39 35 40 36 38 40 35 38 46 46 35 39 31 36 37 42 37 24 26 39 33 29 35 36 38 30 30 39 31 39 31 51 37 35 28 42 41 27 40 50 24 32 33 40 37 36 35 35 34 43 36 31 38 33 30 31 43 27 31 30 36 22 36 33 31 39 39 33 36 39 34 28 32 38 31 28 26 40 34 29 34 28 36 25 33 34 29 32 37 46 35 30 40 43 36 30 30 36 25 28 29 33 31 34 31 30 32 47 31 45 46 25 30 38 38 36 43 32 28 32 30 29 39 33 32 25 30 43 39 31 37 39 39 33 25 33 27 37 34 50 31 38 33 40 36 38 46 28 40 45 35 34 32 34 32 34 32 40 34 31 28 27 32 34 43 37 39 26 35 26 35 32 42 33 35 39 41 42 39 33 31 25 36 35 29 29 41 33 36 52 38 39 39 36 26 38 47 40 35 36 46 31 28 28 36 32 33 35 30 34 29 48 39 23 32 41 40 37 39 36 35 29 32 19 35 49 40 33 35 36 37 43 38 28 36 29 34 35 31 31 29 39 29 33 29 32 28 40 37 28 27 30 30 35 42 37 35 36 39 36 35 35 41 35 35 38 31 33 37 37 32 26 33 32 30 34 52 28 39 35 36 31 34 36 33 34 35 24 41 28 37 28 37 32 33 29 28 38 29 25 34 39 42 28 36 35 20 42 33 44 29 34 34 36 32 31 40 34 40 35 42 28 33 30 32 32 36 24 43 29 35 30 41 39 37 34 29 47 36 37 43 43 25 32 29 37 37 26 36 36 38 38 29 42 34 32 41 30 51 33 33 33 41 31 45 40 38 29 22 31 33 36 34 39 32 40 41 35 29 37 36 30 29 32 34 48 22 43 27 37 29 33 27 36 27 29 27 39 44 37 27 35 34 39 43 33 37 35 35 28 24 31 25 36 32 34 35 30 34 36 30 23 36 34 31 42 33 33 45 36 36 33 43 34 26 40 37 36 34 31 37 43 41 29 39 37 27 35 33 34 29 39 52 32 33 31 44 28 30 34 35 42 35 32 42 30 26 28 40 30 34 40 47 36 29 35 30 32 43 40 46 44 36 33 37 34 33 34 33 32 36 37 31 41 28 35 35 38 33 29 36 28 34 43 40 38 37 34 40 31 32 34 53 43 43 34 31 39 25 43 36 40 40 46 35 30 32 41 32 34 30 35 40 27 32 31 27 25 32 47 39 42 31 40 41 35 33 30 23 39 36 40 38 25 22 46 31 48 33 35 35 29 35 29 34 28 36 30 39 39 33 30 32 40 35 31 25 44 32 41 31 34 35 24 38 40 34 30 45 29 31 43 45 36 35 47 44 34 33 32 29 38 32 31 24 39 31 39 42 36 34 34 40 35 30 38 26 37 37 42 24 32 29 35 40 30 28 42 45 31 30 32 37 33 31 33 30 34 39 39 31 29 35 41 33 38 29 38 34 28 31 37 40 25 31 35 38 42 28 28 31 44 36 35 35 24 34 30 47 32 28 44 44 28 34 43 33 33 36 34 30 42 37 37 33 35 28 30 33 36 36 47 23 40 34 44 37 34 30 19 41 30 32 27 32 45 31 34 40 35 36 41 42 42 37 45 30 40 36 31 33 44 29 39 40 30 35 30 36 28 38 23 34 37 36 39 29 40 31 43 37 25 36 29 34 31 26 38 43 36 34 37 35 34 32 36 47 33 43 45 41 41 45 34 39 29 29 37 41 36 38 38 32 36 37 28 33 24 37 32 40 27 29 24 31 42 38 28 32 41 32 31 35 33 20 37 36 49 27 48 45 32 32 39 32 30 33 45 39 28 38 45 42 47 39 34 50 41 37 31 25 28 49 28 32 30 42 31 33 34 34 32 37 29 32 32 30 35 33 31 32 28 40 43 35 33 34 30 28 25 37 37 26 41 37 24 35 29 29 30 37 38 37 27 35 38 27 32 31 43 34 27 31 44 30 40 36 36 30 34 30 37 30 32 37 43 27 31 28 30 26 44 38 37 40 36 32 40 34 30 31 36 36 29 30 33 32 34 38 37 38 39 34 21 28 35 32 24 33 36 41 44 39 35 37 37 32 48 31 32 30 30 33 31 40 28 28 34 38 36 28 21 31 32 32 42 35 37 33 28 38 31 39 33 33 37 37 40 35 42 43 34 42 36 33 33 46 33 35 34 28 41 34 34 40 33 35 37 40 37 36 37 27 38 45 36 31 32 35 43 37 42 41 38 37 34 29 32 36 27 37 30 28 35 38 41 27 29 29 35 36 33 30 27 25 53 29 37 29 44 43 33 39 22 41 32 29 38 33 35 35 33 36 33 32 36 40 32 34 32 27 34 28 53 45 41 31 38 30 29 33 33 30 30 22 41 50 33 38 32 29 32 40 36 25 44 31 28 26 37 34 35 40 36 36 28 33 35 38 26 43 23 45 31 32 34 28 32 36 47 29 45 37 40 39 29 30 31 30 35 25 33 48 22 38 25 34 39 31 34 39 26 32 43 42 35 33 34 37 21 29 28 41 34 39 34 31 33 31 33 36 24 24 37 32 35 41 31 27 37 34 32 35 45 36 31 45 18 33 26 40 35 26 30 39 36 32 31 29 28 47 33 30 42 31 43 31 28 37 35 49 38 38 46 33 46 31 46 44 39 32 32 34 28 38 28 27 36 49 34 36 31 33 39 38 25 44 23 33 29 33 31 31 38 37 28 26 28 36 52 38 28 33 37 36 29 36 40 32 36 34 46 37 33 24 28 40 36 48 29 32 36 37 38 38 40 33 40 26 44 42 31 37 37 34 29 31 44 38 43 37 34 33 30 26 40 35 37 44 31 40 28 42 33 33 36 43 37 39 35 35 23 40 42 35 28 36 41 35 46 35 34 37 32 38 37 43 31 29 33 44 36 38 32 35 46 35 33 35 33 28 31 36 41 34 42 40 40 38 32 33 34 42 35 34 45 39 29 38 38 44 34 43 42 33 32 36 33 31 32 27 32 47 38 29 24 29 45 36 30 32 46 41 26 39 34 34 27 34 41 38 38 40 38 35 38 25 39 33 30 46 40 37 32 29 29 30 43 35 36 32 36 31 42 29 36 31 33 27 35 26 34 36 35 44 32 30 42 53 31 31 37 31 33 31 43 33 34 30 31 37 34 31 35 40 37 35 27 43 36 33 32 33 41 42 28 34 27 26 35 28 30 30 29 46 33 22 22 34 41 33 34 32 27 34 31 31 21 34 41 32 34 37 29 32 45 31 40 38 40 37 28 34 44 39 33 39 31 46 40 36 32 28 24 32 30 28 33 40 34 43 42 42 29 26 40 33 35 40 42 41 34 24 37 38 44 38 42 44 34 25 34 38 32 46 35 42 36 38 41 32 31 41 37 40 34 32 35 28 29 35 33 26 29 37 41 35 41 29 39 34 34 45 28 48 34 28 29 34 37 22 28 43 39 41 39 27 35 45 40 35 37 34 36 38 32 32 25 37 27 37 29 43 34 38 28 30 38 25 35 38 37 35 34 42 35 32 45 47 30 36 34 26 30 31 35 34 32 29 29 31 23 36 38 29 31 35 39 34 36 30 35 29 25 32 39 27 48 35 38 38 33 39 37 38 27 31 30 30 44 32 33 29 29 34 33 31 38 30 32 31 39 37 37 30 29 32 31 37 25 35 42 33 48 33 40 43 43 32 38 43 27 41 42 43 43 32 29 33 33 41 36 33 32 28 41 25 36 37 34 35 37 29 33 30 31 27 30 31 33 25 31 38 33 27 34 30 30 31 27 38 38 31 32 35 29 40 46 24 36 46 35 41 31 25 50 31 47 39 32 22 32 33 44 30 26 38 40 39 38 32 35 34 37 39 34 42 19 34 34 40 35 34 37 38 38 32 32 27 37 30 43 34 36 37 45 32 31 33 32 28 39 33 33 35 38 41 26 24 36 42 30 47 45 33 34 29 45 40 38 34 31 28 31 33 36 26 29 35 35 32 36 43 30 37 37 35 30 30 32 31 29 28 28 32 39 47 28 32 33 45 44 35 32 42 32 26 27 33 29 36 34 25 29 31 38 36 41 40 41 28 39 25 39 37 38 34 33 41 37 28 31 33 36 43 34 38 23 32 45 37 38 33 34 27 37 27 31 35 34 35 42 35 30 40 29 29 42 31 37 31 45 30 33 27 32 41 32 29 37 24 36 28 28 37 35 24 37 32 36 34 31 35 25 53 35 28 35 32 47 26 31 38 38 33 27 35 46 39 33 34 38 30 24 44 36 33 37 37 39 37 47 34 29 37 36 51 40 33 33 39 29 40 28 37 29 37 32 41 30 33 43 24 30 34 29 42 36 32 46 30 49 32 31 31 31 28 38 24 29 32 32 42 30 37 42 39 46 26 37 41 34 50 31 33 36 27 32 31 38 33 38 29 47 30 36 37 46 37 31 37 34 34 37 45 43 32 45 37 38 41 33 35 36 38 46 39 33 37 31 34 30 29 35 25 28 35 32 42 41 28 27 25 30 41 34 29 24 35 25 40 34 31 37 25 29 34 39 39 33 34 32 31 38 29 26 38 46 39 36 45 28 38 28 29 36 36 30 31 35 31 38 46 28 22 37 29 40 38 35 29 33 36 47 36 34 37 42 38 37 31 26 33 36 30 39 36 37 45 36 30 39 37 35 42 45 37 31 29 40 45 42 31 32 36 28 36 40 32 33 33 35 36 33 29 45 34 33 31 32 35 45 35 26 32 38 27 28 32 35 30 36 32 35 33 39 35 30 31 43 34 38 28 27 35 32 26 32 38 39 40 30 30 37 40 30 39 37 32 39 32 33 50 33 41 50 33 37 37 34 41 28 34 37 36 31 36 31 34 36 40 32 44 51 30 39 45 38 41 33 35 41 32 32 49 38 27 34 37 46 34 34 34 30 39 34 35 28 39 35 30 27 32 27 42 38 26 38 33 38 41 35 40 37 38 36 38 32 28 41 37 39 26 33 31 37 36 43 40 40 26 41 24 50 33 20 40 29 33 31 32 34 36 39 29 40 41 30 32 31 32 39 34 34 36 30 30 53 35 36 38 36 21 34 30 38 36 39 33 39 31 30 32 29 43 31 27 39 27 29 30 41 38 33 32 33 26 33 31 35 38 33 28 44 36 31 41 33 34 26 28 34 34 29 29 39 29 31 31 38 45 33 37 37 37 32 38 34 40 30 39 36 40 26 34 45 37 32 32 33 24 40 36 44 47 30 31 39 43 31 25 40 38 36 33 32 26 35 33 40 42 35 25 38 37 34 39 33 37 36 49 37 40 36 36 36 30 30 35 29 32 38 37 35 39 25 41 32 27 38 26 23 33 27 40 41 32 40 38 36 22 30 43 38 41 40 37 32 33 31 31 32 39 30 36 36 39 43 26 32 42 31 35 31 45 31 33 37 20 33 33 42 46 34 39 30 40 33 43 29 32 35 35 32 38 34 49 42 36 45 33 31 25 35 29 38 36 30 35 36 31 34 34 33 34 29 44 44 35 38 26 37 27 40 33 30 29 40 38 30 31 31 35 30 37 29 35 41 31 34 45 39 35 40 35 37 39 40 32 30 34 41 27 37 42 40 31 38 27 28 40 30 43 35 31 29 34 34 28 40 34 25 33 31 36 36 32 41 37 38 43 42 26 34 32 41 30 38 39 30 33 31 35 41 34 28 28 40 39 25 36 38 36 37 42 31 38 40 34 42 28 30 33 35 44 41 32 31 48 43 35 39 30 34 36 28 38 46 38 44 38 36 38 27 33 46 41 38 42 33 40 33 28 32 30 23 36 37 38 18 25 36 41 34 33 38 36 36 44 26 39 32 39 28 31 21 45 41 47 33 41 31 36 42 25 33 31 28 39 27 35 36 42 38 34 24 31 35 27 28 33 41 42 35 38 36 34 26 46 30 41 35 41 33 32 35 48 29 41 44 35 37 48 24 28 32 36 33 38 34 34 25 31 37 43 30 32 30 41 35 37 36 32 33 34 35 49 37 37 31 28 31 33 34 34 35 41 35 25 31 39 43 31 35 25 36 42 33 33 35 35 39 36 43 39 31 29 33 37 28 38 32 34 43 30 26 29 36 39 30 43 29 37 30 33 28 33 41 34 35 30 26 30 33 38 29 36 32 32 36 34 25 25 36 34 33 32 30 39 33 27 30 35 30 38 24 37 40 38 34 46 31 41 38 34 43 26 42 37 34 35 25 39 36 34 34 27 31 33 26 30 23 30 36 31 40 42 32 44 35 35 37 42 30 32 32 27 21 33 26 24 29 34 34 20 40 35 37 39 27 42 29 25 33 48 40 33 37 25 34 31 34 40 26 38 41 47 22 31 42 26 28 33 39 30 42 38 30 28 30 33 33 43 34 37 32 35 30 43 44 33 32 41 41 37 34 35 37 29 36 35 31 38 30 33 38 34 32 31 35 37 29 31 33 26 34</t>
-  </si>
-  <si>
-    <t>EXN(0.4332849532400752, 238.86197952151912, 47.875282163310274)</t>
-  </si>
-  <si>
-    <t>293 273 250 264 191 158 332 270 251 291 278 285 159 281 286 265 283 265 258 271 242 240 219 283 240 164 256 311 351 296 225 243 244 223 361 301 281 212 293 245 332 371 200 236 270 239 214 264 302 247 220 356 258 188 168 291 234 260 266 263 238 278 390 226 225 220 265 360 291 232 297 308 242 181 300 406 322 287 281 254 203 264 206 318 188 312 200 245 251 260 184 252 285 188 251 182 232 278 283 249 255 159 285 280 152 229 246 243 274 308 220 229 359 316 111 145 204 210 246 313 162 165 242 385 257 255 206 326 209 277 259 255 117 285 242 216 240 256 318 259 267 229 278 123 256 174 327 277 192 275 208 137 145 250 302 247 305 265 298 196 198 211 293 286 258 321 232 145 244 273 156 352 410 329 244 326 174 226 235 288 309 199 297 258 359 264 228 298 222 268 317 261 262 382 271 256 251 302 185 327 439 246 340 227 284 236 239 260 222 318 201 204 198 287 216 201 326 149 213 154 232 279 275 320 234 255 232 215 193 234 215 214 190 302 324 161 227 304 291 268 216 296 303 297 294 257 288 253 273 233 210 271 344 272 313 312 230 300 317 240 147 266 317 221 203 142 293 223 297 218 254 329 289 264 211 286 288 235 167 272 256 225 311 191 339 259 267 194 189 180 282 342 369 266 278 255 222 348 223 283 216 239 199 293 290 243 261 315 251 258 119 223 283 282 254 205 241 298 263 222 242 256 290 216 180 241 308 261 267 266 230 257 232 220 254 349 171 380 268 226 181 206 270 304 243 259 250 195 292 275 235 279 285 275 219 254 190 237 342 247 230 332 235 276 264 275 185 231 223 184 165 295 300 279 215 281 245 268 368 266 258 252 225 243 239 206 265 212 240 286 241 305 275 279 122 345 313 239 293 300 223 323 272 247 239 258 284 218 244 195 201 255 115 331 287 282 263 228 242 209 220 205 160 286 220 247 215 209 397 296 308 290 284 257 251 360 300 262 259 292 218 183 257 200 263 276 260 358 282 291 268 232 283 399 244 187 124 274 256 237 284 249 209 190 252 255 257 418 333 310 312 282 196 334 271 268 253 261 273 220 212 193 311 330 186 234 266 201 277 302 200 306 182 304 270 357 265 152 232 215 164 255 195 189 298 173 255 243 268 262 227 360 213 283 179 245 258 243 239 279 230 256 311 346 317 255 316 240 209 237 286 224 206 220 329 240 166 355 279 272 224 163 134 181 335 173 195 156 240 189 199 346 290 230 282 343 272 192 310 299 377 277 237 357 307 300 170 339 310 238 273 237 306 211 222 257 253 328 229 254 246 309 246 241 301 228 262 251 193 259 330 287 243 246 243 223 185 197 400 209 244 233 183 311 160 200 223 208 280 249 377 295 270 214 228 237 264 228 175 189 281 275 268 280 323 257 326 342 229 280 215 188 387 323 250 305 245 272 332 143 265 248 265 188 212 346 271 249 209 233 238 278 298 196 320 220 246 328 267 274 234 286 229 180 292 283 317 339 192 253 348 250 208 240 303 213 192 191 210 189 266 219 309 222 186 402 219 253 213 227 257 275 169 240 195 170 325 194 329 404 160 261 322 328 322 219 211 233 160 186 290 238 248 195 252 257 208 264 236 220 217 302 261 282 277 250 315 287 226 269 278 327 214 268 235 246 292 213 323 254 274 209 231 220 297 106 245 203 362 338 277 279 347 279 217 202 359 353 301 329 299 270 175 279 209 320 271 187 256 234 335 262 264 242 285 271 308 159 368 266 262 232 141 265 268 239 288 222 210 209 249 336 290 161 368 353 230 212 294 231 246 236 319 212 299 232 326 336 255 314 217 202 263 363 272 318 241 312 158 264 292 239 234 371 243 360 273 264 257 238 197 272 348 217 195 373 290 209 293 235 276 306 169 264 270 212 310 285 284 324 323 177 222 287 214 272 211 267 405 271 238 270 282 270 283 361 234 259 178 315 334 376 175 283 295 300 275 198 236 302 309 309 244 303 292 324 190 208 239 260 304 260 213 278 222 163 197 222 260 377 145 322 218 241 305 166 196 277 279 223 296 223 218 287 286 196 226 310 354 284 274 219 286 242 329 330 244 275 210 310 471 214 334 225 321 175 244 343 228 200 242 315 285 258 214 273 302 314 243 193 282 244 277 243 302 247 332 353 183 221 249 310 149 265 226 185 262 255 196 282 274 286 408 162 243 223 290 343 257 224 185 267 239 163 255 252 156 276 279 167 284 228 274 154 252 190 317 275 204 236 182 382 373 207 300 223 229 198 246 296 349 280 260 221 283 177 317 309 244 211 238 285 216 336 261 205 199 207 231 277 276 303 330 268 311 248 198 299 193 269 273 325 251 301 265 243 256 237 245 344 242 271 217 271 233 174 247 328 311 251 196 283 256 297 237 412 191 253 261 267 258 286 272 227 256 254 267 310 247 226 213 284 280 359 193 358 268 244 261 242 207 292 284 196 268 267 214 209 241 227 265 308 296 336 213 255 150 302 268 290 187 225 171 236 258 204 204 155 270 365 293 350 244 323 235 256 397 208 172 308 213 232 237 249 195 234 262 145 280 185 204 343 293 227 218 288 256 369 248 218 189 245 233 192 286 254 195 248 275 272 165 305 258 224 314 245 349 378 188 239 294 202 370 280 219 282 318 180 308 191 272 294 170 218 201 302 228 293 180 174 240 247 239 245 256 224 277 315 196 301 225 334 298 171 259 291 220 154 276 257 335 302 203 224 298 261 302 151 202 230 277 283 289 221 287 266 267 335 236 265 262 280 212 288 380 275 294 245 236 185 310 251 288 236 290 233 239 219 273 136 247 235 247 237 246 236 161 264 212 301 260 272 263 244 207 318 336 287 208 328 304 304 235 267 231 308 197 169 301 170 309 284 183 249 257 276 233 264 267 269 237 205 275 248 262 152 208 143 271 246 190 199 197 196 173 222 289 338 321 216 171 310 219 273 215 249 317 286 306 236 145 274 236 312 266 342 245 160 163 222 295 194 170 177 306 147 306 163 254 214 188 247 267 352 268 281 260 270 341 342 267 241 267 260 414 226 256 166 221 281 264 287 345 284 237 215 194 283 183 215 236 195 291 378 240 222 322 291 249 309 265 258 275 337 278 274 265 215 256 244 216 231 370 273 287 197 333 216 361 412 282 346 228 236 251 248 301 150 296 290 282 300 281 262 231 206 336 298 243 295 304 222 289 214 345 346 257 235 185 296 210 209 266 304 309 321 276 292 327 234 259 181 323 209 207 217 238 147 254 198 326 337 348 217 219 234 275 331 180 239 192 221 267 218 265 218 245 260 256 280 245 223 326 187 309 177 311 289 306 300 342 187 336 315 271 253 306 349 209 313 302 185 275 283 327 299 288 241 198 271 244 235 297 263 256 331 322 273 260 254 251 258 302 302 323 221 244 250 162 301 381 239 258 239 255 226 279 216 276 243 307 188 301 278 250 175 214 210 214 199 293 363 145 287 320 309 232 226 117 256 290 295 263 210 252 209 313 205 197 204 280 278 311 341 228 203 315 219 249 312 282 275 282 301 279 252 294 299 297 310 239 308 272 365 196 203 309 201 278 164 343 236 215 279 284 151 262 191 411 148 222 230 283 307 228 230 397 247 284 235 206 265 250 263 213 297 172 329 231 184 195 221 230 233 181 266 314 244 311 290 191 242 197 277 282 263 308 297 121 364 275 284 233 246 270 250 210 270 270 199 245 307 287 327 310 263 271 234 257 261 386 200 362 318 196 225 323 216 235 220 263 275 322 295 288 234 323 231 277 277 226 305 252 245 274 277 271 219 220 263 246 144 399 262 369 287 300 321 262 282 214 214 274 240 326 145 383 273 278 260 228 192 280 366 274 256 246 323 293 219 216 280 299 250 298 240 246 321 326 265 234 323 242 253 251 274 396 272 259 198 224 324 343 260 264 240 263 280 335 211 266 219 278 265 259 231 222 343 267 176 217 205 228 269 245 295 305 221 319 261 264 176 262 297 240 268 221 278 289 261 228 280 326 270 214 260 340 287 234 155 173 354 217 308 273 268 268 233 259 239 289 331 284 262 244 282 319 297 218 314 299 201 250 225 328 173 262 287 213 253 269 191 298 265 341 262 197 308 383 331 283 258 269 276 280 175 335 194 214 233 166 294 243 236 289 267 302 284 276 185 281 295 304 232 216 229 181 303 299 263 214 170 139 244 260 289 293 182 259 242 266 223 320 215 242 317 327 443 292 273 301 285 350 239 290 275 207 238 255 272 312 228 247 265 290 266 218 254 277 216 269 244 235 203 239 324 225 155 211 344 232 262 289 236 346 130 247 192 130 301 313 260 206 281 339 228 329 148 225 272 187 314 232 265 318 196 244 265 235 230 221 328 228 300 276 341 285 244 162 255 255 280 260 247 268 278 292 266 228 306 275 257 296 289 229 294 275 308 240 267 232 333 255 385 260 225 317 261 298 267 227 248 276 254 256 313 220 223 233 207 278 199 265 277 308 317 358 342 273 257 320 218 262 197 280 273 294 154 381 303 272 258 346 317 225 312 202 164 215 264 260 292 289 260 237 287 224 206 200 284 279 284 291 272 222 239 262 293 258 337 254 169 243 324 208 346 270 195 276 171 246 251 219 268 290 265 215 182 285 229 240 255 209 299 224 351 225 233 383 213 263 155 242 261 333 242 252 307 249 239 286 234 304 252 311 246 273 353 189 322 282 147 240 318 303 306 251 175 235 326 317 205 258 202 286 252 289 234 183 171 347 255 303 318 273 224 267 253 258 296 294 308 273 234 287 238 264 255 321 252 318 188 248 178 342 173 362 228 173 225 154 300 343 164 246 185 248 310 256 274 252 266 239 166 239 238 241 180 250 263 265 194 244 290 324 251 293 217 367 190 175 307 203 281 225 320 295 221 277 341 329 237 238 237 227 316 203 242 195 319 264 255 201 293 286 244 165 244 304 208 223 327 322 195 339 247 214 289 139 249 271 221 147 244 312 207 310 228 222 340 263 248 242 153 294 197 275 336 292 292 300 224 282 210 320 217 210 201 253 276 301 252 223 224 330 265 228 271 296 306 206 208 273 272 253 212 253 240 263 224 332 227 254 345 227 267 254 325 224 320 264 362 277 295 226 198 209 204 208 244 230 314 252 287 230 209 244 287 267 171 184 323 257 224 329 315 436 331 227 386 339 256 266 266 249 179 291 277 346 182 207 293 223 285 225 342 292 305 252 331 213 265 231 272 143 218 207 276 257 171 261 260 335 238 148 371 299 331 232 332 328 235 281 247 295 259 290 255 260 200 232 267 293 299 277 283 210 161 291 307 370 430 277 267 302 280 308 374 202 341 220 267 331 253 229 232 300 306 265 336 259 328 176 255 325 324 199 262 201 216 328 240 282 209 206 337 335 193 159 291 273 344 248 194 210 183 276 230 230 232 299 199 219 342 344 329 306 184 261 223 328 277 286 239 270 285 352 254 339 273 247 270 275 330 288 297 204 343 194 243 303 169 309 105 235 315 190 242 309 220 164 288 298 212 331 314 294 262 258 290 227 175 258 211 320 281 176 254 154 257 322 260 281 202 354 325 259 259 195 136 348 417 177 257 304 286 229 296 340 252 270 253 221 227 229 212 338 256 324 199 328 203 336 327 229 271 269 165 261 241 262 267 156 235 225 258 150 175 214 211 276 189 259 237 250 249 296 232 304 376 193 215 225 234 225 265 230 270 269 266 292 328 219 225 272 297 345 157 325 302 328 238 311 293 256 211 277 350 206 309 343 243 200 189 209 253 150 249 255 183 248 321 246 278 208 269 159 228 239 267 347 257 343 312 199 270 262 206 289 400 191 247 266 212 254 316 224 269 260 247 232 354 279 290 344 186 215 314 320 335 252 224 262 377 311 218 285 308 196 228 310 265 265 256 377 293 134 259 332 243 288 180 322 237 323 236 228 287 178 224 266 222 223 154 383 299 252 352 363 238 236 319 338 317 213 226 340 248 317 280 295 210 194 287 280 158 370 287 291 261 219 404 192 205 300 150 195 292 217 237 167 257 267 159 277 278 290 252 205 212 234 268 332 209 244 211 217 162 230 274 176 250 264 195 268 295 212 259 319 281 205 234 192 297 211 363 345 280 191 394 224 338 218 201 236 225 210 256 183 250 321 199 258 275 203 264 279 370 299 196 356 195 260 247 307 199 388 234 266 260 203 301 288 266 271 233 235 314 226 221 167 217 182 208 259 170 279 175 310 282 294 267 169 256 228 325 214 244 234 302 378 262 230 282 346 243 256 244 359 287 316 258 261 238 246 317 223 143 261 324 285 243 244 264 267 218 221 158 293 372 218 320 265 234 186 340 306 244 315 334 248 298 319 245 352 216 316 250 234 251 260 216 314 203 290 261 237 315 237 224 287 251 243 325 211 232 261 256 242 242 246 208 365 254 301 221 274 282 254 217 229 207 275 190 279 232 242 308 361 136 285 209 309 301 226 232 282 214 325 284 281 240 227 290 198 254 250 309 215 225 191 234 234 281 294 290 235 259 261 245 317 241 252 298 237 167 330 206 291 255 315 268 242 265 230 254 327 173 312 273 255 273 274 303 220 291 219 418 243 163 184 325 231 311 339 274 294 283 263 230 129 321 261 323 262 254 271 245 315 349 237 266 253 295 235 341 320 254 304 245 216 252 209 251 196 225 246 195 281 96 229 414 385 281 206 233 293 285 163 314 278 233 250 270 253 303 207 322 237 203 214 251 251 356 311 261 273 336 252 232 218 232 287 288 229 290 271 239 250 275 186 196 197 321 248 329 210 260 272 149 239 221 273 201 343 231 291 331 219 305 165 278 285 272 317 223 322 294 321 298 238 327 287 195 231 320 263 242 247 297 251 220 197 315 352 149 381 270 248 328 242 302 348 271 224 160 317 294 321 126 357 296 187 279 306 249 291 309 270 310 220 300 136 326 285 150 269 282 309 219 250 255 332 242 326 360 236 332 291 212 276 245 308 213 249 163 292 216 216 433 284 224 260 395 206 212 176 337 240 366 245 208 152 279 216 176 250 290 233 328 268 220 292 215 239 225 358 260 265 210 236 367 250 246 182 237 213 259 239 233 173 195 222 331 220 328 222 332 255 226 246 318 261 271 154 234 208 275 177 218 232 214 221 277 230 342 241 212 193 286 364 368 259 371 237 222 301 317 246 293 328 212 258 248 291 220 225 283 213 234 307 246 220 292 288 317 165 333 198 219 253 239 250 223 278 221 252 222 317 333 284 282 335 243 324 299 155 263 308 269 381 231 293 303 283 248 261 230 280 205 305 284 248 233 343 420 340 418 247 244 220 320 200 307 148 225 249 237 175 315 255 272 276 309 258 282 387 229 204 281 184 227 288 338 192 290 356 277 254 248 364 212 243 307 294 351 276 346 216 183 291 310 182 218 337 207 189 272 261 412 240 252 323 231 283 277 279 238 210 220 287 313 262 304 231 294 272 245 279 308 174 178 290 179 243 321 301 208 268 283 300 296 366 243 251 285 300 232 144 245 277 318 278 292 208 249 308 276 346 284 291 264 238 307 146 250 280 242 296 215 407 236 265 213 340 243 228 272 192 278 286 265 283 279 304 239 268 231 292 273 253 153 275 261 280 244 322 383 175 205 297 335 232 195 222 292 249 230 216 237 315 210 266 277 200 239 296 286 286 283 353 291 284 299 232 284 255 246 268 285 159 240 169 208 237 268 309 234 249 237 273 272 283 197 330 273 364 248 217 254 207 211 249 285 192 188 329 240 244 223 228 205 185 215 234 211 278 316 333 196 314 278 308 227 258 265 263 252 244 138 192 155 283 319 284 252 252 208 276 191 265 292 261 279 159 228 318 341 294 255 267 274 252 253 195 174 305 242 251 248 278 298 352 281 252 298 307 286 263 196 292 308 390 273 258 259 305 166 314 280 267 233 176 256 226 288 168 234 242 287 295 232 258 269 332 270 337 268 246 332 240 235 176 244 218 157 274 216 265 258 219 204 346 276 271 249 213 324 287 347 271 273 297 221 231 220 239 281 191 242 205 285 217 261 250 290 389 201 256 282 336 256 333 327 327 285 210 185 252 249 139 371 299 258 282 266 267 358 250 256 245 303 262 237 290 259 310 282 308 187 303 216 299 265 295 222 310 281 191 123 312 220 193 286 233 334 262 317 296 208 224 203 231 231 248 245 281 210 350 330 332 195 325 262 197 193 164 211 280 209 283 190 158 264 262 189 276 271 237 276 255 208 220 279 194 289 258 349 258 267 247 298 338 283 288 255 214 295 260 340 233 342 222 245 159 310 263 222 266 228 373 278 283 217 327 297 221 187 304 204 210 291 222 178 281 172 151 205 238 269 262 323 331 203 307 275 199 223 333 274 173 245 326 191 214 211 321 226 328 250 273 218 220 211 257 333 283 305 234 340 179 254 251 246 219 285 209 254 269 235 299 328 235 266 319 319 416 210 271 302 291 262 314 400 228 294 281 287 199 186 156 287 216 229 271 276 247 276 292 192 318 276 255 288 276 239 243 266 296 289 308 228 253 243 207 264 383 260 403 214 185 266 333 262 253 187 329 179 275 248 246 225 357 271 215 159 243 196 213 257 341 295 211 285 263 313 155 188 199 241 390 306 345 240 341 207 331 299 227 272 238 247 194 312 328 211 202 187 218 305 340 268 271 264 271 222 260 200 220 287 344 265 275 233 301 248 224 248 366 275 285 243 273 197 290 261 174 257 253 313 247 300 208 241 238 235 303 223 284 287 197 209 314 271 240 353 242 295 265 293 206 288 245 283 277 254 185 265 329 206 312 358 249 327 239 211 254 310 271 375 237 349 205 208 289 184 255 302 247 267 231 256 239 246 270 288 269 226 245 342 211 300 324 245 208 233 297 277 300 292 249 286 311 231 240 216 208 226 268 303 172 269 343 258 245 320 244 290 270 312 209 217 330 253 231 275 238 304 354 254 254 195 213 274 348 281 270 249 283 312 244 301 326 260 311 307 347 265 200 117 291 151 224 304 247 267 200 122 242 282 298 332 269 188 267 321 255 309 265 323 288 279 243 159 240 170 241 264 295 218 243 283 202 313 238 180 255 258 228 298 230 156 323 263 225 251 171 198 243 199 194 261 278 293 318 198 293 249 243 237 262 227 329 211 269 93 225 290 290 227 267 263 208 322 236 232 251 282 215 354 168 252 249 278 233 291 293 223 319 226 200 268 290 353 245 304 274 292 326 268 312 345 273 310 171 220 253 212 297 252 241 217 208 246 269 273 254 229 234 227 147 262 302 223 240 253 336 337 322 365 205 204 221 289 187 252 196 264 301 149 217 313 319 212 303 232 299 307 275 239 235 250 297 291 255 228 280 259 315 290 263 267 244 262 366 241 313 256 286 273 280 317 200 235 262 265 210 248 382 284 255 205 224 309 262 146 219 219 302 289 319 180 280 328 227 213 213 264 256 306 194 241 308 197 261 263 271 243 191 292 265 278 297 184 212 259 226 260 220 253 297 317 302 234 193 335 212 282 254 227 288 278 199 293 280 236 221 243 144 302 311 282 307 350 375 259 290 362 253 289 168 265 166 187 275 222 275 248 278 180 264 279 222 350 312 316 310 227 225 281 238 233 188 212 202 292 223 216 240 239 268 251 229 226 206 243 377 430 354 322 190 141 217 286 312 325 165 229 269 141 340 274 254 237 226 218 276 224 163 176 242 239 222 271 250 259 222 267 330 174 352 222 161 180 267 244 251 232 292 252 307 329 273 215 268 320 185 249 215 169 261 323 261 211 292 354 367 343 251 276 205 263 238 228 238 257 191 223 258 211 128 194 350 269 213 225 213 260 286 267 361 292 273 371 264 196 411 309 228 334 235 303 330 337 311 225 272 327 219 220 347 229 355 256 263 291 253 238 236 252 209 263 270 209 236 212 175 309 267 210 177 220 249 272 275 244 269 263 246 153 292 270 170 280 273 186 173 204 260 241 259 262 267 303 266 215 264 284 262 312 278 267 256 272 236 295 294 175 251 283 259 280 179 194 158 243 245 271 276 190 297 238 237 277 218 170 301 259 209 270 347 260 290 145 253 277 330 296 214 244 291 222 274 214 253 328 233 217 306 362 259 305 270 229 187 317 267 296 258 212 130 356 368 335 266 215 236 270 273 269 185 254 247 156 284 366 225 302 267 355 251 226 266 257 264 270 192 249 237 329 217 262 272 262 249 256 276 230 197 367 374 253 296 268 234 339 250 168 352 307 251 269 344 306 158 244 298 271 229 248 177 225 277 308 289 125 240 296 339 232 273 255 185 241 306 337 232 222 272 165 221 232 239 293 246 251 279 291 313 376 358 335 211 271 187 220 267 282 190 385 218 281 213 203 223 294 221 285 271 307 248 273 179 265 242 205 258 262 195 200 233 313 219 264 272 344 222 229 254 250 283 255 303 244 212 276 254 204 270 323 273 293 258 260 348 257 345 190 244 295 251 182 271 340 357 238 298 356 166 238 338 296 268 271 236 233 209 263 300 237 387 349 220 136 235 234 272 246 192 181 253 308 270 239 302 386 270 205 222 282 363 205 228 205 232 324 273 245 347 291 326 247 213 274 335 294 202 238 323 216 282 256 258 271 308 289 320 245 211 329 248 212 277 238 271 272 282 221 283 205 224 165 241 295 333 344 213 268 282 268 282 291 245 244 286 280 197 235 256 279 257 284 261 212 264 295 300 267 268 230 228 250 291 393 362 336 275 235 278 253 259 226 261 265 143 193 271 278 324 243 180 211 320 246 254 292 267 307 295 252 269 229 310 264 273 230 225 239 246 244 237 134 323 288 261 294 296 312 284 392 237 242 247 256 286 319 237 180 353 298 182 230 233 386 291 235 246 258 138 174 270 204 249 267 257 286 261 196 298 222 232 268 263 277 306 180 320 210 203 253 321 235 310 175 184 334 304 230 163 313 216 290 183 377 113 257 262 380 275 231 338 221 202 322 296 274 267 179 321 187 245 303 242 176 236 234 149 294 211 240 175 214 216 235 241 230 254 181 238 234 310 178 367 280 205 241 279 270 280 292 298 176 282 275 268 192 311 302 201 278 290 177 274 291 345 314 298 368 329 291 313 256 313 260 259 231 319 210 222 320 286 192 320 299 314 295 259 244 241 326 224 323 287 335 203 295 287 220 284 210 278 251 275 229 246 162 250 194 267 254 200 287 231 265 230 260 226 218 272 244 212 249 140 178 252 364 325 231 174 211 311 277 233 326 323 261 164 251 294 256 264 321 273 404 320 245 249 214 307 189 316 238 314 270 204 278 280 189 266 283 217 243 269 306 340 229 329 221 241 169 298 312 285 280 273 218 187 260 257 239 203 287 294 237 263 258 252 287 306 201 323 225 310 347 253 244 382 246 326 219 236 227 193 183 408 279 229 249 235 197 236 175 171 361 176 230 230 217 255 253 351 244 287 282 339 350 352 308 338 186 234 266 285 261 259 289 240 225 285 271 201 209 216 259 205 222 285 272 262 198 279 266 258 190 305 274 285 204 303 145 332 231 240 240 242 213 290 313 335 263 312 278 239 156 310 243 316 215 249 239 289 261 325 204 329 236 238 279 224 247 310 298 318 212 212 131 207 223 431 296 257 227 172 246 253 348 213 379 341 304 284 149 250 288 264 203 275 266 319 242 309 246 202 170 241 290 170 312 251 242 272 283 303 262 319 251 223 249 179 266 221 390 248 247 216 205 229 271 314 254 261 310 175 270 310 327 248 376 187 260 190 343 294 138 244 263 295 248 281 275 211 275 193 214 175 275 280 265 252 296 170 266 245 246 211 337 258 244 284 270 315 274 249 234 299 318 262 229 182 235 300 212 244 298 289 264 176 190 268 216 256 192 266 278 239 228 245 204 291 337 277 245 258 264 359 257 299 215 182 275 250 195 280 230 322 217 293 252 240 272 248 267 237 334 335 290 270 231 239 287 204 301 157 216 258 325 223 359 291 303 240 332 288 264 221 344 300 270 276 253 378 279 272 332 269 261 296 229 286 313 285 265 341 259 217 259 298 359 312 362 188 282 238 294 138 285 130 267 243 303 201 205 239 250 253 292 311 296 290 233 348 275 356 288 244 263 157 294 185 273 309 268 165 319 200 225 244 334 291 225 289 360 257 291 303 249 192 227 344 322 242 171 317 256 243 183 249 319 241 396 254 253 324 223 243 259 274 157 278 317 213 233 142 300 266 237 310 273 288 303 305 275 297 231 269 338 232 177 189 226 219 354 238 182 260 228 269 269 290 330 289 218 221 292 256 255 177 179 209 231 269 244 194 219 307 223 244 196 221 314 262 316 302 337 233 183 299 286 231 351 193 176 293 214 317 240 210 277 272 257 184 377 216 309 283 227 336 327 304 288 262 262 261 288 322 225 244 293 302 177 259 245 265 142 235 218 282 250 305 300 310 161 283 375 229 315 253 275 209 214 187 285 218 305 225 157 230 284 344 200 244 185 249 341 334 199 357 247 296 285 299 317 320 270 317 266 209 376 147 262 264 265 248 189 375 331 330 290 222 251 242 324 301 273 129 297 203 229 195 288 243 359 255 313 297 266 234 278 280 273 257 284 279 313 213 367 238 287 193 177 300 242 305 338 266 268 228 271 265 218 212 239 311 270 327 329 252 135 309 187 373 252 243 391 179 262 327 250 275 240 284 255 186 191 327 207 200 252 305 221 188 212 351 256 294 309 268 258 305 285 153 330 314 241 292 233 296 275 339 232 258 300 279 293 141 318 219 278 241 220 228 302 218 302 263 239 243 149 263 251 220 183 282 287 301 250 303 258 349 275 191 192 379 293 201 269 321 299 283 305 193 240 294 211 211 319 272 269 210 360 215 282 265 297 235 310 199 164 210 237 221 304 295 201 305 308 372 239 266 296 295 205 232 274 223 214 279 283 240 295 282 240 275 308 261 265 329 155 298 331 377 262 234 184 233 298 209 259 310 206 299 291 317 249 232 278 295 347 359 359 318 199 259 170 252 310 240 219 348 188 258 254 318 317 318 282 277 283 218 277 202 340 267 295 323 142 258 212 322 179 256 257 252 279 268 208 296 294 186 237 323 296 399 291 316 237 235 321 193 264 269 234 323 310 296 255 323 243 286 261 277 217 270 298 298 264 282 217 325 235 243 231 208 229 190 263 325 315 227 262 265 294 243 294 238 314 160 288 271 257 194 342 303 213 263 266 247 297 224 237 320 251 234 268 256 397 224 222 335 214 262 275 225 259 255 194 237 252 221 217 338 271 258 239 227 333 265 407 193 200 227 255 259 225 329 291 263 241 290 223 257 203 278 339 263 225 237 261 261 256 256 296 251 353 233 309 295 171 146 249 305 460 281 269 257 237 260 264 307 320 244 282 285 210 165 278 220 228 303 240 330 287 281 296 346 275 145 240 256 321 226 281 302 277 326 293 249 286 272 294 285 303 288 295 236 306 258 248 303 296 302 276 289 419 347 168 207 141 289 288 225 270 294 177 198 332 299 223 254 247 233 268 336 241 238 379 266 327 239 223 275 290 293 175 209 317 217 223 190 386 293 270 238 250 191 309 262 262 260 176 187 209 250 230 341 242 230 181 274 193 227 246 225 301 258 325 337 193 336 328 246 322 209 208 283 188 321 178 305 235 297 214 243 177 276 159 227 188 168 214 302 265 305 180 193 246 288 300 307 244 345 313 233 317 258 288 257 304 227 165 300 251 268 262 243 269 245 306 271 235 341 283 182 285 198 368 257 316 298 222 261 329 180 262 231 367 247 310 249 189 295 284 325 193 302 185 324 278 230 273 250 284 317 189 336 205 250 259 354 296 236 286 250 199 257 334 197 175 182 129 210 320 236 214 151 297 292 288 262 134 309 184 187 312 211 197 271 271 296 342 180 267 247 260 312 267 217 184 185 287 277 181 280 282 322 336 223 261 340 218 175 313 371 274 276 311 227 258 218 264 168 302 215 152 220 266 276 222 225 275 391 300 197 294 323 209 244 267 270 244 257 192 175 354 190 257 194 299 229 316 208 289 199 240 218 189 223 231 287 221 245 246 235 317 152 227 257 281 315 236 313 168 276 369 283 279 230 306 323 264 260 295 259 222 155 283 216 281 248 297 298 282 209 228 279 309 277 256 182 329 181 273 204 247 182 277 233 348 264 342 150 280 248 159 351 186 227 229 294 212 322 321 245 285 261 295 298 271 329 244 262 304 284 186 263 282 229 247 183 261 176 313 283 228 291 393 315 236 278 205 311 308 154 296 279 218 254 337 257 239 299 281 277 277 288 378 265 233 258 218 333 238 258 162 273 217 262 235 259 225 316 221 246 232 331 266 306 261 272 215 340 214 346 308 207 280 288 388 306 158 187 309 349 271 162 258 322 175 251 344 199 238 270 257 248 332 304 232 254 358 296 198 212 247 204 316 306 253 235 281 254 336 323 247 287 259 311 248 158 284 213 208 115 220 305 254 306 295 276 317 275 275 248 211 215 244 311 145 231 209 346 286 294 201 263 206 205 257 193 338 284 115 155 236 302 275 186 356 279 309 247 238 284 304 301 342 288 236 294 328 245 282 220 343 194 291 240 242 297 310 245 375 218 297 273 233 163 283 288 252 265 245 343 289 227 207 194 183 353 297 180 265 202 281 207 247 337 219 248 207 148 191 393 299 257 260 300 204 318 303 235 347 201 296 307 327 254 225 258 136 216 292 200 219 327 168 210 271 197 205 259 236 326 188 246 264 136 273 358 241 324 260 407 294 193 252 243 288 221 162 312 216 258 249 281 249 297 278 373 223 253 274 227 288 168 194 247 342 197 301 226 274 277 221 280 314 184 298 388 303 241 243 336 275 280 294 261 266 226 301 231 334 132 273 267 276 259 253 278 330 173 234 219 167 231 261 276 273 368 212 243 251 242 234 472 146 221 271 176 259 166 301 263 255 290 298 264 356 282 249 264 180 234 133 172 276 202 258 308 221 275 277 315 234 205 340 271 221 307 226 237 285 269 215 258 335 190 291 254 243 192 243 188 232 256 240 334 206 255 169 252 307 220 281 280 155 329 327 281 272 294 181 200 294 338 202 164 227 246 270 280 174 191 271 269 147 149 321 202 267 166 272 263 240 395 257 269 251 367 215 235 235 359 263 285 279 367 266 254 378 193 225 227 267 210 291 245 300 253 295 286 221 225 301 288 323 114 248 288 296 270 249 271 275 273 235 225 268 265 237 201 306 252 211 261 252 211 267 250 206 264 310 270 281 345 309 297 320 266 305 240 298 251 238 221 249 278 224 170 353 172 153 277 153 248 314 241 258 210 305 306 287 227 257 244 236 186 200 250 203 248 289 228 196 199 284 245 304 278 322 278 327 305 239 173 319 287 319 214 315 215 234 213 230 279 161 278 252 280 338 257 233 200 226 212 324 303 265 254 359 277 326 216 231 244 252 249 288 231 204 195 227 280 198 299 212 229 152 259 311 241 252 272 246 216 265 183 162 269 228 250 265 216 248 255 324 215 234 296 243 260 302 158 313 261 187 242 256 211 284 232 172 266 357 268 277 224 237 227 282 260 225 203 395 306 264 217 270 241 343 159 246 419 271 304 210 232 212 244 227 254 277 248 367 218 295 324 327 205 257 166 245 277 236 244 174 264 258 269 333 288 180 217 253 291 196 206 309 196 283 241 224 236 247 294 277 170 201 204 285 343 313 233 351 305 352 340 233 276 265 393 211 195 298 274 273 289 368 161 265 176 319 274 226 168 326 232 293 240 226 354 248 215 228 255 229 251 367 271 304 244 256 215 223 255 327 183 246 185 250 326 152 158 199 255 310 199 221 256 289 265 306 231 292 230 292 214 355 264 272 276 254 272 228 284 317 213 243 312 243 243 333 182 270 239 268 211 214 276 254 302 171 367 228 353 236 258 316 211 312 211 227 227 233 210 317 243 297 168 320 188 237 263 192 214 272 271 206 221 222 254 272 260 272 218 243 238 300 285 264 218 259 276 274 208 330 161 246 275 274 293 355 239 299 210 174 190 318 228 374 323 209 233 223 270 296 318 284 321 192 205 243 246 361 334 214 238 305 327 299 291 260 304 244 172 322 194 317 269 377 304 186 231 251 264 197 313 170 289 219 241 340 287 216 286 334 263 334 186 321 285 159 313 370 204 172 211 283 281 281 228 232 285 296 319 277 271 282 316 252 299 207 236 232 327 153 416 224 280 319 288 261 250 226 294 214 175 293 169 212 219 284 218 232 241 220 275 182 271 268 180 246 359 363 235 200 298 309 287 220 258 254 154 192 196 244 162 231 265 224 270 332 184 308 306 181 208 279 270 268 294 216 186 196 221 142 316 224 294 173 165 334 295 296 378 301 269 237 138 254 234 277 277 346 271 303 266 274 248 221 377 161 222 338 225 261 228 260 174 227 246 337 282 230 157 239 220 249 288 269 250 158 229 208 255 304 337 225 200 348 312 334 289 224 187 161 277 313 239 207 301 291 270 361 311 301 297 197 206 271 319 291 220 296 349 187 129 229 288 250 234 325 209 219 212 336 286 168 243 339 284 320 314 311 208 190 259 171 282 373 356 260 322 317 308 258 272 209 253 241 202 237 226 297 168 283 254 248 203 204 172 281 242 196 269 237 257 269 285 219 266 246 289 272 263 295 404 293 316 199 200 257 273 272 327 202 250 170 164 265 410 182 293 215 284 254 236 298 219 268 259 204 238 224 283 209 244 212 261 228 228 234 214 232 232 281 313 234 249 276 187 291 301 306 254 301 265 272 256 190 311 307 275 288 300 240 216 242 299 206 275 155 343 214 297 274 330 285 219 219 222 327 306 277 275 329 219 276 243 366 281 189 300 241 290 344 187 288 232 280 264 244 427 280 306 211 287 258 384 357 293 193 140 264 260 286 294 324 272 289 218 199 285 279 282 240 233 181 242 412 182 324 246 275 274 247 193 203 171 224 176 280 328 199 167 279 259 318 279 227 253 239 268 231 135 247 228 323 251 263 265 224 311 358 360 175 241 342 248 338 284 195 328 313 260 260 419 265 217 207 305 238 248 211 285 282 300 233 220 247 202 252 255 219 189 327 367 230 232 184 340 213 233 237 199 281 299 237 298 185 217 201 282 201 335 332 346 299 198 278 241 275 380 310 335 374 221 224 357 231 291 288 340 307 220 273 223 272 240 338 248 270 298 213 264 231 250 347 241 304 249 229 329 208 208 250 333 372 242 255 210 375 142 255 302 278 327 323 255 242 317 298 197 272 239 234 278 266 272 210 193 163 279 307 225 304 243 364 359 183 268 201 176 320 213 253 298 201 189 337 231 323 280 217 312 239 192 188 258 231 280 268 261 272 294 187 228 255 260 166 204 320 184 346 168 290 243 214 256 282 279 296 396 212 231 316 334 297 326 345 365 226 277 168 218 293 196 202 268 269 175 285 286 225 278 253 268 238 249 258 155 314 236 321 206 203 248 243 300 205 249 341 396 230 247 240 292 233 221 204 207 201 246 234 242 202 287 285 177 294 187 248 255 154 266 238 307 287 264 288 340 321 219 263 188 258 315 219 275 151 249 168 271 302 198 281 326 250 245 366 265 290 275 268 158 345 245 333 342 279 248 186 228 262 234 337 144 286 262 305 282 176 304 133 304 205 243 228 249 282 269 259 255 275 360 270 290 308 225 277 215 351 257 208 212 393 177 261 251 198 223 260 301 280 254 186 265 286 250 228 210 315 217 325 289 196 329 203 300 258 234 340 345 326 242 266 219 294 244 317 299 179 237 290 349 291 341 278 218 209 284 287 338 258 266 296 233 318 338 244 216 180 374 197 305 150 161 129 192 272 307 271 249 275 194 286 311 261 193 247 267 364 186 418 356 249 266 335 251 250 290 294 307 157 340 235 302 408 310 316 354 233 242 248 172 262 307 211 198 293 336 209 292 236 273 288 248 192 216 222 181 255 199 251 306 160 270 303 289 259 244 250 167 176 286 276 141 308 231 166 229 225 225 203 266 285 308 244 317 296 230 273 182 371 173 248 212 317 201 238 346 259 191 291 259 283 177 247 312 336 269 230 181 254 250 331 254 242 247 271 244 285 215 241 217 333 258 258 195 264 220 187 335 268 337 273 304 135 155 291 262 232 206 324 352 344 314 210 271 265 223 315 227 215 230 227 265 240 279 219 164 203 245 239 213 149 198 232 265 309 244 256 254 224 290 241 277 212 263 341 354 340 253 343 338 213 365 348 197 246 418 227 224 285 254 298 235 226 313 261 232 367 348 269 288 264 190 242 402 244 249 270 262 331 239 405 337 351 327 305 244 254 283 219 264 264 209 277 370 275 184 198 211 251 296 291 223 171 203 362 263 293 264 288 336 212 354 184 318 253 196 311 276 315 301 275 306 267 204 331 326 259 237 208 152 269 144 302 280 247 270 237 280 264 261 280 201 221 118 288 335 248 1</t>
-  </si>
-  <si>
-    <t>MIE(0.2825255271992868, 1.8508143228379779, -6.896385515888025e-30, 1.505467321830735)</t>
-  </si>
-  <si>
-    <t>3 0 2 2 1 0 2 2 2 2 1 3 2 2 1 2 1 2 2 1 1 2 2 1 1 1 1 2 2 0 1 0 2 0 2 2 2 1 1 3 1 2 1 3 3 0 1 2 6 0 0 4 2 0 0 2 0 2 1 1 0 1 1 0 1 2 2 4 2 0 2 2 2 1 3 4 5 0 2 1 1 3 2 1 1 0 2 0 0 1 0 0 1 0 1 2 0 0 0 2 2 1 1 2 0 1 0 2 1 2 2 0 1 1 0 0 1 2 0 0 1 2 2 5 2 1 1 1 2 2 4 2 0 1 4 0 2 1 1 1 2 2 1 0 2 1 1 1 1 2 2 0 1 1 0 1 3 1 1 2 2 1 2 2 2 2 0 1 2 2 1 2 4 1 2 0 0 1 1 2 0 0 2 2 1 2 2 0 1 2 2 3 2 3 0 1 0 2 1 2 2 2 2 1 1 0 1 2 1 1 0 1 0 3 1 1 2 0 2 1 1 3 2 3 0 1 1 3 0 0 1 0 1 2 2 1 0 3 1 0 2 1 3 2 1 1 1 2 0 1 0 2 1 2 1 2 1 2 4 0 1 0 3 1 1 1 0 1 2 0 1 1 2 1 0 1 2 1 0 1 1 1 2 3 1 1 1 0 1 0 3 2 4 1 2 2 0 4 0 1 1 2 0 1 2 0 2 1 1 1 0 3 3 1 2 0 0 2 1 1 0 1 1 2 1 1 2 1 2 1 1 1 0 1 0 2 0 0 3 1 2 2 2 1 1 1 0 1 0 2 2 2 2 1 1 2 1 2 3 2 1 1 2 1 1 1 0 1 1 1 1 3 3 1 1 0 0 1 2 2 0 3 1 2 2 1 2 1 2 2 1 0 2 2 0 2 2 0 1 2 0 2 1 0 0 2 3 3 2 0 1 0 0 5 4 2 1 0 1 2 1 0 2 1 1 2 2 2 3 1 4 2 1 1 3 3 3 0 4 3 0 1 2 1 1 2 0 2 1 1 2 1 0 6 1 0 0 2 3 3 1 3 1 1 2 2 0 3 3 1 1 1 2 1 0 2 0 1 1 1 0 3 2 1 0 1 3 2 0 1 0 1 0 0 3 2 3 1 1 0 1 2 0 0 1 1 1 0 1 1 3 2 0 3 0 1 3 0 2 2 1 1 2 3 2 1 1 1 0 2 0 1 1 1 4 1 0 1 3 4 1 1 2 0 2 1 1 0 0 1 0 2 2 1 0 2 0 1 3 1 3 1 2 2 2 2 1 2 2 0 2 0 2 0 1 2 1 2 3 2 1 3 1 2 2 0 2 2 1 2 2 2 1 2 1 1 0 1 3 1 0 0 2 1 0 2 0 2 1 0 4 1 2 2 2 2 1 0 1 0 2 1 2 0 1 1 4 1 0 1 1 1 2 0 2 2 3 1 1 2 1 2 2 0 1 1 0 2 2 0 1 3 4 0 3 0 1 2 0 1 0 2 1 1 1 1 1 2 1 2 1 2 1 0 3 2 0 2 0 2 2 2 1 2 0 4 1 1 0 0 0 0 2 0 1 2 4 2 1 3 1 1 1 1 2 2 0 1 0 0 3 1 3 0 0 2 0 1 1 2 2 2 2 1 0 2 3 1 2 2 1 2 1 1 1 2 2 0 3 0 1 0 2 2 2 0 2 1 2 2 3 2 0 2 2 3 2 2 1 0 2 2 1 1 1 2 0 1 0 3 1 1 2 1 1 1 2 1 1 2 2 0 1 1 1 1 2 1 0 1 1 2 0 1 2 3 1 1 1 3 1 2 2 1 3 1 2 1 2 1 1 1 0 2 0 2 1 2 1 4 1 1 2 1 2 4 0 1 1 1 2 1 3 1 0 2 2 0 1 2 0 1 0 2 1 1 2 1 1 3 1 0 0 1 1 3 1 0 4 2 1 1 3 1 0 3 2 0 1 2 3 2 1 2 0 0 3 1 1 2 1 2 1 3 1 3 1 0 2 2 3 3 0 0 1 1 1 0 2 2 2 3 3 0 1 2 1 2 2 2 4 0 1 1 1 0 2 1 3 1 1 1 1 2 4 3 2 1 1 2 3 0 3 0 2 1 3 3 1 1 1 1 1 1 2 2 2 2 0 2 0 1 1 4 3 2 1 4 1 0 1 2 0 0 1 0 2 1 1 5 0 1 2 1 1 1 0 2 3 0 1 1 2 3 3 0 0 2 2 0 0 1 1 1 0 1 1 2 1 2 1 1 3 1 2 1 1 3 1 2 2 1 3 0 0 0 1 1 0 0 2 3 0 3 2 2 1 0 1 2 2 1 2 1 3 1 0 1 1 2 1 2 0 1 2 0 2 2 2 2 0 2 0 2 1 1 1 0 2 1 1 2 3 2 3 4 1 1 0 2 2 1 2 0 1 2 2 3 2 0 0 2 1 1 0 4 2 0 1 0 2 2 1 1 0 2 1 1 0 1 0 1 1 3 0 2 2 1 3 2 1 0 1 2 2 1 0 0 1 2 3 2 0 3 0 1 3 1 1 2 2 1 2 3 0 0 3 1 3 0 1 1 3 3 0 3 1 2 1 0 0 0 0 0 2 1 2 2 1 3 1 2 1 5 2 2 2 1 0 2 2 0 0 4 2 1 1 0 0 1 1 1 1 0 0 3 2 2 2 1 2 1 1 2 1 1 0 1 1 0 1 3 1 1 2 1 0 1 2 1 1 1 3 0 1 3 1 0 0 1 2 1 1 0 1 1 0 2 1 1 0 0 1 2 3 2 1 1 2 1 3 0 2 2 2 1 2 2 1 0 0 0 2 0 1 1 1 1 0 3 2 3 1 2 0 3 3 2 1 2 1 1 1 2 2 2 0 1 1 0 0 1 0 2 1 1 1 3 2 2 2 2 2 1 1 0 2 2 1 1 1 0 2 2 1 2 3 1 3 2 1 3 1 2 1 1 1 1 3 0 1 2 1 2 2 4 1 0 0 1 2 0 1 1 3 0 1 1 2 0 0 0 1 3 2 2 1 4 4 5 3 1 1 1 5 2 2 0 0 1 2 2 3 0 1 1 0 1 1 2 1 0 1 1 1 2 2 1 0 1 3 2 2 3 2 1 3 1 2 0 0 0 3 1 1 0 0 1 2 3 2 1 2 3 0 2 1 1 2 2 2 3 2 1 1 1 2 1 0 2 2 4 2 0 2 3 0 1 1 0 2 2 1 2 2 3 2 1 1 1 1 1 1 1 2 0 3 2 1 1 3 1 1 1 2 2 0 1 1 1 2 2 1 2 2 2 1 2 2 0 2 1 1 1 2 0 2 1 3 3 3 0 2 2 3 2 1 0 0 0 2 0 2 1 4 3 1 3 1 2 1 2 2 3 3 1 3 1 2 1 1 2 1 1 3 2 3 1 1 0 2 1 1 1 1 2 0 1 1 1 2 0 2 1 0 1 2 1 2 1 3 2 0 2 1 1 1 0 0 0 1 2 2 1 1 2 2 1 0 1 2 1 2 4 1 1 2 0 3 1 1 2 1 2 0 4 2 2 1 2 0 0 1 2 0 2 1 0 2 1 1 2 0 2 2 1 1 3 1 0 1 1 1 0 1 2 2 0 2 3 0 0 0 0 1 2 2 2 1 0 2 3 2 0 1 1 2 1 2 1 0 2 1 1 2 1 1 3 0 2 3 0 3 2 1 3 0 1 2 0 0 0 0 2 1 1 2 0 3 0 5 0 1 2 1 1 1 0 1 1 2 1 0 2 1 3 2 2 3 2 1 2 1 1 2 3 1 1 3 2 1 0 3 2 3 0 1 0 1 1 1 2 1 3 1 1 3 3 1 1 0 0 0 2 2 2 0 2 2 2 1 3 1 2 1 0 2 1 3 1 0 0 1 2 1 2 4 2 0 1 1 1 1 1 1 1 0 3 3 2 1 1 1 2 3 0 1 3 1 0 1 2 1 1 0 1 2 0 2 0 1 0 1 1 2 1 2 1 2 3 0 2 1 2 1 1 0 2 2 2 1 3 2 3 2 2 4 1 3 1 2 0 2 1 2 3 3 1 2 0 1 2 2 0 1 1 2 2 2 2 1 1 2 3 2 1 0 1 3 3 3 1 2 0 3 1 2 2 1 1 0 0 0 3 1 1 1 1 1 1 1 2 1 3 0 0 1 1 2 3 2 1 0 3 1 2 2 2 1 1 2 1 3 2 0 0 2 4 2 0 3 2 2 1 4 2 1 0 2 1 1 1 0 2 1 3 0 1 2 2 1 2 2 0 1 0 0 0 1 3 2 0 0 1 2 2 1 1 0 1 1 5 1 2 4 2 3 2 1 0 0 1 1 2 1 0 0 2 2 0 0 0 1 2 1 2 2 1 1 1 1 2 1 2 2 3 3 1 1 1 1 2 0 1 0 2 1 1 0 0 2 1 2 3 1 3 4 1 3 1 2 0 2 3 2 2 1 1 0 0 1 1 1 1 3 1 3 3 1 0 2 2 2 0 3 3 1 0 5 3 1 3 2 1 2 3 0 2 2 0 0 1 0 2 1 2 1 0 1 2 3 3 1 2 1 1 2 1 3 2 1 0 1 1 1 1 3 0 1 1 1 1 1 1 0 0 1 1 2 0 1 2 1 1 0 4 1 1 3 1 1 0 1 2 2 0 1 3 0 1 1 1 1 1 2 1 0 2 1 2 1 1 2 1 3 1 3 1 2 2 2 0 2 0 1 1 3 0 1 1 2 2 1 0 1 1 2 1 1 1 2 2 2 2 2 1 1 1 5 3 1 1 0 0 2 1 2 3 0 0 2 1 4 0 1 1 1 0 0 2 2 3 2 1 4 1 2 0 1 2 2 1 2 2 0 1 1 2 1 2 1 0 1 0 1 3 3 2 2 3 2 2 1 2 0 3 2 1 0 1 0 1 1 1 2 0 0 1 2 0 2 1 2 1 3 0 3 1 1 1 3 0 0 1 3 1 3 2 0 3 0 2 2 2 1 1 2 3 3 2 0 1 1 0 1 3 1 2 2 1 2 0 2 1 4 1 1 1 2 1 1 2 2 2 3 1 0 2 2 1 1 1 1 3 1 1 2 1 1 1 0 3 1 1 1 2 1 1 1 2 1 0 1 1 1 1 1 2 2 1 0 1 0 1 2 1 4 2 2 2 2 3 2 1 1 1 1 1 0 2 1 3 0 2 1 3 1 2 2 1 0 2 2 1 0 2 2 1 0 1 1 0 2 1 1 3 2 1 0 3 3 1 1 0 3 0 1 2 1 0 1 0 3 3 0 1 2 0 2 2 2 3 2 0 2 2 2 3 1 3 0 1 0 1 2 1 4 1 2 0 1 1 2 2 2 2 1 2 1 1 3 1 3 2 2 3 3 0 0 1 0 2 0 1 2 1 2 0 2 2 2 2 1 2 1 1 2 1 2 0 3 2 2 0 3 3 4 1 1 1 0 0 1 2 2 1 0 1 0 0 2 0 2 0 0 1 1 1 1 2 1 0 3 1 3 2 0 2 1 1 1 0 0 1 0 1 1 2 1 3 2 1 2 2 1 0 2 2 0 2 4 2 1 2 2 2 1 2 3 0 2 3 2 1 1 1 3 0 3 1 1 2 2 2 2 1 1 0 1 1 1 2 0 0 1 1 1 0 1 2 2 1 1 2 1 1 2 3 2 4 0 1 2 2 2 1 2 3 2 0 0 3 0 1 1 1 2 1 1 1 1 1 1 0 1 1 2 0 1 2 2 3 0 1 1 1 2 1 0 2 2 2 2 3 1 1 1 0 0 1 2 0 2 2 0 2 3 2 2 0 1 1 1 0 2 3 0 0 1 3 0 3 1 2 4 0 0 1 1 3 2 0 1 2 2 0 1 2 1 1 3 2 3 6 2 1 1 1 3 1 1 1 2 2 2 1 3 1 0 1 1 2 2 1 1 2 2 2 2 2 1 2 1 3 1 2 1 2 1 3 2 0 1 1 2 0 2 0 1 3 2 4 0 0 1 1 2 3 1 1 1 1 2 0 2 3 1 1 1 1 2 1 1 1 1 2 2 1 1 2 0 1 2 2 1 1 2 3 1 1 2 2 0 1 1 3 3 1 1 2 3 1 0 1 3 1 1 1 1 0 3 2 1 2 1 2 1 3 1 0 1 2 0 2 2 3 1 0 1 2 1 3 0 1 1 1 2 2 0 1 0 0 1 1 1 3 4 0 2 2 2 1 1 1 2 2 0 0 0 1 0 1 3 3 0 2 0 4 2 1 1 1 1 2 1 2 1 0 0 1 1 1 0 2 1 3 2 1 1 3 1 2 2 1 0 1 2 1 2 2 2 3 3 0 3 1 1 1 0 2 1 2 2 2 2 1 1 0 0 1 1 1 1 1 2 2 1 2 2 1 2 1 1 1 3 0 3 2 0 2 2 2 2 0 1 1 2 2 2 1 2 2 0 1 1 1 3 2 2 2 1 1 1 1 1 0 1 2 0 0 1 1 1 3 2 0 1 3 2 0 1 2 1 3 1 0 3 0 2 1 1 3 1 1 0 2 2 1 3 2 1 0 2 3 0 1 1 4 2 0 1 2 2 2 1 0 3 1 1 1 0 3 1 2 2 2 1 2 1 4 2 1 2 1 1 2 2 1 1 0 0 1 0 1 0 1 1 3 1 1 2 2 4 2 2 1 1 2 0 2 1 3 1 1 1 1 1 3 2 0 1 3 0 2 2 0 1 3 0 2 1 1 2 2 0 2 2 2 2 3 3 1 2 1 1 1 1 0 0 1 0 2 2 0 0 2 1 2 2 1 1 1 2 1 5 3 3 2 2 3 1 1 1 0 2 2 2 1 1 2 0 1 1 3 1 1 2 2 0 2 0 2 1 1 3 0 2 2 1 0 3 2 1 0 1 3 0 0 1 1 1 1 0 4 2 0 1 0 2 1 0 3 3 1 1 3 1 2 1 1 0 2 2 1 1 0 2 1 3 3 0 1 2 4 1 0 1 1 1 4 1 0 1 1 2 0 1 4 2 1 3 2 2 1 0 0 2 2 0 2 0 3 3 1 1 1 1 3 1 1 2 1 0 3 3 1 1 3 2 1 1 0 2 2 1 0 1 0 1 3 1 1 1 1 0 3 1 0 1 2 1 4 2 3 0 2 2 3 1 2 2 1 2 1 0 1 1 2 1 2 1 1 1 1 3 2 1 2 2 1 1 0 3 2 1 1 1 0 0 1 1 3 1 2 2 3 2 0 1 1 2 3 1 2 2 3 2 3 0 1 0 4 1 1 3 1 2 2 2 0 1 2 2 3 0 0 2 0 2 2 2 3 0 3 2 2 1 2 2 3 2 0 1 1 2 0 1 1 1 1 4 0 2 5 1 2 2 0 2 1 1 1 2 0 2 1 0 1 1 3 1 2 2 1 3 2 1 1 0 0 4 2 1 0 3 3 3 1 1 2 1 0 0 0 1 1 1 1 1 1 2 1 0 1 2 1 1 1 2 1 2 2 2 2 1 0 1 2 2 1 3 3 1 0 0 0 0 1 1 2 5 0 2 2 3 2 2 1 1 2 2 1 4 0 2 0 1 2 2 2 2 0 1 1 1 2 3 1 0 2 1 1 1 2 0 1 1 1 2 1 3 3 3 1 0 0 2 1 1 2 2 2 2 2 1 1 4 2 2 2 1 1 1 0 2 1 2 1 1 1 1 0 1 1 2 1 0 2 1 1 1 1 3 2 2 0 1 0 0 1 1 1 1 1 2 2 1 1 2 2 5 0 3 1 1 1 2 1 1 0 1 1 0 1 3 2 0 1 1 0 1 1 2 2 1 0 2 3 1 2 2 1 1 2 1 2 1 1 1 2 2 4 0 1 2 4 1 1 0 0 2 2 2 1 1 1 1 2 1 1 3 2 0 1 2 2 3 2 2 2 3 2 1 0 2 3 2 2 1 4 1 1 1 1 1 2 1 1 2 2 1 0 2 1 1 1 1 1 4 1 0 2 1 1 1 1 1 1 1 4 1 1 0 1 0 2 1 2 0 4 2 1 1 1 2 3 2 0 2 4 0 1 2 1 0 2 4 1 0 1 0 1 0 1 3 1 0 3 1 0 2 2 2 2 1 2 3 1 0 0 2 0 1 1 1 1 2 4 2 1 0 1 0 2 1 0 0 0 2 3 1 0 3 0 0 2 0 0 3 1 1 2 0 1 1 1 1 2 1 1 0 1 3 2 1 1 1 3 1 0 1 1 0 2 2 2 2 0 2 4 0 2 3 1 1 2 1 1 1 1 2 2 1 2 2 4 2 0 1 0 0 4 2 0 2 0 2 1 2 3 2 2 1 0 2 1 0 0 2 2 0 1 2 1 1 1 0 1 1 1 0 1 0 3 0 3 1 1 2 0 1 1 1 1 2 1 1 3 0 1 1 1 2 1 2 1 3 1 3 1 1 1 2 2 3 2 2 2 0 0 0 1 0 1 1 0 1 3 2 1 5 0 2 1 1 2 0 2 2 3 2 1 2 0 0 2 4 0 2 0 2 1 3 1 0 0 3 1 2 1 2 3 1 2 2 1 1 1 2 0 1 0 1 1 1 1 0 1 1 2 3 2 1 3 4 0 3 1 0 2 0 1 0 2 3 3 1 1 0 1 0 0 2 2 1 2 0 1 2 0 1 2 1 0 1 1 2 1 3 1 2 2 1 0 1 3 1 0 2 2 2 3 2 0 1 0 1 1 1 2 2 1 3 2 1 1 2 1 2 1 0 1 1 1 1 2 1 1 3 1 1 2 1 2 2 0 1 2 1 2 1 1 0 3 0 0 0 2 2 3 1 0 1 3 2 1 2 1 2 2 2 0 1 2 0 3 2 2 3 2 3 3 3 1 1 2 1 1 1 2 0 2 1 2 0 2 2 2 0 2 0 1 2 1 1 1 0 2 2 3 2 2 1 1 1 2 1 0 1 1 0 1 3 2 2 2 3 1 2 1 1 1 0 1 1 1 0 1 2 4 3 2 2 0 0 1 2 2 0 2 2 2 1 0 1 1 1 1 1 1 1 0 2 3 4 0 2 1 1 2 3 0 2 2 1 2 0 0 2 1 0 1 2 2 2 0 0 0 0 1 1 1 1 1 0 0 1 1 1 1 1 4 1 2 1 2 3 2 2 1 3 0 1 1 2 2 3 1 2 0 2 1 2 2 2 2 2 1 2 1 0 2 1 1 1 2 2 2 0 3 1 2 1 2 1 2 1 0 1 1 1 3 4 2 0 2 1 1 2 1 2 1 1 2 2 1 1 2 1 0 0 1 3 1 3 2 3 1 2 2 0 1 2 2 0 0 1 0 2 0 2 1 1 2 2 1 2 1 1 1 3 0 2 1 2 1 1 0 2 2 2 1 1 2 0 1 0 0 2 3 2 0 2 2 0 0 1 3 2 2 0 0 2 1 1 1 1 0 1 1 0 2 1 0 1 0 3 2 1 0 1 2 3 1 1 3 0 2 2 1 0 0 0 1 2 2 1 0 0 2 2 1 3 3 4 1 1 3 2 2 3 0 1 0 2 2 2 1 1 0 1 1 0 2 2 0 2 0 0 1 0 0 0 1 0 1 1 2 0 1 1 1 1 2 1 2 1 5 5 1 1 1 0 2 2 2 1 1 1 1 5 1 2 0 0 0 0 2 0 0 2 2 2 2 2 0 0 1 3 1 1 1 1 2 3 1 3 0 1 1 2 2 2 1 2 3 2 2 1 1 1 2 1 2 1 2 3 1 1 0 3 1 3 2 1 1 1 1 1 1 1 0 1 0 0 1 1 1 2 2 0 3 1 4 3 0 2 3 0 1 1 3 2 3 1 1 1 3 0 0 4 1 3 2 1 1 1 1 2 1 1 2 2 1 2 1 0 1 2 1 1 1 1 3 0 2 2 2 1 3 3 1 0 2 2 2 1 1 1 2 1 0 2 2 0 2 1 1 1 0 2 2 1 1 0 2 1 1 1 2 1 1 1 1 1 0 1 1 2 0 1 1 2 2 1 0 1 0 2 1 1 2 1 0 0 1 1 2 0 2 3 3 2 1 1 1 1 1 0 2 2 2 1 1 1 2 1 1 1 1 0 3 1 2 0 0 1 2 2 2 3 2 2 0 2 2 3 2 2 1 2 1 1 2 3 1 2 1 1 3 1 3 1 1 2 1 1 1 0 3 2 2 1 1 1 1 1 2 2 0 2 2 3 1 0 1 3 3 2 1 1 0 0 2 1 1 3 1 2 0 0 0 0 0 3 4 3 1 3 2 0 2 1 1 0 2 2 1 2 3 2 0 1 2 1 0 1 1 1 1 2 3 1 1 1 2 0 1 2 0 1 2 3 2 1 0 1 0 0 0 2 2 3 2 3 1 1 2 0 1 1 2 1 0 0 1 3 0 2 0 1 1 2 1 0 1 3 1 2 2 1 1 2 1 2 1 1 3 0 2 1 2 1 3 0 2 0 1 2 2 2 3 2 0 1 0 1 2 0 2 1 2 0 1 2 2 1 0 2 1 2 0 2 1 0 1 3 1 3 2 1 1 2 2 3 2 1 0 1 0 2 1 0 1 0 0 2 2 2 2 1 2 1 1 1 2 1 1 3 1 1 2 2 3 3 1 1 1 1 3 2 1 2 0 2 0 1 2 0 2 2 2 3 2 1 2 2 1 0 2 2 0 1 4 3 3 1 3 2 2 2 1 4 0 0 1 2 2 1 0 0 2 1 0 1 2 1 1 3 1 2 0 2 2 1 0 0 1 1 1 1 1 2 2 1 0 1 2 1 2 2 1 1 2 0 0 0 1 4 1 1 2 1 0 1 2 1 1 1 1 0 2 1 4 5 1 1 2 2 0 1 2 0 1 1 0 2 1 0 1 2 2 2 1 1 2 2 1 0 1 1 2 1 2 2 2 2 3 3 1 4 0 1 0 4 1 1 0 2 1 2 2 1 0 0 0 0 2 1 1 1 1 1 1 2 1 1 1 1 2 2 1 1 1 0 1 2 3 2 1 1 1 3 1 1 3 0 2 0 2 2 1 1 2 2 3 3 2 2 1 2 1 1 3 1 1 3 1 2 3 1 2 1 4 2 3 1 1 2 2 2 3 4 2 0 1 0 0 2 3 2 1 2 1 1 1 2 1 2 1 3 3 1 2 1 1 0 1 2 2 1 3 0 1 2 4 1 0 0 2 1 2 1 2 2 1 0 1 2 2 2 1 3 3 2 2 2 0 2 1 2 1 1 0 1 3 0 2 0 3 1 0 1 2 3 0 2 0 1 0 2 2 1 1 0 1 0 2 1 1 1 1 2 2 1 0 0 2 3 0 2 1 0 2 1 2 0 1 2 0 0 2 0 0 3 3 1 1 1 1 0 0 1 4 0 0 1 2 0 2 1 1 2 2 4 3 0 1 3 1 2 1 1 3 2 1 3 0 1 0 0 2 1 2 2 1 2 2 3 0 1 1 0 0 1 3 3 0 2 1 3 0 1 1 2 0 0 0 3 0 2 3 1 1 3 0 2 1 1 2 1 1 1 0 1 0 1 1 1 2 3 1 0 0 2 2 1 1 4 1 3 2 0 1 2 1 1 0 1 2 1 0 0 2 2 1 1 0 1 1 2 0 2 0 2 2 1 2 0 1 2 1 1 1 0 2 1 2 1 1 1 2 1 2 1 1 2 1 1 1 1 1 0 1 2 3 0 4 0 2 0 2 2 0 3 1 1 1 1 1 1 0 2 0 1 1 1 1 2 3 0 1 2 0 2 0 1 2 1 2 1 2 1 2 2 3 0 1 0 2 2 2 2 1 0 2 3 0 3 1 1 2 1 2 1 1 2 0 0 2 2 3 1 2 3 2 2 0 2 3 4 1 1 0 2 1 2 0 1 2 0 1 1 2 3 1 1 0 1 2 0 0 1 1 1 4 3 1 2 1 2 2 1 0 1 0 1 2 2 1 5 4 1 2 2 1 0 2 1 0 2 1 1 2 0 3 1 2 1 3 1 2 1 1 1 2 1 0 1 2 0 1 0 1 0 2 3 2 2 1 2 1 2 0 1 2 2 1 0 1 0 1 2 1 0 2 1 5 0 3 2 1 1 4 2 3 1 1 3 3 2 0 2 2 2 0 0 1 1 3 1 1 3 0 1 1 2 2 2 1 0 2 1 3 2 0 1 0 2 0 1 1 1 1 2 1 0 0 1 2 0 2 0 2 1 1 2 2 2 3 2 0 2 2 1 1 0 1 1 1 1 1 1 2 3 1 2 0 1 3 0 3 1 2 1 1 2 2 0 1 0 3 0 3 2 1 1 1 1 1 0 4 2 3 3 0 4 1 0 0 1 0 1 1 1 2 1 0 2 0 2 1 1 2 2 3 1 1 2 1 1 0 3 1 0 3 2 1 3 3 3 1 0 2 1 1 0 1 3 1 3 2 3 3 1 3 1 2 4 1 1 3 5 1 2 2 1 2 1 2 2 0 1 0 3 2 2 1 2 1 1 3 3 1 1 1 0 1 1 2 2 4 3 2 1 1 1 4 1 2 2 1 3 1 2 4 3 1 0 2 2 0 0 2 1 1 1 0 2 1 0 0 2 3 3 3 1 1 2 1 2 1 3 1 1 0 2 1 0 1 1 3 0 2 1 1 1 0 2 1 0 1 2 1 3 3 0 3 3 1 1 1 1 1 1 1 2 0 2 1 2 3 0 1 1 1 0 1 1 3 0 2 1 1 1 1 2 2 0 1 1 0 2 1 2 2 2 1 4 3 1 0 2 3 0 2 2 2 2 1 0 2 1 0 1 3 1 4 0 3 0 1 2 1 2 1 1 2 0 2 1 1 2 0 2 2 1 3 3 1 3 2 0 1 0 0 1 2 1 3 2 2 2 4 1 0 0 0 1 3 3 0 3 0 3 1 1 0 1 1 1 2 1 1 2 1 0 2 1 4 3 1 2 0 1 3 1 1 1 0 1 2 1 1 2 2 2 1 3 2 0 4 3 3 2 1 1 2 2 1 3 2 1 2 1 1 1 2 2 3 3 1 3 3 0 1 0 3 0 1 2 2 1 1 1 3 3 2 0 2 0 2 1 1 2 2 2 2 1 0 1 2 3 1 0 0 1 1 1 2 0 3 1 0 1 2 1 2 2 1 2 3 4 0 2 2 1 2 0 1 3 1 2 2 0 3 1 2 3 1 0 1 1 1 2 1 2 1 2 2 2 2 1 1 2 2 1 3 1 1 2 0 2 0 1 0 1 1 2 1 2 1 1 1 1 2 1 1 1 1 1 2 2 1 0 2 1 0 1 2 2 4 1 1 2 1 1 2 1 0 1 1 1 0 2 0 1 1 0 2 1 1 1 3 1 3 2 1 2 1 1 2 1 0 1 0 1 3 0 3 4 3 3 3 2 0 2 1 0 0 3 1 3 3 2 0 1 0 0 2 2 3 2 1 3 2 2 2 3 1 1 1 2 1 1 1 0 2 1 1 3 2 2 0 1 1 2 0 0 4 4 0 1 1 0 3 0 3 2 0 3 1 0 0 4 1 2 0 0 0 1 1 0 2 2 2 2 1 2 2 3 2 2 0 2 1 1 1 0 1 0 1 0 0 2 1 1 0 1 1 2 1 1 0 2 1 0 1 2 1 3 3 3 3 1 1 1 0 2 1 2 2 1 1 1 3 2 1 1 2 3 0 1 1 1 1 3 2 1 2 1 3 1 2 2 4 1 1 2 2 3 2 2 2 2 1 0 2 1 2 1 0 3 0 1 3 3 0 2 3 1 1 1 1 1 2 0 0 1 0 0 3 0 2 1 0 2 1 2 0 0 1 1 2 1 1 1 0 2 0 3 1 1 0 3 3 2 1 1 1 2 2 2 1 1 1 3 0 3 1 0 3 1 2 2 3 0 2 0 2 1 0 1 1 0 0 2 0 0 1 3 1 0 0 3 0 1 1 2 1 2 0 1 3 0 2 3 1 0 2 0 2 1 1 0 0 2 1 1 2 2 1 0 4 1 2 1 0 2 2 1 0 1 2 2 2 1 1 3 1 2 2 2 1 1 3 0 3 1 2 2 2 2 2 2 2 1 1 0 2 2 1 1 2 1 2 1 2 2 3 0 1 3 1 2 1 0 2 1 1 0 2 1 0 1 2 2 0 3 2 1 2 3 0 2 0 1 1 1 1 2 0 0 0 2 2 1 2 1 1 2 1 0 2 1 3 2 1 1 1 3 2 1 0 0 4 0 0 0 1 2 2 1 0 3 1 0 1 3 0 2 2 2 2 2 2 2 2 0 0 1 0 2 1 1 0 2 1 3 2 0 2 3 3 0 0 2 0 2 4 1 1 2 2 0 2 3 1 1 2 2 1 1 1 1 2 1 1 1 2 2 2 3 2 3 1 2 2 0 2 0 1 0 0 1 1 3 2 1 1 2 1 4 2 1 2 1 2 1 1 4 1 2 1 2 1 0 1 0 2 3 1 0 2 1 2 0 1 1 3 0 1 1 2 1 0 1 1 2 1 0 1 2 3 2 2 3 0 2 2 0 3 0 2 1 0 1 0 2 1 0 2 2 1 0 3 0 1 4 1 1 2 1 3 0 1 1 1 2 2 2 2 4 3 3 3 2 2 2 1 1 3 3 2 2 2 1 2 1 1 2 1 0 1 2 0 1 3 2 2 3 2 3 0 1 1 1 0 1 3 2 1 2 1 0 1 3 1 0 1 1 0 2 1 2 1 2 2 1 0 1 2 2 1 1 0 2 3 2 1 2 2 2 0 1 3 1 3 4 1 3 0 2 3 2 4 3 1 0 0 1 2 1 2 2 2 1 1 2 2 1 1 1 0 1 3 1 4 2 1 3 2 2 2 4 1 0 3 2 1 1 1 2 0 2 0 2 2 1 3 3 0 1 0 1 1 0 1 2 0 2 3 3 1 2 5 2 1 1 1 2 0 0 0 0 1 2 0 1 2 1 1 0 1 2 1 2 1 0 0 1 3 1 1 1 1 2 4 3 1 2 1 1 2 1 1 2 0 2 1 2 1 1 1 1 2 1 4 2 1 2 3 2 1 1 0 1 1 1 2 2 3 2 0 2 2 1 1 0 3 0 2 2 4 0 0 1 3 1 1 1 1 2 0 1 4 1 1 3 1 1 1 3 0 0 2 0 1 1 3 2 2 3 0 0 1 1 2 1 1 1 3 1 1 2 1 1 1 1 0 3 1 3 0 1 1 1 0 0 2 2 1 0 1 0 2 2 1 0 1 3 1 0 1 0 2 2 0 0 1 2 0 0 3 0 1 1 2 1 0 2 1 3 0 1 2 4 2 1 1 1 1 1 0 2 0 2 1 0 1 2 2 1 2 1 4 3 1 2 2 2 2 0 1 2 0 0 2 2 1 0 2 2 0 2 1 1 0 1 4 1 1 2 2 1 2 0 1 1 2 1 3 1 1 0 2 2 0 1 1 1 2 1 2 0 1 1 1 2 1 1 1 2 4 2 2 3 1 2 3 3 0 1 3 1 1 1 2 0 1 0 0 2 1 4 2 0 0 2 1 1 0 2 5 1 1 2 2 2 1 0 0 0 1 1 1 2 2 2 2 1 0 2 2 2 1 1 2 2 2 1 2 1 1 1 1 1 0 1 1 3 2 2 2 2 1 1 1 3 1 1 0 2 2 0 1 0 2 0 0 1 2 1 2 0 3 0 4 1 3 4 1 1 0 1 2 1 3 1 1 0 2 1 2 1 1 0 2 0 2 3 1 1 0 0 1 2 0 0 3 2 1 1 2 2 2 0 2 2 2 2 0 2 1 2 2 2 0 1 1 2 3 1 2 1 0 1 1 2 2 1 0 3 1 2 2 1 5 2 2 0 1 1 1 3 1 1 2 1 1 1 1 3 0 0 2 2 3 1 1 2 0 1 1 1 2 1 2 1 2 0 1 2 2 0 0 1 3 1 2 2 2 3 1 0 0 1 1 3 3 3 2 2 1 2 1 2 1 2 0 2 2 1 1 2 1 1 2 2 3 1 1 1 1 2 2 0 0 0 3 2 2 2 1 1 1 4 0 2 2 1 2 1 0 2 2 0 0 1 2 1 2 2 3 1 1 0 0 1 1 2 1 0 2 0 3 1 1 2 1 1 1 0 4 1 2 3 0 1 4 2 3 1 1 3 0 0 2 2 0 2 2 0 3 0 2 2 2 2 1 2 1 3 5 0 2 1 0 2 1 1 3 2 0 0 0 2 3 1 2 1 2 2 1 2 1 0 3 0 1 0 1 1 1 1 0 0 1 2 1 1 2 2 2 1 1 1 0 1 1 1 0 0 4 1 2 2 1 2 1 2 0 1 2 0 1 0 0 0 1 2 3 0 1 1 1 0 0 1 1 2 0 1 0 1 0 4 1 0 2 2 2 2 1 2 1 1 2 0 0 4 0 1 2 1 1 2 1 1 2 0 0 1 2 1 2 1 0 3 1 0 1 1 1 1 3 2 1 1 3 1 2 2 2 0 2 1 0 0 1 3 1 3 4 1 0 0 1 3 1 1 1 2 2 0 1 2 1 1 1 0 2 1 2 1 0 0 2 1 1 0 1 1 3 1 1 2 0 2 2 2 2 2 2 3 3 2 0 1 0 2 2 4 1 2 1 1 2 1 3 2 2 0 1 4 1 1 2 0 1 0 2 2 1 1 2 1 2 3 2 2 3 1 2 3 1 1 1 2 2 3 3 2 1 3 1 2 1 2 0 3 1 3 0 2 1 1 1 1 0 0 1 3 1 2 2 1 2 4 4 0 0 1 1 0 4 1 1 1 1 1 1 5 2 1 0 1 0 1 4 0 0 1 2 1 2 1 1 1 2 0 2 3 0 2 1 0 2 1 4 1 2 1 1 1 0 2 2 1 0 1 1 2 1 0 1 0 3 1 0 3 3 1 0 1 1 0 2 2 1 0 1 1 3 2 2 2 1 1 1 1 1 1 0 0 1 4 4 2 2 1 1 3 1 1 2 3 2 3 2 1 1 1 0 0 0 0 2 1 1 1 2 1 0 0 4 2 2 1 1 1 1 1 1 2 2 1 2 1 2 3 2 2 1 3 0 1 1 1 1 3 4 1 0 0 3 0 0 2 1 2 1 1 2 1 1 1 3 2 3 1 2 1 1 0 3 2 3 1 2 1 3 1 0 2 1 1 2 3 0 3 1 0 3 2 1 2 1 2 0 1 0 2 1 1 5 1 1 3 1 1 1 1 2 0 0 1 1 2 1 1 3 2 0 2 0 0 0 1 1 1 2 2 2 3 1 1 0 3 0 1 1 1 3 2 3 1 1 1 2 1 3 3 1 2 0 2 1 2 2 4 2 2 2 0 2 0 0 1 2 0 1 2 2 3 1 3 1 2 0 1 4 1 3 2 0 2 0 0 2 1 2 2 2 3 3 1 1 2 1 2 0 0 1 2 1 1 1 1 1 2 2 2 0 1 0 1 4 0 3 1 1 0 3 2 0 4 1 3 1 1 0 1 2 1 1 2 3 1 4 2 1 1 2 1 2 2 2 1 1 2 1 2 0 0 2 0 2 2 2 1 2 0 0 0 0 2 3 0 1 2 1 1 1 3 1 1 1 0 0 1 2 3 0 1 3 1 0 1 0 0 1 1 1 0 2 2 3 2 3 0 0 1 0 3 0 1 1 2 2 1 0 3 3 3 1 1 2 3 5 3 1 0 2 4 0 1 0 0 1 2 1 2 0 4 3 2 1 2 1 1 0 3 2 4 1 1 0 1 1 2 1 2 0 2 4 2 1 1 1 2 5 0 4 4 0 1 2 2 1 1 0 2 1 1 1 2 2 3 2 2 2 1 0 0 3 1 1 3 3 2 0 2 1 2 1 1 0 1 3 1 1 0 2 1 0 2 1 1 1 2 1 2 0 1 2 0 2 1 2 1 2 3 1 3 3 3 1 1 1 1 1 0 4 0 1 2 2 0 2 3 0 0 3 1 2 1 3 2 2 2 2 0 2 1 3 2 0 0 1 2 1 1 2 3 1 1 2 1 2 2 1 1 0 0 2 3 0 1 2 1 0 0 1 1 3 2 1 1 1 1 2 0 2 0 1 2 1 3 2 1 0 4 1 1 0 0 1 3 2 1 2 3 2 1 3 2 1 2 1 2 2 0 1 2 2 3 4 1 0 2 0 0 2 1 2 1 2 2 1 0 1 2 2 0 1 0 1 4 1 1 2 1 3 1 3 3 3 2 0 1 1 1 1 3 1 2 0 3 3 1 0 2 3 2 3 1 1 0 2 4 1 2 2 2 0 1 1 2 1 0 1 1 2 2 1 1 4 0 4 2 1 1 1 1 3 1 1 1 0 2 1 0 2 1 4 2 2 0 2 2 2 1 3 2 2 1 1 2 2 1 2 1 1 4 2 1 1 2 1 0 2 1 0 1 0 3 1 1 1 0 1 2 1 1 1 2 1 1 1 1 2 0 2 1 0 2 2 0 2 0 2 1 3 1 2 1 0 1 1 1 2 1 1 3 1 2 3 2 0 1 0 2 2 2 0 1 0 2 0 3 1 0 1 1 0 2 2 0 2 1 1 1 3 1 0 1 1 3 1 0 2 1 1 2 2 2 2 0 1 0 2 2 1 2 2 0 2 1 0 1 2 2 1 2 3 1 0 1 1 0 0 3 2 2 1 2 0 0 2 2 1 1 2 1 1 1 1 4 2 1 2 2 0 2 2 1 2 2 4 1 2 1 1 2 3 1 3 2 1 1 1 0 3 0 2 1 0 1 2 1 1 2 3 1 2 1 0 2 3 2 1 0 0 1 1 2 2 1 2 1 1 2 2 3 0 1 2 1 2 2 0 3 1 1 0 1 1 0 0 2 3 3 2 1 1 0 1 0 1 1 1 2 2 0 1 1 2 1 1 3 1 1 2 1 0 0 1 2 1 1 2 2 1 1 1 3 2 1 1 2 2 2 4 0 1 3 4 2 0 1 2 1 1 3 0 2 0 4 1 2 1 1 1 2 2 1 0 3 2 1 0 0 1 1 1 1 0 0 1 1 3 2 2 1 1 2 0 1 1 0 1 2 2 1 1 1 1 2 3 1 1 1 3 0 0 1 3 3 2 2 2 2 2 2 0 1 3 0 1 2 0 1 1 3 1 1 0 0 4 3 0 2 2 1 1 1 2 1 2 2 1 3 1 1 1 1 2 2 1 2 1 1 2 2 1 2 3 2 2 2 1 1 2 2 3 1 1 3 2 2 3 1 1 1 1 1 1 2 0 3 1 1 3 5 0 0 2 0 2 2 1 1 0 4 1 4 0 2 1 1 2 4 2 1 0 1 1 2 2 2 1 3 0 1 2 1 2 2 1 0 0 1 2 1 1 2 0 2 2 2 2 2 0 2 2 1 1 3 3 1 1 0 0 0 3 1 3 0 1 0 0 2 4 2 1 1 1 2 1 2 2 3 1 0 1 1 2 1 1 1 1 0 0 0 0 2 1 1 2 0 1 1 2 2 2 3 1 4 1 0 1 2 3 1 1 0 3 2 0 2 1 0 3 1 0 0 1 0 0 1 0 0 1 1 2 0 0 1 2 1 4 2 1 3 2 1 3 3 1 3 0 2 1 1 4 3 1 1 1 1 2 2 2 0 2 1 0 2 0 0 3 1 1 1 3 0 1 2 1 1 2 2 1 1 1 2 1 3 3 1 1 1 0 2 1 2 1 1 2 1 1 0 0 1 2 2 0 1 1 1 1 2 2 1 1 4 3 2 0 0 1 1 2 2 2 2 1 1 0 1 0 1 3 0 1 1 2 1 2 0 2 2 1 1 1 2 1 1 1 0 1 1 0 2 1 2 2 1 1 2 1 1 1 1 1 0 2 1 2 2 3 1 0 1 1 2 2 1 3 0 2 1 0 1 1 1 3 3 0 5 1 2 2 3 0 2 3 3 1 0 2 1 4 1 1 0 2 1 1 1 3 2 1 0 2 3 1 0 2 4 0 1 2 1 1 0 1 2 1 0 1 2 0 1 1 0 1 1 1 0 0 0 1 1 2 1 3 1 3 2 2 1 2 2 2 0 1 1 2 1 1 2 2 1 1 1 0 1 1 1 0 1 2 3 0 2 2 0 2 2 1 3 1 3 3 2 4 2 1 2 0 0 2 1 1 3 0 1 3 5 0 2 1 1 3 1 2 1 1 2 2 0 2 2 0 2 3 2 4 1 4 0 2 2 0 1 0 4 0 3 3 2 2 1 1 2 3 2 3 1 2 1 2 3 2 2 2 0 1 2 3 2 1 3 1 1 2 2 1 2 1 0 1 0 1 2 2 1 2 1 2 2 0 3 3 2 2 2 0 2 1 0 1 2 0 1 2 1 2 2 1 2 1 0 1 4 0 0 0 1 0 2 1 1 2 2 1 1 1 2 1 1 1 1 2 3 1 0 2 1 1 1 1 2 1 0 1 3 1 1 2 1 1 2 3 2 1 0 1 2 0 2 2 1 2 1 1 1 1 4 1 2 1 0 1 3 0 2 0 1 1 2 1 2 2 0 1 2 0 2 2 1 3 1 1 1 1 1 1 2 1 1 1 1 2 0 1 1 1 2 1 2 2 1 2 2 1 2 1 0 3 2 2 2 2 1 2 1 1 3 1 1 1 1 2 2 1 2 3 3 1 1 2 2 3 0 1 1 1 2 4 0 3 2 2 1 3 1 3 2 0 2 1 1 1 1 2 1 1 0 1 2 1 2 3 1 1 3 3 2 1 1 1 3 1 1 1 1 0 1 3 3 0 1 2 1 2 1 1 2 2 2 1 1 3 1 3 1 4 2 1 0 1 0 0 1 0 2 0 1 2 2 1 2 0 2 1 0 1 1 1 2 2 2 3 1 0 2 0 0 1 0 2 3 1 1 2 1 1 1 2 1 2 0 2 1 2 2 3 0 3 2 3 1 2 2 2 1 2 2 1 1 1 2 1 1 2 1 3 1 1 1 2 2 1 1 2 2 1 3 1 1 2 1 3 1 2 1 2 0 2 2 1 0 1 1 3 4 3 1 0 1 3 1 3 2 3 2 2 1 4 1 1 0 1 2 2 0 1 3 0 1 2 1 4 1 2 0 1 0 1 1 1 0 1 0 1 0 2 4 1 2 2 3 2 2 1 1 1 1 0 1 0 1 2 4 3 0 1 2 3 1 2 2 3 0 3 3 1 1 3 1 2 1 3 4 3 2 1 2 3 3 1 1 2 2 1 2 0 0 1 3 1 3 1 1 1 1 0 1 0 1 1 2 2 2 1 0 1 0 1 2 2 0 3 0 1 2 0 1 1 2 1 0 2 0 1 3 1 0 2 2 2 1 0 2 1 1 1 0 2 0 0 3 1 1 1 2 1 1 3 0 0 1 0 0 3 2 2 1 2 1 2 0 4 1 1 3 2 4 2 0 1 2 2 2 4 1 2 1 2 0 1 1 0 2 2 3 5 1 1 1 2 2 0 3 1 2 0 0 2 3 1 2 0 2 1 2 2 2 1 0 3 0 2 2 1 1 3 2 1 3 1 2 3 1 2 3 1 1 2 1 1 0 1 0 2 2 2 2 1 1 1 2 2 0 2 2 1 2 0 1 2 1 3 3 6 2 3 1 1 2 0 1 1 1 2 1 1 3 0 1 2 1 1 2 1 2 1 1 2 0 1 3 2 1 1 4 1 2 4 2 2 2 0 2 0 2 1 2 1 3 3 1 1 0 0 0 0 1 1 2 4 2 1 3 0 2 1 1 2 0 1 1 2 0 1 1 0 1 3 3 2 1 1 3 3 2 1 0 2 4 1 2 2 0 0 1 0 2 1 1 1 5 0 0 3 0 0 2 3 4 2 3 1 0 3 0 0 2 0 0 2 0 3 0 0 1 2 5 1 2 0 1 1 1 1 1 1 2 2 1 1 2 1 2 0 2 1 2 2 4 1 1 1 3 2 2 0 0 1 2 1 1 0 2 2 0 0 3 1 1 2 1 1 0 1 3 0 3 1 0 1 2 1 1 1 2 2 1 1 2 3 2 0 3 0 1 2 1 1 2 1 1 1 0 1 2 1 1 0 0 0 4 2 1 0 0 1 1 2 1 1 2 1 2 2 1 2 1 3 2 2 3 0 0 3 0 2 1 1 0 1 0 2 0 0 1 3 4 1 2 3 1 1 2 2 1 1 2 1 0 1 1 0 3 1 0 1 0 1 1 0 1 2 4 2 1 4 1 2 2 0 1 0 2 1 1 1 0 1 3 1 1 2 1 1 1 1 2 1 2 2 1 1 1 0 4 3 2 1 1 2 2 0 1 0 0 2 0 3 2 1 0 2 3 2 1 2 0 1 2 2 2 2 1 1 1 0 1 2 1 2 1 3 2 3 1 4 2 2 1 1 3 2 1 0 1 1 0 1 1 1 0 0 0 2 0 2</t>
-  </si>
-  <si>
-    <t>GAM(0.31944813068399625, -2.417981441421523e-27, 0.6902146209105756)</t>
-  </si>
-  <si>
-    <t>0 0 1 1 2 0 0 3 0 1 2 2 1 0 0 0 0 0 0 0 0 0 1 0 1 0 2 0 0 0 0 1 1 1 1 0 0 2 1 0 2 0 2 1 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 0 1 0 2 0 2 0 0 0 0 2 0 2 0 2 0 0 0 2 0 1 0 1 0 0 0 0 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 2 0 0 0 1 1 0 0 0 1 0 1 0 3 1 0 2 0 1 0 0 0 1 1 0 0 2 0 1 1 1 0 0 0 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 1 0 0 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 1 1 2 0 0 1 1 0 1 2 0 1 0 0 1 2 0 1 0 0 1 1 0 0 1 1 0 0 0 0 1 0 1 1 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 1 0 0 0 0 0 2 1 2 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 2 0 3 1 0 1 0 0 1 0 0 1 1 0 1 0 2 0 0 0 2 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 2 1 1 0 0 0 0 0 0 2 1 0 0 0 2 0 0 1 1 2 0 1 0 0 1 0 0 1 0 0 1 0 0 0 1 1 2 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 2 0 0 0 0 1 0 0 0 1 2 0 0 1 2 0 1 0 1 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 1 1 1 0 0 0 0 1 2 1 0 0 0 0 0 0 1 1 1 2 0 2 0 1 0 0 1 0 1 2 0 0 0 1 0 1 0 1 0 0 1 2 1 0 2 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 1 0 1 0 1 3 2 0 2 1 2 0 0 0 0 2 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 0 1 0 2 0 0 3 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 1 2 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 4 1 2 0 2 0 0 0 1 1 0 1 0 1 0 0 0 1 0 0 2 1 1 0 0 1 2 0 0 0 0 2 0 0 0 2 3 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 0 0 0 2 1 0 1 2 3 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 2 1 0 0 2 1 0 1 1 1 0 1 0 1 4 0 0 0 1 1 0 1 0 0 0 0 0 2 1 0 0 2 1 1 0 2 0 1 1 1 0 0 0 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 1 0 0 1 0 2 0 0 1 0 0 0 1 1 0 0 1 0 0 0 0 0 2 1 1 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 1 2 1 0 0 1 0 1 0 2 2 0 0 0 0 1 1 2 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 2 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 2 1 0 2 1 1 2 0 1 0 0 2 2 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 2 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 0 1 0 1 0 0 0 2 1 1 1 0 0 1 0 1 2 0 0 0 0 0 0 1 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 2 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 2 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 1 3 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 0 1 1 0 2 0 1 0 0 0 2 0 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 1 0 0 0 0 0 0 0 0 1 0 0 1 0 2 2 0 0 0 2 1 0 2 0 0 0 0 1 0 2 2 1 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 3 2 1 0 0 0 0 0 1 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 2 0 2 0 1 1 1 0 0 1 2 0 1 0 1 0 0 0 0 1 1 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 1 0 0 1 0 0 2 0 1 0 1 0 0 0 0 2 1 0 0 1 0 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 1 1 1 1 1 0 1 0 1 1 0 0 0 1 2 2 1 0 0 0 3 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 3 1 0 0 0 1 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 3 1 1 0 1 2 0 1 1 0 0 2 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 0 0 0 1 0 1 1 1 0 0 2 1 0 1 0 1 0 0 0 0 1 0 1 1 0 0 1 1 0 3 0 0 2 0 0 0 0 0 2 2 1 2 0 0 1 1 2 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 1 2 1 0 1 3 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 2 0 1 0 0 1 0 1 0 1 0 0 0 2 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 4 0 1 0 0 0 0 1 0 0 0 1 0 2 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 1 0 2 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 0 1 1 2 0 1 0 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 0 0 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 1 1 0 0 0 1 0 1 1 0 0 0 2 1 0 0 0 1 0 2 2 1 1 1 0 0 1 0 1 1 0 0 1 2 2 0 2 3 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 1 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 2 1 1 0 1 0 1 0 0 0 0 1 0 1 2 0 0 1 2 1 0 0 0 1 2 0 0 0 1 0 0 1 0 1 1 0 1 0 0 1 1 1 0 2 0 0 0 2 0 0 0 0 1 2 0 1 1 0 0 0 1 0 2 1 0 1 1 0 0 1 0 0 1 0 1 1 2 0 0 0 0 1 0 0 1 0 1 2 0 0 0 0 0 0 1 0 0 0 2 0 1 0 1 1 0 1 0 1 0 3 0 1 0 0 3 0 1 0 0 0 0 0 1 0 1 1 2 0 0 1 0 1 0 1 0 0 2 0 1 0 0 0 0 1 3 2 0 1 2 0 0 2 1 0 2 0 0 1 0 1 1 0 1 1 0 1 0 0 1 0 0 0 1 2 1 0 1 1 0 0 1 1 2 1 0 1 1 2 0 1 0 2 1 0 0 0 1 0 1 0 2 1 2 0 0 0 0 0 0 0 1 0 0 2 0 3 0 1 0 0 0 1 1 1 0 1 0 0 2 1 0 0 0 0 1 0 1 2 0 2 0 0 0 0 1 0 0 0 0 1 1 0 1 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 1 0 0 2 0 0 2 0 0 1 1 0 1 1 3 1 0 0 1 2 1 0 0 0 0 0 0 1 0 1 2 0 0 0 1 0 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 1 0 1 0 1 1 1 1 1 0 1 0 0 1 0 0 1 0 0 1 1 0 2 1 0 1 0 0 1 0 0 1 1 0 1 1 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 2 1 0 0 0 0 2 2 1 0 0 0 1 0 0 1 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 2 0 1 1 2 2 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 1 1 1 1 0 0 0 2 0 0 1 0 0 0 0 0 0 1 1 0 1 0 1 0 2 0 3 0 0 2 1 0 0 0 1 1 0 0 1 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 1 1 0 1 1 0 2 1 0 1 0 0 0 0 0 0 3 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 2 0 2 0 1 0 0 0 1 0 0 1 0 1 0 2 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 2 1 0 1 1 0 0 1 0 1 0 1 0 0 0 2 2 0 0 0 0 1 0 1 1 0 0 1 2 1 0 0 0 3 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 1 0 0 0 2 0 0 0 0 2 1 0 0 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 1 0 0 2 0 0 1 0 0 2 0 2 1 0 1 0 0 0 1 1 0 1 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 1 0 0 0 0 1 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 0 0 2 0 0 0 0 1 1 0 0 2 1 1 0 0 0 2 1 0 0 2 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 1 2 0 0 1 1 2 0 1 0 0 0 1 1 0 0 1 0 1 1 0 1 0 0 1 1 0 2 0 0 1 0 0 2 0 0 1 1 0 0 0 0 0 0 1 1 0 0 0 1 0 3 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 0 0 2 1 0 0 0 0 0 2 0 2 0 0 0 1 0 1 1 1 0 0 0 1 0 1 0 0 0 0 0 2 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 0 0 1 0 0 1 1 1 1 0 0 3 0 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 1 0 0 0 0 1 0 1 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 3 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 1 2 0 2 0 1 1 0 0 1 0 0 0 2 2 0 1 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 1 2 1 0 0 1 0 0 1 1 1 0 1 0 2 0 0 1 0 1 0 1 0 0 0 1 1 1 0 0 0 0 0 0 0 0 2 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 2 0 0 0 0 1 0 0 0 1 0 1 1 2 2 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 1 3 0 0 2 0 0 0 3 1 1 1 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 1 1 1 0 3 0 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 1 1 1 0 0 1 1 0 0 0 0 0 0 1 2 0 1 1 0 0 0 0 1 2 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 2 1 1 1 0 1 1 0 0 3 0 1 1 1 1 0 0 1 0 1 2 0 1 2 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 2 0 1 1 0 0 1 0 0 2 0 0 0 0 1 0 0 1 1 1 0 0 1 1 1 0 0 2 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 1 0 2 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 1 0 1 1 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 0 1 3 1 0 1 0 0 0 0 1 0 0 1 2 0 1 1 0 0 0 0 0 1 0 0 1 2 0 0 1 1 2 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 1 2 2 0 1 1 1 2 0 1 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 2 1 0 1 1 1 0 0 0 0 1 0 1 0 1 1 1 0 2 0 0 2 2 0 0 0 2 0 1 1 0 0 2 1 0 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 2 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 3 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 2 1 3 2 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 1 1 2 1 0 0 1 0 1 0 0 0 0 2 0 0 1 1 0 0 0 0 3 0 2 1 1 1 0 1 2 1 0 0 1 0 0 1 1 2 1 0 0 2 0 1 0 0 0 1 2 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 0 1 0 0 1 1 0 0 0 1 1 2 0 0 1 0 1 2 1 2 0 2 1 0 0 1 1 0 1 2 0 0 0 1 0 1 1 1 0 0 0 0 2 0 0 0 1 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 3 1 1 1 0 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 2 0 0 1 1 0 0 1 1 1 0 1 0 0 1 0 0 0 2 1 1 0 0 0 1 0 1 0 0 0 0 2 0 0 0 0 0 1 1 0 0 1 0 0 1 0 1 2 0 2 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 1 0 3 0 0 2 1 1 1 1 1 1 0 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 1 1 0 0 0 3 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 0 0 2 0 3 0 0 1 0 0 1 0 1 1 2 0 1 0 0 1 0 1 1 1 1 1 0 1 0 2 0 2 0 0 1 1 0 0 1 0 0 0 0 2 1 1 2 1 2 0 1 2 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 1 0 1 2 1 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 1 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 2 0 1 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 1 0 0 1 1 1 0 0 0 1 0 0 0 2 0 0 0 1 2 1 1 1 0 0 0 1 0 2 0 0 0 2 0 0 1 0 1 1 1 1 0 0 0 0 0 0 2 0 1 2 0 0 0 0 0 0 2 1 0 0 2 0 1 0 0 0 0 0 1 0 1 1 0 0 0 0 1 1 1 3 0 2 2 2 0 1 1 0 0 0 0 0 0 1 0 0 0 0 2 2 0 0 0 0 1 0 0 1 2 0 0 0 1 0 1 1 0 1 0 0 0 1 1 0 0 2 1 1 0 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 1 0 1 0 1 0 0 1 3 1 2 1 2 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 1 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 1 0 0 1 1 0 0 2 1 0 0 0 1 0 0 2 2 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 1 4 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 0 0 0 1 1 0 0 0 0 0 1 0 1 1 0 0 0 2 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 1 0 0 1 2 0 0 2 0 2 1 3 1 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 1 1 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 1 1 0 1 2 0 0 1 1 2 0 0 0 0 0 1 1 0 2 0 0 0 2 1 0 1 1 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 1 2 1 0 0 1 1 0 1 0 0 2 1 1 0 0 0 1 0 1 0 1 1 0 0 1 1 0 0 1 0 0 0 0 1 0 2 1 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 1 0 1 0 0 2 0 1 0 1 2 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 3 1 0 1 1 1 0 0 1 0 1 0 0 0 2 0 2 0 0 0 0 0 0 1 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 2 0 1 1 1 0 0 1 1 1 0 0 1 0 0 0 3 0 0 2 0 1 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 2 0 1 0 0 0 1 0 1 2 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 0 0 1 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 1 2 2 1 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 2 0 0 1 0 1 1 0 2 1 2 0 0 0 1 0 0 0 0 1 1 0 2 1 2 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 1 1 0 0 0 0 2 1 1 2 0 1 0 0 1 3 0 0 0 0 1 0 0 0 0 0 0 0 0 1 1 1 2 2 0 0 0 0 0 1 0 1 1 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 0 0 2 0 0 0 0 3 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 0 3 0 0 0 0 0 0 1 1 1 0 3 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 1 2 2 1 0 0 0 2 1 0 0 2 1 0 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 2 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 1 2 1 0 0 1 0 2 1 2 1 0 2 0 0 0 0 0 0 1 0 2 0 0 0 0 2 1 1 1 2 0 1 0 2 1 0 0 1 1 0 0 1 0 0 0 1 2 0 1 2 1 0 0 0 1 1 0 2 1 1 0 0 2 0 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 1 1 0 2 1 1 0 0 1 1 1 1 0 0 0 1 0 0 0 1 2 0 0 2 3 0 1 0 0 0 1 0 0 0 0 1 0 1 0 1 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 3 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 1 1 2 0 0 0 1 0 2 1 0 0 0 1 3 2 0 1 1 1 0 1 0 0 0 2 2 1 0 0 0 1 1 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 0 0 1 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 1 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 3 0 0 0 1 1 1 2 1 0 0 0 1 0 1 0 0 0 1 1 0 0 2 1 1 0 0 1 2 0 0 0 2 1 0 0 0 1 0 0 0 0 1 1 0 0 2 0 1 0 0 0 0 1 1 0 1 3 1 1 1 0 0 0 1 0 2 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 3 0 0 0 0 2 0 0 1 0 0 1 0 0 0 1 0 1 0 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 2 2 1 0 0 1 1 0 0 1 0 0 2 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 0 0 1 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 2 0 0 0 0 1 1 0 1 0 1 1 0 1 1 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 0 0 1 2 0 1 1 0 1 0 1 0 0 0 1 1 0 1 0 0 1 0 1 2 0 1 1 1 0 0 1 0 1 0 0 2 0 0 0 0 1 0 3 0 1 0 1 0 1 0 1 0 1 0 1 0 0 0 0 2 0 0 0 1 2 0 1 0 1 0 2 1 0 0 0 2 1 0 0 0 0 0 0 1 0 2 0 0 1 1 1 1 0 2 0 1 0 1 0 1 0 0 0 1 0 0 1 0 1 2 1 0 1 0 0 0 1 1 0 0 0 1 1 1 1 1 0 0 0 0 1 0 0 2 0 1 0 0 0 1 1 0 2 1 1 2 1 0 0 1 1 1 2 0 1 0 0 0 2 0 2 0 0 0 0 0 0 1 2 0 0 1 0 0 1 2 0 2 0 0 2 2 1 1 2 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 1 0 1 0 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 1 1 1 1 0 0 1 0 1 0 1 0 0 0 0 2 1 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 1 0 0 0 2 1 0 1 1 1 1 0 2 0 0 1 0 1 0 1 1 0 1 0 0 1 1 1 2 1 0 0 0 0 1 2 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 0 1 1 1 0 0 0 2 0 0 0 2 0 1 0 0 1 0 0 3 1 0 0 0 0 1 1 0 2 1 2 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 0 0 2 2 0 0 1 1 0 0 1 1 1 1 2 0 2 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 2 1 0 0 0 0 1 1 0 0 0 1 1 0 1 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 2 1 0 1 0 2 2 0 0 0 0 1 0 0 1 1 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 1 0 0 1 1 1 2 0 3 1 0 0 0 0 0 1 1 0 0 1 0 0 0 0 0 0 0 2 1 1 0 0 2 1 0 1 1 0 1 0 0 2 0 1 0 0 0 1 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 2 2 0 1 0 0 1 0 0 1 0 1 0 1 0 0 0 2 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 2 1 3 1 1 0 1 0 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 0 0 0 1 1 0 0 0 0 2 0 1 0 1 1 0 0 1 0 0 0 0 0 0 0 1 0 1 3 1 0 2 1 0 1 0 0 1 1 1 1 1 0 1 0 0 1 0 1 0 2 1 2 1 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 0 1 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 1 1 1 0 0 0 1 2 0 0 0 1 0 0 0 2 0 1 0 1 0 2 0 0 0 0 0 1 1 1 2 1 1 0 2 0 0 0 1 0 0 0 1 0 0 0 0 1 1 1 0 0 1 1 0 0 0 1 2 0 1 0 1 1 1 1 0 0 0 0 3 1 0 0 0 1 0 0 0 0 2 0 0 1 1 0 1 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 2 0 1 0 0 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 0 2 0 0 0 1 1 2 1 0 2 2 2 0 0 1 0 1 0 1 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 1 0 0 0 1 1 0 0 1 1 1 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 1 0 0 1 0 0 1 1 1 0 0 2 0 1 0 0 2 0 0 1 2 0 1 0 0 0 0 0 0 0 1 0 1 0 2 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 0 2 1 1 0 0 0 1 1 0 0 1 0 0 0 1 1 3 1 1 5 0 1 2 0 0 1 2 0 1 1 0 1 0 1 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 1 0 1 0 0 0 2 2 1 0 0 0 0 0 0 0 1 0 1 2 0 0 0 0 0 1 0 0 0 1 0 0 1 1 1 0 0 0 1 0 1 0 0 0 1 0 1 1 0 0 1 1 0 0 0 0 1 3 0 0 0 0 0 0 0 1 1 1 0 1 2 1 2 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 1 1 0 0 1 0 0 0 0 0 0 1 0 1 0 0 1 1 1 0 0 0 2 1 0 1 0 0 1 1 0 1 1 1 0 1 0 0 1 0 1 1 1 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 2 0 1 0 0 1 0 0 0 0 2 1 1 0 3 1 0 0 0 0 0 2 1 1 2 0 0 2 1 2 0 0 0 2 1 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 0 1 0 2 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 2 0 0 0 0 1 1 2 0 2 0 1 0 0 1 0 0 0 2 2 1 0 0 0 0 0 0 0 0 1 0 0 0 0 2 0 2 1 1 0 1 0 0 1 1 0 2 1 0 0 0 0 1 0 0 0 1 1 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 0 1 1 1 1 0 0 0 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 3 0 1 0 1 1 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 0 0 1 1 1 0 1 2 2 0 0 1 1 0 0 0 0 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 2 2 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 1 3 0 0 0 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 2 1 0 1 2 1 0 0 1 0 0 0 1 1 0 1 1 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 1 1 0 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 3 0 2 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 1 1 1 0 0 0 0 1 0 1 1 0 0 1 0 1 0 1 0 0 0 0 1 0 0 2 0 1 0 0 0 2 0 0 0 0 1 1 0 1 0 0 0 0 1 0 1 1 1 0 0 1 1 0 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 1 2 2 1 0 1 1 0 1 3 0 1 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 0 3 3 0 1 1 1 0 1 0 1 2 1 0 0 0 0 0 0 3 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 4 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 1 1 0 0 0 2 0 1 1 0 2 0 3 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 1 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 2 0 0 0 2 0 1 0 0 0 1 3 2 3 0 0 0 0 0 1 1 0 1 0 0 1 1 2 0 1 1 1 1 0 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 0 0 0 2 1 0 0 2 0 0 1 0 1 1 1 0 0 1 0 1 0 2 1 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 0 2 0 0 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 0 1 1 3 0 0 0 3 0 0 0 0 0 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 1 1 0 1 0 0 0 0 0 0 0 0 0 2 0 1 2 1 0 0 1 0 0 1 1 1 1 1 1 0 1 0 0 0 1 0 0 0 2 0 0 0 0 2 0 0 2 1 1 2 0 0 0 0 0 0 0 0 0 0 1 1 0 1 0 0 1 2 0 0 1 0 0 2 0 1 2 0 0 0 2 0 1 0 0 1 0 0 0 2 1 0 0 0 0 1 0 0 0 0 0 1 1 1 1 0 0 0 0 0 0 1 0 2 1 0 0 0 1 1 0 0 1 0 1 0 2 2 0 0 0 0 1 0 1 0 0 0 0 0 0 1 1 0 0 1 1 1 0 0 0 0 1 0 1 0 1 0 2 1 0 1 0 2 2 0 0 1 0 0 0 0 0 1 0 0 0 0 1 2 0 0 2 1 1 0 1 0 1 0 1 0 2 1 1 0 1 0 0 0 1 0 0 0 1 1 0 0 0 1 1 0 0 2 1 1 2 0 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 2 0 1 0 0 0 0 0 1 1 0 1 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 3 0 0 0 1 0 1 0 1 0 1 0 1 2 0 0 0 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 0 0 1 3 0 1 0 0 1 0 0 0 1 0 0 0 1 1 0 1 0 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 2 0 0 1 0 0 0 0 0 1 0 1 1 0 0 1 1 1 0 0 0 0 1 1 0 0 0 1 3 0 0 0 0 0 0 1 1 3 1 0 0 1 0 0 1 2 0 1 0 0 1 0 1 1 1 0 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 0 1 0 0 0 2 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 1 0 0 0 1 0 0 0 0 2 1 1 0 0 0 2 0 2 0 0 1 1 1 0 0 0 1 0 0 0 2 0 0 2 1 0 0 0 0 1 1 1 1 0 0 3 0 1 0 1 2 0 0 2 1 0 1 0 0 0 1 0 0 1 1 0 2 0 0 1 0 0 0 0 2 1 0 1 1 0 1 0 0 0 0 0 1 0 0 0 1 1 1 2 0 0 1 3 0 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 1 1 2 0 0 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 0 0 0 1 1 0 2 0 1 0 2 0 0 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 0 0 0 0 2 1 2 0 1 0 1 0 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 0 0 1 1 2 1 0 2 1 0 0 1 0 0 0 2 2 2 2 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 3 0 2 0 0 0 1 2 0 0 0 0 0 1 1 1 1 1 0 2 2 2 1 1 0 1 2 0 2 0 0 0 1 0 1 1 1 1 0 0 0 2 2 0 0 1 0 1 0 1 0 1 0 0 1 0 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 1 1 1 0 0 0 1 0 0 1 1 0 0 1 0 1 1 1 0 0 1 0 1 1 1 0 0 0 1 1 0 0 0 0 1 1 1 0 1 1 1 0 0 3 0 0 1 1 1 0 1 1 1 0 0 0 2 0 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 3 1 0 1 1 1 0 0 0 0 1 0 0 0 1 0 2 0 0 2 1 1 0 0 1 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 2 0 1 0 0 1 1 0 0 2 0 0 1 0 0 0 0 0 0 0 0 1 0 1 0 2 1 1 0 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 0 1 1 1 0 4 0 1 1 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 2 1 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 0 1 0 0 0 1 1 0 0 0 0 3 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 1 1 0 0 2 1 0 0 0 0 0 0 2 0 0 0 0 0 2 0 1 1 1 1 0 0 0 1 0 0 1 1 0 2 0 3 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 0 2 0 0 1 0 0 2 0 0 0 0 0 2 1 2 0 1 0 0 1 0 0 0 2 0 1 0 1 2 2 2 0 0 0 1 0 1 1 1 0 1 1 0 2 0 1 0 0 0 0 0 0 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 1 1 1 0 1 1 1 0 0 2 0 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 2 0 0 0 0 0 0 0 0 1 0 4 0 0 1 2 1 0 1 0 0 1 0 0 0 0 1 1 0 0 2 1 0 1 1 1 0 0 0 1 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 1 0 1 1 0 0 0 2 1 0 1 1 1 2 1 1 0 0 0 0 0 0 1 0 3 1 2 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 1 0 1 0 1 2 2 1 1 0 0 0 1 2 0 2 1 0 0 0 0 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 0 2 0 2 1 2 0 0 0 0 0 1 1 1 1 0 0 1 0 0 0 2 1 1 0 0 1 1 1 0 0 2 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 2 0 1 1 1 0 1 2 1 0 0 0 0 1 0 1 2 0 0 1 0 0 3 0 1 0 0 1 0 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 1 0 1 2 2 0 0 1 0 1 1 0 0 1 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 3 0 2 0 3 1 1 0 1 2 1 1 0 0 0 1 0 0 0 0 0 0 0 1 2 1 1 1 1 1 2 1 1 0 0 0 0 1 0 2 0 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 3 0 0 0 0 0 0 0 2 0 0 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 2 1 1 1 0 0 1 0 1 0 0 0 2</t>
-  </si>
-  <si>
-    <t>FTL(0.17649952067352348, -106.99166227009252, 190.04637290355402)</t>
-  </si>
-  <si>
-    <t>120 57 149 106 145 60 66 40 138 77 29 119 114 93 92 116 90 106 82 49 96 57 48 86 95 70 100 79 57 127 84 54 28 73 101 114 139 64 52 71 97 94 74 81 101 41 111 105 154 43 82 92 108 24 123 76 67 71 54 41 106 84 61 61 127 70 125 104 114 100 116 92 79 91 75 140 125 109 128 71 68 47 95 151 69 77 79 72 74 124 105 122 79 116 99 65 132 48 37 67 152 106 115 119 85 119 62 80 89 106 113 74 101 84 66 41 122 87 123 58 183 105 136 98 69 76 1 67 111 116 77 153 36 66 118 90 197 125 120 90 64 33 113 97 30 84 77 102 15 96 35 76 147 124 46 76 59 83 40 41 98 116 128 116 114 82 34 108 120 105 109 118 81 89 79 47 107 84 113 65 54 127 84 60 89 70 63 64 79 94 82 85 117 16 55 102 43 91 139 97 64 65 74 64 86 66 61 88 111 58 129 62 145 73 74 5 119 178 73 103 93 53 60 117 81 57 30 100 101 71 156 93 96 141 68 110 130 73 156 111 91 137 114 51 75 98 61 66 81 121 88 111 78 87 43 136 27 66 127 107 72 80 130 80 211 114 92 90 34 177 84 69 75 49 57 29 75 89 1 60 90 93 138 66 83 109 62 123 83 102 119 93 102 27 125 59 55 115 32 69 91 65 10 120 120 53 236 71 89 152 68 64 151 135 163 136 113 90 72 93 52 63 63 66 78 68 100 60 105 47 90 54 166 93 52 84 70 82 155 45 107 85 56 87 131 73 70 27 96 84 135 84 78 32 32 109 98 80 76 75 116 79 72 161 102 94 67 126 46 107 60 54 64 123 48 35 88 86 52 67 135 125 85 116 60 77 86 81 68 64 50 61 106 63 58 21 83 102 40 71 117 39 100 141 34 91 26 109 111 65 47 101 50 89 188 50 144 69 54 58 80 61 91 72 54 87 94 73 114 58 124 106 47 95 149 111 116 55 175 79 65 77 136 97 71 69 39 105 163 56 119 76 95 123 166 92 69 132 142 59 66 75 77 106 72 106 42 39 62 143 78 95 108 72 23 85 47 57 126 76 77 82 157 32 151 44 76 132 94 68 67 56 112 74 81 55 209 73 99 137 84 95 53 99 143 91 87 96 89 122 118 55 61 108 95 141 116 66 96 146 156 47 61 88 87 95 117 114 44 83 68 122 70 58 121 132 94 120 130 111 67 137 144 119 44 85 93 73 63 172 141 69 64 95 97 90 50 121 67 77 107 73 69 102 89 50 133 57 13 123 78 88 95 96 70 57 103 70 77 122 98 94 104 129 42 50 70 89 98 113 39 100 87 103 76 109 125 109 93 60 81 32 123 46 16 132 26 154 70 78 67 82 153 79 81 88 122 68 95 33 123 66 87 117 75 149 109 52 93 107 119 108 90 99 131 24 92 33 42 90 50 86 71 58 60 40 108 85 149 76 86 98 95 75 94 60 93 136 27 88 57 117 120 84 123 139 111 62 106 32 45 114 56 56 74 91 100 85 72 73 92 96 159 102 11 81 36 128 96 105 17 61 81 94 108 95 161 58 11 63 121 106 119 78 54 94 39 46 60 94 49 98 62 73 91 67 101 101 73 144 139 97 50 73 117 65 160 74 103 66 87 78 92 72 112 54 77 39 86 89 86 103 88 89 100 55 92 122 93 115 62 119 66 72 73 114 65 70 104 94 31 63 32 73 107 182 44 117 33 117 96 71 61 98 59 50 96 72 104 90 164 90 151 81 64 48 43 111 45 82 46 151 104 149 39 140 51 160 128 38 120 61 69 61 119 91 61 105 73 82 169 85 145 35 107 90 61 76 148 70 72 34 88 66 35 53 154 85 93 76 74 95 147 80 75 139 139 92 135 64 83 26 144 85 72 134 112 42 33 93 70 89 57 66 128 113 93 127 92 73 89 72 123 69 100 151 149 79 130 105 68 76 106 82 80 32 184 25 54 99 72 28 154 55 55 87 66 92 36 145 70 140 105 86 143 146 84 85 24 176 143 85 95 144 54 97 54 79 110 78 76 70 156 107 66 63 15 64 8 43 60 57 58 89 151 154 119 38 118 43 107 82 65 82 53 60 126 44 61 63 94 135 96 41 126 45 81 55 127 159 33 56 96 75 109 84 74 95 111 51 83 55 140 96 74 40 35 53 40 71 29 67 67 95 102 85 87 97 63 97 177 100 113 116 59 47 73 66 99 185 36 100 73 177 86 85 68 86 9 61 51 165 111 94 122 123 42 129 62 148 52 92 66 87 58 110 52 76 96 81 112 127 85 97 30 83 55 58 147 73 107 32 86 71 86 53 72 69 217 57 118 92 71 67 159 38 96 135 95 105 100 158 154 119 54 128 38 62 150 83 72 98 108 116 126 101 52 50 170 83 100 110 121 150 112 108 56 122 86 143 57 85 94 40 126 61 99 128 138 120 199 124 79 67 83 70 86 45 76 94 101 132 69 108 75 121 120 99 76 79 70 85 147 110 55 115 49 115 36 34 108 30 93 57 129 89 73 69 66 77 131 92 125 90 53 38 159 116 113 72 65 62 30 84 80 101 123 107 88 74 37 87 45 35 57 91 116 79 131 105 63 79 62 143 106 71 12 98 70 85 116 55 114 141 67 94 94 37 37 179 15 60 50 199 24 41 77 92 37 153 39 71 117 93 34 59 134 28 69 46 84 94 76 63 94 52 57 86 47 80 40 40 123 84 75 101 148 49 54 134 53 75 54 102 110 154 48 83 93 75 177 121 71 75 76 120 117 77 52 41 91 74 86 58 16 106 96 114 95 21 40 89 86 129 151 111 137 36 57 137 178 59 57 87 81 99 83 64 94 71 154 38 56 62 168 80 40 132 99 104 59 131 53 134 7 67 45 109 48 135 105 94 57 148 87 119 82 156 117 80 51 102 76 134 56 67 79 87 137 83 52 16 80 71 129 122 66 77 123 80 98 49 94 110 113 107 51 86 55 67 71 50 70 103 92 126 113 47 55 70 15 55 145 43 114 156 99 90 86 103 66 86 69 49 82 64 111 87 39 45 70 44 111 53 92 57 57 35 76 126 89 100 36 97 60 37 87 81 53 46 85 72 77 123 107 58 121 109 74 42 104 41 129 74 179 97 59 75 97 87 56 69 122 84 64 75 53 64 82 122 86 61 109 98 111 111 135 122 74 171 98 89 85 149 128 96 89 88 128 14 92 105 122 121 72 51 64 67 46 77 83 31 54 104 114 90 130 71 110 45 118 45 72 115 161 91 51 57 123 115 84 68 110 10 41 123 105 114 23 97 115 83 87 124 83 61 211 38 104 25 94 142 101 82 112 83 59 49 87 61 113 46 102 83 71 63 93 70 143 215 111 112 80 121 133 73 101 106 67 51 90 56 117 160 94 141 134 103 74 78 58 50 79 76 71 94 93 22 68 55 33 76 120 52 81 85 56 101 103 60 62 116 89 25 91 122 163 62 90 60 63 127 124 159 115 108 111 53 68 109 72 106 66 64 70 103 28 92 86 109 94 31 66 58 125 137 106 152 45 157 59 81 100 76 34 87 74 56 127 76 77 83 123 49 99 96 72 103 27 53 19 48 109 2 108 81 43 57 111 42 82 134 144 62 115 80 84 64 81 78 100 88 128 142 135 78 78 79 99 50 47 121 71 64 89 58 83 176 59 84 106 127 144 59 118 111 91 79 53 74 48 72 60 60 26 108 126 112 139 44 44 74 74 69 97 48 131 47 93 80 95 76 31 69 91 48 76 144 85 155 100 126 95 73 42 156 58 52 160 42 97 44 96 21 49 46 72 21 24 90 45 81 82 157 55 68 102 85 123 143 37 61 50 37 69 27 48 112 91 146 113 92 116 117 60 53 80 70 63 68 21 102 58 110 83 80 77 78 43 84 68 93 103 101 122 37 91 69 59 106 64 94 129 85 45 69 67 161 80 40 104 105 68 89 84 44 53 76 78 90 9 108 98 132 116 38 70 55 60 125 44 48 65 94 132 130 57 90 104 140 41 94 101 169 118 102 136 51 120 50 88 95 116 127 84 76 130 56 56 63 33 89 79 117 175 96 60 100 60 147 76 148 38 100 94 91 80 67 48 135 53 82 77 81 140 64 74 100 68 188 43 76 76 84 63 92 53 100 105 126 55 157 58 112 60 111 68 74 102 54 167 97 69 79 54 80 79 98 105 110 166 89 128 130 87 118 58 61 93 61 88 81 105 115 119 125 72 68 111 80 78 60 24 62 29 49 96 79 76 70 46 62 59 86 81 80 53 18 56 98 57 132 147 53 101 74 121 53 95 58 68 77 51 88 214 118 72 138 75 136 92 102 151 102 79 81 108 114 75 107 90 94 90 53 112 44 48 74 139 86 80 78 73 93 103 122 129 30 117 70 54 189 87 139 54 41 68 89 75 61 104 65 89 75 65 78 142 108 86 157 82 104 43 170 104 55 84 81 26 131 107 101 53 50 100 58 127 73 59 81 50 103 71 44 92 110 70 99 161 64 117 120 126 41 122 111 29 162 146 27 90 93 48 130 81 119 64 67 82 67 150 154 41 36 90 60 57 87 97 67 110 103 139 159 47 84 122 96 107 88 51 71 79 114 75 36 93 129 165 84 53 98 21 103 108 66 46 64 83 97 105 109 117 32 121 92 98 76 112 50 122 45 72 104 49 103 50 125 81 121 99 66 66 50 61 103 89 59 85 61 69 83 126 96 72 64 76 145 93 102 56 147 93 57 57 75 112 97 110 107 64 103 17 91 83 28 53 81 80 80 58 97 73 129 42 55 107 103 54 126 152 61 33 51 105 127 58 90 133 149 64 110 63 93 100 67 36 25 70 134 86 60 65 100 140 68 65 113 117 150 87 61 94 35 126 115 70 107 60 121 89 9 110 81 43 61 123 83 77 124 77 75 148 34 83 162 113 105 93 179 87 87 80 124 93 91 107 81 49 146 98 91 81 89 86 71 63 75 82 129 80 101 81 67 89 83 193 79 148 109 24 156 170 78 78 93 118 68 88 51 71 99 108 47 123 49 100 58 97 64 60 79 89 82 98 123 56 152 122 78 42 104 110 90 79 41 113 73 91 49 69 123 107 86 51 109 108 103 103 62 114 90 122 110 88 35 149 30 59 118 100 52 31 64 75 64 139 58 178 146 52 149 122 116 92 45 112 97 51 64 101 16 83 69 90 46 84 62 52 38 98 66 88 69 138 123 108 92 103 126 110 104 108 57 63 94 90 64 89 60 65 90 114 33 72 106 66 91 34 97 123 61 76 94 75 66 45 69 81 86 147 106 82 120 94 73 47 104 90 125 54 29 38 95 32 124 159 122 86 127 103 62 59 97 127 68 56 76 51 64 48 79 120 71 70 30 137 106 77 122 71 89 93 140 78 138 52 90 70 114 62 115 70 73 80 76 71 50 75 33 132 119 84 73 94 103 59 55 63 48 77 81 105 21 90 36 63 47 77 177 51 38 42 54 154 76 56 135 112 125 66 88 60 86 98 72 73 110 86 87 85 85 121 140 19 58 117 93 59 77 102 40 48 69 133 23 176 90 57 134 54 107 80 144 42 48 62 91 154 38 71 51 109 75 39 127 90 49 72 83 112 100 101 51 74 89 47 78 23 97 126 99 85 139 60 54 53 73 88 125 115 62 59 146 24 145 52 95 35 67 90 73 56 111 70 86 72 69 106 60 99 129 84 61 69 76 42 62 99 99 63 94 154 71 130 99 99 74 106 113 85 83 25 88 75 48 68 89 85 69 114 94 155 47 71 58 96 88 74 60 70 63 25 67 129 84 90 33 124 75 66 106 102 59 63 66 107 64 67 72 39 129 72 73 91 80 78 77 48 55 74 45 71 77 22 159 76 69 82 101 50 93 102 123 151 49 131 149 98 80 86 99 97 70 147 80 132 110 52 72 137 127 132 62 70 80 139 38 81 101 86 79 114 149 47 129 55 75 21 132 136 72 153 82 75 124 29 68 85 79 132 122 67 50 64 97 163 83 76 60 61 99 53 62 185 82 60 79 117 51 80 95 85 71 44 104 88 80 71 62 80 61 59 52 51 79 173 66 65 76 104 77 37 85 82 48 93 58 138 69 181 150 112 105 132 79 103 68 126 70 114 63 108 89 147 75 47 86 75 105 64 97 120 75 126 128 80 64 126 51 55 69 25 92 84 40 42 81 156 68 100 79 26 48 60 139 132 99 53 97 15 104 68 89 51 71 122 74 59 35 62 72 116 90 99 145 114 127 60 97 96 72 23 145 155 113 46 81 71 138 76 109 81 67 96 43 127 187 203 92 42 48 102 63 48 83 60 93 135 35 107 117 56 76 70 76 90 84 66 80 91 90 88 120 110 119 41 96 127 126 82 59 70 92 137 142 72 72 81 74 188 84 100 106 69 84 93 115 45 80 115 60 37 31 82 66 112 128 53 119 113 78 124 123 53 122 63 136 83 100 83 25 63 107 39 68 62 28 34 55 88 157 42 94 92 68 79 111 108 32 32 50 41 106 97 84 66 40 80 106 78 96 65 135 60 98 118 95 65 74 67 52 91 107 46 86 82 119 168 69 125 109 55 67 95 58 86 132 28 90 20 41 67 98 130 75 82 94 108 72 92 120 89 77 68 37 53 97 78 20 89 65 85 90 82 160 26 42 88 88 90 87 52 39 50 82 71 33 105 77 40 146 103 110 99 78 100 166 144 109 104 123 99 77 82 54 136 96 106 99 90 78 24 82 124 163 124 58 50 117 66 90 46 59 143 83 130 133 16 150 60 71 105 38 122 122 38 117 129 112 32 72 115 181 118 76 171 109 88 114 70 1 59 92 135 97 85 105 63 40 82 39 120 84 145 56 21 84 28 74 59 88 56 74 49 41 112 141 127 81 119 57 81 45 50 80 132 74 74 88 56 82 75 143 91 67 58 140 75 77 80 125 104 80 60 41 144 42 99 43 23 44 158 32 75 128 114 157 86 107 49 56 41 104 87 48 22 107 111 87 71 84 64 64 81 121 51 116 79 99 46 108 39 79 98 31 68 119 89 56 112 61 118 107 191 94 76 153 94 58 116 140 89 56 130 90 108 133 131 80 97 84 83 80 84 62 90 68 78 96 131 62 88 78 108 72 70 112 55 96 84 119 96 73 152 34 127 72 88 92 50 131 56 36 89 93 79 44 73 80 109 49 73 47 122 70 78 74 119 104 113 102 87 139 41 125 88 70 104 86 44 155 92 103 107 45 30 109 100 41 58 53 81 59 119 47 111 60 70 44 60 86 56 113 115 102 100 162 70 69 88 76 104 88 67 31 79 38 164 93 139 55 52 81 74 35 102 106 69 170 86 92 96 58 68 56 90 86 82 83 55 55 69 112 63 107 115 104 130 87 90 65 133 64 34 70 103 63 103 74 76 96 92 94 88 57 75 120 102 37 48 67 31 97 126 132 101 86 103 116 23 106 52 42 99 66 36 115 135 118 120 152 67 68 50 103 65 61 62 91 72 61 78 114 60 97 117 89 72 109 56 32 151 18 101 130 85 46 39 155 109 159 71 125 81 135 119 56 91 92 61 49 141 70 92 126 118 83 117 64 58 86 47 77 25 82 119 118 47 60 26 124 27 149 108 97 32 86 184 82 69 86 77 33 33 118 97 118 73 85 103 36 62 128 106 61 150 88 76 135 71 108 60 114 82 79 76 148 47 93 19 64 126 114 40 29 101 119 94 39 96 108 170 74 71 55 73 104 37 107 80 82 153 64 80 95 66 87 54 73 133 78 128 69 86 67 101 87 73 151 115 68 68 116 111 137 44 85 138 78 84 95 103 121 114 165 131 107 98 80 75 67 47 88 67 93 74 74 129 65 78 65 87 78 85 139 32 38 116 75 65 94 174 58 91 125 42 117 75 69 118 119 100 77 92 59 93 44 62 67 64 103 145 69 105 147 90 60 73 103 106 96 43 103 67 137 24 64 102 74 113 89 97 29 132 82 92 124 131 78 60 116 115 183 94 50 137 53 148 91 59 77 85 32 111 64 79 116 97 109 76 116 116 33 109 106 96 83 128 122 165 126 84 76 112 74 129 51 53 144 44 66 71 119 67 46 91 86 130 90 68 72 100 51 62 101 72 157 26 90 62 122 120 53 120 54 37 89 109 59 52 59 113 80 56 34 60 152 126 57 85 65 160 72 83 125 101 139 133 123 90 81 144 113 92 66 71 79 31 75 72 76 78 102 73 79 98 105 94 104 92 56 120 119 66 48 113 40 129 97 61 65 145 97 105 70 39 83 114 34 60 114 110 31 62 148 113 48 80 66 62 87 137 57 78 83 91 126 72 113 98 64 49 74 94 118 67 43 50 125 83 47 97 111 71 32 76 80 130 151 57 56 77 30 86 69 81 63 89 61 83 48 115 58 85 72 85 102 52 65 70 102 34 52 120 83 79 46 95 35 94 56 97 115 132 57 138 91 83 122 72 56 68 81 81 99 64 131 75 33 148 90 109 114 78 108 41 51 107 97 56 78 67 64 107 51 117 158 79 71 171 91 88 52 71 75 67 155 99 84 76 142 22 172 122 126 57 104 131 122 85 105 83 115 140 86 63 85 145 135 128 52 53 111 68 100 101 55 67 126 87 105 131 93 84 93 101 129 21 140 133 86 93 31 74 79 72 71 61 88 34 93 62 63 42 53 94 20 75 62 73 84 67 28 33 61 105 58 29 14 122 77 102 78 54 47 93 90 83 83 154 87 124 103 145 29 56 99 96 73 92 48 43 73 77 82 77 57 90 49 59 40 179 80 61 130 62 66 149 66 37 40 42 77 121 22 80 69 78 95 87 81 45 130 78 55 47 59 137 97 136 76 55 92 111 100 131 70 85 109 61 117 94 79 67 104 61 80 23 81 35 49 74 88 96 55 20 16 99 89 86 26 37 97 115 84 98 16 112 96 61 122 128 69 103 62 31 46 103 70 80 2 106 86 100 81 102 111 120 161 40 85 122 101 42 109 94 88 112 67 116 35 38 78 106 79 43 55 81 49 58 31 118 48 79 43 108 38 127 72 42 115 169 187 153 80 62 85 69 73 67 130 79 109 136 92 108 86 89 161 26 78 87 110 51 42 65 91 64 73 32 46 19 90 76 62 91 78 62 94 27 134 43 63 148 120 36 71 77 61 95 50 48 24 124 65 93 97 80 66 46 52 93 53 94 70 52 135 49 111 110 60 85 65 25 83 64 114 46 91 35 54 112 106 115 152 41 58 99 56 100 79 90 154 61 89 74 81 64 64 44 47 60 65 44 96 87 116 35 41 51 73 84 96 102 106 58 80 88 99 83 136 124 83 96 62 90 54 72 40 85 79 30 132 82 63 71 108 98 106 57 87 81 118 84 114 112 92 87 37 70 20 106 80 69 70 57 96 99 91 152 120 60 57 54 97 68 83 76 25 66 65 16 96 28 68 67 100 56 114 123 87 111 102 11 96 128 85 125 183 26 53 77 51 74 80 151 79 46 70 85 116 53 116 102 71 84 67 114 130 74 55 85 39 79 50 113 57 47 116 122 99 134 110 99 67 81 73 65 67 74 119 89 70 62 104 78 89 74 89 56 96 98 89 98 96 85 144 100 160 54 44 93 105 59 96 50 86 77 125 72 15 61 84 85 82 146 87 70 88 142 114 80 53 110 76 67 65 40 108 114 69 157 84 69 69 53 54 47 114 66 67 97 125 72 91 96 130 71 97 119 46 71 68 165 105 59 134 59 100 128 110 84 63 39 70 85 87 95 70 156 67 58 89 51 38 92 108 35 87 94 134 52 104 41 111 136 90 48 77 99 111 93 153 100 56 66 73 93 107 73 133 57 110 104 44 99 108 136 90 84 188 149 93 95 83 127 107 92 28 96 92 51 142 65 34 122 68 190 128 35 95 48 59 95 125 82 63 65 144 103 75 50 98 100 52 86 50 79 27 43 68 157 73 88 73 55 109 89 35 64 123 95 80 40 119 94 76 110 68 135 123 27 128 96 79 111 43 95 86 88 63 70 68 154 92 124 90 121 55 80 81 49 54 89 101 40 88 123 134 201 97 65 75 77 43 90 98 77 73 51 52 186 141 121 43 76 89 102 82 119 63 47 50 108 116 73 100 24 144 66 84 52 36 73 74 88 99 64 88 60 133 73 62 70 58 84 90 120 53 45 81 79 108 47 26 52 60 139 83 85 55 55 47 77 57 67 126 54 130 195 88 149 38 44 57 114 147 111 81 105 29 128 61 43 127 78 129 42 30 72 62 157 109 31 72 104 82 85 92 36 123 54 74 25 48 82 101 52 128 120 74 98 77 116 84 109 109 47 83 49 49 83 97 74 37 48 92 54 127 35 122 145 50 37 174 90 101 44 81 86 82 94 102 90 88 58 88 88 55 13 100 81 83 72 43 66 82 84 64 43 142 147 6 55 131 77 92 85 88 44 96 159 54 93 62 85 136 68 99 109 99 86 112 59 63 94 98 33 111 73 122 97 214 131 95 73 110 122 56 72 91 59 109 68 116 98 55 122 94 83 51 103 49 51 83 66 105 53 51 51 78 80 75 64 116 124 95 84 61 48 147 70 78 57 144 51 104 118 45 30 72 82 106 113 72 46 115 62 102 107 132 57 124 143 56 122 80 120 96 90 148 122 107 45 44 45 67 39 89 74 58 102 106 139 97 73 119 65 131 66 150 72 54 66 78 52 107 117 63 69 41 81 71 36 79 58 121 38 100 36 89 93 36 58 104 61 62 102 124 73 44 85 73 61 113 97 34 52 62 80 51 61 75 57 84 77 61 124 103 80 163 65 78 97 108 33 135 156 68 57 44 76 85 49 75 74 45 36 83 33 119 141 113 131 73 97 113 68 133 111 109 67 102 39 103 62 141 96 48 23 62 60 26 60 48 80 132 29 102 57 86 70 65 118 52 114 99 63 52 87 60 73 121 95 96 91 81 52 80 144 49 92 53 54 60 108 73 78 90 106 208 57 73 76 32 94 50 57 87 98 52 65 94 85 98 98 114 62 77 58 141 108 36 96 120 78 26 72 55 62 49 85 42 51 198 81 89 81 92 44 153 54 32 50 102 79 108 102 153 91 114 112 172 86 111 91 123 129 126 124 89 79 90 85 105 119 102 48 174 121 39 69 98 135 67 52 173 82 83 103 47 66 84 87 62 76 59 59 121 121 181 100 133 125 45 37 119 107 150 15 84 59 62 77 79 66 80 127 121 46 139 63 116 116 99 80 62 104 55 101 113 83 95 115 82 52 78 97 89 125 54 176 81 85 91 78 75 130 62 100 117 86 79 33 41 82 86 70 26 26 38 65 63 159 127 118 86 59 143 47 72 46 36 78 84 62 71 45 85 143 60 23 65 25 28 133 29 102 75 20 64 160 116 20 26 101 85 83 108 136 145 42 100 75 153 99 68 83 123 120 63 66 193 71 58 175 135 101 41 187 81 49 21 70 81 77 102 56 131 73 53 50 11 101 61 60 75 68 137 115 169 82 162 107 50 88 51 84 131 45 56 29 74 48 96 67 72 80 51 31 94 100 61 17 62 150 77 60 110 72 112 45 74 25 81 66 79 74 50 86 115 71 96 62 67 86 70 119 75 133 40 134 94 113 97 32 69 128 152 71 204 71 66 82 116 104 84 40 94 93 111 53 62 53 76 80 143 151 94 106 44 142 75 110 81 56 114 62 66 87 65 83 146 127 106 52 100 131 106 92 73 59 132 99 62 73 68 79 45 71 30 82 67 95 74 88 50 66 114 37 86 130 31 80 76 32 78 49 61 69 60 80 93 56 93 87 89 67 86 71 56 76 116 87 89 110 123 74 167 91 44 114 58 68 74 32 93 84 79 73 77 89 48 47 75 79 65 54 119 111 65 149 135 100 57 63 79 53 68 111 18 96 70 87 172 50 87 87 34 110 155 43 71 64 116 152 27 109 54 53 67 62 51 138 82 55 74 116 99 116 85 117 109 93 93 83 69 40 93 91 62 158 88 79 160 107 26 60 73 39 153 67 160 97 76 51 103 98 121 33 176 53 189 30 69 80 111 40 94 96 112 60 110 121 148 47 38 14 29 109 105 73 49 101 101 90 157 66 48 60 82 75 80 65 132 92 86 145 107 65 82 58 94 141 28 169 98 203 78 57 177 89 55 50 95 76 94 71 54 42 67 128 129 56 80 64 65 69 71 43 110 71 46 103 101 86 133 47 94 71 72 72 146 9 71 115 55 77 147 83 64 139 96 55 102 118 109 85 49 46 119 118 156 99 46 58 40 170 107 66 103 42 76 103 58 41 145 82 129 101 74 78 95 83 96 91 109 63 96 115 100 63 70 41 91 72 75 97 78 68 127 160 108 44 129 64 55 70 82 46 82 158 161 85 89 88 119 103 94 72 23 142 159 40 82 63 101 98 96 136 122 26 96 56 76 104 140 58 52 104 132 124 117 103 116 112 59 146 75 92 126 113 85 68 79 56 116 79 61 25 67 95 30 75 105 79 90 102 41 127 69 89 41 51 93 86 99 164 123 51 68 127 92 92 61 65 73 26 101 101 7 123 110 38 85 61 42 67 99 90 64 97 106 108 73 95 83 91 90 119 97 41 56 73 92 131 69 107 52 44 39 62 119 122 87 95 70 47 71 53 75 69 144 133 90 89 55 100 73 127 68 74 79 104 116 67 110 36 56 106 120 114 70 111 46 62 80 5 67 56 155 132 111 107 104 26 11 67 127 78 82 82 80 148 127 95 92 88 96 39 16 103 119 197 101 83 124 122 67 70 80 110 99 20 60 50 60 87 68 58 91 83 67 122 41 51 76 49 22 45 127 70 90 91 97 100 122 78 162 34 47 69 60 103 49 52 100 44 93 90 89 88 83 68 56 145 92 92 54 61 68 116 121 45 72 74 54 113 133 26 65 95 55 138 88 101 129 60 154 53 99 50 53 74 68 76 83 47 70 101 63 129 96 40 53 64 77 32 59 50 39 37 107 98 107 53 50 106 76 93 150 71 120 28 115 73 106 55 78 71 123 115 86 61 63 42 88 51 91 55 24 44 58 101 108 20 86 117 134 136 138 91 141 53 111 84 36 203 79 101 100 77 53 97 123 101 80 84 54 58 153 127 71 62 92 62 129 55 54 26 82 89 32 27 96 76 112 83 68 186 66 172 58 27 61 97 81 54 101 190 117 69 84 46 38 117 96 70 159 56 47 79 57 133 191 125 70 121 85 71 76 105 50 49 118 59 119 117 120 84 70 141 130 78 43 76 86 79 135 80 142 75 86 75 63 90 68 113 66 71 161 102 110 94 68 97 77 13 66 60 37 115 137 154 133 24 72 52 31 23 53 59 66 131 90 98 73 74 72 121 45 135 110 53 161 73 124 78 72 38 81 31 106 49 55 73 167 89 82 119 108 115 94 40 75 80 75 91 73 103 67 139 45 71 65 114 43 50 120 95 162 85 42 177 64 62 142 121 69 118 70 71 166 167 95 59 95 142 105 55 35 33 74 104 29 155 69 133 85 137 100 114 112 82 68 42 107 49 126 119 112 70 54 111 34 116 65 32 52 47 121 67 92 140 125 54 83 74 44 139 55 91 116 65 99 97 93 33 64 42 55 91 71 88 71 91 57 108 214 130 87 76 142 96 44 71 91 76 76 90 81 43 103 85 33 73 88 47 55 174 101 162 181 74 56 83 124 105 74 101 102 101 63 144 53 61 68 156 119 105 118 26 127 104 90 34 57 107 109 76 150 99 74 77 137 24 61 55 79 106 65 56 71 79 97 94 35 45 115 37 57 130 106 134 81 76 126 93 21 73 106 59 200 93 62 113 27 115 76 146 133 98 113 80 113 54 134 128 102 121 104 54 96 98 125 51 129 173 57 97 173 145 78 111 50 74 123 84 86 106 118 44 39 105 35 85 16 121 59 42 124 80 52 57 67 170 64 43 95 119 60 61 80 65 112 61 82 27 83 78 38 62 67 108 94 183 68 95 116 63 141 87 62 44 164 113 115 80 109 52 48 69 128 95 102 95 83 81 68 59 159 73 42 43 28 98 59 92 68 66 29 68 99 53 59 33 54 73 34 55 127 96 68 75 74 68 57 54 46 109 78 115 81 78 58 99 75 105 51 48 72 109 165 54 58 102 194 58 71 81 93 107 49 77 119 85 170 97 81 119 50 63 60 72 96 91 92 22 132 120 53 93 115 54 26 93 82 64 50 71 24 98 50 90 147 81 73 54 73 121 97 93 33 90 29 63 110 67 66 78 83 124 25 101 58 132 49 83 58 49 149 66 23 61 58 44 63 115 45 155 86 63 85 66 88 110 32 116 131 65 83 45 115 58 78 68 112 74 104 60 107 111 32 92 87 65 0 119 59 85 130 137 62 45 109 62 90 150 68 50 109 81 112 84 130 58 152 117 98 69 93 98 68 51 73 52 57 52 72 110 32 143 93 74 66 27 116 61 172 125 40 107 131 126 111 90 67 75 62 92 72 113 66 103 109 51 86 135 7 73 74 109 106 168 126 138 50 61 120 40 123 60 93 108 137 163 85 56 96 96 93 74 53 68 68 55 54 45 33 64 111 77 62 29 108 134 80 80 51 94 51 53 121 142 109 47 85 38 58 81 133 55 76 119 113 113 93 94 132 51 111 46 38 99 44 28 88 79 68 55 116 134 118 74 89 57 38 130 106 148 98 71 78 198 46 54 90 70 160 38 83 48 133 75 121 140 128 137 107 143 84 112 73 86 61 175 29 56 39 103 108 175 85 113 37 61 73 89 34 90 75 57 68 153 113 40 39 89 35 122 45 116 99 114 123 67 54 36 68 68 147 55 122 63 96 14 121 108 123 130 128 103 54 70 118 117 159 69 141 88 173 51 110 90 89 56 118 74 94 28 69 60 74 89 60 107 102 81 110 117 117 124 45 92 78 101 58 65 99 110 128 110 63 173 83 75 114 85 136 102 76 122 107 82 70 147 32 87 49 49 103 82 125 91 44 89 103 76 77 44 68 138 31 105 61 101 95 79 141 30 118 46 79 172 64 167 75 127 145 115 81 61 77 79 116 61 89 102 63 159 160 62 93 84 57 79 122 86 123 158 149 118 129 114 105 77 47 122 54 139 150 95 152 92 76 66 83 70 94 89 66 72 69 82 81 101 80 136 97 25 44 157 73 70 111 41 79 133 90 87 97 99 57 38 129 76 58 57 88 110 50 63 135 59 64 68 27 111 12 117 87 47 59 117 74 66 81 66 60 148 71 109 83 118 109 123 58 99 37 100 97 60 73 45 110 73 21 92 39 110 78 29 96 100 96 88 57 128 32 106 71 60 113 99 115 120 71 65 51 56 91 102 70 108 70 71 86 105 70 98 43 43 93 88 143 128 118 178 73 167 39 78 28 68 81 146 37 72 112 69 90 70 11 103 41 90 73 74 137 97 38 67 90 67 77 59 136 80 114 69 60 80 75 87 140 48 103 80 95 102 50 73 44 98 35 74 142 88 83 51 112 105 62 87 56 191 73 100 51 108 24 48 81 173 79 80 121 60 113 109 62 83 69 82 95 54 43 88 73 82 55 72 113 107 69 94 94 158 78 108 123 106 77 23 76 118 93 89 36 15 59 96 50 162 43 75 79 69 105 136 36 46 49 26 100 153 100 107 59 106 52 83 44 70 60 80 129 99 80 61 83 122 59 71 110 90 28 54 71 99 71 129 140 61 70 69 109 104 81 110 93 117 77 67 81 63 76 153 57 136 63 89 67 56 127 83 76 32 77 63 102 47 83 48 143 144 108 58 201 99 79 60 25 70 49 95 116 22 72 10 45 95 58 82 89 85 88 94 68 87 86 68 100 130 42 68 63 38 79 89 208 98 103 71 149 65 133 48 139 43 89 40 63 65 101 79 97 54 58 79 83 101 44 42 77 95 108 127 113 114 104 71 74 107 99 114 59 39 89 55 82 99 88 64 48 113 95 104 29 97 70 172 117 107 144 156 27 107 164 44 99 126 34 68 53 80 72 75 139 179 72 35 55 101 72 114 90 70 78 90 95 82 36 98 39 82 87 48 81 194 63 90 70 55 99 90 53 118 93 157 121 68 108 146 54 71 41 103 74 107 68 109 56 80 71 57 58 78 45 138 85 36 60 81 126 64 91 113 108 58 53 97 120 102 92 34 70 108 74 57 112 57 79 74 56 76 108 101 102 165 62 110 112 69 110 90 110 92 42 78 99 93 74 90 89 109 60 47 57 82 114 125 102 55 64 77 70 72 110 49 70 52 51 89 110 78 52 44 95 58 80 79 62 66 117 79 42 75 100 63 82 88 93 39 44 68 135 79 138 97 76 80 100 86 76 115 102 91 51 73 54 126 41 48 109 77 91 114 92 84 65 83 100 97 153 95 71 77 143 44 50 27 179 55 70 110 60 111 87 34 100 91 94 107 75 109 99 73 49 73 99 66 9 122 92 59 57 80 144 40 123 128 89 157 61 138 40 74 143 48 68 64 88 78 97 69 47 72 56 66 89 61 37 112 95 63 56 60 155 90 84 72 144 92 60 150 136 89 85 19 97 78 111 87 26 77 96 60 89 187 55 86 59 141 242 82 110 58 66 49 89 99 112 80 65 82 65 108 30 84 107 107 60 81 135 80 45 114 84 47 127 159 106 55 70 85 117 62 42 63 60 66 124 95 44 53 89 91 85 114 165 165 114 131 52 79 87 81 125 160 151 68 82 166 83 98 40 102 94 58 75 134 133 57 84 96 66 87 49 135 117 75 44 95 99 96 68 66 88 56 19 74 87 48 43 104 101 64 98 82 126 123 148 78 85 86 70 45 41 99 64 144 120 75 49 33 53 87 93 95 175 95 63 60 170 81 85 117 61 78 49 75 71 130 75 124 112 54 52 123 60 106 76 91 107 107 55 97 73 47 37 93 35 30 42 85 140 46 89 130 46 153 113 141 84 62 116 133 72 49 75 126 139 88 54 133 84 49 174 76 56 59 108 69 34 84 108 113 61 70 94 173 88 93 102 72 96 111 114 84 41 106 87 116 87 80 68 91 117 36 85 54 157 98 83 96 105 87 94 144 139 90 111 63 113 39 119 37 85 64 65 110 83 51 35 71 140 87 129 93 122 104 90 48 47 96 44 126 63 94 96 84 57 112 107 71 111 78 208 125 76 47 94 109 125 40 37 58 94 92 126 71 25 93 47 146 48 93 100 67 58 91 110 68 158 71 166 78 50 132 119 79 36 95 76 159 79 64 42 105 112 136 65 70 28 75 118 115 28 122 67 83 168 102 54 49 99 139 108 105 109 11 113 90 103 83 25 44 20 119 29 104 96 65 83 115 39 115 75 80 75 57 43 97 84 63 69 125 10 59 26 68 101 102 37 90 101 116 59 99 34 98 83 107 87 127 86 90 90 182 89 78 123 105 98 79 75 15 67 175 79 58 62 119 74 32 97 35 116 69 110 81 59 92 95 134 63 119 47 25 82 90 74 72 75 35 137 62 107 74 57 79 83 117 92 174 88 116 57 91 58 126 42 87 76 47 74 68 96 89 83 78 74 62 119 48 112 71 68 47 128 157 32 80 112 115 55 137 48 82 93 66 66 34 28 124 69 53 123 75 38 79 41 129 88 75 58 91 70 58 67 69 23 127 40 175 164 70 59 111 95 102 61 35 57 122 132 54 71 97 120 130 83 77 73 172 82 81 112 129 74 20 51 91 142 21 121 127 102 179 104 57 39 30 59 42 58 109 110 168 75 47 96 154 94 71 115 69 93 64 162 94 88 60 55 136 10 100 62 98 66 85 127 99 124 43 59 59 80 140 153 61 11 115 90 149 87 132 125 96 52 91 154 87 47 55 71 63 100 14 89 62 60 131 96 70 78 120 91 41 32 76 43 111 66 51 142 78 86 55 81 29 97 116 44 124 37 130 59 23 74 73 83 96 66 99 59 88 85 114 125 45 43 46 79 94 99 104 38 78 111 165 94 64 168 101 149 82 73 78 48 62 100 80 65 91 134 38 16 128 59 194 87 79 75 36 89 85 105 23 135 58 95 89 67 74 100 89 117 108 132 32 80 40 91 95 93 65 143 83 35 39 100 44 60 19 93 15 116 159 20 69 158 123 130 57 91 73 74 35 79 104 78 108 58 100 97 71 113 173 75 101 153 51 90 93 37 113 112 73 62 74 68 33 67 53 69 93 37 83 60 51 85 133 37 103 97 63 75 69 92 62 91 72 56 52 77 52 157 124 68 124 48 104 77 89 46 130 95 110 65 42 64 112 118 99 103 136 93 176 72 162 113 74 71 123 211 177 37 121 62 96 36 102 125 102 78 86 101 72 181 98 96 128 70 75 148 88 99 45 149 64 121 89 42 44 44 77 65 124 129 104 57 89 106 91 61 149 59 68 94 50 116 55 117 75 185 100 172 187 141 52 66 93 65 77 117 69 65 112 89 93 123 67 58 75 108 43 51 21 159 107 59 95 25 128 33 41 66 64 97 82 81 105 99 80 143 87 79 135 49 95 73 76 115 46 48 60 41 94 130 123 138 73 41 98 97 60 66 87 90 99 96 112 26 80 125 116 77 67 100 147 68 72 216 82 23 59 28 65 38 77 107 99 86 68 80 159 115 96 68 124 101 77 129 108 158 15 77 55 132 79 56 58 132 155 88 97 36 83 40 102 95 45 161 82 123 144 102 118 35 90 48 87 34 71 42 96 75 101 148 39 33 101 88 109 103 61 90 116 99 48 67 101 75 126 98 87 79 65 51 74 75 89 74 53 122 101 131 123 40 68 99 79 121 74 69 110 63 90 49 114 24 52 56 57 51 119 121 96 72 100 78 127 54 103 76 63 57 105 24 58 129 79 90 127 83 82 92 96 92 78 73 112 87 103 82 40 112 115 82 98 60 24 50 101 97 44 119 159 108 69 78 49 84 112 41 71 84 70 68 88 92 95 86 60 72 155 92 50 71 121 54 62 82 63 108 70 89 120 75 118 79 57 69 63 105 64 86 59 51 107 68 66 43 38 85 78 102 46 41 73 81 107 40 89 92 66 85 103 136 31 117 85 62 39 41 48 12 57 104 108 70 143 55 51 111 98 114 17 138 95 82 80 127 74 24 147 92 72 122 123 128 34 125 48 119 77 114 72 67 55 104 128 95 51 97 96 60 139 113 56 163 117 45 84 82 72 78 142 78 26 106 38 95 99 95 63 56 92 181 87 45 105 123 28 82 78 108 130 140 73 24 85 41 83 64 79 131 101 103 121 20 76 111 129 131 130 74 93 106 68 88 77 58 88 49 95 52 125 21 59 78 163 125 76 77 51 171 122 107 118 64 81 50 31 102 75 92 173 147 63 129 70 44 111 11 69 116 107 86 59 90 115 62 105 121 36 121 90 128 45 126 120 88 105 22 76 101 34 114 105 148 57 154 90 33 82 84 83 58 97 103 103 95 102 157 52 46 141 149 112 61 98 112 19 107 117 66 47 55 101 66 38 88 78 114 57 105 90 94 50 78 65 89 95 61 51 98 68 122 91 94 27 39 97 31 111 70 73 54 56 133 91 114 22 84 143 89 96 27 99 140 105 36 32 92 116 68 84 95 37 58 126 51 80 91 73 76 85 132 66 100 60 105 34 87 150 110 119 128 66 61 62 73 153 131 71 166 109 68 84 57 113 78 54 34 83 44 86 151 52 70 47 104 72 41 106 59 28 141 101 136 58 114 60 109 102 84 13 68 84 71 119 101 59 141 42 66 138 105 52 82 52 44 135 54 138 61 84 41 72 64 155 45 139 103 79 103 86 80 106 141 64 108 73 82 66 115 66 64 78 108 91 73 137 120 63 60 101 79 155 54 135 76 143 52 31 77 41 56 61 98 102 162 44 153 40 49 80 119 47 72 69 105 91 106 130 100 131 102 78 78 103 120 87 92 158 46 56 100 66 58 98 117 72 30 138 60 80 106 74 127 96 49 84 111 86 77 39 88 64 118 147 133 85 87 69 85 122 44 101 84 94 82 123 139 117 68 108 96 38 118 85 70 91 60 114 70 69 82 54 112 98 126 63 116 58 83 160 13 85 139 104 96 64 107 137 80 85 123 115 54 73 106 85 88 77 128 152 158 70 46 124 117 175 26 78 104 60 57 63 29 83 79 85 97 154 139 174 129 68 22 104 97 138 91 146 166 107 56 133 87 54 103 69 64 77 142 143 55 67 88 97 135 83 57 150 124 108 73 46 102 116 72 111 90 31 61 90 75 128 81 122 67 123 107 119 147 77 116 127 133 59 136 66 151 94 173 115 68 133 34 84 84 88 182 100 27 55 103 89 78 90 64 79 85 90 86 59 133 49 133 111 63 131 151 72 70 67 81 96 56 127 86 58 107 109 97 88 161 94 164 92 125 88 75 60 58 49 74 79 58 88 82 71 65 89 77 154 108 56 69 155 94 131 58 79 51 90 84 91 81 124 141 144 34 97 110 22 36 128 75 61 48 45 119 71 96 66 79 93 129 125 58 92 21 124 94 18 39 43 41 106 84 91 82 104 104 81 87 104 67 80 179 118 77 154 48 17 81 94 30 96 172 167 98 90 104 106 85 50 91 22 61 46 96 30 84 57 96 89 19 57 45 80 64 93 100 96 107 115 94 49 83 91 82 115 55 24 89 64 132 94 83 67 58 33 38 92 31 68 35 96 80 193 114 49 80 32 83 54 68 54 63 149 173 154 83 76 118 72 167 66 110 139 64 74 30 105 103 103 98 54 102 80 115 150 57 57 33 60 132 98 108 171 89 68 66 128 71 158 70 55 91 33 81 73 103 158 160 48 74 49 102 77 73 120 71 168 49 94 60 55 66 61 51 113 85 100 90 46 83 51 93 69 78 70 86 29 139 117 71 45 75 13 51 82 103 83 170 64 62 138 94 92 105 62 111 36 101 76 96 107 36 114 70 32 123 90 84 79 129 72 120 104 121 69 63 74 95 54 81 55 132 25 80 42 90 114 41 70 77 43 80 87 110 77 130 71 130 40 171 68 90 88 25 99 79 111 102 68 164 202 54 65 67 75 150 79 70 139 51 28 92 97 163 146 156 52 50 94 85 196 92 122 123 54 52 67 79 99 120 55 125 44 56 51 98 172 59 115 85 94 95 56 127 95 83 102 130 67 111 33 54 149 82 40 111 84 61 114 77 148 115 49 147 101 55 100 65 58 20 83 155 92 92 45 81 78 54 64 37 90 58 87 44 140 68 126 33 107 147 31 88 80 59 36 56 106 41 111 125 120 68 87 139 62 64 110 85 159 54 61 62 75 101 167 45 43 58 101 79 82 65 78 80 28 97 146 94 79 103 61 96 58 102 91 103 51 113 66 118 99 92 64 100 54 106 121 68 82 27 85 126 86 50 41 68 120 72 114 90 66 72 68 99 55 59 94 98 95 51 42 37 79 104 52 71 49 102 111 126 114 108 62 50 126 101 127 92 61 68 78 72 47 106 31 99 14 83 62 96 114 134 81 93 111 66 28 80 77 75 130 92 50 103 56 49 92 42 73 82 150 87 93 90 90 106 34 98 105 97 32 149 61 67 48 101 92 64 48 71 40 73 62 143 72 148 24 36 108 81 113 88 109 95 96 117 54 54 75 99 77 77 68 72 134 97 147 94 30 55 103 78 90 175 36 151 112 77 117 35 84 28 127 141 58 90 57 77 42 90 100 50 39 56 107 75 105 41 69 95 92 142 73 69 75 163 76 140 86 40 120 128 52 54 45 92 80 99 89 67 71 62 62 61 159 88 107 75 95 67 59 61 167 88 44 54 102 121 59 97 87 114 165 64 82 111 122 89 93 134 113 13 110 90 106 71 56 68 116 78 46 92 81 33 119 70 35 77 106 62 124 78 79 125 95 70 71 81 97 72 129 92 69 70 92 97 204 62 135 126 59 25 29 54 124 85 143 49 100 47 119 54 85 92 94 131 71 156 86 23 189 128 64 31 107 60 74 77 114 65 93 81 116 60 83 97 31 129 141 106 88 72 121 120 48 123 128 98 97 59 109 60 69 52 71 53 188 95 53 100 72 40 62 164 130 168 45 46 149 71 111 44 45 75 103 118 59 63 92 200 70 45 50 94 133 90 42 105 62 100 100 60 54 81 57 114 32 111 91 57 34 91 39 62 57 83 41 82 79 116 60 102 53 74 53 34 112 37 84 83 72 108 110 106 95 137 116 81 80</t>
-  </si>
-  <si>
-    <t>GAM(0.2834429240942427, -2.0739168196322016e-28, 0.6008525485927549)</t>
-  </si>
-  <si>
-    <t>1 1 2 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 1 2 2 0 0 1 0 0 1 0 1 3 1 0 0 0 1 1 2 0 1 0 2 2 0 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 1 0 2 0 2 0 0 0 0 0 2 1 1 1 1 1 0 2 1 2 2 1 1 0 0 1 0 0 0 2 1 1 1 1 0 1 3 0 1 1 0 1 1 0 0 1 0 1 0 0 1 0 0 0 2 2 0 1 2 1 2 0 0 0 2 2 2 1 0 2 1 1 0 0 0 0 0 3 2 2 2 0 1 0 2 1 1 1 0 2 1 0 0 0 2 2 0 0 1 1 1 0 0 0 2 1 1 1 1 1 1 2 1 1 2 1 1 0 0 1 1 2 1 2 1 0 1 1 0 2 0 1 0 0 1 0 0 1 0 2 2 1 2 0 0 2 2 2 0 0 1 1 3 1 2 0 2 0 1 3 1 0 1 0 1 0 2 1 1 0 3 0 1 0 1 1 1 0 2 1 2 2 0 2 1 0 1 0 1 0 2 1 0 1 2 1 1 1 0 0 0 1 0 1 1 2 2 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 1 1 1 0 2 2 0 1 2 1 1 0 1 0 2 0 0 2 0 0 0 0 0 2 1 1 1 0 1 0 0 0 1 1 0 2 2 2 1 2 1 0 0 0 1 1 1 0 0 0 0 1 3 1 0 1 0 2 1 0 0 0 0 2 1 2 0 0 3 0 0 1 1 0 1 1 1 0 0 1 1 1 1 2 1 0 0 0 0 0 0 0 2 2 0 1 0 1 0 1 2 0 1 0 0 0 1 0 0 1 1 1 2 1 0 0 1 0 0 0 2 1 1 1 0 0 0 0 0 2 0 0 0 0 2 0 1 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 0 2 1 1 1 0 1 0 2 0 1 0 0 0 1 2 4 0 2 1 2 0 2 1 0 0 1 0 1 0 1 1 0 1 0 2 1 3 1 2 0 1 1 0 0 0 1 0 0 0 1 1 1 1 0 1 3 1 0 0 0 1 0 1 3 0 0 3 0 0 0 1 1 0 1 3 1 2 1 0 1 1 0 2 0 0 0 0 2 1 0 2 0 2 0 1 0 0 2 0 0 1 0 1 0 3 2 0 1 1 0 0 0 1 1 1 1 1 2 1 2 1 1 1 0 3 0 0 0 0 0 0 2 0 0 2 0 1 1 0 0 0 1 0 1 2 0 1 1 0 1 1 1 0 1 0 0 0 0 2 0 1 0 0 0 1 0 0 0 0 0 0 0 2 0 1 1 2 1 0 0 1 0 1 2 2 2 0 3 0 1 2 0 2 2 0 1 2 1 1 1 1 1 0 0 0 1 0 2 0 0 0 0 0 3 0 0 1 4 1 0 0 0 1 1 2 0 1 0 1 0 0 1 1 2 2 0 1 2 0 0 0 0 0 1 0 0 1 0 0 2 3 0 0 0 1 0 2 1 2 0 0 1 0 2 0 0 0 0 2 1 0 0 0 1 0 0 1 0 0 0 0 2 0 2 1 1 0 1 2 0 1 3 0 1 0 1 0 1 1 1 0 1 0 0 0 0 1 2 0 0 1 1 0 1 1 1 2 0 1 1 0 0 0 2 0 0 1 0 0 0 1 1 2 1 1 0 1 0 0 0 1 3 0 1 1 2 0 1 1 1 1 0 0 1 1 0 0 0 2 1 2 0 2 1 2 1 0 1 1 0 0 2 1 1 1 0 1 2 2 3 0 3 1 0 1 1 0 0 1 0 1 0 0 1 1 0 1 0 1 2 0 1 3 2 1 1 1 1 0 2 0 1 2 0 0 1 0 1 1 1 0 1 1 2 4 1 1 1 1 2 1 1 1 0 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 2 0 0 1 0 2 0 1 0 0 1 1 3 2 0 1 0 2 0 2 0 2 1 0 0 1 0 0 0 1 2 2 1 0 0 0 0 1 0 0 1 0 1 2 2 0 1 1 2 1 0 2 0 0 0 0 0 0 1 2 1 1 0 0 0 0 4 0 0 0 3 0 0 0 0 1 0 0 1 0 1 1 0 0 0 1 0 0 0 2 0 1 1 0 1 1 0 0 0 1 1 0 0 1 0 1 0 1 0 2 1 2 0 0 1 1 0 0 0 3 0 1 1 1 0 0 1 0 2 0 1 1 1 1 0 0 1 1 1 1 2 0 0 0 0 1 0 1 0 0 1 0 0 0 1 0 1 0 2 1 0 0 2 1 1 1 2 1 1 1 1 1 0 1 0 0 2 0 0 2 2 1 1 1 0 2 3 0 0 1 0 2 0 1 0 0 0 1 0 0 1 1 1 1 0 1 1 3 1 1 0 0 0 1 2 0 1 1 1 1 2 1 1 1 0 2 0 2 0 2 1 0 0 0 0 1 0 1 0 0 1 2 1 1 0 0 0 0 0 0 1 0 1 1 2 0 0 0 0 1 0 0 1 0 0 2 1 1 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 1 0 2 1 0 2 1 2 0 1 2 1 0 1 1 0 1 0 3 0 0 0 1 0 1 0 2 1 0 0 1 3 1 0 3 2 0 2 0 1 1 2 0 0 0 1 0 0 2 1 0 2 0 0 2 0 1 1 1 2 0 1 1 1 1 2 1 1 0 1 1 0 1 0 0 1 2 1 1 0 3 1 1 3 0 3 3 1 2 0 1 1 1 1 1 0 0 0 0 1 1 0 0 1 2 2 0 0 1 1 1 0 0 0 1 3 3 0 1 0 1 0 0 0 1 1 0 1 1 1 1 0 0 2 0 0 1 0 0 0 0 0 2 1 0 1 0 1 0 1 3 0 1 0 2 0 0 1 1 0 1 0 1 0 1 0 1 1 1 0 1 1 0 0 1 0 0 1 1 0 1 2 0 0 0 0 2 1 1 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 1 2 1 1 3 1 0 1 0 0 1 0 1 0 2 2 1 0 2 0 1 1 0 0 0 2 1 2 1 2 2 0 2 1 1 2 1 0 0 0 1 1 0 1 3 0 2 1 2 1 1 2 0 1 2 2 2 2 1 2 0 0 0 2 1 1 0 0 0 1 1 1 0 2 0 1 1 1 0 1 0 2 0 2 1 1 1 1 0 1 2 0 0 1 0 0 0 0 1 0 2 0 0 1 1 0 0 2 0 1 0 0 1 0 0 1 0 0 1 0 1 3 0 1 0 1 0 0 0 1 2 0 0 0 1 0 1 1 1 0 1 0 1 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 0 1 0 0 1 3 0 2 1 0 1 0 1 0 2 0 0 2 1 1 0 0 0 1 2 1 0 2 1 2 0 1 0 1 1 0 0 0 1 0 2 0 3 2 0 0 1 1 0 1 0 0 2 0 1 0 1 0 0 1 0 1 1 3 1 1 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 1 0 0 3 1 0 0 0 0 1 0 0 1 0 0 2 1 2 1 0 0 0 0 0 0 1 1 0 1 0 0 3 1 1 0 1 1 0 0 0 0 0 1 1 2 1 0 3 2 0 1 0 0 2 1 0 1 0 0 0 1 0 1 1 0 0 1 0 0 1 0 3 1 1 1 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 2 0 0 0 0 2 0 2 2 2 0 0 1 1 0 2 0 1 2 1 2 0 1 1 0 1 0 1 0 0 1 1 1 1 1 1 1 1 0 0 0 1 2 1 2 1 0 1 0 0 0 1 2 0 1 0 0 2 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 2 0 0 0 0 0 1 0 1 1 1 1 1 3 0 0 1 0 2 0 0 1 0 0 2 0 0 1 3 1 3 0 0 1 1 0 3 0 1 1 1 4 1 0 1 0 1 1 1 0 1 2 1 1 0 0 2 0 0 0 1 0 0 0 1 1 3 0 2 1 1 1 1 0 1 2 1 0 3 1 0 1 1 0 1 1 0 1 2 0 0 0 1 1 1 1 0 1 1 1 1 1 3 0 0 1 2 0 1 0 1 1 0 0 1 0 2 1 0 0 0 0 0 0 1 0 2 0 0 0 3 1 2 1 0 0 1 0 1 3 0 2 0 1 1 0 1 1 0 0 0 3 0 1 0 1 3 0 2 1 1 0 3 1 1 1 1 1 2 1 1 0 0 0 1 1 0 1 2 0 1 0 1 2 0 1 0 0 0 2 2 0 1 1 2 0 0 1 1 1 1 1 0 0 1 0 3 0 2 0 0 1 0 0 0 0 1 2 0 0 0 1 0 1 1 1 2 0 0 0 0 0 0 0 0 0 0 1 0 1 1 1 2 1 0 0 0 2 0 1 1 1 1 0 1 0 0 1 1 0 0 0 0 0 2 0 1 1 0 1 2 0 0 0 0 0 2 0 0 0 0 0 0 0 2 1 2 0 1 0 2 1 0 1 1 3 0 1 0 0 1 2 1 0 0 1 0 1 0 1 1 0 0 2 2 0 0 3 0 0 0 0 0 0 1 1 1 1 1 0 1 0 0 1 3 0 2 0 0 1 2 0 2 1 1 1 2 0 2 1 0 0 0 1 1 0 1 0 0 2 1 2 0 0 1 1 1 0 0 0 0 1 0 0 2 2 2 1 1 1 1 0 0 0 1 0 1 0 0 0 2 0 1 2 1 1 0 0 1 1 0 1 2 1 0 0 0 1 0 1 0 2 1 0 0 1 2 1 0 1 1 1 3 1 1 1 3 1 1 1 0 1 1 0 2 0 2 0 0 0 1 0 0 1 0 1 0 1 2 0 0 1 1 1 0 2 1 0 1 0 2 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 1 1 1 1 0 0 1 0 0 1 0 1 3 1 1 0 1 1 2 0 1 1 1 1 0 1 1 1 0 1 0 2 0 1 1 0 1 1 0 1 0 2 0 1 3 0 0 1 2 1 0 2 2 1 1 0 0 1 1 1 1 0 0 0 2 1 0 0 0 1 0 0 1 2 1 1 1 0 0 0 1 3 1 0 0 2 0 1 0 0 1 1 0 0 0 1 1 0 1 2 0 0 1 0 1 2 0 1 0 2 0 1 1 1 1 0 0 2 1 0 2 1 1 0 1 2 0 0 0 1 0 0 1 0 0 1 0 1 0 1 0 2 1 1 0 2 0 1 2 0 0 1 2 0 1 0 0 0 2 0 3 0 0 0 0 4 0 0 2 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 2 0 1 3 0 1 1 1 2 1 0 2 2 2 0 0 1 0 0 1 0 0 0 0 1 0 2 0 1 1 0 1 0 1 0 3 0 0 1 1 2 0 0 0 1 1 0 0 2 0 0 0 0 0 0 0 0 1 0 2 0 1 1 2 0 2 1 0 0 1 1 1 2 0 1 1 0 2 1 0 1 0 1 0 0 2 0 0 0 0 2 1 2 0 1 1 1 1 1 1 4 2 2 1 2 1 1 0 1 1 0 0 0 0 0 2 0 1 0 0 2 1 1 1 0 0 0 1 0 2 2 2 0 1 0 1 1 3 1 0 1 2 1 2 0 0 0 2 2 0 1 1 0 2 1 0 0 1 1 1 0 0 1 1 1 1 1 0 1 1 1 0 1 0 1 0 1 2 0 1 2 3 1 2 1 0 2 0 0 1 0 0 2 0 1 0 1 0 2 1 1 0 1 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 2 0 1 0 0 1 1 0 1 0 1 0 0 4 0 0 1 0 0 1 3 2 1 0 1 0 2 1 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 1 0 0 0 1 1 1 2 0 1 1 0 0 1 2 0 0 0 0 1 0 0 0 0 1 0 0 1 2 0 1 1 2 1 2 0 0 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 0 1 1 0 0 2 0 3 0 1 0 2 1 0 1 2 0 0 2 0 1 1 0 1 2 0 0 1 1 0 0 1 1 4 1 1 1 0 1 0 0 2 3 2 0 1 1 1 0 2 0 2 1 0 2 0 0 0 1 2 1 1 2 1 2 0 0 0 2 2 0 2 2 0 1 0 0 0 1 1 1 0 0 0 3 1 2 0 0 2 1 2 1 0 1 0 0 0 2 1 1 1 0 1 1 0 0 1 1 0 0 0 1 0 1 0 0 2 1 2 0 1 1 0 1 1 0 2 1 1 1 1 2 1 1 0 0 1 0 1 0 0 1 2 0 0 1 2 1 1 1 0 0 1 1 1 2 2 0 2 1 0 2 0 1 1 1 1 1 2 0 1 0 0 0 0 1 2 1 1 1 0 0 0 0 3 1 1 0 1 0 0 1 0 2 0 2 0 2 0 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 2 1 1 1 0 0 1 0 3 0 1 1 1 1 2 1 0 3 1 0 0 0 1 2 1 0 0 0 1 0 1 0 0 1 1 0 2 0 0 2 1 2 0 1 1 1 1 2 0 0 1 0 1 0 0 1 3 1 3 1 0 1 0 1 0 0 0 1 0 1 0 2 0 4 0 0 1 0 2 0 2 2 1 0 1 0 0 1 0 2 0 0 1 0 0 3 0 0 0 0 1 0 1 1 0 2 2 0 0 2 0 0 0 0 1 3 0 0 0 0 0 3 1 0 0 3 1 0 2 1 0 0 1 1 0 0 3 2 0 1 1 0 0 1 1 1 0 0 2 0 0 1 0 0 1 0 0 0 0 1 1 0 1 1 1 0 0 1 0 1 1 0 0 0 2 3 1 0 1 1 0 2 1 0 0 1 1 1 0 2 0 0 2 1 0 0 1 0 0 1 2 1 0 3 0 1 1 1 1 1 1 0 1 0 0 0 0 0 0 2 0 0 0 0 1 1 0 1 1 1 1 0 1 0 1 1 2 2 1 0 1 1 1 3 1 0 2 2 0 2 0 2 0 2 0 0 0 1 1 1 0 0 0 0 2 1 3 0 2 1 1 0 1 0 0 0 0 1 1 1 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 1 2 0 0 1 0 0 2 1 1 2 1 0 1 2 2 0 0 0 2 1 3 2 0 1 0 2 2 0 2 1 2 0 0 0 0 3 0 1 0 0 0 1 0 1 0 0 0 1 0 2 1 2 1 0 1 0 0 0 1 0 0 1 1 1 0 1 1 2 1 0 0 0 0 1 1 0 0 2 1 0 1 0 0 2 2 2 1 3 0 1 0 0 1 1 0 1 1 3 0 0 3 0 0 2 0 0 0 0 1 3 0 0 0 3 0 0 1 1 0 2 1 2 0 0 0 1 0 1 0 2 0 0 0 0 1 1 1 1 1 1 0 1 0 1 0 0 0 0 1 3 1 2 0 3 2 1 0 1 2 1 1 1 0 1 1 1 0 1 1 0 1 1 1 0 2 0 1 0 1 1 1 0 0 1 0 0 2 0 0 1 0 0 2 0 1 2 1 0 0 0 3 0 1 1 0 1 0 4 2 2 1 0 2 2 1 0 0 0 0 1 2 1 0 0 5 1 0 1 0 0 1 1 0 1 2 2 2 2 2 1 0 1 1 1 1 1 0 0 0 0 1 1 0 0 2 1 0 1 2 0 0 0 0 1 1 1 0 0 0 0 1 1 0 2 0 0 2 1 0 1 1 0 2 1 2 0 1 0 0 2 1 1 0 1 0 0 1 1 2 0 1 0 0 2 1 0 1 0 0 1 1 0 0 1 1 1 2 1 0 0 3 3 0 1 1 2 0 0 2 1 2 0 1 0 1 0 1 1 1 1 0 0 0 1 1 0 0 0 0 0 2 1 0 0 1 0 1 1 0 1 0 0 2 0 2 0 1 1 1 1 1 1 2 0 2 1 1 1 0 1 0 0 0 0 0 0 1 1 0 2 1 2 0 0 2 0 0 0 0 1 2 0 0 1 1 1 1 2 0 0 0 0 0 1 2 0 0 1 0 1 0 1 1 0 0 0 1 1 0 0 0 1 1 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 1 2 3 1 0 1 0 0 0 0 0 0 1 1 1 1 0 0 1 1 0 1 2 0 2 0 1 2 0 0 1 0 0 2 0 1 3 0 1 1 0 0 2 2 1 1 0 1 1 0 1 0 0 0 2 1 1 1 0 1 0 1 0 0 0 1 0 1 1 1 2 2 1 1 2 0 0 0 0 1 0 2 1 0 0 1 1 0 1 1 0 0 1 0 1 0 0 2 1 0 1 1 1 3 0 1 0 2 2 0 0 0 0 3 1 3 0 0 0 0 2 0 4 2 1 0 1 1 0 1 0 0 3 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 2 1 0 0 0 1 0 1 0 1 1 2 2 0 0 0 0 1 2 1 0 1 1 1 1 0 1 1 1 1 0 0 1 0 0 1 0 0 0 1 1 0 2 2 0 0 0 0 2 0 0 0 0 0 1 2 1 0 2 1 0 0 0 3 1 0 1 0 2 0 2 0 0 0 0 0 0 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 0 0 1 1 2 1 1 1 1 0 1 0 1 2 1 1 0 1 1 1 0 0 1 2 0 2 1 0 2 0 0 0 1 1 1 1 0 0 1 0 0 1 1 0 2 1 1 2 1 0 0 1 2 1 0 1 0 1 0 2 0 2 1 2 1 1 2 0 1 1 0 0 1 1 0 0 1 1 0 1 0 1 1 0 0 0 0 2 1 1 0 0 0 1 2 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 0 1 1 2 2 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 0 0 0 0 2 1 0 3 0 0 1 0 0 0 0 1 1 0 2 0 0 0 0 0 1 1 0 1 1 0 1 1 1 1 0 1 1 2 1 0 1 0 2 0 2 0 0 1 0 2 2 0 4 0 1 0 1 0 1 1 0 0 1 1 0 0 0 1 2 1 0 2 2 0 1 1 0 1 0 0 1 0 0 0 0 0 0 1 2 0 3 1 1 0 1 0 0 0 0 2 2 0 0 1 1 1 0 1 1 1 0 2 1 0 0 1 2 1 1 0 1 1 1 0 0 0 3 2 1 1 1 0 0 1 0 1 0 2 1 0 0 1 0 1 1 1 1 1 2 1 1 0 3 1 1 1 0 1 1 0 0 0 1 1 1 0 1 2 1 0 1 1 0 2 0 0 0 2 1 0 0 2 0 0 0 1 1 2 0 0 0 1 1 3 0 0 3 0 0 0 1 1 1 1 0 0 1 0 2 1 0 2 0 1 0 1 1 0 0 0 1 0 0 0 0 1 0 1 1 1 3 1 1 0 0 1 0 0 0 0 0 0 1 1 2 0 2 1 0 0 1 1 1 1 1 0 0 1 0 3 3 1 1 0 1 1 1 1 0 1 0 1 3 2 1 1 2 2 1 0 0 2 0 1 2 0 0 0 2 1 1 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 1 0 0 1 0 1 2 0 0 1 1 0 0 1 0 2 1 0 1 0 1 1 1 1 0 2 1 0 3 0 0 0 1 1 0 0 0 0 2 0 0 0 2 0 1 1 1 2 0 1 0 1 2 0 1 0 1 1 1 0 1 0 0 1 1 1 1 0 0 0 0 0 1 0 1 1 1 2 0 2 0 1 0 0 0 0 0 3 0 0 1 2 0 1 0 0 0 1 0 2 0 1 0 0 1 1 0 0 0 0 1 0 2 0 0 0 0 2 0 0 1 3 3 0 3 0 0 0 2 1 0 0 1 0 1 0 0 2 0 1 0 0 2 1 2 1 0 0 0 1 0 0 0 2 0 1 0 0 1 1 0 2 2 3 1 0 0 1 0 0 2 0 0 0 2 0 0 0 1 1 0 1 0 1 1 0 1 3 1 0 0 1 0 1 0 0 1 0 0 0 1 1 0 1 1 0 1 1 0 0 0 0 1 2 1 0 1 1 1 1 1 0 0 0 1 1 0 0 2 2 0 1 1 1 0 1 0 0 1 2 0 1 1 1 0 3 2 2 1 1 0 0 2 1 2 1 1 3 0 0 1 1 1 0 1 0 0 1 0 1 0 0 2 0 0 1 0 1 1 1 3 2 1 2 1 1 1 1 1 2 0 0 0 0 1 0 2 1 0 1 0 1 1 0 0 1 1 0 0 2 2 0 2 1 0 2 0 0 1 0 0 0 1 0 1 1 1 1 1 1 0 2 0 3 1 0 2 0 0 0 1 0 1 0 0 0 0 0 0 2 1 1 0 0 1 0 1 1 1 0 0 0 1 0 1 0 1 2 0 0 0 0 2 0 1 0 0 1 1 0 3 2 1 5 0 0 0 1 0 0 1 0 0 0 2 4 0 0 2 1 0 1 0 0 3 0 1 0 1 0 1 2 0 1 1 1 0 1 0 0 2 0 0 0 0 0 0 1 1 1 0 2 2 0 1 0 0 0 2 1 0 0 1 0 0 1 0 1 0 2 0 1 0 1 2 1 1 1 1 0 0 0 0 1 0 1 0 0 1 0 1 0 2 0 2 2 1 1 0 2 1 1 0 1 0 0 0 0 1 0 0 0 0 0 2 0 1 3 1 0 1 1 0 3 0 0 0 1 1 3 0 2 1 0 1 0 1 1 1 2 1 3 1 0 1 2 0 2 3 1 0 1 1 0 0 0 3 0 0 0 1 0 0 0 0 0 1 1 0 1 1 1 2 0 2 1 0 0 0 0 2 1 0 1 0 0 0 0 1 1 2 1 0 3 0 0 0 2 0 0 0 1 1 0 2 1 0 0 1 0 1 0 1 1 3 0 0 1 0 0 2 1 2 1 0 1 0 0 1 0 2 0 0 0 0 0 0 1 1 1 0 1 1 0 2 1 1 3 2 1 1 1 1 0 1 2 0 0 1 1 1 0 0 0 2 1 0 0 1 1 1 0 3 2 0 1 0 2 2 0 0 2 1 1 0 1 0 0 0 1 0 1 3 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 1 1 1 0 3 2 0 0 1 0 0 2 1 2 0 1 1 1 1 0 0 1 0 0 0 2 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 1 2 0 2 1 1 0 2 0 1 0 0 0 1 0 0 1 0 1 0 0 1 2 1 1 1 2 0 0 2 0 0 0 1 1 1 2 1 1 0 0 0 1 0 0 1 0 1 2 0 1 0 0 1 0 1 1 0 1 1 0 1 0 0 0 0 0 1 0 1 1 1 1 0 1 0 1 1 0 0 3 0 0 0 1 1 0 2 1 0 1 1 1 1 0 1 0 0 2 2 1 0 1 1 2 1 0 0 0 0 0 0 0 2 2 0 0 2 1 1 1 1 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 1 1 1 2 0 0 0 1 1 4 0 0 1 1 1 0 0 1 0 0 1 0 2 1 0 1 0 0 0 0 1 2 1 2 1 1 1 4 0 1 2 0 0 1 2 0 3 0 1 1 0 1 0 1 0 1 1 3 0 1 0 1 0 0 2 1 0 1 0 2 0 1 1 3 0 0 0 1 1 2 0 0 2 1 1 1 2 0 1 3 1 0 0 1 1 0 2 1 0 1 0 0 1 0 2 3 2 1 0 2 0 0 0 0 0 0 0 1 0 0 2 3 0 2 0 0 1 2 0 2 1 1 0 1 0 0 0 0 1 0 1 1 0 0 1 0 1 2 2 2 1 1 1 0 2 1 1 0 0 2 0 1 1 0 0 1 3 0 1 1 0 0 1 0 1 0 2 2 3 0 1 0 1 0 0 1 1 0 1 0 0 0 0 0 1 2 1 1 0 1 2 1 0 1 1 2 1 1 0 0 3 2 0 0 1 1 0 1 1 0 1 2 1 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 0 1 1 1 2 0 1 0 2 1 1 0 1 1 0 1 1 0 2 1 0 1 1 0 1 1 1 1 1 0 3 0 0 0 0 1 1 0 1 2 0 0 1 0 2 0 1 0 1 0 0 0 0 0 1 2 0 1 0 0 1 3 1 2 2 0 0 1 0 1 0 2 0 0 0 0 1 0 1 0 0 0 0 0 0 3 0 0 1 0 1 0 0 1 2 0 1 0 1 1 1 0 2 1 1 2 0 0 0 0 0 2 0 1 3 2 1 1 0 0 1 1 0 0 0 2 0 0 2 0 0 1 2 0 0 1 1 0 2 1 0 0 2 1 2 0 0 1 1 0 0 1 3 0 1 0 0 0 0 0 2 0 2 1 0 1 0 0 1 0 1 1 1 2 0 0 0 0 2 0 0 2 1 0 2 0 1 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 3 0 0 2 1 1 0 2 0 0 0 0 1 0 0 1 1 2 2 1 1 1 0 0 2 2 0 1 1 1 2 1 1 0 0 1 0 0 0 0 0 1 0 1 1 1 0 0 3 0 0 0 0 1 0 1 2 1 0 1 1 1 0 0 0 0 0 0 0 0 0 0 1 2 0 0 1 2 2 0 0 3 0 1 0 0 2 0 1 0 1 0 1 1 0 0 0 2 2 1 0 2 0 2 2 1 1 1 1 1 0 0 1 0 0 3 1 1 1 0 2 0 0 1 2 1 1 1 1 2 0 0 0 1 1 1 2 3 0 1 1 1 0 2 1 1 0 0 0 0 2 1 0 2 0 2 1 1 0 0 2 1 0 1 1 0 1 2 0 1 1 4 0 0 0 0 0 0 1 2 2 2 0 0 1 0 0 1 2 1 0 1 1 1 1 0 1 2 0 2 0 2 0 2 1 0 2 1 3 0 0 2 1 4 0 1 0 2 1 0 0 2 1 1 1 2 2 1 0 0 1 1 1 0 2 0 1 1 2 1 4 0 0 0 0 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 0 2 2 3 1 2 2 0 0 0 0 2 2 1 1 1 1 0 0 3 0 2 0 0 1 0 0 1 0 1 1 1 0 0 0 0 1 0 0 3 0 0 0 1 1 0 1 1 1 0 1 1 0 1 2 1 1 1 1 0 0 1 1 0 1 0 2 3 0 1 0 2 1 0 0 1 2 2 1 1 0 0 1 0 0 2 1 0 1 0 1 2 1 1 0 1 2 0 2 1 0 0 1 2 0 0 2 0 0 2 1 3 0 0 0 2 1 0 0 0 2 0 0 1 0 1 0 1 2 3 0 3 2 0 0 1 0 0 0 0 1 0 1 1 2 1 1 0 1 2 1 1 0 1 0 0 0 0 2 1 1 1 0 2 1 3 1 1 0 1 1 1 0 0 0 1 1 1 2 0 2 1 0 0 0 2 1 0 1 0 1 0 1 0 1 0 0 0 0 2 0 0 0 2 1 1 0 0 1 2 0 0 0 0 1 1 0 2 1 0 1 1 2 1 2 0 2 2 0 3 1 0 1 2 2 1 1 0 0 0 0 1 0 1 1 1 1 0 1 1 1 1 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 0 1 2 1 1 0 0 1 0 1 0 0 1 2 0 0 1 2 1 0 2 2 1 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 1 0 0 0 0 0 1 1 2 0 0 2 0 1 1 0 0 0 2 0 0 3 2 1 1 0 1 0 0 1 1 0 2 0 0 1 0 0 2 0 0 0 2 0 1 0 1 2 0 1 0 1 1 1 0 1 0 0 1 2 0 0 0 0 0 1 1 0 0 2 0 0 1 0 0 2 1 2 0 0 2 0 0 0 0 4 0 0 0 2 2 0 0 1 1 0 1 1 1 0 0 1 0 1 0 1 1 1 0 0 0 0 1 2 1 0 2 0 1 1 1 1 1 1 0 1 0 1 2 1 1 2 2 0 2 1 1 1 1 2 1 0 1 1 0 1 0 2 1 0 0 2 0 1 2 0 1 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 0 2 0 1 1 0 1 2 1 0 0 0 0 0 0 0 0 0 0 3 1 0 1 0 0 0 0 0 0 0 0 0 1 2 1 1 1 0 0 1 0 0 0 1 1 2 1 0 4 0 0 1 1 0 3 2 1 1 3 2 0 1 0 0 1 0 0 3 0 1 1 1 1 0 0 2 0 0 1 1 0 0 0 0 2 3 0 0 0 2 0 1 0 1 0 0 0 0 2 1 1 0 2 0 1 0 1 0 1 1 2 2 1 0 0 0 1 0 2 1 0 0 1 0 0 2 0 2 0 0 2 0 2 1 2 0 0 1 2 0 0 1 1 0 0 0 1 1 0 0 0 0 1 2 0 1 1 0 0 2 1 0 2 3 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 0 3 0 1 1 1 2 2 1 0 1 0 2 0 0 0 2 1 1 1 0 0 0 1 3 2 0 2 0 2 2 1 0 1 1 2 1 3 1 0 1 3 1 0 0 0 2 0 1 1 0 2 0 0 1 1 0 1 0 1 1 1 1 2 1 2 0 0 1 0 0 0 1 1 0 1 2 1 0 0 1 1 1 2 1 1 1 0 1 1 1 0 1 0 1 0 1 0 0 2 1 1 2 0 1 0 0 0 0 0 1 0 0 0 0 0 1 1 1 1 1 1 1 1 0 0 0 2 1 0 3 2 2 0 0 0 0 0 1 0 3 1 0 0 0 3 1 1 0 0 2 0 1 2 2 2 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 0 1 1 1 1 0 0 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 1 0 0 1 2 1 0 1 0 1 1 1 1 0 0 0 1 0 0 1 0 1 0 0 2 0 0 1 0 0 1 1 4 2 1 2 0 0 0 0 1 0 0 1 1 1 0 1 1 0 1 1 0 0 0 2 0 0 0 3 0 1 0 0 2 0 0 2 0 0 1 0 1 1 0 0 0 0 1 1 0 1 0 2 0 0 1 0 2 0 1 0 0 1 1 0 0 0 2 0 0 0 2 1 0 1 1 0 1 2 0 2 1 0 1 1 1 0 0 1 1 2 0 2 0 1 1 0 3 0 1 0 0 0 1 0 2 0 2 0 1 1 2 0 1 0 0 0 0 2 2 0 2 0 0 0 1 0 3 0 1 2 0 0 1 0 1 2 0 0 0 0 0 3 2 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 1 2 0 0 2 0 0 0 2 1 1 0 0 2 1 1 1 1 1 0 0 0 0 1 2 0 1 1 1 2 0 1 3 0 0 1 0 1 2 1 1 0 1 1 0 0 1 1 1 1 0 1 0 1 0 1 0 0 0 1 1 0 1 3 2 0 0 0 0 0 0 1 1 1 1 1 0 2 0 0 2 1 0 0 0 1 0 1 0 1 1 1 1 2 1 1 0 3 0 0 0 0 0 0 1 1 0 0 0 1 1 1 0 0 0 0 1 0 1 0 0 0 2 1 0 1 1 0 0 1 2 2 1 1 2 0 1 1 1 3 0 1 1 1 1 0 1 0 1 0 1 1 1 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 1 3 1 2 1 0 3 0 1 1 0 3 0 1 0 0 0 0 0 0 0 0 0 0 3 1 1 1 0 0 1 2 1 0 3 0 1 1 2 0 1 0 2 0 2 2 0 0 0 1 1 0 1 1 0 1 0 1 0 0 2 2 0 0 2 0 0 0 1 0 3 1 2 1 0 0 0 0 2 0 2 0 1 1 1 0 1 0 0 2 2 1 0 1 0 0 1 1 2 1 1 0 3 1 1 1 1 0 1 0 0 0 3 1 0 1 2 2 1 1 0 1 0 2 5 1 1 0 1 0 1 2 0 2 2 1 0 2 0 2 0 1 0 0 0 0 0 0 2 0 0 1 1 0 2 1 0 1 0 0 1 1 2 0 0 0 0 2 2 3 1 1 2 0 0 1 1 0 1 1 1 1 0 1 2 1 0 0 0 0 0 2 2 0 2 0 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 0 1 0 1 1 1 0 0 1 1 2 1 1 0 0 1 0 0 1 1 1 0 1 0 0 0 2 1 2 2 0 0 0 2 1 2 1 0 0 0 0 1 0 1 2 1 1 0 1 0 0 0 1 2 1 1 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 1 2 1 0 0 2 2 1 3 0 2 1 0 2 3 0 0 2 1 0 1 1 1 0 1 1 1 1 2 0 1 1 0 1 1 0 1 1 2 1 0 1 2 0 0 0 0 2 0 0 1 0 1 0 0 2 1 0 1 1 1 2 0 0 0 0 2 0 0 2 0 2 1 4 0 0 3 2 0 0 1 0 2 3 1 1 0 1 1 1 0 1 0 2 1 0 0 0 2 0 0 1 0 1 1 2 0 0 1 1 1 0 0 0 0 1 2 0 0 3 0 2 2 1 2 2 1 0 0 0 1 2 0 0 2 1 1 0 0 0 0 1 0 1 1 0 0 1 1 1 0 2 2 2 1 1 0 0 1 0 0 0 0 0 1 1 0 1 0 0 2 0 1 1 0 1 1 0 0 1 1 2 1 1 0 0 0 1 2 0 0 0 1 0 1 0 0 0 1 2 0 1 0 3 1 0 1 0 0 2 0 2 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 0 0 0 3 0 1 1 0 0 0 1 1 1 1 1 1 0 3 1 1 0 0 0 1 0 1 0 0 0 1 1 2 1 0 0 1 1 1 1 1 1 0 3 1 1 1 1 1 1 2 0 1 2 1 1 1 0 2 0 0 0 0 0 1 0 1 2 1 0 0 0 2 1 0 1 1 1 1 1 0 0 1 1 1 3 1 1 2 1 1 1 0 0 0 0 0 0 0 0 2 0 0 0 3 0 1 3 1 1 0 1 1 1 0 2 0 0 1 0 1 0 0 1 0 1 0 2 3 1 1 1 0 0 0 0 2 1 1 2 1 0 0 0 0 0 1 0 1 1 1 1 0 0 1 0 0 1 1 1 1 0 1 1 2 1 0 2 1 1 0 2 2 0 0 0 1 1 0 0 0 1 2 0 1 0 0 0 1 1 2 0 2 2 0 1 0 0 0 1 0 1 0 0 0 0 1 1 0 1 0 1 0 0 1 1 1 0 0 1 0 0 0 0 2 1 2 1 2 2 2 0 0 1 0 2 0 0 2 1 0 1 1 0 0 1 0 0 0 0 2 0 0 0 0 1 1 1 0 1 0 1 0 0 0 2 1 0 0 2 0 2 0 0 0 0 0 2 1 1 0 1 1 0 0 0 0 1 2 0 0 2 0 0 0 2 0 0 0 2 0 1 1 1 1 1 1 1 0 0 1 0 0 0 1 0 1 2 0 1 1 1 0 0 1 1 0 1 0 1 1 0 2 0 1 1 0 1 0 2 1 2 1 0 0 0 0 2 1 0 1 0 1 1 1 0 2 3 2 1 1 0 0 1 0 1 2 0 1 1 1 0 1 0 1 2 3 0 0 0 1 0 0 1 1 0 1 0 0 2 1 1 0 2 0 0 1 1 0 2 2 1 0 0 0 1 0 1 1 1 3 1 1 0 0 0 1 0 0 0 0 0 0 2 1 2 0 2 1 2 1 0 0 0 1 1 1 0 1 0 1 0 2 0 0 1 0 0 0 0 3 0 2 1 1 1 1 2 0 1 1 0 1 2 0 0 2 0 3 0 2 0 2 0 1 0 0 0 0 1 3 2 0 1 0 1 0 0 0 2 1 1 1 1 2 1 1 0 0 1 1 1 1 2 1 0 0 0 0 0 0 0 0 1 0 0 1 2 1 1 2 1 0 2 0 1 0 1 1 0 1 0 1 1 2 0 1 2 0 0 0 1 0 1 0 2 1 1 1 0 0 0 0 0 0 1 1 0 1 1 1 0 1 1 0 1 1 1 1 0 2 0 0 0 2 2 0 0 1 1 2 1 1 0 0 0 0 0 1 0 1 0 1 1 0 1 2 0 0 1 0 0 0 0 0 0 2 0 1 1 1 1 2 0 1 0 1 1 0 0 0 1 0 1 3 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 2 2 2 0 1 0 0 0 0 0 1 1 0 2 1 0 1 0 1 3 1 0 2 1 0 1 0 1 0 3 1 0 0 2 1 1 0 0 2 1 0 0 1 1 0 1 0 0 0 0 0 2 0 2 1 0 0 1 2 1 0 1 1 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 2 3 0 2 2 1 0 1 0 1 0 1 1 0 0 0 2 0 1 0 1 0 1 0 2 2 1 0 0 0 1 2 0 0 2 1 1 0 1 1 2 2 1 0 1 0 2 1 0 2 1 0 2 2 1 0 1 3 0 0 2 1 0 0 1 2 0 2 2 0 0 0 1 0 0 1 1 2 1 0 0 1 2 1 1 0 0 1 0 1 0 0 1 0 1 1 1 1 0 1 1 1 1 1 0 0 1 1 1 1 0 0 0 2 0 0 3 0 0 1 0 0 1 0 0 2 0 0 0 0 1 0 0 0 0 0 3 1 2 2 1 1 0 0 3 1 1 1 2 1 0 1 1 0 1 1 1 0 1 1 2 1 3 1 1 0 2 1 0 0 0 1 0 1 0 1 0 0 1 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 2 1 0 0 3 2 0 0 2 1 2 0 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 0 0 1 1 2 0 0 1 1 1 1 0 1 0 0 2 1 2 1 0 0 0 0 1 0 0 0 2 1 1 0 1 1 0 0 0 0 1 1 0 0 1 2 0 3 3 1 0 0 0 1 1 1 2 0 0 1 1 1 1 1 2 1 0 1 1 0 1 1 0 0 2 0 2 0 1 0 1 1 0 1 1 1 0 0 0 1 1 0 2 0 0 1 2 0 3 0 1 0 0 0 1 0 1 0 3 0 0 0 1 0 0 0 0 2 1 0 0 0 0 1 0 1 0 1 2 1 0 0 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 1 0 1 1 0 0 0 1 0 1 0 2 0 0 0 1 0 0 1 2 0 0 0 0 2 0 1 0 1 3 0 1 0 0 0 2 0 1 0 2 1 1 0 0 0 1 0 2 1 0 1 1 0 1 0 0 1 1 2 0 1 1 2 0 2 1 1 3 2 0 0 0 0 1 1 1 1 0 1 2 2 0 2 1 0 1 0 0 2 1 1 0 4 2 1 0 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 2 2 0 1 1 0 0 1 0 1 2 0 0 0 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 2 0 0 2 0 0 0 0 2 2 0 0 0 1 0 0 0 1 0 1 0 0 2 1 0 0 1 2 0 0 0 2 0 1 1 0 0 0 0 0 1 1 4 1 2 0 1 1 0 1 1 0 1 1 2 0 1 0 1 0 0 3 1 0 0 1 1 1 1 1 0 1 0 2 1 0 1 0 0 2 1 0 0 1 0 2 1 0 1 0 2 0 1 0 1 0 0 1 0 1 1 0 0 0 0 3 0 2 1 0 2 0 1 2 0 1 2 1 1 1 1 0 0 0 0 0 1 2 1 1 1 0 1 0 0 1 1 0 1 0 0 1 1 0 1 1 1 2 0 0 1 0 2 2 1 0 1 0 1 1 0 0 2 0 2 1 1 0 1 0 0 0 0 0 1 1 0 2 2 0 0 0 0 0 0 0 0 3 1 1 0 2 1 0 2 1 1 1 1 0 0 2 3 0 3 0 1 2 1 0 3 1 0 0 2 2 2 1 2 0 0 1 0 1 0 1 1 1 2 0 3 2 0 1 1 0 3 0 0 1 1 2 0 1 0 0 0 0 2 2 0 1 1 0 0 0 0 1 2 1 0 0 0 1 0 1 1 0 0 1 0 2 1 0 0 1 0 0 1 0 1 1 0 2 0 1 0 2 1 0 4 1 1 0 2 1 1 1 2 1 0 1 1 0 1 0 0 0 0 1 0 1 0 0 0 0 2 1 0 1 2 1 1 1 0 2 1 1 0 1 0 0 3 0 2 2 0 2 0 0 1 1 0 0 1 0 0 1 0 1 0 1 0 2 0 3 0 1 0 0 0 2 2 3 2 0 2 0 0 0 1 1 0 1 0 1 0 0 1 1 2 1 1 1 1 1 1 1 0 0 0 0 1 0 0 1 1 0 1 3 0 1 2 0 0 0 1 0 0 0 1 0 0 2 1 0 0 2 0 1 1 1 0 3 0 1 1 0 0 0 0 0 1 2 1 2 1 1 1 1 0 2 0 1 0 1 0 0 1 1 0 0 0 1 1 1 0 0 0 0 0 1 1 0 1 1 1 0 2 0 3 1 1 1 1 2 0 2 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 0 2 0 0 2 0 1 0 1 0 1 0 0 0 2 0 1 0 0 1 0 0 0 1 1 1 0 0 0 0 1 1 0 1 0 0 0 2 1 0 1 0 0 1 2 1 1 0 0 1 0 1 0 0 0 1 1 0 0 2 0 1 0 3 3 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 1 0 0 1 2 1 2 1 0 0 0 0 0 1 1 1 2 0 1 1 3 2 1 0 1 0 0 0 1 2 1 0 0 1 0 2 2 1 1 3 1 0 1 1 1 0 1 1 2 1 0 0 0 1 1 1 2 0 0 1 3 1 0 0 0 3 0 0 0 2 3 2 1 1 1 0 2 0 3 2 1 1 0 0 0 1 0 2 0 1 1 1 1 0 2 1 2 1 0 2 1 1 3 0 1 0 1 1 1 0 0 1 1 0 0 0 0 0 1 0 0 0 2 0 0 1 1 0 1 0 0 0 0 0 1 3 1 0 1 1 0 1 0 0 2 0 0 1 1 0 0 0 1 0 0 0 1 0 2 1 1 1 0 0 1 1 1 0 0 0 1 1 1 0 1 0 0 0 0 1 0 2 3 1 0 1 1 0 2 4 1 0 2 0 2 0 2 1 0 2 1 0 1 0 0 0 1 2 1 2 0 0 1 2 0 0 0 1 1 1 0 0 0 1 0 0 1 2 2 0 1 0 0 2 0 0 0 2 2 1 0 0 1 0 0 0 0 1 1 0 0 2 0 0 0 2 1 1 1 0 3 0 0 1 1 0 1 3 0 0 0 1 1 3 0 1 0 0 1 0 2 0 1 1 2 0 0 1 3 0 2 1 0 1 1 1 0 1 0 0 1 0 0 2 0 2 1 1 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 0 0 2 0 1 0 0 3 0 0 1 1 2 0 1 1 0 0 1 1 1 1 1 0 0 0 0 1 0 1 1 0 1 1 1 0 2 1 1 0 0 0 0 1 1 0 1 1 0 0 1 0 1 0 0 0 0 1 3 2 0 1 1 0 0 1 0</t>
+    <t>NIG(29.059688943420234, 14.888436458196177, -0.9413768590642495, 33.993349945821926)</t>
+  </si>
+  <si>
+    <t>10 20 18 16 27 23 19 23 21 13 24 17 20 20 24 13 20 27 14 9 14 6 15 27 10 10 13 27 16 24 28 11 30 24 19 13 31 17 17 15 12 7 34 16 7 19 31 34 16 20 22 10 21 20 6 13 19 27 26 23 26 13 19 20 27 17 23 16 17 19 17 33 15 17 27 33 27 6 16 21 17 17 13 10 36 17 15 20 30 27 18 33 23 29 24 13 10 13 19 17 24 19 17 23 24 17 24 16 24 23 14 31 6 7 10 14 20 20 38 10 10 18 29 20 35 13 17 24 9 21 9 13 21 10 17 23 13 9 10 20 20 20 3 27 21 13 23 21 16 20 39 12 17 23 12 24 27 24 19 15 6 22 23 10 18 16 27 31 23 24 16 24 21 6 16 21 10 15 15 17 35 41 27 6 30 23 10 16 31 13 16 31 14 7 10 10 19 19 23 19 37 23 22 29 8 17 24 27 17 37 30 24 27 21 22 13 9 22 20 37 25 31 23 23 19 26 7 27 31 24 19 10 23 21 0 26 23 48 17 14 27 21 24 24 24 31 9 13 24 18 13 9 14 14 13 22 24 27 20 27 31 17 7 20 20 16 23 23 14 20 32 21 17 18 20 34 31 23 10 20 10 23 17 30 26 24 17 31 20 14 17 16 13 23 10 16 24 26 37 23 13 14 15 23 3 14 24 14 14 19 13 26 10 29 13 31 10 17 29 38 30 17 31 3 24 17 24 20 31 22 21 21 12 52 14 32 20 20 13 22 17 0 31 24 6 24 23 22 10 18 22 30 12 20 24 20 12 19 6 35 19 38 14 17 26 35 7 26 20 17 3 19 14 15 9 20 20 31 36 16 19 27 28 17 26 35 12 13 7 28 24 20 20 19 21 20 7 14 9 24 10 20 17 13 10 31 20 20 23 20 13 16 27 10 30 3 13 15 20 24 21 23 27 24 9 38 16 23 20 20 20 23 14 20 26 10 22 20 23 22 16 20 13 23 38 13 7 37 20 14 12 20 17 13 20 14 6 24 6 7 28 24 23 30 23 28 22 31 16 21 10 9 24 26 23 31 24 25 21 19 24 3 13 17 9 7 31 14 17 20 24 10 20 32 10 27 27 14 9 20 6 16 20 3 28 28 20 20 23 28 21 34 13 19 15 24 6 23 20 17 20 3 13 31 16 31 13 7 13 10 3 12 16 14 19 20 26 31 17 14 20 20 35 3 21 14 18 24 15 25 23 17 25 16 30 24 30 24 23 17 20 19 20 10 0 12 13 23 16 13 10 27 20 7 12 10 17 26 16 10 7 20 14 17 17 27 19 22 27 13 17 21 17 13 26 23 20 14 20 34 15 16 24 25 20 10 24 26 20 24 22 23 13 17 31 19 17 27 3 3 27 14 30 14 17 13 23 27 16 20 6 31 19 18 20 17 20 21 28 28 20 19 14 35 6 9 27 21 20 19 16 13 26 17 34 20 13 14 24 30 7 24 21 31 27 23 6 24 13 19 29 33 33 17 31 16 27 16 16 13 10 15 21 6 24 34 21 16 10 17 17 23 10 16 21 20 20 10 10 17 31 10 19 22 35 17 5 20 7 20 17 17 13 14 31 3 17 21 31 20 13 23 9 9 17 20 10 10 23 16 6 31 19 17 20 38 13 37 24 29 16 36 20 20 27 20 30 23 16 29 19 27 20 9 20 25 34 14 12 14 23 13 24 30 10 14 20 6 13 6 14 29 17 20 23 20 35 23 27 16 27 27 23 38 20 20 23 19 20 12 29 24 15 21 9 22 13 28 24 19 19 19 23 10 6 0 20 16 23 25 41 20 23 23 17 19 22 23 20 10 20 21 20 30 20 37 12 37 23 13 20 20 25 24 13 13 14 27 6 28 21 21 24 17 20 14 12 10 21 23 13 21 25 20 17 21 20 31 27 24 28 9 27 17 21 15 11 30 16 19 21 17 13 25 20 23 21 23 21 16 23 20 14 20 34 26 19 38 31 6 24 17 23 21 27 3 28 27 13 24 35 41 22 17 26 20 22 7 25 24 36 27 10 16 17 14 24 34 10 10 6 33 6 24 20 34 20 23 22 0 17 14 24 13 23 21 21 12 13 21 20 25 13 17 17 17 10 26 13 17 31 19 31 24 16 7 20 10 20 16 27 3 31 19 24 17 21 30 16 13 38 19 41 27 17 27 21 26 19 23 10 22 10 3 24 20 30 10 20 24 17 17 20 17 23 0 23 19 26 13 34 27 10 14 27 35 31 3 17 9 14 20 10 27 27 15 31 3 21 10 34 17 7 13 19 20 34 21 13 15 48 7 19 27 10 37 30 16 24 17 23 37 20 12 6 17 21 16 16 29 21 18 15 17 14 17 21 6 18 17 17 17 7 19 10 10 24 15 29 10 27 13 17 6 28 23 13 14 28 13 14 21 19 16 14 15 20 22 14 27 27 13 21 21 17 10 3 34 22 19 13 15 17 35 20 13 17 9 24 41 6 20 27 13 9 14 23 16 20 12 20 13 24 11 24 3 21 24 24 19 19 0 21 23 17 10 28 38 15 31 6 13 6 27 30 21 30 14 20 21 24 21 17 33 24 24 10 30 14 13 10 13 7 10 28 28 17 40 6 13 27 21 10 10 7 37 37 13 24 27 21 22 11 16 34 21 28 13 10 18 24 17 17 14 4 13 28 21 15 26 13 16 29 31 14 24 21 20 12 29 16 24 26 12 30 23 20 17 7 23 12 22 27 13 31 13 17 14 23 0 17 27 6 13 20 21 24 7 10 11 10 27 27 13 34 17 24 17 20 28 3 16 10 21 17 27 10 14 22 16 16 31 13 17 26 20 10 21 19 17 17 31 17 9 16 19 13 27 33 21 24 20 27 14 24 13 16 24 23 28 13 37 18 3 27 14 24 14 17 23 24 23 20 10 10 23 12 27 13 10 15 19 24 3 27 16 25 17 30 15 17 20 10 27 6 7 19 29 24 10 24 17 10 20 20 20 24 17 17 17 36 21 19 0 14 27 13 21 14 38 24 24 24 6 17 14 6 14 27 3 20 24 16 6 13 34 9 21 26 17 34 26 10 35 17 13 27 20 24 20 20 17 13 20 23 16 9 21 18 9 31 27 17 15 23 27 13 9 17 14 31 16 16 14 19 21 14 30 30 13 24 10 23 24 10 19 3 32 23 10 10 16 15 37 20 20 26 20 12 22 18 15 17 23 24 26 9 3 22 24 24 28 24 21 17 20 7 27 16 23 35 29 24 13 27 31 16 14 36 28 16 19 13 17 6 19 10 10 35 27 17 24 16 19 17 27 16 21 10 10 45 20 31 14 20 10 16 31 21 24 20 17 33 17 10 21 15 24 24 16 15 12 19 17 34 23 14 14 34 21 9 16 28 13 3 31 18 16 20 21 21 23 13 10 23 16 17 9 22 35 17 14 14 20 30 26 19 23 37 7 27 20 13 31 17 14 17 13 19 30 14 14 24 20 30 13 34 17 10 7 27 6 20 22 7 28 24 6 10 13 6 10 14 17 21 10 0 13 7 26 14 21 15 20 13 10 20 35 19 17 19 13 13 3 24 21 18 17 23 17 37 12 30 12 18 20 27 23 10 34 7 15 16 24 0 6 20 17 13 13 14 17 24 10 10 12 17 23 28 12 10 27 13 35 12 31 15 3 22 14 16 10 30 20 34 14 17 20 17 27 14 15 21 20 19 21 13 26 27 19 24 17 30 20 9 9 29 20 41 33 10 17 24 31 20 14 23 32 40 28 26 27 14 13 19 14 13 10 6 15 30 19 25 13 9 38 28 20 13 23 10 22 10 10 22 15 31 34 20 19 27 9 23 23 10 12 10 32 17 6 9 18 55 17 14 23 17 20 21 17 18 20 17 12 24 10 24 10 17 12 19 14 10 17 24 10 16 23 15 3 31 24 21 21 30 16 10 6 33 17 34 19 14 3 20 24 17 13 17 13 14 17 6 16 19 13 10 34 8 31 19 27 24 9 28 13 11 6 14 24 24 24 10 22 27 10 0 23 26 24 14 10 23 16 14 20 14 9 24 27 10 17 9 28 12 16 18 15 13 17 10 27 20 18 27 28 19 26 7 24 27 20 16 31 16 15 28 33 14 17 31 20 19 27 17 30 30 20 20 12 20 28 20 13 10 20 36 13 3 10 3 20 19 18 19 27 6 6 23 24 27 17 17 16 24 17 21 21 13 17 17 14 17 14 7 27 21 3 34 12 16 35 31 20 20 28 23 22 12 34 14 27 24 9 26 14 21 21 13 16 34 38 20 17 31 31 14 21 13 16 33 23 31 20 18 3 20 19 21 16 10 10 3 18 28 13 14 27 26 16 22 19 16 23 21 26 14 13 28 24 3 12 28 5 6 23 10 22 24 17 26 10 13 16 25 16 31 21 17 21 24 27 28 28 13 14 16 16 17 8 34 27 16 17 20 21 19 24 27 21 20 19 17 27 20 17 20 13 27 24 20 17 17 13 21 25 30 10 12 19 9 41 16 24 12 16 28 21 12 31 24 16 27 14 15 17 7 16 24 31 10 30 20 23 9 23 34 27 37 19 17 35 9 27 9 10 33 28 7 14 26 13 20 25 10 27 17 13 23 30 10 22 24 6 20 21 12 10 20 20 26 15 14 10 26 35 19 28 16 34 20 11 17 23 10 3 15 20 23 21 14 17 24 31 13 17 21 19 20 10 24 27 19 14 15 24 21 17 3 9 27 25 27 21 23 9 30 21 16 22 21 38 34 17 26 30 27 15 30 27 23 24 21 14 14 25 6 21 18 31 17 9 24 16 13 17 19 28 16 25 33 16 31 17 14 20 16 13 17 7 13 17 9 13 17 24 8 26 16 10 16 13 32 23 13 10 20 16 22 24 21 20 17 24 23 20 17 16 10 17 17 10 3 23 14 16 38 21 35 13 17 17 24 23 23 34 11 31 16 29 13 13 28 7 33 30 17 14 16 6 30 30 23 24 14 16 28 13 20 17 16 15 20 19 20 21 13 20 21 23 10 16 21 26 23 24 27 9 27 16 12 25 21 6 34 18 11 13 20 23 30 16 17 14 23 17 17 17 16 17 17 29 24 13 10 13 21 23 27 26 24 3 20 21 19 14 17 24 17 13 6 33 6 30 34 16 19 16 16 3 7 16 10 19 9 14 23 10 17 24 24 13 19 24 23 28 10 14 34 35 10 17 16 20 17 17 17 16 23 22 23 6 21 27 28 24 7 31 9 26 22 13 13 16 17 13 13 14 13 26 10 17 24 13 13 42 28 6 31 13 24 29 16 20 26 22 6 22 17 16 0 13 31 3 24 23 25 13 13 20 16 35 17 7 0 16 35 14 22 20 10 31 34 7 14 47 45 19 33 19 23 34 38 13 21 16 27 21 20 17 30 20 19 16 32 28 13 20 7 27 11 13 18 11 14 23 19 6 21 17 13 6 17 21 17 31 9 20 38 24 24 26 24 24 29 38 26 17 20 8 16 14 16 27 13 20 24 12 20 6 27 21 21 12 27 20 13 14 26 23 41 25 27 23 17 23 29 34 16 24 18 24 14 3 19 24 13 20 10 21 25 28 23 20 14 23 29 30 16 20 26 17 31 40 12 27 21 21 12 6 9 20 26 28 20 27 14 10 20 12 23 27 19 24 16 21 24 22 20 21 3 20 26 27 3 6 21 20 10 21 24 13 14 20 13 7 25 29 6 29 11 24 16 13 17 7 21 20 31 24 30 17 35 13 30 23 21 22 20 20 27 31 12 10 20 22 20 14 20 21 23 21 24 10 6 13 16 19 18 20 23 24 7 10 12 16 24 27 23 10 24 7 21 3 20 17 23 13 19 30 20 16 20 33 26 16 17 20 7 17 17 20 17 27 33 12 17 17 14 3 16 16 27 14 14 10 30 26 20 17 10 17 10 24 35 24 21 27 26 7 13 23 22 24 24 20 16 13 13 31 24 26 10 19 9 19 31 23 14 24 5 10 20 34 20 10 20 17 13 16 25 9 13 20 12 10 21 14 26 10 24 9 21 26 23 27 27 17 13 22 29 20 26 21 24 10 13 10 16 17 7 14 27 6 20 38 22 29 6 8 11 14 7 14 10 19 20 13 12 31 28 19 19 3 20 13 31 31 21 14 34 16 6 20 20 31 34 10 13 31 9 28 13 27 20 25 28 6 28 17 29 13 13 27 18 19 20 20 22 16 21 19 13 21 21 29 14 15 13 9 10 21 13 27 20 24 16 24 17 14 24 10 27 22 16 18 33 6 17 34 9 16 42 26 13 21 34 31 20 34 31 16 34 14 24 20 23 27 12 20 31 6 35 47 26 20 24 20 23 24 13 17 35 33 17 42 0 24 23 6 18 9 13 31 23 3 13 9 3 31 7 21 20 10 20 12 20 20 16 7 34 17 6 23 21 13 10 14 28 16 17 18 35 24 7 8 31 9 16 20 10 17 37 28 10 13 14 21 25 14 21 20 30 22 20 6 14 19 18 6 16 17 20 13 17 20 20 17 21 20 18 7 27 19 21 24 22 17 17 30 23 16 19 27 17 15 13 17 16 17 23 0 17 17 20 15 10 24 9 42 23 32 19 10 14 14 13 20 10 27 6 25 31 13 23 15 24 20 27 23 20 27 27 33 23 19 20 13 12 34 23 12 34 20 30 13 21 16 17 22 22 23 20 10 21 7 10 17 26 43 20 31 23 13 21 15 10 13 20 9 28 19 17 31 9 9 30 27 6 16 13 13 31 17 6 10 23 23 19 17 17 21 38 26 13 16 6 16 17 24 13 10 20 10 10 16 26 16 23 30 24 12 35 23 3 26 27 27 17 24 20 14 14 31 19 30 17 17 14 27 17 9 17 19 27 16 7 10 23 10 9 7 24 16 8 17 10 19 23 21 26 15 10 27 24 17 24 29 31 27 10 14 20 12 12 16 7 18 17 12 17 17 21 35 21 17 14 24 14 24 16 16 13 20 17 20 17 19 17 21 9 9 8 21 16 37 19 23 27 26 37 20 6 18 22 23 16 13 3 15 19 16 9 24 12 24 15 23 7 31 19 0 28 7 24 31 41 23 31 24 28 12 20 13 16 31 6 21 7 37 17 14 11 20 17 10 17 20 24 7 24 24 15 17 3 20 12 20 20 40 15 26 30 27 10 24 13 28 13 17 13 30 21 13 10 16 14 24 27 14 20 12 14 20 20 20 9 27 13 24 17 24 16 14 13 17 18 16 24 17 30 27 27 9 24 6 20 27 24 19 13 16 20 13 35 16 13 34 35 14 19 13 20 24 21 27 14 20 20 9 20 9 13 16 17 15 17 21 26 34 23 17 10 21 23 17 6 16 16 15 16 28 14 13 28 16 13 19 26 20 26 26 21 16 7 20 17 12 29 30 23 10 9 10 24 16 27 29 20 37 41 21 3 9 28 20 20 17 14 19 14 7 21 19 14 23 0 21 21 10 23 14 3 31 13 13 31 20 17 30 21 22 21 9 20 19 23 13 20 24 23 16 21 12 7 24 30 38 17 18 40 13 30 28 40 18 27 0 17 19 17 38 21 9 20 22 16 20 16 27 31 24 14 29 16 3 6 31 20 19 16 29 37 30 16 27 14 17 3 18 37 26 24 21 13 22 33 33 7 17 21 29 10 30 26 24 17 23 21 12 10 26 31 20 22 26 34 14 23 21 17 10 17 17 28 29 35 0 17 13 21 14 14 24 17 19 17 10 27 15 6 33 13 7 16 20 13 20 16 21 23 11 18 14 20 14 16 16 27 13 27 20 6 26 17 20 14 21 14 13 23 17 20 17 20 23 21 3 14 11 7 24 31 25 15 30 27 26 29 30 14 27 17 16 18 14 31 10 13 21 24 12 23 21 24 19 7 21 13 13 27 22 23 22 19 16 12 21 17 24 17 23 17 28 12 26 13 13 14 15 22 51 27 10 6 14 24 36 24 16 38 3 13 22 11 22 34 27 15 28 7 23 13 10 0 27 27 27 9 28 23 17 30 21 24 9 20 12 13 12 34 20 23 24 14 27 9 31 23 24 13 20 13 13 35 9 17 24 19 13 31 10 7 26 35 27 10 31 17 23 10 27 17 12 25 13 16 30 13 12 27 0 34 21 20 6 20 31 20 13 20 10 17 31 17 18 6 13 6 14 13 7 19 20 16 24 16 21 23 13 31 30 24 13 28 17 6 23 3 32 16 13 17 27 23 30 20 20 13 10 10 27 20 21 7 31 17 13 26 17 17 34 21 24 38 10 3 14 35 10 3 34 17 34 32 30 30 16 20 28 10 24 13 23 40 24 10 17 22 21 14 26 16 21 30 9 13 29 16 21 26 28 15 13 21 10 24 22 13 27 9 16 13 17 28 16 27 6 20 30 29 27 16 23 20 20 21 19 24 19 21 26 13 12 14 19 28 14 13 18 27 22 20 17 16 13 31 10 24 35 24 16 13 3 20 16 30 20 6 31 17 14 14 20 13 23 16 8 22 23 16 22 22 19 9 31 24 9 16 21 10 33 26 20 17 15 34 28 20 26 10 24 10 10 17 18 10 21 6 23 27 16 31 26 23 21 14 23 14 14 30 33 17 23 24 23 26 17 7 23 27 20 47 6 24 22 30 8 24 13 19 10 27 20 20 35 27 14 21 17 16 16 27 16 10 40 21 20 10 10 26 14 12 12 21 28 12 24 25 26 17 10 6 26 30 3 41 3 31 12 8 17 20 27 26 27 17 34 24 20 27 31 21 23 28 27 17 19 26 17 15 24 20 16 28 38 17 20 7 12 14 13 17 19 16 16 23 24 24 17 20 20 17 17 16 3 30 17 19 9 30 16 28 20 14 31 30 18 13 10 25 12 17 24 3 18 24 10 19 16 16 19 18 20 27 9 37 14 31 21 21 9 12 21 18 23 20 16 17 14 16 10 7 19 34 24 6 28 13 25 34 17 27 33 16 17 9 6 24 21 23 24 7 24 21 19 27 24 23 28 17 20 23 18 23 20 27 13 6 23 12 17 14 27 21 27 23 8 24 24 17 27 21 14 24 17 37 31 18 20 7 29 31 23 7 19 7 34 19 21 24 21 13 10 20 14 27 20 27 34 17 12 20 17 24 31 9 22 23 9 16 26 9 17 24 14 3 25 31 27 19 11 37 14 10 31 30 26 10 20 14 21 21 20 21 27 13 31 23 12 13 21 20 16 17 38 16 33 3 19 14 20 30 16 16 20 16 13 23 9 6 12 35 10 17 20 41 3 16 20 27 11 27 16 16 17 19 21 21 23 16 24 6 17 21 23 23 13 29 27 19 27 3 47 17 23 24 10 17 22 17 24 28 14 24 20 17 10 25 14 28 13 6 24 23 16 23 9 14 26 7 16 21 30 38 23 15 26 16 20 22 9 27 24 14 9 10 14 16 10 19 17 35 27 31 17 23 11 14 34 10 34 37 20 16 24 20 38 20 19 24 20 14 21 22 28 24 27 0 10 17 25 21 17 13 31 19 27 26 29 23 25 20 24 10 16 7 6 23 18 34 18 10 35 24 13 10 38 14 31 24 3 34 19 19 27 9 23 14 24 9 29 13 16 31 3 26 19 10 30 14 30 10 17 41 27 13 7 10 16 17 14 9 30 27 17 17 10 27 21 27 13 17 35 6 6 27 7 17 17 15 13 12 24 20 27 15 31 31 10 13 17 16 18 24 18 23 10 16 14 33 31 10 26 10 22 10 15 21 27 21 24 7 16 21 17 20 31 15 14 21 37 24 21 34 15 23 20 13 24 23 14 24 12 31 19 23 19 23 17 27 20 25 21 27 13 17 10 20 37 27 12 14 21 14 24 21 16 21 24 14 21 38 21 13 17 7 13 30 23 7 10 7 20 38 6 41 16 21 29 27 27 24 30 19 3 20 17 19 17 17 20 16 25 10 27 24 17 16 14 24 13 17 21 19 7 34 34 25 14 31 17 31 20 6 20 10 9 26 27 13 24 20 31 13 9 23 17 24 17 22 23 25 20 10 14 38 16 27 10 22 10 27 10 31 23 20 13 15 15 32 20 23 21 13 27 21 10 41 13 10 3 17 10 24 24 17 16 7 16 9 19 17 16 30 27 13 37 24 7 23 16 17 13 23 23 17 23 31 37 15 20 23 9 27 20 22 7 16 23 36 9 10 27 27 13 12 12 17 13 27 23 20 3 24 15 24 7 13 28 19 24 11 17 14 28 23 10 22 24 20 12 20 12 21 22 22 10 19 17 22 27 28 21 30 31 14 17 36 20 10 13 24 7 17 31 17 17 13 34 17 24 6 30 17 17 24 17 27 26 14 31 24 14 34 12 19 10 21 24 17 13 21 5 23 16 22 10 20 19 33 16 13 24 13 17 3 17 6 7 31 10 24 20 17 19 17 24 17 20 10 22 27 31 13 16 16 31 28 20 16 17 37 3 17 28 6 27 12 27 31 23 23 13 20 17 3 13 29 20 29 27 33 13 10 26 28 16 6 25 22 3 31 13 24 17 27 16 20 7 6 47 14 20 17 14 10 20 27 13 22 19 17 11 23 17 14 13 17 16 13 24 20 16 38 16 23 13 26 15 27 20 5 30 23 9 7 34 35 9 23 28 37 20 18 17 16 13 3 31 31 13 31 24 14 26 30 0 26 6 24 20 10 23 34 27 21 17 13 17 20 3 12 28 13 20 9 31 24 30 13 13 20 13 27 24 6 23 14 17 20 20 28 38 27 10 13 35 41 15 17 10 21 24 26 20 23 8 9 14 13 13 13 24 6 24 14 13 17 13 10 10 20 20 19 24 17 27 7 28 10 10 20 19 22 23 21 6 21 13 14 20 24 20 7 16 30 40 19 23 14 0 16 38 12 16 12 23 26 14 30 23 23 31 34 35 20 3 20 27 23 20 19 49 14 33 30 9 19 10 26 31 24 3 20 29 10 14 12 17 20 24 17 20 33 27 27 24 20 6 20 20 34 15 24 6 13 22 13 34 7 24 19 28 19 19 24 20 15 13 22 13 35 20 9 10 29 17 21 17 13 21 3 24 20 20 0 17 27 24 15 24 30 17 23 22 22 31 13 14 26 17 13 17 16 28 10 22 16 27 23 20 20 7 17 33 13 24 34 12 21 20 26 27 10 27 10 30 21 28 14 31 16 18 27 20 26 13 6 16 6 10 16 7 13 30 17 19 22 27 35 21 6 30 17 12 27 16 31 24 9 23 20 26 20 17 19 33 16 14 14 38 7 22 22 33 14 16 23 21 31 10 12 34 33 26 13 26 17 23 17 20 9 23 10 23 46 30 30 6 23 12 14 16 6 10 10 24 20 24 9 21 23 27 33 27 10 12 28 3 24 10 14 6 19 17 28 15 24 14 21 26 33 8 20 27 30 13 24 24 19 13 24 14 18 16 20 13 24 23 9 31 18 23 25 17 26 17 23 19 30 7 7 20 13 15 28 26 0 20 19 17 27 9 14 17 19 13 10 20 9 23 28 20 24 38 31 23 38 24 13 16 30 13 29 14 16 31 14 20 9 17 8 16 10 3 16 14 24 6 31 31 23 25 24 18 10 8 21 20 6 20 27 6 44 24 17 35 11 27 21 13 20 13 27 9 16 27 22 9 19 29 27 10 31 20 30 20 23 24 10 21 10 23 31 31 6 30 7 20 24 27 16 13 13 20 7 26 15 21 14 6 7 19 19 24 34 14 26 10 13 31 24 13 10 18 30 16 19 24 24 27 17 20 31 20 25 31 21 30 19 20 14 19 23 0 29 7 20 21 16 16 19 7 20 20 14 27 27 14 27 20 6 3 21 9 20 23 13 17 27 18 16 3 32 14 35 24 26 9 11 14 23 30 10 19 15 20 21 17 23 15 20 7 31 23 22 48 16 7 24 13 17 30 20 20 31 13 21 17 13 34 23 20 29 6 24 16 14 44 16 12 27 24 23 31 6 16 34 10 16 27 20 20 31 19 14 13 21 14 3 19 37 20 28 18 14 20 30 37 13 24 28 10 20 27 19 24 22 13 20 22 37 9 24 29 14 14 20 10 13 35 12 45 17 13 16 23 24 0 16 24 16 10 8 23 20 25 31 9 14 6 9 14 20 27 20 10 26 22 17 28 23 12 20 13 17 24 15 17 20 24 13 16 35 13 26 14 27 14 10 16 21 21 27 21 14 16 31 19 17 17 17 26 17 10 28 25 21 26 7 19 41 3 13 26 17 16 35 20 17 26 23 16 16 5 7 22 24 34 23 8 31 14 21 21 14 15 24 30 21 24 41 13 13 21 29 33 20 24 24 13 15 17 20 33 14 20 24 22 27 13 24 20 21 9 20 6 13 17 23 14 9 15 20 23 10 13 10 13 31 20 10 21 15 13 27 13 21 16 19 20 3 13 21 34 27 13 17 16 16 19 31 9 41 35 24 10 17 17 19 48 16 27 14 10 21 11 13 6 29 16 16 9 12 24 7 9 10 31 19 12 21 14 21 16 20 24 14 18 26 19 16 26 21 10 6 13 31 23 3 20 23 28 20 23 16 22 19 23 3 22 6 23 19 13 16 19 21 27 20 20 24 10 28 30 27 23 13 12 27 21 7 23 13 10 31 13 14 17 23 28 21 27 27 27 13 34 6 20 7 20 21 23 14 31 17 16 3 27 17 17 23 34 13 17 10 28 13 14 28 13 7 34 21 34 10 21 31 28 6 21 19 20 20 11 13 20 17 26 26 16 7 21 23 16 26 17 14 29 16 14 27 17 19 21 13 12 23 17 13 15 34 13 20 17 21 20 13 24 27 0 9 17 26 16 14 7 16 15 16 13 27 16 12 13 19 13 16 29 13 14 6 13 21 20 17 12 13 17 28 10 28 20 24 30 17 8 18 26 14 16 29 10 20 17 16 13 41 24 29 17 17 24 23 7 3 24 14 20 17 13 10 24 17 3 20 39 16 6 16 27 10 24 23 37 15 18 19 34 23 16 20 12 14 23 13 13 20 30 17 19 26 27 27 23 24 20 16 24 7 16 6 19 20 33 17 13 24 10 10 20 19 3 28 17 17 31 25 27 21 3 32 21 6 26 20 20 30 6 30 27 27 13 20 19 23 17 3 29 24 3 10 9 17 19 10 26 16 9 20 7 6 29 20 24 9 31 10 17 16 21 10 26 10 22 19 13 20 26 10 26 10 19 16 24 6 19 45 16 17 10 23 16 23 27 17 21 27 14 13 9 31 10 24 13 23 10 14 31 16 13 31 20 13 20 7 24 20 19 10 17 17 31 23 18 17 14 19 27 22 14 21 12 21 14 20 17 27 12 24 16 10 17 20 24 17 36 27 30 14 17 19 27 16 14 16 28 16 7 15 10 13 17 14 27 23 20 27 26 17 38 16 19 18 10 24 17 10 17 24 17 24 27 17 6 13 24 21 34 23 10 20 13 16 29 29 17 21 28 19 17 30 18 3 23 14 13 14 19 24 21 19 21 25 26 19 12 10 24 24 26 10 24 7 36 13 21 19 13 26 23 31 18 27 23 7 27 20 14 34 14 33 22 24 30 27 23 16 13 23 6 23 20 20 17 17 16 31 20 20 23 10 20 17 15 23 9 20 14 14 24 13 19 3 7 19 27 33 9 24 23 30 17 21 18 10 13 12 20 34 23 9 17 16 20 10 27 22 18 27 27 14 13 17 23 9 33 27 28 12 29 16 19 14 6 20 23 13 24 14 31 23 10 27 19 27 18 16 23 13 13 35 23 24 20 10 34 6 14 25 7 9 12 14 14 20 19 26 27 27 13 27 16 27 10 23 30 21 10 20 24 10 21 10 28 19 31 23 20 13 24 34 22 23 15 16 40 13 16 11 16 24 14 16 34 23 16 24 24 22 24 13 30 13 27 12 21 37 29 17 23 42 17 17 30 30 20 37 14 20 13 12 6 13 23 20 24 9 16 12 34 19 28 38 22 30 16 20 28 35 10 17 23 20 9 17 24 20 23 16 10 23 22 24 30 20 27 10 20 20 20 13 31 16 17 26 22 27 23 3 34 12 6 20 27 16 13 6 14 21 19 13 26 17 20 22 14 7 10 20 26 10 9 19 28 17 22 13 17 7 19 36 26 31 23 45 14 9 10 12 16 41 16 20 23 17 31 10 16 34 17 23 17 20 13 13 7 24 20 14 13 20 21 7 24 21 14 15 19 24 21 23 46 11 14 21 17 17 17 30 12 3 9 29 17 10 30 23 22 13 21 7 28 20 17 34 9 40 10 30 17 34 7 13 9 16 3 20 20 10 17 17 17 19 12 13 17 31 19 16 16 25 13 33 21 3 16 13 24 20 13 0 16 16 27 24 27 27 25 24 30 15 26 22 20 44 10 17 24 21 21 34 21 13 15 17 9 9 17 14 27 10 6 15 17 27 13 13 21 13 14 45 13 10 27 19 21 3 27 13 44 24 27 16 10 26 13 21 6 7 30 27 21 19 28 20 10 21 24 19 30 17 16 6 3 28 29 20 29 17 17 20 21 23 20 23 26 30 26 20 13 26 20 27 10 3 23 35 31 7 13 26 27 20 20 10 10 14 13 18 10 17 13 7 20 21 6 20 6 19 9 27 17 11 23 33 7 17 14 19 17 28 21 14 23 31 17 10 27 16 7 24 12 33 14 24 21 26 24 31 24 9 10 20 31 24 33 20 16 17 38 28 16 20 16 35 33 13 24 17 12 33 13 23 26 19 41 20 18 20 16 12 21 30 31 10 20 34 7 28 13 15 24 23 20 17 10 31 10 33 13 24 24 45 17 13 13 20 21 6 16 13 23 6 38 31 17 7 24 20 28 16 28 13 24 7 15 33 10 21 24 10 16 9 7 6 26 20 16 14 20 21 31 30 17 9 21 23 22 30 19 10 9 17 30 21 27 37 56 21 33 35 16 13 18 9 19 26 20 9 27 24 17 24 3 24 10 31 20 16 13 21 14 29 16 20 10 24 10 24 9 14 18 24 27 31 16 17 37 16 10 22 24 21 14 16 16 13 20 16 13 9 27 26 13 16 20 25 13 24 28 17 30 20 13 24 14 17 23 23 31 19 7 10 19 21 10 33 14 30 10 18 17 26 3 19 24 14 20 6 16 17 26 16 20 34 16 23 9 24 21 13 10 16 12 23 14 17 21 10 24 17 13 23 21 23 20 42 21 35 16 20 7 23 24 19 23 10 12 6 26 13 23 14 30 38 16 23 13 20 13 6 21 31 20 16 10 22 27 17 23 23 16 10 6 26 19 12 13 20 24 24 10 47 9 21 6 13 20 29 24 17 20 14 13 48 10 13 23 20 3 34 20 20 17 17 13 9 27 24 28 20 36 20 34 28 17 24 17 20 24 0 33 43 10 3 31 10 10 14 13 23 16 20 17 20 2 14 31 13 9 17 17 23 9 14 9 23 17 10 27 17 24 23 20 17 38 13 28 13 13 27 21 6 18 16 31 14 9 15 14 7 26 27 23 24 16 21 28 13 14 17 20 9 20 38 23 21 23 26 18 26 30 21 24 17 16 7 24 10 10 23 7 27 16 21 27 9 23 28 27 17 12 16 17 35 23 16 30 13 17 13 24 13 19 17 17 24 3 19 13 13 24 20 13 12 24 3 10 21 14 24 20 16 16 27 31 13 9 14 13 25 24 6 21 28 24 20 24 20 10 36 27 16 10 24 21 20 13 19 13 9 31 23 10 16 22 20 16 7 16 26 26 6 24 27 16 20 27 24 13 14 13 20 17 21 16 23 17 33 35 17 23 30 15 13 20 23 27 17 27 17 25 17 20 24 20 13 23 19 10 24 38 17 17 3 3 34 34 32 17 19 31 28 24 28 41 10 11 20 30 17 10 16 31 27 17 14 10 13 3 17 9 20 6 27 25 23 20 24 10 15 20 24 10 20 21 13 20 17 34 13 21 17 3 20 10 10 24 10 24 20 31 19 36 24 23 23 18 14 17 22 20 17 19 17 20 20 7 3 20 20 13 23 23 10 13 17 23 20 17 24 16 30 0 14 9 24 22 13 23 27 3 10 27 23 27 16 30 28 20 24 23 32 14 31 19 9 20 31 10 10 20 10 26 36 20 20 16 23 20 20 10 21 20 8 14 13 17 24 24 14 17 14 24 17 17 22 27 22 13 30 20 6 13 17 30 9 14 21 24 17 13 17 29 24 21 19 27 16 20 20 17 24 9 31 20 6 10 19 24 28 21 37 16 14 20 23 16 12 23 31 27 22 13 19 33 16 27 31 17 12 27 16 10 16 13 27 13 27 31 34 16 24 23 13 29 15 10 6 7 12 23 26 28 20 22 10 17 6 20 24 23 21 21 26 13 24 14 20 20 20 20 38 31 22 6 31 9 28 21 23 20 24 9 16 13 17 14 13 13 17 26 7 20 31 10 27 28 23 13 20 7 23 3 17 31 10 17 30 16 33 23 24 9 17 3 10 24 17 21 21 17 9 17 22 21 10 22 23 22 30 7 19 16 17 10 17 16 17 13 13 16 19 21 16 21 13 28 24 27 7 10 16 21 17 13 7 14 17 27 10 17 23 19 12 10 17 17 10 13 10 16 16 7 27 3 19 17 23 27 18 11 26 34 20 19 13 34 24 17 29 26 24 7 19 33 28 41 31 16 14 10 30 17 13 14 30 17 38 22 24 31 21 17 26 10 20 24 27 10 17 17 10 14 17 17 14 27 6 10 24 14 26 39 13 14 27 17 31 13 14 23 17 22 18 23 22 24 24 30 20 26 16 20 13 30 20 37 24 7 24 13 27 17 25 15 14 10 20 25 17 13 17 28 9 14 14 28 22 16 26 20 7 7 13 21 10 6 18 28 15 20 10 27 31 24 19 17 16 16 27 7 13 35 7 16 21 20 27 13 26 13 10 31 27 9 10 15 20 10 10 13 16 13 15 31 23 20 10 0 25 30 31 10 13 16 11 10 17 7 37 16 17 36 24 33 27 20 21 13 0 19 14 12 20 19 13 20 17 24 7 24 30 17 27 20 15 20 21 24 21 17 41 10 10 19 16 13 24 20 35 16 24 20 31 27 17 17 27 28 10 20 27 29 7 13 20 13 21 24 20 31 13 17 17 27 20 13 23 24 10 28 17 17 21 10 28 9 19 8 14 14 17 27 20 17 17 21 23 19 23 22 13 10 10 13 13 24 16 3 31 16 10 6 22 27 23 13 14 22 17 24 14 14 10 31 20 11 21 33 12 10 20 12 17 24 23 34 16 21 13 38 10 30 24 17 13 30 24 27 16 34 13 24 17 24 9 23 18 24 23 20 7 20 14 24 26 28 16 10 21 16 23 24 33 14 24 23 17 22 18 38 7 16 17 24 10 13 24 18 14 10 13 17 17 13 16 20 14 16 16 18 19 13 14 23 16 21 0 21 23 10 10 23 6 30 10 31 24 24 23 19 19 45 17 29 14 18 29 18 26 20 26 13 31 20 16 17 13 35 6 27 20 24 10 14 24 27 27 17 27 23 35 34 10 15 23 7 20 10 19 33 17 9 26 26 16 22 13 15 21 21 7 29 12 24 24 26 28 36 12 10 23 17 23 28 41 14 24 10 0 17 13 17 14 27 28 30 13 0 17 24 26 13 17 19 17 29 21 12 21 9 16 31 17 26 17 26 27 12 12 10 18 10 26 21 7 17 26 9 24 14 23 0 14 16 23 11 27 17 29 34 7 27 10 27 20 17 23 16 16 12 9 9 13 13 20 21 20 17 8 14 20 17 23 13 27 13 14 15 24 32 24 20 18 43 13 18 13 23 24 19 17 20 28 27 27 13 13 17 28 20 23 21 34 20 19 19 27 17 20 38 26 12 24 32 14 35 13 44 17 20 19 27 16 16 14 20 27 24 21 38 10 20 20 19 28 21 16 7 11 28 13 17 14 6 21 33 24 23 0 26 25 11 26 23 20 24 9 28 23 10 21 24 37 28 17 12 25 17 29 27 17 26 21 23 10 20 35 12 17 24 24 24 21 3 26 16 28 21 12 9 17 19 22 24 27 3 30 21 20 14 17 23 7 10 24 17 30 17 14 16 25 15 23 14 16 17 13 23 38 13 3 21 10 20 26 30 13 21 16 17 20 34 6 24 20 27 19 15 18 24 16 17 30 26 9 42 27 3 0 27 13 6 9 17 38 13 22 38 30 27 38 14 20 13 30 13 23 20 10 23 26 15 17 16 45 23 14 10 24 17 10 6 16 0 17 20 20 16 12 17 20 16 23 30 20 26 29 14 16 17 7 30 19 16 13 24 26 23 10 10 18 36 27 27 26 20 20 10 24 12 9 24 15 14 17 20 15 28 26 27 17 25 13 13 37 23 10 27 16 31 27 17 17 17 6 28 10 17 17 30 20 24 19 21 9 10 10 6 33 34 23 14 28 24 3 13 20 14 7 24 31 3 27 30 16 9 27 12 26 24 17 20 30 18 13 10 33 20 28 20 27 17 10 27 7 3 31 17 23 19 15 23 23 6 24 17 24 26 10 19 17 24 14 13 27 6 23 34 12 14 21 26 14 12 13 12 19 17 44 26 3 24 10 17 3 10 37 14 7 14 24 13 28 37 9 23 17 20 27 16 17 19 14 13 30 10 17 20 16 7 23 10 22 31 16 10 20 6 20 17 26 47 10 27 20 33 19 7 24 21 16 43 27 17 19 27 16 6 19 23 6 3 20 18 23 27 10 6 24 16 24 24 27 7 20 10 10 27 17 13 19 27 23 28 14 7 28 6 21 23 24 21 10 0 23 0 17 17 12 37 23 13 24 19 17 17 20 14 17 23 20 14 27 24 13 13 33 17 19 28 23 20 27 14 24 23 10 27 24 21 23 20 16 30 17 33 32 17 21 6 9 30 19 3 16 20 19 13 10 21 16 10 23 27 14 24 16 17 3 23 14 23 27 6 26 26 7 24 0 27 29 7 27 33 33 16 14 34 9 27 26 24 13 30 13 37 24 24 17 20 13 24 27 28 0 3 10 14 20 16 30 17 12 17 16 30 21 20 17 29 24 27 14 13 16 17 30 13 13 23 24 20 16 30 13 17 6 13 21 10 23 16 6 41 14 16 24 23 16 7 21 17 31 16 28 15 24 42 22 19 10 7 21 27 31 0 19 19 23 34 32 20 20 23 17 20 17 23 14 17 28 20 31 13 17 16 6 20 10 24 13 21 22 21 6 28 19 24 16 26 10 17 20 9 23 18 27 10 19 13 19 16 21 10 10 10 20 20 16 25 17 20 11 23 21 27 15 15 17 27 19 25 20 10 23 17 17 10 23 14 27 24 9 21 30 17 27 10 18 18 7 6 16 21 16 23 24 21 9 20 24 40 23 22 27 21 19 24 13 17 19 16 21 35 23 21 27 16 23 26 23 24 28 25 16 14 23 30 26 21 15 19 17 20 13 28 17 32 27 9 17 17 17 45 17 16 7 20 10 18 16 16 27 14 30 20 3 23 10 22 13 10 13 23 28 35 23 19 20 24 16 10 7 20 21 23 22 29 9 15 3 16 23 20 24 10 23 19 21 20 28 20 31 31 20 14 7 12 26 16 13 8 18 10 23 21 27 17 20 13 7 12 21 13 23 16 41 9 20 34 10 24 24 17 23 33 7 19 13 20 12 15 29 26 17 21 13 20 16 20 10 13 28 13 19 34 19 20 16 20 17 17 20 20 18 22 17 24 31 6 18 19 31 10 16 18 30 10 24 20 14 26 23 14 24 23 23 20 7 13 31 9 6 30 14 44 20 10 16 17 17 21 10 11 21 28 3 27 9 23 41 30 17 26 26 24 21 14 16 17 24 12 10 28 16 34 20 12 31 17 18 20 34 14 23 34 21 14 23 24 13 24 7 30 13 17 17 21 17 20 23 17 19 3 21 3 17 17 20 13 23 21 13 24 9 23 6 20 23 12 20 14 31 31 24 10 18 34 23 33 16 15 29 23 14 23 20 14 28 23 6 21 24 27 30 14 30 16 30 16 26 28 27 22 7 21 34 40 14 40 30 21 24 10 13 10 11 27 10 10 30 3 17 34 21 3 20 31 32 19 16 15 18 6 19 20 33 31 27 20 27 7 10 17 34 12 16 20 14 24 24 19 17 21 10 13 17 15 21 19 13 14 20 23 17 27 9 15 16 27 20 29 23 13 9 20 20 12 17 13 20 16 10 23 23 30 24 41 7 12 16 17 14 40 23 24 21 7 24 20 13 19 7 9 26 20 11 42 24 0 16 27 6 17 14 16 28 17 6 16 20 15 16 13 17 17 16 16 20 19 25 17 37 21 23 12 7 31 19 3 21 34 20 20 17 31 6 13 20 14 10 14 20 10 16 17 17 8 10 17 16 0 17 13 17 10 30 19 6 20 17 17 17 17 23 17 14 20 7 22 14 27 10 13 23 16 18 23 17 27 17 9 20 9 16 24 31 19 10 16 14 20 27 20 24 24 13 20 21 24 31 22 17 9 3 21 17 23 27 17 20 17 30 20 27 28 20 27 7 13 30 12 17 33 37 20 34 17 3 23 6 27 24 19 21 13 20 28 24 20 30 24 16 20 20 3 3 17 29 24 12 27 27 10 34 34 9 16 21 6 12 31 16 21 13 24 33 13 27 16 20 10 31 23 24 16 23 16 14 13 20 15 12 10 10 27 20 13 16 23 23 20 28 30 23 27 29 30 20 21 13 19 6 20 31 30 13 9 20 12 20 17 17 20 14 24 6 9 29 23 24 31 27 30 35 10 27 16 16 30 19 20 16 34 17 17 7 47 28 17 17 34 20 13 16 12 37 10 17 18 13 17 29 21 28 16 13 13 17 12 21 17 30 17 6 27 10 24 12 7 17 10 20 14 10 17 30 14 12 22 13 27 24 3 23 20 20 17 16 21 22 6 22 14 30 9 23 23 14 16 27 21 29 28 16 21 16 9 51 27 12 30 17 42 7 3 23 12 3 14 17 27 17 19 24 21 6 24 8 7 7 24 20 10 23 17 34 13 10 24 20 38 22 17 17 17 28 10 21 28 11 31 24 24 13 5 31 13 17 17 26 17 27 9 23 23 26 7 10 17 17 10 19 38 20 17 17 20 25 24 34 40 17 9 24 16 45 24 9 10 38 17 31 7 26 28 27 13 18 17 21 17 19 9 26 10 10 24 20 30 19 14 10 23 23 0 32 27 10 16 3 26 20 27 27 9 19 20 13 15 20 10 14 24 23 30 24 16 10 9 14 13 21 34 31 16 7 14 35 22 20 21 10 35 33 27 27 14 31 23 16 16 34 13 20 28 20 23 17 41 17 17 13 6 23 27 13 20 21 14 20 28 28 20 16 20 26 17 17 19 16 18 6 19 18 30 6 31 30 20 23 10 13 13 31 29 13 17 17 13 27 14 30 27 21 12 17 21 37 20 20 19 22 31 28 31 13 24 7 23 13 29 17 24 31 33 24 6 18 24 28 20 16 13 27 23 23 17 20 21 24 17 13 33 19 23 20 31 30 27 24 10 28 18 35 20 7 20 16 28 13 24 10 20 11 20 14 10 23 38 3 3 19 6 30 24 17 25 26 21 23 23 15 22 0 24 30 14 10 27 0 21 15 12 21 16 19 42 21 6 27 17 10 6 22 29 29 18 12 20 23 17 20 31 14 20 20 36 20 24 24 17 49 15 28 13 23 19 24 14 16 12 16 17 14 6 24 17 20 23 7 23 22 14 18 23 17 19 23 26 11 18 14 16 13 28 37 23 27 20 30 16 14 3 23 17 6 24 10 21 24 23 38 16 13 20 16 17 16 17 13 13 27 6 34 27 7 18 10 7 26 6 21 12 13 17 27 22 30 13 20 28 13 20 17 24 24 21 7 21 21 20 21 16 17 18 19 37 27 21 14 23 21 19 16 20 17 6 26 28 26 25 26 25 0 16 23 12 7 12 17 0 14 6 16 14 10 24 16 13 21 17 20 10 3 10 31 9 23 28 20 14 23 10 20 7 20 19 10 7 6 20 6 16 11 20 31 20 23 16 20 17 7 19 16 9 26 3 30 6 10 23 9 21 22 38 23 9 19 33 24 6 25 6 15 16 38 13 10 21 27 24 10 11 13 14 24 12 9 17 23 9 16 16 18 19 20 20 18 18 10 10 16 16 0 37 21 20 20 29 6 17 17 20 16 27 24 26 27 10 36 13 20 28 7 6 9 20 23 19 16 14 28 15 17 16 39 20 10 20 23 23 21 30 24 14 20 17 23 16 10 14 14 17 10 17 16 29 27 27 16 17 6 13 18 24 20 36 17 19 24 41 19 21 23 31 22 16 20 37 20 36 30 14 19 19 16 18 23 13 23 25 23 30 37 13 12 9 38 21 23 20 13 28 31 13 24 23 10 28 17 14 20 24 27 22 33 10 13 29 31 9 17 26 26 23 24 35 48 14 10 13 30 9 23 3 12 29 21 18 14 20 24 6 36 22</t>
+  </si>
+  <si>
+    <t>NIG(169.73373753258812, 81.12613129095335, -2.7893014499545865, 47.20762240440402)</t>
+  </si>
+  <si>
+    <t>23 19 25 15 27 19 26 30 27 18 25 17 21 27 18 25 22 23 25 16 21 26 26 22 28 15 19 30 28 17 27 31 29 25 21 21 26 25 26 23 21 22 23 20 18 19 24 21 14 23 25 23 28 17 16 29 26 21 24 23 25 23 22 24 22 31 29 12 28 22 26 30 19 24 30 27 25 26 26 24 32 22 16 17 29 23 20 27 20 21 29 29 21 18 20 22 20 25 26 18 25 22 17 15 29 19 26 27 19 18 20 28 14 21 22 23 24 27 30 21 15 27 24 21 28 22 21 26 22 20 16 28 29 22 20 19 23 17 25 20 27 20 21 27 19 18 21 18 21 15 38 23 26 26 25 25 31 19 18 23 17 25 20 25 20 18 30 28 27 26 17 20 19 19 20 22 23 24 19 23 32 21 27 22 26 32 13 22 23 23 22 29 30 18 22 27 25 22 23 18 29 29 20 24 25 27 30 25 30 31 18 21 30 28 22 20 16 25 23 27 21 25 20 28 25 25 17 24 26 25 26 20 17 22 15 27 24 33 21 20 27 26 19 28 26 26 24 25 25 24 20 25 21 20 15 24 16 22 26 22 19 24 22 27 27 24 21 26 23 22 30 22 23 27 26 22 30 21 19 21 17 25 23 27 29 26 26 21 17 22 20 16 15 19 23 19 16 30 27 23 22 22 22 19 16 18 25 25 25 26 21 21 20 30 21 19 13 19 23 33 29 31 30 22 24 20 20 19 18 26 18 22 30 34 17 28 18 28 15 27 21 17 36 24 17 25 23 23 16 20 25 20 23 25 26 21 24 17 25 25 20 32 21 20 20 25 21 28 30 29 15 15 19 13 27 18 30 18 31 24 26 22 31 19 36 33 23 22 20 21 23 20 21 23 21 21 30 25 18 18 28 19 23 15 19 27 18 26 20 23 15 20 33 20 26 19 17 27 25 22 26 27 30 15 24 31 20 25 30 23 19 20 16 23 27 13 21 20 23 23 13 24 27 24 33 16 20 31 16 24 21 24 25 17 31 32 26 26 18 24 30 23 26 30 19 31 17 24 27 17 21 20 30 29 26 26 20 26 25 19 31 24 16 28 21 17 25 19 11 28 18 24 24 27 18 25 30 23 21 24 23 24 25 14 20 19 21 19 23 27 19 23 21 21 22 26 22 25 20 30 22 26 17 27 27 27 16 18 20 18 16 25 23 21 21 21 19 29 25 18 20 20 23 28 23 20 25 23 15 16 20 21 23 24 26 27 21 20 19 15 19 28 21 25 15 21 25 21 23 20 19 18 28 20 14 20 30 29 20 23 22 29 16 23 22 26 22 26 17 26 17 26 23 14 15 15 22 18 24 26 27 22 19 25 20 18 22 27 26 24 24 26 22 20 31 19 18 26 18 20 15 20 19 18 23 23 24 26 21 29 25 22 25 28 21 21 30 27 21 12 18 17 22 27 21 18 21 20 24 25 19 21 22 25 31 18 21 20 30 23 17 24 18 28 22 22 23 21 18 31 23 29 27 24 18 22 23 21 22 13 24 24 25 13 29 27 25 23 22 18 24 25 24 16 26 21 26 20 19 22 23 16 21 26 28 23 30 19 17 28 17 19 19 23 28 20 30 23 29 25 23 31 20 21 24 19 24 17 20 20 15 25 25 21 23 32 20 26 31 28 20 21 21 27 26 22 27 21 20 26 14 26 17 29 21 16 20 24 21 21 28 21 30 28 20 19 19 27 19 27 20 23 24 20 25 22 33 24 29 14 20 23 31 33 22 24 26 20 20 19 28 29 14 22 20 18 21 23 25 23 24 27 32 15 19 16 20 22 18 28 31 27 18 21 23 26 21 28 28 19 22 21 32 25 24 37 22 34 28 25 24 21 25 27 21 20 20 26 27 17 22 26 25 24 25 23 24 18 18 27 24 26 19 14 30 24 21 26 29 26 30 17 23 18 23 23 22 16 31 19 23 24 26 22 24 21 26 24 21 28 25 22 15 26 30 17 21 24 31 19 17 18 28 28 31 27 27 21 22 26 25 23 16 18 28 20 24 25 23 24 26 26 20 20 28 20 24 20 22 21 25 25 19 23 15 28 28 26 22 17 21 18 23 17 23 19 19 22 18 19 20 28 16 22 14 17 14 27 18 24 33 19 23 27 13 14 23 26 22 15 18 22 25 25 31 16 17 25 20 25 24 25 32 19 20 25 16 13 26 24 14 13 24 21 25 27 15 25 26 22 21 28 22 21 16 23 19 23 20 16 27 23 22 25 26 23 28 21 21 24 24 31 24 26 22 22 24 22 24 27 24 26 20 22 24 34 29 26 15 28 27 26 20 25 18 29 27 22 18 26 23 33 28 20 23 21 19 25 22 25 20 25 19 26 27 20 22 21 23 15 22 23 12 27 23 17 25 29 34 18 24 26 20 14 25 27 21 25 29 20 13 18 30 27 23 21 18 21 24 26 22 20 25 24 17 12 22 26 23 18 18 19 18 25 20 15 25 16 20 29 22 18 30 19 15 25 21 19 28 21 24 24 23 20 24 15 21 25 20 13 25 19 24 24 30 22 21 32 21 25 21 21 17 29 26 26 30 23 26 32 23 21 22 31 23 21 15 29 19 25 25 19 24 17 26 31 23 35 16 25 28 23 18 23 25 26 29 31 26 26 19 24 17 28 26 17 22 14 23 25 24 32 27 26 10 25 26 18 20 20 22 23 14 15 21 30 28 20 22 19 26 26 29 27 31 27 21 16 18 17 21 14 23 20 21 18 30 18 18 15 22 25 19 24 23 25 21 16 15 29 21 26 23 19 27 21 23 26 23 24 26 26 11 30 21 14 18 19 23 26 30 25 18 19 19 24 19 29 18 24 24 31 18 18 24 19 21 25 20 23 23 29 28 20 19 20 16 29 22 24 25 24 23 18 24 17 24 20 24 22 38 29 26 17 20 22 30 27 26 21 28 17 27 10 31 16 31 19 24 27 15 24 28 25 21 24 29 25 23 17 24 16 30 19 20 22 22 26 24 31 30 24 21 20 19 24 20 23 27 23 21 30 24 24 22 19 26 18 19 25 18 25 29 19 19 27 14 25 29 21 25 23 18 23 33 29 28 25 34 23 24 21 29 23 20 22 23 25 22 16 23 20 21 24 21 25 24 24 19 23 29 23 26 30 20 27 24 19 29 18 20 18 21 23 25 22 15 31 26 22 24 28 30 26 14 25 22 28 20 22 22 18 21 25 25 16 13 21 28 27 25 25 26 21 26 17 24 30 30 18 28 25 24 16 30 21 20 27 25 26 22 18 24 25 23 21 28 17 20 24 24 27 14 26 20 32 21 21 23 24 28 27 28 16 21 21 30 20 31 26 19 24 21 25 17 31 17 20 20 19 21 27 24 18 34 24 18 24 31 31 19 25 20 16 21 26 22 24 25 22 18 21 23 20 21 20 31 21 24 19 23 25 27 23 32 22 26 22 26 21 34 24 20 21 30 21 22 25 27 27 21 17 17 29 28 18 22 26 20 20 26 22 29 27 22 22 20 30 23 25 21 29 22 26 21 23 12 21 19 26 19 28 18 19 27 28 19 28 18 19 27 20 23 22 21 31 21 24 25 25 30 15 25 30 21 24 23 19 23 33 18 22 28 22 22 17 23 15 18 28 21 23 25 19 13 25 17 27 21 19 14 22 25 25 26 26 22 12 27 18 20 16 28 25 31 25 19 30 27 30 19 21 22 15 21 25 18 24 33 22 26 23 29 27 21 22 28 21 30 26 21 17 21 28 23 21 26 17 23 18 24 24 22 20 24 20 23 23 20 24 22 26 28 17 14 29 21 24 20 29 20 17 13 22 20 19 23 26 24 23 14 25 27 29 15 18 26 19 20 18 25 22 32 22 17 23 26 20 25 23 22 14 20 17 26 20 21 18 26 18 27 19 18 24 18 16 24 23 20 19 33 27 29 26 22 28 26 18 26 26 24 25 21 31 33 25 25 21 31 21 32 19 23 21 23 17 19 29 25 15 23 27 16 21 29 22 18 22 22 29 22 22 10 19 22 17 17 28 28 21 23 31 22 24 17 23 22 26 19 23 22 26 22 22 24 21 23 19 16 28 19 23 18 24 31 31 25 21 12 26 27 28 23 27 21 26 24 21 17 24 26 26 25 25 21 23 30 16 23 20 25 29 24 31 19 17 28 18 16 20 15 27 26 19 22 23 17 15 27 13 27 23 19 21 19 25 20 21 17 15 22 27 22 17 23 31 27 22 29 21 27 29 20 20 24 31 17 18 16 27 19 30 19 18 25 25 19 26 21 18 20 26 20 18 24 26 19 17 14 19 31 31 28 22 27 23 22 21 28 26 17 22 19 20 17 27 25 23 26 15 24 13 28 25 25 28 23 20 26 29 21 26 30 16 18 28 16 22 29 20 31 22 21 27 19 22 21 18 23 22 23 26 30 24 21 19 27 22 26 22 32 27 20 25 26 21 27 21 29 22 26 35 20 21 25 26 26 16 28 23 25 22 15 19 24 29 18 18 23 24 19 29 30 19 25 25 25 23 26 21 20 18 22 23 24 23 25 20 16 20 19 23 21 29 32 23 28 20 28 21 21 29 24 28 24 16 33 25 19 25 22 23 29 20 19 30 21 20 28 24 26 28 27 30 24 29 25 27 27 22 23 21 22 14 24 31 19 21 19 31 16 25 24 23 16 17 28 19 29 24 22 16 24 28 22 22 19 25 15 23 22 27 24 19 15 21 20 21 27 25 26 19 22 12 28 18 22 24 21 29 22 21 34 25 26 23 25 21 23 26 25 22 22 26 25 23 21 25 24 20 18 27 26 19 21 22 20 24 21 21 28 28 27 28 19 30 24 23 18 19 17 23 24 21 23 18 23 28 19 25 27 20 26 19 23 23 25 22 33 29 24 21 24 18 24 27 20 16 14 23 19 23 22 22 28 23 30 19 31 20 26 19 30 19 23 22 21 29 21 25 22 23 26 25 28 22 18 15 28 15 30 29 25 28 15 25 30 23 24 28 19 29 21 20 16 22 29 17 20 23 18 22 29 29 24 25 22 24 28 20 21 19 27 27 29 21 24 22 24 23 25 20 25 20 33 19 28 20 22 21 22 28 18 22 22 28 22 20 27 25 24 19 21 22 30 18 25 23 28 20 15 21 18 24 25 25 23 24 16 18 23 17 26 21 24 21 22 13 22 25 25 12 21 22 32 34 16 18 23 27 24 19 18 22 29 26 23 30 27 25 26 18 20 19 25 20 18 22 20 23 27 18 22 17 22 25 14 18 16 21 19 27 24 18 24 31 22 23 28 20 22 24 23 23 27 17 28 26 25 22 23 26 23 20 22 23 20 21 23 21 24 20 18 22 13 20 22 15 20 24 15 24 29 25 22 33 29 25 25 18 22 27 30 23 21 16 23 22 26 23 22 21 29 16 18 27 20 25 19 22 24 25 17 14 21 24 22 12 18 21 25 22 20 27 22 27 21 21 20 26 21 27 28 25 27 24 25 14 23 19 23 15 17 23 16 34 23 25 19 17 22 24 21 23 32 25 24 22 23 22 24 28 26 24 23 30 22 20 23 23 22 22 24 20 18 25 23 20 20 19 22 23 24 19 23 28 26 23 19 24 23 24 25 23 20 23 24 27 22 20 27 18 13 26 24 25 27 20 21 27 23 27 22 21 17 19 18 21 30 26 17 22 23 24 18 19 18 20 16 21 20 27 21 20 22 24 30 22 24 21 28 21 16 17 16 17 21 18 26 22 19 27 26 23 26 26 23 23 29 23 24 27 30 21 21 25 17 13 16 26 25 20 22 25 20 21 23 21 24 18 21 26 23 17 21 25 26 24 22 19 18 16 22 14 27 16 26 19 26 25 24 19 28 27 28 26 19 19 17 22 24 28 19 23 30 19 18 26 24 23 27 28 24 19 18 25 34 23 26 14 15 23 19 22 31 20 17 24 26 21 28 24 18 21 24 31 16 14 21 25 19 27 22 27 22 21 19 27 28 20 20 20 24 35 24 23 19 25 22 20 25 23 15 23 23 20 26 20 32 26 16 24 19 31 17 23 24 18 23 24 29 20 22 13 27 21 18 19 23 28 24 17 16 21 22 28 28 20 18 23 28 25 19 13 18 29 26 14 21 31 25 18 23 17 23 20 27 24 26 18 25 23 18 19 27 28 24 18 19 23 15 26 24 20 22 18 26 13 21 26 25 15 23 29 28 25 22 17 24 24 28 29 18 30 27 26 17 16 23 20 31 24 22 21 24 18 19 23 17 29 20 18 20 25 25 28 30 26 26 30 14 25 28 27 18 16 22 22 24 29 24 27 24 18 22 24 19 20 16 29 31 19 31 27 27 23 22 21 19 30 25 22 26 23 23 25 18 16 20 22 25 15 26 30 29 23 20 19 19 31 20 34 21 21 26 18 25 20 15 22 24 32 19 27 22 21 22 24 24 18 25 26 21 24 23 19 26 24 28 24 19 28 31 25 20 32 18 18 29 26 20 19 26 15 23 26 20 21 23 14 26 13 25 24 21 30 19 21 23 18 25 21 27 27 22 21 23 15 18 25 22 17 27 23 21 25 20 21 14 24 25 19 25 22 23 25 23 20 27 30 29 26 20 19 24 17 24 26 24 30 22 30 26 25 22 16 20 33 28 28 16 22 26 27 28 24 22 27 24 23 19 15 27 20 22 22 20 29 19 27 21 21 24 22 23 32 20 25 27 27 24 29 22 22 29 18 16 17 14 22 24 19 17 33 26 28 22 38 16 22 25 19 28 23 20 24 32 20 28 24 26 23 25 22 19 24 18 24 25 22 23 23 25 17 16 22 26 17 29 24 24 24 27 21 17 17 24 21 26 27 22 17 26 23 23 20 26 27 20 22 23 24 20 26 30 18 20 29 26 17 26 21 25 27 23 17 26 21 25 25 27 20 20 29 25 21 26 24 20 21 20 17 26 21 20 18 17 20 20 25 21 18 27 30 25 20 22 32 19 21 19 15 16 25 14 17 27 22 27 23 15 24 31 21 24 25 19 20 29 23 22 20 21 26 20 35 26 20 13 29 22 22 21 27 21 28 26 23 12 24 25 20 25 18 20 18 23 21 24 22 24 25 17 19 20 28 24 25 28 31 27 22 21 25 27 22 27 27 24 15 30 25 22 23 24 25 19 27 17 31 20 19 35 22 21 24 25 27 20 28 22 26 26 27 16 28 23 24 26 18 27 18 19 29 19 27 24 26 18 16 27 26 25 22 25 24 24 30 16 20 29 26 15 20 22 18 20 27 22 25 26 16 22 22 27 19 22 29 28 18 25 22 18 21 18 25 14 19 16 16 17 21 25 28 17 20 21 24 17 25 21 16 27 24 21 19 17 23 15 20 24 25 20 30 20 25 29 20 17 33 21 28 27 16 23 19 17 23 17 26 18 17 20 14 22 20 27 19 26 32 33 28 16 23 23 20 32 21 23 23 21 17 21 16 19 25 14 22 29 21 20 19 21 23 21 21 24 24 21 35 26 30 21 24 16 21 25 17 22 31 23 20 15 23 16 26 27 27 30 24 24 26 28 20 32 31 22 27 19 33 24 34 22 18 20 19 26 28 15 26 22 21 31 18 17 10 16 29 26 21 26 25 24 27 19 25 17 25 16 20 26 24 25 27 19 15 28 27 25 20 31 21 22 29 32 33 21 20 24 20 18 25 29 22 28 20 27 21 20 16 22 25 25 23 29 25 21 14 18 18 18 24 22 22 19 18 30 25 29 26 21 25 21 21 15 22 16 28 20 26 26 26 19 21 20 26 15 25 20 12 25 24 14 31 16 22 22 21 24 13 20 27 21 23 19 31 28 22 21 22 18 26 33 13 30 22 20 26 25 31 22 24 22 28 26 16 29 23 18 23 22 18 18 28 29 29 21 21 15 18 20 25 21 24 29 23 16 28 18 22 22 24 21 28 18 21 20 30 19 21 21 28 20 17 24 20 28 26 26 22 26 27 28 30 14 26 32 26 19 19 19 26 23 16 20 27 30 23 18 27 24 22 19 23 22 21 24 20 23 20 27 25 23 22 20 34 17 36 23 22 19 23 19 22 26 25 21 31 23 17 22 24 26 29 29 20 19 26 22 26 19 30 16 22 21 19 20 23 21 28 29 16 21 21 12 22 28 20 27 20 25 14 17 28 18 19 17 16 18 23 19 22 22 21 20 20 22 19 25 25 27 26 18 16 27 21 19 28 21 28 18 20 22 18 20 20 24 23 22 20 25 23 18 24 16 29 23 24 22 24 25 27 25 28 26 22 22 22 26 20 21 24 29 28 35 25 33 26 21 25 26 29 18 20 34 25 22 20 20 24 23 22 21 26 22 27 15 15 26 21 26 28 20 13 27 24 30 20 17 26 19 25 21 21 22 27 25 14 23 34 30 27 23 24 22 27 25 21 24 18 18 28 22 20 19 21 22 19 23 24 20 28 25 12 20 17 22 24 24 25 21 22 22 23 21 22 31 24 19 29 20 23 22 27 23 24 27 20 23 21 31 22 21 21 20 22 25 24 22 19 24 29 27 30 22 23 25 26 23 18 17 26 29 23 20 22 25 20 16 24 30 24 22 20 25 16 23 27 24 20 24 22 23 30 20 24 22 19 27 21 23 29 29 18 31 25 24 18 19 26 22 19 21 21 16 24 27 14 21 22 33 25 28 23 17 24 26 25 14 16 28 22 28 26 23 25 21 24 22 23 18 18 20 27 27 21 28 25 28 21 22 22 26 22 23 19 21 21 25 28 35 29 20 27 18 32 22 25 24 25 21 18 21 18 29 27 18 24 15 21 27 23 23 19 18 23 25 27 21 21 24 24 18 22 20 17 30 17 22 20 28 26 25 17 27 20 24 21 19 24 24 25 26 22 29 24 18 18 23 29 27 23 18 18 30 23 29 24 19 23 14 18 21 25 23 20 18 18 25 25 23 21 18 22 23 24 26 29 13 19 22 27 20 31 26 19 16 23 30 21 26 25 16 18 23 24 25 25 25 36 13 23 28 20 24 22 22 20 27 24 19 17 23 26 18 23 24 28 15 25 19 22 26 20 15 19 23 19 24 21 20 27 16 26 22 23 23 28 23 22 22 24 21 16 18 26 25 25 20 27 15 20 25 21 27 19 22 25 23 25 32 24 21 24 31 20 13 23 28 18 16 6 31 20 22 26 19 24 24 23 15 26 27 19 16 23 23 22 28 21 20 24 19 25 20 34 16 21 13 18 20 24 28 23 23 23 19 16 22 17 22 22 20 20 18 23 36 16 19 25 28 21 26 20 26 22 24 19 32 21 32 21 24 26 19 29 15 29 31 20 27 24 18 35 18 25 24 24 16 25 17 25 25 24 20 20 17 18 36 18 24 22 13 21 28 20 26 22 15 21 28 26 20 30 30 31 28 27 29 26 18 19 21 22 22 25 16 15 25 23 23 21 28 29 29 20 17 20 16 28 28 26 24 20 20 25 22 26 22 22 20 14 20 24 22 21 21 27 21 22 25 23 23 25 16 21 23 32 26 16 24 21 23 26 20 22 13 19 19 28 26 28 21 27 18 28 27 37 23 26 28 15 28 20 31 28 18 27 28 27 24 30 22 25 22 18 32 18 25 26 25 20 19 18 26 26 23 21 24 29 23 28 19 29 24 23 21 20 21 25 21 17 21 20 19 23 20 21 19 23 23 20 23 30 26 23 26 26 27 17 32 20 19 18 22 25 19 18 25 22 22 22 24 27 20 32 22 18 27 27 23 28 12 27 26 17 22 26 24 25 25 23 22 22 28 26 31 23 20 30 35 29 20 20 30 20 27 23 28 21 25 25 21 21 30 23 27 21 23 26 28 23 22 21 22 24 19 31 24 28 20 21 28 18 24 22 27 22 27 28 24 20 16 21 23 20 33 16 21 24 20 29 24 26 22 14 19 24 36 25 23 26 25 23 26 23 19 20 22 22 22 19 20 28 28 18 21 23 24 23 32 18 25 26 22 26 17 15 18 22 20 23 16 32 17 27 25 24 23 28 24 26 26 28 23 20 27 20 28 22 26 19 24 14 29 23 21 20 24 21 22 25 25 23 25 19 21 19 26 15 17 23 30 20 20 18 24 19 24 25 15 28 20 33 21 34 12 31 25 25 29 20 19 21 22 23 36 23 19 29 25 21 21 24 19 23 27 10 24 29 27 27 22 28 26 21 19 26 24 17 24 22 25 24 19 22 18 17 19 27 22 29 22 24 24 29 18 22 23 23 25 23 23 25 35 19 22 20 21 16 24 31 28 21 29 26 24 17 33 29 20 19 25 20 19 28 20 19 19 30 26 22 20 22 24 23 21 24 25 28 28 27 24 16 24 16 23 22 22 25 19 16 29 22 26 23 14 23 27 28 31 15 27 21 25 21 20 22 16 31 28 19 18 21 19 29 22 25 20 16 22 24 29 27 22 28 14 30 22 22 27 21 26 28 28 23 24 24 18 25 32 22 20 21 20 32 17 19 21 23 30 14 25 19 19 17 24 22 23 23 29 20 32 18 23 18 27 22 29 20 16 35 16 17 25 23 23 24 18 21 27 26 18 17 25 26 23 22 24 19 24 25 22 22 31 18 28 23 29 25 19 22 19 24 20 17 18 30 29 18 31 27 29 24 27 21 20 20 12 25 24 31 30 23 23 27 29 18 25 23 26 20 23 26 23 22 25 29 20 20 25 18 25 28 21 22 18 32 17 27 18 20 20 23 29 22 24 31 20 15 22 18 28 28 26 24 20 24 31 25 21 25 19 32 30 19 21 21 11 11 18 21 25 33 21 17 23 15 20 31 11 17 15 24 25 22 20 15 25 28 25 14 27 21 16 22 28 18 29 23 24 17 22 20 21 23 25 22 19 25 18 29 27 29 22 31 22 32 20 15 26 24 17 27 27 27 26 21 24 27 20 21 19 35 22 24 24 29 24 22 21 20 24 18 24 24 27 23 34 23 26 20 22 27 28 25 34 24 20 18 27 21 28 29 22 15 23 20 15 22 15 20 33 28 24 28 19 25 19 26 26 23 28 22 18 23 34 18 24 26 29 22 20 18 26 25 16 26 33 22 20 22 23 24 24 23 26 28 19 25 26 20 19 19 27 26 20 26 17 27 23 23 29 17 21 21 24 23 30 20 29 18 24 20 23 18 28 30 25 23 16 29 24 17 23 22 21 19 19 19 19 25 21 17 21 21 25 20 28 24 28 25 22 24 24 29 21 24 30 25 18 29 31 27 24 24 26 21 24 20 26 32 23 27 26 21 13 18 27 22 20 17 22 34 25 21 18 18 21 20 11 19 31 21 18 24 24 24 26 23 22 15 26 21 18 27 20 22 24 21 16 27 20 29 24 21 23 28 23 11 24 21 19 26 19 27 20 19 21 21 21 22 26 17 21 27 20 22 17 24 21 27 27 20 23 20 25 26 23 19 19 23 19 21 28 20 23 31 29 17 27 21 26 25 21 16 26 19 13 32 21 23 23 27 18 21 26 22 23 24 24 22 25 22 17 27 22 20 28 29 24 22 22 23 22 18 20 31 27 23 14 23 25 24 24 15 28 22 31 22 23 31 23 27 29 21 26 27 30 18 11 29 29 21 29 25 20 29 21 22 30 25 19 19 18 14 30 27 27 22 20 24 24 25 28 22 19 18 24 24 19 18 17 22 26 21 22 29 16 18 19 26 24 18 18 27 23 32 21 27 23 26 17 21 25 26 30 19 24 31 20 29 24 20 31 18 28 21 28 19 30 20 24 22 24 21 26 21 20 24 25 27 18 22 22 17 23 23 26 27 20 20 20 19 22 25 28 27 27 13 24 20 16 23 28 22 20 30 16 19 28 16 28 16 25 21 21 26 33 16 22 14 24 24 25 27 17 23 24 20 18 28 25 23 21 19 27 30 22 22 20 25 20 24 15 25 32 26 27 20 18 30 22 22 23 19 14 27 25 28 26 21 23 22 30 25 13 23 31 28 18 23 17 19 16 19 19 20 29 20 17 24 23 27 23 27 21 23 23 25 21 29 24 32 18 30 25 25 21 24 22 23 26 15 28 26 17 21 21 16 20 31 22 26 21 24 24 24 23 13 22 34 20 20 19 22 20 30 22 21 28 30 26 21 21 30 32 23 30 29 20 29 26 17 29 26 20 24 26 26 15 24 22 24 29 28 23 15 23 19 16 23 21 29 21 18 15 20 31 25 16 21 23 30 24 21 16 28 21 24 25 26 31 16 18 27 24 19 23 25 21 29 26 16 27 16 14 30 28 18 19 18 27 27 27 31 18 22 25 29 21 21 25 24 24 24 24 27 25 24 23 23 29 18 26 24 25 22 30 24 30 19 28 26 18 18 25 20 18 21 22 24 14 23 21 28 18 21 26 25 24 25 21 19 24 16 28 23 25 33 20 21 13 17 18 28 23 17 23 25 20 24 20 19 29 29 22 15 22 20 22 29 30 29 19 24 24 19 10 19 31 25 22 20 20 20 18 27 18 29 19 24 28 25 22 21 28 20 22 16 23 22 21 24 24 18 17 17 30 20 18 25 23 26 27 25 12 27 25 21 20 31 21 29 25 20 20 21 17 26 20 23 30 22 22 23 24 21 28 22 26 21 20 16 22 16 31 15 24 17 24 21 22 26 30 31 24 28 17 16 23 20 14 23 20 25 20 32 15 27 25 18 28 26 23 24 25 29 21 22 31 21 19 30 23 18 20 21 27 24 16 24 27 30 22 31 24 25 30 24 17 26 21 27 27 26 20 26 26 21 21 16 26 17 17 20 27 23 29 21 26 24 28 26 19 25 21 24 21 23 20 23 20 24 21 32 19 13 23 16 22 22 29 26 19 24 16 18 19 27 23 26 14 17 23 25 28 18 18 24 21 27 23 22 21 25 17 19 21 17 17 21 36 28 26 23 28 15 32 33 25 20 19 23 24 23 20 22 19 23 26 21 16 18 17 15 21 25 25 27 15 19 19 23 21 22 25 24 18 25 19 22 25 16 20 26 27 24 27 21 24 19 22 21 24 31 22 24 16 24 22 18 17 21 14 25 15 18 26 16 23 20 28 27 28 21 26 18 21 20 25 15 28 23 22 32 28 22 26 21 28 26 23 24 25 26 18 21 23 22 21 29 28 15 21 13 25 23 15 25 26 22 14 30 20 28 22 20 23 18 23 26 23 27 12 20 22 19 15 27 14 27 18 20 25 24 29 25 39 19 18 20 18 26 23 24 16 23 24 18 28 13 24 22 20 26 20 22 23 37 18 19 24 16 19 23 22 21 22 26 18 23 21 20 29 15 19 20 20 20 20 20 21 21 23 20 21 28 28 22 25 19 22 24 24 20 23 26 23 24 24 21 23 24 24 21 18 29 22 21 22 22 24 21 24 27 24 27 25 25 19 23 16 25 22 26 32 22 19 26 15 27 29 23 25 17 23 30 25 30 17 22 25 29 20 24 30 20 21 27 19 24 29 24 16 26 28 23 20 23 24 18 31 23 22 25 25 17 25 19 20 28 25 21 20 30 18 31 22 26 19 21 27 20 22 27 22 23 23 19 30 23 28 20 19 25 24 23 24 12 25 28 21 24 32 23 23 24 24 24 28 27 19 24 20 21 26 17 23 20 22 27 26 21 19 19 25 28 27 25 24 28 29 14 21 25 23 22 19 24 30 26 32 30 24 23 17 30 32 23 20 31 23 23 29 27 20 23 18 23 22 22 22 29 27 26 23 23 23 18 25 29 23 23 19 21 25 30 18 19 24 20 23 26 20 24 22 23 19 23 25 19 27 19 17 26 21 27 24 25 29 21 20 24 25 21 23 19 23 26 20 26 14 27 17 23 17 25 30 18 25 30 22 28 26 21 23 29 23 23 21 15 19 22 19 35 23 21 23 34 27 20 28 21 21 20 20 27 29 24 25 18 27 16 25 25 29 21 25 30 21 19 29 17 27 23 20 23 24 23 13 24 20 24 30 17 20 23 18 25 21 20 20 31 31 23 23 23 23 21 29 28 28 23 25 24 20 22 24 17 21 27 21 34 26 18 29 18 28 23 20 20 24 19 25 26 24 21 24 30 22 19 20 26 19 24 21 20 24 23 18 21 25 18 19 23 28 19 16 22 16 15 20 26 26 19 33 19 29 26 24 20 20 24 22 23 25 22 15 26 28 20 27 21 27 25 22 25 16 29 21 15 20 26 18 20 23 17 16 17 24 21 16 37 21 20 24 25 11 27 26 21 21 18 23 20 19 18 18 28 21 27 22 28 24 23 34 20 24 22 28 20 31 21 22 20 23 19 26 21 16 22 15 22 24 15 24 20 30 26 22 25 26 24 28 20 23 25 24 20 24 18 20 17 15 32 28 23 24 24 24 21 14 23 24 22 32 30 25 25 22 18 18 24 17 20 27 18 20 20 17 30 16 17 26 19 29 21 18 32 17 29 29 29 26 24 23 24 13 24 23 35 19 23 19 25 26 23 37 16 27 25 30 28 17 23 19 22 24 25 30 23 19 21 21 17 14 26 25 27 20 16 28 24 35 29 25 27 26 21 25 21 19 24 23 19 23 20 26 27 25 32 29 25 28 20 19 26 22 23 21 27 21 23 18 18 25 26 30 24 19 16 22 25 29 19 27 22 24 17 22 24 26 22 21 20 32 26 27 25 23 17 21 28 24 23 22 18 27 17 23 28 25 18 16 30 24 28 26 30 21 24 18 27 18 21 18 28 26 26 24 22 28 16 28 23 31 27 17 24 25 26 27 22 18 23 13 25 31 26 27 27 25 19 26 18 19 23 24 20 27 23 25 24 29 15 27 27 28 23 19 25 17 26 29 30 23 22 18 31 23 24 21 23 33 30 23 16 21 22 20 16 30 17 26 14 23 30 21 26 22 35 18 25 19 23 25 25 18 21 25 26 10 20 17 24 21 31 29 39 27 26 28 22 14 35 19 19 25 24 22 29 24 24 13 18 22 21 25 23 25 17 29 18 21 35 24 21 31 21 24 24 21 30 24 23 29 25 22 27 16 13 29 31 27 23 20 21 23 16 24 22 12 26 20 22 19 28 29 23 24 26 20 29 27 20 24 27 22 29 25 20 19 16 17 23 29 24 21 23 18 19 26 20 24 14 24 14 24 22 19 17 27 20 20 22 24 19 25 25 21 26 18 20 27 26 20 24 22 15 17 25 19 21 19 22 20 23 38 19 25 19 17 23 20 20 22 22 19 18 16 21 22 25 21 22 18 20 24 17 32 14 20 22 22 22 30 20 22 31 24 26 24 29 20 17 24 25 22 16 25 24 23 18 31 21 20 23 19 18 33 17 21 22 24 20 30 19 21 18 22 17 24 25 19 24 27 19 22 25 22 24 26 21 20 29 26 23 29 21 17 23 15 24 27 16 22 26 24 21 14 23 28 28 27 23 28 19 20 30 20 20 21 21 20 27 18 32 13 25 18 33 16 23 31 26 21 29 28 16 19 26 27 22 20 25 18 31 20 23 28 21 19 24 18 22 24 23 21 27 25 23 20 24 24 23 27 22 30 21 23 23 27 27 21 24 20 23 15 22 17 20 34 17 26 31 21 22 24 20 21 19 22 22 23 16 27 30 22 27 23 15 28 18 19 18 28 17 22 17 20 20 24 19 21 17 25 27 15 14 26 22 26 27 23 23 25 26 22 22 17 20 24 23 21 22 23 22 30 22 24 17 27 24 20 24 25 23 28 27 22 31 16 21 22 22 19 22 27 29 18 25 25 19 23 22 22 23 19 28 26 23 28 18 25 26 18 19 24 21 31 26 27 27 24 20 17 21 26 23 28 29 16 19 23 21 27 29 21 24 29 31 21 18 21 17 13 16 29 28 25 26 30 22 29 23 24 28 22 15 21 28 26 17 20 28 23 16 19 22 19 19 16 12 18 18 28 28 19 19 26 21 27 21 28 22 17 21 20 21 22 30 17 25 22 19 26 19 20 26 25 25 23 24 18 18 28 26 23 31 24 14 23 27 22 23 22 21 21 18 13 31 29 23 22 22 18 21 22 26 18 30 16 16 27 15 20 21 25 25 17 27 24 24 12 17 27 22 16 20 26 32 20 19 26 22 29 22 16 27 28 21 18 19 19 26 28 19 18 24 26 28 20 22 20 15 13 27 27 24 26 18 16 22 20 20 22 21 25 23 20 22 22 25 23 18 28 20 16 24 19 22 17 29 22 21 20 25 19 25 21 28 20 24 24 15 29 22 22 17 25 30 28 25 23 22 20 23 18 26 19 19 22 26 26 15 29 25 23 19 34 21 24 25 21 24 16 30 27 22 33 29 28 21 20 21 24 30 12 23 18 21 22 25 23 22 21 15 15 22 19 20 26 15 26 28 25 24 34 19 25 29 31 25 20 27 26 24 27 15 28 27 26 22 18 25 24 23 17 16 11 20 23 26 19 20 27 25 33 23 22 28 29 13 34 27 16 25 22 24 27 24 27 20 29 20 23 25 26 26 31 21 18 23 23 24 22 23 22 27 21 24 25 22 20 20 17 13 28 22 19 24 26 21 23 15 18 21 26 25 22 21 13 22 20 23 31 18 24 20 24 23 20 22 23 23 25 29 30 26 18 21 32 21 29 17 28 18 17 21 23 20 23 13 27 32 25 21 22 21 29 22 19 24 27 23 21 21 20 24 24 27 19 22 29 27 27 14 30 30 26 23 24 24 17 26 29 17 19 22 25 23 19 24 16 23 24 24 24 30 28 29 25 26 21 29 25 29 23 24 24 24 18 25 23 30 23 21 26 28 27 31 14 12 21 17 20 21 27 29 21 16 25 20 25 24 26 18 21 13 26 24 21 14 16 28 23 26 18 28 26 18 30 26 19 21 18 25 18 26 25 20 32 31 19 21 21 26 29 21 24 19 23 20 25 20 23 28 27 29 22 25 28 25 14 31 28 22 25 27 28 13 17 22 28 15 23 29 23 24 26 19 24 23 26 16 18 23 21 18 17 17 34 18 24 23 31 28 26 26 17 24 14 18 31 29 31 26 19 21 24 20 19 22 26 19 26 14 24 26 32 22 18 22 31 24 16 24 20 23 19 21 27 26 30 28 17 23 26 20 23 26 16 15 26 23 30 18 25 16 23 24 18 26 22 32 25 25 24 18 20 18 23 19 20 16 21 23 17 15 30 23 14 16 24 27 23 14 22 19 24 24 20 19 21 24 22 24 20 24 21 21 27 37 18 19 21 24 22 16 22 16 18 23 18 26 18 28 23 20 26 26 25 19 19 23 23 22 29 27 16 28 23 33 17 26 24 26 15 25 23 25 21 25 21 24 18 27 32 23 20 23 27 26 15 25 24 27 26 27 17 25 19 28 25 30 31 19 30 29 21 36 20 27 14 19 17 24 16 21 22 34 17 16 17 22 25 24 27 23 21 22 19 19 28 19 22 25 26 19 13 17 23 17 22 26 15 28 17 33 23 32 15 24 20 25 24 24 29 27 27 23 23 35 28 15 31 21 25 24 17 34 15 25 16 23 25 20 25 25 21 24 27 20 27 23 30 26 25 18 25 23 22 30 15 29 25 19 22 29 16 18 20 22 25 29 17 24 24 26 21 32 14 17 26 18 18 18 32 22 25 18 21 24 28 13 22 27 26 28 22 26 20 18 23 27 18 24 15 21 19 31 25 22 25 25 23 24 25 27 24 17 17 22 26 20 33 22 17 28 16 24 25 26 24 22 20 31 26 25 21 25 25 25 17 29 20 23 20 22 22 29 18 22 19 24 21 21 17 18 26 25 22 18 35 27 25 17 23 20 26 21 30 27 21 25 14 31 14 27 24 24 18 23 20 27 29 23 27 24 26 24 24 27 26 17 25 23 16 18 29 29 22 32 25 27 28 22 22 25 27 34 26 24 20 23 23 19 25 22 20 20 29 21 13 23 24 25 26 19 20 25 18 30 19 25 22 19 22 31 21 22 23 27 24 18 23 24 20 20 21 26 20 27 23 20 30 23 26 22 30 27 25 35 21 29 21 28 21 20 24 23 20 20 28 22 26 12 26 23 24 27 23 18 20 21 23 35 24 9 28 17 21 19 17 23 17 22 26 31 32 21 15 29 28 24 23 29 22 24 24 27 20 24 22 19 17 20 27 21 22 21 25 19 26 21 19 20 24 25 22 28 21 27 15 24 22 24 22 25 33 18 19 20 19 20 19 24 23 23 19 32 28 27 27 18 18 23 31 22 16 26 21 25 27 25 14 28 27 21 22 25 25 19 23 23 23 11 20 18 20 23 17 27 27 22 22 21 25 32 21 15 14 24 25 22 21 21 22 24 24 25 28 18 26 33 27 20 24 24 25 22 26 23 23 17 24 28 21 23 26 14 20 24 25 26 25 21 26 23 23 31 24 28 25 19 25 25 15 25 21 21 24 33 19 28 23 26 21 23 18 19 26 24 24 24 21 28 20 18 25 24 24 21 29 24 19 26 22 18 21 22 19 31 21 21 28 22 22 15 29 25 21 17 23 22 17 23 15 21 34 19 23 29 26 24 20 20 20 22 30 19 25 22 27 22 13 20 18 24 25 33 16 19 24 19 16 30 25 22 25 12 29 32 12 28 24 21 17 28 26 22 17 17 24 19 33 28 18 15 17 16 26 21 22 26 21 25 30 22 26 19 20 22 24 16 19 21 15 21 24 17 30 20 22 35 20 32 15 22 23 21 29 21 17 30 39 21 16 26 24 16 29 19 32 18 21 22 26 23 24 29 30 20 24 19 25 19 22 16 15 21 14 27 30 25 29 24 25 18 29 21 28 21 20 24 23 18 30 23 27 23 22 29 25 10 25 22 15 24 23 27 27 18 16 24 23 26 14 22 21 21 24 29 25 16 29 21 22 19 19 24 18 21 20 28 19 28 27 26 28 20 21 23 23 27 21 16 14 22 25 26 25 23 24 23 31 23 21 30 26 20 22 24 14 22 27 14 23 24 21 26 21 27 26 25 30 27 28 23 24 25 17 21 25 28 18 24 24 34 23 23 23 23 22 26 22 23 20 14 15 21 27 33 19 24 22 21 22 28 23 27 24 25 22 25 22 26 25 27 22 25 29 24 22 25 17 21 20 27 18 25 18 25 26 22 19 28 17 24 25 23 22 17 23 18 28 22 32 25 19 24 24 18 27 16 28 23 27 15 23 22 26 24 23 20 16 26 19 22 23 31 25 27 25 20 24 21 21 16 22 26 26 17 23 21 25 24 18 19 17 25 19 31 14 28 18 20 24 28 24 15 20 26 23 18 28 24 32 26 32 22 22 22 22 18 18 30 19 29 31 29 19 26 18 30 25 18 23 27 17 14 21 25 23 23 15 28 21 24 23 13 22 24 19 19 19 18 22 27 22 22 23 25 27 34 26 26 22 26 25 32 18 21 16 24 20 29 22 28 21 24 23 27 23 16 20 18 25 18 21 22 23 24 24 29 22 14 23 26 21 22 23 24 16 23 22 31 25 21 22 21 17 27 20 19 25 22 29 23 16 18 20 19 23 26 22 26 32 30 21 19 23 19 26 19 25 21 26 28 29 33 21 19 16 17 21 13 25 21 19 23 21 22 25 24 26 18 24 32 18 20 17 23 20 17 24 23 26 27 27 21 28 17 26 14 21 21 28 19 34 25 18 24 21 20 22 20 27 30 14 21 15 25 22 27 23 22 17 24 22 21 16 20 23 23 31 20 29 28 27 25 26 21 26 25 35 14 24 25 20 16 26 20 25 24 29 19 22 18 23 25 26 19 22 25 23 23 22 21 24 31 22 25 26 22 17 22 24 31 16 16 18 21 12 22 20 19 25 23 19 23 19 26 27 31 19 25 31 25 26 23 25 22 26 19 19 18 17 28 27 16 25 23 16 23 25 28 26 35 19 28 33 22 24 24 18 22 13 23 21 20 17 20 26 16 24 17 25 15 21 25 22 12 30 14 23 22 21 26 17 24 24 27 24 23 29 23 27 19 22 34 29 31 16 26 24 31 23 22 22 17 20 26 18 22 25 26 23 24 30 26 30 23 21 22 20 23 16 23 27 22 28 28 29 31 23 15 22 17 20 23 24 23 23 18 20 27 30 19 21 20 24 28 25 16 27 20 23 22 25 31 28 24 26 18 18 22 24 26 22 21 15 17 25 25 20 16 22 23 21 22 22 14 20 30 23 20 21 26 19 19 31 19 23 28 24 24 27 23 25 24 19 20 20 15 14 29 18 24 28 32 20 22 18 16 21 23 22 20 22 20 26 28 16 26 18 28 21 20 23 27 28 12 20 25 16 21 20 18 29 27 23 26 16 25 25 21 23 24 25 16 20 25 26 18 24 23 22 21 19 25 28 18 23 28 22 24 24 31 27 25 25 25 19 18 23 17 16 23 24 22 18 24 24 19 21 15 27 22 32 21 20 26 24 23 18 20 24 16 20 23 21 23 20 29 27 26 20 27 22 20 22 31 18 17 18 22 17 20 27 25 22 25 18 28 19 23 21 20 23 29 22 23 29 14 29 18 16 23 21 27 23 28 25 16 24 19 20 30 31 28 17 21 31 19 17 23 27 22 24 27 22 21 17 24 21 24 29 16 25 18 23 24 28 25 18 25 22 18 18 22 28 24 18 22 22 24 21 27 26 20 31 21 25 29 23 27 30 21 32 24 27 24 26 23 26 19 17 28 20 20 23 19 22 22 20 24 22 30 20 22 21 29 26 22 29 21 27 28 20 20 27 28 23 22 23 26 31 29 21 23 24 24 21 24 27 26 15 25 12 12 29 20 25 30 27 26 27 22 23 23 18 27 19 25 21 26 23 22 21 32 23 23 21 22 22 21 18 19 29 21 24 23 16 19 28 25 30 23 17 23 19 17 17 17 31 24 16 30 22 21 20 23 20 18 25 21 22 29 35 18 25 27 22 23 23 17 22 23 19 23 17 18 23 21 27 13 29 21 20 22 27 34 26 20 22 26 29 18 20 14 33 23 23 24 26 24 18 22 25 12 25 15 27 23 27 20 24 23 23 20 24 24 13 21 30 16 27 28 29 23 22 23 16 27 19 23 21 24 24 19 22 31 27 20 30 21 30 21 35 20 20 18 28 29 18 21 26 23 27 19 22 26 18 22 29 31 20 22 20 24 28 25 28 25 28 15 24 25 27 23 24 24 27 19 31 25 15 25 26 33 27 20 25 20 30 24 26 23 21 14 21 21 20 17 19 25 21 19 28 14 23 13 29 35 31 28 30 21 22 28 24 24 17 18 16 25 22 31 21 23 19 23 27 17 28 15 29 19 22 20 26 26 26 21 19 23 24 22 26 20 30 24 21 26 27 23 22 26 23 31 27 28 26 21 19 24 31 21 21 17 22 25 17 21 21 22 21 26 19 20 25 18 27 27 23 17 17 34 18 23 24 22 28 15 20 25 29 17 18 25 25 25 23 24 25 21 26 22 19 23 31 25 19 22 25 31 28 30 17 24 19 30 24 25 18 19 23 24 27 28 25 25 25 21 26 20 28 17 25 18 23 26 21 25 17 24 27 28 29 30 23 22 21 26 34 23 28 19 21 24 30 34 25 21 25 17 21 27 26 22 25 30 19 20 27 20 20 29 26 25 26 21 22 30 22 24 16 25 29 19 25 24 16 21 29 23 21 30 24 26 21 25 26 27 30 23 20 22 28 18 20 23 22 21 30 28 27 25 21 31 21 21 31 15 32 28 22 21 29 27 20 25 23 22 14 20 18 17 29 33 22 27 24 19 24 22 32 22 24 14 22 19 19 22 23 25 22 26 24 23 21 26 28 28 22 20 19 21 19 30 19 25 30 20 25 24 21 22 21 20 24 25 18 27 17 19 30 27 21 16 21 18 23 20 27 18 17 18 25 26 16 21 28 22 26 26 25 18 22 21 19 20 20 18 24 19 14 23 25 29 27 23 21 33 22 25 20 25 25 18 24 24 26 22 22 16 25 23 19 25 20 23 22 30 22 19 19 22 24 31 26 23 19 17 18 32 21 21 24 18 24 21 24 24 26 23 17 17 20 25 19 14 14 22 21 17 16 24 24 18 23 23 20 18 22 18 17 19 34 18 25 21 23 26 22 24 17 24 19 19 24 26 24 20 35 17 21 19 34 26 21 24 28 22 26 18 15 24 28 29 17 25 25 22 19 22 24 20 24 28 25 29 24 33 24 21 15 33 16 27 25 27 11 25 25 24 26 23 27 24 26 22 29 28 24 24 17 13 27 22 23 31 25 24 23 21 26 28 38 26 19 28 20 23 13 27 22 27 22 22 25 17 17 17 19 19 18 25 24 21 25 21 13 19 17 19 19 22 25 29 18 25 27 27 27 22 27 27 25 21 16 29 22 32 24 24 24 23 31 26 23 17 21 22 25 23 26 24 20 25 28 17 22 25 10 20 29 23 29 20 25 27 20 24 21 25 25 19 26 19 17 24 19 18 20 25 27 23 30 30 31 22 18 15 24 17 28 15 24 24 23 20 21 23 36 18 33 23</t>
+  </si>
+  <si>
+    <t>JSB(4.115850810938204, 5.911946965004672, -16.035378534516937, 152.07293815024076)</t>
+  </si>
+  <si>
+    <t>32 31 42 28 32 29 36 39 40 30 34 29 29 40 23 39 29 32 41 28 39 42 36 35 34 24 28 38 37 26 40 45 35 36 34 29 29 33 33 33 36 33 37 36 35 37 36 30 27 35 35 42 43 27 32 44 35 34 31 31 36 35 34 37 35 46 36 22 45 41 40 38 35 34 46 33 42 43 37 37 45 30 29 28 50 37 31 38 32 30 40 39 35 29 34 35 33 39 34 38 33 39 38 25 39 32 32 37 27 26 34 33 24 32 40 31 38 43 42 35 28 42 34 37 37 36 34 38 37 28 31 41 35 41 25 29 38 32 40 30 39 33 38 40 38 29 36 25 30 28 54 32 41 30 50 35 39 29 26 37 37 37 28 38 31 31 38 39 40 44 29 26 31 32 30 30 30 34 35 37 43 29 40 38 38 51 25 39 28 40 29 35 42 31 34 40 32 38 35 28 47 39 36 37 38 36 40 41 37 41 28 32 42 39 34 32 25 40 41 38 30 36 29 40 39 36 38 36 36 39 44 29 29 37 28 44 43 41 30 31 37 37 26 43 36 34 40 39 35 43 33 42 32 32 27 36 27 29 37 30 26 36 39 48 50 37 29 37 36 30 43 30 32 43 35 29 39 31 35 32 23 40 39 37 40 38 39 32 25 36 26 29 23 31 37 28 29 43 34 33 32 34 41 30 29 40 33 38 38 41 31 31 32 41 31 30 25 31 35 49 44 42 38 34 38 40 31 25 28 41 28 30 46 44 27 37 28 40 24 41 33 32 42 38 28 33 37 31 31 29 38 31 36 36 38 31 39 25 32 38 30 42 35 32 29 36 33 41 44 50 30 28 32 23 40 28 42 31 40 36 42 35 45 24 44 44 37 36 32 31 33 29 26 38 37 35 46 39 43 25 39 31 31 26 32 33 24 34 38 32 30 32 45 34 35 31 38 38 40 29 41 39 44 22 41 40 28 39 42 39 31 31 24 35 43 24 35 31 38 37 28 35 37 37 45 28 26 43 34 33 38 34 36 29 39 48 37 32 39 43 43 25 33 42 30 42 32 34 35 25 34 42 43 42 36 45 31 34 33 27 42 41 27 42 31 27 37 29 22 42 28 46 38 43 33 37 46 36 33 42 42 37 42 30 29 25 31 28 33 36 30 28 36 33 35 36 36 33 38 45 35 47 30 39 39 36 29 35 33 32 32 51 36 28 30 31 31 40 34 30 34 32 35 43 32 36 39 35 22 26 31 29 33 36 39 43 30 28 31 27 29 46 26 44 33 32 39 29 39 32 35 26 45 41 26 31 50 37 31 36 35 42 31 40 32 37 31 34 27 36 26 37 37 24 26 21 31 34 38 32 43 35 28 34 27 32 33 35 40 29 29 33 41 22 46 32 32 37 34 36 21 33 31 36 32 39 34 40 31 38 40 34 39 45 33 31 42 34 32 19 31 25 24 33 35 32 32 28 30 37 41 35 36 44 36 31 33 26 41 27 25 40 33 36 30 33 39 32 30 48 31 37 32 34 27 33 31 33 35 23 34 41 39 24 34 41 29 36 33 31 36 41 38 32 39 34 32 30 32 28 33 39 36 37 39 36 51 28 35 40 28 25 29 34 35 34 44 29 42 46 37 41 34 30 32 26 37 37 30 28 26 36 32 32 31 39 34 30 44 44 34 32 29 41 36 33 39 32 27 39 22 38 30 44 36 23 34 34 34 36 42 37 45 31 35 32 33 43 35 36 37 37 30 38 37 40 41 39 40 19 25 32 42 43 34 36 45 34 29 32 36 45 28 36 31 27 30 33 29 33 39 41 46 28 33 31 28 40 29 38 41 38 27 27 42 43 32 45 35 28 30 29 41 37 36 48 33 45 37 32 48 30 38 38 40 30 30 34 41 28 39 34 39 34 33 39 39 32 27 34 41 37 35 27 52 32 37 35 36 34 41 26 33 30 36 31 39 27 42 31 31 37 39 26 32 32 42 37 36 47 37 32 23 38 38 29 28 37 46 34 30 30 35 40 38 39 40 29 30 37 35 31 31 29 40 28 37 34 33 39 33 43 37 31 50 32 33 27 29 31 37 32 35 36 24 37 40 36 31 29 28 35 30 25 31 31 26 35 38 26 36 45 24 30 22 31 29 40 33 41 46 32 31 37 21 21 33 41 32 30 27 36 37 42 38 27 26 33 32 43 34 38 39 29 31 35 24 17 41 33 27 18 45 30 39 39 28 39 37 28 39 41 43 26 25 37 24 31 34 40 32 25 28 41 37 34 37 35 40 44 38 43 43 35 31 37 39 37 36 41 34 44 31 32 36 45 38 40 27 39 33 40 31 31 26 37 38 36 28 40 32 50 39 32 32 38 33 35 33 37 36 33 35 36 41 29 33 31 35 28 30 36 30 41 33 25 33 40 47 32 37 37 31 23 40 41 34 35 40 36 21 33 40 33 35 30 27 31 36 38 29 36 33 34 28 19 44 35 36 27 31 33 22 36 29 30 37 24 34 41 35 36 41 39 36 35 39 35 41 40 40 35 30 31 38 32 30 33 33 23 36 26 34 38 41 40 26 45 37 34 34 31 32 35 38 37 43 38 36 44 34 36 38 37 37 35 29 40 34 37 36 28 38 38 37 39 32 40 33 38 43 31 31 34 40 35 36 52 43 40 26 40 33 43 41 35 36 26 32 49 30 51 40 37 19 39 33 30 33 27 35 39 21 23 28 41 46 31 36 30 45 36 33 45 43 38 38 28 31 26 37 27 33 28 25 29 45 23 27 32 35 40 38 37 35 33 31 29 28 42 35 29 34 31 38 35 36 30 35 32 36 35 29 47 34 27 28 27 28 37 40 34 27 29 36 33 26 41 29 35 32 40 25 30 35 31 32 42 27 37 30 36 37 32 27 35 35 45 31 33 36 35 37 30 31 29 34 25 37 37 54 41 45 31 34 37 49 36 34 30 38 27 41 25 45 26 40 30 35 40 27 30 43 33 43 32 44 39 34 39 35 28 44 29 33 35 30 37 33 50 41 32 29 27 32 37 33 31 42 33 36 41 34 43 33 33 35 33 32 41 28 37 41 29 39 37 33 38 48 33 35 38 30 29 55 42 35 34 48 32 42 33 43 37 30 33 38 39 31 28 32 33 33 36 29 36 41 39 33 37 40 37 36 42 28 41 36 31 38 32 31 25 31 42 36 33 27 44 35 34 37 43 46 33 22 36 30 38 32 28 35 32 36 43 32 31 29 36 41 38 35 35 41 29 35 25 39 40 43 33 36 38 34 31 34 34 32 38 41 39 31 28 40 38 34 35 44 33 28 30 35 41 30 36 33 44 32 31 30 43 34 37 38 29 32 31 43 26 39 33 33 33 30 36 25 41 28 32 29 30 36 38 32 34 43 32 31 33 46 42 36 40 25 33 41 33 33 37 39 31 34 33 31 35 32 37 41 33 38 35 37 35 45 31 38 36 47 29 37 38 44 40 31 27 46 34 33 37 40 42 28 31 28 48 44 33 32 40 36 29 38 35 40 37 42 28 38 50 38 41 36 42 29 41 33 38 25 38 29 35 36 38 39 28 43 42 30 37 24 31 39 29 34 41 30 44 29 38 43 41 40 27 29 50 42 38 37 27 41 42 31 41 44 28 37 30 31 25 30 43 45 36 35 29 22 42 34 42 30 29 27 32 36 35 37 34 35 24 32 22 30 29 44 37 38 41 27 49 38 43 25 35 29 25 31 43 32 32 42 37 33 31 43 42 33 29 40 32 42 39 31 29 34 35 34 32 40 27 32 26 37 33 30 32 42 31 39 38 31 47 28 39 43 26 31 36 29 32 31 43 33 31 25 40 35 29 34 37 34 31 25 39 36 45 30 32 38 28 35 28 40 34 50 41 28 39 39 32 30 36 33 27 33 30 38 37 33 28 38 32 39 32 33 36 25 26 35 31 31 33 42 43 54 41 37 40 39 31 42 42 34 45 28 52 49 33 32 35 46 32 50 32 37 30 32 35 39 42 40 29 29 38 21 31 41 35 31 39 42 38 34 44 27 34 32 33 28 43 43 35 35 39 34 31 28 41 37 38 30 38 42 36 35 28 35 32 33 32 27 38 30 33 26 37 46 42 30 28 27 38 34 40 27 39 35 39 32 31 23 41 33 41 32 35 28 28 49 24 32 38 38 34 35 50 32 25 37 28 38 36 34 46 41 28 33 31 31 26 36 28 35 36 31 34 31 41 37 32 30 29 37 40 29 25 45 45 33 39 37 36 43 38 32 33 39 40 27 31 22 33 32 45 31 29 35 35 33 36 27 29 24 33 30 27 33 41 34 25 23 26 41 41 35 33 39 37 32 36 40 36 23 37 40 35 26 44 37 32 40 25 37 32 41 34 33 37 41 37 34 43 36 34 44 37 30 41 26 34 46 25 44 38 29 46 29 36 33 31 40 35 27 44 39 35 35 36 38 42 37 44 40 35 30 44 38 31 44 24 43 27 44 44 33 29 37 32 33 26 38 33 42 33 24 30 37 36 31 31 43 36 30 40 40 26 37 35 37 34 38 28 29 26 35 29 34 37 42 37 25 27 30 40 31 40 55 40 40 32 42 31 35 39 38 42 38 31 48 35 31 39 35 36 41 29 35 45 35 32 36 37 39 46 36 46 37 39 42 41 38 29 37 38 37 29 34 40 33 33 29 44 21 42 37 39 28 32 37 33 37 37 31 28 36 40 39 33 33 41 30 42 35 41 30 30 24 35 32 34 39 43 32 34 30 19 42 24 25 36 34 41 32 34 42 36 38 31 34 29 34 34 32 29 27 39 34 43 42 41 41 30 28 40 38 29 31 31 33 32 35 37 39 38 41 43 32 39 41 29 34 39 27 42 38 32 37 31 37 41 32 39 40 25 36 30 37 42 31 42 45 45 33 31 33 31 33 45 34 35 26 36 28 36 39 34 37 32 39 27 38 43 44 25 42 30 36 32 34 50 30 38 34 30 38 41 39 28 36 24 35 30 39 42 36 37 26 36 40 35 38 38 32 38 31 38 26 31 39 25 29 35 31 35 37 39 34 42 31 36 38 34 32 31 35 42 42 31 35 37 33 33 40 35 37 37 46 34 37 33 41 36 37 44 31 27 42 40 27 36 37 39 43 29 30 35 42 24 33 42 38 28 27 31 29 34 33 36 34 39 24 33 42 26 44 29 38 34 34 22 38 36 38 21 35 30 39 48 25 23 38 30 29 28 29 35 41 42 40 42 43 36 41 38 31 27 37 32 31 32 41 37 39 34 37 31 39 38 30 28 22 28 40 42 36 25 34 41 34 34 39 29 36 32 39 34 36 32 43 41 37 34 37 41 28 31 34 32 37 30 35 29 36 33 28 33 24 31 27 26 28 35 27 35 34 44 35 42 43 34 39 26 33 38 38 28 34 23 34 34 41 36 35 27 49 25 29 39 31 40 33 32 38 34 24 30 31 41 35 28 26 33 41 36 31 37 29 36 33 28 30 34 29 46 40 37 37 33 43 28 35 32 44 23 29 31 31 44 39 35 33 31 35 33 29 39 40 34 43 32 28 33 33 46 34 31 34 44 31 31 33 39 41 34 35 39 29 36 35 30 30 28 30 32 33 31 30 46 38 30 28 34 31 36 36 29 32 33 35 36 36 33 39 31 22 35 33 35 39 33 33 36 34 38 31 36 29 29 26 33 37 32 34 36 31 35 34 29 31 26 26 34 31 40 38 35 38 30 39 30 45 31 47 28 30 26 23 28 38 30 41 32 28 43 33 30 39 36 35 30 37 33 33 35 50 41 36 38 26 23 23 37 36 30 33 39 33 39 31 29 40 23 31 35 40 23 29 33 37 32 31 41 27 27 28 27 36 27 32 33 42 44 34 31 41 41 39 35 28 32 27 32 49 36 28 39 44 28 26 36 33 40 38 41 29 31 35 39 45 43 48 23 27 33 33 28 50 30 29 30 43 39 39 40 33 28 29 39 26 26 35 37 26 40 34 42 40 34 28 41 41 29 36 35 38 45 38 33 42 40 37 33 36 37 28 40 32 33 38 38 44 51 25 39 31 45 25 31 36 26 37 31 44 31 38 20 36 34 30 33 32 39 35 23 23 37 31 42 40 31 33 43 41 39 33 26 27 44 38 33 32 33 33 30 38 29 40 36 36 37 38 27 31 42 29 28 39 44 37 27 34 31 31 35 34 32 34 31 33 25 32 36 33 20 40 38 50 41 33 27 45 32 39 41 33 36 32 38 32 27 34 31 42 35 32 32 42 34 39 28 33 45 26 28 30 36 39 41 43 40 36 40 24 36 36 41 29 26 36 34 34 41 36 37 33 31 39 33 30 27 28 46 43 28 38 37 32 35 31 27 26 41 37 41 35 33 38 37 33 26 32 37 35 27 33 38 47 43 33 29 27 41 34 46 35 30 33 33 28 31 31 40 32 41 32 36 38 34 34 37 37 27 36 44 30 30 37 38 36 39 46 37 30 43 43 33 36 50 36 33 37 30 29 32 34 26 36 39 29 34 36 29 45 27 33 35 34 40 28 28 35 35 40 36 38 47 33 31 36 24 34 36 38 30 38 31 32 38 31 36 29 34 38 38 33 28 30 33 39 30 42 40 41 42 36 36 30 27 39 42 37 42 40 39 38 45 32 24 33 41 35 45 24 39 36 32 47 28 36 43 38 26 27 27 38 30 32 33 30 38 32 39 31 30 36 34 29 43 29 35 38 38 32 39 32 29 42 30 26 31 20 37 37 33 28 46 40 46 34 44 28 30 36 31 40 36 38 37 44 28 46 31 41 34 33 32 29 33 34 39 41 30 36 45 35 30 27 37 42 31 36 34 39 40 38 40 27 29 43 33 39 38 35 37 44 34 29 29 45 45 30 32 37 34 35 33 40 29 39 41 38 27 38 39 46 38 38 29 42 39 37 40 36 36 38 39 37 34 37 30 30 36 32 28 43 38 31 37 25 31 33 35 31 29 41 36 36 30 33 43 34 33 29 28 28 37 17 29 37 39 42 30 30 39 49 35 40 32 29 29 41 39 33 27 35 40 32 51 34 37 23 43 35 34 44 37 34 33 41 37 24 31 40 30 34 30 32 27 36 29 33 30 32 35 30 27 28 37 34 37 50 46 38 31 35 37 38 33 40 40 35 26 40 35 36 38 37 37 33 31 32 39 28 28 44 34 38 38 36 35 29 35 36 37 37 41 25 39 34 34 36 29 35 25 32 39 29 40 37 33 31 26 44 40 32 35 38 31 33 45 24 29 39 32 19 29 29 32 28 35 31 36 40 22 28 29 39 30 31 37 38 29 36 32 27 36 32 36 23 32 30 33 27 36 37 40 26 33 31 37 27 35 34 27 36 29 33 30 33 36 28 34 35 44 36 50 32 35 41 32 25 54 33 42 45 31 36 25 30 29 30 32 25 27 36 22 30 36 37 30 51 39 45 32 28 35 33 27 42 28 40 39 32 28 31 26 23 37 25 37 43 35 24 26 31 28 31 28 32 36 30 47 37 48 31 40 28 31 42 23 32 45 29 29 22 41 30 33 36 35 45 39 29 37 41 32 42 41 37 42 26 44 35 41 43 33 25 28 34 44 27 38 30 31 45 32 25 26 24 41 37 32 34 32 34 36 34 45 26 41 24 33 35 35 38 44 32 24 45 40 36 29 42 27 35 37 47 49 31 27 29 40 35 35 38 41 42 25 37 31 28 28 35 35 31 36 42 32 28 35 27 32 28 39 35 32 29 28 46 39 43 40 35 37 33 32 30 35 22 38 30 36 37 42 26 38 29 40 18 35 33 22 35 37 25 39 25 35 36 31 37 26 38 37 33 42 23 48 39 34 35 33 35 39 46 24 42 37 33 31 38 44 36 33 36 35 40 31 38 40 31 35 26 35 28 36 38 45 34 28 30 26 27 42 35 37 44 33 31 42 31 34 30 36 32 38 33 37 36 45 33 33 38 36 33 32 38 30 41 34 34 39 33 47 40 43 27 35 41 36 26 26 35 37 37 26 41 34 41 35 36 35 34 32 27 36 26 33 34 26 37 35 34 38 34 32 32 50 25 48 31 35 34 38 34 34 32 50 32 43 35 35 34 43 38 39 37 27 34 35 30 38 28 40 26 31 32 28 32 34 31 50 42 37 36 29 29 35 36 26 40 37 38 28 32 38 22 30 30 33 31 42 33 35 40 37 26 35 37 34 37 35 35 38 25 29 39 30 35 41 37 43 31 33 34 23 33 32 30 36 38 40 34 38 26 41 26 39 36 45 34 28 32 36 36 36 34 33 40 39 33 32 37 37 41 37 46 35 44 38 34 35 46 37 35 32 48 32 34 27 28 33 36 33 31 43 32 49 27 29 41 28 43 38 43 27 42 39 39 30 32 38 36 36 27 28 28 36 39 36 36 46 45 36 37 37 33 39 31 33 33 27 29 36 34 31 30 27 34 31 40 37 31 39 43 33 27 27 31 40 32 38 29 35 35 32 33 38 39 43 37 42 33 38 33 43 40 33 40 28 37 31 45 30 31 31 35 33 29 41 35 23 36 40 41 41 36 39 34 35 30 34 32 39 44 34 33 40 39 35 26 30 41 40 30 45 38 25 34 42 37 34 35 35 34 47 31 31 45 36 36 37 33 40 44 39 38 40 35 27 32 36 40 34 33 35 28 34 36 22 25 31 50 46 40 39 31 40 36 35 24 32 34 33 42 40 38 31 35 38 25 32 34 29 32 37 33 32 41 36 36 41 40 34 35 30 38 30 30 29 33 41 52 36 27 38 28 43 41 33 33 41 33 23 32 32 37 40 25 33 36 40 37 34 34 26 30 35 33 36 36 33 32 37 30 32 27 25 38 24 32 29 45 34 36 34 38 31 38 32 30 31 39 34 35 31 49 31 25 33 37 38 37 33 27 34 49 37 39 36 28 36 22 34 40 38 42 31 28 32 41 32 32 43 32 34 34 39 51 40 24 28 33 38 32 37 31 30 28 40 45 33 36 36 39 34 34 37 35 39 38 50 33 31 38 39 38 32 29 38 42 38 32 29 36 34 26 29 37 44 26 30 32 30 39 32 25 28 34 29 37 40 34 42 26 40 33 35 43 35 33 40 36 35 30 32 27 39 36 41 31 36 27 36 37 32 42 23 38 37 35 45 48 37 36 37 40 30 30 34 40 33 27 14 38 36 40 37 27 38 40 33 24 33 40 35 27 39 36 31 35 32 33 37 31 30 27 45 30 36 24 23 34 35 36 39 39 40 39 28 33 30 42 34 34 40 28 38 42 30 29 33 35 34 40 38 34 33 40 25 44 27 43 34 45 35 36 37 27 43 43 30 36 38 35 46 24 37 35 38 28 38 25 32 32 33 26 32 27 25 46 34 33 39 26 30 44 32 34 34 23 31 38 40 35 44 36 47 42 41 42 34 23 32 27 33 32 44 31 21 42 32 38 29 31 41 37 30 29 28 26 36 44 39 36 36 33 39 33 35 35 40 32 34 32 36 29 33 22 38 31 31 41 30 33 35 26 30 33 41 41 22 34 35 29 40 30 37 28 29 27 37 31 43 34 38 23 37 44 43 35 36 42 28 34 30 47 39 32 37 49 39 39 44 37 39 26 28 47 28 33 42 40 26 34 25 38 37 39 31 38 41 33 38 37 39 39 35 28 33 31 29 30 24 33 29 40 37 34 34 36 32 35 28 35 39 40 30 35 37 32 28 57 30 29 31 30 34 30 24 38 30 38 32 40 40 33 40 32 32 40 43 29 40 25 37 41 30 31 34 36 37 35 33 27 32 37 39 40 32 26 36 49 46 34 35 39 28 37 32 46 36 36 38 32 31 39 42 33 43 31 40 36 33 35 30 38 31 36 41 33 34 28 30 40 31 39 28 40 28 37 36 36 32 28 34 35 34 43 27 32 32 27 39 40 36 37 28 33 37 50 40 32 43 39 30 44 32 25 30 35 39 33 38 35 45 41 36 30 30 39 31 43 28 38 43 38 37 39 25 25 29 30 35 31 37 26 43 40 35 38 38 33 39 34 42 34 25 37 34 37 36 35 37 37 31 41 35 34 34 37 32 35 38 35 36 38 22 27 33 36 25 32 34 40 30 38 30 33 31 43 37 25 47 32 49 28 44 27 42 36 37 41 29 31 36 32 36 50 32 34 38 40 31 34 41 24 33 38 27 34 39 41 43 35 39 32 34 30 48 37 29 37 33 35 32 35 33 29 37 35 37 32 43 40 34 35 41 30 28 36 28 34 39 38 35 47 30 31 26 32 24 41 43 38 31 37 36 32 35 48 48 31 29 35 36 32 42 37 23 32 38 41 32 37 39 38 33 27 37 37 42 32 34 37 23 35 36 42 35 41 35 29 29 37 38 40 36 23 34 46 46 45 29 47 29 40 35 36 40 27 44 38 31 25 27 28 39 32 38 34 26 28 38 38 38 39 41 23 37 34 33 43 34 34 38 47 29 37 31 35 35 43 30 28 31 30 41 30 31 37 34 35 25 35 35 33 24 33 36 41 35 43 35 41 29 32 30 42 27 45 34 27 43 28 22 38 31 42 34 28 30 33 39 35 28 35 33 33 29 41 35 39 35 34 35 39 32 41 33 39 43 25 31 28 31 33 23 32 38 42 22 40 38 45 38 37 31 30 34 26 32 35 47 37 29 36 41 41 36 36 34 39 31 41 38 37 28 33 44 33 30 39 28 37 41 36 37 32 44 27 36 24 35 34 35 38 36 42 46 32 24 34 29 38 37 39 39 33 31 44 38 36 38 27 45 43 31 29 35 21 16 28 27 37 48 34 37 37 22 34 50 23 30 25 39 39 39 31 27 44 39 44 25 36 30 24 38 37 29 47 37 32 29 32 28 36 31 43 30 32 32 31 48 41 38 38 41 32 45 29 25 36 37 24 39 40 34 37 39 33 33 31 30 27 44 34 33 34 48 34 32 33 41 29 25 42 42 37 31 48 33 39 30 40 37 39 35 40 34 36 26 35 36 37 41 34 33 40 32 23 28 26 33 49 42 37 35 28 35 30 44 40 33 35 35 35 31 47 26 34 42 46 38 36 23 39 34 25 35 46 27 32 34 35 40 37 31 39 39 32 36 37 37 30 27 42 36 31 41 29 38 33 43 42 33 33 34 33 32 42 31 34 32 35 34 27 28 42 41 39 28 26 40 38 30 40 32 31 32 29 28 33 42 33 33 35 30 33 25 42 35 42 40 35 34 41 45 30 34 41 36 30 36 45 39 39 34 42 30 36 32 35 42 34 36 36 26 21 27 38 34 23 29 35 52 36 31 36 29 29 32 22 26 52 29 28 33 33 35 38 45 36 35 43 36 34 38 34 30 37 32 33 34 28 38 38 30 40 41 28 22 33 31 26 35 24 39 30 49 34 34 31 33 37 31 32 46 28 35 23 31 31 46 36 26 36 37 29 40 34 28 35 33 35 30 40 40 33 51 39 31 37 36 46 46 34 32 41 28 24 44 28 35 38 41 35 34 42 38 45 35 38 36 33 33 24 38 32 32 40 38 37 40 32 35 32 31 32 43 41 34 26 33 37 41 36 29 41 32 39 43 36 41 34 40 40 35 35 43 42 35 26 46 38 42 38 38 25 42 39 32 44 37 28 33 26 29 40 39 38 29 32 33 36 34 40 33 32 33 33 34 30 26 34 28 34 31 41 44 28 27 30 36 38 36 29 41 41 43 37 37 34 34 28 31 36 33 37 32 33 44 30 40 38 36 44 29 39 28 38 33 39 35 39 32 35 35 36 30 31 39 39 42 27 39 29 34 29 33 43 44 31 37 30 32 31 32 38 39 39 22 33 33 31 41 37 36 30 36 29 30 37 29 42 31 40 43 26 34 48 35 36 23 37 32 43 37 31 39 36 34 30 37 35 40 24 27 40 41 30 34 31 36 33 32 24 39 45 42 42 38 31 39 32 34 29 35 22 39 36 40 40 35 41 35 41 33 29 37 37 41 33 34 21 27 26 29 30 34 43 32 29 35 32 35 33 36 32 37 35 36 37 35 43 45 31 46 35 32 34 39 33 38 33 30 38 38 26 32 29 24 32 38 37 37 36 36 44 39 35 25 34 53 32 30 32 35 29 45 29 37 45 42 43 34 30 40 41 41 39 41 33 36 33 29 41 44 29 33 36 42 29 36 28 34 34 40 36 26 37 26 29 37 26 45 27 27 29 32 39 46 22 29 32 44 36 33 24 41 29 31 41 36 43 30 30 37 33 28 34 37 39 42 36 30 38 28 23 43 47 27 29 33 36 42 44 37 30 34 33 37 34 32 38 31 39 31 37 41 41 38 39 33 42 29 38 28 42 31 37 33 42 32 35 38 27 27 39 26 26 27 35 35 26 43 29 35 31 35 37 42 36 48 35 36 35 33 43 35 37 48 43 34 21 35 25 39 35 24 36 32 32 36 31 41 35 35 32 33 32 34 32 37 47 46 34 40 33 26 26 30 43 40 39 33 29 35 31 46 35 37 32 42 42 38 30 34 40 28 32 32 33 31 34 33 41 32 34 29 37 33 37 39 38 38 41 37 25 37 33 33 32 42 28 42 38 34 36 35 23 34 29 35 41 33 34 32 32 26 39 31 35 27 34 24 30 33 36 29 44 24 37 33 26 30 44 40 35 36 31 25 39 31 26 36 29 37 30 49 33 35 37 26 37 35 37 35 41 38 32 39 43 31 41 38 35 26 38 32 39 34 38 34 42 42 38 48 41 30 51 41 25 38 39 37 34 38 30 36 33 34 34 25 37 29 25 30 41 40 43 32 42 36 42 35 28 35 31 37 33 37 31 38 35 31 31 47 33 27 39 29 30 27 40 36 30 36 29 30 37 43 44 44 22 32 28 37 41 32 29 37 32 41 29 37 28 34 30 32 34 29 35 34 51 45 35 34 40 25 35 39 35 29 29 27 35 34 37 32 37 35 42 35 32 22 29 24 24 41 36 39 24 29 28 31 36 33 42 35 29 29 24 42 36 25 28 39 40 34 44 32 35 31 32 34 32 50 33 34 29 29 43 29 35 38 23 31 29 29 38 33 35 29 42 44 40 31 35 27 31 27 33 26 41 31 32 44 45 36 39 34 38 37 35 37 41 33 26 37 40 38 33 50 42 28 32 23 45 33 22 36 35 36 27 43 32 45 31 27 32 30 42 45 38 35 18 38 35 31 34 36 25 40 31 33 31 36 51 35 49 37 32 31 33 40 25 34 26 34 34 26 42 22 33 41 31 41 30 33 30 49 32 32 31 24 35 38 34 33 31 36 28 37 36 36 40 26 27 33 31 27 29 30 27 31 36 39 39 49 41 37 38 30 40 40 35 29 31 35 36 41 33 35 31 31 39 33 28 30 33 30 35 35 30 33 37 38 34 35 37 32 29 32 30 39 39 37 43 33 31 46 23 38 40 31 39 32 37 41 34 44 35 32 38 54 31 33 45 33 27 30 26 34 39 33 31 39 42 34 32 34 34 21 50 37 34 32 35 29 40 32 28 38 37 35 34 35 29 42 34 39 32 28 41 36 36 41 38 32 31 34 39 35 40 33 22 45 27 34 41 24 30 42 30 34 45 40 31 38 30 38 45 37 27 36 32 34 38 31 38 34 32 42 36 28 37 31 44 33 36 35 35 34 48 27 34 38 33 38 29 31 39 38 47 40 29 35 29 42 41 35 30 46 32 32 42 39 35 33 30 37 35 40 30 40 40 47 36 29 34 26 33 36 32 35 31 32 35 41 24 33 44 35 34 34 34 35 31 29 36 39 41 33 39 34 30 41 34 35 36 35 43 33 27 36 33 29 33 28 35 40 28 38 26 45 32 31 34 35 41 33 32 40 30 33 42 40 31 35 40 34 40 27 33 30 32 44 29 33 35 46 36 30 40 27 41 30 38 45 38 35 35 27 33 29 39 31 36 35 35 38 30 36 36 33 38 26 34 33 35 34 33 33 27 35 40 23 27 36 28 31 30 35 37 42 45 36 42 39 30 28 44 42 36 32 38 34 34 33 35 27 35 42 38 51 38 28 39 27 36 32 35 32 36 31 37 35 42 40 38 57 33 34 36 33 29 39 32 38 33 38 30 35 39 30 35 29 42 31 27 31 28 25 28 37 34 29 44 30 42 42 32 31 31 35 41 34 41 35 31 42 38 25 39 29 47 37 36 38 26 36 27 32 29 42 36 33 35 29 31 31 35 28 30 48 32 36 35 32 21 43 29 29 38 36 36 39 28 28 33 42 36 35 40 34 34 39 43 31 31 38 42 32 46 43 34 32 34 37 29 32 23 32 33 30 37 31 47 27 41 30 34 38 34 39 40 29 40 34 36 27 32 33 33 31 28 44 35 34 32 33 35 29 28 37 38 36 43 47 35 34 36 26 31 32 27 32 40 36 34 32 30 43 30 30 40 28 42 30 27 41 31 37 36 41 44 35 32 32 27 35 38 52 26 31 31 35 35 34 49 27 47 38 36 38 27 35 28 36 38 32 36 33 31 29 35 35 21 38 34 41 33 28 43 34 51 44 35 39 36 33 40 35 25 33 33 30 41 34 36 34 34 49 43 37 39 28 30 34 33 41 37 42 27 35 31 27 33 37 44 38 30 29 35 39 51 32 39 34 41 30 37 32 41 31 33 30 43 35 43 35 37 29 29 39 34 34 27 26 38 25 36 33 41 30 33 46 35 41 41 47 26 29 28 41 28 32 29 46 45 40 37 33 39 27 42 30 41 36 33 36 35 41 43 34 27 35 29 36 46 35 38 38 41 26 39 30 30 34 31 32 39 30 34 30 32 25 38 39 36 35 34 39 31 40 41 39 36 41 36 41 29 35 31 35 44 44 41 28 33 36 30 24 44 28 36 25 35 46 38 34 32 46 30 32 29 34 41 37 33 29 36 39 30 35 27 34 26 40 38 47 32 34 44 41 23 47 32 29 36 35 35 42 34 36 21 28 34 36 35 38 37 29 33 30 31 52 34 35 52 38 34 36 31 48 32 28 36 38 32 36 27 24 40 44 33 34 26 29 31 32 37 38 24 32 36 39 24 43 42 44 37 36 34 38 35 32 33 39 38 40 41 30 34 25 29 34 38 36 36 35 26 33 48 31 35 24 38 27 38 28 30 35 38 33 34 34 31 36 39 39 33 32 38 34 37 37 33 43 39 23 27 37 25 33 28 33 29 29 51 34 33 29 30 37 36 28 41 34 32 28 28 33 31 32 37 31 31 31 40 24 45 24 27 36 31 31 41 34 31 40 37 39 34 40 28 37 38 40 40 26 41 37 33 26 45 34 31 40 37 26 43 31 35 31 35 32 42 32 30 29 33 37 35 34 33 36 39 28 34 30 33 30 39 31 31 39 32 32 39 32 24 32 27 30 39 28 39 38 40 32 22 44 39 37 35 41 40 37 42 42 36 35 32 32 33 40 28 46 24 32 25 46 25 31 47 39 33 42 46 22 26 40 34 31 39 37 27 40 28 35 41 35 32 37 30 31 30 32 30 42 40 34 34 41 38 35 39 34 43 30 41 35 42 46 33 33 35 33 25 32 31 35 48 32 35 45 26 34 46 27 30 22 33 32 33 26 35 35 36 39 39 26 44 27 28 34 41 35 33 31 28 28 37 27 36 27 40 44 34 27 33 36 38 36 35 33 34 36 35 38 27 33 33 33 43 34 42 36 47 35 35 27 38 28 32 37 33 37 40 40 30 45 25 26 32 35 28 37 44 39 35 39 30 26 29 34 35 36 33 47 38 36 38 32 34 32 25 26 36 30 36 37 38 41 31 29 28 26 35 29 39 39 26 34 33 27 40 40 29 37 37 44 32 29 37 27 18 27 39 42 38 40 42 31 42 37 27 40 29 35 35 38 40 28 32 37 37 28 35 37 30 42 26 25 27 34 41 34 37 33 40 31 37 34 41 33 33 38 42 28 31 35 27 37 30 36 36 33 33 36 40 39 37 31 28 25 38 41 36 45 40 26 32 44 38 36 38 36 37 39 26 46 40 37 33 28 36 37 36 40 31 37 27 25 37 31 29 36 30 36 24 36 33 37 28 31 42 34 29 30 40 41 33 29 34 37 41 30 31 41 36 33 31 32 32 35 41 28 27 33 36 42 37 30 34 27 20 37 41 34 38 30 34 27 35 37 35 33 33 29 33 33 37 33 38 26 44 39 28 38 32 36 28 43 32 38 27 37 27 33 37 41 33 38 31 29 38 32 40 31 43 36 40 31 30 33 31 33 31 38 29 27 31 40 39 23 42 36 30 27 44 32 37 35 37 39 23 40 35 33 54 44 40 37 29 31 37 39 16 36 29 34 34 31 38 30 33 22 30 35 36 30 38 27 38 38 35 37 38 37 30 48 47 30 29 37 33 38 38 27 43 38 35 34 26 36 38 36 28 28 20 33 34 39 30 31 40 36 40 28 30 41 36 24 43 38 26 37 30 39 38 36 42 27 41 36 36 39 42 36 42 32 34 33 37 33 32 38 39 38 29 38 38 32 37 29 29 28 40 33 27 37 41 33 34 31 32 32 40 32 27 33 28 41 33 30 43 34 37 31 32 40 34 32 32 37 39 46 46 41 32 37 41 33 43 31 37 31 25 30 30 29 40 27 40 46 35 32 34 29 39 34 27 40 37 37 31 29 27 36 35 39 28 39 43 29 45 29 38 40 36 27 38 33 25 39 40 28 31 42 37 34 37 33 27 31 31 33 42 39 45 48 33 39 29 39 36 39 32 41 34 41 30 40 34 42 32 32 32 36 34 43 25 24 35 28 29 32 37 46 31 21 45 35 38 34 33 36 36 27 37 32 39 24 25 44 41 38 30 37 38 32 44 41 29 33 27 32 29 37 36 26 41 42 31 32 34 32 40 27 39 29 32 34 34 29 37 38 40 42 33 37 39 37 31 44 38 41 35 43 43 24 23 33 39 25 34 37 32 37 40 41 39 40 37 24 32 35 36 30 24 33 39 31 32 34 45 43 38 39 33 42 26 27 46 44 43 42 28 28 37 33 33 32 41 31 35 21 39 46 42 34 27 35 40 40 28 39 33 34 30 38 36 32 37 37 25 33 38 39 38 29 32 30 37 31 38 33 35 36 37 35 22 37 37 42 40 35 41 31 31 31 39 30 30 27 30 38 30 23 45 43 26 32 48 39 39 28 35 30 35 31 37 29 28 40 33 34 31 31 33 37 39 50 33 29 33 32 36 36 35 23 32 34 25 37 25 38 30 30 43 36 45 36 30 35 35 35 37 44 32 42 37 39 26 36 33 38 30 36 32 45 34 46 33 37 29 33 48 34 35 32 36 35 29 40 35 40 39 38 24 42 26 42 36 37 49 29 37 40 39 47 34 42 24 29 28 29 25 34 30 45 24 27 30 32 40 38 38 31 28 33 38 30 43 27 34 38 39 31 28 21 34 28 37 38 26 44 29 39 36 44 31 37 35 37 42 34 42 39 35 41 30 52 38 30 37 34 35 31 28 41 30 40 33 39 39 26 32 33 30 32 36 28 42 36 47 39 37 31 35 37 31 45 22 42 33 31 36 40 26 24 29 35 40 40 24 36 40 37 30 40 25 27 35 35 27 30 42 29 35 32 38 34 45 37 42 41 34 35 42 37 29 22 32 40 27 30 28 26 28 41 28 35 42 30 36 39 37 40 34 28 28 34 42 37 51 35 27 38 23 31 35 39 40 34 28 42 32 29 31 33 42 40 31 42 31 32 34 28 32 41 29 38 36 37 34 38 23 34 38 37 36 29 46 40 38 31 29 24 41 28 37 36 31 38 24 46 29 37 34 34 34 31 26 38 39 37 39 41 30 40 32 40 36 30 33 36 30 28 40 43 30 42 36 43 34 29 30 38 42 45 39 31 27 32 40 29 43 38 25 33 46 31 23 29 40 35 39 31 30 37 40 41 32 30 40 36 33 43 36 34 40 40 40 28 34 35 28 29 38 35 30 47 33 34 42 32 41 35 42 41 39 47 30 43 29 37 34 32 30 37 31 33 37 29 43 26 40 36 33 33 40 39 27 28 32 47 35 20 37 33 32 33 27 32 36 30 34 44 40 41 30 42 45 33 37 39 31 37 43 37 35 36 42 27 28 28 39 33 39 27 34 32 40 28 34 28 36 30 30 39 35 33 26 38 33 40 35 32 48 32 39 33 37 34 34 35 34 40 29 42 43 35 33 34 31 39 40 31 22 39 33 38 38 41 23 46 34 33 36 45 34 33 34 47 34 24 35 27 32 38 27 36 42 33 35 31 39 42 33 25 27 35 40 34 32 32 30 37 34 33 40 37 38 45 43 26 40 35 36 33 33 35 35 30 34 41 34 36 37 26 28 33 40 41 36 38 28 32 32 44 36 38 39 34 35 39 27 36 33 29 31 42 34 42 35 33 38 37 31 32 39 33 38 35 31 40 30 28 36 35 38 33 44 42 33 38 35 33 34 36 33 41 32 33 40 27 31 26 36 36 34 25 35 34 30 34 25 34 42 30 35 42 34 37 30 36 30 29 41 31 35 33 44 29 23 29 28 44 36 45 23 31 35 33 30 44 45 41 34 24 37 47 19 40 38 33 30 46 34 28 34 25 30 33 55 40 33 30 30 23 38 30 33 41 37 41 38 36 41 28 29 32 36 35 26 35 29 39 38 34 40 31 30 50 30 41 26 37 35 33 42 28 27 43 51 33 22 33 34 22 35 30 42 40 30 32 38 31 40 42 40 32 33 25 36 33 39 24 31 27 25 42 40 41 38 36 40 35 46 38 39 34 27 34 42 31 49 44 40 36 31 37 36 21 43 28 26 33 34 47 40 32 25 35 33 38 29 33 29 31 44 40 38 27 43 36 32 28 29 39 33 32 30 38 31 40 36 35 40 34 33 39 31 36 34 31 30 33 31 40 37 30 37 35 49 29 29 35 44 36 38 35 25 40 39 30 32 33 35 33 37 40 38 37 37 39 37 37 41 39 29 31 35 39 33 36 36 42 29 30 31 34 30 35 35 34 39 30 23 33 35 44 28 36 32 29 38 47 36 37 35 38 33 34 29 40 40 37 26 37 53 38 36 39 34 26 29 33 37 32 31 30 30 35 34 37 26 32 36 30 34 34 34 26 39 30 44 39 26 30 39 25 35 26 41 36 38 27 33 36 38 33 29 29 25 34 31 37 37 41 37 41 31 37 31 32 30 28 29 37 38 30 34 34 33 31 33 25 26 32 30 42 30 41 27 36 34 44 34 26 34 42 37 27 39 41 43 41 40 33 34 33 33 29 40 37 35 42 44 42 34 38 33 48 36 32 32 41 30 28 30 34 35 32 26 39 32 36 33 25 39 34 32 31 29 28 39 40 27 30 39 37 38 39 39 38 34 40 41 45 24 29 26 32 31 36 33 38 33 35 38 31 35 28 31 31 37 30 28 36 44 31 32 40 35 22 32 34 36 35 36 40 28 40 35 47 37 30 45 36 27 43 31 27 37 35 41 32 29 25 37 39 36 31 35 32 41 36 34 31 36 23 33 35 41 40 35 38 39 41 35 32 27 29 26 23 45 31 27 31 27 28 33 35 38 30 37 45 31 25 28 36 23 28 31 34 38 37 38 29 42 31 40 34 28 37 37 32 47 42 25 39 42 30 34 28 34 38 28 28 31 43 39 40 30 32 28 35 38 35 30 29 37 38 42 28 41 34 42 33 40 29 36 35 44 22 37 43 31 24 35 30 36 31 43 36 32 25 37 38 35 29 36 38 39 37 28 36 40 46 33 36 36 37 27 29 37 42 28 27 31 27 21 30 28 33 33 26 26 36 33 42 39 36 33 33 48 34 37 30 43 33 38 30 36 25 31 36 43 28 35 33 30 30 37 36 37 44 26 39 45 31 39 34 32 32 24 39 34 29 29 30 34 27 30 30 35 29 34 35 33 27 41 21 35 37 41 39 29 37 32 34 34 43 34 35 39 30 32 45 41 41 29 39 38 39 32 29 34 24 26 37 38 33 32 43 32 38 43 34 42 31 28 33 32 30 32 39 37 39 42 39 35 43 36 20 34 34 27 36 41 35 34 37 33 36 43 34 28 31 37 37 43 27 41 26 29 37 37 43 35 33 33 30 26 30 39 43 32 31 23 27 37 37 35 21 40 39 35 27 31 27 30 48 39 30 35 33 35 36 44 29 39 33 35 39 35 35 36 40 31 31 27 21 30 44 28 33 36 40 36 35 28 32 34 37 28 27 31 29 35 43 27 44 33 39 36 33 35 34 39 24 30 34 28 33 36 26 44 40 35 41 29 40 40 38 32 35 38 34 38 33 37 27 32 32 43 34 31 32 43 38 41 34 32 39 34 41 43 39 31 39 36 25 33 27 25 36 35 43 33 33 35 37 31 25 45 33 40 32 37 36 35 34 27 28 35 23 34 33 36 30 38 43 43 34 25 41 32 34 33 50 24 29 25 36 21 30 32 42 35 36 30 35 36 34 29 30 39 39 31 35 39 25 39 29 31 30 29 37 36 40 42 24 31 28 24 43 52 38 34 32 42 32 30 35 35 29 35 42 40 31 31 39 27 42 42 27 38 30 35 32 34 31 25 40 34 34 35 30 46 34 31 39 30 35 34 38 38 24 39 36 36 39 34 34 48 28 43 42 39 40 40 42 37 27 26 43 29 34 41 29 31 42 28 40 35 40 29 32 35 39 40 35 35 33 44 36 33 31 40 38 31 33 41 37 43 44 30 36 31 41 35 33 34 40 29 34 23 20 40 27 30 43 34 38 38 41 30 35 25 41 27 32 32 35 36 30 43 45 32 36 41 31 40 34 29 30 37 30 35 39 29 37 35 35 39 36 26 41 37 28 25 22 47 38 31 40 35 29 32 33 35 31 35 33 39 48 49 27 41 37 33 35 36 36 38 34 26 35 26 26 33 32 36 21 41 28 25 24 42 49 40 31 35 40 46 28 28 31 47 36 33 37 30 33 33 38 35 19 43 24 37 34 42 29 40 35 42 28 45 35 22 31 44 31 41 41 39 36 35 34 28 33 24 34 33 32 32 30 30 36 42 30 41 36 47 42 49 29 30 29 34 42 24 28 36 33 33 28 46 38 38 37 44 37 32 36 27 36 42 35 41 37 36 23 39 37 36 37 37 40 38 31 41 40 30 31 33 48 41 29 35 31 37 39 33 38 31 22 35 33 31 31 29 34 40 32 33 23 38 23 53 50 39 43 43 36 39 38 38 45 28 36 29 37 40 40 29 41 33 33 45 33 34 24 38 32 33 34 39 36 37 34 28 36 30 29 36 31 38 34 34 38 37 36 32 34 36 41 39 38 40 28 37 44 48 29 33 31 30 33 31 39 30 32 26 33 33 35 34 30 38 37 35 32 30 45 31 29 34 29 38 27 37 40 44 29 26 37 36 35 35 47 33 28 35 32 25 32 44 34 34 35 41 44 40 46 30 30 35 38 43 40 35 31 30 31 41 44 34 37 33 27 37 33 39 23 40 29 35 31 31 35 26 39 37 41 36 39 32 37 33 36 42 44 38 31 37 34 39 46 37 32 42 23 37 39 42 39 38 40 25 37 40 33 29 38 37 36 39 35 34 40 36 33 27 37 41 35 35 33 39 32 45 32 31 41 37 35 31 41 37 42 41 39 29 38 36 29 28 29 39 33 43 31 34 34 30 39 30 30 38 30 41 44 32 35 43 40 32 36 29 29 31 28 25 32 35 48 32 38 34 29 35 30 46 37 35 24 34 29 36 36 31 32 36 31 33 30 28 32 35 48 43 31 31 31 30 40 30 38 46 27 38 39 38 28 36 28 35 37 27 49 30 32 42 35 35 29 30 30 30 33 39 26 27 32 32 39 27 31 44 30 35 41 39 29 37 35 30 30 28 30 34 33 24 34 34 39 33 27 33 47 37 37 33 34 36 34 35 32 32 33 30 32 35 36 28 36 32 35 33 48 28 38 26 36 32 37 37 33 30 24 24 50 29 29 38 29 35 29 35 32 43 37 32 32 32 34 29 24 32 38 31 27 30 34 34 28 37 30 35 27 29 34 22 28 56 30 40 35 39 36 35 33 26 34 30 29 33 39 37 38 56 27 28 31 44 36 29 36 40 37 49 34 26 36 41 40 27 40 37 35 31 37 38 29 39 45 38 44 42 39 37 37 26 44 28 43 35 37 24 37 37 36 44 36 40 33 33 32 35 42 31 33 30 26 44 38 32 40 40 36 29 34 36 43 47 39 34 39 29 30 22 39 29 45 34 30 32 25 30 37 38 30 31 36 37 34 41 30 22 31 31 33 25 32 40 37 36 41 34 39 42 34 36 48 32 31 31 44 30 45 33 37 35 36 47 41 33 33 31 29 39 30 37 38 38 42 40 22 29 43 26 31 43 34 41 30 43 35 26 29 43 32 36 23 38 34 27 36 34 29 32 35 41 35 37 43 38 35 33 30 34 29 43 32 38 37 36 32 37 39 51 29 47 30</t>
+  </si>
+  <si>
+    <t>JSU(-24.573233790323044, 18.723757155913617, -594.9418888140247, 495.0106745955714)</t>
+  </si>
+  <si>
+    <t>257 199 278 181 294 203 283 289 319 177 284 206 219 304 210 274 253 248 281 236 216 321 257 255 339 144 170 334 335 190 280 271 298 316 256 246 298 255 291 277 228 269 319 249 188 243 280 266 145 274 284 249 295 192 225 332 326 234 274 297 268 238 247 251 225 344 331 121 302 275 247 351 209 259 326 341 307 243 324 304 312 222 175 210 357 258 232 319 236 272 324 322 266 214 241 248 234 253 301 216 291 239 213 200 268 219 275 271 218 257 249 359 133 231 238 243 293 256 354 205 171 275 244 210 315 229 235 311 243 240 171 288 336 273 257 205 241 225 259 219 368 226 246 286 224 205 226 152 226 197 372 261 288 280 287 260 345 206 176 252 199 288 204 244 207 184 320 331 311 328 193 219 207 179 238 266 234 259 245 217 356 228 296 263 282 337 149 248 247 253 241 327 330 167 243 300 302 239 271 227 323 316 264 278 304 281 350 325 328 366 228 215 287 359 273 225 155 270 279 305 242 312 218 285 308 291 152 339 304 283 259 224 234 260 159 316 272 400 195 259 301 331 237 329 312 275 312 275 275 280 241 277 230 218 156 283 173 237 327 243 246 248 244 319 315 281 228 250 254 220 381 253 273 313 295 301 356 273 204 233 213 269 250 314 355 273 299 278 189 246 201 149 171 256 258 234 214 344 306 294 270 261 215 219 177 199 293 327 263 336 235 259 223 320 241 227 124 206 235 409 329 365 342 267 274 259 255 244 208 270 206 227 307 409 189 352 212 290 176 301 210 161 404 299 191 235 247 240 159 244 294 234 251 284 294 203 261 225 312 333 247 367 232 233 243 298 262 359 292 280 168 187 242 144 276 208 324 158 382 259 287 235 302 221 355 366 241 227 214 264 263 233 232 260 245 251 350 275 199 182 300 227 272 181 215 320 206 320 211 259 187 205 388 217 299 209 227 299 271 253 300 296 340 195 230 339 222 335 368 300 228 205 160 268 307 130 235 203 263 271 142 272 274 266 343 177 224 338 184 266 223 236 282 197 344 359 305 284 198 260 347 263 234 351 224 353 174 295 291 177 230 194 357 303 312 278 262 274 303 236 357 267 200 296 232 171 261 231 120 325 205 247 305 337 177 293 304 254 240 244 282 250 286 143 206 192 284 182 249 314 240 300 202 206 261 258 264 312 211 311 260 282 209 261 293 326 183 234 240 183 192 269 239 223 253 261 220 325 291 224 256 259 267 292 254 237 313 317 166 177 220 266 286 264 335 343 237 250 243 170 184 300 214 275 161 240 264 241 274 215 198 242 379 206 183 231 344 325 275 231 254 304 206 277 235 281 243 255 186 285 200 318 267 146 176 176 264 204 241 291 303 238 226 318 248 195 276 321 316 279 238 309 269 194 338 229 223 279 183 202 180 216 266 181 246 270 234 303 219 330 264 289 269 312 202 234 337 351 251 150 221 192 246 338 228 174 281 245 270 304 214 222 264 295 357 225 234 230 306 252 213 246 229 320 234 272 245 237 205 314 263 321 332 312 170 295 281 234 254 163 300 271 299 122 321 304 353 249 225 217 283 269 287 188 271 212 299 198 207 225 278 191 213 316 355 260 326 202 178 354 166 181 213 230 324 228 340 218 387 265 276 341 217 243 293 237 255 198 253 236 199 290 304 250 237 359 223 291 362 332 246 227 252 307 291 265 306 259 200 296 158 252 197 337 277 186 265 268 261 213 291 248 321 364 242 247 229 269 226 260 238 315 273 223 275 252 345 279 301 152 251 268 350 401 253 257 287 203 216 201 308 306 165 252 220 198 236 256 255 271 253 277 341 178 201 202 217 232 201 349 315 285 172 238 230 275 269 347 267 253 210 217 336 258 263 404 274 401 348 308 274 243 289 296 253 264 189 266 262 180 232 306 300 280 242 236 259 190 236 281 282 282 247 167 321 293 222 317 326 290 352 207 255 218 250 233 251 214 317 245 222 261 285 254 282 209 274 276 267 307 276 220 173 301 317 165 253 279 346 188 183 236 304 358 352 254 315 231 234 303 308 275 195 240 348 241 263 340 251 308 267 290 233 261 327 265 242 232 257 203 290 286 219 248 171 333 327 331 297 232 210 214 241 170 266 209 228 260 225 207 281 306 170 237 147 210 163 278 197 294 359 234 276 323 134 131 241 276 250 193 172 245 298 284 328 215 170 328 222 252 348 310 362 218 199 284 187 142 276 263 158 178 263 238 271 328 209 280 266 269 264 281 275 254 183 313 217 253 244 232 327 235 261 263 283 253 298 232 247 286 224 375 312 348 260 258 267 233 275 305 253 250 236 288 239 383 317 284 159 347 295 297 242 269 191 319 308 226 208 281 234 369 361 234 242 217 208 307 267 272 216 295 193 280 268 219 260 236 272 160 251 302 151 291 240 196 266 315 351 197 248 334 227 154 330 317 225 256 303 233 143 209 347 308 248 229 194 242 254 315 279 204 239 244 178 142 209 293 268 209 170 213 222 301 228 176 270 179 237 339 253 267 375 216 158 331 264 221 349 232 232 272 268 254 257 200 213 304 231 181 259 220 240 245 331 253 254 365 251 234 267 265 204 307 302 279 331 256 269 303 277 240 258 343 275 221 148 349 208 242 262 221 251 157 289 349 248 367 157 286 343 275 204 260 273 326 321 374 309 273 215 329 209 318 298 222 279 136 254 267 234 326 305 279 100 281 276 210 230 256 280 258 153 192 244 302 337 298 263 214 319 279 344 306 343 286 230 187 182 195 254 172 261 224 258 219 352 206 237 175 285 304 186 299 286 320 270 142 195 289 219 289 240 202 327 211 239 307 246 255 273 321 119 309 217 164 192 196 276 284 333 349 208 208 232 287 199 316 203 278 259 345 176 179 291 200 256 259 245 276 248 337 355 221 185 224 224 353 244 281 308 297 259 209 326 213 242 273 259 254 447 306 284 173 241 250 339 349 263 235 323 203 291 82 345 208 346 187 266 295 186 281 303 276 206 225 390 273 286 200 315 180 347 215 235 232 231 250 265 349 284 271 252 239 199 256 239 270 298 260 244 348 306 237 251 235 325 211 213 261 166 266 330 247 213 328 204 244 341 235 301 348 177 237 351 287 317 268 392 261 280 309 299 261 215 213 272 280 260 166 280 195 224 241 260 281 258 272 228 267 365 232 280 308 224 320 235 256 330 219 286 197 231 258 244 283 155 338 290 221 258 296 341 279 169 290 294 273 238 203 219 227 239 280 298 190 171 204 301 341 275 307 268 266 311 199 252 265 302 233 360 286 247 173 362 228 253 292 360 293 268 222 282 315 220 267 308 164 258 395 263 301 197 339 213 354 214 223 242 265 349 332 299 212 242 252 363 203 292 292 203 271 241 294 197 333 167 240 237 203 226 298 259 239 369 305 226 256 339 357 202 269 232 177 218 311 256 287 288 224 215 249 252 227 254 227 342 217 266 227 249 271 309 263 376 256 285 253 337 198 387 311 212 252 366 240 249 261 323 336 249 188 203 353 337 202 250 272 211 211 300 271 320 309 254 221 232 320 259 325 219 302 225 263 257 269 144 234 169 338 187 351 197 220 308 302 191 327 192 218 282 260 293 223 256 313 256 295 281 284 321 189 262 347 241 315 270 246 228 326 178 244 318 279 244 201 259 203 195 291 240 239 258 219 123 259 202 303 251 214 176 249 254 287 315 366 298 131 305 189 259 188 324 264 351 262 232 364 282 364 201 202 254 193 215 255 232 281 380 216 274 272 367 298 243 217 338 262 331 294 200 190 225 284 227 227 330 195 259 216 283 318 234 230 339 211 243 231 219 247 225 308 350 195 150 367 244 262 250 325 225 170 130 268 224 238 283 271 259 282 167 255 309 343 175 185 272 228 211 195 306 247 418 245 188 248 256 217 269 285 240 157 216 212 311 207 239 184 295 194 302 249 237 232 205 162 236 301 219 187 383 285 299 272 238 332 218 165 306 271 312 270 230 343 390 283 295 229 310 245 311 192 264 252 283 197 223 287 269 203 250 309 161 210 307 233 187 282 232 311 257 219 120 236 298 199 181 280 377 274 266 348 256 264 153 261 272 297 234 256 283 270 275 212 246 269 258 201 161 282 217 262 214 246 342 342 271 256 121 341 303 314 254 320 275 294 270 222 205 266 348 249 266 291 240 219 331 178 243 272 318 327 246 363 189 189 315 165 165 216 180 291 291 217 276 245 166 177 292 142 352 248 218 244 199 293 226 214 208 187 264 294 222 194 292 356 275 234 346 211 258 336 224 235 329 357 215 191 185 299 196 302 197 184 242 268 229 306 242 221 224 310 225 191 266 309 223 207 227 193 370 391 335 253 314 281 278 254 314 261 187 261 245 201 171 243 262 252 284 176 262 176 289 289 273 326 285 228 296 359 223 282 336 227 200 329 173 248 331 238 351 254 244 314 201 245 295 174 239 320 309 308 349 314 217 202 295 233 283 255 325 284 244 265 300 227 330 232 318 236 289 344 203 259 296 234 299 177 340 230 277 264 141 190 269 325 196 191 244 286 219 299 330 186 278 320 298 238 255 200 253 161 215 252 241 252 250 238 151 238 195 267 270 340 385 245 342 221 324 250 274 310 270 302 245 193 375 256 198 280 286 231 325 236 225 333 246 211 299 240 274 319 277 319 261 325 252 296 315 334 304 229 227 174 273 373 254 206 197 330 185 265 260 267 165 185 337 226 339 260 250 173 254 288 253 268 233 283 185 277 245 294 317 199 200 226 228 238 290 237 323 237 228 161 339 184 245 296 240 327 266 250 381 254 323 292 277 252 245 294 281 220 240 240 273 260 222 289 294 250 198 275 276 215 259 251 247 274 226 252 319 314 283 316 240 303 252 203 255 196 201 280 251 224 280 231 225 306 269 308 323 224 305 177 238 252 278 235 384 310 259 263 271 205 282 270 227 172 141 280 242 262 239 232 327 281 377 216 366 223 291 187 333 285 307 269 220 332 235 287 273 210 281 297 330 272 209 182 306 163 317 289 277 284 193 300 291 256 285 293 238 328 239 215 182 234 270 179 197 260 218 239 289 368 285 314 232 247 294 206 252 237 334 305 296 255 265 263 309 297 317 194 286 248 370 215 299 226 263 284 231 343 242 261 262 327 254 224 339 299 317 207 239 248 324 212 232 283 304 216 179 267 190 296 280 282 277 267 192 205 258 197 271 252 265 202 274 164 249 260 300 116 194 270 339 397 147 219 265 337 261 222 205 269 265 252 264 366 302 293 317 217 256 219 332 249 172 227 202 273 313 247 232 184 238 277 218 165 167 272 202 268 252 186 238 317 234 252 334 236 275 270 263 260 306 165 316 306 253 236 288 304 275 235 248 272 257 215 231 256 259 248 220 245 125 236 251 184 229 372 172 260 354 300 253 372 323 243 303 201 242 274 372 260 208 190 301 264 310 227 217 217 296 177 211 345 207 266 205 209 306 286 204 114 227 309 253 141 202 249 260 247 227 261 226 311 198 247 217 282 245 312 327 284 313 290 292 176 216 239 308 172 195 251 184 354 221 275 207 184 246 273 239 266 355 288 223 213 273 226 290 329 335 292 223 317 271 257 253 258 234 273 264 208 184 308 257 255 204 234 250 291 279 237 312 326 328 277 194 264 282 262 296 284 223 275 255 305 238 234 304 206 152 264 274 336 258 228 219 275 268 326 225 255 210 236 206 269 322 259 165 242 255 284 174 212 185 244 167 217 218 260 230 230 231 293 336 260 243 213 306 246 198 184 177 171 211 198 292 240 223 284 302 250 290 240 261 228 316 300 262 347 304 223 247 341 189 152 170 287 306 240 231 245 214 216 244 285 235 188 224 308 240 177 238 301 293 326 232 160 184 137 244 163 296 203 272 230 272 277 338 244 313 310 337 288 218 224 182 257 297 284 190 281 343 195 168 314 283 254 329 283 236 207 196 262 373 263 294 147 170 235 231 277 374 269 186 289 303 226 285 279 198 216 229 364 179 164 213 278 213 328 206 289 248 237 263 302 291 226 211 160 265 367 260 253 242 255 253 228 317 221 186 208 273 222 280 227 410 291 169 270 224 359 214 245 263 250 226 278 389 228 306 132 329 243 199 201 269 307 270 160 183 270 220 377 339 238 173 247 319 268 213 151 192 329 302 157 229 378 268 186 264 177 255 224 332 261 312 219 322 243 190 243 328 321 285 205 214 263 143 275 285 199 253 215 329 123 247 285 283 186 262 309 300 279 267 204 257 259 300 297 238 281 281 305 205 225 269 206 366 274 214 235 259 242 242 268 223 287 197 203 224 287 277 338 329 324 282 300 192 265 369 298 226 184 277 269 298 317 317 306 284 200 241 291 203 249 209 300 323 168 332 300 302 283 234 213 210 332 309 245 273 289 216 303 223 211 239 279 264 164 310 374 309 226 235 206 207 330 192 355 235 219 299 196 272 222 171 243 284 346 184 297 239 221 264 258 315 203 246 305 264 280 249 217 277 256 273 260 218 319 380 332 256 369 210 227 306 261 230 201 316 166 311 259 239 238 215 183 285 152 299 233 228 396 199 258 258 218 247 209 329 375 248 240 280 176 209 286 274 213 306 271 221 257 222 197 159 208 276 187 282 212 253 247 246 223 301 346 300 260 238 229 262 164 272 266 214 338 266 324 295 274 265 192 236 357 314 327 202 231 279 302 297 268 249 314 264 238 197 162 327 190 269 251 228 315 252 285 237 242 289 214 233 397 237 299 345 341 250 346 266 246 369 216 211 190 164 217 277 279 146 362 323 301 303 389 184 237 314 206 325 294 232 255 399 233 312 294 285 257 297 246 223 248 187 274 264 241 266 284 291 216 167 253 299 217 349 318 316 251 275 236 196 209 277 232 291 290 248 195 293 263 238 249 276 301 221 220 282 294 211 282 350 226 229 316 299 189 269 238 258 271 260 196 251 253 295 297 272 227 281 304 254 209 272 281 260 252 216 237 273 273 213 224 194 215 284 237 230 197 357 400 292 240 246 339 200 227 242 207 190 313 137 192 286 224 291 291 139 234 346 242 282 305 210 226 287 240 246 221 249 290 279 392 317 208 140 275 279 258 241 279 240 273 296 233 138 276 328 213 268 226 225 237 233 259 293 262 263 286 206 216 253 279 255 242 359 332 266 244 254 249 282 210 301 291 296 162 317 289 243 267 262 269 204 281 188 367 240 205 362 258 266 228 304 308 205 337 227 297 334 299 229 307 261 240 317 203 304 218 236 312 218 278 255 334 195 205 324 284 265 300 273 259 254 334 221 193 326 334 160 238 279 197 236 329 265 292 267 169 213 243 248 244 253 373 341 184 281 265 210 243 226 283 155 250 146 180 201 223 239 290 218 216 258 265 239 286 203 176 274 214 242 211 206 227 228 223 284 282 217 297 223 273 293 217 216 339 262 344 269 172 286 251 168 263 190 314 202 206 218 171 280 241 300 206 314 356 360 352 169 311 271 222 352 268 273 272 254 225 274 196 238 314 149 245 313 239 227 179 186 258 235 223 287 261 234 370 259 361 253 270 200 240 246 203 261 353 289 227 195 253 171 297 319 285 324 272 333 279 331 206 351 346 240 284 222 388 294 378 250 211 171 286 274 301 175 264 284 237 403 261 203 87 171 320 290 262 301 291 270 275 227 320 179 298 190 215 285 257 240 312 190 180 331 288 279 237 317 239 227 338 349 334 240 215 247 222 233 331 370 260 324 193 337 261 283 190 251 294 272 282 344 265 259 195 225 222 245 282 252 242 164 201 315 238 313 230 224 313 223 230 162 260 168 289 244 264 290 291 200 201 206 293 155 256 262 148 275 286 166 358 206 227 237 262 284 170 211 296 229 276 207 381 285 241 259 236 194 299 396 138 328 257 244 275 253 347 240 285 255 291 294 171 334 259 193 257 275 219 187 309 322 310 212 285 157 226 221 273 228 271 290 277 192 284 208 325 227 241 217 328 243 247 219 315 240 248 236 318 243 192 261 228 267 278 279 244 320 297 264 308 157 298 368 275 194 232 165 294 240 170 208 307 376 286 195 279 263 228 225 266 248 215 282 228 246 211 337 247 223 267 199 362 167 380 287 221 218 288 232 200 275 292 191 361 270 234 301 270 290 355 341 296 227 316 249 261 229 312 202 265 191 207 242 254 236 291 312 163 258 260 126 244 303 206 343 252 269 160 177 309 209 234 170 172 206 232 174 301 213 283 193 201 247 210 295 263 338 263 216 202 311 250 207 369 220 346 212 228 260 201 251 233 250 280 227 216 304 243 288 260 182 334 272 240 310 262 271 285 314 336 296 259 249 238 279 197 231 292 331 319 380 299 371 341 233 278 286 311 200 240 385 283 250 209 234 259 244 211 238 344 202 244 179 185 287 233 252 312 236 140 297 240 339 204 179 305 215 232 257 312 319 268 316 168 235 380 360 261 265 327 252 257 233 235 282 224 201 287 221 216 213 218 249 207 232 264 208 338 315 139 238 192 228 248 274 311 242 262 265 257 245 281 350 253 218 316 217 282 229 312 232 262 286 193 251 276 350 248 238 264 227 268 296 242 293 236 266 309 310 290 227 241 257 341 263 212 211 345 321 244 206 237 240 236 178 305 334 295 243 276 241 172 255 298 295 237 264 281 235 358 213 248 283 215 281 237 255 329 360 233 361 281 264 188 265 300 211 245 253 248 193 242 274 156 240 270 353 300 325 295 207 292 335 304 156 178 318 274 324 281 256 307 261 304 261 271 210 193 246 290 307 211 325 287 286 257 267 253 285 286 235 192 228 278 271 344 389 341 265 332 183 410 264 284 251 292 287 233 264 195 348 331 186 300 190 201 267 238 270 222 183 256 270 276 245 237 275 278 199 241 256 194 357 193 275 183 390 281 288 232 280 238 286 234 226 229 299 280 293 250 347 297 193 189 273 341 273 236 246 178 329 276 331 270 249 252 174 268 216 282 274 252 183 215 276 296 249 236 196 248 241 298 354 322 167 237 251 352 205 350 293 205 163 264 373 268 253 292 193 231 256 307 309 324 291 413 175 215 321 250 291 267 229 249 270 254 200 200 289 264 236 249 298 277 197 279 247 247 352 219 184 213 272 214 241 270 234 298 194 294 240 289 262 319 237 232 254 250 273 167 213 257 280 304 210 323 175 255 284 233 326 215 232 269 281 268 349 294 247 235 318 211 161 244 317 203 221 80 433 220 241 307 227 291 236 259 149 260 334 199 185 276 254 246 365 232 229 299 254 261 213 392 173 249 144 248 216 259 303 254 244 262 182 181 289 165 219 207 211 202 203 259 489 174 251 248 327 230 346 189 277 209 249 199 383 236 312 251 284 297 202 319 208 328 308 249 326 235 196 424 207 278 283 269 163 321 168 261 262 270 211 228 171 212 398 190 259 235 129 232 281 245 296 233 182 244 293 325 222 323 313 338 364 264 341 291 228 227 255 238 263 301 150 178 319 258 260 218 310 354 314 249 195 234 179 295 316 331 279 237 258 289 242 267 234 262 233 143 257 244 284 228 223 370 221 289 315 269 250 273 159 256 280 354 325 184 228 245 241 309 191 258 147 219 222 321 309 293 234 377 182 330 321 431 267 311 299 164 347 261 344 318 217 335 247 298 286 350 223 282 275 206 319 195 302 319 280 254 229 195 250 327 267 225 293 305 274 300 246 312 291 281 267 251 244 247 246 187 231 239 206 255 227 246 245 280 306 240 250 317 281 289 257 276 328 174 422 237 197 202 262 287 239 160 288 230 252 257 239 313 235 351 234 183 292 303 263 308 141 340 310 212 250 324 236 259 295 265 233 247 321 330 318 261 234 334 342 316 206 247 329 243 306 224 317 268 299 301 209 233 321 256 321 260 270 295 286 233 275 219 212 281 231 377 262 323 258 223 349 223 248 227 298 245 305 289 283 204 171 229 284 221 368 171 188 251 229 303 276 289 251 173 236 298 403 310 283 315 310 274 294 239 227 197 256 252 237 232 239 316 276 214 249 320 305 211 356 225 289 281 256 275 199 140 174 254 247 291 179 353 192 322 297 273 261 288 280 289 308 282 296 205 299 205 355 266 319 192 260 152 311 269 228 218 259 244 266 268 311 251 253 249 272 260 281 173 176 231 292 197 271 247 246 250 241 328 158 333 228 382 251 351 118 355 258 276 310 193 229 290 260 272 353 270 238 348 284 248 237 259 220 308 300 134 244 305 297 249 229 285 349 209 199 286 248 197 276 239 262 282 218 225 214 181 263 314 240 343 262 249 284 316 218 248 298 255 274 262 256 291 371 202 288 222 272 173 257 331 330 227 330 297 250 171 339 346 216 264 244 221 198 312 184 217 195 360 274 269 203 275 253 248 227 288 232 325 339 302 232 203 311 187 255 250 285 295 231 178 307 245 320 241 168 222 313 320 343 161 319 235 280 269 222 249 168 323 370 185 211 216 220 316 279 284 202 191 232 246 318 296 239 335 149 328 270 238 311 240 292 322 284 264 239 289 212 292 352 211 269 280 227 343 194 224 223 218 316 167 299 246 219 180 295 253 222 272 333 184 347 194 236 187 346 245 320 237 153 357 135 237 285 249 250 316 230 270 318 300 177 173 274 295 266 226 280 229 240 242 283 230 357 189 343 275 326 274 197 267 198 319 246 173 203 382 309 219 334 313 358 304 311 241 235 248 123 264 310 365 330 291 231 304 329 173 299 242 299 202 236 304 275 244 244 372 254 207 274 196 291 367 272 257 206 348 202 302 204 235 227 254 326 252 263 326 222 207 241 218 314 323 365 242 206 287 366 261 223 251 217 343 364 246 212 214 123 118 189 218 269 337 239 195 211 148 228 323 122 186 206 265 257 283 239 160 307 327 318 181 254 235 197 260 284 189 321 242 246 206 228 243 273 278 265 253 247 286 250 316 292 359 232 326 238 354 210 168 296 280 219 318 266 305 295 205 295 296 225 234 197 421 243 247 268 329 280 223 256 271 324 223 256 254 303 261 401 272 286 232 255 283 371 261 390 282 247 226 282 251 357 307 240 166 244 214 169 265 186 237 397 302 260 290 202 281 199 259 276 254 333 257 220 272 398 253 259 277 355 249 232 251 276 291 135 287 349 257 236 247 303 253 303 285 264 354 237 241 334 226 202 223 338 244 246 291 188 345 252 285 291 201 225 283 277 268 351 196 326 151 264 216 225 290 315 346 242 271 180 320 259 158 284 229 207 216 196 228 215 304 221 197 227 269 292 211 314 293 285 320 211 269 259 357 210 273 333 253 226 342 371 305 251 240 305 250 255 210 311 387 239 291 251 219 154 211 292 261 265 201 272 422 296 242 177 225 228 205 142 189 352 311 191 242 269 271 325 255 225 190 278 241 195 308 232 240 283 218 194 298 223 322 268 240 242 286 291 122 261 275 217 282 233 309 225 209 229 212 219 282 287 190 250 330 234 245 217 271 239 296 314 264 248 272 277 311 305 196 201 267 239 244 326 191 264 353 290 186 317 232 263 266 239 183 280 254 152 364 223 274 285 303 199 251 274 250 263 258 280 252 289 234 207 333 265 251 308 349 282 263 271 276 243 207 214 357 265 249 156 290 246 267 273 173 317 234 337 236 266 355 282 271 321 246 238 238 333 244 130 300 301 260 344 312 249 345 205 263 364 274 162 216 236 165 334 278 271 241 258 241 244 298 274 226 252 203 270 265 202 210 164 270 304 232 231 316 170 204 222 318 282 206 223 307 286 353 257 290 221 296 210 278 280 295 334 213 275 319 209 335 280 222 304 207 267 221 335 234 354 217 312 254 263 211 283 234 272 261 271 293 196 278 246 186 258 282 319 323 244 220 260 226 268 265 271 294 228 140 252 227 195 236 325 228 234 344 132 212 336 178 323 143 322 216 232 287 363 166 222 174 298 293 309 312 201 348 329 224 195 296 263 226 252 215 329 378 220 253 217 315 229 291 194 305 367 275 291 237 209 393 208 242 252 241 146 282 266 375 302 225 253 289 355 284 145 243 282 329 194 272 163 247 193 238 224 206 379 234 171 333 261 301 248 311 248 333 275 269 196 312 288 351 240 324 247 254 257 252 286 203 254 209 255 261 166 216 254 129 209 320 261 268 274 278 287 315 259 135 235 362 262 196 201 224 262 305 249 208 305 377 274 216 280 338 364 259 328 306 257 340 277 209 324 329 210 297 243 272 182 277 287 275 343 337 254 187 254 203 166 294 206 359 259 214 209 225 339 276 200 231 239 352 243 241 228 304 247 290 256 293 327 164 178 306 246 218 241 232 252 310 302 206 290 182 147 390 339 214 221 192 318 299 319 353 209 242 327 360 237 235 320 261 262 286 273 284 294 260 271 293 318 185 287 279 270 264 374 276 338 196 325 280 218 205 308 209 231 208 226 254 152 271 255 335 215 241 313 259 260 307 221 199 236 177 302 246 284 340 228 222 134 196 202 344 287 165 281 246 200 246 260 191 359 336 290 176 220 245 236 340 290 287 226 246 291 188 110 199 304 300 240 205 200 263 196 299 216 318 211 298 336 286 244 216 356 265 282 187 259 275 222 282 274 192 199 190 325 206 167 295 231 233 292 297 192 300 322 258 244 339 244 362 257 222 254 223 174 311 213 272 356 257 290 274 288 264 313 252 315 208 231 150 263 178 401 157 248 196 261 307 244 302 334 349 294 303 158 192 274 226 175 239 233 274 245 370 147 317 315 211 293 281 285 297 260 291 258 223 358 245 210 313 255 221 222 241 300 263 199 282 323 337 247 357 279 279 308 293 208 296 249 295 345 290 240 284 288 250 249 181 319 197 189 253 269 261 277 242 311 265 369 267 214 335 244 253 240 268 203 210 233 302 282 327 184 149 260 195 261 258 355 272 243 228 189 205 199 314 249 313 158 222 277 264 321 227 202 241 232 299 268 223 224 264 186 187 227 229 200 218 421 332 274 282 315 212 370 374 317 255 222 245 253 284 188 268 240 216 292 249 175 230 179 170 272 253 294 298 194 205 221 266 251 232 253 268 196 299 226 244 269 195 197 265 285 273 266 217 268 191 265 301 275 370 258 303 180 314 230 224 205 220 194 303 178 168 281 180 246 210 330 277 363 229 300 206 227 243 254 147 306 243 282 375 306 235 272 241 325 319 277 277 266 318 251 229 261 262 233 278 310 184 218 176 245 281 178 246 294 262 181 329 238 376 229 217 242 216 252 338 282 289 183 242 238 211 177 345 137 298 173 219 257 301 308 257 409 217 194 240 207 259 249 263 141 255 280 178 286 165 288 250 232 275 212 238 261 432 210 219 284 201 253 232 234 234 265 265 204 276 283 229 295 166 209 286 249 220 228 199 227 187 260 216 226 325 303 258 253 201 238 250 274 282 268 304 250 272 256 200 244 255 269 246 198 332 315 222 215 256 256 266 282 342 283 278 253 295 272 299 177 270 254 250 377 245 216 281 219 280 359 287 286 193 273 333 280 337 223 237 278 378 237 272 326 223 193 275 213 274 335 242 188 333 279 258 214 320 273 246 339 277 227 308 265 177 287 231 266 355 278 276 237 338 176 336 289 267 223 215 292 189 241 347 199 271 300 195 338 247 335 249 239 268 299 231 291 159 275 344 228 261 356 259 292 292 290 276 311 298 216 249 223 232 292 198 302 219 250 276 282 249 197 201 296 297 334 290 289 288 338 215 262 253 262 256 188 255 314 290 402 336 302 266 220 333 359 275 193 350 258 238 300 295 273 286 213 286 260 283 287 328 275 289 243 334 235 208 245 360 310 267 234 255 269 319 195 239 276 259 282 302 221 255 250 259 195 250 324 204 326 227 244 280 266 303 293 296 286 250 230 297 279 252 267 210 237 251 197 281 150 312 190 256 235 288 332 181 280 310 224 308 302 206 244 308 220 224 225 181 265 239 245 364 266 209 284 382 287 210 307 242 186 252 232 292 358 279 248 185 313 152 264 280 345 229 302 290 224 206 342 177 303 237 212 240 243 267 147 278 231 255 390 181 267 263 201 254 242 202 194 358 387 243 237 288 278 237 372 279 302 277 261 286 237 259 261 187 251 321 236 398 281 200 357 190 330 256 191 226 281 243 290 327 250 259 281 299 236 271 227 304 195 275 250 245 267 248 200 238 283 192 228 300 290 237 165 269 174 194 209 298 284 230 395 193 331 270 260 238 232 263 291 266 286 240 182 301 273 191 311 225 286 276 251 262 176 366 223 215 229 311 218 262 237 168 153 275 265 217 205 406 244 215 245 295 148 291 290 216 248 189 233 224 197 196 205 316 216 240 250 277 249 232 350 247 266 236 327 213 414 243 243 199 258 198 325 223 186 228 152 219 328 155 257 226 386 292 252 300 323 271 353 231 231 234 277 210 265 203 220 212 155 385 306 282 269 275 302 232 107 253 321 226 355 338 291 278 261 202 242 261 166 240 296 190 226 204 162 366 177 138 277 217 372 219 165 328 186 336 368 314 280 311 269 263 153 249 254 390 218 248 207 277 306 251 344 170 306 311 348 291 201 279 218 231 239 247 340 268 215 249 266 181 155 360 264 313 213 204 350 288 384 360 283 334 307 217 269 251 208 308 250 190 252 220 298 334 255 353 282 282 309 227 233 294 245 222 226 298 245 314 188 212 245 279 377 257 208 163 287 285 290 198 331 235 261 178 282 281 268 261 264 227 357 282 326 283 264 164 240 311 259 261 237 253 317 189 256 353 283 210 194 305 254 359 265 315 237 236 195 259 218 204 228 344 281 322 284 237 292 201 325 250 347 344 208 262 273 277 306 259 209 269 154 286 344 283 312 274 283 227 297 201 192 263 259 219 323 269 293 288 357 174 291 293 286 267 203 281 193 292 346 319 260 244 202 393 252 259 228 297 377 350 258 218 257 231 204 190 359 187 296 160 217 372 257 304 251 408 200 284 235 279 285 273 224 246 274 339 106 218 243 246 232 332 343 488 272 272 380 235 149 371 202 230 278 258 273 291 302 276 152 181 272 209 293 248 290 188 320 223 252 378 267 213 340 233 307 229 255 357 256 235 350 271 233 305 181 157 323 400 293 260 219 236 237 174 241 319 129 294 225 215 215 315 311 290 264 310 225 361 317 192 272 296 284 292 282 250 241 154 221 219 348 275 232 264 235 201 290 219 276 161 288 180 286 231 204 183 311 250 233 273 275 215 290 258 252 260 282 204 269 258 268 298 259 169 182 258 223 194 229 223 258 271 419 214 311 230 219 277 217 276 260 252 200 191 194 241 254 297 214 263 222 235 278 213 318 153 225 265 285 235 347 229 272 338 300 291 282 344 183 200 259 299 232 171 269 293 276 194 387 293 197 252 216 224 369 171 224 240 282 239 372 218 213 231 255 222 261 288 193 267 267 208 235 312 256 288 274 289 230 328 246 272 346 237 206 284 155 326 299 216 210 336 271 247 177 272 328 289 330 274 310 181 209 324 246 209 259 219 220 308 201 345 122 274 215 351 220 263 353 331 232 384 319 211 251 283 294 261 226 314 201 318 231 260 304 229 182 234 226 275 275 284 234 294 252 272 240 274 257 256 370 252 370 261 244 230 295 315 230 274 208 233 146 243 223 183 373 173 297 351 240 233 285 250 254 287 241 279 259 181 307 323 207 310 234 192 297 231 220 257 309 192 259 194 245 218 256 222 281 162 271 337 155 162 294 240 273 296 222 249 297 303 240 254 205 188 267 241 232 241 284 289 352 274 278 183 304 311 219 266 256 264 299 309 230 339 215 281 231 252 215 260 277 320 177 295 276 228 281 252 250 286 209 354 304 265 334 204 262 284 202 244 264 245 360 327 296 333 267 246 206 244 268 260 355 301 197 250 258 237 323 335 274 341 306 327 208 267 237 229 108 167 329 293 305 305 337 232 288 300 275 358 253 149 210 326 307 164 253 335 228 164 205 214 200 216 179 129 261 210 296 328 248 217 287 227 263 295 339 244 198 229 221 256 227 348 229 258 274 197 298 215 201 280 280 272 312 279 211 218 329 308 282 347 279 156 241 365 235 281 210 275 234 227 142 343 327 249 282 243 182 227 250 328 206 323 208 171 351 172 247 208 259 278 192 282 270 250 150 189 306 242 167 250 307 344 231 216 339 219 347 271 161 292 321 256 162 242 251 286 300 229 197 285 275 328 257 260 253 206 164 259 275 288 306 252 175 230 236 258 264 268 253 234 215 268 307 285 260 223 342 271 179 291 260 279 205 343 272 237 251 260 213 270 228 301 244 301 317 215 356 290 262 196 297 315 321 276 247 243 260 234 183 300 189 209 306 297 301 179 314 300 252 224 364 236 280 276 270 304 147 330 340 266 345 368 295 204 228 279 272 298 149 246 214 203 256 306 256 255 214 159 176 255 201 226 257 197 258 304 292 265 356 216 266 361 346 279 235 280 337 242 293 181 272 269 301 249 199 271 272 248 221 159 122 215 275 310 193 219 308 275 396 235 242 280 331 129 371 316 165 288 247 282 297 250 323 230 333 214 241 258 309 262 329 233 237 281 285 262 245 306 249 362 222 264 316 258 221 194 188 152 315 209 183 303 306 226 274 168 233 220 271 300 233 245 160 242 237 273 329 151 254 243 252 244 194 267 294 238 280 317 348 293 169 292 348 200 326 209 331 217 219 262 240 240 291 138 300 391 280 283 278 260 292 226 229 271 323 274 252 234 203 290 255 291 210 214 312 271 296 147 301 331 323 296 299 282 215 314 321 198 212 235 333 246 205 247 167 266 291 247 303 358 306 333 287 314 233 327 286 312 267 275 261 286 235 305 278 354 301 256 271 361 329 328 163 131 225 221 243 244 293 321 259 162 302 174 284 275 326 230 242 168 255 272 222 153 191 332 234 267 211 339 276 191 357 312 214 236 207 257 204 273 284 235 351 322 209 251 237 308 324 221 270 224 325 201 274 238 258 307 314 315 272 269 289 263 171 385 299 271 277 290 345 148 191 247 311 159 300 304 282 288 314 190 232 244 266 173 246 275 247 207 223 203 367 210 265 322 328 287 266 307 190 258 165 203 296 299 308 307 243 249 251 236 203 271 282 223 287 166 273 279 332 241 179 254 370 272 133 318 243 201 255 239 314 303 307 308 186 290 262 209 261 298 165 135 289 269 327 197 268 178 294 253 180 351 231 330 309 293 306 191 228 193 260 229 220 166 232 226 230 206 313 260 138 179 283 269 232 131 231 247 261 287 212 229 218 293 202 254 240 293 219 219 300 346 195 221 295 265 270 175 246 152 231 287 172 306 187 297 261 202 282 335 262 208 204 242 291 225 319 317 189 269 283 394 217 281 245 348 174 274 279 251 261 288 220 286 205 310 328 288 227 249 286 261 179 288 316 344 283 313 182 287 183 320 323 338 352 226 316 332 204 419 237 316 154 200 225 262 182 230 267 345 187 175 168 258 278 275 310 266 200 240 239 225 302 173 240 258 260 220 165 201 241 210 253 307 162 332 156 358 262 307 179 306 218 343 226 285 312 309 291 247 259 342 318 176 357 281 267 270 171 375 205 252 183 305 287 219 283 282 220 278 281 251 278 275 280 229 252 199 305 245 261 357 165 333 250 219 242 316 194 202 226 262 290 296 182 280 297 340 203 370 129 199 288 226 205 177 353 218 285 182 201 258 301 141 227 347 271 319 250 272 222 184 239 317 211 245 189 219 197 348 266 224 293 289 292 283 242 277 266 195 230 261 350 223 406 202 187 325 224 233 265 305 280 260 232 316 286 240 233 292 332 287 177 295 234 234 215 275 289 351 211 216 229 273 279 232 207 203 300 273 234 180 333 304 300 190 296 261 310 195 325 309 283 285 172 419 167 272 235 274 224 256 193 296 336 288 287 257 277 248 265 279 258 170 270 276 195 175 312 316 267 439 283 302 311 264 279 317 316 394 323 246 239 264 269 195 327 248 246 194 335 264 164 252 262 285 275 234 199 270 199 328 233 255 228 252 234 361 284 258 199 290 217 205 284 241 245 298 225 297 190 283 294 239 302 251 273 207 313 282 285 373 238 326 221 293 208 252 267 264 253 200 349 262 272 123 292 258 308 270 262 221 253 251 256 408 327 91 318 240 214 194 216 275 174 238 343 391 392 273 206 328 295 284 253 271 225 317 301 293 246 298 276 193 180 205 286 254 282 216 305 208 274 252 214 219 277 285 274 316 232 282 190 285 304 274 264 288 389 193 190 244 238 204 203 286 268 240 222 339 338 274 304 215 205 265 367 221 183 328 210 340 341 274 179 296 345 247 298 271 312 219 240 266 244 130 243 203 226 286 174 270 273 238 246 226 294 356 283 161 150 274 283 275 212 221 250 274 257 290 312 197 299 408 323 217 248 288 249 248 314 274 222 197 317 298 235 270 264 233 250 254 286 309 250 217 324 272 237 364 298 360 301 209 268 289 183 293 225 226 287 379 209 329 245 307 284 271 206 204 297</t>
+  </si>
+  <si>
+    <t>F(1.4397263716806328, 1.2228878725253847, -1.3243832187893344e-31, 1.3389966018438875)</t>
+  </si>
+  <si>
+    <t>1 2 2 0 3 2 2 1 2 1 1 0 1 2 1 2 2 3 1 0 2 0 1 1 0 1 1 3 1 0 4 1 3 1 1 1 3 0 1 2 1 0 1 1 1 2 2 3 0 0 1 1 0 2 0 0 0 1 2 2 3 0 1 1 1 2 1 1 2 1 2 3 2 1 1 3 2 0 1 2 1 2 0 0 2 2 2 1 1 1 2 3 2 1 1 0 1 1 1 0 3 2 0 0 2 1 3 0 2 2 2 2 0 0 1 1 1 2 1 1 0 1 2 1 2 2 2 2 0 2 0 2 2 0 2 2 1 0 1 2 1 2 0 1 0 1 2 2 1 1 2 1 1 2 0 3 3 2 1 0 0 0 2 1 1 1 2 1 1 3 1 2 3 0 0 2 1 0 1 1 4 2 2 0 3 2 1 1 1 1 1 3 2 0 1 1 2 1 1 1 2 2 2 2 1 1 2 2 1 3 0 3 3 3 1 1 0 1 1 3 2 2 2 2 2 2 1 3 3 3 1 0 1 3 0 2 3 3 2 2 3 1 3 3 2 2 0 1 2 1 1 1 2 2 0 2 0 2 2 3 3 2 0 2 1 2 0 1 2 1 2 1 0 2 0 3 3 2 1 2 1 2 2 3 0 2 2 1 1 1 1 1 0 1 1 0 2 1 3 1 1 1 2 1 0 1 2 1 1 1 2 0 1 3 1 2 1 2 4 4 2 1 3 0 2 0 2 1 3 2 2 0 1 5 0 2 2 2 0 3 2 0 3 1 0 3 2 2 1 0 1 2 1 0 0 1 0 2 0 1 1 2 1 1 2 3 1 0 1 2 0 0 1 0 0 2 3 3 3 2 1 3 1 2 1 4 1 1 1 1 2 1 2 2 1 1 1 2 0 3 1 2 2 1 1 3 1 1 2 2 0 0 2 1 3 0 0 1 2 0 1 3 2 0 0 5 2 1 2 2 0 0 2 0 3 1 1 2 3 2 1 0 1 3 2 1 1 1 1 2 0 2 1 2 2 2 0 2 0 1 2 2 1 1 0 2 0 3 2 2 1 0 2 2 2 2 2 2 3 0 2 0 1 1 0 1 4 2 0 1 2 1 2 2 1 2 4 2 1 0 0 2 1 0 2 3 2 1 1 2 3 0 1 1 2 2 0 2 1 2 1 0 1 2 1 2 0 0 1 1 0 1 0 1 0 0 2 1 2 2 0 2 3 0 1 2 1 3 0 2 2 0 3 2 2 2 2 1 3 1 2 1 0 1 0 1 0 2 0 2 1 3 0 1 0 1 2 1 1 1 1 2 2 0 2 1 2 2 1 0 2 0 2 0 1 0 1 1 1 2 1 1 1 2 0 1 1 0 0 1 2 2 1 2 2 0 0 3 0 0 3 1 3 1 0 1 3 2 0 2 0 2 2 1 2 1 1 3 1 1 1 2 1 4 0 1 1 2 2 1 0 0 1 1 3 0 1 1 3 2 0 2 2 4 1 1 1 1 1 2 1 1 3 1 2 1 2 1 1 0 1 2 3 0 2 3 3 1 1 0 1 2 1 1 3 2 1 1 0 1 3 0 2 2 3 1 0 1 0 2 1 2 2 2 4 0 2 1 2 1 1 3 1 1 1 0 0 1 2 1 0 2 0 2 1 4 1 3 2 2 1 0 3 1 3 2 3 2 2 3 0 1 1 0 1 1 0 2 1 1 2 0 2 2 0 1 0 0 1 1 1 3 2 0 2 2 4 1 2 0 2 2 2 5 1 1 2 2 1 0 3 2 0 3 0 3 1 3 3 2 1 2 2 0 0 0 2 0 1 0 5 2 2 2 2 2 2 2 2 1 1 2 2 2 1 4 0 3 2 0 3 2 2 2 1 1 2 3 1 2 3 2 2 1 1 2 0 0 1 2 1 3 2 0 2 3 2 2 2 2 2 0 2 2 2 2 1 1 2 1 2 2 1 1 1 1 3 1 3 2 3 1 2 2 4 1 1 3 3 0 3 2 2 3 2 0 1 1 1 1 3 3 1 1 0 2 1 1 2 1 3 1 1 1 2 2 2 1 1 1 0 2 0 2 2 3 2 3 2 0 2 1 3 1 1 3 1 0 0 3 2 3 1 1 1 1 0 2 2 0 3 1 1 2 0 1 2 0 0 1 1 0 3 0 3 0 1 3 1 1 2 2 3 3 1 1 2 0 1 2 1 0 0 0 2 1 2 0 2 3 1 2 1 1 2 0 3 0 3 1 3 2 1 0 1 4 3 0 2 0 2 2 1 2 1 0 1 0 1 1 4 2 0 0 0 1 4 3 1 2 4 1 1 2 1 4 2 0 2 1 0 1 2 1 0 1 2 0 1 1 2 1 1 1 1 1 2 0 2 0 2 0 0 1 0 1 2 2 3 0 2 1 2 0 1 2 1 2 3 1 0 2 2 1 1 2 1 2 1 0 2 0 1 1 1 0 0 4 0 2 1 0 0 3 2 0 1 1 1 5 0 1 3 0 0 2 3 1 3 1 2 1 2 0 3 0 0 2 3 0 2 0 3 2 1 1 1 2 2 3 0 0 0 2 3 2 3 1 1 2 1 1 2 3 3 2 0 2 1 1 1 1 1 1 3 3 2 2 0 1 2 1 0 0 1 2 1 1 2 2 1 2 1 1 2 2 1 0 1 1 1 1 1 1 0 0 2 1 0 1 1 1 1 3 1 1 2 2 0 3 1 2 2 1 2 2 1 1 0 1 0 2 1 1 3 1 2 2 0 0 2 3 0 1 0 3 2 0 1 1 1 1 2 1 2 1 2 0 2 2 0 1 1 1 0 1 1 1 2 1 2 3 0 2 1 1 1 2 1 1 2 2 1 0 1 0 1 2 3 1 1 1 2 2 1 1 0 3 2 1 1 2 0 0 2 1 2 0 1 2 3 2 1 1 0 1 2 3 1 0 0 1 3 0 3 1 0 1 2 2 2 2 1 3 0 1 1 2 2 0 1 2 1 1 1 1 2 1 1 2 4 2 1 0 1 0 1 2 1 2 3 3 2 0 2 2 0 2 1 0 1 2 2 0 1 4 0 3 2 1 3 3 0 3 2 1 3 2 2 1 0 1 1 2 3 0 0 1 1 0 3 2 1 0 2 2 1 0 1 2 3 0 2 1 1 1 2 1 2 0 2 1 2 3 1 1 0 1 3 1 1 1 2 3 0 1 2 2 0 1 2 2 1 2 3 0 0 0 3 3 2 1 2 1 1 0 1 3 1 0 3 1 3 0 1 4 1 2 3 3 0 1 1 1 0 0 1 1 1 2 1 3 1 1 2 2 1 2 0 0 0 2 4 2 1 1 1 3 2 1 1 2 0 2 0 2 1 2 0 1 1 0 1 2 2 2 1 1 1 3 0 2 4 0 0 2 2 1 1 2 2 1 2 0 2 0 1 0 1 2 2 2 1 1 2 0 0 1 2 1 3 0 1 4 2 2 2 1 0 2 1 2 1 1 2 1 1 2 1 1 2 0 0 2 0 3 2 0 1 1 0 0 1 2 0 0 0 1 1 2 1 1 1 0 1 1 0 2 1 2 1 1 0 0 2 3 1 1 2 2 4 1 2 1 1 3 1 2 1 4 1 1 1 2 0 0 1 2 0 0 1 2 1 1 1 0 1 2 3 0 0 1 1 2 0 3 1 0 3 1 1 1 1 1 2 2 2 3 1 1 2 2 3 1 1 1 0 3 2 1 3 1 3 2 1 1 1 2 5 2 1 1 2 2 2 2 1 2 1 1 2 3 2 1 1 1 0 1 0 1 1 1 2 0 0 3 0 2 1 2 1 1 1 1 1 1 2 2 2 1 0 0 2 0 0 1 1 3 1 0 0 0 3 2 0 1 2 2 3 1 0 1 1 0 3 0 1 1 2 1 1 0 0 2 0 0 2 2 1 0 4 2 2 2 2 0 1 0 3 2 2 2 1 0 1 3 2 0 2 1 2 0 0 1 0 0 1 4 1 1 2 1 0 1 3 1 1 1 1 3 3 1 0 1 2 0 0 2 2 2 0 1 1 2 1 1 1 0 3 2 1 2 0 3 0 1 1 2 0 2 0 2 1 2 2 3 1 1 1 2 2 1 1 2 1 2 2 2 1 0 2 2 1 3 1 1 3 1 1 1 2 4 2 1 1 1 3 2 0 1 0 2 1 1 2 1 0 0 2 1 2 1 0 1 3 0 2 1 1 2 2 2 1 1 1 3 2 0 3 0 2 1 2 1 1 3 2 1 1 2 2 3 1 0 2 1 3 2 1 1 2 3 1 2 4 3 2 2 1 2 1 3 3 2 1 0 1 1 2 1 1 1 0 0 2 1 1 2 0 1 2 0 1 1 2 2 1 1 1 3 0 1 3 0 1 1 1 1 2 0 1 1 1 1 2 0 3 1 1 1 2 1 3 3 1 1 0 1 2 1 3 1 1 2 1 2 1 1 1 1 2 1 1 2 0 2 0 1 3 3 1 1 1 1 2 2 0 0 0 1 0 4 2 2 0 1 2 3 1 2 2 1 2 1 2 2 1 0 1 2 0 0 3 0 0 1 1 1 2 0 2 5 0 2 0 1 2 1 0 1 3 1 0 3 1 2 2 0 1 4 0 3 1 0 1 2 1 1 1 1 1 1 1 0 0 3 1 3 0 4 0 1 1 2 1 0 2 1 1 2 1 1 2 2 0 1 2 1 1 1 1 3 2 2 1 2 3 1 0 0 1 1 3 0 1 0 2 3 1 1 3 3 3 2 1 1 3 1 2 2 3 2 1 2 1 0 0 2 1 3 1 0 3 0 0 1 2 3 1 3 2 1 3 1 0 1 0 1 1 1 1 2 0 0 2 1 1 2 2 1 1 1 3 1 1 1 1 0 3 1 2 0 0 3 1 2 1 1 0 2 1 1 0 0 0 2 2 3 4 1 2 1 1 2 1 1 1 1 0 2 0 1 3 1 2 3 1 0 2 0 3 3 2 1 0 0 2 1 1 1 1 1 1 1 1 1 0 2 2 1 1 1 3 2 2 3 1 1 3 0 1 1 2 0 2 1 0 1 1 0 3 0 1 1 1 1 1 2 1 2 1 3 1 1 1 1 2 2 1 3 3 0 0 1 1 1 1 0 1 0 0 1 0 2 2 1 2 0 0 0 1 1 1 0 1 1 2 0 1 2 3 1 2 2 2 4 0 2 2 4 0 1 1 2 0 0 1 1 1 2 1 0 1 2 3 2 0 3 1 1 1 0 1 0 1 1 1 1 1 2 1 2 2 1 0 3 0 0 3 1 0 3 1 1 2 0 1 2 2 1 0 1 2 0 1 2 3 1 1 0 1 3 0 1 0 1 2 2 1 2 1 2 4 0 2 5 3 0 2 0 2 2 4 0 1 0 1 3 1 2 1 2 0 1 2 1 1 2 0 3 1 1 1 1 2 2 2 0 0 0 1 1 1 2 2 2 0 1 1 1 1 2 2 2 3 4 1 1 2 1 0 2 1 2 1 2 1 1 2 0 1 2 3 0 1 0 2 1 2 1 4 2 2 3 2 2 3 3 2 1 1 1 1 0 1 2 2 1 1 3 3 4 1 1 1 0 2 3 1 2 3 1 2 3 0 1 1 2 1 1 1 1 1 3 1 4 0 0 2 0 1 3 2 2 1 3 2 1 2 3 0 0 2 3 0 0 2 1 1 2 1 1 2 2 2 1 2 2 0 1 1 1 1 1 2 0 3 2 2 2 2 1 3 1 1 2 2 0 3 2 1 0 1 1 1 1 0 0 0 1 1 2 2 1 1 2 2 0 2 2 1 2 1 1 1 1 2 1 1 1 1 1 1 0 1 1 2 1 2 2 1 1 0 3 1 1 2 1 0 2 2 3 1 2 3 0 1 2 2 0 1 1 0 1 2 1 3 1 2 2 0 2 1 2 3 1 2 4 2 1 1 3 2 2 3 1 1 1 1 2 2 2 0 1 0 2 3 2 2 3 0 1 2 3 2 1 0 2 1 0 2 0 1 2 0 1 3 0 2 1 2 1 3 3 2 2 2 2 1 1 3 1 2 1 3 0 1 0 0 2 0 1 3 0 1 4 3 2 0 0 1 2 1 0 1 1 1 0 0 3 3 1 2 0 2 0 3 3 0 2 2 1 0 2 1 4 4 1 1 3 0 3 1 2 0 1 3 1 2 2 3 1 0 3 2 1 1 0 1 0 1 2 1 3 2 2 2 0 1 1 1 2 0 1 1 2 1 2 1 1 3 0 2 2 1 1 4 0 2 3 0 1 4 2 1 0 2 2 1 1 2 2 2 1 2 2 1 1 1 2 3 0 3 6 2 2 3 2 1 2 2 2 4 3 1 2 0 3 2 0 2 0 2 4 2 0 0 0 0 2 1 2 2 1 2 1 2 0 2 1 4 2 0 1 1 0 1 1 2 0 2 0 2 1 1 1 3 1 0 2 0 1 3 4 1 2 1 0 3 2 2 1 1 2 2 0 1 0 1 0 1 1 1 2 2 2 0 1 2 1 2 1 2 1 2 3 2 2 2 1 1 1 1 3 2 2 0 2 0 1 2 0 2 1 1 1 1 2 0 3 2 2 1 0 2 1 1 2 1 1 0 2 3 0 2 2 2 1 3 3 1 2 1 3 2 2 1 1 0 1 2 0 2 2 3 0 3 0 2 3 2 1 1 1 3 0 0 2 3 5 1 2 1 2 2 1 0 0 1 1 4 2 0 3 1 1 1 3 0 1 1 0 3 2 0 0 2 1 0 1 1 3 4 2 1 1 0 1 1 2 0 1 1 1 1 0 1 1 1 1 2 0 4 1 0 1 1 3 1 2 0 2 1 2 1 1 2 2 2 2 0 1 2 1 0 1 0 1 1 1 1 1 3 1 1 2 0 2 2 3 1 1 0 2 1 1 2 1 0 2 1 0 2 1 0 1 1 1 0 1 2 2 2 5 3 2 2 2 1 1 1 1 1 1 1 1 2 1 2 1 0 1 1 3 1 1 2 1 2 2 3 1 0 1 2 3 1 1 0 1 1 1 1 2 0 1 1 1 1 2 1 0 3 0 1 2 2 2 3 2 3 1 1 1 1 2 0 2 1 3 0 1 1 1 2 1 1 1 2 1 2 1 0 2 0 2 1 2 1 2 1 3 4 2 1 2 1 4 1 2 2 1 2 0 0 2 2 2 3 1 1 0 0 2 0 0 1 1 1 3 1 2 1 2 1 1 2 1 2 1 3 1 2 0 2 0 2 3 2 0 0 1 2 1 3 1 0 2 3 1 1 1 2 1 2 1 1 2 1 0 2 0 1 1 1 1 2 1 2 2 1 1 1 3 2 1 0 1 1 0 2 4 0 2 2 2 1 2 2 2 1 3 2 0 1 2 2 0 0 3 0 0 0 1 2 0 1 3 2 4 3 1 0 0 4 2 2 0 1 1 1 0 3 2 2 1 0 3 2 1 1 2 0 2 1 1 4 1 1 3 2 2 0 0 1 1 2 1 1 3 2 1 2 1 1 3 2 4 1 1 4 1 3 2 2 2 0 0 2 2 1 5 2 0 2 1 1 1 0 2 2 2 2 1 2 0 0 2 2 1 1 2 3 3 1 2 2 1 0 1 3 2 3 1 1 0 2 2 0 0 3 2 1 1 2 2 2 1 1 0 1 3 3 1 3 2 1 2 2 3 0 1 1 1 3 3 1 0 1 0 2 1 1 2 2 0 2 1 0 1 0 2 1 1 1 2 1 1 0 3 1 1 2 1 2 2 1 0 2 1 2 2 0 2 2 1 1 1 2 0 2 1 2 2 3 2 2 0 2 1 1 2 3 2 1 2 2 1 2 1 2 3 2 2 2 1 3 1 0 0 1 1 0 3 3 1 0 0 1 2 2 1 1 1 1 0 0 1 2 1 1 2 2 2 1 3 1 1 2 0 2 4 1 1 0 1 1 1 3 1 3 0 1 2 1 1 0 2 1 3 1 2 1 1 0 4 0 1 1 3 1 1 1 2 1 0 1 0 0 1 2 2 3 1 2 1 0 2 1 3 0 3 1 1 1 0 2 1 2 1 1 1 0 1 5 2 0 3 2 1 1 2 2 0 1 1 0 3 1 1 3 0 2 1 1 0 2 3 0 1 2 1 2 2 1 1 0 1 0 1 1 1 0 1 2 3 2 0 1 1 3 2 0 1 2 1 0 1 0 0 1 1 0 1 1 1 1 1 0 1 1 1 2 2 1 2 1 2 1 2 1 3 3 2 1 1 0 2 2 1 0 3 1 2 3 1 3 1 1 2 1 2 0 1 5 2 0 0 1 3 1 1 1 3 1 1 0 2 0 3 2 3 0 0 2 1 2 2 1 2 0 1 1 0 3 1 1 1 2 1 3 2 1 2 1 2 1 0 2 0 2 2 0 1 2 1 2 1 1 1 2 3 1 1 1 1 4 1 1 4 3 1 1 0 1 1 1 2 0 3 1 1 1 2 1 2 0 1 2 2 1 1 0 2 0 2 2 0 1 2 1 2 0 2 2 1 2 2 2 1 0 1 1 1 1 1 0 2 0 0 1 0 4 0 2 2 1 2 0 1 1 3 2 2 2 1 2 2 1 1 2 2 2 0 3 1 2 1 3 1 1 1 2 2 1 4 2 2 2 1 2 1 3 1 1 2 1 2 0 0 2 2 1 0 2 1 0 1 2 3 2 0 0 2 3 0 2 0 2 0 1 1 1 1 1 1 1 5 3 1 2 2 3 2 2 2 1 2 0 0 1 1 2 0 3 4 2 1 1 1 2 0 2 0 1 1 3 3 1 0 1 3 2 2 2 0 2 2 1 0 2 1 2 2 0 2 3 1 1 1 1 0 2 2 0 1 2 0 1 1 1 1 1 2 3 0 3 2 3 1 2 0 1 1 2 0 2 0 2 1 0 1 1 2 2 3 0 2 0 1 1 2 2 3 1 1 0 0 2 1 1 2 1 3 1 2 2 2 3 2 0 2 1 0 2 1 3 1 0 2 0 1 1 2 1 2 2 1 3 2 1 3 2 2 1 1 3 1 1 1 1 1 1 1 0 2 1 3 1 1 2 0 0 1 1 1 2 0 1 3 1 1 1 2 2 1 0 2 2 1 1 2 1 1 3 2 0 1 3 2 2 1 2 1 1 2 2 2 1 1 1 3 2 1 0 3 0 0 1 0 1 2 1 0 1 4 0 2 0 1 1 2 3 1 1 1 1 1 0 0 0 1 4 1 1 2 2 0 1 2 1 1 1 1 1 2 1 1 1 2 1 1 0 2 1 2 1 1 4 3 2 2 0 5 1 1 3 1 0 0 1 1 4 1 2 2 1 1 2 0 3 1 0 3 1 0 1 0 0 1 1 1 3 3 5 3 1 2 1 1 2 0 2 1 1 0 0 1 0 1 2 2 2 3 2 1 0 1 1 3 1 3 3 0 1 2 2 3 2 0 3 1 2 1 1 3 2 3 0 1 1 1 3 1 1 3 1 1 2 2 2 1 1 0 1 1 0 0 2 2 3 2 1 4 1 1 1 3 0 2 2 0 3 1 2 2 0 1 1 2 1 3 2 1 3 0 3 1 0 1 2 3 1 1 3 1 0 1 1 1 2 1 0 2 0 1 2 1 1 2 0 0 1 4 0 0 2 1 0 2 0 1 1 1 1 2 0 4 2 1 1 2 0 2 1 1 1 0 1 2 1 3 1 2 1 3 0 0 0 3 2 2 0 1 3 1 2 1 0 2 2 2 2 1 2 1 2 2 1 3 0 2 2 1 4 0 1 2 2 2 3 1 3 2 3 1 1 1 2 4 3 0 0 2 2 3 2 2 3 3 1 2 5 1 0 2 1 1 2 2 1 1 1 0 3 0 4 1 2 1 3 2 2 3 0 0 2 0 2 2 1 1 1 1 1 3 2 1 2 1 3 0 1 1 1 0 4 1 3 2 2 1 2 2 0 2 1 1 1 1 1 3 1 3 0 0 2 1 3 2 2 2 1 1 1 2 4 0 1 1 2 0 2 0 3 1 2 1 0 2 2 0 1 1 1 2 0 0 3 2 1 0 1 1 2 2 2 1 1 1 0 2 2 1 1 4 0 2 2 0 3 1 1 0 2 2 2 3 4 3 1 2 2 1 1 2 1 1 2 2 2 0 0 1 2 0 0 0 1 1 2 2 2 0 2 2 1 1 0 3 1 2 1 1 1 3 2 1 1 1 2 0 3 0 3 0 2 0 1 2 0 3 2 2 4 2 1 2 3 1 0 1 2 1 0 3 1 2 1 3 2 2 0 2 2 1 2 1 2 2 2 2 3 1 3 0 1 0 0 1 1 1 3 0 1 1 0 1 1 1 2 1 0 2 1 1 0 2 0 0 3 1 2 0 1 1 1 2 1 0 0 3 2 3 1 1 1 3 2 2 1 0 2 0 1 3 0 3 1 0 2 2 1 0 2 2 0 1 1 0 3 1 2 1 0 1 4 1 0 0 2 0 4 0 1 1 2 1 1 0 0 6 2 2 1 1 0 2 0 1 2 1 2 1 2 0 2 1 2 1 1 2 1 2 4 1 2 1 3 2 1 1 0 2 1 0 1 3 2 0 2 4 3 0 2 2 1 1 0 4 2 1 3 1 2 1 2 0 1 0 2 2 1 2 2 3 3 1 0 1 1 0 0 1 0 2 1 3 2 3 0 0 1 1 3 1 0 2 2 1 2 0 3 3 3 1 1 2 2 1 1 1 2 3 1 1 2 0 1 1 1 0 1 2 1 2 2 1 2 2 1 1 2 0 1 2 2 2 1 4 1 0 2 1 0 1 2 0 0 0 1 2 3 2 1 1 3 2 1 2 2 0 2 1 0 0 0 2 1 2 3 2 0 2 2 2 2 0 1 2 2 2 1 2 2 1 1 1 1 0 1 3 2 0 2 3 0 1 0 1 2 1 1 2 2 3 2 1 2 0 1 1 2 2 3 0 1 0 1 1 1 2 0 2 3 0 0 3 0 1 2 1 3 1 0 1 3 1 2 1 1 2 0 2 2 2 0 1 3 3 0 2 3 1 1 2 1 4 1 2 2 1 2 2 2 3 1 1 1 2 1 1 0 1 1 3 1 3 3 1 1 2 2 3 0 2 1 3 3 2 1 2 2 0 3 1 1 1 0 0 0 1 0 1 1 2 2 1 2 2 4 2 0 1 1 0 3 1 2 3 0 1 1 2 0 2 2 0 1 2 2 3 1 1 2 4 1 0 2 1 3 1 0 3 2 3 1 1 1 0 2 0 1 2 1 2 4 3 3 0 1 0 0 1 0 1 1 2 2 3 1 2 2 2 2 3 1 1 3 0 1 0 2 0 2 1 4 1 0 1 0 2 2 1 2 2 1 1 3 1 1 1 3 1 2 0 2 1 2 0 0 2 0 1 0 1 2 1 1 1 1 1 1 1 0 1 1 1 0 1 2 2 2 0 1 0 1 0 1 1 0 2 3 2 3 2 4 1 4 0 1 1 4 1 2 1 1 3 2 2 0 1 1 1 1 0 1 2 3 0 4 3 2 3 1 1 1 1 2 1 0 2 2 0 2 2 2 3 1 1 2 1 3 0 1 1 0 2 3 1 2 2 3 1 1 1 2 1 0 1 1 1 1 1 3 3 0 3 1 1 2 3 0 0 1 2 1 2 1 1 1 0 0 2 2 2 3 1 2 1 1 4 1 0 1 2 2 0 1 2 1 1 1 1 1 1 1 3 1 2 0 1 1 1 2 0 1 0 2 1 2 0 1 1 1 2 2 3 4 0 1 1 1 0 0 0 1 1 1 2 2 1 1 0 1 2 0 3 3 0 1 2 1 1 0 1 1 0 2 0 1 0 1 0 1 1 2 5 1 0 3 1 1 2 1 1 2 1 1 1 1 2 2 2 1 0 3 1 1 4 1 0 3 1 1 3 0 1 4 1 1 1 1 1 3 1 0 0 1 0 0 1 2 2 2 2 1 2 1 1 0 0 4 1 1 2 0 1 0 1 1 1 3 1 3 1 1 1 1 1 0 4 0 4 1 0 2 2 0 0 1 3 0 1 1 1 1 3 2 0 1 0 0 2 1 3 2 1 3 3 2 3 2 2 2 1 0 3 1 2 1 2 1 1 4 1 1 0 2 2 1 1 1 2 2 1 1 1 3 1 1 0 1 1 0 0 2 2 3 2 1 2 4 0 1 2 2 1 2 2 1 2 2 0 1 0 1 0 3 2 2 1 3 0 2 1 1 2 2 2 3 1 2 0 1 1 1 3 2 3 1 1 1 1 1 2 1 3 2 1 0 0 2 0 0 0 1 0 0 2 1 1 0 1 2 1 1 0 1 1 3 1 0 1 1 1 1 0 2 0 1 0 0 1 2 2 1 0 1 1 0 2 3 0 4 2 2 0 2 1 1 4 1 3 2 0 2 1 1 0 3 0 1 0 1 2 0 0 1 2 1 1 2 1 2 0 2 1 2 1 2 1 1 2 2 1 0 1 2 0 0 1 2 2 2 2 1 3 1 1 0 2 0 1 2 0 1 1 3 2 1 1 2 1 0 4 2 1 0 1 2 1 1 0 1 0 3 0 2 1 1 4 1 2 3 0 1 2 1 1 1 2 2 2 1 3 1 1 0 2 2 1 3 2 1 1 1 4 1 1 2 1 1 3 2 2 1 2 2 3 0 2 2 1 2 1 1 1 2 0 2 2 1 2 1 1 2 2 2 0 1 1 3 2 1 2 0 0 1 1 1 0 4 1 1 1 1 1 1 3 2 0 0 0 2 2 1 1 1 1 1 1 2 1 1 0 1 1 0 2 1 1 0 1 1 1 2 0 1 2 3 1 2 2 2 4 2 0 1 1 1 0 3 1 0 2 2 0 3 3 2 1 1 2 2 1 0 3 2 1 1 0 1 3 2 0 2 3 0 1 1 2 0 0 1 3 1 2 2 2 2 0 1 0 2 2 1 2 1 3 1 0 2 3 2 1 1 1 1 1 1 2 0 1 2 4 1 0 2 1 1 1 1 0 2 1 2 3 1 3 3 0 2 2 0 1 2 0 4 1 2 3 1 1 2 2 2 1 0 2 3 0 0 0 1 1 1 2 1 1 1 0 0 4 1 1 0 1 1 0 1 2 1 3 0 3 2 1 0 1 0 2 1 1 1 3 0 2 5 0 1 0 3 1 2 1 0 2 1 2 1 0 1 1 1 1 2 1 2 3 1 1 3 1 1 2 1 3 2 1 1 2 2 1 3 2 0 2 1 1 2 2 1 0 3 1 3 2 1 0 2 1 1 1 2 2 1 2 2 1 1 1 2 1 0 2 1 3 0 0 0 1 0 0 0 1 1 2 3 2 0 5 0 1 1 1 2 1 0 2 2 1 1 3 2 0 0 3 1 2 0 1 1 1 0 1 2 1 2 3 1 1 2 1 0 2 1 0 2 0 1 1 1 1 0 0 1 1 0 2 1 2 0 0 1 2 1 0 0 1 1 2 3 0 2 0 1 1 2 2 3 1 3 1 2 0 2 1 0 1 2 0 1 0 1 1 0 2 2 1 2 1 1 1 1 1 1 0 1 1 2 3 1 1 0 1 2 1 3 1 2 2 3 2 2 2 1 1 0 1 2 2 1 1 0 2 0 3 2 1 1 2 1 1 1 1 0 2 2 3 1 0 1 0 2 0 2 2 1 2 1 2 0 1 2 2 1 1 0 2 2 0 2 0 3 1 0 2 0 2 1 0 0 1 0 2 1 1 1 2 4 2 2 2 3 1 0 1 2 1 2 2 1 3 1 1 1 4 2 2 1 3 2 3 2 2 2 2 0 0 1 1 3 2 0 4 2 2 3 2 2 2 1 3 0 3 1 2 3 4 1 2 4 2 1 2 2 0 1 2 2 0 1 0 1 0 1 2 0 1 0 3 2 3 3 1 0 2 1 4 2 1 2 2 2 0 2 3 3 2 1 0 2 0 3 4 2 1 1 1 0 2 0 2 1 0 2 3 2 2 0 3 0 0 2 3 1 0 0 1 1 1 1 1 1 1 1 1 1 1 2 0 1 1 1 3 0 1 1 2 0 0 2 1 3 2 4 1 1 1 0 2 2 1 1 1 2 2 1 0 2 1 1 2 0 1 0 1 1 2 2 1 1 1 1 2 2 1 1 1 3 3 1 4 1 0 2 2 0 2 2 1 0 1 1 2 1 1 1 2 1 2 1 2 2 2 5 0 3 1 2 2 3 1 1 0 1 0 0 1 1 1 2 2 1 0 1 1 3 1 1 1 3 0 1 3 0 0 1 2 1 1 0 0 2 3 2 3 3 1 1 4 1 2 2 2 4 1 2 1 1 3 3 3 1 1 2 0 0 2 1 3 1 0 1 1 2 1 1 2 0 2 4 1 1 2 2 2 0 2 1 5 2 2 1 1 3 1 3 0 1 1 2 2 0 2 2 1 2 2 1 1 0 1 0 0 1 1 1 2 2 1 2 1 1 3 2 2 1 2 2 1 1 2 2 1 0 2 2 3 1 1 2 3 1 2 1 0 2 1 0 1 0 1 0 2 3 0 2 0 1 0 3 2 1 1 3 1 2 1 2 0 3 1 1 1 3 1 1 2 2 0 1 1 3 0 3 1 2 2 2 1 0 0 1 3 2 3 2 2 2 2 0 2 2 1 2 1 0 3 2 1 2 1 3 1 2 2 2 2 1 2 1 3 2 2 0 1 4 1 1 1 1 2 1 1 1 1 4 0 2 1 3 3 3 1 0 1 2 2 0 1 1 2 0 2 3 2 1 2 2 1 2 3 1 1 1 0 3 0 1 1 1 1 0 1 0 3 2 0 2 2 1 4 2 1 0 2 0 1 1 0 0 1 1 1 1 2 5 5 3 4 3 0 1 1 0 2 3 2 0 2 3 1 2 0 3 1 3 2 2 0 1 0 2 1 2 1 2 0 1 0 0 2 2 1 2 0 1 3 2 1 3 3 3 1 0 0 1 0 1 1 0 1 2 1 2 2 3 1 1 4 1 3 1 1 2 1 2 2 2 2 0 0 1 1 2 0 3 2 1 0 2 1 2 0 2 1 0 1 1 0 0 0 1 2 3 1 2 0 2 2 0 1 1 0 2 1 2 0 1 1 0 1 2 0 1 2 5 2 3 2 2 1 2 2 1 2 1 0 0 1 0 1 2 1 1 0 1 1 2 1 0 3 2 0 1 1 1 3 1 2 1 1 1 0 2 1 0 0 1 2 1 1 4 0 3 0 1 1 3 1 1 2 2 2 4 1 0 1 2 0 0 2 2 2 2 1 0 3 2 1 0 2 0 3 2 2 2 0 2 3 0 1 3 1 0 2 1 1 1 1 0 1 2 2 2 0 1 2 0 0 0 1 1 1 0 1 0 1 1 3 1 1 1 1 2 3 1 2 0 2 1 3 0 1 0 3 1 0 1 2 1 1 1 1 1 1 2 2 0 0 2 2 0 3 2 1 1 1 0 2 2 2 2 2 2 0 1 2 0 1 1 1 2 1 3 3 0 2 2 3 1 1 0 0 5 1 0 4 1 1 0 2 1 0 1 0 2 0 2 1 1 2 0 1 0 2 0 0 3 1 3 2 1 1 2 3 0 0 1 2 1 2 0 2 2 1 1 2 2 1 4 1 1 0 3 3 2 1 1 1 0 3 1 0 1 1 2 0 1 1 1 1 0 3 2 0 2 2 3 1 2 1 1 2 0 1 2 1 3 2 0 0 2 1 1 3 0 3 2 2 1 0 2 1 1 2 1 2 2 1 1 4 1 0 0 0 1 4 4 1 2 0 2 1 3 5 1 1 1 2 1 1 1 1 3 1 1 1 0 0 1 0 1 0 1 2 2 2 2 1 1 1 2 0 0 2 0 3 1 4 1 1 1 0 2 1 1 0 0 3 2 3 0 3 3 2 2 2 2 2 1 1 1 1 0 1 1 0 0 1 1 1 1 0 1 2 2 1 0 2 2 2 1 0 2 1 3 1 1 0 3 0 1 1 3 1 1 0 3 1 3 1 2 2 4 0 0 0 2 1 0 1 0 1 2 1 1 2 3 1 2 0 2 1 0 1 2 0 2 2 0 2 1 2 2 2 1 3 1 1 2 1 0 0 2 2 0 1 2 2 1 1 0 1 1 2 0 3 0 0 2 1 2 0 3 1 0 0 0 1 3 2 1 2 1 1 0 1 0 2 2 2 0 0 1 3 1 1 4 1 1 1 0 1 2 1 2 1 3 3 2 0 2 0 0 3 0 0 0 1 1 2 3 2 2 1 1 1 0 2 2 1 3 1 0 0 3 1 1 2 1 1 3 2 2 0 3 0 3 3 2 0 3 1 0 0 1 2 1 1 1 2 1 1 3 1 2 3 1 1 1 1 1 0 2 4 0 0 2 1 1 2 2 1 0 0 1 3 2 2 1 0 0 2 1 2 1 1 2 1 1 1 0 1 2 1 1 1 0 1 0 1 2 2 0 2 0 2 2 3 1 1 2 2 2 1 0 2 2 2 1 2 2 1 1 1 0 1 0 0 1 1 1 0 3 0 0 2 2 1 0 0 0 3 1 1 1 2 2 1 3 1 1 0 1 1 3 2 1 1 2 1 2 2 1 0 2 2 1 2 2 2 1 1 1 1 0 0 2 1 2 2 1 2 1 2 0 2 0 1 2 1 2 3 1 2 3 2 1 1 1 1 2 2 2 0 2 1 2 3 1 0 1 0 0 3 2 3 2 0 0 1 2 0 2 1 1 0 2 2 1 0 2 0 0 2 0 3 3 1 2 2 1 1 0 3 1 0 2 3 0 1 0 1 2 2 1 0 2 1 1 0 0 2 1 1 3 1 0 0 3 1 1 1 2 0 1 0 1 1 0 1 0 1 0 1 2 1 1 0 1 2 4 1 0 1 1 0 1 1 3 2 2 4 3 1 2 2 0 0 0 2 2 1 2 1 0 1 2 3 1 1 2 2 3 2 0 2 3 1 2 2 4 1 1 1 0 1 2 2 4 0 3 2 2 1 1 0 3 4 1 2 2 2 1 0 1 1 3 2 1 4 1 2 2 1 0 1 1 0 1 2 2 0 2 0 3 0 2 1 0 0 1 2 2 1 1 3 1 2 2 1 1 1 1 1 1 2 1 0 2 2 0 0 1 2 1 1 2 2 0 2 1 2 0 3 0 1 3 1 1 1 1 1 2 3 1 3 1 1 1 3 0 2 3 1 0 1 2 3 1 2 1 2 2 1 0 1 0 2 2 2 1 2 0 3 1 1 0 1 3 1 1 1 4 2 3 2 1 2 2 2 0 2 1 2 1 1 3 2 1 1 1 0 2 0 1 2 1 1 1 1 1 0 0 3 2 1 0 2 2 1 0 1 0 2 1 4 2 3 1 2 1 3 2 3 1 0 2 2 2 2 2 0 0 2 2 2 1 4 0 2 1 1 1 2 3 2 2 2 2 2 4 2 1 2 2 1 2 1 2 3 2 0 3 2 0 1 1 2 1 1 1 4 0 1 2 3 2 3 1 0 1 2 1 1 5 2 1 0 0 0 1 2 0 2 2 2 1 0 1 3 0 1 1 1 1 3 2 1 2 1 0 3 1 2 1 1 2 1 0 1 1 0 2 3 1 2 1 0 2 0 2 0 1 1 1 1 0 1 0 1 1 3 0 1 2 1 1 1 1 0 1 0 1 1 2 1 2 2 1 2 1 2 1 1 2 1 1 1 3 3 0 1 2 4 1 2 1 1 3 1 1 0 3 2 3 1 2 2 2 2 2 1 1 2 0 0 2 1 2 3 1 0 0 1 2 1 1 4 0 2 1 2 1 2 1 2 1 1 1 3 0 1 1 1 1 1 1 0 1 3 1 2 1 0 1 2 2 1 0 3 2 0 2 1 0 2 0 3 3 0 1 1 3 3 2 0 2 1 1 3 0 3 1 1 1 1 4 1 2 2 2 2 3 0 1 1 1 2 0 0 1 1 2 2 2 0 2 2 1 2 1 1 1 1 1 2 3 2 2 1 2 1 1 1 0 0 1 3 4 1 0 0 0 1 1 0 1 1 1 2 2 3 0 2 1 3 0 0 1 2 1 1 2 2 1 3 1 0 0 3 0 0 0 2 3 1 0 4 0 2 3 1 0 1 2 1 2 2 1 2 3 1 1 2 5 1 0 1 3 0 0 0 1 0 2 1 1 1 0 1 2 1 1 2 2 3 4 1 0 1 0 3 0 2 1 2 2 1 1 1 1 2 1 1 2 2 2 1 2 1 0 2 0 1 2 2 1 3 1 3 2 1 2 1 3 1 0 2 1 2 1 1 2 1 0 3 0 1 1 2 2 3 1 1 0 0 1 0 2 3 2 2 2 3 0 1 1 2 1 0 4 0 1 2 1 0 2 1 2 3 2 2 2 1 1 1 3 3 0 1 2 2 1 2 1 0 3 1 1 1 1 3 0 0 2 2 1 1 0 2 2 2 2 1 3 0 2 3 0 1 2 0 1 0 1 1 2 1 4 2 0 1 1 1 0 1 1 0 1 0 2 0 3 3 1 0 2 0 1 1 2 1 2 1 3 0 1 1 2 0 1 1 0 1 0 1 1 0 3 1 1 4 0 3 2 3 1 0 3 1 0 4 4 0 0 4 1 0 1 1 0 0 2 2 1 0 1 1 3 1 2 3 3 1 1 0 1 1 1 1 0 1 1 2 2 1 3 0 3 1 2 3 1 0 2 0 0 2 1 2 1 1 3 1 1 0 2 2 1 1 0 2 0 3 1 0 3 0 1 3 3 2 1 0 2 2 0 1 1 2 1 2 0 1 2 2 0 2 2 0 1 2 1 0 1 2 2 1 1 0 1 0 1 3 0 2 2 1 0 2 2 1 1 0 1 4 0 2 0 2 1 1 3 2 2 1 2 3 1 2 2 3 0 1 1 3 2 1 1 2 0 3 3 1 0 0 1 1 2 1 2 1 1 1 0 4 2 2 2 2 2 2 2 1 1 0 1 2 1 2 1 1 2 0 0 2 0 1 2 0 2 1 0 5 1 0 1 2 1 1 2 2 2 1 2 2 0 4 3 2 1 1 3 2 1 0 1 2 2 2 3 1 2 1 0 2 1 1 0 1 2 1 4 1 2 0 0 1 0 2 1 2 1 2 0 0 2 3 0 1 0 2 2 0 2 2 3 1 1 1 1 0 2 1 1 1 1 2 0 1 2 2 0 2 2 3 0 2 1 1 0 3 1 0 2 1 1 0 1 2 2 3 0 2 2 1 2 0 2 1 1 0 1 3 1 0 2 1 1 1 2 3 1 3 2 3 1 2 1 1 0 0 1 3 2 3 2 0 2 2 1 2 3 1 1 0 1 2 1 1 1 1 1 1 1 0 2 0 1 0 1 1 1 2 2 0 1 1 0 1 1 1 1 0 3 1 0 0 1 1 1 1 1 3 4 4 2 0 2 2 1 1 1 0 2 2 3 2 0 0 0 0 1 2 3 1 2 2 2 2 1 2 2 2 2 1 1 0 1 0 1 1 1 1 2 2 0 1 1 0 1 0 2 1 1 1 4 1 1 3 0 1 2 1 1 2 0 2 0 1 0 0 1 2 1 1 1 2 0 2 1 1 4 1 2 3 1 1 1 2 1 2 1 1 2 3 1 1 2 1 2 2 2 1 2 2 2 1 2 1 1 2 1 2 1 2 2 3 0 1 3 0 0 2 1 6 0 0 0 1 0 3 1 1 1 2 0 2 0 1 4 2 1 2 3 2 2 1 2 1 1 0 1 3 0 3 0 1 2 1 2 2 1 2 1 4 3 2 2 2 1 2 1 2 0 1 2 2 2 2 0 2 2 0 1 0 0 2 1 1 2 2 1 3 1 3 1 1 2 1 2 2 3 3 2 0 1 3 3 4 0 0 2 2 1 3 2 1 3 0 0 3 3 3 2 2 2 2 2 1 2 2 2 0 1 2 3 1 2 4 3 2 2 1 1 1 1 2 1 0 1 0 2 2 2 0 1 2 2 1 0 1 2 0 1 2 3 1 2 1 1 1 1 2 3 1 1 1 2 0 0 1 1 2 1 1 1 1 2 2 1 1 1 2 1 1 0 2 2 2 1 2 0 0 1 2 2 0 0 0 0 1 0 2 3 1 1 3 0 0 0 2 1 2 0 2 1 1 3 2 1 2 1 0 1 1 1 4 2 0 2 2 0 1 2 2 2 2 0 1 1 2 2 0 1 2 1 1 0 0 0 2 4 2 1 0 0 2 0 0 2 4 0 1 2 2 0 1 0 2 1 2 1 1 1 1 1 0 1 1 2 0 2 0 1 0 3 0 0 2 2 1 1 2 0 2 1 1 0 3 0 2 1 1 2 1 1 2 0 2 2 1 1 0 1 3 4 2 1 2 2 1 1 1 1 2 2 1 3 2 3 0 2 0 0 2 1 1 2 0 1 1 2 2 2 4 2 2 1 0 2 1 0 3 5 2 2 2 0 0 0 2 2 2 1 1 1 2 2 0 3 3 0 2 1 0 0 2 1 2 0 3 3 1 3 0 0 1 3 0 1 3 0 3 0 1 4 1 3 2 1 1 4 2 1 1 2 2 1 0 1 2 0 1 1 1 2 2 1 2 1 2 1 1 2 2 2 4 1 2 1 1 0 1 3 2 0 0 1 1 1 1 2 1 1 1 0 0 1 2 3 2 3 2 2 0 3 1 2 1 2 2 1 3 1 1 1 4 4 1 2 2 0 1 1 1 1 1 2 2 1 1 4 2 3 2 0 1 2 0 3 2 2 2 0 1 1 2 1 1 1 1 2 1 0 2 2 1 0 2 1 2 2 0 1 2 1 2 0 2 2 0 2 1 2 0 3 3 2 1 2 2 1 1 1 1 1 0 4 0 1 3 1 3 1 0 3 1 0 2 0 2 1 1 2 2 0 0 1 1 0 1 1 1 2 2 4 1 1 2 0 3 3 1 1 1 2 0 2 2 0 2 2 2 1 0 3 1 1 2 1 2 2 0 1 1 1 1 0 2 0 1 1 3 2 2 0 1 3 1 3 2 1 0 0 1 5 1 1 1 2 1 4 1 0 1 3 1 1 2 2 1 1 0 1 1 1 2 2 1 1 2 0 1 0 0 2 2 1 1 0 3 1 3 2 0 2 2 0 1 1 1 1 1 2 3 3 2 1 0 1 1 3 0 2 0 1 2 3 2 1 1 1 3 2 4 1 1 3 1 1 1 1 0 1 4 0 2 2 3 2 2 0 0 2 3 1 2 1 1 1 2 0 1 1 1 2 1 1 1 1 2 0 2 2 3 0 2 1 1 1 1 1 0 3 2 0 2 1 1 2 2 2 0 1 1 1 3 3 1 1 0 1 4 2 4 1 3 0 2 1 2 1 1 2 3 3 1 2 2 3 2 0 0 4 2 2 2 2 0 1 2 0 0 1 3 2 3 1 1 1 1 1 2 1 1 0 1 2 3 0 1 1 0 1 1 2 0 2 3 0 0 2 0 3 1 2 3 1 3 2 1 0 2 0 2 3 0 1 2 0 2 2 0 2 0 2 3 1 1 2 2 1 0 1 1 3 1 0 2 1 1 0 4 2 1 1 3 2 3 1 1 4 0 3 1 1 2 2 1 0 1 0 1 1 0 3 2 2 0 1 2 1 2 1 1 1 0 2 1 1 2 1 1 0 4 2 3 3 2 1 1 1 0 3 1 0 2 1 2 2 2 4 1 0 2 1 0 1 1 1 1 2 0 2 2 1 1 0 1 1 0 2 1 1 0 1 3 0 1 2 2 0 1 2 1 3 2 0 2 2 2 2 1 0 2 1 3 2 1 1 1 3 1 0 2 0 0 2 2 0 1 2 1 0 2 0 0 1 0 2 0 2 0 0 1 1 3 1 2 1 1 1 1 0 0 2 0 1 2 2 1 2 1 1 1 1 0 1 0 0 2 0 1 1 3 3 1 1 1 1 1 1 1 0 0 2 0 1 0 1 3 1 3 1 1 1 1 0 2 1 0 3 0 0 0 1 1 1 0 2 2 0 1 1 1 2 2 0 1 0 1 2 2 1 1 1 2 1 2 0 0 0 0 0 4 2 1 2 1 0 0 2 3 1 2 2 2 2 1 3 0 1 2 1 1 0 1 1 2 1 1 4 2 0 0 4 2 0 1 2 1 1 2 2 2 2 0 2 1 1 2 1 2 0 1 2 1 3 3 2 1 0 1 1 2 2 3 1 0 2 4 1 3 1 1 2 0 1 3 2 2 3 1 0 2 1 2 2 1 2 2 1 3 4 0 0 1 4 1 2 3 0 2 4 0 2 1 0 3 2 1 1 1 3 3 3 1 2 0 3 0 2 1 2 1 3 5 3 1 0 1 1 0 1 0 2 3 2 0 2 2 3 0 3 0</t>
+  </si>
+  <si>
+    <t>GAM(0.30276488649024436, -3.582289010278533e-27, 0.5695860705427744)</t>
+  </si>
+  <si>
+    <t>1 1 1 0 0 1 1 0 0 0 0 0 0 0 0 3 1 1 2 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 0 2 1 0 1 0 0 1 0 0 0 1 0 0 0 1 0 0 1 2 0 2 0 1 1 1 0 1 0 1 2 0 1 0 0 0 2 0 1 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 1 1 0 1 0 2 0 1 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 0 2 0 1 1 0 0 1 0 0 0 2 1 1 1 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 1 1 0 0 2 1 1 1 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 2 1 0 0 0 1 0 0 1 0 1 0 1 0 1 1 0 0 0 0 2 0 0 1 1 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 1 0 0 0 2 0 0 0 1 1 0 3 0 2 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 0 0 0 0 0 2 1 0 0 0 0 0 0 0 2 1 1 0 0 0 1 1 0 1 1 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 2 0 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 2 0 2 0 1 2 0 0 1 3 0 0 0 0 0 0 0 0 1 0 1 0 0 0 0 0 1 0 2 0 0 0 0 1 0 0 0 1 1 0 1 0 1 1 1 0 0 0 0 0 0 2 1 0 0 0 0 1 1 0 0 1 1 0 0 0 1 1 1 0 1 0 0 0 0 0 0 0 1 0 0 0 1 2 0 0 1 0 0 0 0 1 0 1 1 0 1 0 0 1 0 0 1 3 0 1 0 0 0 2 1 0 1 0 1 0 0 0 1 0 1 2 0 1 2 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 3 0 0 0 0 0 1 1 0 0 1 0 2 0 0 0 0 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 0 1 0 0 1 4 0 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 0 1 1 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 0 2 0 1 0 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 2 1 0 2 0 1 2 0 1 1 2 1 0 1 2 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 1 1 1 2 0 1 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 1 1 0 0 2 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 2 0 0 0 1 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 1 0 0 0 0 2 0 0 2 0 0 0 1 0 0 0 1 0 0 1 0 1 0 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 0 1 0 1 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 1 1 0 0 3 0 0 0 1 0 1 0 0 0 1 0 1 1 1 1 0 0 1 0 1 0 1 1 2 0 0 1 1 0 0 0 0 0 1 0 1 0 1 1 1 3 0 0 0 0 1 0 0 0 1 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 0 3 0 0 0 1 1 0 1 3 0 1 0 0 2 0 1 2 0 0 1 0 0 1 0 0 0 0 1 1 0 1 0 1 0 1 2 0 0 1 0 0 1 1 2 1 0 1 0 1 0 0 2 0 0 0 0 1 1 1 0 0 0 0 0 0 0 2 2 2 1 0 0 1 0 0 0 2 0 0 1 1 0 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 2 0 1 0 2 0 0 0 0 0 0 1 1 0 1 0 0 2 1 0 0 0 0 0 2 1 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 2 0 0 1 1 2 1 1 0 1 0 1 0 0 1 1 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 2 0 2 0 0 0 0 0 1 0 1 0 1 2 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 2 1 0 0 0 2 0 0 1 1 0 0 1 0 2 2 4 1 0 0 1 1 0 0 2 0 0 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 0 0 0 2 1 0 0 0 0 1 0 0 0 0 1 2 0 1 1 0 1 0 0 1 0 1 1 1 0 0 1 0 0 1 1 0 2 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 1 0 1 0 1 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 1 3 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 1 1 0 1 1 2 0 0 0 2 0 0 1 0 1 0 0 0 0 1 1 1 3 0 1 0 1 1 0 0 1 1 0 0 0 1 0 2 0 0 0 0 1 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 1 2 0 2 1 0 0 1 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 0 1 1 0 0 0 0 2 0 0 0 0 0 0 1 1 1 1 0 0 0 1 1 1 0 1 1 1 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 1 0 0 1 1 2 1 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 1 0 0 0 0 1 2 0 0 0 1 0 0 0 2 2 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 0 0 1 1 1 0 0 1 0 1 0 0 0 0 2 1 2 0 0 2 1 0 0 0 0 1 0 1 1 0 0 2 1 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 2 1 2 1 1 1 0 0 1 1 0 0 0 0 0 0 1 0 1 0 3 0 0 0 0 0 2 0 0 0 0 0 0 0 0 1 0 2 2 0 0 0 0 1 0 0 0 2 0 1 0 1 1 0 0 1 1 0 0 1 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 2 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 1 1 2 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 1 1 2 0 0 0 0 0 1 2 0 0 0 1 1 1 2 0 1 1 0 1 1 0 1 1 0 1 2 0 2 0 0 2 1 2 1 0 1 0 0 0 1 1 0 0 1 0 3 0 1 0 1 0 0 0 0 0 0 0 1 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 0 0 0 2 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 0 1 0 2 0 0 1 0 0 0 1 1 0 0 2 1 0 0 0 3 1 0 1 0 0 0 0 0 0 1 1 0 0 1 0 1 0 1 1 2 0 0 2 0 1 2 0 1 0 0 1 0 0 0 1 0 0 1 0 1 1 0 0 2 1 1 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 1 2 1 0 0 0 0 1 0 2 0 0 0 0 0 1 0 1 0 0 1 0 1 2 1 2 0 1 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 1 0 2 0 0 3 1 0 2 0 0 1 1 0 1 0 1 1 0 0 0 0 1 0 1 1 0 1 1 1 0 1 2 0 0 1 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 3 1 0 0 0 0 0 0 0 0 1 0 1 0 0 0 1 1 2 0 1 1 0 0 1 1 0 2 1 0 2 0 0 1 1 0 0 0 0 0 1 0 1 1 0 1 1 1 3 0 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 2 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 0 1 0 1 0 0 3 0 1 0 0 0 0 1 0 1 1 0 0 0 0 0 1 1 0 2 0 1 0 0 0 0 0 0 1 1 1 0 1 2 0 0 1 0 0 1 0 1 1 0 2 0 1 0 0 0 1 0 0 1 0 1 0 1 1 0 0 1 1 2 1 0 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 2 1 1 0 0 1 0 0 0 2 2 0 0 0 0 1 0 3 0 2 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 0 1 0 0 1 1 0 1 2 1 0 0 2 1 0 0 1 0 0 1 2 0 1 1 2 0 0 0 0 0 1 0 1 0 0 2 0 0 1 0 0 0 0 0 1 1 0 0 2 1 1 1 0 0 0 0 0 0 0 0 0 3 1 1 0 1 0 1 0 2 0 1 2 0 0 0 1 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 2 0 1 2 0 2 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 1 0 0 0 1 0 2 1 0 1 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 0 2 1 0 0 1 1 1 0 0 1 2 1 2 0 0 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 0 0 0 1 1 1 0 1 1 0 1 0 1 0 0 0 1 0 0 0 2 0 0 0 1 2 0 1 0 2 1 0 0 0 1 0 1 1 0 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 1 1 0 0 0 0 1 1 1 1 0 1 0 0 2 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 1 0 0 0 0 1 0 0 3 1 1 0 0 0 1 1 0 0 1 1 0 2 1 1 1 0 0 0 1 1 2 1 1 1 0 1 1 0 1 0 0 0 0 0 0 0 1 2 0 1 1 0 0 1 0 0 0 1 0 2 2 0 0 2 0 1 0 0 1 0 1 1 1 1 0 0 0 1 1 1 1 0 2 0 0 0 1 1 1 0 0 1 3 0 0 0 1 0 0 0 0 0 1 2 0 0 1 0 1 1 1 0 0 0 0 1 0 1 0 0 0 1 1 0 0 1 0 0 0 1 0 0 2 2 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 2 0 1 0 0 0 0 0 0 0 0 1 1 0 1 1 0 0 0 2 0 1 1 1 0 1 0 1 0 0 0 0 0 1 0 0 1 1 2 0 0 0 1 2 0 1 0 0 0 0 1 0 0 1 1 0 1 0 0 0 1 1 1 0 5 1 0 1 2 2 0 1 0 0 0 1 1 0 0 0 1 0 1 1 0 1 1 1 0 0 0 0 0 2 1 1 0 0 1 0 0 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 1 0 0 0 0 0 1 1 0 1 0 1 0 3 0 0 0 1 2 1 0 5 1 0 1 0 0 0 0 0 2 0 0 1 0 2 0 0 1 1 0 0 0 1 0 0 2 0 0 0 1 1 1 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 1 1 0 0 0 1 0 1 1 0 0 0 1 0 1 0 0 0 3 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 1 1 1 0 0 0 1 0 0 1 3 0 0 0 0 1 0 0 1 0 0 1 0 2 0 0 3 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 1 0 0 2 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 1 1 1 1 1 0 1 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 1 1 0 0 2 1 0 0 1 0 0 0 1 0 1 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 1 1 0 0 0 1 0 1 1 0 1 0 1 1 0 0 0 0 1 1 1 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 2 0 1 0 1 1 1 2 0 0 0 0 1 2 1 0 0 0 0 0 0 0 0 1 0 1 2 0 0 2 2 0 1 1 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 1 2 0 2 0 0 0 0 2 3 0 1 1 2 1 0 0 1 0 1 0 1 0 0 1 0 0 0 1 1 0 1 0 0 1 0 0 3 0 1 1 0 1 0 0 2 0 1 0 0 0 0 0 0 0 2 0 0 0 0 1 1 2 0 0 0 1 0 0 1 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 0 2 1 0 0 0 1 0 0 1 1 0 1 2 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 1 0 1 2 0 0 1 0 1 1 1 3 1 0 0 1 1 1 1 0 0 0 0 1 0 1 1 1 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 0 0 0 0 2 0 0 0 0 1 1 0 0 0 0 0 3 0 0 1 0 1 0 2 0 1 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 1 1 0 2 0 0 1 0 2 0 1 1 0 0 0 0 1 3 2 1 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 0 0 1 2 0 0 1 0 0 1 0 2 0 0 0 0 0 0 0 0 0 0 1 1 0 0 0 1 1 0 1 0 0 0 1 1 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 2 0 0 0 0 2 0 0 0 0 1 0 1 0 2 0 2 0 0 1 0 0 0 0 1 0 2 0 2 0 1 0 0 1 0 0 0 1 3 2 1 0 1 1 0 0 0 0 1 1 0 0 1 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 2 0 0 1 2 0 2 3 0 1 1 1 0 0 2 0 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 2 0 0 0 0 0 2 1 0 0 0 0 1 0 1 2 1 2 1 0 1 0 0 0 0 1 1 0 0 1 3 0 1 0 1 0 0 1 2 0 0 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 0 3 0 0 0 0 1 0 1 2 1 2 1 0 2 0 0 1 1 0 0 0 1 0 0 2 1 0 0 0 0 0 0 3 2 0 0 1 0 1 0 0 0 1 2 0 0 1 0 0 0 2 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 0 0 2 0 0 2 1 4 0 1 1 1 2 0 0 0 0 2 0 1 1 1 1 0 0 0 1 1 0 0 0 0 2 1 0 0 0 0 1 1 1 0 0 1 0 0 1 1 1 0 1 0 3 0 2 1 0 0 2 1 0 0 0 1 1 2 0 0 0 0 1 0 0 0 5 2 1 0 2 1 0 0 0 0 0 3 0 1 0 0 0 1 3 2 2 1 0 0 2 0 0 2 2 0 0 0 1 1 0 1 0 0 1 0 0 0 0 2 1 0 0 1 2 1 1 2 0 0 1 0 1 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 1 0 1 0 0 1 0 0 1 0 0 1 0 1 0 2 0 0 1 0 1 1 0 0 0 0 0 0 0 0 0 2 0 0 0 2 2 0 0 0 2 1 1 0 2 0 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 2 1 1 0 1 0 0 1 1 1 2 1 2 0 0 2 0 1 1 1 0 1 1 1 0 1 1 0 2 0 1 0 0 0 0 0 0 1 1 1 1 0 0 0 1 0 0 0 0 0 1 2 0 0 1 1 0 2 0 0 1 0 0 0 1 3 0 0 0 0 1 0 0 0 1 0 0 1 2 0 0 0 0 1 0 0 1 1 0 0 1 0 0 2 1 0 1 0 1 0 1 0 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 2 1 0 0 2 0 0 1 0 0 0 2 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 0 0 2 0 0 0 1 0 1 1 0 1 2 1 0 2 1 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 1 0 0 0 0 0 0 2 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 0 0 1 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 0 1 0 0 0 1 2 0 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 0 0 1 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 1 0 1 0 0 0 1 1 0 0 0 1 0 1 0 1 0 0 0 1 0 1 0 0 1 0 0 2 0 0 0 0 0 1 0 0 0 0 0 2 0 0 0 0 0 0 0 1 0 2 1 0 0 2 0 1 0 0 0 0 1 1 1 1 0 0 0 1 0 1 1 2 0 2 1 1 1 0 1 0 2 0 0 1 0 1 0 0 1 0 0 1 2 1 1 0 1 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 2 0 0 0 2 0 0 1 0 1 1 0 2 1 1 1 1 0 2 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 2 2 0 0 0 0 0 0 1 0 1 1 0 1 0 1 1 1 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 2 1 2 0 0 1 2 0 0 0 0 1 0 0 0 0 0 2 1 1 2 1 0 1 0 0 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 1 0 1 0 1 0 1 0 0 1 3 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 1 1 0 0 0 2 0 1 0 1 1 0 2 0 1 0 0 0 3 1 0 0 1 0 1 0 1 0 2 0 0 0 0 0 0 1 1 0 0 2 1 0 0 0 0 0 0 2 0 2 0 0 0 0 0 1 0 0 1 0 0 0 1 3 1 0 0 0 0 1 0 0 3 1 0 2 0 0 0 0 1 0 1 0 3 2 0 0 0 0 0 0 1 0 0 2 1 0 0 1 0 1 0 0 1 0 0 0 0 0 2 1 1 1 1 0 1 2 0 2 1 0 0 0 0 0 0 2 0 0 0 0 0 0 2 0 2 0 0 1 3 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 1 1 1 1 0 0 0 0 1 2 0 2 1 0 0 1 0 0 1 0 1 0 0 0 1 0 2 0 2 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 0 1 0 0 0 0 0 0 0 1 0 0 1 1 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 0 0 1 0 0 1 1 0 0 1 1 1 2 0 0 1 1 0 0 0 1 1 0 0 0 1 2 2 0 0 2 0 0 0 0 1 0 0 1 1 2 0 0 0 1 1 2 0 0 1 0 2 0 1 0 0 1 0 0 1 1 0 0 0 1 0 2 3 0 0 0 1 1 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 0 0 1 1 1 0 1 0 0 1 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 2 1 0 1 1 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 1 0 0 2 0 0 0 1 0 1 1 0 0 0 0 1 2 0 0 0 1 0 1 1 3 1 1 0 0 0 0 0 1 0 1 2 2 1 0 0 1 0 0 0 0 1 0 3 0 1 2 1 0 1 0 0 2 1 0 1 0 1 0 1 0 1 0 0 0 0 1 1 1 1 1 2 0 0 1 0 0 0 0 0 1 0 0 0 1 1 0 1 0 0 0 0 0 0 0 1 0 1 1 1 1 0 2 0 0 1 1 1 0 0 1 0 0 2 1 0 2 0 0 0 0 0 1 0 1 1 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 0 1 1 0 2 0 2 0 1 0 1 2 0 0 0 1 1 0 0 0 1 1 0 0 2 1 0 0 0 0 1 0 0 0 0 1 0 0 0 0 1 2 0 1 0 0 0 1 0 0 0 0 0 0 0 0 0 1 3 3 1 0 0 0 0 0 0 0 0 1 0 0 1 0 0 0 0 1 1 1 1 1 0 0 0 0 0 1 1 0 0 1 0 0 2 2 1 0 0 0 0 1 0 1 1 1 0 1 0 0 0 1 0 1 0 0 0 0 0 0 0 1 0 1 0 1 0 0 0 2 2 0 0 0 0 0 0 1 2 1 1 0 0 2 0 0 1 1 0 0 0 0 1 0 1 1 0 0 0 0 1 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 1 1 0 0 0 0 0 1 1 1 0 0 0 1 0 0 0 2 0 0 0 2 1 1 1 1 0 0 0 1 0 1 0 0 1 0 0 0 1 0 0 0 0 0 1 0 1 0 1 1 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 0 0 0 1 0 0 0 1 0 0 1 3 0 1 0 0 1 0 1 0 0 4 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0 2 0 0 0 1 1 1 0 0 1 0 0 0 0 0 2 1 1 0 1 2 0 0 1 1 2 0 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 1 0 2 1 1 0 0 0 0 0 0 0 0 0 0 0 1 0 0 0 0 0 1 0 1 0 3 1 1 0 0 2 0 0 0 0 4 0 0 1 1 0 1 0 2 2 0 0 0 2 1 0 0 0 0 0 1 1 2 0 0 0 2 1 0 0 1 1 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 1 1 2 0 0 1 2 1 1 0 0 1 0 0 1 0 2 2 0 3 0 1 0 0 0 1 0 0 0 1 2 1 1 0 1 1 0 1 0 1 0 0 0 0 1 0 0 0 0 0 0 2 0 0 2 0 1 0 2 0 0 0 0 1 0 0 0 1 0 1 0 0 0 0 0 0 1 2 1 1 2 0 0 0 0 0 1 0 2 1 0 1 2 1 0 1 2 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 0 2 0 0 0 1 0 2 1 1 1 1 0 0 0 2 0 1 1 0 2 0 1 1 1 1 0 0 0 0 0 0 1 1 0 0 0 0 1 0 0 0 1 2 0 2 0 0 0 1 1 0 0 0 1 2 0 0 0 1 2 0 0 1 0 0 0 1 0 0 1 1 0 0 0 0 2 0 0 1 0 0 0 0 1 0 0 0 1 0 1 0 0 0 2 0 2 1 0 0 0 0 0 0 2 0 0 4 1 0 1 0 0 0 0 0 1 2 0 2 1 1 1 1 0 1 0 0 0 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 2 1 0 0 0 0 1 0 1 2 0 2 0 0 0 1 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 1 0 0 1 0 0 1 0 1 1 1 0 1 0 1 0 1 0 0 0 0 0 0 0 0 2 0 0 1 0 1 1 0 0 0 0 0 0 1 0 1 2 1 0 0 1 0 0 0 0 2 2 2 0 0 0 0 0 1 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 1 0 2 0 0 1 1 0 0 0 0 1 1 0 1 0 0 1 1 0 0 0 1 0 1 0 0 1 1 0 0 0 2 1 1 1 0 1 1 0 1 1 1 0 0 2 0 0 1 0 0 0 0 2 1 0 0 1 0 0 1 1 0 0 0 0 2 0 2 0 0 1 0 0 0 0 0 0 1 0 1 1 2 0 0 0 1 2 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 1 2 2 1 1 0 0 0 0 1 0 0 2 0 1 0 1 0 0 0 1 0 1 2 0 0 2 1 1 1 1 0 0 0 0 0 1 1 0 0 0 1 1 0 0 1 1 2 1 3 0 0 0 0 0 2 1 0 1 1 0 0 1 0 0 0 0 0 0 1 1 1 2 0 2 1 0 1 1 1 0 0 1 0 0 1 1 0 1 0 1 0 0 0 1 0 0 0 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 1 0 0 0 1 0 0 0 1 1 1 0 1 1 0 0 0 1 0 1 1 1 0 0 0 1 0 1 1 1 0 1 0 1 0 0 0 0 1 1 2 1 1 0 0 0 1 1 1 1 1 0 1 0 0 0 0 2 0 0 0 0 1 0 1 1 1 0 0 2 1 0 0 1 1 1 0 0 0 0 0 0 2 0 1 0 1 1 0 0 0 1 0 0 0 1 0 1 0 0 2 0 0 1 1 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 0 0 1 1 2 0 0 0 0 1 0 2 1 0 1 1 1 0 1 0 0 0 0 0 0 1 1 0 2 3 1 1 0 0 0 0 0 1 2 0 1 0 0 0 0 0 0 0 0 0 1 3 1 1 0 0 1 0 0 0 0 0 1 0 1 1 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 1 1 2 0 2 0 1 1 0 0 1 0 2 0 0 2 0 0 1 1 0 0 2 0 3 0 2 1 1 1 0 0 0 0 0 1 1 0 0 0 1 0 1 2 0 1 0 1 0 0 1 1 0 0 1 2 2 0 0 0 1 0 1 0 1 2 1 1 0 1 0 0 0 1 1 0 0 1 0 0 2 1 0 0 0 0 1 0 1 1 2 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 0 1 0 1 1 0 1 1 0 0 1 0 0 0 0 1 2 0 1 0 0 0 0 1 0 1 1 0 1 0 0 0 1 2 0 1 1 0 1 0 0 0 0 0 0 1 1 0 3 0 0 3 1 0 1 1 1 1 0 0 0 1 0 0 0 1 1 1 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 2 1 0 0 0 0 0 0 0 1 1 0 1 1 0 1 0 0 1 1 0 0 2 2 2 0 0 0 0 1 0 0 1 1 0 1 0 0 1 1 0 0 0 0 1 0 0 0 0 2 0 0 1 2 1 0 0 2 0 1 1 0 0 0 2 0 2 0 0 2 0 0 0 0 0 1 0 0 0 0 1 1 0 0 1 0 0 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 2 1 0 1 1 1 0 1 0 0 0 0 1 0 0 0 1 2 1 1 0 0 0 0 2 1 1 0 0 1 0 1 0 0 2 1 0 1 0 0 1 0 0 1 0 1 2 0 0 2 1 0 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 1 1 1 1 0 1 1 0 0 0 1 1 0 1 0 2 0 0 0 0 0 0 0 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 2 1 0 0 1 0 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 0 1 1 0 0 0 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 0 1 0 0 0 0 2 0 1 0 0 1 0 1 0 0 0 0 1 1 1 0 1 0 0 0 0 0 1 0 1 1 2 0 0 0 1 0 0 1 1 0 0 1 1 0 0 1 2 1 1 1 3 1 0 1 1 0 1 0 0 0 0 1 1 1 0 1 0 0 1 0 0 2 1 1 0 0 0 1 1 2 0 1 0 0 0 0 1 2 0 2 0 1 0 0 0 0 0 0 0 1 0 2 0 0 0 0 0 0 0 0 0 1 2 1 2 0 1 0 0 0 0 0 2 1 0 2 0 0 1 1 0 1 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 0 0 1 0 1 0 0 0 0 1 0 0 0 0 2 0 1 0 1 2 0 0 0 1 0 1 1 0 0 0 0 0 1 1 2 1 0 0 0 0 0 0 0 2 1 0 0 1 0 0 2 2 2 0 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 1 0 0 1 0 1 0 0 0 0 0 1 1 1 0 0 2 0 0 1 0 2 0 1 0 1 0 0 0 1 1 0 1 2 1 0 0 0 0 1 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 2 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 2 0 3 0 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 2 1 1 0 0 0 0 0 0 0 0 0 1 0 1 0 1 1 0 0 1 0 0 1 1 0 0 1 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 1 2 0 0 2 2 0 0 0 0 0 0 0 2 1 0 4 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 2 0 0 0 2 0 0 0 2 1 0 1 0 0 0 1 0 1 0 1 1 1 0 2 0 0 0 0 0 0 0 1 1 2 0 0 0 0 0 0 0 0 0 0 0 2 1 0 1 0 2 0 1 0 1 0 0 0 0 0 0 1 1 0 0 0 1 1 0 0 0 0 1 0 0 0 0 0 0 1 0 2 0 0 3 1 1 0 0 0 0 1 1 0 0 1 0 1 1 0 0 0 2 0 0 0 1 0 1 1 0 2 0 0 0 1 0 0 1 2 0 1 0 0 0 0 1 1 0 1 2 0 0 1 1 1 0 0 0 0 1 1 0 0 1 1 1 0 0 0 1 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 0 0 2 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 1 1 0 1 1 0 2 1 0 0 0 0 0 1 1 0 0 1 0 1 0 0 1 0 0 0 0 0 1 0 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 1 0 0 1 2 0 0 2 0 0 1 0 0 0 0 1 0 1 0 0 0 0 0 1 0 1 1 0 1 2 1 1 0 2 1 0 1 0 0 2 0 1 0 0 1 0 0 0 1 0 0 0 2 0 0 0 1 1 1 3 1 0 0 0 0 0 0 0 2 0 1 1 0 0 1 1 1 1 1 0 0 2 1 1 0 2 0 0 1 1 0 1 1 1 0 1 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 2 0 0 1 1 2 0 0 0 0 0 1 1 0 0 0 0 0 0 0 2 0 2 0 0 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 0 2 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 1 0 0 0 2 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 1 1 1 1 1 0 0 0 0 1 0 1 2 1 0 2 0 2 0 0 1 1 0 2 1 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 0 0 1 0 1 0 0 0 1 1 1 2 0 0 0 0 1 0 0 0 1 0 0 1 0 0 0 1 0 0 0 2 0 1 0 2 0 0 0 0 0 1 0 3 0 0 1 0 0 0 1 0 0 1 0 0 0 1 1 0 0 0 1 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 2 0 0 0 0 0 0 2 1 0 0 0 1 0 0 1 1 1 1 0 0 0 2 0 0 0 0 0 0 1 1 1 1 0 0 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 0 2 0 1 0 1 1 0 0 0 0 0 0 1 0 1 0 0 0 0 1 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 2 0 0 0 0 1 1 0 0 0 0 1 1 1 0 0 0 1 0 1 1 0 0 3 0 0 0 0 2 0 1 2 2 0 0 0 1 0 0 1 1 2 0 0 0 0 0 0 1 1 0 0 0 0 0 1 0 1 0 0 0 0 1 1 0 0 2 0 0 0 1 0 0 1 0 1 0 1 2 0 1 1 1 1 1 0 0 0 1 1 0 0 1 1 1 1 0 0 0 1 0 0 2 1 2 0 0 0 0 0 0 1 0 1 0 1 1 0 3 0 0 0 1 0 0 0 0 1 0 0 0 2 1 1 1 1 0 1 0 0 0 0 0 2 0 0 2 0 0 0 1 0 0 2 1 1 1 0 0 0 0 1 2 0 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 0 0 1 1 0 0 1 0 0 2 0 2 0 1 0 0 0 0 0 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 1 1 0 1 1 0 1 0 0 0 1 1 2 1 0 0 0 0 0 1 0 0 1 0 0 0 1 1 0 2 1 2 0 0 0 0 0 1 0 0 0 0 0 1 1 0 0 1 1 0 1 0 0 0 0 0 0 1 1 1 1 0 1 0 0 0 0 0 1 1 2 0 0 1 1 0 0 1 2 1 0 0 2 1 2 1 0 0 0 0 2 0 0 1 0 0 0 1 1 2 0 0 1 0 0 0 0 0 2 2 0 0 0 0 1 1 1 1 1 1 0 0 0 0 0 0 0 2 0 0 0 0 2 1 0 0 0 0 0 0 1 0 0 0 1 2 1 1 0 0 0 0 0 0 0 0 0 1 1 2 2 1 0 0 0 1 0 0 0 3 0 0 1 1 0 0 1 0 0 0 1 0 0 0 0 3 1 0 1 1 1 1 0 1 0 0 1 1 0 0 2 0 1 1 0 2 0 1 0 0 0 1 1 1 1 1 0 0 0 1 0 0 1 0 0 0 0 1 1 0 0 0 1 0 1 0 0 0 0 0 1 0 0 2 0 1 0 2 1 0 0 0 0 0 0 1 0 1 0 0 0 1 2 0 0 0 0 0 0 0 1 0 0 0 1 0 0 0 1 0 1 3 0 1 0 0 1 1 0 2 1 2 2 2 0 1 2 0 1 1 0 1 1 1 2 1 0 0 1 0 0 0 2 0 1 0 2 0 1 1 0 2 0 1 0 0 0 0 0 1 0 0 1 1 0 1 1 0 0 1 0 0 1 0 0 0 0 1 0 1 1 0 1 1 1 0 1 1 1 0 0 1 1 0 0 0 1 0 1 0 2 0 0 0 1 0 0 0 1 1 0 0 1 0 0 0 2 1 0 0 1 0 0 2 1 0 0 0 0 0 0 2 1 1 0 0 2 0 3 0 0 0 0 0 0 1 0 0 0 2 0 1 0 0 3 1 1 1 0 0 0 1 1 2 1 0 0 0 0 0 0 0 0 1 1 2 0 0 1 0 1 0 1 0 1 0 0 0 1 0 0 0 0 0 0 0 1 0 1 2 0 1 0 0 0 1 0 1 0 0 1 1 0 0 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 3 0 0 2 1 1 1 1 0 1 2 0 0 0 1 1 0 1 1 0 0 1 0 0 0 2 2 0 0 0 0 0 0 1 0 0 1 0 2 1 0 1 2 1 0 0 0 0 0 1 0 0 1 1 0 0 0 1 0 2 0 0 1 1 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 1 0 1 0 1 1 0 1 0 0 0 0 0 1 0 1 0 0 0 1 0 0 0 0 1 2 0 0 2 2 1 1 0 2 0 0 0 1 0 0 1 1 0 2 0 1 1 0 0 1 1 0 1 0 1 0 1 0 1 1 2 0 0 1 1 0 0 2 0 0 1 1 0 0 0 1 0 0 0 0 1 0 0 0 0 0 1 0 2 0 0 1 0 0 1 0 1 0 0 1 1 0 1 0 0 1 0 0 1 0 2 2 0 2 0 2 0 0 0 0 2 0 1 0 0 1 0 0 0 1 0 1 1 0 1 0 2 2 0 0 0 0 0 0 0 1 0 0 2 0 0 1 0 1 0 0 0 0 0 1 0 1 0 1 0 0 1 0 1 0 0 0 0 1 1 0 3 1 1 0 1 1 1 0 0 0 2 0 0 0 1 0 0 0 0 0 0 1 0 0 1 0 0 0 0 0 0 0 0 1 0 1 1 1 1 1 0 1 1 0 0 0 0 0 1 0 1 0 0 2 1 0 0 1 0 0 2 0 0 1 1 2 0 1 1 1 0 0 0 0 0 0 0 0 1 0 1 0 0 1 0 1 0 0 2 0 0 0 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 2 0 1 0 1 1 2 1 0 0 1 0 1 0 0 0 1 0 3 0 0 0 1 0 0 0 1 1 0 1 1 1 0 0 0 0 0 1 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 0 2 1 0 1 0 0 1 0 1 2 0 1 2 0 0 1 1 0 2 0 0 1 0 1 3 0 1 0 0 0 2 1 0 0 1 2 0 0 1 0 0 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 0 0 0 1 1 0 1 0 1 1 0 1 0 1 0 0 1 0 0 1 1 1 0 0 0 0 0 0 0 1 1 0 0 1 1 0 0 1 0 0 1 0 0 0 1 0 0 0 0 1 0 0 0 1 1 0 0 1 2 1 0 1 1 0 0 0 2 1 0 0 1 0 0 2 2 0 0 1 0 0 0 0 1 1 1 1 0 0 0 1 0 0 1 1 1 1 1 0 1 0 0 0 2 3 0 3 0 1 0 0 0 0 0 1 0 0 1 2 0 1 1 0 1 0 1 1 1 0 1 0 1 0 0 0 0 0 2 0 1 0 0 0 1 2 0 0 1 1 0 0 0 1 0 0 1 0 1 1 0 1 1 0 0 0 1 0 0 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 0 0 0 0 0 0 0 0 2 0 0 0 0 0 1 1 0 0 0 1 0 0 1 1 1 0 0 1 0 0 0 0 0 1 2 0 0 0 0 0 1 0 1 1 1 1 1 0 0 0 1 1 1 0 0 0 0 0 0 1 2 0 0 1 0 1 0 0 0 1 0 0 0 0 1 2 2 0 0 0 0 0 0 0 0 1 0 0 1 0 2 1 2 0 0 0 1 0 0 1 1 0 0 0 1 0 0 0 0 0 0 1 0 0 0 1 1 4 0 2 1 0 2 1 0 0 0 0 1 0 0 0 2 0 1 1 0 0 1 0 0 0 1 1 1 0 1 0 1 1 0 0 0 1 0 0 1 1 1 0 0 0 2 1 0 1 0 2 2 0 1 0 0 1 0 0 0 1 1 0 0 0 0 1 0 0 0 2 1 0 0 0 2 1 2 3 0 0 1 0 0 1 0 1 0 0 0 1 1 1 1 0 1 0 2 0 0 1 0 0 0 2 0 0 2 2 0 2 0 0 2 0 0 0 1 1 1 0 1 3 1 0 0 0 1 0 2 0 1 1 0 1 0 2 0 0 2 0 0 0 0 0 1 0 2 1 2 0 0 0 1 0 0 0 0 0 0 0 0 1 1 0 1 0 0 0 0 1 0 0 0 0 0 0 0 0 0 0 2 1 0 0 1 0 0 0 0 1 2 0 2 0 0 0 0 0 0 0 0 0 4 0 0 0 0 0 0 0 0 0 1 0 0 2 1 3 0 0 0 1 0 1 1 2 0 0 2 0 1 2 0 0 1 1 1 0 0 0 1 0 0 0 1 2 1 1 1 0 0 0 0 1 0 0 1 0 1 1 0 0 0 0 0 0 0 0 1 2 0 0 0 0 0 0 0 0 0 1 0 0 1 1 2 2 0 1 1 0 2 2 0 0 0 1 0 1 0 0 0 0 0 0 0 2 2 1 1 0 1 0 0 0 0 1 0 1 0 0 1 1 0 1 0 0 0 0 1 0 1 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 0 1 0 0 0 1 0 2 0 0 0 1 0 0 0 0 1 0 0 1 0 1 0 2 1 0 1 0 0 0 1 0 0 1 0 3 0 0 1 0 0 2 0 0 0</t>
+  </si>
+  <si>
+    <t>F(104.9470223091769, 119.86761388046418, -91.3675485170105, 174.14112828159298)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52 103 34 52 136 78 78 115 95 107 61 158 90 123 92 46 66 95 46 97 57 97 62 87 97 58 108 101 82 125 101 91 102 139 66 85 98 113 108 34 100 30 116 52 65 86 124 81 71 74 67 30 63 153 49 86 76 71 63 111 83 103 68 89 89 69 69 60 19 133 110 113 23 68 84 74 170 25 58 97 81 146 85 91 97 36 60 97 116 132 31 98 43 185 99 53 63 42 105 87 58 153 121 159 68 64 87 56 70 96 70 88 17 72 69 98 89 141 156 98 81 94 125 93 96 92 113 77 63 106 82 79 74 89 86 86 81 35 35 98 63 94 43 79 109 81 97 110 138 92 68 61 73 120 61 32 61 76 143 53 51 143 103 46 64 164 64 120 160 83 174 161 171 76 73 112 97 70 51 71 46 162 106 17 112 135 61 57 140 97 88 38 82 50 72 81 34 91 83 55 146 94 142 69 48 64 95 103 52 94 108 68 80 78 55 79 102 90 80 113 153 122 89 77 67 56 93 61 124 50 59 72 61 37 83 81 61 118 75 84 54 108 86 39 79 138 98 75 99 71 91 108 115 52 57 63 165 86 51 127 112 56 98 56 111 72 151 83 44 110 87 107 79 36 95 96 64 51 60 83 96 67 73 99 100 97 63 70 133 71 96 98 29 81 24 142 82 92 135 44 74 131 60 132 35 54 53 45 37 58 89 137 72 84 69 151 54 140 169 97 102 51 64 10 155 57 116 85 119 82 83 43 48 124 86 109 58 84 100 108 120 73 119 83 48 72 63 121 128 78 79 112 56 104 73 97 67 94 44 89 89 114 50 65 119 154 69 83 81 93 51 53 89 167 89 123 66 162 150 28 100 74 141 49 106 112 85 34 53 75 103 105 115 73 101 77 41 69 48 110 102 96 77 127 53 58 84 144 88 53 44 50 54 75 79 53 44 89 44 102 59 35 64 93 66 125 120 88 98 104 134 143 71 127 23 43 168 120 63 86 79 49 100 49 115 98 54 104 92 76 98 91 31 36 60 22 79 102 42 42 53 83 73 108 127 86 105 108 54 65 79 46 79 95 105 81 137 76 49 82 76 29 74 26 49 69 88 87 157 96 160 28 48 85 58 78 93 83 21 110 72 91 65 64 75 156 83 136 163 54 60 137 93 180 18 76 79 63 182 56 125 18 60 115 57 106 105 47 31 92 76 36 131 94 80 82 151 116 64 55 102 65 112 21 78 90 25 96 122 79 133 109 106 71 129 126 138 116 59 47 108 123 122 6 78 82 79 87 54 94 50 93 64 68 178 96 36 123 65 34 23 95 82 138 52 163 73 46 140 53 50 90 67 67 94 136 102 94 78 72 92 37 94 68 66 75 76 125 94 55 64 119 31 70 84 96 66 97 63 45 108 34 136 36 84 82 88 83 132 61 61 102 92 5 137 91 70 63 113 110 85 142 73 79 102 116 95 134 70 85 105 85 47 64 74 76 116 83 75 106 45 91 94 66 112 88 28 138 74 71 128 91 127 44 109 38 107 96 125 112 59 15 97 51 86 94 45 97 73 135 51 122 61 75 88 108 64 56 118 77 71 86 111 98 87 60 62 118 53 52 124 144 38 100 74 5 61 114 72 88 68 44 64 87 82 91 85 97 90 111 77 87 147 57 105 114 51 76 63 100 14 153 101 79 61 64 63 69 59 88 139 135 66 46 106 141 174 16 86 81 62 65 43 30 80 49 73 56 69 70 66 80 63 104 76 89 108 106 116 127 113 69 132 53 101 104 59 82 92 64 94 86 65 135 83 92 63 99 67 75 161 89 135 36 61 29 84 117 139 109 124 43 116 126 7 86 55 29 82 90 105 94 100 79 74 83 79 94 97 38 67 60 59 87 48 59 84 54 46 145 58 103 77 31 134 81 63 57 80 128 78 88 92 118 33 64 119 124 85 93 81 97 85 100 92 19 98 73 100 91 64 79 55 107 147 75 67 114 38 39 112 119 88 60 89 196 106 161 83 71 123 72 96 59 108 37 89 74 99 79 87 101 108 102 131 90 153 58 35 82 124 134 75 58 59 48 93 178 47 99 53 124 64 116 121 114 112 55 115 20 122 73 107 80 70 81 85 66 99 83 70 107 74 91 125 82 63 101 40 87 71 131 74 71 198 47 66 72 134 79 118 27 105 75 68 84 195 87 65 39 119 35 84 83 74 122 64 185 76 78 34 52 103 79 81 111 128 31 107 82 89 69 39 58 111 2 91 91 93 61 73 105 54 64 72 142 55 84 47 57 30 31 97 78 102 50 165 72 44 90 175 43 40 71 72 75 78 58 34 34 135 22 73 84 110 140 160 126 205 70 80 155 83 72 60 48 88 112 106 120 24 87 67 84 78 101 106 70 54 171 57 34 64 76 80 63 131 47 76 78 126 63 64 42 94 52 97 86 57 27 86 96 108 98 110 106 144 107 33 151 87 98 75 73 93 55 44 105 59 153 69 134 71 137 56 91 68 38 114 91 17 81 81 84 74 55 51 94 24 59 35 90 130 52 78 77 104 124 118 92 105 58 89 153 57 87 150 122 32 106 51 91 93 130 134 73 104 85 62 56 90 99 80 107 133 93 95 105 129 40 104 110 100 84 56 163 75 81 66 85 48 85 79 75 21 75 82 37 49 102 103 88 68 74 116 83 71 116 97 33 76 27 81 82 49 112 169 138 92 132 89 52 120 94 96 79 72 98 70 100 70 78 86 59 102 128 104 137 44 112 68 107 130 99 166 65 53 125 107 9 42 59 42 74 82 43 187 59 16 39 43 69 63 63 98 89 35 89 138 135 15 54 116 104 101 120 98 71 99 58 80 107 87 98 99 70 39 113 72 106 45 88 184 90 63 99 97 58 132 91 82 97 91 54 111 54 89 113 127 84 91 99 74 96 86 38 114 100 47 35 38 113 75 42 47 112 28 88 28 42 63 62 86 107 76 52 132 147 75 30 98 84 28 77 22 68 74 90 101 61 107 50 23 119 80 75 85 120 53 100 168 85 74 46 84 116 31 79 26 95 96 55 66 61 86 94 43 52 100 27 108 109 55 57 85 78 54 91 152 40 113 87 80 117 49 47 121 93 45 72 51 58 24 54 89 104 22 126 35 41 83 110 89 93 93 180 70 45 97 38 86 55 66 79 77 78 84 166 55 60 106 79 99 67 125 84 61 118 82 58 55 105 96 148 135 59 119 103 43 110 116 44 140 125 62 108 41 35 58 93 82 68 130 79 59 145 51 67 61 104 138 125 123 11 107 77 94 57 148 115 74 111 76 96 39 100 55 46 137 61 89 46 66 54 146 89 105 80 101 38 230 64 150 83 77 59 101 92 60 120 105 55 134 55 68 49 115 111 102 84 76 77 90 44 100 61 85 25 170 99 48 43 117 61 49 96 57 52 133 91 141 90 68 67 114 90 77 88 69 99 74 39 73 95 134 155 94 66 85 35 80 84 89 100 10 83 45 47 81 126 53 30 109 67 146 59 139 48 77 74 124 62 66 88 54 113 138 77 70 90 43 55 77 77 188 49 33 85 48 128 84 71 60 70 64 47 87 111 105 103 65 72 79 24 76 126 79 57 121 58 106 79 85 36 45 40 91 83 80 108 19 89 116 123 41 43 83 60 79 90 69 80 84 62 67 88 134 114 60 63 69 125 112 116 30 125 31 62 98 61 77 95 124 118 92 37 97 38 80 72 126 121 87 63 101 93 84 98 75 86 70 101 63 89 47 115 92 81 128 84 52 80 130 123 79 69 111 149 98 128 66 110 53 117 72 50 91 59 81 20 111 148 118 70 86 87 102 106 67 66 108 95 116 56 112 90 82 116 54 92 104 56 110 57 15 32 81 125 64 46 40 141 135 34 67 94 118 109 61 61 102 125 50 79 64 86 69 107 82 74 118 82 86 103 102 83 51 44 149 62 93 124 65 100 78 105 99 72 93 72 182 32 124 29 74 99 64 95 90 48 47 69 101 82 117 68 44 96 99 158 63 72 214 83 67 66 93 66 30 64 68 133 89 102 142 80 48 58 54 107 55 20 67 34 89 85 34 96 89 94 71 53 104 65 89 115 57 60 124 46 62 50 81 33 56 94 131 156 49 67 53 65 59 105 148 45 129 175 94 121 86 115 101 103 115 115 109 115 66 79 74 79 80 27 98 74 115 103 64 117 46 54 101 85 86 138 66 69 97 169 70 117 121 107 110 95 52 88 82 57 55 111 97 120 62 70 64 23 73 84 37 106 122 120 63 75 113 106 146 69 28 144 99 85 137 78 56 70 46 112 125 76 59 52 121 98 63 105 89 73 114 11 102 117 83 67 92 52 44 53 74 64 45 166 144 117 69 105 63 79 76 126 76 59 70 78 73 50 118 61 84 77 79 65 22 62 93 63 72 154 71 59 72 38 140 72 74 69 45 54 109 150 63 137 64 107 83 127 73 88 114 110 48 71 53 108 130 71 146 93 114 100 89 62 95 81 129 69 74 77 147 87 79 165 31 92 149 151 66 59 78 97 55 113 33 80 155 65 123 53 82 117 117 33 47 46 37 52 120 104 96 123 107 52 59 114 92 154 108 123 94 138 37 117 92 55 72 71 72 56 89 108 106 58 40 94 68 110 56 70 48 56 86 56 56 46 83 100 89 92 83 135 59 77 156 79 75 129 158 97 172 56 85 54 139 52 32 112 83 62 88 116 103 116 23 48 71 64 141 71 88 96 62 44 127 126 84 118 48 117 119 91 138 71 50 85 133 62 116 65 32 212 130 81 123 126 122 84 101 74 156 108 74 93 85 130 73 57 73 125 84 97 52 126 68 90 111 170 74 193 69 100 73 53 69 35 99 112 102 28 71 60 115 79 84 160 25 79 66 83 24 87 114 176 33 54 113 158 41 76 91 97 130 54 53 83 94 69 60 59 76 31 38 99 37 59 98 85 83 99 78 62 70 158 89 127 48 90 94 101 48 111 97 34 84 58 49 110 67 85 84 76 70 88 107 104 132 42 88 58 95 44 94 87 72 107 119 119 51 102 78 44 76 83 62 42 198 46 62 100 42 111 48 96 80 65 114 25 89 84 77 90 131 77 69 71 46 89 62 70 121 103 90 105 26 48 91 34 97 95 71 84 110 121 67 84 103 119 91 68 59 173 61 112 97 84 54 111 119 38 26 120 48 57 68 70 109 67 48 83 88 31 152 103 82 81 71 69 154 73 46 72 75 94 97 34 56 60 107 109 78 46 128 133 48 85 71 107 52 110 58 41 48 44 35 64 79 78 117 73 25 66 52 64 91 149 152 77 77 81 93 92 84 98 77 102 41 79 87 76 29 81 62 63 152 82 73 54 64 133 46 125 151 101 60 51 152 54 86 107 56 99 125 56 38 108 213 59 93 131 91 159 54 61 120 70 112 68 34 79 152 69 89 101 183 141 72 89 64 69 52 56 130 63 103 59 52 86 106 80 64 26 125 43 107 67 106 64 167 132 138 138 55 81 94 140 128 92 92 52 84 69 53 129 44 35 94 126 89 75 136 38 86 69 96 71 56 53 69 84 194 57 96 114 41 123 103 166 31 99 92 77 74 60 111 150 76 61 13 107 108 88 127 105 58 63 90 72 56 60 104 73 97 156 78 146 103 56 99 70 76 127 65 110 76 106 110 81 124 61 111 95 53 96 66 35 104 85 90 71 26 97 126 133 35 73 131 116 74 113 132 49 53 83 39 51 129 94 38 121 25 87 109 63 103 52 66 120 115 106 122 80 94 205 110 136 52 81 58 55 142 94 91 63 62 92 104 132 116 46 107 88 131 90 25 54 99 64 46 85 116 121 25 70 57 76 68 104 104 70 207 33 140 75 45 63 84 107 94 149 73 105 71 110 99 80 94 154 63 85 49 83 124 85 133 70 128 94 114 32 45 68 112 39 81 44 62 66 104 61 17 93 51 109 107 124 61 116 89 33 77 56 49 148 94 43 91 81 62 99 188 88 67 78 35 80 99 125 45 69 67 101 65 135 91 52 76 63 58 104 83 99 168 71 102 66 62 51 98 56 75 25 65 44 65 115 83 76 98 84 94 95 93 161 107 62 57 65 80 72 62 104 54 71 139 153 34 110 63 78 73 68 74 70 62 123 96 69 48 108 88 116 93 84 45 65 107 121 113 33 113 6 88 59 75 65 61 55 101 114 79 73 49 148 136 88 68 66 140 53 84 87 133 145 30 91 59 152 17 42 92 78 86 46 119 121 58 115 50 52 26 100 102 164 68 104 87 77 56 32 133 89 73 110 44 56 55 42 72 123 88 96 178 115 61 126 120 59 50 103 123 42 99 110 56 88 89 133 41 72 157 46 81 146 77 87 87 83 98 47 54 92 106 112 87 206 45 96 62 96 93 110 45 93 108 102 81 85 84 67 68 59 122 62 80 59 90 99 96 45 143 65 81 88 106 63 74 80 83 82 44 89 112 87 38 43 93 62 86 110 93 62 101 74 42 60 24 129 69 69 109 124 96 102 36 35 102 87 167 50 114 40 102 88 48 65 128 39 108 68 60 76 40 75 32 104 120 108 49 138 75 83 70 99 90 49 59 74 73 54 39 30 51 71 88 90 75 122 73 201 61 110 61 68 51 90 12 65 96 65 65 81 151 66 95 69 109 91 106 59 89 59 93 83 146 101 77 47 69 180 118 98 67 128 133 88 139 107 111 61 33 150 101 51 107 68 56 79 84 101 81 74 145 64 49 112 104 54 124 26 71 48 156 121 45 29 106 88 49 37 76 87 97 83 38 97 55 78 41 56 113 72 124 59 59 58 67 122 92 59 60 33 103 114 68 132 85 159 69 146 80 88 97 161 40 147 153 108 91 87 81 112 67 96 94 129 44 116 59 71 77 58 118 130 97 72 39 35 91 70 77 66 61 70 92 95 52 86 53 107 136 124 56 90 58 42 111 123 138 166 47 45 47 47 83 72 85 68 68 113 79 115 75 88 56 118 82 76 56 137 46 99 106 107 49 97 37 69 65 117 101 54 30 53 93 98 93 92 165 131 103 128 64 43 55 30 49 98 37 48 76 96 88 71 83 116 102 108 85 149 139 40 81 75 65 87 127 91 103 77 119 60 93 76 72 104 50 108 65 121 49 62 25 134 28 35 52 80 84 21 129 77 140 67 15 97 59 78 101 111 109 62 36 166 57 115 55 89 121 69 89 160 90 65 40 92 97 84 98 36 62 100 44 73 167 76 28 50 102 160 93 41 72 53 51 106 62 50 113 129 67 106 164 73 63 101 94 95 77 125 52 143 103 68 137 116 89 119 139 78 79 62 101 218 53 105 54 85 57 68 63 66 67 103 54 50 85 85 120 135 107 83 54 110 140 103 34 78 75 92 42 100 92 20 217 37 40 95 128 42 54 60 91 163 34 111 79 84 166 131 74 108 140 76 83 156 147 137 23 56 134 83 52 68 57 95 59 85 21 45 110 77 57 59 45 99 11 117 82 84 101 121 41 81 78 92 106 52 89 70 127 90 107 27 81 108 85 77 65 84 79 67 115 42 62 38 168 143 47 116 145 37 81 158 91 25 133 51 161 74 105 79 47 68 125 86 111 106 55 105 115 157 12 84 117 84 60 49 23 130 65 65 133 112 77 63 130 60 46 78 151 95 59 98 67 174 108 136 51 94 24 112 119 89 61 103 47 105 74 64 48 66 86 80 61 105 199 104 75 90 73 66 80 86 84 174 111 28 32 90 34 24 27 81 112 103 85 39 202 59 79 139 79 58 95 87 116 68 147 35 84 65 123 77 133 50 154 61 160 72 58 117 106 85 124 109 84 106 100 110 98 111 74 55 95 49 50 34 73 59 79 141 66 142 34 118 100 70 139 98 97 90 36 96 59 144 108 36 37 118 84 62 107 111 53 41 55 109 120 48 79 68 50 50 110 78 90 32 65 85 52 127 90 63 96 136 107 104 41 72 89 152 113 61 79 49 78 160 81 96 117 56 140 110 124 78 142 97 91 98 51 115 50 49 8 109 55 153 7 128 77 104 177 79 145 53 58 113 16 81 86 76 121 115 115 139 65 93 68 76 29 60 97 30 124 39 105 32 96 43 128 64 56 73 79 77 70 126 74 37 63 60 81 67 144 78 63 97 65 43 95 65 106 28 50 34 53 204 132 63 84 87 38 106 117 47 38 42 141 36 105 43 101 78 131 74 31 127 117 78 125 127 170 137 79 72 54 125 53 133 77 67 110 194 101 116 64 68 86 72 63 145 73 74 66 46 64 30 100 74 78 129 53 94 156 106 130 78 101 93 72 89 79 100 69 79 92 83 61 97 79 77 78 87 124 88 49 132 195 114 69 105 91 37 181 70 89 127 72 76 60 76 124 99 60 73 84 64 62 119 76 100 103 95 76 96 57 58 110 57 103 100 82 117 119 66 118 106 43 138 80 138 91 114 110 92 93 73 62 52 189 76 100 80 99 93 155 30 103 153 85 62 118 71 94 85 102 94 94 37 65 68 70 49 65 166 63 49 55 60 76 114 118 55 56 134 64 118 85 98 80 108 99 82 81 56 149 92 73 143 45 57 119 66 83 70 22 114 67 61 75 70 189 77 84 38 92 112 87 66 140 102 94 71 122 75 97 123 53 126 109 59 125 73 84 89 109 79 62 56 93 85 112 68 88 171 74 63 76 150 45 58 76 52 101 102 109 65 52 109 48 44 33 57 94 200 105 33 76 36 65 66 78 111 88 24 174 113 71 60 53 110 69 105 100 109 52 109 73 15 59 99 50 79 138 51 41 66 118 86 28 107 54 34 72 107 102 77 52 79 107 71 71 86 110 63 89 107 131 48 122 86 78 51 87 71 76 91 73 108 53 53 75 149 81 132 107 76 22 150 99 53 66 136 27 97 166 66 88 92 65 106 114 121 65 139 121 49 140 69 93 35 45 86 77 70 111 94 57 75 68 63 27 59 156 79 50 81 111 85 116 77 138 133 84 102 90 37 32 93 91 77 55 90 98 10 104 82 70 35 72 190 38 92 38 80 132 66 85 99 78 65 132 42 57 102 107 30 140 116 160 132 78 89 180 83 128 163 85 33 26 85 152 42 68 110 64 124 78 96 79 101 94 66 97 125 65 50 82 101 130 17 148 84 51 135 70 69 95 45 121 50 33 74 77 113 61 52 99 158 93 65 117 74 52 158 126 96 121 47 92 70 58 130 65 90 90 139 31 50 59 45 133 134 87 80 140 186 89 142 73 76 90 50 82 58 72 112 95 45 30 44 145 80 74 32 88 32 75 59 135 89 63 90 112 85 94 112 89 164 67 91 72 88 106 65 169 51 48 78 40 79 62 73 93 133 106 71 127 73 167 125 48 81 96 64 114 64 113 133 96 83 51 103 55 67 44 88 109 86 76 61 68 100 92 44 52 124 57 128 101 104 94 154 75 55 50 37 68 119 84 103 104 28 90 76 127 77 75 108 100 94 179 96 76 90 128 143 94 85 103 157 37 47 76 125 78 83 44 52 20 86 54 56 111 135 46 72 67 199 112 94 57 132 98 51 84 72 90 55 126 31 36 57 103 105 81 94 66 75 121 48 89 122 65 109 46 111 29 75 68 108 121 79 126 18 72 138 60 102 63 161 33 114 152 101 110 65 39 68 56 110 76 84 80 68 55 64 139 64 160 60 103 127 38 50 86 69 48 62 52 70 101 95 59 86 100 123 96 47 87 90 58 37 103 60 112 134 76 65 113 121 62 103 39 25 68 119 99 82 63 13 75 75 70 80 58 124 87 68 64 103 103 97 101 35 142 46 41 72 103 19 98 55 103 78 87 49 99 51 81 84 81 64 98 46 70 53 65 96 126 61 114 72 55 150 66 52 71 87 41 109 93 66 77 90 25 124 116 121 44 36 80 100 114 55 108 105 139 107 132 113 95 76 95 75 188 75 34 43 52 78 66 63 48 96 199 44 18 80 135 65 134 63 85 84 139 84 72 51 94 65 88 63 49 98 73 69 127 126 48 68 54 107 86 31 67 77 98 98 117 132 164 99 74 55 120 84 83 56 79 93 99 29 110 131 84 100 162 43 76 135 91 69 101 102 99 72 182 77 81 72 54 58 71 121 35 70 78 64 116 78 109 32 85 142 85 101 95 67 57 146 107 55 139 84 9 64 211 157 71 117 122 63 173 42 96 105 30 80 154 26 106 117 108 69 70 41 59 65 123 121 91 35 78 66 168 71 87 91 85 83 37 85 50 118 75 55 61 94 74 33 93 77 14 104 46 59 106 120 87 159 94 88 110 123 97 67 64 69 53 39 78 38 91 72 81 69 48 64 49 51 72 142 60 79 141 47 150 123 139 67 90 53 102 79 99 106 87 65 64 56 101 89 94 88 78 79 67 62 72 115 112 89 84 70 65 182 104 47 100 41 109 111 101 48 114 95 100 134 53 99 94 81 108 98 87 84 101 69 48 60 84 55 63 112 70 140 71 108 87 220 89 73 90 63 56 100 142 98 123 140 86 59 146 151 107 89 72 82 61 81 68 92 143 104 64 91 50 44 44 191 67 49 83 112 36 81 138 59 61 103 70 28 89 96 109 131 60 132 39 113 40 101 83 121 90 67 58 55 211 76 54 69 106 64 78 86 133 16 73 103 110 74 15 85 56 37 58 72 85 61 44 73 56 61 126 73 171 74 76 56 34 89 145 61 83 107 164 109 109 105 108 64 54 76 35 108 137 83 64 65 146 94 67 102 95 73 93 104 139 124 118 70 36 66 73 155 58 77 61 84 75 120 155 89 81 47 40 123 75 70 68 80 37 111 77 67 108 38 164 39 66 66 98 94 55 182 49 99 37 59 72 126 40 139 76 36 100 46 108 100 79 119 30 93 102 92 37 110 85 18 35 145 138 73 171 59 152 57 85 99 131 73 80 95 79 46 99 114 69 106 127 148 19 105 105 52 121 69 142 152 111 39 94 82 36 53 55 125 131 104 73 91 84 138 41 50 100 57 92 140 120 66 63 87 87 123 80 105 40 96 91 59 25 114 136 55 115 49 87 69 95 72 58 28 32 84 61 97 91 94 67 69 74 37 46 59 25 114 72 80 100 97 96 68 123 105 105 57 189 72 120 88 12 90 63 86 77 43 49 77 144 52 87 158 71 115 68 144 81 144 90 192 72 60 65 64 92 76 125 110 61 113 94 83 116 36 109 114 94 61 80 48 60 123 96 123 68 126 198 35 48 100 56 51 97 25 97 85 41 66 60 115 80 46 93 118 99 92 49 111 77 79 64 115 72 60 82 104 130 83 62 82 73 135 141 76 81 137 138 82 57 73 34 92 137 100 55 21 107 85 39 57 63 37 58 62 100 135 47 99 66 105 168 144 48 43 81 45 93 61 55 77 78 48 78 55 86 69 115 77 147 45 54 126 140 103 91 107 52 69 137 87 112 66 66 87 92 160 63 95 125 122 115 103 77 87 87 93 107 122 66 131 139 53 114 109 5 38 82 37 103 87 120 135 99 68 65 133 43 55 147 90 133 138 104 81 136 77 131 117 70 103 85 110 80 67 43 75 58 112 52 84 39 25 52 65 43 51 70 39 92 132 70 114 30 18 67 87 48 88 117 34 177 45 66 90 62 90 14 92 75 205 94 48 76 83 60 46 55 100 99 54 103 105 160 145 130 75 18 76 23 92 70 107 28 103 66 137 124 77 69 86 59 56 63 94 92 125 59 87 56 85 27 131 104 52 40 35 82 129 155 70 66 62 117 131 122 90 85 103 72 112 128 146 117 118 63 120 27 96 64 76 102 41 149 57 71 64 81 106 43 24 148 110 98 83 107 107 138 41 45 42 78 117 51 103 83 37 73 91 62 25 178 55 170 73 54 61 40 104 79 67 72 75 88 124 52 66 122 110 110 99 152 145 64 159 94 59 93 70 89 115 90 106 106 25 79 43 71 74 92 99 85 49 90 128 111 101 98 71 148 75 81 128 148 80 111 34 87 56 102 94 139 66 50 75 47 74 24 127 97 61 108 120 88 56 165 176 59 166 49 19 108 118 117 107 98 75 145 101 137 62 132 99 93 79 76 41 97 90 59 182 77 65 68 46 75 70 76 51 54 89 60 143 41 50 170 55 20 53 32 50 123 85 31 64 98 68 49 113 86 82 111 47 112 87 70 62 173 80 69 55 180 91 84 119 138 68 35 83 131 59 156 68 144 79 75 68 113 108 53 89 119 62 178 174 61 69 61 116 114 41 82 93 39 61 144 45 78 108 77 132 79 66 107 93 26 148 113 21 53 49 86 74 44 30 80 128 75 52 104 87 74 111 103 84 56 52 85 90 83 113 46 96 72 132 46 115 89 94 124 92 72 102 88 78 50 126 93 107 105 64 49 83 45 56 36 87 65 95 42 158 100 78 81 87 84 51 85 97 57 40 108 101 114 108 40 123 96 74 98 49 97 68 95 27 53 67 147 139 25 59 38 106 101 87 120 41 76 101 105 50 43 74 78 61 39 77 51 119 116 22 82 117 31 72 96 73 61 114 87 83 52 109 71 58 124 136 43 91 106 103 109 90 82 48 66 70 48 111 84 40 71 77 94 76 112 88 55 106 78 42 76 132 108 129 53 86 82 112 53 170 74 98 59 98 55 99 100 45 162 72 60 58 67 86 39 67 24 74 106 129 49 101 78 59 50 83 127 69 82 107 123 62 31 125 81 32 84 31 54 111 87 163 56 144 95 85 34 86 72 78 70 52 64 46 127 94 81 73 36 91 101 44 96 70 94 122 51 67 31 89 52 65 80 61 75 52 64 94 132 44 135 46 125 133 103 73 141 76 91 48 100 40 62 51 85 102 73 38 77 75 131 78 45 86 106 126 60 107 111 115 103 118 85 86 32 58 114 80 99 69 130 60 91 66 75 139 117 64 45 46 62 102 44 53 82 44 128 70 126 173 45 46 67 150 63 83 82 91 63 111 108 95 83 120 64 38 82 128 96 122 71 132 88 40 124 118 116 56 73 55 103 51 77 60 66 134 96 126 116 82 149 34 75 99 93 143 74 49 60 61 99 47 64 74 92 84 81 128 79 38 91 93 56 125 120 73 89 61 111 102 60 39 105 94 87 45 141 81 84 106 133 68 86 86 40 89 68 43 62 83 109 104 89 100 113 57 95 97 59 72 89 123 101 146 61 87 54 37 29 121 113 89 66 63 153 80 81 42 108 96 80 71 44 87 89 91 63 25 87 60 106 67 163 85 112 77 75 143 141 85 45 40 120 59 59 44 114 78 82 100 43 149 56 85 70 86 41 95 45 87 89 47 103 47 90 84 117 86 54 122 78 48 53 32 119 64 135 70 63 83 121 56 74 74 83 219 81 70 68 99 76 84 49 71 99 51 100 93 67 151 85 95 110 96 94 69 99 83 43 49 82 72 54 79 64 90 111 68 110 81 76 47 72 113 76 47 133 72 70 36 70 36 75 69 99 61 146 76 87 77 32 105 46 71 77 116 98 96 71 105 115 134 142 73 68 72 69 62 52 88 57 137 128 99 76 54 96 95 99 82 104 68 58 122 127 93 160 52 34 58 51 47 93 77 86 62 96 45 141 118 66 67 97 44 79 111 74 88 40 60 65 60 120 133 112 36 79 61 94 77 49 95 54 135 85 80 88 121 75 127 157 108 84 68 69 93 117 98 45 55 36 102 39 95 105 54 167 91 68 48 64 151 95 115 111 105 42 138 82 84 56 41 124 74 54 106 54 88 34 88 73 46 101 74 91 100 82 40 102 118 69 106 68 134 68 76 154 76 32 90 106 62 78 118 114 78 106 63 167 56 118 78 86 163 117 58 83 93 135 80 98 115 165 111 61 133 63 101 166 31 97 82 82 171 86 105 56 138 74 71 85 84 116 116 123 93 89 163 89 105 52 52 60 129 77 54 79 76 103 123 86 23 45 116 106 60 158 123 46 80 74 111 106 55 59 60 64 85 75 77 105 130 173 96 128 68 150 125 65 113 54 58 67 82 69 71 51 26 55 104 57 112 79 47 115 89 44 89 81 60 84 93 91 119 66 99 11 119 137 107 69 74 115 89 52 69 65 35 52 167 60 89 122 49 70 42 82 148 54 64 115 76 80 94 79 109 41 94 147 166 137 94 134 102 27 35 68 69 138 60 53 116 82 97 92 101 87 106 121 24 134 57 133 31 134 84 105 49 106 87 18 112 74 65 50 110 67 82 65 71 45 132 125 47 76 53 100 73 69 66 87 80 112 106 126 85 68 92 62 103 60 85 66 46 172 71 119 64 85 36 52 36 86 83 114 77 66 114 149 34 79 68 24 140 68 58 83 92 71 70 131 82 33 72 40 97 132 36 23 108 85 79 61 58 82 119 100 139 118 70 78 66 152 65 49 93 111 75 99 92 33 106 86 114 69 91 104 70 82 60 84 73 73 77 152 110 112 72 100 30 69 109 122 105 55 150 29 98 107 91 109 37 63 74 70 98 67 58 92 74 125 129 87 76 130 140 70 88 111 46 54 47 200 76 71 120 92 156 56 111 53 136 58 132 145 124 40 70 166 49 106 102 39 102 99 91 18 35 133 119 106 143 98 98 95 67 67 72 102 95 55 110 99 55 89 51 136 87 113 81 126 135 109 43 25 64 73 61 100 75 68 109 100 68 43 89 97 55 194 58 109 82 97 72 71 154 133 34 18 70 34 69 58 75 116 26 59 161 183 67 73 131 125 73 103 58 40 48 86 55 101 107 58 126 53 102 85 96 45 98 147 125 53 89 84 75 76 91 25 87 105 66 113 67 90 76 115 47 116 113 139 87 68 75 100 98 114 28 94 38 23 155 146 59 49 84 66 134 89 57 87 129 53 37 113 54 108 108 85 124 63 91 30 98 60 49 57 42 89 166 151 26 38 39 94 114 109 75 78 55 62 181 93 81 102 96 42 144 64 99 76 49 65 69 94 58 25 130 72 102 81 69 96 112 175 84 32 90 103 79 121 87 64 80 76 82 94 42 45 33 109 112 88 95 118 97 66 76 32 27 84 117 124 75 77 63 81 97 50 76 91 54 53 87 26 46 105 51 100 103 68 87 72 78 52 43 38 161 105 73 43 79 68 58 119 23 79 77 48 112 69 46 127 58 57 55 41 139 98 87 42 81 159 63 55 104 108 52 29 24 67 75 32 134 94 148 81 124 59 88 125 83 73 70 116 93 153 100 99 8 98 112 108 88 78 109 59 101 38 149 113 138 98 59 125 82 81 104 95 56 99 82 55 65 113 161 43 109 83 78 61 71 51 121 57 58 71 61 141 24 62 86 162 30 83 101 57 119 96 118 103 27 166 109 109 151 74 43 137 86 97 87 42 88 100 97 61 72 104 135 131 143 106 90 103 92 81 29 43 87 116 74 58 140 44 168 139 68 108 52 57 74 62 49 65 100 79 73 134 108 171 12 77 91 164 96 35 98 91 88 45 47 173 102 53 85 58 33 119 51 42 29 110 91 104 83 54 81 95 165 149 92 104 93 90 134 89 89 69 86 58 69 93 59 101 85 132 62 129 69 136 60 59 71 62 96 68 72 130 95 127 71 86 100 82 72 111 62 63 49 63 86 139 96 92 61 80 90 89 97 43 82 94 77 138 72 82 109 50 102 90 125 59 57 34 53 90 98 76 90 43 87 71 201 94 68 81 56 130 92 47 71 88 69 64 141 59 133 99 126 76 53 72 11 55 72 92 64 96 86 139 69 47 126 74 105 119 80 123 134 67 101 107 82 98 39 101 54 84 68 56 27 105 61 84 53 90 108 56 47 134 56 92 75 109 88 80 83 48 131 30 76 98 56 53 68 56 58 151 132 55 53 77 21 156 51 95 79 64 174 63 55 116 88 36 57 115 85 99 114 135 87 81 122 12 75 129 47 151 100 103 58 110 62 53 73 110 57 93 66 79 40 149 54 80 81 91 89 71 104 105 13 62 31 131 125 60 140 78 103 88 178 53 79 132 47 91 88 111 36 68 56 88 54 87 36 61 160 101 52 119 109 37 31 82 104 57 86 79 141 95 42 27 68 154 131 115 118 79 88 73 104 80 97 71 188 107 118 106 78 101 73 100 104 60 100 84 43 66 77 30 99 144 116 89 38 50 34 64 91 103 39 23 77 25 113 65 101 68 62 72 58 40 48 52 93 121 74 110 78 43 39 64 104 49 62 105 77 116 58 97 122 110 119 96 88 81 137 117 64 80 89 41 84 78 82 81 101 52 100 162 83 79 68 109 37 68 88 119 92 67 121 96 53 131 98 127 59 70 105 177 58 120 44 83 94 67 103 96 40 117 111 115 80 105 122 52 78 24 57 46 115 97 133 66 96 54 78 109 123 91 97 98 40 40 74 80 71 97 103 145 104 150 48 98 156 73 111 94 112 91 80 83 41 117 100 112 85 95 132 33 112 114 117 74 70 114 57 94 67 107 80 37 84 52 73 130 88 109 163 61 55 88 62 52 62 57 97 104 112 31 128 125 63 45 58 117 71 113 69 112 123 74 90 39 93 94 43 60 67 61 233 55 89 58 85 78 116 49 48 75 67 83 93 98 105 105 116 53 64 53 87 89 4 87 141 112 90 60 56 33 85 78 60 140 91 131 116 112 98 76 66 103 78 42 112 118 78 109 79 115 72 68 220 170 146 123 41 66 52 141 90 57 80 166 56 124 79 45 154 166 48 108 77 108 119 112 31 52 87 49 49 99 75 118 88 122 62 109 98 105 105 64 100 98 52 169 51 76 116 73 60 52 89 64 90 56 85 100 144 119 148 66 97 25 163 85 80 94 88 90 92 86 53 104 57 96 76 62 46 103 52 89 94 98 63 39 81 65 65 33 68 96 70 66 23 106 154 72 52 63 90 88 45 84 94 124 62 95 64 66 191 64 73 49 93 99 66 80 66 61 124 101 88 78 66 144 68 110 74 51 79 87 138 123 93 66 32 89 94 82 29 91 74 55 75 133 45 125 61 69 147 23 145 145 29 114 61 62 103 97 88 59 96 83 81 108 77 36 119 110 111 109 91 80 43 89 74 142 94 118 57 117 58 100 78 84 111 82 87 85 80 190 116 79 80 62 91 82 94 89 44 44 121 49 109 72 139 169 118 109 43 57 110 104 77 75 156 61 209 89 107 131 93 67 86 50 2 126 82 54 94 55 115 85 71 113 69 186 134 82 94 102 133 128 87 138 36 94 38 63 50 74 97 85 111 41 131 67 99 115 33 117 96 104 32 56 123 45 112 67 42 80 87 46 171 54 88 54 73 77 150 98 70 150 123 94 51 83 128 42 81 86 64 0 92 75 122 98 94 41 70 57 70 89 150 159 44 145 79 110 95 88 64 29 72 62 64 11 105 46 120 43 114 60 82 68 64 93 86 50 122 87 87 28 57 102 89 71 71 99 66 119 103 32 124 55 84 127 112 117 72 35 95 106 110 75 58 165 66 90 87 71 75 35 60 94 90 128 21 69 95 138 114 107 72 105 63 63 87 78 75 34 58 56 81 138 56 64 72 78 85 71 68 165 38 105 59 51 81 65 33 98 109 86 91 78 66 84 111 56 41 78 89 93 111 128 96 98 76 138 77 169 133 64 107 81 102 114 77 72 75 78 99 128 83 81 27 86 83 175 74 104 76 79 125 51 75 105 55 73 76 49 77 65 63 70 96 63 57 75 38 90 60 72 40 159 74 107 51 74 56 91 105 87 92 123 83 90 92 58 94 100 158 87 79 75 110 67 136 72 130 114 25 85 145 94 91 35 70 101 63 144 96 86 52 67 108 97 89 107 89 71 154 139 57 74 108 123 54 85 98 102 114 86 76 35 116 89 88 66 106 118 60 55 158 72 97 143 93 112 70 63 177 93 110 32 43 145 122 63 86 45 89 77 54 179 140 48 76 168 129 77 81 94 101 107 74 39 96 72 88 73 22 83 84 39 51 46 111 100 58 124 93 90 65 70 106 62 66 75 205 96 50 67 90 67 88 111 113 53 58 91 137 77 71 78 59 69 126 50 200 47 35 104 97 77 87 69 91 54 29 51 76 63 45 81 20 112 62 97 81 45 58 83 56 105 74 94 52 87 65 107 64 62 80 25 121 149 43 69 134 64 106 103 178 64 118 109 86 131 141 14 86 113 92 72 47 120 85 88 80 83 81 64 120 89 63 45 94 64 21 61 85 147 58 116 156 84 107 103 110 120 61 95 70 89 80 89 108 62 38 102 75 173 70 74 43 44 64 62 20 77 31 63 135 130 102 42 123 111 59 101 139 65 94 81 73 121 79 56 85 101 101 59 92 129 87 31 67 75 106 97 83 45 48 72 44 95 131 49 98 60 64 78 33 108 108 146 51 43 94 69 69 129 57 109 114 85 130 175 90 62 34 61 68 53 75 54 69 132 78 153 103 52 83 98 73 64 106 34 94 201 102 81 106 112 60 55 188 99 53 118 132 123 137 93 100 168 44 88 110 42 57 75 45 98 67 161 101 110 105 34 145 104 31 85 110 130 104 84 55 111 64 93 109 67 71 80 114 14 103 58 87 169 98 151 83 164 19 71 69 149 111 75 84 103 108 143 67 63 75 103 100 96 53 93 83 57 113 47 80 39 149 67 97 74 72 114 81 80 33 82 31 101 63 58 73 74 122 109 42 118 157 190 92 79 86 97 86 92 127 120 79 104 112 129 29 45 121 94 101 49 107 101 134 77 28 70 162 85 52 34 121 154 79 71 73 97 61 104 144 125 44 83 63 45 123 88 69 53 91 105 87 73 6 75 63 82 82 98 118 59 15 93 47 83 29 58 172 212 50 57 117 85 38 83 84 85 121 64 68 63 70 105 104 92 90 78 98 54 93 129 115 95 89 121 86 140 89 103 59 92 110 53 194 88 31 104 57 69 102 126 48 77 75 87 43 53 72 61 82 114 104 39 120 67 90 85 58 78 159 83 35 49 96 16 121 44 86 133 45 85 115 121 76 47 114 59 76 132 90 103 71 66 103 51 115 36 77 65 81 83 74 27 39 40 55 91 82 167 114 70 88 77 147 58 45 55 87 86 78 149 83 92 40 100 68 65 158 102 54 87 102 96 110 56 63 135 104 49 117 91 112 107 87 97 79 107 52 138 110 121 89 90 75 106 111 92 95 48 99 49 100 116 86 73 90 81 161 73 58 117 134 101 131 35 104 80 54 139 47 49 57 71 88 70 89 67 151 62 93 105 90 145 135 98 128 108 96 94 51 98 89 41 94 67 75 138 83 125 104 79 44 16 12 102 108 64 112 80 119 59 70 112 70 112 57 100 65 68 43 62 77 79 26 113 60 135 52 108 113 78 76 137 70 124 105 11 120 36 82 80 37 64 41 124 68 51 133 58 95 70 12 172 42 46 91 77 105 79 79 59 119 87 108 81 129 136 67 84 100 78 115 65 72 96 100 101 68 68 88 114 104 121 132 96 141 170 112 128 91 132 111 83 83 39 86 84 35 62 112 82 111 125 89 28 170 46 117 120 13 98 113 57 153 108 121 125 103 88 38 79 79 97 56 52 102 43 65 43 55 143 107 39 87 61 89 145 63 93 81 106 172 68 52 56 54 168 90 80 88 92 42 102 125 147 136 75 110 52 99 74 44 152 85 117 11 111 82 53 86 89 67 80 135 34 55 87 74 114 79 156 59 92 154 79 87 92 106 91 61 109 67 129 105 71 42 117 77 105 34 92 122 36 44 84 113 114 60 80 92 97 17 73 85 100 34 55 79 65 90 70 68 106 123 51 37 100 55 168 100 102 83 110 157 140 57 75 45 136 71 47 87 76 99 33 138 57 83 80 92 112 54 34 103 103 71 85 71 61 87 69 110 105 149 70 127 124 88 133 48 107 75 104 89 148 81 47 88 85 101 41 148 96 89 60 72 128 79 66 62 73 46 52 64 122 70 52 102 77 113 150 74 46 74 15 64 153 71 63 55 96 78 72 95 84 125 77 91 159 58 67 61 59 121 120 59 152 109 64 51 99 126 149 41 157 86 108 97 117 112 103 113 49 113 110 229 52 90 70 27 137 46 105 49 73 146 27 67 63 119 131 126 62 15 111 137 113 59 92 103 67 60 92 38 158 156 124 127 92 46 98 56 166 76 169 109 101 107 111 91 58 111 50 27 103 79 79 75 124 44 101 136 85 58 57 71 51 126 87 136 121 54 29 113 53 62 111 88 110 89 103 58 73 87 81 110 65 70 131 116 63 142 181 81 95 110 56 80 123 109 47 50 95 76 18 129 55 58 51 81 67 93 42 91 103 60 118 39 85 18 44 109 104 90 21 42 56 81 90 94 95 92 78 146 93 160 112 25 69 84 114 123 75 108 51 67 65 33 32 51 65 63 31 48 80 96 71 74 31 64 123 79 71 55 57 127 36 119 42 73 66 92 89 106 111 134 83 125 56 92 98 64 145 68 96 65 96 92 113 44 78 55 158 73 77 61 67 25 38 124 73 127 69 143 49 82 117 45 134 173 96 112 42 81 130 82 144 39 70 107 171 82 132 44 46 126 34 96 106 86 96 67 94 113 122 82 27 76 65 53 105 74 105 88 153 99 107 75 96 86 95 81 105 103 16 86 110 126 106 113 131 63 201 109 47 84 63 74 44 121 131 63 32 140 85 82 84 43 132 54 88 173 159 60 93 74 106 107 57 87 50 48 44 139 108 30 69 122 69 30 132 261 62 85 171 150 70 95 74 73 64 99 54 87 116 56 91 52 61 89 29 77 108 88 77 93 116 111 61 87 94 134 57 85 103 132 46 133 82 167 75 99 73 60 31 74 94 71 41 200 121 69 97 38 133 39 104 50 117 48 122 101 45 109 108 85 87 95 42 91 89 37 66 95 32 105 72 51 89 136 92 90 92 70 81 52 70 89 117 73 103 49 147 72 78 95 106 164 93 54 91 82 89 96 68 92 46 68 79 94 181 108 113 111 87 46 87 151 58 111 90 192 94 26 92 69 84 60 91 125 53 89 132 123 63 74 37 85 71 139 70 51 104 59 124 79 73 75 152 110 91 35 84 47 86 70 102 87 74 98 146 121 28 64 137 77 131 137 86 93 71 108 156 80 46 115 120 72 91 55 63 120 43 83 77 152 63 103 79 115 90 88 50 67 99 131 25 42 99 59 75 29 130 122 96 99 90 53 70 73 64 43 71 70 25 61 139 114 63 65 92 110 110 78 69 115 84 159 21 34 40 102 93 45 108 105 99 82 94 12 66 138 132 100 91 128 25 24 32 55 81 256 77 70 78 74 115 63 64 70 105 150 106 138 147 36 66 109 34 45 113 68 119 74 121 53 44 155 44 84 115 79 86 112 68 116 104 70 95 95 52 48 91 65 79 97 78 176 103 21 58 72 38 68 95 116 118 110 107 63 72 102 89 78 109 75 46 68 111 57 68 159 90 64 102 75 103 81 74 89 104 97 70 63 61 98 92 77 83 102 130 79 112 121 79 30 88 92 87 46 136 91 86 123 98 125 175 53 104 75 94 140 66 72 85 64 148 127 104 82 125 51 81 135 86 93 60 87 54 84 77 127 96 79 62 40 109 121 56 66 47 79 101 67 72 69 128 167 101 78 15 72 34 87 77 128 49 193 50 88 33 101 104 65 62 163 177 35 98 104 67 66 98 111 105 57 55 92 112 111 71 57 43 90 91 102 80 159 93 127 162 87 70 78 88 61 130 59 141 71 114 140 47 88 129 64 71 108 60 89 65 69 87 121 71 194 169 67 68 62 77 56 53 167 143 63 96 106 77 40 155 29 128 77 71 62 90 91 74 106 122 76 96 127 60 82 66 121 77 55 168 97 143 84 38 119 72 60 82 30 70 26 88 159 97 48 195 55 120 99 50 82 64 133 96 78 83 138 128 49 94 61 112 78 81 120 56 110 97 73 128 60 76 124 71 63 64 80 123 166 105 172 46 62 105 74 64 116 105 12 85 49 62 64 66 63 54 51 85 105 103 60 42 88 102 71 76 116 73 93 54 56 146 42 69 51 53 91 34 90 85 59 64 103 99 128 134 101 91 66 25 130 97 105 62 27 80 72 47 66 39 79 53 170 112 29 66 90 67 56 122 71 39 81 145 38 105 108 82 68 51 20 212 81 68 23 114 41 135 110 65 78 89 71 68 72 25 55 73 46 75 98 17 68 46 75 101 104 102 92 97 49 66 124 56 101 114 87 104 65 83 132 82 49 84 85 86 40 39 43 170 25 60 82 117 35 42 60 73 94 140 114 75 57 </t>
+  </si>
+  <si>
+    <t>GAM(0.37937835297269085, -9.522335247743835e-28, 0.596238853364047)</t>
+  </si>
+  <si>
+    <t>0 0 0 1 0 0 0 1 1 0 2 2 1 0 2 0 1 0 1 0 0 0 1 2 1 0 0 0 1 3 0 0 1 2 0 0 1 2 1 0 0 1 3 0 0 0 2 1 1 2 1 0 2 1 0 1 2 2 0 0 0 1 1 1 2 0 1 0 0 0 0 1 0 0 2 1 1 0 0 1 1 0 1 1 3 0 0 1 2 2 0 1 1 1 2 1 0 1 1 2 0 0 1 2 1 1 0 1 1 0 0 2 0 1 0 1 0 0 4 0 1 1 1 1 1 0 0 1 0 0 0 0 1 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 1 2 0 1 0 0 0 1 1 0 1 0 2 0 0 1 0 1 3 1 0 0 1 0 0 1 0 0 2 0 1 0 3 1 0 0 0 0 0 3 0 1 1 0 1 0 0 1 0 1 1 2 0 0 0 0 1 1 1 1 2 4 0 0 0 2 0 0 1 1 2 1 2 0 0 0 1 0 0 1 0 0 1 1 0 0 1 0 3 0 0 0 0 0 0 0 2 0 0 1 0 0 0 0 0 2 0 3 1 0 0 1 0 1 0 0 0 2 1 0 1 1 2 2 0 2 1 1 1 0 0 0 0 0 0 3 1 0 3 1 0 1 0 1 1 0 2 1 1 2 1 0 1 0 2 0 1 1 0 1 1 0 2 0 1 1 2 0 0 0 1 1 1 1 0 1 2 1 1 1 0 1 3 0 2 2 1 0 0 1 0 0 0 1 2 0 0 0 0 0 2 0 1 0 2 3 1 0 0 0 4 1 3 0 1 1 2 0 2 1 0 0 1 1 1 0 0 0 1 2 0 1 0 3 0 2 1 0 0 0 2 1 2 0 0 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 1 2 1 0 1 0 1 0 0 3 2 0 1 3 0 0 0 1 0 0 2 3 0 2 0 0 0 0 0 1 0 2 0 0 3 0 0 3 1 0 0 0 0 0 0 0 0 1 0 0 2 1 1 2 2 1 3 1 0 0 0 0 1 1 1 2 1 1 0 1 1 0 0 1 0 0 0 0 2 1 1 0 0 1 0 2 0 0 0 2 0 0 1 0 2 1 0 1 1 2 0 4 0 0 0 1 0 1 1 0 1 0 0 2 0 2 1 1 1 0 0 0 2 1 2 2 1 3 0 0 2 0 2 0 2 0 1 0 1 1 1 2 0 0 1 1 2 2 0 1 0 0 2 0 0 0 1 0 1 0 0 0 2 0 0 0 0 1 0 0 0 0 0 0 0 2 0 0 2 1 0 2 0 1 1 2 1 1 1 2 1 0 2 0 2 0 2 2 2 2 0 1 0 0 2 1 2 0 0 0 1 0 0 0 2 0 0 1 1 0 0 2 0 1 0 1 1 0 3 3 1 1 1 1 0 0 2 0 0 1 1 1 1 0 1 2 0 1 0 2 1 1 1 0 2 1 0 2 0 0 1 2 1 1 2 0 1 1 0 1 0 0 0 0 1 1 0 0 0 2 1 0 0 0 0 0 1 0 1 1 1 1 0 0 2 1 0 1 1 0 1 0 0 0 0 0 0 2 2 1 0 0 0 0 1 2 1 0 0 0 1 2 1 0 1 1 0 1 1 0 0 3 0 1 0 0 0 0 0 0 1 2 1 1 1 1 4 0 0 0 1 1 1 1 1 1 2 1 0 0 1 0 0 2 0 0 1 1 1 1 1 1 1 0 2 1 0 0 1 0 1 1 0 0 0 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 1 1 1 1 0 0 0 1 0 0 1 1 0 1 1 0 0 2 1 1 0 0 1 1 0 0 0 0 0 2 0 1 1 1 1 0 0 1 2 0 0 0 1 2 0 0 0 2 1 1 2 0 1 0 1 0 0 3 0 1 1 0 1 2 1 1 0 1 0 0 0 1 0 0 0 1 1 2 0 0 0 0 0 0 1 0 3 2 0 2 2 2 2 1 2 0 1 0 1 1 1 2 0 0 0 0 1 3 0 0 0 2 0 1 0 1 0 0 1 0 0 1 0 0 1 0 2 0 1 0 0 0 1 1 1 1 1 1 0 2 1 0 3 1 1 0 0 1 2 0 2 0 1 1 0 2 2 0 1 0 3 0 2 0 1 2 1 3 0 0 0 3 1 0 1 1 1 1 0 0 1 0 1 1 0 0 0 2 0 0 1 2 0 2 2 1 1 0 0 0 0 0 0 1 2 0 3 0 2 0 0 0 1 1 1 2 0 0 0 0 3 0 1 1 0 1 1 1 1 1 2 3 0 0 0 1 0 1 0 2 0 1 1 1 1 1 1 0 0 2 0 2 1 1 1 0 1 0 1 1 1 0 0 0 3 0 0 0 1 0 2 0 0 0 1 0 1 0 0 3 1 1 1 2 1 1 0 0 1 0 0 0 2 2 0 1 1 0 2 0 0 1 0 1 0 0 0 0 0 0 0 0 1 0 0 0 3 1 0 1 0 0 0 0 1 0 3 3 0 1 0 1 0 1 0 1 0 1 1 1 2 1 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 3 0 0 1 2 1 1 0 2 4 0 1 1 2 0 0 0 2 1 3 1 0 1 2 0 1 1 0 1 2 2 0 1 0 1 3 1 1 2 1 0 0 1 0 1 1 0 1 0 1 1 1 1 0 0 2 0 1 0 0 0 2 0 0 0 0 1 2 0 1 1 0 0 0 2 1 1 2 1 1 2 0 1 0 0 0 1 2 2 0 1 0 0 0 1 1 0 1 1 0 1 1 1 0 2 1 0 0 1 0 1 1 2 2 1 1 0 2 0 1 0 0 3 0 2 1 0 1 0 1 0 1 1 0 0 1 0 1 1 0 0 0 1 0 0 0 0 0 0 3 1 2 0 0 1 0 0 0 0 0 1 1 1 1 0 0 2 1 1 1 1 1 0 0 1 1 0 1 3 0 0 0 3 0 0 1 0 0 0 0 0 2 0 1 1 0 0 0 0 0 0 1 1 1 0 1 2 0 0 0 0 1 1 2 1 0 0 0 1 0 2 0 0 1 0 1 1 1 1 0 0 1 0 1 1 0 1 0 2 0 2 1 1 1 0 1 0 0 0 0 2 0 0 0 0 0 2 2 1 1 0 0 1 0 0 1 1 0 2 0 0 0 0 1 2 1 2 1 2 0 0 0 2 2 2 0 1 2 0 1 0 1 1 1 0 0 1 0 2 0 0 4 1 1 0 0 1 0 1 0 0 1 1 6 0 0 0 1 0 0 1 1 2 1 0 3 0 1 1 0 1 3 0 0 1 0 0 2 0 1 1 2 0 0 0 0 1 0 2 0 0 1 1 1 1 0 1 0 1 1 1 0 2 0 0 1 1 1 2 1 1 2 0 0 2 0 0 0 0 0 0 2 2 1 0 2 1 1 0 4 0 0 0 1 0 1 1 1 1 1 0 0 0 0 1 1 0 1 1 0 0 0 0 0 2 0 2 0 0 2 3 0 0 0 0 1 0 1 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 0 1 1 1 0 0 1 0 1 1 1 0 2 0 0 0 1 0 1 0 1 2 0 3 0 1 0 0 0 1 0 0 2 1 2 0 0 0 1 2 0 0 0 1 1 1 1 0 1 0 0 0 0 0 0 0 2 0 1 1 0 1 1 2 0 0 1 0 3 3 1 0 0 1 0 1 1 0 0 0 2 1 0 1 0 2 3 0 0 0 0 0 0 0 1 0 2 3 1 0 3 0 0 2 1 0 0 1 1 0 0 3 4 0 2 1 0 0 0 1 0 1 0 1 0 1 2 0 0 0 0 2 1 0 3 1 0 1 0 0 0 1 0 1 1 1 0 0 0 0 2 0 1 0 1 0 0 1 0 0 0 2 0 1 1 1 0 0 0 3 0 2 3 0 1 0 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 2 0 1 1 1 0 0 1 0 0 0 1 0 0 1 0 1 0 1 2 1 0 1 1 0 1 0 1 1 1 0 2 0 0 2 2 1 2 2 0 1 0 1 2 1 2 1 0 0 0 0 0 0 1 1 0 0 0 0 0 0 0 0 2 0 0 0 2 1 1 2 1 0 2 1 2 0 0 0 0 1 1 0 0 0 0 1 0 0 4 2 1 1 1 0 0 0 2 0 0 2 0 0 1 0 1 0 0 2 2 1 0 0 1 0 1 0 0 3 0 1 0 0 0 1 0 0 0 0 0 0 1 2 0 1 1 2 0 1 1 0 2 1 1 0 0 3 0 0 0 1 0 0 1 0 0 1 2 2 0 0 0 0 1 0 1 1 0 1 2 1 1 0 1 1 0 0 0 1 2 0 0 1 1 1 2 2 2 0 1 0 1 1 0 2 1 0 0 1 1 1 0 1 0 4 1 0 0 0 1 0 1 0 0 2 0 0 2 1 1 1 1 0 0 0 1 1 2 1 3 0 2 0 1 3 2 2 1 0 0 0 1 0 0 1 1 1 1 0 0 2 0 0 1 0 1 1 0 1 0 2 0 1 0 0 0 1 2 1 0 1 1 2 2 1 1 1 0 2 0 1 0 0 0 0 1 1 1 1 1 1 2 1 1 1 0 1 0 2 0 0 0 1 1 0 1 0 0 2 1 1 3 1 1 1 0 1 1 0 1 1 0 2 2 0 0 1 1 0 1 2 0 1 2 0 0 1 1 1 0 0 1 1 1 0 1 0 0 2 0 1 1 1 1 1 0 1 0 1 0 0 1 0 2 0 0 0 0 0 0 1 2 0 0 1 1 0 1 1 2 2 0 1 0 1 0 1 0 1 0 0 2 2 0 3 0 1 0 0 1 2 1 1 3 0 3 1 1 1 0 1 0 2 0 1 1 0 0 1 0 0 2 2 1 2 0 1 1 0 1 1 0 1 1 1 1 1 1 0 0 0 0 1 0 2 0 1 1 0 0 1 1 2 0 1 0 1 2 0 2 1 1 1 1 1 0 1 0 1 0 1 0 0 0 1 0 2 0 0 0 1 2 1 0 1 3 1 1 0 3 0 2 2 1 0 1 1 0 0 0 0 1 0 1 0 1 1 1 0 0 0 1 0 0 1 0 2 1 1 1 1 0 2 2 1 0 1 0 1 0 1 1 0 1 1 1 0 1 1 1 0 1 0 0 0 1 0 0 0 0 1 0 1 3 3 0 1 0 3 0 0 1 0 2 0 0 0 0 0 0 2 0 2 1 0 0 0 1 0 2 2 0 0 1 3 0 2 0 0 2 0 1 0 1 3 1 1 2 0 2 1 1 2 1 3 0 1 0 2 0 1 0 1 3 0 0 1 0 0 0 1 0 0 0 0 0 3 2 0 0 1 1 0 2 0 1 4 2 2 0 1 0 0 1 1 1 0 0 1 0 0 1 0 1 2 0 0 0 2 1 0 0 2 2 0 1 0 1 1 1 2 0 0 0 1 2 0 2 0 2 1 0 1 1 0 1 0 0 0 0 1 1 1 2 0 1 1 0 1 1 2 2 0 2 1 1 1 0 0 1 2 1 1 0 2 1 0 0 1 1 0 1 0 0 1 1 0 0 0 2 1 0 0 0 1 1 0 1 1 0 0 1 0 0 0 1 0 1 0 2 0 0 0 1 0 0 2 1 2 1 2 0 2 1 1 2 0 0 2 4 0 0 1 1 2 2 2 2 2 1 1 0 0 0 0 1 0 0 1 1 0 0 0 1 1 2 1 0 2 0 2 0 2 1 1 0 0 2 2 0 2 1 1 0 0 1 1 0 0 0 1 1 0 0 1 0 0 0 0 0 3 1 0 0 0 1 0 0 1 0 0 1 1 2 1 0 1 0 0 0 0 1 0 1 0 0 0 2 1 0 1 0 0 0 1 0 0 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 0 0 2 0 0 1 0 0 0 0 1 1 0 0 1 0 1 1 1 0 1 0 1 1 0 1 1 0 0 1 1 0 2 0 0 0 0 0 1 0 0 1 1 0 1 0 0 0 0 0 1 1 1 3 0 2 1 0 0 1 0 1 0 0 1 0 1 0 1 2 1 1 0 2 0 1 0 1 0 0 1 1 2 0 1 1 0 0 0 1 2 0 1 0 0 0 1 1 2 0 1 0 1 1 0 0 1 2 0 1 0 0 0 0 1 0 1 2 0 0 2 2 2 1 3 2 0 3 1 1 0 1 2 0 0 1 0 2 0 1 0 0 1 1 1 0 0 1 1 0 2 0 0 0 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 0 0 2 0 0 0 0 0 1 2 1 0 1 2 1 0 2 3 2 0 0 1 0 1 0 1 1 1 0 0 0 0 3 0 0 1 1 2 1 1 0 1 2 0 1 0 1 1 0 0 0 2 1 1 1 0 0 1 1 1 0 0 0 0 2 1 1 1 0 0 0 1 0 1 1 0 0 0 1 1 0 0 1 0 3 0 0 1 1 0 1 0 0 0 2 0 1 1 1 1 0 1 1 1 0 1 1 2 0 0 0 1 0 1 4 0 1 2 0 0 1 0 1 0 0 0 1 1 0 0 1 1 0 0 1 1 2 1 0 1 1 1 1 1 0 0 0 2 1 0 0 3 0 0 0 0 1 1 0 0 1 1 1 1 1 1 0 1 0 0 1 0 1 1 1 1 0 1 0 0 1 1 0 2 2 1 0 1 1 0 1 2 0 1 1 2 0 1 2 1 2 0 0 0 1 2 0 0 1 3 0 1 0 1 0 0 0 0 0 0 0 1 0 0 0 2 0 1 1 2 1 1 3 3 0 0 2 0 0 0 0 0 0 2 0 0 0 1 0 0 0 0 1 0 2 0 0 0 1 1 1 0 0 0 2 0 0 0 0 0 3 0 1 1 0 1 1 0 1 0 0 0 1 0 1 1 0 0 0 1 2 0 1 0 2 0 0 1 1 2 2 3 1 1 1 1 0 1 0 1 2 0 1 0 1 2 1 0 1 0 0 1 1 1 0 1 2 1 0 0 0 0 1 1 3 1 0 0 1 0 1 0 0 0 0 0 2 1 1 1 0 0 1 1 0 1 1 2 0 2 2 0 2 0 0 1 1 0 0 0 1 0 0 1 1 0 2 1 0 1 0 0 0 0 1 1 0 1 0 2 0 1 2 2 1 1 0 0 2 1 2 0 0 1 0 1 0 1 0 1 1 0 2 1 2 1 1 0 0 1 1 0 0 0 0 0 0 2 0 2 0 0 0 1 0 2 0 1 1 0 1 0 1 2 1 2 1 0 0 1 1 2 0 0 0 2 2 0 0 0 0 0 2 1 0 1 1 0 0 0 1 0 0 1 0 1 0 0 2 0 0 0 1 1 0 1 0 3 1 1 1 0 0 1 0 0 1 1 0 0 0 1 1 1 1 1 0 0 2 2 0 3 0 0 0 1 0 0 0 1 1 1 1 1 1 2 0 0 1 0 0 0 2 0 1 0 1 1 0 0 1 0 1 0 1 1 0 0 1 0 3 1 2 1 2 0 1 0 2 1 1 0 1 1 0 0 0 1 1 0 0 3 0 1 0 2 0 1 1 1 0 4 0 1 1 1 0 0 1 0 2 0 0 3 0 0 2 1 0 0 0 0 1 1 0 2 0 0 1 0 0 1 1 1 0 1 1 0 1 0 1 1 2 0 1 0 0 1 0 0 1 0 0 0 0 0 1 1 1 0 2 1 1 0 2 0 1 0 0 0 1 1 0 1 1 2 0 2 0 0 1 1 3 0 0 1 0 1 0 1 1 0 2 0 2 1 1 0 0 0 0 0 0 0 0 0 3 2 0 0 0 2 3 0 0 2 0 0 0 0 1 4 1 0 1 0 0 0 0 0 0 3 2 0 1 1 0 2 1 2 1 1 0 1 0 2 0 0 1 0 2 0 1 1 0 1 0 0 0 4 0 0 2 0 0 3 0 1 2 0 1 1 1 0 1 0 1 0 1 1 0 1 1 0 0 1 0 2 1 1 0 0 1 2 0 0 0 0 2 1 0 0 0 0 0 0 0 1 1 0 0 0 2 1 0 1 1 3 0 1 1 0 1 0 3 1 0 2 2 1 3 1 1 1 0 0 2 0 1 0 2 1 0 1 0 1 1 0 1 4 0 0 0 3 0 0 2 1 3 1 2 0 0 1 2 0 1 1 1 0 0 1 2 2 0 1 1 1 0 2 0 1 0 1 0 0 1 1 1 1 0 1 1 0 1 0 0 0 2 1 0 2 0 0 2 0 1 0 0 1 0 2 1 1 1 1 2 1 0 0 0 1 1 0 1 1 0 1 1 1 0 0 0 2 0 0 1 0 0 1 0 3 0 0 1 1 0 1 0 0 0 1 0 0 0 0 1 3 0 1 2 1 0 1 0 0 2 3 0 0 0 2 2 0 1 1 2 0 0 1 1 1 1 0 3 2 1 0 2 0 1 1 0 2 1 2 1 0 0 1 1 0 0 0 1 1 0 3 0 0 0 1 0 0 0 0 0 1 0 1 1 1 0 1 1 0 0 0 0 0 2 2 0 1 1 1 0 0 0 1 3 0 1 1 1 0 1 1 0 1 0 3 0 1 0 0 1 1 2 1 2 1 0 0 1 1 2 0 0 2 1 1 0 3 0 1 2 0 1 1 1 0 1 0 0 0 1 0 2 0 0 0 0 2 2 1 0 0 0 0 0 1 0 1 0 1 0 2 0 2 2 0 1 0 0 1 1 0 1 0 1 1 1 1 1 0 1 1 0 0 0 1 0 0 1 1 0 0 2 0 2 0 1 0 1 1 0 0 0 2 0 0 2 1 2 3 0 1 1 0 1 0 0 0 2 1 1 0 0 2 0 1 1 0 1 1 0 2 1 1 1 1 0 0 1 1 1 1 1 2 1 0 0 0 1 1 0 0 0 2 1 1 3 0 1 0 1 3 1 1 0 0 1 0 0 1 2 1 0 2 1 1 1 2 1 1 0 1 0 1 3 0 0 0 0 0 1 0 1 0 0 0 1 1 1 1 0 2 1 0 2 1 0 0 1 1 0 1 1 2 0 1 4 1 1 0 1 1 1 1 1 1 2 0 0 1 0 1 1 1 1 0 1 2 0 0 0 1 0 0 0 3 0 1 1 2 0 2 0 1 0 1 1 0 1 1 2 0 0 1 0 2 0 0 0 0 1 0 1 1 1 0 0 2 2 1 2 0 1 1 0 1 0 1 2 1 0 0 0 0 1 1 0 2 1 0 0 0 0 0 0 0 0 1 1 0 0 1 2 1 0 1 1 1 0 0 0 3 0 2 1 2 0 1 1 0 1 2 2 1 0 0 2 1 1 0 1 0 2 0 1 1 1 0 0 0 2 0 1 0 1 1 2 1 2 1 1 1 3 0 0 1 0 0 0 1 0 0 1 2 0 0 2 2 2 1 0 1 1 0 1 0 1 0 1 0 0 0 0 1 0 0 1 1 2 0 1 0 1 2 2 1 0 0 1 0 1 0 2 3 1 0 0 3 1 3 1 1 1 0 0 1 0 2 0 0 0 0 2 1 1 1 0 2 0 0 0 1 0 2 0 1 1 0 0 2 1 0 0 0 0 1 1 3 0 0 1 1 0 0 1 0 3 1 0 0 3 1 2 2 1 0 0 0 0 2 0 1 0 0 1 1 0 0 0 0 1 0 1 0 0 1 0 0 0 0 0 2 1 0 0 1 0 0 0 1 1 0 2 1 0 0 0 2 1 0 0 0 2 2 0 1 0 1 1 0 1 1 0 1 0 0 2 0 0 1 1 0 2 0 1 1 1 0 1 0 1 1 1 1 1 1 3 0 0 2 1 2 0 0 0 0 0 2 2 0 0 1 1 1 0 0 1 0 0 0 0 1 1 0 0 1 1 2 0 0 1 1 1 1 1 0 0 1 0 2 2 2 2 0 1 3 1 2 0 0 0 1 0 1 1 0 0 0 0 0 0 0 0 2 0 1 2 1 1 0 0 1 1 1 0 0 0 0 2 0 0 1 0 2 0 0 0 0 1 1 0 1 2 2 1 0 0 1 0 1 0 0 0 1 0 2 0 1 1 1 1 0 1 1 0 0 0 2 2 0 0 0 1 0 1 1 1 1 0 2 0 2 1 0 2 1 0 2 1 1 0 1 0 2 1 1 0 0 1 0 1 0 1 0 0 1 0 1 0 0 2 0 1 1 0 0 1 2 2 1 0 0 0 2 0 1 0 1 1 1 1 1 1 0 1 0 0 0 1 1 0 0 2 1 0 1 1 1 2 1 0 1 1 0 0 0 1 1 0 1 2 2 0 0 1 0 0 1 3 2 0 2 1 0 0 0 1 2 2 0 2 2 0 1 1 0 0 0 2 0 0 0 1 2 1 1 0 1 1 0 0 0 0 1 1 1 0 3 0 1 1 0 0 0 2 0 0 0 1 0 1 1 0 1 0 0 0 0 0 2 1 0 1 1 0 0 1 3 0 0 0 1 2 0 0 0 0 0 0 2 0 1 1 0 1 1 0 1 0 1 0 0 0 2 0 0 1 1 1 1 0 1 3 1 1 0 1 1 1 1 1 1 0 0 2 0 0 0 1 1 2 1 2 0 0 0 3 3 0 1 0 1 0 1 1 0 0 0 1 1 1 0 1 0 1 0 0 0 0 0 0 0 2 1 1 0 1 0 0 0 1 0 1 2 1 0 0 3 1 1 0 0 0 0 0 1 3 0 0 0 0 0 4 0 1 0 1 1 0 1 0 2 2 2 1 1 0 1 1 0 0 0 5 0 2 2 0 0 1 1 1 1 0 1 0 1 1 0 1 0 1 1 0 1 1 1 2 0 0 1 1 2 0 0 0 0 2 0 3 0 1 1 2 0 2 3 0 1 0 1 0 2 1 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 1 1 1 2 0 0 0 0 1 0 0 0 1 0 1 0 1 2 1 2 0 1 1 0 0 1 0 2 0 0 0 1 1 0 0 0 2 1 2 0 2 0 1 1 0 0 1 0 0 1 0 0 1 0 1 0 1 1 0 0 3 1 0 0 0 2 0 0 1 1 0 2 0 0 4 0 0 0 2 0 2 0 0 1 1 1 2 1 0 1 1 2 0 0 1 1 2 0 2 0 1 0 1 2 0 0 0 1 0 2 1 0 0 0 1 0 0 0 1 0 1 1 0 0 0 1 0 2 1 0 0 1 1 0 0 3 0 2 0 1 0 0 1 2 0 0 2 1 0 0 1 0 1 0 0 1 2 0 2 1 1 2 1 1 1 2 1 2 0 0 1 1 1 3 1 0 1 0 0 1 0 1 1 0 1 0 1 0 1 1 0 0 3 0 2 1 3 0 0 0 0 2 1 0 1 0 0 0 0 0 0 0 0 0 0 0 0 0 1 0 0 2 1 0 0 1 1 0 0 1 0 4 1 0 2 0 2 0 0 0 1 2 0 1 1 0 0 0 1 0 0 3 1 1 1 2 2 0 2 0 1 1 1 0 0 0 1 1 1 1 1 0 0 0 0 0 2 1 0 1 0 0 1 1 0 1 0 0 0 2 1 0 0 1 1 1 1 2 2 1 1 3 1 1 1 1 1 2 1 1 1 1 0 2 1 0 1 0 2 1 0 1 0 0 0 0 2 2 1 0 0 3 0 1 1 0 0 1 1 0 0 2 0 4 0 0 0 0 0 1 2 1 0 0 2 0 2 1 1 1 1 3 2 1 1 0 1 0 0 1 2 1 1 2 0 2 1 0 3 0 1 2 0 0 0 0 2 0 0 0 2 1 1 0 0 0 0 0 2 1 1 1 0 2 1 2 2 0 1 2 0 2 0 1 0 2 4 1 3 0 0 1 1 1 2 1 0 1 1 1 0 0 3 1 1 1 0 1 1 1 2 1 1 0 1 2 0 0 0 1 0 0 1 1 0 2 0 0 0 0 0 1 1 0 0 0 0 0 1 1 0 0 0 2 0 0 0 1 1 0 0 0 0 2 2 1 0 0 0 2 1 1 2 1 0 1 1 1 0 1 1 2 1 2 1 0 1 0 0 2 0 0 0 0 0 2 0 1 2 0 1 0 0 0 1 0 2 0 0 1 2 1 2 1 0 0 1 0 2 3 1 1 2 2 1 0 0 1 0 0 1 1 2 0 0 1 0 3 1 1 2 3 0 0 1 1 0 1 1 0 0 0 1 0 1 0 0 1 1 1 2 1 0 2 1 1 1 0 2 0 0 1 2 2 1 1 1 2 0 1 0 1 3 1 1 0 1 0 3 0 0 0 1 1 0 0 0 0 1 0 0 0 1 1 0 0 2 0 1 1 1 1 1 0 2 0 0 0 1 1 1 0 0 0 0 2 2 0 1 0 1 0 1 1 0 0 2 0 0 0 1 0 1 1 1 0 1 1 1 1 0 4 0 1 1 1 0 1 2 0 3 0 1 1 1 0 1 1 0 2 1 0 3 0 2 0 1 0 0 0 1 0 1 1 0 0 1 0 1 0 2 0 1 0 0 0 1 2 0 0 1 1 2 0 1 2 1 0 1 0 1 0 0 0 1 0 2 1 0 0 1 1 0 1 0 0 3 0 1 0 0 1 1 1 0 1 1 0 1 0 0 1 1 2 1 0 0 1 0 0 2 0 0 1 0 0 1 0 0 1 0 0 1 0 0 1 1 0 1 0 0 2 1 0 0 0 0 1 0 2 0 1 0 0 1 1 2 1 2 0 0 2 0 0 1 2 0 1 1 1 1 1 0 0 0 0 1 0 1 0 0 0 0 0 0 1 0 0 1 1 3 1 1 0 0 0 2 1 1 1 0 0 0 0 0 1 1 1 1 1 0 1 1 2 1 1 2 0 0 0 1 0 0 1 1 1 0 0 2 0 0 2 1 0 1 1 0 0 0 1 1 0 1 0 2 0 0 2 0 2 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 0 0 1 1 0 0 1 2 0 3 0 2 0 1 0 0 1 0 0 0 2 2 1 1 0 0 0 0 0 0 1 2 1 1 0 1 1 2 2 1 2 0 0 0 3 0 1 0 0 0 0 1 0 0 1 2 0 0 0 0 0 0 0 0 0 3 0 0 2 0 1 3 1 0 2 1 0 0 0 0 2 0 1 1 0 1 0 1 1 1 1 2 1 1 0 2 1 0 0 1 1 1 0 0 1 2 2 2 1 1 0 0 1 0 1 1 1 0 1 1 1 0 1 1 2 0 0 0 1 0 1 2 2 0 1 1 1 2 1 1 1 1 1 0 1 0 0 0 0 1 0 2 2 1 0 1 3 2 0 0 1 1 1 0 1 3 0 1 0 3 1 0 2 1 1 1 1 2 0 2 0 0 2 1 1 1 1 3 1 1 1 0 1 0 1 2 1 1 2 0 2 1 0 1 0 1 1 1 1 0 1 0 0 0 0 1 0 0 1 2 1 0 1 0 1 0 1 0 0 0 0 1 2 0 0 1 1 0 1 0 0 0 2 1 1 0 1 1 0 1 1 1 0 3 1 1 0 0 1 0 0 1 0 1 2 0 1 0 2 0 1 0 0 1 1 2 0 2 1 2 0 0 1 1 0 0 2 0 1 0 2 1 0 0 1 0 0 0 2 3 1 0 0 1 0 0 0 3 1 0 0 0 0 0 2 0 1 0 0 2 1 1 0 0 0 0 1 1 1 0 0 1 1 1 0 1 1 0 0 1 2 0 1 1 2 0 1 1 1 2 3 0 0 1 0 0 0 2 1 1 0 0 0 1 0 1 2 2 3 0 1 0 2 0 0 0 1 0 0 0 0 1 0 1 0 2 0 0 0 2 0 1 2 1 1 2 0 2 0 0 1 0 0 2 0 0 0 0 0 1 0 0 1 1 0 1 1 1 0 0 0 0 0 2 0 0 0 1 2 1 0 0 1 1 2 1 1 1 2 1 0 0 0 0 2 1 1 1 0 1 0 1 2 1 1 0 2 0 1 0 2 0 0 0 1 0 0 1 0 1 0 1 0 0 1 2 0 2 1 0 2 0 2 0 0 0 1 0 0 2 1 0 0 1 0 2 0 0 0 0 1 0 1 0 1 0 0 0 0 0 2 1 0 1 0 0 0 1 0 1 1 1 0 0 0 1 3 0 0 1 0 1 1 0 0 1 0 1 1 0 0 2 2 0 1 0 0 0 2 0 0 2 1 0 1 0 0 1 0 0 0 0 1 0 0 0 0 1 1 0 0 1 1 0 2 0 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 0 0 2 1 1 1 2 1 0 1 1 1 2 2 0 0 0 3 2 1 1 0 1 1 1 1 0 0 0 3 0 0 0 2 0 1 0 0 1 3 1 0 0 1 0 1 0 0 1 0 0 0 0 2 0 1 0 0 0 0 0 0 0 0 0 0 1 1 0 0 1 0 2 0 2 1 1 1 1 0 2 0 1 2 0 2 2 0 2 1 1 2 2 0 1 1 1 1 1 0 0 0 3 4 0 0 0 3 2 1 0 0 0 1 0 0 2 0 3 0 0 1 0 0 0 2 2 1 1 0 0 3 0 1 1 1 1 1 0 0 1 2 0 0 0 3 1 1 0 0 1 0 1 0 0 0 3 1 0 0 0 0 3 0 0 0 2 0 1 1 1 2 2 0 0 0 0 0 0 0 1 0 0 2 0 1 0 0 1 2 2 2 2 1 0 1 2 2 2 0 3 0 0 2 1 0 1 0 0 0 0 0 1 0 1 1 0 0 0 1 0 0 1 2 2 1 0 0 0 0 1 2 0 2 0 1 2 2 1 1 1 0 0 0 0 0 1 1 1 0 2 0 0 0 2 0 0 0 0 0 0 1 0 1 1 1 0 1 0 0 0 0 2 1 1 0 0 1 1 1 0 2 1 0 1 0 0 0 2 2 1 0 1 2 2 1 0 2 0 0 0 0 1 1 0 0 0 0 0 0 3 0 2 2 0 0 3 1 0 1 1 2 0 0 0 0 1 0 1 0 0 0 1 1 1 0 2 3 1 2 1 0 0 0 0 2 2 1 0 1 1 1 0 1 0 0 0 0 2 0 1 1 1 2 0 3 0 0 0 0 1 0 2 1 1 0 0 3 0 1 1 0 0 4 0 0 0 0 1 0 0 1 3 2 2 2 1 1 0 1 2 1 0 0 2 2 0 0 2 0 0 1 0 2 0 0 0 0 0 1 2 1 1 2 1 1 0 0 0 2 1 0 0 1 2 1 2 0 2 0 2 1 0 2 0 0 0 1 1 1 0 0 0 0 2 2 1 2 0 0 1 1 2 0 0 0 0 3 1 2 1 2 0 0 1 1 1 0 1 0 1 1 0 1 0 1 0 0 0 0 0 2 1 1 0 1 2 0 2 2 0 0 1 1 1 1 1 1 2 1 0 0 0 0 1 2 0 0 0 0 1 0 1 0 0 1 0 1 1 1 0 1 0 2 1 0 0 2 1 0 1 0 0 0 2 0 1 0 0 0 0 1 0 1 1 1 1 1 0 0 2 0 0 2 1 0 0 1 1 0 1 0 0 0 0 0 0 3 0 0 0 2 3 2 2 1 0 0 0 2 0 0 2 1 1 0 1 2 1 0 0 0 0 2 1 1 2 0 0 3 0 0 1 0 4 2 2 1 0 0 0 1 2 1 0 0 3 0 1 1 0 1 0 1 0 1 0 3 0 0 0 1 0 0 0 0 1 2 1 1 0 1 0 0 2 1 0 0 0 0 3 1 0 0 1 1 2 0 0 0 0 0 0 1 1 0 1 2 1 1 1 0 1 1 0 2 2 0 0 0 1 2 0 1 0 3 0 0 0 0 1 0 2 0 0 0 2 0 2 1 3 1 1 0 1 1 0 0 1 0 2 2 0 1 1 1 2 2 1 1 0 0 1 0 1 1 1 1 1 0 2 1 0 2 0 1 1 0 0 1 0 1 0 1 1 0 1 0 1 1 1 1 1 1 0 1 1 2 1 2 0 1 2 0 1 1 0 1 1 0 1 1 2 1 1 4 0 1 1 2 1 0 0 2 1 1 1 0 1 0 2 0 1 0 2 2 0 0 0 1 0 0 1 2 1 1 2 1 0 0 1 0 0 0 0 0 2 0 1 0 1 0 0 0 1 0 2 2 1 0 0 1 0 1 1 2 2 1 0 1 0 1 0 1 2 0 0 1 1 1 0 0 0 1 0 0 1 1 0 1 1 1 0 1 0 1 0 0 0 1 2 1 1 2 0 1 0 2 0 0 0 0 1 2 2 0 0 1 1 0 0 0 1 2 0 2 1 0 0 0 0 2 0 1 1 0 1 1 0 1 2 1 0 0 0 0 1 0 0 1 0 0 1 0 0 0 0 0 0 2 1 1 1 0 1 0 1 0 0 2 0 0 2 0 1 2 1 1 0 0 2 1 1 1 1 2 1 1 3 1 3 3 1 0 0 2 0 1 2 2 0 4 1 0 1 2 1 1 0 2 2 1 0 0 0 0 0 1 0 2 1 0 0 1 1 1 2 0 0 1 0 3 0 1 1 0 0 0 2 0 2 1 1 1 2 0 2 1 0 0 1 1 1 3 0 1 1 0 0 1 1 0 1 0 1 0 2 0 0 2 1 0 0 0 0 0 0 1 0 0 0 0 1 1 1 1 2 2 1 1 2 0 0 2 1 1 3 0 0 0 1 2 1 0 0 0 3 1 0 0 0 1 0 1 0 2 0 0 3 1 1 0 0 2 1 0 0 1 0 0 1 1 0 1 0 0 0 0 3 1 1 3 1 0 0 0 0 0 1 1 1 0 0 0 2 1 0 0 1 1 0 0 2 1 0 1 0 0 1 1 0 1 0 1 2 0 0 2 3 1 2 0 0 0 0 2 1 0 1 1 0 0 1 1 0 0 0 0 1 2 0 1 3 0 2 0 2 1 1 0 0 0 0 2 2 1 1 0 1 1 0 2 0 0 1 0 0 0 0 0 1 0 0 2 0 1 0 0 1 1 0 0 0 2 1 1 0 1 1 2 0 0 2 0 0 1 0 0 0 1 1 0 2 0 2 1 1 0 1 1 2 1 0 0 2 0 1 0 2 0 1 1 1 0 1 0 1 2 0 1 2 1 0 0 0 1 2 0 0 0 0 1 0 0 3 1 0 1 1 0 0 0 0 1 0 0 0 0 1 1 0 1 0 0 1 0 1 2 0 0 2 0 1 0 0 1 1 0 1 0 0 1 0 1 0 0 3 0 0 0 1 2 0 0 0 1 1 4 1 0 0 0 1 0 2 1 2 0 0 0 1 1 0 1 0 1 3 0 0 1 0 0 0 0 0 0 0 0 0 1 0 0 0 2 1 0 0 0 2 1 0 2 1 0 1 2 0 1 2 1 0 2 1 0 2 0 0 1 1 2 1 0 0 1 0 2 0 1 0 1 1 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 1 0 0 0 0 1 0 1 2 0 0 1 0 1 0 4 1 3 3 0 0 1 2 0 1 2 1 0 0 0 0 0 0 0 1 1 0 0 0 1 0 1 1 1 0 0 0 0 1 2 1 0 1 1 0 0 1 0 0 1 2 1 2 0 0 0 0 2 1 1 2 3 0 1 1 1 1 0 2 1 0 3 2 0 3 0 1 2 0 1 1 0 0 1 0 2 2 1 2 1 1 1 0 1 2 0 1 0 1 0 0 1 0 2 1 1 1 0 0 1 1 1 1 2 1 0 0 0 1 2 2 1 0 0 1 0 1 1 0 2 0 2 1 0 1 0 0 0 1 1 1 0 0 1 0 3 1 0 1 1 1 0 1 1 0 2 1 1 0 1 1 0 0 2 0 0 0 0 0 0 0 1 1 1 2 0 0 1 0 0 2 1 1 2 3 0 2 0 0 0 1 0 1 1 1 1 1 0 1 1 0 1 0 0 3 2 0 0 1 1 0 0 0 2 0 1 1 3 1 2 1 2 0 1 0 1 0 0 0 0 0 1 0 1 2 2 0 0 2 1 0 0 0 0 1 1 0 0 1 0 1 2 1 0 0 0 1 2 1 1 0 2 0 0 0 1 1 0 0 1 2 2 3 1 0 0 0 1 0 0 1 1 1 0 0 0 1 2 0 0 2 0 0 1 1 1 1 0 2 1 1 0 1 0 1 1 1 1 1 0 0 1 2 0 1 0 0 1 1 0 0 2 0 0 1 1 0 0 3 0 0 2 2 0 1 1 0 1 0 0 0 1 1 0 0 1 0 3 1 1 0 0 1 0 0 1 1 2 0 0 0 2 0 1 0 2 2 1 1 0 1 0 0 0 0 1 1 1 1 1 2 1 0 0 0 0 1 2 0 0 1 0 1 0 0 3 2 0 2 1 1 0 1 0 1 0 2 2 0 0 1 0 0 0 1 1 1 0 1 1 0 3 3 1 0 1 0 0 1 2 1 1 1 0 1 1 1 0 2 1 1 0 2 1 0 0 0 1 1 0 0 0 0 1 3 0 0 0 0 0 0 1 0 1 1 0 2 1 0 1 2 2 1 0 0 1 0 0 1 1 0 0 0 0 0 2 0 0 2 1 0 0 0 1 2 0 0 1 2 2 0 3 0 0 1 1 2 0 1 0 0 2 2 1 0 1 2 2 1 1 0 1 2 0 2 2 0 1 0 0 1 1 0 0 0 0 0 0 2 1 1 1 0 2 1 0 1 0 0 0 1 2 0 2 0 1 1 0 1 1 0 0 1 2 0 0 1 0 1 0 0 1 2 0 2 1 2 1 0 1 0 0 3 0 0 0 1 0 0 1 1 0 1 1 0 1 0 0 1 1 1 0 0 1 2 3 0 0 0 2 1 0 4 1 0 0 1 1 1 0 0 0 1 1 1 2 0 1 0 1 0 2 0 1 0 3 2 0 0 0 0 0 1 3 0 1 0 1 2 1 2 0 1 2 0 1 1 0 0 2 1 0 0 0 1 0 1 1 1 0 1 0 1 0 4 0 0 1 1 1 0 0 0 0 0 0 0 0 0 1 1 1 0 0 0 0 0 1 1 0 0 0 0 1 0 1 0 1 2 1 0 1 1 0 1 1 1 1 0 1 0 0 1 1 1 1 1 0 1 0 0 0 0 1 2 1 2 0 1 1 2 2 0 1 0 1 1 0 1 2 1 1 2 0 0 1 1 0 0 1 1 1 1 0 2 1 1 1 2 0 0 1 1 0 2 0 2 2 0 1 1 1 4 0 1 0 1 1 1 0 0 2 2 1 1 0 2 0 1 1 0 0 0 0 1 0 1 0 1 0 0 0 1 1 0 0 1 0 1 0 1 1 0 0 0 0 0 1 0 1 0 2 2 0 1 0 1 1 1 0 0 0 0 0 1 3 0 1 1 0 0 1 0 2 1 1 0 1 2 1 2 1 1 1 2 1 0 1 1 0 0 2 1 1 2 0 0 1 0 0 0 0 1 0 1 0 1 0 0 1 0 1 1 0 0 1 2 2 0 0 0 2 0 0 0 1 0 1 1 1 0 1 0 2 0 0 0 1 0 1 0 0 1 1 0 2 1 1 1 2 0 0 0 2 2 0 2 0 1 1 1 1 0 0 1 1 1 0 1 2 0 0 1 1 1 2 0 2 1 0 0 3 0 2 0 0 0 1 1 0 1 0 1 1 1 0 1 0 0 2 0 0 0 1 0 2 0 1 0 1 1 0 0 0 0 0 1 0 0 0 0 1 1 1 1 0 1 0 0 1 0 0 0 1 0 0 1 1 2 0 0 0 0 1 0 2 0 1 1 1 2 1 2 0 1 2 3 0 0 1 1 1 0 0 0 0 1 0 1 2 0 0 2 1 0 1 2 2 0 1 0 0 0 1 1 1 3 1 1 2 0 0 0 1 0 1 1 0 3 3 0 1 1 0 0 1 0 1 0 0 0 1 1 0 2 1 0 0 1 0 1 2 1 0 1 0 0 2 1 1 0 1 1 0 2 2 2 1 0 2 0 1 2 2 1 2 0 0 0 0 0 0 0 2 1 0 2 1 0 0 1 0 1 0 0 1 0 0 0 1 0 0 1 1 0 1 1 2 1 1 0 0 1 1 1 1 2 1 0 1 0 2 2 0 2 0 0 2 0 0 0 1 0 1 1 1 1 0 1 0 0 0 1 1 1 0 1 0 0 0 1 1 0 2 0 1 1 1 0 2 1 0 1 0 1 1 0 2 1 0 0 1 0 0 0 0 0 0 0 0 1 2 1 1 1 0 1 0 1 1 3 0 0 0 1 1 2 1 2 1 1 1 0 2 0 0 1 0 1 1 0 2 1 0 0 2 0 0 2 0 1 1 0 0 0 1 1 1 2 1 0 1 0 1 0 0 0 2 1 0 0 0 0 1 4 0 0 0 0 0 1 1 0 1 2 0 0 0 0 1 0 0 1 2 0 0 0 1 1 1 0 0 0 0 1 0 0 0 1 1 0 3 3 0 2 1 0 1 0 0 1 0 1 1 1 1 1 1 0 1 1 0 1 1 2 0 0 2 0 0 2 1 1 3 1 0 0 0 2 1 0 1 1 1 1 0 2 0 1 0 2 2 0 0 0 4 0 0 0 0 1 0 1 0 0 1 0 0 1 0 0 1 0 0 2 0 1 0 0 1 0 0 1 1 0 1 1 0 1 0 1 1 0 1 0 1 0 1 0 1 0 1 1 1 0 0 0 0 0 1 1 2 2 0 2 1 0 3 3 0 1 1 3 0 0 0 0 0 0 2 1 1 0 1 1 0 3 0 0 1 2 1 0 1 0 0 0 0 1 3 2 0 1 1 1 1 1 1 2 1 2 1 1 0 0 1 0 1 0 1 0 1 0 0 1 2 0 1 0 2 0 1 2 0 0 0 1 0 2 1 2 1 0 3 0 1 2 0 0 3 1 0 0 3 3 0 1 0 0 1 1 1 0 2 0 0 1 0 1 0 0 1 1 2 0 0 1 0 0 0 0 1 0 1 0 0 0 1 0 1 0 1 1 0 0 0 0 0 0 1 0 0 4 2 1 0 0 2 0 1 2 0 2 2 0 2 1 1 1 0 0 3 1 1 0 2 0 0 2 0 0 1 0 0 0 0 0 2 1 1 0 4 1 0 2 1 1 1 1 1 0 0 0 0 1 0 2 2 1 1 0 0 1 1 0 1 0 1 0 1 0 1 3 2 0 1 0 1 1 1 1 1 0 2 0 0 0 1 0 0 1 1 2 2 1 0 0 0 1 1 0 1 1 0 0 0 0 0 3 2 0 1 3 1 0 0 1 2 2 2 0 2 0 4 1 1 1 0 1 1 2 0 2 0 1 0 1 1 2 0 0 1 0 0 2 0 0 2 0 0 1 1 1 0 1 0 2 0 1 0 1 0 0 1 1 0 3 2 0 1 0 0 0 1 1 0 1 0 0 1 1 2 0 0 1 1 1 0 0 2 1 3 0 1 0 1 0 1 1 1 0 1 1 1 0 0 0 0 2 0 1 1 0 1 1 1 2 0 1 0 0 1 0 1 0 2 0 0 0 2 0 1 0 0 1 0 1 0 1 1 0 1 0 1 0 0 2 0 1 0 0 1 0 3 2 0 0 1 0 1 0 1 0 0 2 2 0 4 0 0 2 1 1 0 2 0 1 1 1 1 0 1 0 2 0 1 2 1 2 1 1 0 1 1 0 2 0 0 2 3 2 0 2 0 0 2 0 0 0 0 0 0 0 1 0 0 0 0 0 1 1 1 0 0 1 2 0 1 2 0 1 1 0 1 0 1 1 0 1 0 0 0 0 0 0 1 1 1 0 1 1 0 1 1 0 0 0 2 0 0 0 0 0 1 4 1 0 1 2 2 0 0 0 1 2 4 0 0 3 1 1 1 0 0 1 1 0 0 0 2 0 0 0 1 1 1 0 1 0 1 1 1 1 0 0 1 1 0 2 0 2 0 0 1 1 1 1 1 0 2 1 1 2 0 0 0 0 1 0 1 0 0 0 2 1 1 0 1 1 0 1 2 2 1 0 0 2 0 1 0 0 1 0 1 1 0 2 0 0 0 1 0 0 1 1 1 1 1 1 1 1 1 0 2 3 1 1 1 1 0 1 0 0 1 0 1 0 0 0 0 0 1 1 0 1 0 0 1 2 0 0 1 2 0 1 1 1 1 1 0 1 0 2 0 0 0 0 0 3 1 0 0 2 1 1 0 0 3 1 1 0 2 0 2 0 0 0 1 1 0 0 0 0 0 1</t>
   </si>
   <si>
     <t>D.Carr</t>
@@ -764,13 +764,13 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>48.1</v>
+        <v>48.4</v>
       </c>
       <c r="C2">
-        <v>51.1</v>
+        <v>50.9</v>
       </c>
       <c r="D2">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="E2">
         <v>-0.3</v>
@@ -782,7 +782,7 @@
         <v>12</v>
       </c>
       <c r="H2">
-        <v>38.5</v>
+        <v>38.3</v>
       </c>
       <c r="I2" t="s">
         <v>13</v>
@@ -791,10 +791,10 @@
         <v>14</v>
       </c>
       <c r="K2">
-        <v>4.83</v>
+        <v>4.9</v>
       </c>
       <c r="L2">
-        <v>5.02</v>
+        <v>5.09</v>
       </c>
     </row>
   </sheetData>
@@ -841,28 +841,28 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="C2">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D2">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>240.81</v>
+        <v>239.49</v>
       </c>
       <c r="F2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>0.26</v>
       </c>
       <c r="H2">
-        <v>113.64</v>
+        <v>114.04</v>
       </c>
       <c r="I2">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -982,37 +982,37 @@
         <v>47</v>
       </c>
       <c r="C2">
-        <v>23.8</v>
+        <v>23.7</v>
       </c>
       <c r="D2">
-        <v>33.1</v>
+        <v>33</v>
       </c>
       <c r="E2">
-        <v>240.8</v>
+        <v>239.48</v>
       </c>
       <c r="F2">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="G2">
         <v>0.26</v>
       </c>
       <c r="H2">
-        <v>0.07000000000000001</v>
+        <v>0.05</v>
       </c>
       <c r="I2">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="J2">
-        <v>6.05</v>
+        <v>-0.15</v>
       </c>
       <c r="K2">
-        <v>0.06</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0.06</v>
+        <v>0.05</v>
       </c>
       <c r="M2">
-        <v>14.93</v>
+        <v>13.89</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -1038,22 +1038,22 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="I3">
-        <v>0.1</v>
+        <v>1.5</v>
       </c>
       <c r="J3">
-        <v>0.29</v>
+        <v>6.57</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>0.06</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="M3">
-        <v>0.04</v>
+        <v>0.97</v>
       </c>
     </row>
   </sheetData>
@@ -1112,34 +1112,34 @@
         <v>54</v>
       </c>
       <c r="C2">
-        <v>2.84</v>
+        <v>2.82</v>
       </c>
       <c r="D2">
-        <v>27.99</v>
+        <v>27.87</v>
       </c>
       <c r="E2">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="F2">
-        <v>0.26</v>
+        <v>0.25</v>
       </c>
       <c r="G2">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="H2">
-        <v>51.06</v>
+        <v>51.53</v>
       </c>
       <c r="I2">
-        <v>0.4</v>
+        <v>0.39</v>
       </c>
       <c r="J2">
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>13.5</v>
+        <v>13.43</v>
       </c>
       <c r="L2">
-        <v>10.66</v>
+        <v>10.6</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1150,10 +1150,10 @@
         <v>55</v>
       </c>
       <c r="C3">
-        <v>1.84</v>
+        <v>1.82</v>
       </c>
       <c r="D3">
-        <v>18.27</v>
+        <v>18.01</v>
       </c>
       <c r="E3">
         <v>0.09</v>
@@ -1165,19 +1165,19 @@
         <v>11.8</v>
       </c>
       <c r="H3">
-        <v>51.9</v>
+        <v>51.63</v>
       </c>
       <c r="I3">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="J3">
         <v>0.01</v>
       </c>
       <c r="K3">
-        <v>11.34</v>
+        <v>11.27</v>
       </c>
       <c r="L3">
-        <v>9.5</v>
+        <v>9.449999999999999</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1188,13 +1188,13 @@
         <v>56</v>
       </c>
       <c r="C4">
-        <v>4.5</v>
+        <v>4.48</v>
       </c>
       <c r="D4">
-        <v>45.89</v>
+        <v>45.64</v>
       </c>
       <c r="E4">
-        <v>0.24</v>
+        <v>0.23</v>
       </c>
       <c r="F4">
         <v>0.08</v>
@@ -1212,10 +1212,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.45</v>
+        <v>10.36</v>
       </c>
       <c r="L4">
-        <v>5.95</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1226,10 +1226,10 @@
         <v>57</v>
       </c>
       <c r="C5">
-        <v>4.4</v>
+        <v>4.36</v>
       </c>
       <c r="D5">
-        <v>44.16</v>
+        <v>43.92</v>
       </c>
       <c r="E5">
         <v>0.23</v>
@@ -1250,10 +1250,10 @@
         <v>0.01</v>
       </c>
       <c r="K5">
-        <v>10.05</v>
+        <v>10</v>
       </c>
       <c r="L5">
-        <v>5.64</v>
+        <v>5.63</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -1264,10 +1264,10 @@
         <v>58</v>
       </c>
       <c r="C6">
-        <v>3.52</v>
+        <v>3.53</v>
       </c>
       <c r="D6">
-        <v>36.91</v>
+        <v>36.69</v>
       </c>
       <c r="E6">
         <v>0.19</v>
@@ -1291,7 +1291,7 @@
         <v>8.24</v>
       </c>
       <c r="L6">
-        <v>4.72</v>
+        <v>4.71</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -1302,10 +1302,10 @@
         <v>59</v>
       </c>
       <c r="C7">
-        <v>3.39</v>
+        <v>3.37</v>
       </c>
       <c r="D7">
-        <v>34.55</v>
+        <v>34.41</v>
       </c>
       <c r="E7">
         <v>0.18</v>
@@ -1326,10 +1326,10 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>7.82</v>
+        <v>7.76</v>
       </c>
       <c r="L7">
-        <v>4.43</v>
+        <v>4.39</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -1340,10 +1340,10 @@
         <v>60</v>
       </c>
       <c r="C8">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="D8">
-        <v>19.8</v>
+        <v>19.61</v>
       </c>
       <c r="E8">
         <v>0.1</v>
@@ -1364,10 +1364,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.51</v>
+        <v>4.46</v>
       </c>
       <c r="L8">
-        <v>2.53</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1378,10 +1378,10 @@
         <v>61</v>
       </c>
       <c r="C9">
-        <v>0.66</v>
+        <v>0.67</v>
       </c>
       <c r="D9">
-        <v>6.49</v>
+        <v>6.63</v>
       </c>
       <c r="E9">
         <v>0.03</v>
@@ -1402,10 +1402,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="L9">
-        <v>0.83</v>
+        <v>0.84</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1419,13 +1419,13 @@
         <v>0.31</v>
       </c>
       <c r="D10">
-        <v>3.07</v>
+        <v>3.09</v>
       </c>
       <c r="E10">
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1440,10 +1440,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.71</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="L10">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1454,16 +1454,16 @@
         <v>63</v>
       </c>
       <c r="C11">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="D11">
-        <v>2.49</v>
+        <v>2.36</v>
       </c>
       <c r="E11">
         <v>0.01</v>
       </c>
       <c r="F11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1478,10 +1478,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.57</v>
+        <v>0.54</v>
       </c>
       <c r="L11">
-        <v>0.31</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1492,10 +1492,10 @@
         <v>64</v>
       </c>
       <c r="C12">
-        <v>0.12</v>
+        <v>0.13</v>
       </c>
       <c r="D12">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="E12">
         <v>0.01</v>
@@ -1507,7 +1507,7 @@
         <v>0.3</v>
       </c>
       <c r="H12">
-        <v>1.21</v>
+        <v>1.27</v>
       </c>
       <c r="I12">
         <v>0.01</v>
@@ -1516,10 +1516,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.44</v>
+        <v>0.46</v>
       </c>
       <c r="L12">
-        <v>0.32</v>
+        <v>0.33</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1545,7 +1545,7 @@
         <v>0.4</v>
       </c>
       <c r="H13">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="I13">
         <v>0.01</v>
@@ -1554,10 +1554,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
       <c r="L13">
-        <v>0.22</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1583,7 +1583,7 @@
         <v>0.2</v>
       </c>
       <c r="H14">
-        <v>0.85</v>
+        <v>0.92</v>
       </c>
       <c r="I14">
         <v>0.01</v>
@@ -1797,25 +1797,25 @@
         <v>77</v>
       </c>
       <c r="C2">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="D2">
-        <v>1.97</v>
+        <v>1.95</v>
       </c>
       <c r="E2">
-        <v>1.09</v>
+        <v>1.11</v>
       </c>
       <c r="F2">
-        <v>1.21</v>
+        <v>1.24</v>
       </c>
       <c r="G2">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="H2">
-        <v>0.64</v>
+        <v>0.66</v>
       </c>
       <c r="I2">
-        <v>6.76</v>
+        <v>6.88</v>
       </c>
     </row>
   </sheetData>
@@ -1862,7 +1862,7 @@
         <v>23</v>
       </c>
       <c r="B2">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="C2">
         <v>22.9</v>
@@ -1871,16 +1871,16 @@
         <v>34.7</v>
       </c>
       <c r="E2">
-        <v>259.61</v>
+        <v>259.17</v>
       </c>
       <c r="F2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G2">
         <v>0.46</v>
       </c>
       <c r="H2">
-        <v>86.01000000000001</v>
+        <v>85.73</v>
       </c>
       <c r="I2">
         <v>0.72</v>
@@ -2009,10 +2009,10 @@
         <v>34.7</v>
       </c>
       <c r="E2">
-        <v>259.59</v>
+        <v>259.15</v>
       </c>
       <c r="F2">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="G2">
         <v>0.46</v>
@@ -2024,7 +2024,7 @@
         <v>2.8</v>
       </c>
       <c r="J2">
-        <v>8.94</v>
+        <v>9.17</v>
       </c>
       <c r="K2">
         <v>0.08</v>
@@ -2033,7 +2033,7 @@
         <v>0.05</v>
       </c>
       <c r="M2">
-        <v>16.44</v>
+        <v>16.38</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -2059,13 +2059,13 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="I3">
         <v>0.5</v>
       </c>
       <c r="J3">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
       <c r="K3">
         <v>0.02</v>
@@ -2074,7 +2074,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.33</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -2106,10 +2106,10 @@
         <v>0.1</v>
       </c>
       <c r="J4">
-        <v>0.6</v>
+        <v>0.61</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -2174,22 +2174,22 @@
         <v>97</v>
       </c>
       <c r="C2">
-        <v>6.55</v>
+        <v>6.54</v>
       </c>
       <c r="D2">
-        <v>71.7</v>
+        <v>71.54000000000001</v>
       </c>
       <c r="E2">
         <v>0.38</v>
       </c>
       <c r="F2">
-        <v>0.06</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="G2">
         <v>0.2</v>
       </c>
       <c r="H2">
-        <v>0.75</v>
+        <v>0.73</v>
       </c>
       <c r="I2">
         <v>0.01</v>
@@ -2198,10 +2198,10 @@
         <v>0.01</v>
       </c>
       <c r="K2">
-        <v>15.99</v>
+        <v>15.94</v>
       </c>
       <c r="L2">
-        <v>9.44</v>
+        <v>9.4</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -2212,25 +2212,25 @@
         <v>98</v>
       </c>
       <c r="C3">
-        <v>3.34</v>
+        <v>3.37</v>
       </c>
       <c r="D3">
-        <v>35.83</v>
+        <v>36.02</v>
       </c>
       <c r="E3">
         <v>0.19</v>
       </c>
       <c r="F3">
-        <v>0.16</v>
+        <v>0.17</v>
       </c>
       <c r="G3">
         <v>12.3</v>
       </c>
       <c r="H3">
-        <v>50.43</v>
+        <v>49.82</v>
       </c>
       <c r="I3">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="J3">
         <v>0.01</v>
@@ -2239,7 +2239,7 @@
         <v>15.27</v>
       </c>
       <c r="L3">
-        <v>11.93</v>
+        <v>11.9</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -2250,16 +2250,16 @@
         <v>99</v>
       </c>
       <c r="C4">
-        <v>4.24</v>
+        <v>4.22</v>
       </c>
       <c r="D4">
-        <v>49.31</v>
+        <v>49.17</v>
       </c>
       <c r="E4">
-        <v>0.27</v>
+        <v>0.26</v>
       </c>
       <c r="F4">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -2274,10 +2274,10 @@
         <v>0.01</v>
       </c>
       <c r="K4">
-        <v>10.74</v>
+        <v>10.65</v>
       </c>
       <c r="L4">
-        <v>6.5</v>
+        <v>6.43</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -2288,13 +2288,13 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
       <c r="D5">
-        <v>25.43</v>
+        <v>25.66</v>
       </c>
       <c r="E5">
-        <v>0.14</v>
+        <v>0.15</v>
       </c>
       <c r="F5">
         <v>0.02</v>
@@ -2312,10 +2312,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>5.45</v>
+        <v>5.5</v>
       </c>
       <c r="L5">
-        <v>3.42</v>
+        <v>3.46</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -2329,7 +2329,7 @@
         <v>2.1</v>
       </c>
       <c r="D6">
-        <v>23.3</v>
+        <v>23.33</v>
       </c>
       <c r="E6">
         <v>0.12</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>5.14</v>
+        <v>5.11</v>
       </c>
       <c r="L6">
-        <v>3.04</v>
+        <v>3.01</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -2367,10 +2367,10 @@
         <v>0.82</v>
       </c>
       <c r="D7">
-        <v>9.02</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="E7">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="F7">
         <v>0.06</v>
@@ -2379,7 +2379,7 @@
         <v>4.6</v>
       </c>
       <c r="H7">
-        <v>18.77</v>
+        <v>18.89</v>
       </c>
       <c r="I7">
         <v>0.16</v>
@@ -2388,10 +2388,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>4.67</v>
+        <v>4.71</v>
       </c>
       <c r="L7">
-        <v>3.85</v>
+        <v>3.89</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -2402,10 +2402,10 @@
         <v>103</v>
       </c>
       <c r="C8">
-        <v>1.69</v>
+        <v>1.68</v>
       </c>
       <c r="D8">
-        <v>21.07</v>
+        <v>20.94</v>
       </c>
       <c r="E8">
         <v>0.12</v>
@@ -2417,7 +2417,7 @@
         <v>0.1</v>
       </c>
       <c r="H8">
-        <v>0.36</v>
+        <v>0.35</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -2426,10 +2426,10 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>4.52</v>
+        <v>4.49</v>
       </c>
       <c r="L8">
-        <v>2.84</v>
+        <v>2.81</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -2440,13 +2440,13 @@
         <v>104</v>
       </c>
       <c r="C9">
-        <v>0.65</v>
+        <v>0.67</v>
       </c>
       <c r="D9">
-        <v>6.93</v>
+        <v>7.01</v>
       </c>
       <c r="E9">
-        <v>0.04</v>
+        <v>0.03</v>
       </c>
       <c r="F9">
         <v>0.01</v>
@@ -2458,16 +2458,16 @@
         <v>1.65</v>
       </c>
       <c r="I9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.83</v>
+        <v>1.81</v>
       </c>
       <c r="L9">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -2478,10 +2478,10 @@
         <v>105</v>
       </c>
       <c r="C10">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D10">
-        <v>5.47</v>
+        <v>5.16</v>
       </c>
       <c r="E10">
         <v>0.03</v>
@@ -2493,7 +2493,7 @@
         <v>0.1</v>
       </c>
       <c r="H10">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -2502,10 +2502,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.21</v>
+        <v>1.15</v>
       </c>
       <c r="L10">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -2516,10 +2516,10 @@
         <v>106</v>
       </c>
       <c r="C11">
-        <v>0.41</v>
+        <v>0.4</v>
       </c>
       <c r="D11">
-        <v>4.49</v>
+        <v>4.37</v>
       </c>
       <c r="E11">
         <v>0.02</v>
@@ -2531,7 +2531,7 @@
         <v>0.2</v>
       </c>
       <c r="H11">
-        <v>0.63</v>
+        <v>0.65</v>
       </c>
       <c r="I11">
         <v>0.01</v>
@@ -2540,10 +2540,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="L11">
-        <v>0.68</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -2557,7 +2557,7 @@
         <v>0.33</v>
       </c>
       <c r="D12">
-        <v>3.51</v>
+        <v>3.53</v>
       </c>
       <c r="E12">
         <v>0.02</v>
@@ -2578,10 +2578,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="L12">
-        <v>0.45</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -2595,7 +2595,7 @@
         <v>0.13</v>
       </c>
       <c r="D13">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="E13">
         <v>0.01</v>
@@ -2607,7 +2607,7 @@
         <v>0.1</v>
       </c>
       <c r="H13">
-        <v>0.36</v>
+        <v>0.37</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -2616,10 +2616,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.37</v>
+        <v>0.35</v>
       </c>
       <c r="L13">
-        <v>0.23</v>
+        <v>0.22</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -2630,10 +2630,10 @@
         <v>109</v>
       </c>
       <c r="C14">
-        <v>0.13</v>
+        <v>0.14</v>
       </c>
       <c r="D14">
-        <v>1.38</v>
+        <v>1.43</v>
       </c>
       <c r="E14">
         <v>0.01</v>
@@ -2654,10 +2654,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.31</v>
+        <v>0.33</v>
       </c>
       <c r="L14">
-        <v>0.18</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -2668,10 +2668,10 @@
         <v>110</v>
       </c>
       <c r="C15">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="D15">
-        <v>0.74</v>
+        <v>0.66</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -2692,10 +2692,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.16</v>
+        <v>0.15</v>
       </c>
       <c r="L15">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -2783,25 +2783,25 @@
         <v>112</v>
       </c>
       <c r="C2">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="D2">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="E2">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="F2">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="G2">
         <v>0.5</v>
       </c>
       <c r="H2">
-        <v>0.67</v>
+        <v>0.68</v>
       </c>
       <c r="I2">
-        <v>7.56</v>
+        <v>7.57</v>
       </c>
     </row>
   </sheetData>
